--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A907C123-0D07-4096-9CE5-20FFA98C450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BF472A-FF63-48B5-B366-C228DCAE1289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31005" yWindow="2595" windowWidth="30135" windowHeight="17865" activeTab="1" xr2:uid="{156D52ED-B19E-4419-BD0D-F268A75B52E2}"/>
+    <workbookView xWindow="16875" yWindow="2040" windowWidth="29250" windowHeight="18735" activeTab="1" xr2:uid="{156D52ED-B19E-4419-BD0D-F268A75B52E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -796,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -938,10 +938,10 @@
   <dimension ref="A1:CH48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD1" sqref="AD1"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BF472A-FF63-48B5-B366-C228DCAE1289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CAAE0C-EC16-4D79-A6E3-3A747D85994F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="2040" windowWidth="29250" windowHeight="18735" activeTab="1" xr2:uid="{156D52ED-B19E-4419-BD0D-F268A75B52E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{156D52ED-B19E-4419-BD0D-F268A75B52E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -384,7 +384,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{802EC514-84F4-4026-970E-28421B8E22B3}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -796,7 +798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -815,7 +817,7 @@
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -828,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>156.19999999999999</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -854,7 +856,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>384252</v>
+        <v>654360</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -894,7 +896,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>382059</v>
+        <v>652167</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -938,10 +940,10 @@
   <dimension ref="A1:CH48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1217,32 +1219,32 @@
         <v>26923</v>
       </c>
       <c r="X9" s="8">
-        <f>+W9*1.3</f>
-        <v>34999.9</v>
+        <f>+W9*1.4</f>
+        <v>37692.199999999997</v>
       </c>
       <c r="Y9" s="8">
-        <f>+X9*1.3</f>
-        <v>45499.87</v>
+        <f t="shared" ref="Y9:AC9" si="0">+X9*1.4</f>
+        <v>52769.079999999994</v>
       </c>
       <c r="Z9" s="8">
-        <f t="shared" ref="Z9:AB9" si="0">+Y9*1.3</f>
-        <v>59149.831000000006</v>
+        <f>+Y9*1.3</f>
+        <v>68599.803999999989</v>
       </c>
       <c r="AA9" s="8">
-        <f t="shared" si="0"/>
-        <v>76894.780300000013</v>
+        <f t="shared" ref="AA9:AD9" si="1">+Z9*1.3</f>
+        <v>89179.74519999999</v>
       </c>
       <c r="AB9" s="8">
-        <f t="shared" si="0"/>
-        <v>99963.214390000023</v>
-      </c>
-      <c r="AC9" s="7">
-        <f>+AB9*1.01</f>
-        <v>100962.84653390002</v>
-      </c>
-      <c r="AD9" s="7">
-        <f t="shared" ref="AD9" si="1">+AC9*1.01</f>
-        <v>101972.47499923903</v>
+        <f t="shared" si="1"/>
+        <v>115933.66875999999</v>
+      </c>
+      <c r="AC9" s="8">
+        <f t="shared" si="1"/>
+        <v>150713.76938799999</v>
+      </c>
+      <c r="AD9" s="8">
+        <f t="shared" si="1"/>
+        <v>195927.90020439998</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1302,31 +1304,31 @@
       </c>
       <c r="X10" s="4">
         <f>+X9-X11</f>
-        <v>12949.963</v>
+        <v>13946.113999999998</v>
       </c>
       <c r="Y10" s="4">
         <f>+Y9-Y11</f>
-        <v>16834.9519</v>
+        <v>19524.559600000001</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" ref="Z10:AB10" si="2">+Z9-Z11</f>
-        <v>21885.437470000004</v>
+        <v>25381.927479999998</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="2"/>
-        <v>28451.068711000007</v>
+        <v>32996.505723999995</v>
       </c>
       <c r="AB10" s="4">
         <f t="shared" si="2"/>
-        <v>36986.389324300006</v>
+        <v>42895.457441199993</v>
       </c>
       <c r="AC10" s="4">
         <f t="shared" ref="AC10" si="3">+AC9-AC11</f>
-        <v>37356.25321754301</v>
+        <v>55764.094673560001</v>
       </c>
       <c r="AD10" s="4">
         <f t="shared" ref="AD10" si="4">+AD9-AD11</f>
-        <v>37729.815749718437</v>
+        <v>72493.323075627995</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1398,31 +1400,31 @@
       </c>
       <c r="X11" s="4">
         <f>+X9*0.63</f>
-        <v>22049.937000000002</v>
+        <v>23746.085999999999</v>
       </c>
       <c r="Y11" s="4">
         <f>+Y9*0.63</f>
-        <v>28664.918100000003</v>
+        <v>33244.520399999994</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" ref="Z11:AB11" si="6">+Z9*0.63</f>
-        <v>37264.393530000001</v>
+        <v>43217.876519999991</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="6"/>
-        <v>48443.711589000006</v>
+        <v>56183.239475999995</v>
       </c>
       <c r="AB11" s="4">
         <f t="shared" si="6"/>
-        <v>62976.825065700017</v>
+        <v>73038.211318799993</v>
       </c>
       <c r="AC11" s="4">
         <f t="shared" ref="AC11:AD11" si="7">+AC9*0.63</f>
-        <v>63606.593316357015</v>
+        <v>94949.674714439985</v>
       </c>
       <c r="AD11" s="4">
         <f t="shared" si="7"/>
-        <v>64242.659249520591</v>
+        <v>123434.57712877198</v>
       </c>
     </row>
     <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1756,31 +1758,31 @@
       </c>
       <c r="X15" s="4">
         <f t="shared" si="27"/>
-        <v>14162.077000000001</v>
+        <v>15858.225999999999</v>
       </c>
       <c r="Y15" s="4">
         <f t="shared" si="27"/>
-        <v>20514.972100000003</v>
+        <v>25094.574399999994</v>
       </c>
       <c r="Z15" s="4">
         <f t="shared" ref="Z15" si="28">+Z11-Z14</f>
-        <v>28826.15293</v>
+        <v>34779.635919999986</v>
       </c>
       <c r="AA15" s="4">
         <f t="shared" ref="AA15" si="29">+AA11-AA14</f>
-        <v>39688.346929000007</v>
+        <v>47427.874815999996</v>
       </c>
       <c r="AB15" s="4">
         <f t="shared" ref="AB15" si="30">+AB11-AB14</f>
-        <v>53872.623939700017</v>
+        <v>63934.010192799993</v>
       </c>
       <c r="AC15" s="4">
         <f t="shared" ref="AC15" si="31">+AC11-AC14</f>
-        <v>54464.020179097017</v>
+        <v>85807.101577179987</v>
       </c>
       <c r="AD15" s="4">
         <f t="shared" ref="AD15" si="32">+AD11-AD14</f>
-        <v>55061.330380887986</v>
+        <v>114253.24826013939</v>
       </c>
     </row>
     <row r="16" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1853,27 +1855,27 @@
       </c>
       <c r="Y16" s="2">
         <f t="shared" ref="Y16:AD16" si="34">+X27*$AG$26</f>
-        <v>160.826323</v>
+        <v>176.09166399999998</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="34"/>
-        <v>346.90850880700003</v>
+        <v>403.52765857599996</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="34"/>
-        <v>609.466061756263</v>
+        <v>720.17613078318391</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="34"/>
-        <v>972.14637867306942</v>
+        <v>1153.5085893042324</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="34"/>
-        <v>1465.7493115384273</v>
+        <v>1739.2962583431706</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="34"/>
-        <v>1969.1172369541462</v>
+        <v>2527.2138388628791</v>
       </c>
     </row>
     <row r="17" spans="2:86" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1945,31 +1947,31 @@
       </c>
       <c r="X17" s="4">
         <f t="shared" si="37"/>
-        <v>14195.147000000001</v>
+        <v>15891.295999999998</v>
       </c>
       <c r="Y17" s="4">
         <f t="shared" si="37"/>
-        <v>20675.798423000004</v>
+        <v>25270.666063999994</v>
       </c>
       <c r="Z17" s="4">
         <f t="shared" ref="Z17:AB17" si="38">+Z15+Z16</f>
-        <v>29173.061438806999</v>
+        <v>35183.163578575986</v>
       </c>
       <c r="AA17" s="4">
         <f t="shared" si="38"/>
-        <v>40297.812990756269</v>
+        <v>48148.05094678318</v>
       </c>
       <c r="AB17" s="4">
         <f t="shared" si="38"/>
-        <v>54844.770318373085</v>
+        <v>65087.518782104227</v>
       </c>
       <c r="AC17" s="4">
         <f t="shared" ref="AC17:AD17" si="39">+AC15+AC16</f>
-        <v>55929.769490635445</v>
+        <v>87546.397835523152</v>
       </c>
       <c r="AD17" s="4">
         <f t="shared" si="39"/>
-        <v>57030.447617842132</v>
+        <v>116780.46209900227</v>
       </c>
     </row>
     <row r="18" spans="2:86" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2028,31 +2030,31 @@
       </c>
       <c r="X18" s="4">
         <f t="shared" ref="X18:Y18" si="40">+X17*0.1</f>
-        <v>1419.5147000000002</v>
+        <v>1589.1296</v>
       </c>
       <c r="Y18" s="4">
         <f t="shared" si="40"/>
-        <v>2067.5798423000006</v>
+        <v>2527.0666063999997</v>
       </c>
       <c r="Z18" s="4">
         <f t="shared" ref="Z18:AB18" si="41">+Z17*0.1</f>
-        <v>2917.3061438806999</v>
+        <v>3518.3163578575986</v>
       </c>
       <c r="AA18" s="4">
         <f t="shared" si="41"/>
-        <v>4029.781299075627</v>
+        <v>4814.8050946783178</v>
       </c>
       <c r="AB18" s="4">
         <f t="shared" si="41"/>
-        <v>5484.4770318373085</v>
+        <v>6508.7518782104235</v>
       </c>
       <c r="AC18" s="4">
         <f t="shared" ref="AC18:AD18" si="42">+AC17*0.1</f>
-        <v>5592.9769490635445</v>
+        <v>8754.6397835523148</v>
       </c>
       <c r="AD18" s="4">
         <f t="shared" si="42"/>
-        <v>5703.0447617842137</v>
+        <v>11678.046209900227</v>
       </c>
     </row>
     <row r="19" spans="2:86" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2124,255 +2126,255 @@
       </c>
       <c r="X19" s="4">
         <f t="shared" si="45"/>
-        <v>12775.632300000001</v>
+        <v>14302.166399999998</v>
       </c>
       <c r="Y19" s="4">
         <f t="shared" si="45"/>
-        <v>18608.218580700002</v>
+        <v>22743.599457599994</v>
       </c>
       <c r="Z19" s="4">
         <f t="shared" ref="Z19:AB19" si="46">+Z17-Z18</f>
-        <v>26255.755294926297</v>
+        <v>31664.847220718388</v>
       </c>
       <c r="AA19" s="4">
         <f t="shared" si="46"/>
-        <v>36268.031691680641</v>
+        <v>43333.245852104861</v>
       </c>
       <c r="AB19" s="4">
         <f t="shared" si="46"/>
-        <v>49360.293286535772</v>
+        <v>58578.766903893804</v>
       </c>
       <c r="AC19" s="4">
         <f t="shared" ref="AC19:AD19" si="47">+AC17-AC18</f>
-        <v>50336.7925415719</v>
+        <v>78791.758051970843</v>
       </c>
       <c r="AD19" s="4">
         <f t="shared" si="47"/>
-        <v>51327.402856057917</v>
+        <v>105102.41588910203</v>
       </c>
       <c r="AE19" s="2">
         <f>+AD19*(1+$AG$24)</f>
-        <v>50814.128827497334</v>
+        <v>104051.39173021101</v>
       </c>
       <c r="AF19" s="2">
         <f t="shared" ref="AF19:CH19" si="48">+AE19*(1+$AG$24)</f>
-        <v>50305.987539222362</v>
+        <v>103010.87781290889</v>
       </c>
       <c r="AG19" s="2">
         <f t="shared" si="48"/>
-        <v>49802.927663830138</v>
+        <v>101980.76903477981</v>
       </c>
       <c r="AH19" s="2">
         <f t="shared" si="48"/>
-        <v>49304.898387191839</v>
+        <v>100960.96134443201</v>
       </c>
       <c r="AI19" s="2">
         <f t="shared" si="48"/>
-        <v>48811.849403319917</v>
+        <v>99951.351730987692</v>
       </c>
       <c r="AJ19" s="2">
         <f t="shared" si="48"/>
-        <v>48323.730909286714</v>
+        <v>98951.838213677809</v>
       </c>
       <c r="AK19" s="2">
         <f t="shared" si="48"/>
-        <v>47840.493600193848</v>
+        <v>97962.319831541026</v>
       </c>
       <c r="AL19" s="2">
         <f t="shared" si="48"/>
-        <v>47362.088664191906</v>
+        <v>96982.696633225612</v>
       </c>
       <c r="AM19" s="2">
         <f t="shared" si="48"/>
-        <v>46888.467777549988</v>
+        <v>96012.869666893355</v>
       </c>
       <c r="AN19" s="2">
         <f t="shared" si="48"/>
-        <v>46419.583099774485</v>
+        <v>95052.740970224419</v>
       </c>
       <c r="AO19" s="2">
         <f t="shared" si="48"/>
-        <v>45955.387268776743</v>
+        <v>94102.21356052217</v>
       </c>
       <c r="AP19" s="2">
         <f t="shared" si="48"/>
-        <v>45495.833396088972</v>
+        <v>93161.191424916949</v>
       </c>
       <c r="AQ19" s="2">
         <f t="shared" si="48"/>
-        <v>45040.875062128085</v>
+        <v>92229.579510667783</v>
       </c>
       <c r="AR19" s="2">
         <f t="shared" si="48"/>
-        <v>44590.466311506803</v>
+        <v>91307.283715561105</v>
       </c>
       <c r="AS19" s="2">
         <f t="shared" si="48"/>
-        <v>44144.561648391733</v>
+        <v>90394.210878405487</v>
       </c>
       <c r="AT19" s="2">
         <f t="shared" si="48"/>
-        <v>43703.116031907812</v>
+        <v>89490.268769621427</v>
       </c>
       <c r="AU19" s="2">
         <f t="shared" si="48"/>
-        <v>43266.084871588733</v>
+        <v>88595.366081925211</v>
       </c>
       <c r="AV19" s="2">
         <f t="shared" si="48"/>
-        <v>42833.424022872845</v>
+        <v>87709.412421105953</v>
       </c>
       <c r="AW19" s="2">
         <f t="shared" si="48"/>
-        <v>42405.089782644114</v>
+        <v>86832.318296894897</v>
       </c>
       <c r="AX19" s="2">
         <f t="shared" si="48"/>
-        <v>41981.038884817674</v>
+        <v>85963.99511392595</v>
       </c>
       <c r="AY19" s="2">
         <f t="shared" si="48"/>
-        <v>41561.228495969495</v>
+        <v>85104.355162786684</v>
       </c>
       <c r="AZ19" s="2">
         <f t="shared" si="48"/>
-        <v>41145.616211009801</v>
+        <v>84253.311611158817</v>
       </c>
       <c r="BA19" s="2">
         <f t="shared" si="48"/>
-        <v>40734.160048899706</v>
+        <v>83410.778495047227</v>
       </c>
       <c r="BB19" s="2">
         <f t="shared" si="48"/>
-        <v>40326.818448410711</v>
+        <v>82576.670710096747</v>
       </c>
       <c r="BC19" s="2">
         <f t="shared" si="48"/>
-        <v>39923.550263926605</v>
+        <v>81750.904002995783</v>
       </c>
       <c r="BD19" s="2">
         <f t="shared" si="48"/>
-        <v>39524.314761287336</v>
+        <v>80933.394962965831</v>
       </c>
       <c r="BE19" s="2">
         <f t="shared" si="48"/>
-        <v>39129.07161367446</v>
+        <v>80124.061013336177</v>
       </c>
       <c r="BF19" s="2">
         <f t="shared" si="48"/>
-        <v>38737.780897537712</v>
+        <v>79322.820403202815</v>
       </c>
       <c r="BG19" s="2">
         <f t="shared" si="48"/>
-        <v>38350.403088562336</v>
+        <v>78529.592199170787</v>
       </c>
       <c r="BH19" s="2">
         <f t="shared" si="48"/>
-        <v>37966.89905767671</v>
+        <v>77744.296277179077</v>
       </c>
       <c r="BI19" s="2">
         <f t="shared" si="48"/>
-        <v>37587.230067099939</v>
+        <v>76966.853314407286</v>
       </c>
       <c r="BJ19" s="2">
         <f t="shared" si="48"/>
-        <v>37211.357766428941</v>
+        <v>76197.184781263219</v>
       </c>
       <c r="BK19" s="2">
         <f t="shared" si="48"/>
-        <v>36839.244188764649</v>
+        <v>75435.212933450588</v>
       </c>
       <c r="BL19" s="2">
         <f t="shared" si="48"/>
-        <v>36470.851746877001</v>
+        <v>74680.860804116077</v>
       </c>
       <c r="BM19" s="2">
         <f t="shared" si="48"/>
-        <v>36106.143229408233</v>
+        <v>73934.052196074917</v>
       </c>
       <c r="BN19" s="2">
         <f t="shared" si="48"/>
-        <v>35745.081797114151</v>
+        <v>73194.711674114165</v>
       </c>
       <c r="BO19" s="2">
         <f t="shared" si="48"/>
-        <v>35387.63097914301</v>
+        <v>72462.764557373026</v>
       </c>
       <c r="BP19" s="2">
         <f t="shared" si="48"/>
-        <v>35033.754669351583</v>
+        <v>71738.136911799302</v>
       </c>
       <c r="BQ19" s="2">
         <f t="shared" si="48"/>
-        <v>34683.417122658066</v>
+        <v>71020.755542681305</v>
       </c>
       <c r="BR19" s="2">
         <f t="shared" si="48"/>
-        <v>34336.582951431483</v>
+        <v>70310.547987254497</v>
       </c>
       <c r="BS19" s="2">
         <f t="shared" si="48"/>
-        <v>33993.217121917165</v>
+        <v>69607.442507381944</v>
       </c>
       <c r="BT19" s="2">
         <f t="shared" si="48"/>
-        <v>33653.284950697991</v>
+        <v>68911.368082308123</v>
       </c>
       <c r="BU19" s="2">
         <f t="shared" si="48"/>
-        <v>33316.752101191014</v>
+        <v>68222.254401485043</v>
       </c>
       <c r="BV19" s="2">
         <f t="shared" si="48"/>
-        <v>32983.5845801791</v>
+        <v>67540.031857470196</v>
       </c>
       <c r="BW19" s="2">
         <f t="shared" si="48"/>
-        <v>32653.74873437731</v>
+        <v>66864.631538895497</v>
       </c>
       <c r="BX19" s="2">
         <f t="shared" si="48"/>
-        <v>32327.211247033538</v>
+        <v>66195.985223506548</v>
       </c>
       <c r="BY19" s="2">
         <f t="shared" si="48"/>
-        <v>32003.939134563203</v>
+        <v>65534.025371271484</v>
       </c>
       <c r="BZ19" s="2">
         <f t="shared" si="48"/>
-        <v>31683.899743217571</v>
+        <v>64878.685117558765</v>
       </c>
       <c r="CA19" s="2">
         <f t="shared" si="48"/>
-        <v>31367.060745785395</v>
+        <v>64229.898266383178</v>
       </c>
       <c r="CB19" s="2">
         <f t="shared" si="48"/>
-        <v>31053.390138327541</v>
+        <v>63587.599283719348</v>
       </c>
       <c r="CC19" s="2">
         <f t="shared" si="48"/>
-        <v>30742.856236944266</v>
+        <v>62951.723290882153</v>
       </c>
       <c r="CD19" s="2">
         <f t="shared" si="48"/>
-        <v>30435.427674574825</v>
+        <v>62322.20605797333</v>
       </c>
       <c r="CE19" s="2">
         <f t="shared" si="48"/>
-        <v>30131.073397829077</v>
+        <v>61698.983997393596</v>
       </c>
       <c r="CF19" s="2">
         <f t="shared" si="48"/>
-        <v>29829.762663850786</v>
+        <v>61081.994157419656</v>
       </c>
       <c r="CG19" s="2">
         <f t="shared" si="48"/>
-        <v>29531.465037212278</v>
+        <v>60471.174215845458</v>
       </c>
       <c r="CH19" s="2">
         <f t="shared" si="48"/>
-        <v>29236.150386840156</v>
+        <v>59866.462473687003</v>
       </c>
     </row>
     <row r="20" spans="2:86" x14ac:dyDescent="0.2">
@@ -2441,31 +2443,31 @@
       </c>
       <c r="X20" s="6">
         <f t="shared" ref="X20:Y20" si="52">+X19/X21</f>
-        <v>5.0843228733459362</v>
+        <v>5.6918381852551976</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="52"/>
-        <v>7.4055192839319481</v>
+        <v>9.0512782638941367</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" ref="Z20:AB20" si="53">+Z19/Z21</f>
-        <v>10.449012155975046</v>
+        <v>12.601670369403397</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="53"/>
-        <v>14.433601309991301</v>
+        <v>17.245347070780962</v>
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="53"/>
-        <v>19.643933255013739</v>
+        <v>23.312612438123093</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" ref="AC20:AD20" si="54">+AC19/AC21</f>
-        <v>20.032551006495634</v>
+        <v>31.356783624304384</v>
       </c>
       <c r="AD20" s="6">
         <f t="shared" si="54"/>
-        <v>20.426784541262727</v>
+        <v>41.827645364282972</v>
       </c>
     </row>
     <row r="21" spans="2:86" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2613,16 +2615,15 @@
         <v>3.3439845433602677E-4</v>
       </c>
       <c r="X23" s="9">
-        <f t="shared" si="63"/>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="Y23" s="9">
         <f t="shared" si="63"/>
-        <v>0.30000000000000004</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="Z23" s="9">
         <f t="shared" ref="Z23" si="64">Z9/Y9-1</f>
-        <v>0.30000000000000004</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="AA23" s="9">
         <f t="shared" ref="AA23" si="65">AA9/Z9-1</f>
@@ -2634,11 +2635,11 @@
       </c>
       <c r="AC23" s="9">
         <f t="shared" ref="AC23" si="67">AC9/AB9-1</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD23" s="9">
         <f t="shared" ref="AD23" si="68">AD9/AC9-1</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="24" spans="2:86" x14ac:dyDescent="0.2">
@@ -2782,38 +2783,38 @@
       </c>
       <c r="X27" s="2">
         <f>+W27+X19</f>
-        <v>16082.632300000001</v>
+        <v>17609.166399999998</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" ref="Y27:AD27" si="74">+X27+Y19</f>
-        <v>34690.850880700003</v>
+        <v>40352.765857599996</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="74"/>
-        <v>60946.606175626301</v>
+        <v>72017.613078318391</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="74"/>
-        <v>97214.637867306941</v>
+        <v>115350.85893042324</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="74"/>
-        <v>146574.93115384271</v>
+        <v>173929.62583431706</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="74"/>
-        <v>196911.72369541461</v>
+        <v>252721.38388628792</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="74"/>
-        <v>248239.12655147252</v>
+        <v>357823.79977538995</v>
       </c>
       <c r="AF27" t="s">
         <v>78</v>
       </c>
       <c r="AG27" s="2">
         <f>NPV(AG25,X19:CH19)</f>
-        <v>530974.30074343912</v>
+        <v>976660.75739637588</v>
       </c>
     </row>
     <row r="28" spans="2:86" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2843,7 +2844,7 @@
       <c r="W28" s="4"/>
       <c r="AG28" s="1">
         <f>AG27/Main!K3</f>
-        <v>215.84321168432484</v>
+        <v>397.01656804730726</v>
       </c>
     </row>
     <row r="29" spans="2:86" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2872,7 +2873,7 @@
       <c r="W29" s="4"/>
       <c r="AG29" s="12">
         <f>AG28/Main!K2-1</f>
-        <v>0.38183874317749589</v>
+        <v>0.49254348889965138</v>
       </c>
     </row>
     <row r="30" spans="2:86" s="2" customFormat="1" x14ac:dyDescent="0.2">

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F2D0A8-E15C-4D0F-977F-705989353926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05288333-101E-4E45-A109-B0AF5FF8A48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48780" yWindow="1710" windowWidth="27825" windowHeight="19425" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-43200" yWindow="-1000" windowWidth="21600" windowHeight="19420" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Main</t>
   </si>
@@ -126,6 +126,129 @@
   </si>
   <si>
     <t>Q421</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>OLTL</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Securities</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>RSUs</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>PP&amp;E payments</t>
+  </si>
+  <si>
+    <t>Buyback</t>
+  </si>
+  <si>
+    <t>DSO</t>
   </si>
 </sst>
 </file>
@@ -207,6 +330,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1C8C3E-ED35-A5C1-B3B1-F8E102039664}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9503834" y="0"/>
+          <a:ext cx="0" cy="7842250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,32 +684,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="8.85546875" style="3" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1640625" style="3"/>
+    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="9.1640625" style="3"/>
+    <col min="10" max="10" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C2" s="4">
         <v>44227</v>
       </c>
@@ -569,7 +747,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
@@ -603,642 +781,1437 @@
       <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5">
+        <v>77</v>
+      </c>
+      <c r="M4" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>372</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <v>643</v>
-      </c>
-      <c r="H4" s="5">
-        <v>622</v>
-      </c>
-      <c r="I4" s="5">
-        <v>496</v>
-      </c>
-      <c r="J4" s="5">
-        <v>200</v>
-      </c>
-      <c r="K4" s="5">
-        <v>226</v>
-      </c>
-      <c r="L4" s="5">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
-        <v>154</v>
+        <v>372</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
-        <v>125</v>
+        <v>643</v>
       </c>
       <c r="H5" s="5">
-        <v>138</v>
+        <v>622</v>
       </c>
       <c r="I5" s="5">
-        <v>220</v>
+        <v>496</v>
       </c>
       <c r="J5" s="5">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="K5" s="5">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="L5" s="5">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="M5" s="5">
+        <v>379</v>
+      </c>
+      <c r="N5" s="2">
+        <f>J5*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
-        <v>2050</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2370</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2940</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5">
-        <v>3260</v>
+        <v>125</v>
       </c>
       <c r="H6" s="5">
-        <v>3750</v>
+        <v>138</v>
       </c>
       <c r="I6" s="5">
-        <v>3810</v>
+        <v>220</v>
       </c>
       <c r="J6" s="5">
-        <v>3830</v>
+        <v>251</v>
       </c>
       <c r="K6" s="5">
-        <v>3620</v>
+        <v>294</v>
       </c>
       <c r="L6" s="5">
-        <v>4280</v>
-      </c>
-      <c r="M6" s="2">
-        <f>+M8*0.6</f>
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="M6" s="5">
+        <v>253</v>
+      </c>
+      <c r="N6" s="2">
+        <f>J6*1.1</f>
+        <v>276.10000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2370</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2940</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3260</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3750</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3810</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3830</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3620</v>
+      </c>
+      <c r="L7" s="5">
+        <v>4284</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10323</v>
+      </c>
+      <c r="N7" s="2">
+        <f>N9*0.88</f>
+        <v>14080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <v>2760</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>3420</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="5">
         <v>3620</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I8" s="5">
         <v>2040</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J8" s="5">
         <v>1570</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K8" s="5">
         <v>1830</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L8" s="5">
         <v>2240</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="M8" s="5">
+        <v>2486</v>
+      </c>
+      <c r="N8" s="2">
+        <f>J8*1.05</f>
+        <v>1648.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="9">
         <v>5003</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>5661</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>6507</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>7103</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>7643</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="9">
         <v>8288</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I9" s="9">
         <v>6704</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J9" s="9">
         <v>5931</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K9" s="9">
         <v>6051</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L9" s="8">
+        <f>SUM(L4:L8)</f>
         <v>7192</v>
       </c>
-      <c r="M8" s="8">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="M9" s="8">
+        <f>SUM(M4:M8)</f>
+        <v>13507</v>
+      </c>
+      <c r="N9" s="8">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="5">
         <v>1846</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>2032</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <v>2292</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>2644</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2857</v>
-      </c>
-      <c r="I9" s="5">
-        <v>3789</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
-        <f>+C8-C9</f>
-        <v>3157</v>
-      </c>
-      <c r="D10" s="5">
-        <f>+D8-D9</f>
-        <v>3629</v>
-      </c>
-      <c r="E10" s="5">
-        <f>+E8-E9</f>
-        <v>4215</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
-        <f>+G8-G9</f>
-        <v>4999</v>
+        <v>2644</v>
       </c>
       <c r="H10" s="5">
-        <f>+H8-H9</f>
-        <v>5431</v>
+        <v>2857</v>
       </c>
       <c r="I10" s="5">
-        <f>+I8-I9</f>
-        <v>2915</v>
+        <v>3789</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5">
-        <f>+L8-L9</f>
-        <v>4648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2544</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4045</v>
+      </c>
+      <c r="N10" s="2">
+        <f>N9*0.2</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5">
-        <v>1147</v>
+        <f>+C9-C10</f>
+        <v>3157</v>
       </c>
       <c r="D11" s="5">
-        <v>1153</v>
+        <f>+D9-D10</f>
+        <v>3629</v>
       </c>
       <c r="E11" s="5">
-        <v>1245</v>
+        <f>+E9-E10</f>
+        <v>4215</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
-        <v>1466</v>
+        <f>+G9-G10</f>
+        <v>4999</v>
       </c>
       <c r="H11" s="5">
-        <v>1618</v>
+        <f>+H9-H10</f>
+        <v>5431</v>
       </c>
       <c r="I11" s="5">
-        <v>1824</v>
+        <f>+I9-I10</f>
+        <v>2915</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+L9-L10</f>
+        <v>4648</v>
+      </c>
+      <c r="M11" s="2">
+        <f>M9-M10</f>
+        <v>9462</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ref="N11" si="0">N9-N10</f>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5">
-        <v>503</v>
+        <v>1147</v>
       </c>
       <c r="D12" s="5">
-        <v>520</v>
+        <v>1153</v>
       </c>
       <c r="E12" s="5">
-        <v>526</v>
+        <v>1245</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
-        <v>563</v>
+        <v>1466</v>
       </c>
       <c r="H12" s="5">
-        <v>592</v>
+        <v>1618</v>
       </c>
       <c r="I12" s="5">
-        <v>592</v>
+        <v>1824</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1875</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2040</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ref="C13" si="0">+C11+C12</f>
-        <v>1650</v>
+        <v>503</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" ref="D13:E13" si="1">+D11+D12</f>
-        <v>1673</v>
+        <v>520</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>1771</v>
+        <v>526</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
-        <f t="shared" ref="G13" si="2">+G11+G12</f>
-        <v>2029</v>
+        <v>563</v>
       </c>
       <c r="H13" s="5">
-        <f>+H11+H12</f>
-        <v>2210</v>
+        <v>592</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" ref="I13" si="3">+I11+I12</f>
-        <v>2416</v>
+        <v>592</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5">
-        <f>+L11+L12</f>
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+      <c r="M13" s="2">
+        <v>622</v>
+      </c>
+      <c r="N13" s="2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ref="C14" si="4">+C10-C13</f>
-        <v>1507</v>
+        <f t="shared" ref="C14" si="1">+C12+C13</f>
+        <v>1650</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" ref="D14:E14" si="5">+D10-D13</f>
-        <v>1956</v>
+        <f t="shared" ref="D14:E14" si="2">+D12+D13</f>
+        <v>1673</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="5"/>
-        <v>2444</v>
+        <f t="shared" si="2"/>
+        <v>1771</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
-        <f t="shared" ref="G14" si="6">+G10-G13</f>
-        <v>2970</v>
+        <f t="shared" ref="G14" si="3">+G12+G13</f>
+        <v>2029</v>
       </c>
       <c r="H14" s="5">
-        <f>+H10-H13</f>
-        <v>3221</v>
+        <f>+H12+H13</f>
+        <v>2210</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" ref="I14" si="7">+I10-I13</f>
-        <v>499</v>
+        <f t="shared" ref="I14" si="4">+I12+I13</f>
+        <v>2416</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5">
-        <f>+L10-L13</f>
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+L12+L13</f>
+        <v>2508</v>
+      </c>
+      <c r="M14" s="5">
+        <f>+M12+M13</f>
+        <v>2662</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" ref="N14" si="5">+N12+N13</f>
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C15" s="5">
-        <v>-37</v>
+        <f t="shared" ref="C15" si="6">+C11-C14</f>
+        <v>1507</v>
       </c>
       <c r="D15" s="5">
-        <v>88</v>
+        <f t="shared" ref="D15:E15" si="7">+D11-D14</f>
+        <v>1956</v>
       </c>
       <c r="E15" s="5">
-        <v>-50</v>
+        <f t="shared" si="7"/>
+        <v>2444</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
-        <v>-105</v>
+        <f t="shared" ref="G15" si="8">+G11-G14</f>
+        <v>2970</v>
       </c>
       <c r="H15" s="5">
-        <f>18-68-13</f>
-        <v>-63</v>
+        <f>+H11-H14</f>
+        <v>3221</v>
       </c>
       <c r="I15" s="5">
-        <v>-24</v>
+        <f t="shared" ref="I15" si="9">+I11-I14</f>
+        <v>499</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5">
-        <f>150-66-15</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+L11-L14</f>
+        <v>2140</v>
+      </c>
+      <c r="M15" s="5">
+        <f>+M11-M14</f>
+        <v>6800</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" ref="N15" si="10">+N11-N14</f>
+        <v>10138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5">
-        <f>+C14+C15</f>
-        <v>1470</v>
+        <v>-37</v>
       </c>
       <c r="D16" s="5">
-        <f>+D14+D15</f>
-        <v>2044</v>
+        <v>88</v>
       </c>
       <c r="E16" s="5">
-        <f>+E14+E15</f>
-        <v>2394</v>
+        <v>-50</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
-        <f>+G14+G15</f>
-        <v>2865</v>
+        <v>-105</v>
       </c>
       <c r="H16" s="5">
-        <f>+H14+H15</f>
-        <v>3158</v>
+        <f>18-68-13</f>
+        <v>-63</v>
       </c>
       <c r="I16" s="5">
-        <f>+I14+I15</f>
-        <v>475</v>
+        <v>-24</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5">
-        <f>+L14+L15</f>
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>150-66-15</f>
+        <v>69</v>
+      </c>
+      <c r="M16" s="2">
+        <f>187-65+59</f>
+        <v>181</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" ref="N16" si="11">187-65+59</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="5">
-        <v>13</v>
+        <f>+C15+C16</f>
+        <v>1470</v>
       </c>
       <c r="D17" s="5">
-        <v>132</v>
+        <f>+D15+D16</f>
+        <v>2044</v>
       </c>
       <c r="E17" s="5">
-        <v>20</v>
+        <f>+E15+E16</f>
+        <v>2394</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
-        <v>-138</v>
+        <f>+G15+G16</f>
+        <v>2865</v>
       </c>
       <c r="H17" s="5">
-        <v>187</v>
+        <f>+H15+H16</f>
+        <v>3158</v>
       </c>
       <c r="I17" s="5">
-        <v>-181</v>
+        <f>+I15+I16</f>
+        <v>475</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+L15+L16</f>
+        <v>2209</v>
+      </c>
+      <c r="M17" s="5">
+        <f>+M15+M16</f>
+        <v>6981</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" ref="N17" si="12">+N15+N16</f>
+        <v>10319</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5">
-        <f>+C16-C17</f>
-        <v>1457</v>
+        <v>13</v>
       </c>
       <c r="D18" s="5">
-        <f>+D16-D17</f>
-        <v>1912</v>
+        <v>132</v>
       </c>
       <c r="E18" s="5">
-        <f>+E16-E17</f>
-        <v>2374</v>
+        <v>20</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
-        <f>+G16-G17</f>
-        <v>3003</v>
+        <v>-138</v>
       </c>
       <c r="H18" s="5">
-        <f>+H16-H17</f>
-        <v>2971</v>
+        <v>187</v>
       </c>
       <c r="I18" s="5">
-        <f>+I16-I17</f>
-        <v>656</v>
+        <v>-181</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5">
-        <f>+L16-L17</f>
+        <v>166</v>
+      </c>
+      <c r="M18" s="2">
+        <v>793</v>
+      </c>
+      <c r="N18" s="2">
+        <f>N17*0.1</f>
+        <v>1031.9000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <f>+C17-C18</f>
+        <v>1457</v>
+      </c>
+      <c r="D19" s="5">
+        <f>+D17-D18</f>
+        <v>1912</v>
+      </c>
+      <c r="E19" s="5">
+        <f>+E17-E18</f>
+        <v>2374</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
+        <f>+G17-G18</f>
+        <v>3003</v>
+      </c>
+      <c r="H19" s="5">
+        <f>+H17-H18</f>
+        <v>2971</v>
+      </c>
+      <c r="I19" s="5">
+        <f>+I17-I18</f>
+        <v>656</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <f>+L17-L18</f>
         <v>2043</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="M19" s="2">
+        <f>M17-M18</f>
+        <v>6188</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" ref="N19" si="13">N17-N18</f>
+        <v>9287.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6">
-        <f>+C18/C20</f>
+      <c r="C20" s="6">
+        <f>+C19/C21</f>
         <v>0.57725832012678291</v>
       </c>
-      <c r="D19" s="6">
-        <f>+D18/D20</f>
+      <c r="D20" s="6">
+        <f>+D19/D21</f>
         <v>0.75632911392405067</v>
       </c>
-      <c r="E19" s="6">
-        <f>+E18/E20</f>
+      <c r="E20" s="6">
+        <f>+E19/E21</f>
         <v>0.93759873617693523</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6">
-        <f>+G18/G20</f>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <f>+G19/G21</f>
         <v>1.1799607072691551</v>
       </c>
-      <c r="H19" s="6">
-        <f>+H18/H20</f>
+      <c r="H20" s="6">
+        <f>+H19/H21</f>
         <v>1.1710681907765077</v>
       </c>
-      <c r="I19" s="6">
-        <f>+I18/I20</f>
+      <c r="I20" s="6">
+        <f>+I19/I21</f>
         <v>0.26073131955484896</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6">
-        <f>+L18/L20</f>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
+        <f>+L19/L21</f>
         <v>0.82048192771084338</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="M20" s="6">
+        <f>+M19/M21</f>
+        <v>2.4761904761904763</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" ref="N20" si="14">+N19/N21</f>
+        <v>3.7163265306122448</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="5">
         <v>2524</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <v>2528</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <v>2532</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="5">
         <v>2545</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="5">
         <v>2537</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="5">
         <v>2516</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
         <v>2490</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="M21" s="5">
+        <v>2499</v>
+      </c>
+      <c r="N21" s="5">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="7">
-        <f>C10/C8</f>
+      <c r="C23" s="7">
+        <f>C11/C9</f>
         <v>0.6310213871676994</v>
       </c>
-      <c r="D22" s="7">
-        <f>D10/D8</f>
+      <c r="D23" s="7">
+        <f>D11/D9</f>
         <v>0.6410528175234057</v>
       </c>
-      <c r="E22" s="7">
-        <f>E10/E8</f>
+      <c r="E23" s="7">
+        <f>E11/E9</f>
         <v>0.64776394651913327</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
-        <f>G10/G8</f>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
+        <f>G11/G9</f>
         <v>0.65406254088708626</v>
       </c>
-      <c r="H22" s="7">
-        <f>H10/H8</f>
+      <c r="H23" s="7">
+        <f>H11/H9</f>
         <v>0.65528474903474898</v>
       </c>
-      <c r="I22" s="7">
-        <f>I10/I8</f>
+      <c r="I23" s="7">
+        <f>I11/I9</f>
         <v>0.43481503579952269</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7">
-        <f>L10/L8</f>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7">
+        <f>L11/L9</f>
         <v>0.64627363737486099</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="M23" s="7">
+        <f>M11/M9</f>
+        <v>0.7005256533649219</v>
+      </c>
+      <c r="N23" s="7">
+        <f>N11/N9</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="7">
-        <f t="shared" ref="C23:I23" si="8">C6/C8</f>
+      <c r="C24" s="7">
+        <f t="shared" ref="C24:H24" si="15">C7/C9</f>
         <v>0</v>
       </c>
-      <c r="D23" s="7">
-        <f t="shared" si="8"/>
+      <c r="D24" s="7">
+        <f t="shared" si="15"/>
         <v>0.36212683271506801</v>
       </c>
-      <c r="E23" s="7">
-        <f t="shared" si="8"/>
+      <c r="E24" s="7">
+        <f t="shared" si="15"/>
         <v>0.36422314430613184</v>
       </c>
-      <c r="F23" s="7">
-        <f t="shared" si="8"/>
+      <c r="F24" s="7">
+        <f t="shared" si="15"/>
         <v>0.41390961565535689</v>
       </c>
-      <c r="G23" s="7">
-        <f t="shared" si="8"/>
+      <c r="G24" s="7">
+        <f t="shared" si="15"/>
         <v>0.42653408347507521</v>
       </c>
-      <c r="H23" s="7">
-        <f t="shared" si="8"/>
+      <c r="H24" s="7">
+        <f t="shared" si="15"/>
         <v>0.45246138996138996</v>
       </c>
-      <c r="I23" s="7">
-        <f>I6/I8</f>
+      <c r="I24" s="7">
+        <f t="shared" ref="I24:N24" si="16">I7/I9</f>
         <v>0.56831742243436756</v>
       </c>
-      <c r="J23" s="7">
-        <f>J6/J8</f>
+      <c r="J24" s="7">
+        <f t="shared" si="16"/>
         <v>0.64575956836958359</v>
       </c>
-      <c r="K23" s="7">
-        <f>K6/K8</f>
+      <c r="K24" s="7">
+        <f t="shared" si="16"/>
         <v>0.59824822343414308</v>
       </c>
-      <c r="L23" s="7">
-        <f>L6/L8</f>
-        <v>0.59510567296996664</v>
+      <c r="L24" s="7">
+        <f t="shared" si="16"/>
+        <v>0.59566184649610676</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="16"/>
+        <v>0.76427037832235134</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="16"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="2">
+        <f>5079+10241</f>
+        <v>15320</v>
+      </c>
+      <c r="M27" s="2">
+        <f>5783+10240</f>
+        <v>16023</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="2">
+        <v>4080</v>
+      </c>
+      <c r="M28" s="2">
+        <v>7066</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="2">
+        <v>4611</v>
+      </c>
+      <c r="M29" s="2">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="2">
+        <v>872</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="2">
+        <v>3740</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="2">
+        <v>1094</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="2">
+        <f>4430+1541</f>
+        <v>5971</v>
+      </c>
+      <c r="M33" s="2">
+        <f>4430+1395</f>
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="2">
+        <v>4568</v>
+      </c>
+      <c r="M34" s="2">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="2">
+        <v>4204</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="2">
+        <f t="shared" ref="L36" si="17">SUM(L27:L35)</f>
+        <v>44460</v>
+      </c>
+      <c r="M36" s="2">
+        <f>SUM(M27:M35)</f>
+        <v>49555</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="2">
+        <v>1141</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="2">
+        <v>4869</v>
+      </c>
+      <c r="M39" s="2">
+        <v>7156</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="2">
+        <f>1250+9704</f>
+        <v>10954</v>
+      </c>
+      <c r="M40" s="2">
+        <f>1249+8456</f>
+        <v>9705</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="2">
+        <f>939</f>
+        <v>939</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="2">
+        <v>2037</v>
+      </c>
+      <c r="M42" s="2">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="2">
+        <v>24520</v>
+      </c>
+      <c r="M43" s="2">
+        <v>27501</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="2">
+        <f t="shared" ref="L44" si="18">SUM(L38:L43)</f>
+        <v>44460</v>
+      </c>
+      <c r="M44" s="2">
+        <f>SUM(M38:M43)</f>
+        <v>49555</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="5">
+        <f>L19</f>
+        <v>2043</v>
+      </c>
+      <c r="M46" s="5">
+        <f>M19</f>
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="3">
+        <v>735</v>
+      </c>
+      <c r="M47">
+        <f>1576-L47</f>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="3">
+        <v>384</v>
+      </c>
+      <c r="M48">
+        <f>749-L48</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" s="3">
+        <v>14</v>
+      </c>
+      <c r="M49">
+        <f>-45-L49</f>
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L50" s="3">
+        <v>-1135</v>
+      </c>
+      <c r="M50">
+        <f>-1881-L50</f>
+        <v>-746</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L51" s="3">
+        <v>-34</v>
+      </c>
+      <c r="M51">
+        <f>-102-L51</f>
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="3">
+        <f>-252+566-215+11+689+105</f>
+        <v>904</v>
+      </c>
+      <c r="M52">
+        <f>-3239+861-592+789+2675+236-L52</f>
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="L53" s="5">
+        <f>SUM(L46:L52)</f>
+        <v>2911</v>
+      </c>
+      <c r="M53" s="5">
+        <f>SUM(M46:M52)</f>
+        <v>6347</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L55" s="3">
+        <f>2512-2801-221</f>
+        <v>-510</v>
+      </c>
+      <c r="M55">
+        <f>5111-5343-L55-435</f>
+        <v>-157</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" s="3">
+        <v>-248</v>
+      </c>
+      <c r="M56">
+        <f>-537-L56</f>
+        <v>-289</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L57" s="3">
+        <v>-83</v>
+      </c>
+      <c r="M57">
+        <f>-83-L57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="3">
+        <f>SUM(L55:L57)</f>
+        <v>-841</v>
+      </c>
+      <c r="M58" s="3">
+        <f>SUM(M55:M57)</f>
+        <v>-446</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L60" s="5">
+        <f>246</f>
+        <v>246</v>
+      </c>
+      <c r="M60" s="2">
+        <f>247-L60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L61" s="5">
+        <v>-507</v>
+      </c>
+      <c r="M61" s="2">
+        <f>-1179-L61</f>
+        <v>-672</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L62" s="5">
+        <v>-99</v>
+      </c>
+      <c r="M62" s="2">
+        <f>-199-L62</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <f>-3067-L63</f>
+        <v>-3067</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <f>-1250-L64</f>
+        <v>-1250</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L65" s="5">
+        <v>-20</v>
+      </c>
+      <c r="M65" s="2">
+        <f>-31-L65</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="L66" s="5">
+        <f>SUM(L60:L65)</f>
+        <v>-380</v>
+      </c>
+      <c r="M66" s="5">
+        <f>SUM(M60:M65)</f>
+        <v>-5099</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="L67" s="5">
+        <f>L66+L58+L53</f>
+        <v>1690</v>
+      </c>
+      <c r="M67" s="5">
+        <f>M66+M58+M53</f>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="L69" s="5">
+        <f>(L28/L9)*90</f>
+        <v>51.056729699666299</v>
+      </c>
+      <c r="M69" s="5">
+        <f>(M28/M9)*90</f>
+        <v>47.082253646257499</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05288333-101E-4E45-A109-B0AF5FF8A48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE3168B-1D99-0848-ABD8-E6D84E0F6213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43200" yWindow="-1000" windowWidth="21600" windowHeight="19420" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-17460" yWindow="1880" windowWidth="16760" windowHeight="18380" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E320785E-9BCE-AC4E-B37C-7EB104B6CF82}</author>
+    <author>tc={3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}</author>
+    <author>tc={23E40331-82EE-794B-BF71-362AABD49EB0}</author>
+    <author>tc={7661685F-D234-EE4D-9EE3-823EB4FBA0E2}</author>
+    <author>tc={195B7556-9D37-2C4A-AE00-5F1730A1F989}</author>
+  </authors>
+  <commentList>
+    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    H100 started shipping</t>
+      </text>
+    </comment>
+    <comment ref="L34" authorId="1" shapeId="0" xr:uid="{3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    6.5B guidance</t>
+      </text>
+    </comment>
+    <comment ref="M34" authorId="2" shapeId="0" xr:uid="{23E40331-82EE-794B-BF71-362AABD49EB0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Guidance was 11B</t>
+      </text>
+    </comment>
+    <comment ref="N34" authorId="3" shapeId="0" xr:uid="{7661685F-D234-EE4D-9EE3-823EB4FBA0E2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Guidance was 16B</t>
+      </text>
+    </comment>
+    <comment ref="P34" authorId="4" shapeId="0" xr:uid="{195B7556-9D37-2C4A-AE00-5F1730A1F989}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus 20.570B</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>Main</t>
   </si>
@@ -249,13 +304,100 @@
   </si>
   <si>
     <t>DSO</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Revenue q/q</t>
+  </si>
+  <si>
+    <t>Data Center q/q</t>
+  </si>
+  <si>
+    <t>H100 volume</t>
+  </si>
+  <si>
+    <t>H100 ASP</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Character.ai</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Coreweave</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Baidu</t>
+  </si>
+  <si>
+    <t>Academics</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>GCP</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Amazon AI</t>
+  </si>
+  <si>
+    <t>Tencent</t>
+  </si>
+  <si>
+    <t>Anthropic</t>
+  </si>
+  <si>
+    <t>Bytedance</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>CALLS</t>
+  </si>
+  <si>
+    <t>PUTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -267,6 +409,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -290,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -311,6 +459,18 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -336,16 +496,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>21167</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666372</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>21167</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>52917</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666372</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -360,8 +520,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9503834" y="0"/>
-          <a:ext cx="0" cy="7842250"/>
+          <a:off x="10808229" y="0"/>
+          <a:ext cx="0" cy="16918214"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -387,10 +547,16 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -428,7 +594,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -534,7 +700,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -676,21 +842,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L32" dT="2024-02-21T20:05:44.73" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
+    <text>H100 started shipping</text>
+  </threadedComment>
+  <threadedComment ref="L34" dT="2024-02-21T20:05:14.08" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}">
+    <text>6.5B guidance</text>
+  </threadedComment>
+  <threadedComment ref="M34" dT="2024-02-21T19:58:52.64" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{23E40331-82EE-794B-BF71-362AABD49EB0}">
+    <text>Guidance was 11B</text>
+  </threadedComment>
+  <threadedComment ref="N34" dT="2024-02-21T19:55:06.51" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{7661685F-D234-EE4D-9EE3-823EB4FBA0E2}">
+    <text>Guidance was 16B</text>
+  </threadedComment>
+  <threadedComment ref="P34" dT="2024-02-21T20:21:53.11" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{195B7556-9D37-2C4A-AE00-5F1730A1F989}">
+    <text>Consensus 20.570B</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
-  <dimension ref="A1:S69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
+  <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L59" sqref="L59"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -704,12 +890,12 @@
     <col min="11" max="12" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C2" s="4">
         <v>44227</v>
       </c>
@@ -746,8 +932,31 @@
         <f>+I2+365</f>
         <v>45138</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N2" s="1">
+        <v>45228</v>
+      </c>
+      <c r="O2" s="1">
+        <f>+K2+365</f>
+        <v>45320</v>
+      </c>
+      <c r="P2" s="1">
+        <f>+L2+366</f>
+        <v>45412</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>+M2+366</f>
+        <v>45504</v>
+      </c>
+      <c r="R2" s="1">
+        <f>+N2+366</f>
+        <v>45594</v>
+      </c>
+      <c r="S2" s="1">
+        <f>+O2+366</f>
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
@@ -800,9 +1009,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -813,1405 +1022,2756 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="5">
+      <c r="L4" s="4"/>
+      <c r="M4" s="5">
+        <v>16</v>
+      </c>
+      <c r="N4" s="5">
+        <v>25</v>
+      </c>
+      <c r="O4" s="5">
+        <v>75</v>
+      </c>
+      <c r="P4" s="5">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>60</v>
+      </c>
+      <c r="R4" s="5">
+        <v>50</v>
+      </c>
+      <c r="S4" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="5">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5">
+        <v>15</v>
+      </c>
+      <c r="N5" s="5">
+        <v>25</v>
+      </c>
+      <c r="O5" s="5">
+        <v>25</v>
+      </c>
+      <c r="P5" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>25</v>
+      </c>
+      <c r="R5" s="5">
+        <v>25</v>
+      </c>
+      <c r="S5" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5">
+        <v>15</v>
+      </c>
+      <c r="N6" s="5">
+        <v>25</v>
+      </c>
+      <c r="O6" s="5">
+        <v>50</v>
+      </c>
+      <c r="P6" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>50</v>
+      </c>
+      <c r="R6" s="5">
+        <v>50</v>
+      </c>
+      <c r="S6" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5">
+        <v>25</v>
+      </c>
+      <c r="N7" s="5">
+        <v>25</v>
+      </c>
+      <c r="O7" s="5">
+        <v>50</v>
+      </c>
+      <c r="P7" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>50</v>
+      </c>
+      <c r="R7" s="5">
+        <v>50</v>
+      </c>
+      <c r="S7" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5">
+        <v>16</v>
+      </c>
+      <c r="N8" s="5">
+        <v>20</v>
+      </c>
+      <c r="O8" s="5">
+        <v>25</v>
+      </c>
+      <c r="P8" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>25</v>
+      </c>
+      <c r="R8" s="5">
+        <v>25</v>
+      </c>
+      <c r="S8" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5">
+        <v>25</v>
+      </c>
+      <c r="N9" s="5">
+        <v>30</v>
+      </c>
+      <c r="O9" s="5">
+        <v>75</v>
+      </c>
+      <c r="P9" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>100</v>
+      </c>
+      <c r="R9" s="5">
+        <v>100</v>
+      </c>
+      <c r="S9" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5">
+        <v>6</v>
+      </c>
+      <c r="N10" s="5">
+        <v>5</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5">
+        <v>15</v>
+      </c>
+      <c r="N11" s="5">
+        <v>30</v>
+      </c>
+      <c r="O11" s="5">
+        <v>40</v>
+      </c>
+      <c r="P11" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>100</v>
+      </c>
+      <c r="R11" s="5">
+        <v>100</v>
+      </c>
+      <c r="S11" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5">
+        <v>7</v>
+      </c>
+      <c r="N12" s="5">
+        <v>25</v>
+      </c>
+      <c r="O12" s="5">
+        <v>25</v>
+      </c>
+      <c r="P12" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>25</v>
+      </c>
+      <c r="R12" s="5">
+        <v>25</v>
+      </c>
+      <c r="S12" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5">
+        <v>10</v>
+      </c>
+      <c r="N13" s="5">
+        <v>20</v>
+      </c>
+      <c r="O13" s="5">
+        <v>20</v>
+      </c>
+      <c r="P13" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>25</v>
+      </c>
+      <c r="R13" s="5">
+        <v>25</v>
+      </c>
+      <c r="S13" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5">
+        <v>10</v>
+      </c>
+      <c r="N14" s="5">
+        <v>20</v>
+      </c>
+      <c r="O14" s="5">
+        <v>20</v>
+      </c>
+      <c r="P14" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>25</v>
+      </c>
+      <c r="R14" s="5">
+        <v>25</v>
+      </c>
+      <c r="S14" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5">
+        <v>6</v>
+      </c>
+      <c r="N15" s="5">
+        <v>5</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5">
+        <v>5</v>
+      </c>
+      <c r="N16" s="5">
+        <v>5</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="5">
+        <v>25</v>
+      </c>
+      <c r="N17" s="5">
+        <v>30</v>
+      </c>
+      <c r="O17" s="5">
+        <v>35</v>
+      </c>
+      <c r="P17" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>50</v>
+      </c>
+      <c r="R17" s="5">
+        <v>50</v>
+      </c>
+      <c r="S17" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5">
+        <v>25</v>
+      </c>
+      <c r="N18" s="5">
+        <v>30</v>
+      </c>
+      <c r="O18" s="5">
+        <v>35</v>
+      </c>
+      <c r="P18" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>50</v>
+      </c>
+      <c r="R18" s="5">
+        <v>50</v>
+      </c>
+      <c r="S18" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5">
+        <v>5</v>
+      </c>
+      <c r="N19" s="5">
+        <v>5</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="5">
+        <v>15</v>
+      </c>
+      <c r="N20" s="5">
+        <v>20</v>
+      </c>
+      <c r="O20" s="5">
+        <v>20</v>
+      </c>
+      <c r="P20" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>50</v>
+      </c>
+      <c r="R20" s="5">
+        <v>50</v>
+      </c>
+      <c r="S20" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5">
+        <v>5</v>
+      </c>
+      <c r="N21" s="5">
+        <v>5</v>
+      </c>
+      <c r="O21" s="5">
+        <v>5</v>
+      </c>
+      <c r="P21" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>50</v>
+      </c>
+      <c r="R21" s="5">
+        <v>50</v>
+      </c>
+      <c r="S21" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5">
+        <v>6</v>
+      </c>
+      <c r="N22" s="5">
+        <v>5</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="5">
+        <v>6</v>
+      </c>
+      <c r="N23" s="5">
+        <v>5</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="9">
+        <f>SUM(M4:M23)</f>
+        <v>258</v>
+      </c>
+      <c r="N24" s="9">
+        <f>SUM(N4:N23)</f>
+        <v>360</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" ref="O24:S24" si="0">SUM(O4:O23)</f>
+        <v>500</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="0"/>
+        <v>685</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="9">
+        <f>+M32/M27</f>
+        <v>258.07499999999999</v>
+      </c>
+      <c r="N26" s="9">
+        <f>+N32/N27</f>
+        <v>362.85</v>
+      </c>
+      <c r="O26" s="9">
+        <v>450</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5">
+        <v>40</v>
+      </c>
+      <c r="N27" s="5">
+        <v>40</v>
+      </c>
+      <c r="O27" s="5">
+        <v>40</v>
+      </c>
+      <c r="P27" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5">
+        <v>73</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5">
+        <v>77</v>
+      </c>
+      <c r="M29" s="5">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="N29">
+        <v>73</v>
+      </c>
+      <c r="O29">
+        <f>+N29</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5">
         <v>372</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5">
         <v>643</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H30" s="5">
         <v>622</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I30" s="5">
         <v>496</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J30" s="5">
         <v>200</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K30" s="5">
         <v>226</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L30" s="5">
         <v>295</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M30" s="5">
         <v>379</v>
       </c>
-      <c r="N5" s="2">
-        <f>J5*1.1</f>
-        <v>220.00000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="N30" s="2">
+        <v>416</v>
+      </c>
+      <c r="O30">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5">
         <v>154</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5">
         <v>125</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H31" s="5">
         <v>138</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I31" s="5">
         <v>220</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J31" s="5">
         <v>251</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K31" s="5">
         <v>294</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L31" s="5">
         <v>296</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M31" s="5">
         <v>253</v>
       </c>
-      <c r="N6" s="2">
-        <f>J6*1.1</f>
-        <v>276.10000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="N31" s="2">
+        <v>261</v>
+      </c>
+      <c r="O31" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5">
         <v>2050</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E32" s="5">
         <v>2370</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F32" s="5">
         <v>2940</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G32" s="5">
         <v>3260</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H32" s="5">
         <v>3750</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I32" s="5">
         <v>3810</v>
       </c>
-      <c r="J7" s="5">
-        <v>3830</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="J32" s="5">
+        <v>3833</v>
+      </c>
+      <c r="K32" s="5">
         <v>3620</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L32" s="5">
         <v>4284</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M32" s="2">
         <v>10323</v>
       </c>
-      <c r="N7" s="2">
-        <f>N9*0.88</f>
-        <v>14080</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="N32" s="2">
+        <v>14514</v>
+      </c>
+      <c r="O32" s="5">
+        <v>18386</v>
+      </c>
+      <c r="P32" s="2">
+        <f>+P24*P27</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5">
         <v>2760</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
         <v>3420</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H33" s="5">
         <v>3620</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I33" s="5">
         <v>2040</v>
       </c>
-      <c r="J8" s="5">
-        <v>1570</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="J33" s="5">
+        <v>1574</v>
+      </c>
+      <c r="K33" s="5">
         <v>1830</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L33" s="5">
         <v>2240</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M33" s="5">
         <v>2486</v>
       </c>
-      <c r="N8" s="2">
-        <f>J8*1.05</f>
-        <v>1648.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="N33" s="2">
+        <v>2856</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C34" s="9">
         <v>5003</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D34" s="9">
         <v>5661</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E34" s="9">
         <v>6507</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F34" s="9">
         <v>7103</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G34" s="9">
         <v>7643</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H34" s="9">
         <v>8288</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I34" s="9">
         <v>6704</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J34" s="9">
+        <f>SUM(J29:J33)</f>
         <v>5931</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K34" s="9">
         <v>6051</v>
       </c>
-      <c r="L9" s="8">
-        <f>SUM(L4:L8)</f>
+      <c r="L34" s="8">
+        <f>SUM(L29:L33)</f>
         <v>7192</v>
       </c>
-      <c r="M9" s="8">
-        <f>SUM(M4:M8)</f>
+      <c r="M34" s="8">
+        <f>SUM(M29:M33)</f>
         <v>13507</v>
       </c>
-      <c r="N9" s="8">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
+      <c r="N34" s="9">
+        <f>SUM(N29:N33)</f>
+        <v>18120</v>
+      </c>
+      <c r="O34" s="9">
+        <f>SUM(O29:O33)</f>
+        <v>22103</v>
+      </c>
+      <c r="P34" s="15">
+        <f t="shared" ref="P34:S34" si="1">SUM(P29:P33)</f>
+        <v>28000</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C35" s="5">
         <v>1846</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D35" s="5">
         <v>2032</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E35" s="5">
         <v>2292</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5">
         <v>2644</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H35" s="5">
         <v>2857</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I35" s="5">
         <v>3789</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
+      <c r="J35" s="5">
+        <v>2754</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5">
         <v>2544</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M35" s="2">
         <v>4045</v>
       </c>
-      <c r="N10" s="2">
-        <f>N9*0.2</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
+      <c r="N35" s="2">
+        <v>4720</v>
+      </c>
+      <c r="O35" s="2">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
-        <f>+C9-C10</f>
+      <c r="C36" s="5">
+        <f>+C34-C35</f>
         <v>3157</v>
       </c>
-      <c r="D11" s="5">
-        <f>+D9-D10</f>
+      <c r="D36" s="5">
+        <f>+D34-D35</f>
         <v>3629</v>
       </c>
-      <c r="E11" s="5">
-        <f>+E9-E10</f>
+      <c r="E36" s="5">
+        <f>+E34-E35</f>
         <v>4215</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
-        <f>+G9-G10</f>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5">
+        <f>+G34-G35</f>
         <v>4999</v>
       </c>
-      <c r="H11" s="5">
-        <f>+H9-H10</f>
+      <c r="H36" s="5">
+        <f>+H34-H35</f>
         <v>5431</v>
       </c>
-      <c r="I11" s="5">
-        <f>+I9-I10</f>
+      <c r="I36" s="5">
+        <f>+I34-I35</f>
         <v>2915</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5">
-        <f>+L9-L10</f>
+      <c r="J36" s="5">
+        <f>+J34-J35</f>
+        <v>3177</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5">
+        <f>+L34-L35</f>
         <v>4648</v>
       </c>
-      <c r="M11" s="2">
-        <f>M9-M10</f>
+      <c r="M36" s="2">
+        <f>M34-M35</f>
         <v>9462</v>
       </c>
-      <c r="N11" s="2">
-        <f t="shared" ref="N11" si="0">N9-N10</f>
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
+      <c r="N36" s="2">
+        <f>+N34-N35</f>
+        <v>13400</v>
+      </c>
+      <c r="O36" s="2">
+        <f>+O34-O35</f>
+        <v>16791</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C37" s="5">
         <v>1147</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D37" s="5">
         <v>1153</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E37" s="5">
         <v>1245</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5">
         <v>1466</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H37" s="5">
         <v>1618</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I37" s="5">
         <v>1824</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5">
+      <c r="J37" s="5">
+        <v>1945</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5">
         <v>1875</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M37" s="2">
         <v>2040</v>
       </c>
-      <c r="N12" s="2">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
+      <c r="N37" s="2">
+        <v>2294</v>
+      </c>
+      <c r="O37" s="2">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C38" s="5">
         <v>503</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D38" s="5">
         <v>520</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E38" s="5">
         <v>526</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5">
         <v>563</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H38" s="5">
         <v>592</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I38" s="5">
         <v>592</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5">
+      <c r="J38" s="5">
+        <v>631</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5">
         <v>633</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M38" s="2">
         <v>622</v>
       </c>
-      <c r="N13" s="2">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
+      <c r="N38" s="2">
+        <v>689</v>
+      </c>
+      <c r="O38" s="2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5">
-        <f t="shared" ref="C14" si="1">+C12+C13</f>
+      <c r="C39" s="5">
+        <f t="shared" ref="C39" si="2">+C37+C38</f>
         <v>1650</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" ref="D14:E14" si="2">+D12+D13</f>
+      <c r="D39" s="5">
+        <f t="shared" ref="D39:E39" si="3">+D37+D38</f>
         <v>1673</v>
       </c>
-      <c r="E14" s="5">
-        <f t="shared" si="2"/>
+      <c r="E39" s="5">
+        <f t="shared" si="3"/>
         <v>1771</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <f t="shared" ref="G14" si="3">+G12+G13</f>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5">
+        <f t="shared" ref="G39" si="4">+G37+G38</f>
         <v>2029</v>
       </c>
-      <c r="H14" s="5">
-        <f>+H12+H13</f>
+      <c r="H39" s="5">
+        <f>+H37+H38</f>
         <v>2210</v>
       </c>
-      <c r="I14" s="5">
-        <f t="shared" ref="I14" si="4">+I12+I13</f>
+      <c r="I39" s="5">
+        <f t="shared" ref="I39" si="5">+I37+I38</f>
         <v>2416</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
-        <f>+L12+L13</f>
+      <c r="J39" s="5">
+        <f>+J37+J38</f>
+        <v>2576</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5">
+        <f>+L37+L38</f>
         <v>2508</v>
       </c>
-      <c r="M14" s="5">
-        <f>+M12+M13</f>
+      <c r="M39" s="5">
+        <f>+M37+M38</f>
         <v>2662</v>
       </c>
-      <c r="N14" s="5">
-        <f t="shared" ref="N14" si="5">+N12+N13</f>
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
+      <c r="N39" s="5">
+        <f t="shared" ref="N39:O39" si="6">+N37+N38</f>
+        <v>2983</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="6"/>
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
-        <f t="shared" ref="C15" si="6">+C11-C14</f>
+      <c r="C40" s="5">
+        <f t="shared" ref="C40" si="7">+C36-C39</f>
         <v>1507</v>
       </c>
-      <c r="D15" s="5">
-        <f t="shared" ref="D15:E15" si="7">+D11-D14</f>
+      <c r="D40" s="5">
+        <f t="shared" ref="D40:E40" si="8">+D36-D39</f>
         <v>1956</v>
       </c>
-      <c r="E15" s="5">
-        <f t="shared" si="7"/>
+      <c r="E40" s="5">
+        <f t="shared" si="8"/>
         <v>2444</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
-        <f t="shared" ref="G15" si="8">+G11-G14</f>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5">
+        <f t="shared" ref="G40" si="9">+G36-G39</f>
         <v>2970</v>
       </c>
-      <c r="H15" s="5">
-        <f>+H11-H14</f>
+      <c r="H40" s="5">
+        <f>+H36-H39</f>
         <v>3221</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" ref="I15" si="9">+I11-I14</f>
+      <c r="I40" s="5">
+        <f t="shared" ref="I40" si="10">+I36-I39</f>
         <v>499</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
-        <f>+L11-L14</f>
+      <c r="J40" s="5">
+        <f>+J36-J39</f>
+        <v>601</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5">
+        <f>+L36-L39</f>
         <v>2140</v>
       </c>
-      <c r="M15" s="5">
-        <f>+M11-M14</f>
+      <c r="M40" s="5">
+        <f>+M36-M39</f>
         <v>6800</v>
       </c>
-      <c r="N15" s="5">
-        <f t="shared" ref="N15" si="10">+N11-N14</f>
-        <v>10138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
+      <c r="N40" s="5">
+        <f t="shared" ref="N40:O40" si="11">+N36-N39</f>
+        <v>10417</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="11"/>
+        <v>13615</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C41" s="5">
         <v>-37</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D41" s="5">
         <v>88</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E41" s="5">
         <v>-50</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5">
         <v>-105</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H41" s="5">
         <f>18-68-13</f>
         <v>-63</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I41" s="5">
         <v>-24</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5">
+      <c r="J41" s="5">
+        <v>12</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5">
         <f>150-66-15</f>
         <v>69</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M41" s="2">
         <f>187-65+59</f>
         <v>181</v>
       </c>
-      <c r="N16" s="2">
-        <f t="shared" ref="N16" si="11">187-65+59</f>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
+      <c r="N41" s="2">
+        <f>234-63-66</f>
+        <v>105</v>
+      </c>
+      <c r="O41" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5">
-        <f>+C15+C16</f>
+      <c r="C42" s="5">
+        <f>+C40+C41</f>
         <v>1470</v>
       </c>
-      <c r="D17" s="5">
-        <f>+D15+D16</f>
+      <c r="D42" s="5">
+        <f>+D40+D41</f>
         <v>2044</v>
       </c>
-      <c r="E17" s="5">
-        <f>+E15+E16</f>
+      <c r="E42" s="5">
+        <f>+E40+E41</f>
         <v>2394</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5">
-        <f>+G15+G16</f>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5">
+        <f>+G40+G41</f>
         <v>2865</v>
       </c>
-      <c r="H17" s="5">
-        <f>+H15+H16</f>
+      <c r="H42" s="5">
+        <f>+H40+H41</f>
         <v>3158</v>
       </c>
-      <c r="I17" s="5">
-        <f>+I15+I16</f>
+      <c r="I42" s="5">
+        <f>+I40+I41</f>
         <v>475</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5">
-        <f>+L15+L16</f>
+      <c r="J42" s="5">
+        <f>+J40+J41</f>
+        <v>613</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5">
+        <f>+L40+L41</f>
         <v>2209</v>
       </c>
-      <c r="M17" s="5">
-        <f>+M15+M16</f>
+      <c r="M42" s="5">
+        <f>+M40+M41</f>
         <v>6981</v>
       </c>
-      <c r="N17" s="5">
-        <f t="shared" ref="N17" si="12">+N15+N16</f>
-        <v>10319</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
+      <c r="N42" s="5">
+        <f t="shared" ref="N42:O42" si="12">+N40+N41</f>
+        <v>10522</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="12"/>
+        <v>14106</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C43" s="5">
         <v>13</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D43" s="5">
         <v>132</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E43" s="5">
         <v>20</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
         <v>-138</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H43" s="5">
         <v>187</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I43" s="5">
         <v>-181</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
+      <c r="J43" s="5">
+        <v>-67</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5">
         <v>166</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M43" s="2">
         <v>793</v>
       </c>
-      <c r="N18" s="2">
-        <f>N17*0.1</f>
-        <v>1031.9000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
+      <c r="N43" s="2">
+        <v>1279</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="5">
-        <f>+C17-C18</f>
+      <c r="C44" s="5">
+        <f>+C42-C43</f>
         <v>1457</v>
       </c>
-      <c r="D19" s="5">
-        <f>+D17-D18</f>
+      <c r="D44" s="5">
+        <f>+D42-D43</f>
         <v>1912</v>
       </c>
-      <c r="E19" s="5">
-        <f>+E17-E18</f>
+      <c r="E44" s="5">
+        <f>+E42-E43</f>
         <v>2374</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5">
-        <f>+G17-G18</f>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5">
+        <f>+G42-G43</f>
         <v>3003</v>
       </c>
-      <c r="H19" s="5">
-        <f>+H17-H18</f>
+      <c r="H44" s="5">
+        <f>+H42-H43</f>
         <v>2971</v>
       </c>
-      <c r="I19" s="5">
-        <f>+I17-I18</f>
+      <c r="I44" s="5">
+        <f>+I42-I43</f>
         <v>656</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5">
-        <f>+L17-L18</f>
+      <c r="J44" s="5">
+        <f>+J42-J43</f>
+        <v>680</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5">
+        <f>+L42-L43</f>
         <v>2043</v>
       </c>
-      <c r="M19" s="2">
-        <f>M17-M18</f>
+      <c r="M44" s="2">
+        <f>M42-M43</f>
         <v>6188</v>
       </c>
-      <c r="N19" s="2">
-        <f t="shared" ref="N19" si="13">N17-N18</f>
-        <v>9287.1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+      <c r="N44" s="2">
+        <f t="shared" ref="N44" si="13">N42-N43</f>
+        <v>9243</v>
+      </c>
+      <c r="O44" s="2">
+        <f>+O42-O43</f>
+        <v>12285</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="6">
-        <f>+C19/C21</f>
+      <c r="C45" s="6">
+        <f>+C44/C46</f>
         <v>0.57725832012678291</v>
       </c>
-      <c r="D20" s="6">
-        <f>+D19/D21</f>
+      <c r="D45" s="6">
+        <f>+D44/D46</f>
         <v>0.75632911392405067</v>
       </c>
-      <c r="E20" s="6">
-        <f>+E19/E21</f>
+      <c r="E45" s="6">
+        <f>+E44/E46</f>
         <v>0.93759873617693523</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6">
-        <f>+G19/G21</f>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6">
+        <f>+G44/G46</f>
         <v>1.1799607072691551</v>
       </c>
-      <c r="H20" s="6">
-        <f>+H19/H21</f>
+      <c r="H45" s="6">
+        <f>+H44/H46</f>
         <v>1.1710681907765077</v>
       </c>
-      <c r="I20" s="6">
-        <f>+I19/I21</f>
+      <c r="I45" s="6">
+        <f>+I44/I46</f>
         <v>0.26073131955484896</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6">
-        <f>+L19/L21</f>
+      <c r="J45" s="6">
+        <f>+J44/J46</f>
+        <v>0.27210884353741499</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6">
+        <f>+L44/L46</f>
         <v>0.82048192771084338</v>
       </c>
-      <c r="M20" s="6">
-        <f>+M19/M21</f>
+      <c r="M45" s="6">
+        <f>+M44/M46</f>
         <v>2.4761904761904763</v>
       </c>
-      <c r="N20" s="6">
-        <f t="shared" ref="N20" si="14">+N19/N21</f>
-        <v>3.7163265306122448</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+      <c r="N45" s="6">
+        <f t="shared" ref="N45:O45" si="14">+N44/N46</f>
+        <v>3.7060946271050521</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="14"/>
+        <v>4.9337349397590362</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C46" s="5">
         <v>2524</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D46" s="5">
         <v>2528</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E46" s="5">
         <v>2532</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G46" s="5">
         <v>2545</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H46" s="5">
         <v>2537</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I46" s="5">
         <v>2516</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5">
+      <c r="J46" s="5">
+        <v>2499</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5">
         <v>2490</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M46" s="5">
         <v>2499</v>
       </c>
-      <c r="N21" s="5">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="N46" s="5">
+        <v>2494</v>
+      </c>
+      <c r="O46" s="2">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12">
+        <f>+G34/C34-1</f>
+        <v>0.52768338996602049</v>
+      </c>
+      <c r="H48" s="12">
+        <f>+H34/D34-1</f>
+        <v>0.46405228758169925</v>
+      </c>
+      <c r="I48" s="12">
+        <f>+I34/E34-1</f>
+        <v>3.0275088366374714E-2</v>
+      </c>
+      <c r="J48" s="12">
+        <f>+J34/F34-1</f>
+        <v>-0.16500070392791777</v>
+      </c>
+      <c r="K48" s="12">
+        <f>+K34/G34-1</f>
+        <v>-0.20829517205285886</v>
+      </c>
+      <c r="L48" s="12">
+        <f>+L34/H34-1</f>
+        <v>-0.13223938223938225</v>
+      </c>
+      <c r="M48" s="12">
+        <f>+M34/I34-1</f>
+        <v>1.0147673031026252</v>
+      </c>
+      <c r="N48" s="12">
+        <f>+N34/J34-1</f>
+        <v>2.0551340414769852</v>
+      </c>
+      <c r="O48" s="12">
+        <f>+O34/K34-1</f>
+        <v>2.6527846636919516</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="12">
+        <f>+D34/C34-1</f>
+        <v>0.13152108734759138</v>
+      </c>
+      <c r="E49" s="12">
+        <f>+E34/D34-1</f>
+        <v>0.14944356120826718</v>
+      </c>
+      <c r="F49" s="12">
+        <f>+F34/E34-1</f>
+        <v>9.1593668357153879E-2</v>
+      </c>
+      <c r="G49" s="12">
+        <f>+G34/F34-1</f>
+        <v>7.6024215120371608E-2</v>
+      </c>
+      <c r="H49" s="12">
+        <f>+H34/G34-1</f>
+        <v>8.4390945963626951E-2</v>
+      </c>
+      <c r="I49" s="12">
+        <f>+I34/H34-1</f>
+        <v>-0.19111969111969107</v>
+      </c>
+      <c r="J49" s="12">
+        <f>+J34/I34-1</f>
+        <v>-0.11530429594272074</v>
+      </c>
+      <c r="K49" s="12">
+        <f>+K34/J34-1</f>
+        <v>2.0232675771370667E-2</v>
+      </c>
+      <c r="L49" s="12">
+        <f>+L34/K34-1</f>
+        <v>0.1885638737398776</v>
+      </c>
+      <c r="M49" s="12">
+        <f>+M34/L34-1</f>
+        <v>0.87805895439377091</v>
+      </c>
+      <c r="N49" s="12">
+        <f>+N34/M34-1</f>
+        <v>0.34152661582882948</v>
+      </c>
+      <c r="O49" s="12">
+        <f>+O34/N34-1</f>
+        <v>0.21981236203090515</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="12">
+        <f>+E32/D32-1</f>
+        <v>0.15609756097560967</v>
+      </c>
+      <c r="F50" s="12">
+        <f>+F32/E32-1</f>
+        <v>0.240506329113924</v>
+      </c>
+      <c r="G50" s="12">
+        <f>+G32/F32-1</f>
+        <v>0.10884353741496589</v>
+      </c>
+      <c r="H50" s="12">
+        <f>+H32/G32-1</f>
+        <v>0.15030674846625769</v>
+      </c>
+      <c r="I50" s="12">
+        <f>+I32/H32-1</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="J50" s="12">
+        <f>+J32/I32-1</f>
+        <v>6.0367454068241955E-3</v>
+      </c>
+      <c r="K50" s="12">
+        <f>+K32/J32-1</f>
+        <v>-5.5570049569527824E-2</v>
+      </c>
+      <c r="L50" s="12">
+        <f>+L32/K32-1</f>
+        <v>0.18342541436464099</v>
+      </c>
+      <c r="M50" s="12">
+        <f>+M32/L32-1</f>
+        <v>1.4096638655462184</v>
+      </c>
+      <c r="N50" s="12">
+        <f>+N32/M32-1</f>
+        <v>0.40598663179308336</v>
+      </c>
+      <c r="O50" s="12">
+        <f>+O32/N32-1</f>
+        <v>0.26677690505718621</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="7">
-        <f>C11/C9</f>
+      <c r="C51" s="7">
+        <f>C36/C34</f>
         <v>0.6310213871676994</v>
       </c>
-      <c r="D23" s="7">
-        <f>D11/D9</f>
+      <c r="D51" s="7">
+        <f>D36/D34</f>
         <v>0.6410528175234057</v>
       </c>
-      <c r="E23" s="7">
-        <f>E11/E9</f>
+      <c r="E51" s="7">
+        <f>E36/E34</f>
         <v>0.64776394651913327</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7">
-        <f>G11/G9</f>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7">
+        <f>G36/G34</f>
         <v>0.65406254088708626</v>
       </c>
-      <c r="H23" s="7">
-        <f>H11/H9</f>
+      <c r="H51" s="7">
+        <f>H36/H34</f>
         <v>0.65528474903474898</v>
       </c>
-      <c r="I23" s="7">
-        <f>I11/I9</f>
+      <c r="I51" s="7">
+        <f>I36/I34</f>
         <v>0.43481503579952269</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7">
-        <f>L11/L9</f>
+      <c r="J51" s="7">
+        <f>J36/J34</f>
+        <v>0.53566009104704093</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7">
+        <f>L36/L34</f>
         <v>0.64627363737486099</v>
       </c>
-      <c r="M23" s="7">
-        <f>M11/M9</f>
+      <c r="M51" s="7">
+        <f>M36/M34</f>
         <v>0.7005256533649219</v>
       </c>
-      <c r="N23" s="7">
-        <f>N11/N9</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="N51" s="7">
+        <f>N36/N34</f>
+        <v>0.73951434878587197</v>
+      </c>
+      <c r="O51" s="7">
+        <f>O36/O34</f>
+        <v>0.75967063294575399</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="7">
-        <f t="shared" ref="C24:H24" si="15">C7/C9</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C52" s="7">
+        <f t="shared" ref="C52:H52" si="15">C32/C34</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
         <f t="shared" si="15"/>
         <v>0.36212683271506801</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E52" s="7">
         <f t="shared" si="15"/>
         <v>0.36422314430613184</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F52" s="7">
         <f t="shared" si="15"/>
         <v>0.41390961565535689</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G52" s="7">
         <f t="shared" si="15"/>
         <v>0.42653408347507521</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H52" s="7">
         <f t="shared" si="15"/>
         <v>0.45246138996138996</v>
       </c>
-      <c r="I24" s="7">
-        <f t="shared" ref="I24:N24" si="16">I7/I9</f>
+      <c r="I52" s="7">
+        <f>I32/I34</f>
         <v>0.56831742243436756</v>
       </c>
-      <c r="J24" s="7">
-        <f t="shared" si="16"/>
-        <v>0.64575956836958359</v>
-      </c>
-      <c r="K24" s="7">
-        <f t="shared" si="16"/>
+      <c r="J52" s="7">
+        <f>J32/J34</f>
+        <v>0.64626538526386779</v>
+      </c>
+      <c r="K52" s="7">
+        <f>K32/K34</f>
         <v>0.59824822343414308</v>
       </c>
-      <c r="L24" s="7">
-        <f t="shared" si="16"/>
+      <c r="L52" s="7">
+        <f>L32/L34</f>
         <v>0.59566184649610676</v>
       </c>
-      <c r="M24" s="7">
-        <f t="shared" si="16"/>
+      <c r="M52" s="7">
+        <f>M32/M34</f>
         <v>0.76427037832235134</v>
       </c>
-      <c r="N24" s="7">
-        <f t="shared" si="16"/>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
+      <c r="N52" s="7">
+        <f>N32/N34</f>
+        <v>0.80099337748344368</v>
+      </c>
+      <c r="O52" s="7">
+        <f t="shared" ref="O52" si="16">O32/O34</f>
+        <v>0.83183278288015206</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="2">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="2">
         <f>5079+10241</f>
         <v>15320</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M55" s="2">
         <f>5783+10240</f>
         <v>16023</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="2" t="s">
+      <c r="N55" s="2">
+        <f>5519+12762</f>
+        <v>18281</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="2">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="2">
         <v>4080</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M56" s="2">
         <v>7066</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="2" t="s">
+      <c r="N56" s="2">
+        <v>8309</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="2">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="2">
         <v>4611</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M57" s="2">
         <v>4319</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="2" t="s">
+      <c r="N57" s="2">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="2">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="2">
         <v>872</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M58" s="2">
         <v>1389</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
+      <c r="N58" s="2">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="2">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="2">
         <v>3740</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M59" s="2">
         <v>3799</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
+      <c r="N59" s="2">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="2">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="2">
         <v>1094</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M60" s="2">
         <v>1235</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="2" t="s">
+      <c r="N60" s="2">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="2">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="2">
         <f>4430+1541</f>
         <v>5971</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M61" s="2">
         <f>4430+1395</f>
         <v>5825</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="2" t="s">
+      <c r="N61" s="2">
+        <f>4430+1251</f>
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="2">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="2">
         <v>4568</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M62" s="2">
         <v>5398</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="2" t="s">
+      <c r="N62" s="2">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="2">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="2">
         <v>4204</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M63" s="2">
         <v>4501</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="2" t="s">
+      <c r="N63" s="2">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="2">
-        <f t="shared" ref="L36" si="17">SUM(L27:L35)</f>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="2">
+        <f t="shared" ref="L64" si="17">SUM(L55:L63)</f>
         <v>44460</v>
       </c>
-      <c r="M36" s="2">
-        <f>SUM(M27:M35)</f>
+      <c r="M64" s="2">
+        <f>SUM(M55:M63)</f>
         <v>49555</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="2" t="s">
+      <c r="N64" s="2">
+        <f>SUM(N55:N63)</f>
+        <v>54148</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="2">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="2">
         <v>1141</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M66" s="2">
         <v>1929</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="2" t="s">
+      <c r="N66" s="2">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="2">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="2">
         <v>4869</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M67" s="2">
         <v>7156</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="2" t="s">
+      <c r="N67" s="2">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="2">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="2">
         <f>1250+9704</f>
         <v>10954</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M68" s="2">
         <f>1249+8456</f>
         <v>9705</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
+      <c r="N68" s="2">
+        <f>1249+8457</f>
+        <v>9706</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="2">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="2">
         <f>939</f>
         <v>939</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M69" s="2">
         <v>1041</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="2" t="s">
+      <c r="N69" s="2">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="2">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="2">
         <v>2037</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M70" s="2">
         <v>2223</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="2" t="s">
+      <c r="N70" s="2">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="2">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="2">
         <v>24520</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M71" s="2">
         <v>27501</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="2" t="s">
+      <c r="N71" s="2">
+        <v>33265</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="2">
-        <f t="shared" ref="L44" si="18">SUM(L38:L43)</f>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="2">
+        <f t="shared" ref="L72" si="18">SUM(L66:L71)</f>
         <v>44460</v>
       </c>
-      <c r="M44" s="2">
-        <f>SUM(M38:M43)</f>
+      <c r="M72" s="2">
+        <f>SUM(M66:M71)</f>
         <v>49555</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B46" s="2" t="s">
+      <c r="N72" s="2">
+        <f>SUM(N66:N71)</f>
+        <v>54148</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="L73" s="5"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L46" s="5">
-        <f>L19</f>
+      <c r="L74" s="5">
+        <f>L44</f>
         <v>2043</v>
       </c>
-      <c r="M46" s="5">
-        <f>M19</f>
+      <c r="M74" s="5">
+        <f>M44</f>
         <v>6188</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B47" s="2" t="s">
+      <c r="N74" s="5">
+        <f>N44</f>
+        <v>9243</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B75" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L75" s="5">
         <v>735</v>
       </c>
-      <c r="M47">
-        <f>1576-L47</f>
+      <c r="M75" s="2">
+        <f>1576-L75</f>
         <v>841</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B48" s="2" t="s">
+      <c r="N75" s="2">
+        <f>2555-M75-L75</f>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B76" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L76" s="5">
         <v>384</v>
       </c>
-      <c r="M48">
-        <f>749-L48</f>
+      <c r="M76" s="2">
+        <f>749-L76</f>
         <v>365</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B49" s="2" t="s">
+      <c r="N76" s="2">
+        <f>1121-M76-L76</f>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B77" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L77" s="5">
         <v>14</v>
       </c>
-      <c r="M49">
-        <f>-45-L49</f>
+      <c r="M77" s="2">
+        <f>-45-L77</f>
         <v>-59</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B50" s="2" t="s">
+      <c r="N77" s="2">
+        <f>24-M77-L77</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B78" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L78" s="5">
         <v>-1135</v>
       </c>
-      <c r="M50">
-        <f>-1881-L50</f>
+      <c r="M78" s="2">
+        <f>-1881-L78</f>
         <v>-746</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B51" s="2" t="s">
+      <c r="N78" s="2">
+        <f>-2411-M78-L78</f>
+        <v>-530</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B79" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L79" s="5">
         <v>-34</v>
       </c>
-      <c r="M51">
-        <f>-102-L51</f>
+      <c r="M79" s="2">
+        <f>-102-L79</f>
         <v>-68</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
+      <c r="N79" s="2">
+        <f>-170-M79-L79</f>
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B80" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L80" s="11">
         <f>-252+566-215+11+689+105</f>
         <v>904</v>
       </c>
-      <c r="M52">
-        <f>-3239+861-592+789+2675+236-L52</f>
+      <c r="M80" s="10">
+        <f>-3239+861-592+789+2675+236-L80</f>
         <v>-174</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+      <c r="N80" s="10">
+        <f>-4482+405-337+1250+953+208-M80-L80</f>
+        <v>-2733</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
         <v>54</v>
       </c>
-      <c r="L53" s="5">
-        <f>SUM(L46:L52)</f>
+      <c r="L81" s="11">
+        <f>SUM(L74:L80)</f>
         <v>2911</v>
       </c>
-      <c r="M53" s="5">
-        <f>SUM(M46:M52)</f>
+      <c r="M81" s="11">
+        <f>SUM(M74:M80)</f>
         <v>6347</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B55" s="2" t="s">
+      <c r="N81" s="11">
+        <f>SUM(N74:N80)</f>
+        <v>7332</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="L82" s="5"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B83" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L83" s="5">
         <f>2512-2801-221</f>
         <v>-510</v>
       </c>
-      <c r="M55">
-        <f>5111-5343-L55-435</f>
+      <c r="M83" s="2">
+        <f>5111-5343-L83-435</f>
         <v>-157</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B56" s="2" t="s">
+      <c r="N83" s="2">
+        <f>8001-10688-M83-L83-872</f>
+        <v>-2892</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B84" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L84" s="5">
         <v>-248</v>
       </c>
-      <c r="M56">
-        <f>-537-L56</f>
+      <c r="M84" s="2">
+        <f>-537-L84</f>
         <v>-289</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B57" s="2" t="s">
+      <c r="N84" s="2">
+        <f>-815-M84-L84</f>
+        <v>-278</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B85" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L85" s="5">
         <v>-83</v>
       </c>
-      <c r="M57">
-        <f>-83-L57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B58" s="2" t="s">
+      <c r="M85" s="2">
+        <f>-83-L85</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="2">
+        <f>-83-M85-L85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B86" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L58" s="3">
-        <f>SUM(L55:L57)</f>
+      <c r="L86" s="5">
+        <f>SUM(L83:L85)</f>
         <v>-841</v>
       </c>
-      <c r="M58" s="3">
-        <f>SUM(M55:M57)</f>
+      <c r="M86" s="5">
+        <f>SUM(M83:M85)</f>
         <v>-446</v>
       </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B60" s="2" t="s">
+      <c r="N86" s="5">
+        <f>SUM(N83:N85)</f>
+        <v>-3170</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B88" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L88" s="5">
         <f>246</f>
         <v>246</v>
       </c>
-      <c r="M60" s="2">
-        <f>247-L60</f>
+      <c r="M88" s="2">
+        <f>247-L88</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B61" s="2" t="s">
+      <c r="N88" s="2">
+        <f>403-M88-L88</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B89" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L89" s="5">
         <v>-507</v>
       </c>
-      <c r="M61" s="2">
-        <f>-1179-L61</f>
+      <c r="M89" s="2">
+        <f>-1179-L89</f>
         <v>-672</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B62" s="2" t="s">
+      <c r="N89" s="2">
+        <f>-1942-M89-L89</f>
+        <v>-763</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L90" s="5">
         <v>-99</v>
       </c>
-      <c r="M62" s="2">
-        <f>-199-L62</f>
+      <c r="M90" s="2">
+        <f>-199-L90</f>
         <v>-100</v>
       </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B63" s="2" t="s">
+      <c r="N90" s="2">
+        <f>-296-M90-L90</f>
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B91" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L63" s="5">
-        <v>0</v>
-      </c>
-      <c r="M63" s="2">
-        <f>-3067-L63</f>
+      <c r="L91" s="5">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <f>-3067-L91</f>
         <v>-3067</v>
       </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B64" s="2" t="s">
+      <c r="N91" s="2">
+        <f>-6874-M91-L91</f>
+        <v>-3807</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B92" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L64" s="5">
-        <v>0</v>
-      </c>
-      <c r="M64" s="2">
-        <f>-1250-L64</f>
+      <c r="L92" s="5">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <f>-1250-L92</f>
         <v>-1250</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B65" s="2" t="s">
+      <c r="N92" s="2">
+        <f>-1250-M92-L92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B93" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L93" s="5">
         <v>-20</v>
       </c>
-      <c r="M65" s="2">
-        <f>-31-L65</f>
+      <c r="M93" s="2">
+        <f>-31-L93</f>
         <v>-11</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
+      <c r="N93" s="2">
+        <f>-44-M93-L93</f>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
         <v>64</v>
       </c>
-      <c r="L66" s="5">
-        <f>SUM(L60:L65)</f>
+      <c r="L94" s="5">
+        <f>SUM(L88:L93)</f>
         <v>-380</v>
       </c>
-      <c r="M66" s="5">
-        <f>SUM(M60:M65)</f>
+      <c r="M94" s="5">
+        <f>SUM(M88:M93)</f>
         <v>-5099</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
+      <c r="N94" s="5">
+        <f>SUM(N88:N93)</f>
+        <v>-4524</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
         <v>63</v>
       </c>
-      <c r="L67" s="5">
-        <f>L66+L58+L53</f>
+      <c r="L95" s="5">
+        <f>L94+L86+L81</f>
         <v>1690</v>
       </c>
-      <c r="M67" s="5">
-        <f>M66+M58+M53</f>
+      <c r="M95" s="5">
+        <f>M94+M86+M81</f>
         <v>802</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
+      <c r="N95" s="5">
+        <f>N94+N86+N81</f>
+        <v>-362</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
         <v>70</v>
       </c>
-      <c r="L69" s="5">
-        <f>(L28/L9)*90</f>
+      <c r="L97" s="5">
+        <f>(L56/L34)*90</f>
         <v>51.056729699666299</v>
       </c>
-      <c r="M69" s="5">
-        <f>(M28/M9)*90</f>
+      <c r="M97" s="5">
+        <f>(M56/M34)*90</f>
         <v>47.082253646257499</v>
+      </c>
+      <c r="N97" s="5">
+        <f>(N56/N34)*90</f>
+        <v>41.269867549668874</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AF3AAC-01AB-4B45-833B-91B200A793E2}">
+  <dimension ref="C4:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4">
+        <v>665</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5">
+        <v>665</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <f>+F4+F5</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D8" s="12">
+        <f>+F7/D9</f>
+        <v>0.12762762762762764</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>666</v>
+      </c>
+      <c r="E9" s="13">
+        <f>+D9-85</f>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E10" s="13">
+        <f>+D9+85</f>
+        <v>751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE3168B-1D99-0848-ABD8-E6D84E0F6213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A3EE6-F7A0-3543-A8FD-90EF5C64F6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17460" yWindow="1880" windowWidth="16760" windowHeight="18380" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-32080" yWindow="1840" windowWidth="31380" windowHeight="18420" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -409,12 +409,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -438,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -461,16 +455,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -870,13 +857,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -890,12 +877,16 @@
     <col min="11" max="12" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="V1">
+        <f>10000/1000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C2" s="4">
         <v>44227</v>
       </c>
@@ -956,7 +947,7 @@
         <v>45686</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1009,7 +1000,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>76</v>
       </c>
@@ -1045,7 +1036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -1081,7 +1072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -1117,7 +1108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -1153,7 +1144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>79</v>
       </c>
@@ -1189,7 +1180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>89</v>
       </c>
@@ -1225,7 +1216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1262,7 +1253,7 @@
       </c>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -1298,7 +1289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>90</v>
       </c>
@@ -1334,8 +1325,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="4"/>
@@ -1370,7 +1361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -1406,7 +1397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -1442,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -1730,20 +1721,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="9">
         <f>SUM(M4:M23)</f>
         <v>258</v>
@@ -1792,20 +1783,20 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="13" t="s">
+    <row r="26" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="9">
         <f>+M32/M27</f>
         <v>258.07499999999999</v>
@@ -1817,10 +1808,10 @@
       <c r="O26" s="9">
         <v>450</v>
       </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -2108,7 +2099,7 @@
         <f>SUM(O29:O33)</f>
         <v>22103</v>
       </c>
-      <c r="P34" s="15">
+      <c r="P34" s="5">
         <f t="shared" ref="P34:S34" si="1">SUM(P29:P33)</f>
         <v>28000</v>
       </c>
@@ -2678,41 +2669,41 @@
       <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12">
-        <f>+G34/C34-1</f>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10">
+        <f t="shared" ref="G48:O48" si="15">+G34/C34-1</f>
         <v>0.52768338996602049</v>
       </c>
-      <c r="H48" s="12">
-        <f>+H34/D34-1</f>
+      <c r="H48" s="10">
+        <f t="shared" si="15"/>
         <v>0.46405228758169925</v>
       </c>
-      <c r="I48" s="12">
-        <f>+I34/E34-1</f>
+      <c r="I48" s="10">
+        <f t="shared" si="15"/>
         <v>3.0275088366374714E-2</v>
       </c>
-      <c r="J48" s="12">
-        <f>+J34/F34-1</f>
+      <c r="J48" s="10">
+        <f t="shared" si="15"/>
         <v>-0.16500070392791777</v>
       </c>
-      <c r="K48" s="12">
-        <f>+K34/G34-1</f>
+      <c r="K48" s="10">
+        <f t="shared" si="15"/>
         <v>-0.20829517205285886</v>
       </c>
-      <c r="L48" s="12">
-        <f>+L34/H34-1</f>
+      <c r="L48" s="10">
+        <f t="shared" si="15"/>
         <v>-0.13223938223938225</v>
       </c>
-      <c r="M48" s="12">
-        <f>+M34/I34-1</f>
+      <c r="M48" s="10">
+        <f t="shared" si="15"/>
         <v>1.0147673031026252</v>
       </c>
-      <c r="N48" s="12">
-        <f>+N34/J34-1</f>
+      <c r="N48" s="10">
+        <f t="shared" si="15"/>
         <v>2.0551340414769852</v>
       </c>
-      <c r="O48" s="12">
-        <f>+O34/K34-1</f>
+      <c r="O48" s="10">
+        <f t="shared" si="15"/>
         <v>2.6527846636919516</v>
       </c>
     </row>
@@ -2720,52 +2711,52 @@
       <c r="B49" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="12">
-        <f>+D34/C34-1</f>
+      <c r="D49" s="10">
+        <f t="shared" ref="D49:O49" si="16">+D34/C34-1</f>
         <v>0.13152108734759138</v>
       </c>
-      <c r="E49" s="12">
-        <f>+E34/D34-1</f>
+      <c r="E49" s="10">
+        <f t="shared" si="16"/>
         <v>0.14944356120826718</v>
       </c>
-      <c r="F49" s="12">
-        <f>+F34/E34-1</f>
+      <c r="F49" s="10">
+        <f t="shared" si="16"/>
         <v>9.1593668357153879E-2</v>
       </c>
-      <c r="G49" s="12">
-        <f>+G34/F34-1</f>
+      <c r="G49" s="10">
+        <f t="shared" si="16"/>
         <v>7.6024215120371608E-2</v>
       </c>
-      <c r="H49" s="12">
-        <f>+H34/G34-1</f>
+      <c r="H49" s="10">
+        <f t="shared" si="16"/>
         <v>8.4390945963626951E-2</v>
       </c>
-      <c r="I49" s="12">
-        <f>+I34/H34-1</f>
+      <c r="I49" s="10">
+        <f t="shared" si="16"/>
         <v>-0.19111969111969107</v>
       </c>
-      <c r="J49" s="12">
-        <f>+J34/I34-1</f>
+      <c r="J49" s="10">
+        <f t="shared" si="16"/>
         <v>-0.11530429594272074</v>
       </c>
-      <c r="K49" s="12">
-        <f>+K34/J34-1</f>
+      <c r="K49" s="10">
+        <f t="shared" si="16"/>
         <v>2.0232675771370667E-2</v>
       </c>
-      <c r="L49" s="12">
-        <f>+L34/K34-1</f>
+      <c r="L49" s="10">
+        <f t="shared" si="16"/>
         <v>0.1885638737398776</v>
       </c>
-      <c r="M49" s="12">
-        <f>+M34/L34-1</f>
+      <c r="M49" s="10">
+        <f t="shared" si="16"/>
         <v>0.87805895439377091</v>
       </c>
-      <c r="N49" s="12">
-        <f>+N34/M34-1</f>
+      <c r="N49" s="10">
+        <f t="shared" si="16"/>
         <v>0.34152661582882948</v>
       </c>
-      <c r="O49" s="12">
-        <f>+O34/N34-1</f>
+      <c r="O49" s="10">
+        <f t="shared" si="16"/>
         <v>0.21981236203090515</v>
       </c>
     </row>
@@ -2773,48 +2764,48 @@
       <c r="B50" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="12">
-        <f>+E32/D32-1</f>
+      <c r="E50" s="10">
+        <f t="shared" ref="E50:O50" si="17">+E32/D32-1</f>
         <v>0.15609756097560967</v>
       </c>
-      <c r="F50" s="12">
-        <f>+F32/E32-1</f>
+      <c r="F50" s="10">
+        <f t="shared" si="17"/>
         <v>0.240506329113924</v>
       </c>
-      <c r="G50" s="12">
-        <f>+G32/F32-1</f>
+      <c r="G50" s="10">
+        <f t="shared" si="17"/>
         <v>0.10884353741496589</v>
       </c>
-      <c r="H50" s="12">
-        <f>+H32/G32-1</f>
+      <c r="H50" s="10">
+        <f t="shared" si="17"/>
         <v>0.15030674846625769</v>
       </c>
-      <c r="I50" s="12">
-        <f>+I32/H32-1</f>
+      <c r="I50" s="10">
+        <f t="shared" si="17"/>
         <v>1.6000000000000014E-2</v>
       </c>
-      <c r="J50" s="12">
-        <f>+J32/I32-1</f>
+      <c r="J50" s="10">
+        <f t="shared" si="17"/>
         <v>6.0367454068241955E-3</v>
       </c>
-      <c r="K50" s="12">
-        <f>+K32/J32-1</f>
+      <c r="K50" s="10">
+        <f t="shared" si="17"/>
         <v>-5.5570049569527824E-2</v>
       </c>
-      <c r="L50" s="12">
-        <f>+L32/K32-1</f>
+      <c r="L50" s="10">
+        <f t="shared" si="17"/>
         <v>0.18342541436464099</v>
       </c>
-      <c r="M50" s="12">
-        <f>+M32/L32-1</f>
+      <c r="M50" s="10">
+        <f t="shared" si="17"/>
         <v>1.4096638655462184</v>
       </c>
-      <c r="N50" s="12">
-        <f>+N32/M32-1</f>
+      <c r="N50" s="10">
+        <f t="shared" si="17"/>
         <v>0.40598663179308336</v>
       </c>
-      <c r="O50" s="12">
-        <f>+O32/N32-1</f>
+      <c r="O50" s="10">
+        <f t="shared" si="17"/>
         <v>0.26677690505718621</v>
       </c>
     </row>
@@ -2874,55 +2865,55 @@
         <v>24</v>
       </c>
       <c r="C52" s="7">
-        <f t="shared" ref="C52:H52" si="15">C32/C34</f>
+        <f t="shared" ref="C52:H52" si="18">C32/C34</f>
         <v>0</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.36212683271506801</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.36422314430613184</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.41390961565535689</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.42653408347507521</v>
       </c>
       <c r="H52" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.45246138996138996</v>
       </c>
       <c r="I52" s="7">
-        <f>I32/I34</f>
+        <f t="shared" ref="I52:N52" si="19">I32/I34</f>
         <v>0.56831742243436756</v>
       </c>
       <c r="J52" s="7">
-        <f>J32/J34</f>
+        <f t="shared" si="19"/>
         <v>0.64626538526386779</v>
       </c>
       <c r="K52" s="7">
-        <f>K32/K34</f>
+        <f t="shared" si="19"/>
         <v>0.59824822343414308</v>
       </c>
       <c r="L52" s="7">
-        <f>L32/L34</f>
+        <f t="shared" si="19"/>
         <v>0.59566184649610676</v>
       </c>
       <c r="M52" s="7">
-        <f>M32/M34</f>
+        <f t="shared" si="19"/>
         <v>0.76427037832235134</v>
       </c>
       <c r="N52" s="7">
-        <f>N32/N34</f>
+        <f t="shared" si="19"/>
         <v>0.80099337748344368</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" ref="O52" si="16">O32/O34</f>
+        <f t="shared" ref="O52" si="20">O32/O34</f>
         <v>0.83183278288015206</v>
       </c>
     </row>
@@ -3153,7 +3144,7 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="2">
-        <f t="shared" ref="L64" si="17">SUM(L55:L63)</f>
+        <f t="shared" ref="L64" si="21">SUM(L55:L63)</f>
         <v>44460</v>
       </c>
       <c r="M64" s="2">
@@ -3332,7 +3323,7 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="2">
-        <f t="shared" ref="L72" si="18">SUM(L66:L71)</f>
+        <f t="shared" ref="L72" si="22">SUM(L66:L71)</f>
         <v>44460</v>
       </c>
       <c r="M72" s="2">
@@ -3450,15 +3441,15 @@
       <c r="B80" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L80" s="5">
         <f>-252+566-215+11+689+105</f>
         <v>904</v>
       </c>
-      <c r="M80" s="10">
+      <c r="M80" s="2">
         <f>-3239+861-592+789+2675+236-L80</f>
         <v>-174</v>
       </c>
-      <c r="N80" s="10">
+      <c r="N80" s="2">
         <f>-4482+405-337+1250+953+208-M80-L80</f>
         <v>-2733</v>
       </c>
@@ -3467,15 +3458,15 @@
       <c r="B81" t="s">
         <v>54</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L81" s="5">
         <f>SUM(L74:L80)</f>
         <v>2911</v>
       </c>
-      <c r="M81" s="11">
+      <c r="M81" s="5">
         <f>SUM(M74:M80)</f>
         <v>6347</v>
       </c>
-      <c r="N81" s="11">
+      <c r="N81" s="5">
         <f>SUM(N74:N80)</f>
         <v>7332</v>
       </c>
@@ -3751,7 +3742,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <f>+F7/D9</f>
         <v>0.12762762762762764</v>
       </c>
@@ -3760,13 +3751,13 @@
       <c r="D9">
         <v>666</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <f>+D9-85</f>
         <v>581</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <f>+D9+85</f>
         <v>751</v>
       </c>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1A3EE6-F7A0-3543-A8FD-90EF5C64F6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0513CF9-68AE-456A-B3AE-B5A2890F4A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32080" yWindow="1840" windowWidth="31380" windowHeight="18420" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-51690" yWindow="1020" windowWidth="16290" windowHeight="18240" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="3" r:id="rId1"/>
+    <sheet name="Model" sheetId="1" r:id="rId2"/>
+    <sheet name="Quarterly Earnings Preview" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
     <author>tc={195B7556-9D37-2C4A-AE00-5F1730A1F989}</author>
   </authors>
   <commentList>
-    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
+    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +55,7 @@
     H100 started shipping</t>
       </text>
     </comment>
-    <comment ref="L34" authorId="1" shapeId="0" xr:uid="{3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}">
+    <comment ref="L38" authorId="1" shapeId="0" xr:uid="{3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +63,7 @@
     6.5B guidance</t>
       </text>
     </comment>
-    <comment ref="M34" authorId="2" shapeId="0" xr:uid="{23E40331-82EE-794B-BF71-362AABD49EB0}">
+    <comment ref="M38" authorId="2" shapeId="0" xr:uid="{23E40331-82EE-794B-BF71-362AABD49EB0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +71,7 @@
     Guidance was 11B</t>
       </text>
     </comment>
-    <comment ref="N34" authorId="3" shapeId="0" xr:uid="{7661685F-D234-EE4D-9EE3-823EB4FBA0E2}">
+    <comment ref="N38" authorId="3" shapeId="0" xr:uid="{7661685F-D234-EE4D-9EE3-823EB4FBA0E2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,12 +79,13 @@
     Guidance was 16B</t>
       </text>
     </comment>
-    <comment ref="P34" authorId="4" shapeId="0" xr:uid="{195B7556-9D37-2C4A-AE00-5F1730A1F989}">
+    <comment ref="P38" authorId="4" shapeId="0" xr:uid="{195B7556-9D37-2C4A-AE00-5F1730A1F989}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Consensus 20.570B</t>
+    Consensus 20.570B
+2/21/24 guided to 23.52-24.48B</t>
       </text>
     </comment>
   </commentList>
@@ -91,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
   <si>
     <t>Main</t>
   </si>
@@ -384,20 +386,223 @@
     <t>Total</t>
   </si>
   <si>
-    <t>MARCH</t>
-  </si>
-  <si>
-    <t>CALLS</t>
-  </si>
-  <si>
-    <t>PUTS</t>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>FY33</t>
+  </si>
+  <si>
+    <t>FY34</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>1999: invention of the GPU</t>
+  </si>
+  <si>
+    <t>2012: AlexNet</t>
+  </si>
+  <si>
+    <t>2006: CUDA</t>
+  </si>
+  <si>
+    <t>2017: first Tensor Core GPU</t>
+  </si>
+  <si>
+    <t>2020: Mellanox acquisition</t>
+  </si>
+  <si>
+    <t>H100</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>V100</t>
+  </si>
+  <si>
+    <t>4090</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Omniverse</t>
+  </si>
+  <si>
+    <t>DRIVE</t>
+  </si>
+  <si>
+    <t>Autonomous Driving</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>1998: Reincorporated in Delaware.</t>
+  </si>
+  <si>
+    <t>1993: Founded in Santa Clara, California.</t>
+  </si>
+  <si>
+    <t>Quantum</t>
+  </si>
+  <si>
+    <t>InfiniBand</t>
+  </si>
+  <si>
+    <t>Spectrum</t>
+  </si>
+  <si>
+    <t>Ethernet</t>
+  </si>
+  <si>
+    <t>Jetson</t>
+  </si>
+  <si>
+    <t>DGX</t>
+  </si>
+  <si>
+    <t>GeForce NOW</t>
+  </si>
+  <si>
+    <t>Wafers</t>
+  </si>
+  <si>
+    <t>TSMC, Samsung</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Micron, SK Hynix, Samsung</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Hon Hai, Wistron, Fabrinet</t>
+  </si>
+  <si>
+    <t>Consensus 5/21/24 - EPS</t>
+  </si>
+  <si>
+    <t>Consensus 5/21/24 - Revenue</t>
+  </si>
+  <si>
+    <t>Q1 Revenue</t>
+  </si>
+  <si>
+    <t>Consensus</t>
+  </si>
+  <si>
+    <t>Low End Guidance</t>
+  </si>
+  <si>
+    <t>High End Guidance</t>
+  </si>
+  <si>
+    <t>Reactions</t>
+  </si>
+  <si>
+    <t>Q2 Guidance</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>955 CALL</t>
+  </si>
+  <si>
+    <t>955 PUT</t>
+  </si>
+  <si>
+    <t>STRADDLE</t>
+  </si>
+  <si>
+    <t>40% of Data Center revenue was for Inference</t>
+  </si>
+  <si>
+    <t>"Large Cloud"</t>
+  </si>
+  <si>
+    <t>Compute &amp; Networking</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -408,6 +613,11 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -432,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -460,6 +670,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,15 +701,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>666372</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>54051</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>666372</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>54051</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>99785</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -507,8 +725,58 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10808229" y="0"/>
+          <a:off x="11858247" y="0"/>
           <a:ext cx="0" cy="16918214"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>26836</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>26836</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6444409-B70A-4BF9-95A7-B93212F1F85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17790961" y="0"/>
+          <a:ext cx="0" cy="17571356"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -837,117 +1105,328 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L32" dT="2024-02-21T20:05:44.73" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
+  <threadedComment ref="L36" dT="2024-02-21T20:05:44.73" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
     <text>H100 started shipping</text>
   </threadedComment>
-  <threadedComment ref="L34" dT="2024-02-21T20:05:14.08" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}">
+  <threadedComment ref="L38" dT="2024-02-21T20:05:14.08" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}">
     <text>6.5B guidance</text>
   </threadedComment>
-  <threadedComment ref="M34" dT="2024-02-21T19:58:52.64" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{23E40331-82EE-794B-BF71-362AABD49EB0}">
+  <threadedComment ref="M38" dT="2024-02-21T19:58:52.64" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{23E40331-82EE-794B-BF71-362AABD49EB0}">
     <text>Guidance was 11B</text>
   </threadedComment>
-  <threadedComment ref="N34" dT="2024-02-21T19:55:06.51" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{7661685F-D234-EE4D-9EE3-823EB4FBA0E2}">
+  <threadedComment ref="N38" dT="2024-02-21T19:55:06.51" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{7661685F-D234-EE4D-9EE3-823EB4FBA0E2}">
     <text>Guidance was 16B</text>
   </threadedComment>
-  <threadedComment ref="P34" dT="2024-02-21T20:21:53.11" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{195B7556-9D37-2C4A-AE00-5F1730A1F989}">
-    <text>Consensus 20.570B</text>
+  <threadedComment ref="P38" dT="2024-02-21T20:21:53.11" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{195B7556-9D37-2C4A-AE00-5F1730A1F989}">
+    <text>Consensus 20.570B
+2/21/24 guided to 23.52-24.48B</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
+  <dimension ref="B2:L22"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2">
+        <v>953.86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2500</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="2">
+        <f>+K2*K3</f>
+        <v>2384650</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="2">
+        <f>+K4-K5+K6</f>
+        <v>2384650</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:AK104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomRight" activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.1640625" style="3"/>
-    <col min="6" max="6" width="8.83203125" style="3" customWidth="1"/>
-    <col min="7" max="9" width="9.1640625" style="3"/>
-    <col min="10" max="10" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.1640625" style="3"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="12" width="9.7109375" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="19" width="10.140625" customWidth="1"/>
+    <col min="27" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="V1">
-        <f>10000/1000</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="C2" s="4">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="C2" s="13">
         <v>44227</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="13">
         <v>44318</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="13">
         <f>+F2-92</f>
         <v>44408</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="13">
         <v>44500</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="13">
         <v>44591</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="13">
         <v>44682</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="13">
         <f>+J2-91</f>
         <v>44773</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="13">
         <v>44864</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="13">
         <v>44955</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="13">
         <v>45046</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="13">
         <f>+I2+365</f>
         <v>45138</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="13">
         <v>45228</v>
       </c>
-      <c r="O2" s="1">
-        <f>+K2+365</f>
-        <v>45320</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="O2" s="13">
+        <v>45319</v>
+      </c>
+      <c r="P2" s="13">
         <f>+L2+366</f>
         <v>45412</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="13">
         <f>+M2+366</f>
         <v>45504</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="13">
         <f>+N2+366</f>
         <v>45594</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="13">
         <f>+O2+366</f>
-        <v>45686</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+        <v>45685</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>S2</f>
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
@@ -999,8 +1478,56 @@
       <c r="S3" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>76</v>
       </c>
@@ -1036,7 +1563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -1072,7 +1599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -1108,7 +1635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -1144,7 +1671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>79</v>
       </c>
@@ -1180,7 +1707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>89</v>
       </c>
@@ -1216,7 +1743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1253,7 +1780,7 @@
       </c>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -1289,7 +1816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>90</v>
       </c>
@@ -1325,7 +1852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>82</v>
       </c>
@@ -1361,7 +1888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -1397,7 +1924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -1433,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -1469,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -1505,7 +2032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -1541,7 +2068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>91</v>
       </c>
@@ -1577,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -1613,7 +2140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>95</v>
       </c>
@@ -1649,7 +2176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>92</v>
       </c>
@@ -1673,19 +2200,19 @@
         <v>0</v>
       </c>
       <c r="P22" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R22" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>93</v>
       </c>
@@ -1709,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R23" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>96</v>
       </c>
@@ -1749,101 +2276,99 @@
       </c>
       <c r="P24" s="9">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" si="0"/>
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="R24" s="9">
         <f t="shared" si="0"/>
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="S24" s="9">
         <f t="shared" si="0"/>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9">
+        <f>+O5+O6+O8+O9+O11+O12+O13+O14</f>
+        <v>280</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="9">
-        <f>+M32/M27</f>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="9">
+        <f>+M36/M28</f>
         <v>258.07499999999999</v>
       </c>
-      <c r="N26" s="9">
-        <f>+N32/N27</f>
+      <c r="N27" s="9">
+        <f>+N36/N28</f>
         <v>362.85</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O27" s="9">
         <v>450</v>
       </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="5">
-        <v>40</v>
-      </c>
-      <c r="N27" s="5">
-        <v>40</v>
-      </c>
-      <c r="O27" s="5">
-        <v>40</v>
-      </c>
-      <c r="P27" s="5">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1854,18 +2379,23 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="M28" s="5">
+        <v>40</v>
+      </c>
+      <c r="N28" s="5">
+        <v>40</v>
+      </c>
+      <c r="O28" s="5">
+        <v>40</v>
+      </c>
+      <c r="P28" s="5">
+        <v>40</v>
+      </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1873,1148 +2403,1612 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="5">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="Z30" s="2">
+        <v>15068</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>47405</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="Z31" s="2">
+        <v>11906</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>13517</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5">
         <v>73</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5">
+      <c r="K33" s="4"/>
+      <c r="L33" s="5">
         <v>77</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M33" s="5">
         <v>66</v>
       </c>
-      <c r="N29">
+      <c r="N33">
         <v>73</v>
       </c>
-      <c r="O29">
-        <f>+N29</f>
+      <c r="O33">
+        <f>+N33</f>
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5">
         <v>372</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
         <v>643</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H34" s="5">
         <v>622</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I34" s="5">
         <v>496</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J34" s="5">
         <v>200</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K34" s="5">
         <v>226</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L34" s="5">
         <v>295</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M34" s="5">
         <v>379</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N34" s="2">
         <v>416</v>
       </c>
-      <c r="O30">
+      <c r="O34">
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5">
         <v>154</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5">
-        <v>125</v>
-      </c>
-      <c r="H31" s="5">
-        <v>138</v>
-      </c>
-      <c r="I31" s="5">
-        <v>220</v>
-      </c>
-      <c r="J31" s="5">
-        <v>251</v>
-      </c>
-      <c r="K31" s="5">
-        <v>294</v>
-      </c>
-      <c r="L31" s="5">
-        <v>296</v>
-      </c>
-      <c r="M31" s="5">
-        <v>253</v>
-      </c>
-      <c r="N31" s="2">
-        <v>261</v>
-      </c>
-      <c r="O31" s="2">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5">
-        <v>2050</v>
-      </c>
-      <c r="E32" s="5">
-        <v>2370</v>
-      </c>
-      <c r="F32" s="5">
-        <v>2940</v>
-      </c>
-      <c r="G32" s="5">
-        <v>3260</v>
-      </c>
-      <c r="H32" s="5">
-        <v>3750</v>
-      </c>
-      <c r="I32" s="5">
-        <v>3810</v>
-      </c>
-      <c r="J32" s="5">
-        <v>3833</v>
-      </c>
-      <c r="K32" s="5">
-        <v>3620</v>
-      </c>
-      <c r="L32" s="5">
-        <v>4284</v>
-      </c>
-      <c r="M32" s="2">
-        <v>10323</v>
-      </c>
-      <c r="N32" s="2">
-        <v>14514</v>
-      </c>
-      <c r="O32" s="5">
-        <v>18386</v>
-      </c>
-      <c r="P32" s="2">
-        <f>+P24*P27</f>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5">
-        <v>2760</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5">
-        <v>3420</v>
-      </c>
-      <c r="H33" s="5">
-        <v>3620</v>
-      </c>
-      <c r="I33" s="5">
-        <v>2040</v>
-      </c>
-      <c r="J33" s="5">
-        <v>1574</v>
-      </c>
-      <c r="K33" s="5">
-        <v>1830</v>
-      </c>
-      <c r="L33" s="5">
-        <v>2240</v>
-      </c>
-      <c r="M33" s="5">
-        <v>2486</v>
-      </c>
-      <c r="N33" s="2">
-        <v>2856</v>
-      </c>
-      <c r="O33" s="2">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9">
-        <v>5003</v>
-      </c>
-      <c r="D34" s="9">
-        <v>5661</v>
-      </c>
-      <c r="E34" s="9">
-        <v>6507</v>
-      </c>
-      <c r="F34" s="9">
-        <v>7103</v>
-      </c>
-      <c r="G34" s="9">
-        <v>7643</v>
-      </c>
-      <c r="H34" s="9">
-        <v>8288</v>
-      </c>
-      <c r="I34" s="9">
-        <v>6704</v>
-      </c>
-      <c r="J34" s="9">
-        <f>SUM(J29:J33)</f>
-        <v>5931</v>
-      </c>
-      <c r="K34" s="9">
-        <v>6051</v>
-      </c>
-      <c r="L34" s="8">
-        <f>SUM(L29:L33)</f>
-        <v>7192</v>
-      </c>
-      <c r="M34" s="8">
-        <f>SUM(M29:M33)</f>
-        <v>13507</v>
-      </c>
-      <c r="N34" s="9">
-        <f>SUM(N29:N33)</f>
-        <v>18120</v>
-      </c>
-      <c r="O34" s="9">
-        <f>SUM(O29:O33)</f>
-        <v>22103</v>
-      </c>
-      <c r="P34" s="5">
-        <f t="shared" ref="P34:S34" si="1">SUM(P29:P33)</f>
-        <v>28000</v>
-      </c>
-      <c r="Q34" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1846</v>
-      </c>
-      <c r="D35" s="5">
-        <v>2032</v>
-      </c>
-      <c r="E35" s="5">
-        <v>2292</v>
-      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5">
-        <v>2644</v>
+        <v>125</v>
       </c>
       <c r="H35" s="5">
-        <v>2857</v>
+        <v>138</v>
       </c>
       <c r="I35" s="5">
-        <v>3789</v>
+        <v>220</v>
       </c>
       <c r="J35" s="5">
-        <v>2754</v>
-      </c>
-      <c r="K35" s="5"/>
+        <v>251</v>
+      </c>
+      <c r="K35" s="5">
+        <v>294</v>
+      </c>
       <c r="L35" s="5">
-        <v>2544</v>
-      </c>
-      <c r="M35" s="2">
-        <v>4045</v>
+        <v>296</v>
+      </c>
+      <c r="M35" s="5">
+        <v>253</v>
       </c>
       <c r="N35" s="2">
-        <v>4720</v>
+        <v>261</v>
       </c>
       <c r="O35" s="2">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5">
-        <f>+C34-C35</f>
-        <v>3157</v>
-      </c>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="5">
-        <f>+D34-D35</f>
-        <v>3629</v>
+        <v>2050</v>
       </c>
       <c r="E36" s="5">
-        <f>+E34-E35</f>
-        <v>4215</v>
-      </c>
-      <c r="F36" s="5"/>
+        <v>2370</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2940</v>
+      </c>
       <c r="G36" s="5">
-        <f>+G34-G35</f>
-        <v>4999</v>
+        <v>3260</v>
       </c>
       <c r="H36" s="5">
-        <f>+H34-H35</f>
-        <v>5431</v>
+        <v>3750</v>
       </c>
       <c r="I36" s="5">
-        <f>+I34-I35</f>
-        <v>2915</v>
+        <v>3810</v>
       </c>
       <c r="J36" s="5">
-        <f>+J34-J35</f>
-        <v>3177</v>
-      </c>
-      <c r="K36" s="5"/>
+        <v>3833</v>
+      </c>
+      <c r="K36" s="5">
+        <v>3620</v>
+      </c>
       <c r="L36" s="5">
-        <f>+L34-L35</f>
-        <v>4648</v>
+        <v>4284</v>
       </c>
       <c r="M36" s="2">
-        <f>M34-M35</f>
-        <v>9462</v>
+        <v>10323</v>
       </c>
       <c r="N36" s="2">
-        <f>+N34-N35</f>
-        <v>13400</v>
-      </c>
-      <c r="O36" s="2">
-        <f>+O34-O35</f>
-        <v>16791</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1147</v>
-      </c>
+        <v>14514</v>
+      </c>
+      <c r="O36" s="5">
+        <v>18386</v>
+      </c>
+      <c r="P36" s="2">
+        <f>+P24*P28</f>
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="5">
-        <v>1153</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1245</v>
-      </c>
+        <v>2760</v>
+      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5">
-        <v>1466</v>
+        <v>3420</v>
       </c>
       <c r="H37" s="5">
-        <v>1618</v>
+        <v>3620</v>
       </c>
       <c r="I37" s="5">
-        <v>1824</v>
+        <v>2040</v>
       </c>
       <c r="J37" s="5">
-        <v>1945</v>
-      </c>
-      <c r="K37" s="5"/>
+        <v>1574</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1830</v>
+      </c>
       <c r="L37" s="5">
-        <v>1875</v>
-      </c>
-      <c r="M37" s="2">
-        <v>2040</v>
+        <v>2240</v>
+      </c>
+      <c r="M37" s="5">
+        <v>2486</v>
       </c>
       <c r="N37" s="2">
-        <v>2294</v>
+        <v>2856</v>
       </c>
       <c r="O37" s="2">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5">
-        <v>503</v>
-      </c>
-      <c r="D38" s="5">
-        <v>520</v>
-      </c>
-      <c r="E38" s="5">
-        <v>526</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5">
-        <v>563</v>
-      </c>
-      <c r="H38" s="5">
-        <v>592</v>
-      </c>
-      <c r="I38" s="5">
-        <v>592</v>
-      </c>
-      <c r="J38" s="5">
-        <v>631</v>
-      </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5">
-        <v>633</v>
-      </c>
-      <c r="M38" s="2">
-        <v>622</v>
-      </c>
-      <c r="N38" s="2">
-        <v>689</v>
-      </c>
-      <c r="O38" s="2">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9">
+        <v>5003</v>
+      </c>
+      <c r="D38" s="9">
+        <v>5661</v>
+      </c>
+      <c r="E38" s="9">
+        <v>6507</v>
+      </c>
+      <c r="F38" s="9">
+        <v>7103</v>
+      </c>
+      <c r="G38" s="9">
+        <v>7643</v>
+      </c>
+      <c r="H38" s="9">
+        <v>8288</v>
+      </c>
+      <c r="I38" s="9">
+        <v>6704</v>
+      </c>
+      <c r="J38" s="9">
+        <f>SUM(J33:J37)</f>
+        <v>5931</v>
+      </c>
+      <c r="K38" s="9">
+        <v>6051</v>
+      </c>
+      <c r="L38" s="8">
+        <f>SUM(L33:L37)</f>
+        <v>7192</v>
+      </c>
+      <c r="M38" s="8">
+        <f>SUM(M33:M37)</f>
+        <v>13507</v>
+      </c>
+      <c r="N38" s="9">
+        <f>SUM(N33:N37)</f>
+        <v>18120</v>
+      </c>
+      <c r="O38" s="9">
+        <f>SUM(O33:O37)</f>
+        <v>22103</v>
+      </c>
+      <c r="P38" s="5">
+        <v>24690</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>26820</v>
+      </c>
+      <c r="R38" s="9">
+        <v>29360</v>
+      </c>
+      <c r="S38" s="9">
+        <v>31950</v>
+      </c>
+      <c r="Y38" s="8">
+        <f>SUM(D38:G38)</f>
+        <v>26914</v>
+      </c>
+      <c r="Z38" s="8">
+        <f>SUM(H38:K38)</f>
+        <v>26974</v>
+      </c>
+      <c r="AA38" s="8">
+        <f>SUM(L38:O38)</f>
+        <v>60922</v>
+      </c>
+      <c r="AB38" s="8">
+        <f>SUM(P38:S38)</f>
+        <v>112820</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" ref="C39" si="2">+C37+C38</f>
-        <v>1650</v>
+        <v>1846</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" ref="D39:E39" si="3">+D37+D38</f>
-        <v>1673</v>
+        <v>2032</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="3"/>
-        <v>1771</v>
+        <v>2292</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5">
-        <f t="shared" ref="G39" si="4">+G37+G38</f>
-        <v>2029</v>
+        <v>2644</v>
       </c>
       <c r="H39" s="5">
-        <f>+H37+H38</f>
-        <v>2210</v>
+        <v>2857</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" ref="I39" si="5">+I37+I38</f>
-        <v>2416</v>
+        <v>3789</v>
       </c>
       <c r="J39" s="5">
-        <f>+J37+J38</f>
-        <v>2576</v>
+        <v>2754</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5">
-        <f>+L37+L38</f>
-        <v>2508</v>
-      </c>
-      <c r="M39" s="5">
-        <f>+M37+M38</f>
-        <v>2662</v>
-      </c>
-      <c r="N39" s="5">
-        <f t="shared" ref="N39:O39" si="6">+N37+N38</f>
-        <v>2983</v>
-      </c>
-      <c r="O39" s="5">
-        <f t="shared" si="6"/>
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2544</v>
+      </c>
+      <c r="M39" s="2">
+        <v>4045</v>
+      </c>
+      <c r="N39" s="2">
+        <v>4720</v>
+      </c>
+      <c r="O39" s="2">
+        <v>5312</v>
+      </c>
+      <c r="P39" s="2">
+        <f>+P38-P40</f>
+        <v>5925.5999999999985</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" ref="Q39:S39" si="1">+Q38-Q40</f>
+        <v>6168.5999999999985</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="1"/>
+        <v>6752.7999999999993</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="1"/>
+        <v>7029</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>9439</v>
+      </c>
+      <c r="Z39" s="20">
+        <v>11618</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>16621</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" ref="C40" si="7">+C36-C39</f>
-        <v>1507</v>
+        <f>+C38-C39</f>
+        <v>3157</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" ref="D40:E40" si="8">+D36-D39</f>
-        <v>1956</v>
+        <f>+D38-D39</f>
+        <v>3629</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="8"/>
-        <v>2444</v>
+        <f>+E38-E39</f>
+        <v>4215</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5">
-        <f t="shared" ref="G40" si="9">+G36-G39</f>
-        <v>2970</v>
+        <f>+G38-G39</f>
+        <v>4999</v>
       </c>
       <c r="H40" s="5">
-        <f>+H36-H39</f>
-        <v>3221</v>
+        <f>+H38-H39</f>
+        <v>5431</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" ref="I40" si="10">+I36-I39</f>
-        <v>499</v>
+        <f>+I38-I39</f>
+        <v>2915</v>
       </c>
       <c r="J40" s="5">
-        <f>+J36-J39</f>
-        <v>601</v>
+        <f>+J38-J39</f>
+        <v>3177</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5">
-        <f>+L36-L39</f>
-        <v>2140</v>
-      </c>
-      <c r="M40" s="5">
-        <f>+M36-M39</f>
-        <v>6800</v>
-      </c>
-      <c r="N40" s="5">
-        <f t="shared" ref="N40:O40" si="11">+N36-N39</f>
-        <v>10417</v>
-      </c>
-      <c r="O40" s="5">
-        <f t="shared" si="11"/>
-        <v>13615</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <f>+L38-L39</f>
+        <v>4648</v>
+      </c>
+      <c r="M40" s="2">
+        <f>M38-M39</f>
+        <v>9462</v>
+      </c>
+      <c r="N40" s="2">
+        <f>+N38-N39</f>
+        <v>13400</v>
+      </c>
+      <c r="O40" s="2">
+        <f>+O38-O39</f>
+        <v>16791</v>
+      </c>
+      <c r="P40" s="2">
+        <f>+P38*0.76</f>
+        <v>18764.400000000001</v>
+      </c>
+      <c r="Q40" s="2">
+        <f>+Q38*0.77</f>
+        <v>20651.400000000001</v>
+      </c>
+      <c r="R40" s="2">
+        <f>+R38*0.77</f>
+        <v>22607.200000000001</v>
+      </c>
+      <c r="S40" s="2">
+        <f>+S38*0.78</f>
+        <v>24921</v>
+      </c>
+      <c r="Y40" s="2">
+        <f>+Y38-Y39</f>
+        <v>17475</v>
+      </c>
+      <c r="Z40" s="2">
+        <f>+Z38-Z39</f>
+        <v>15356</v>
+      </c>
+      <c r="AA40" s="2">
+        <f>+AA38-AA39</f>
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C41" s="5">
-        <v>-37</v>
+        <v>1147</v>
       </c>
       <c r="D41" s="5">
-        <v>88</v>
+        <v>1153</v>
       </c>
       <c r="E41" s="5">
-        <v>-50</v>
+        <v>1245</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5">
+        <v>1466</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1618</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1824</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1945</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5">
+        <v>1875</v>
+      </c>
+      <c r="M41" s="2">
+        <v>2040</v>
+      </c>
+      <c r="N41" s="2">
+        <v>2294</v>
+      </c>
+      <c r="O41" s="2">
+        <v>2465</v>
+      </c>
+      <c r="P41" s="2">
+        <f>+O41+100</f>
+        <v>2565</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" ref="Q41:S41" si="2">+P41+100</f>
+        <v>2665</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="2"/>
+        <v>2765</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="2"/>
+        <v>2865</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>5268</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>7339</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>8675</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5">
+        <v>503</v>
+      </c>
+      <c r="D42" s="5">
+        <v>520</v>
+      </c>
+      <c r="E42" s="5">
+        <v>526</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5">
+        <v>563</v>
+      </c>
+      <c r="H42" s="5">
+        <v>592</v>
+      </c>
+      <c r="I42" s="5">
+        <v>592</v>
+      </c>
+      <c r="J42" s="5">
+        <v>631</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5">
+        <v>633</v>
+      </c>
+      <c r="M42" s="2">
+        <v>622</v>
+      </c>
+      <c r="N42" s="2">
+        <v>689</v>
+      </c>
+      <c r="O42" s="2">
+        <v>711</v>
+      </c>
+      <c r="P42" s="2">
+        <f>+O42+25</f>
+        <v>736</v>
+      </c>
+      <c r="Q42" s="2">
+        <f>+P42+25</f>
+        <v>761</v>
+      </c>
+      <c r="R42" s="2">
+        <f>+Q42+25</f>
+        <v>786</v>
+      </c>
+      <c r="S42" s="2">
+        <f>+R42+25</f>
+        <v>811</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>2166</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>2440</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" ref="C43" si="3">+C41+C42</f>
+        <v>1650</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" ref="D43:E43" si="4">+D41+D42</f>
+        <v>1673</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="4"/>
+        <v>1771</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
+        <f t="shared" ref="G43" si="5">+G41+G42</f>
+        <v>2029</v>
+      </c>
+      <c r="H43" s="5">
+        <f>+H41+H42</f>
+        <v>2210</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" ref="I43" si="6">+I41+I42</f>
+        <v>2416</v>
+      </c>
+      <c r="J43" s="5">
+        <f>+J41+J42</f>
+        <v>2576</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5">
+        <f>+L41+L42</f>
+        <v>2508</v>
+      </c>
+      <c r="M43" s="5">
+        <f>+M41+M42</f>
+        <v>2662</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" ref="N43:P43" si="7">+N41+N42</f>
+        <v>2983</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="7"/>
+        <v>3176</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="7"/>
+        <v>3301</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" ref="Q43:S43" si="8">+Q41+Q42</f>
+        <v>3426</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="8"/>
+        <v>3551</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="8"/>
+        <v>3676</v>
+      </c>
+      <c r="Y43" s="2">
+        <f>+Y41+Y42</f>
+        <v>7434</v>
+      </c>
+      <c r="Z43" s="2">
+        <f>+Z41+Z42</f>
+        <v>9779</v>
+      </c>
+      <c r="AA43" s="2">
+        <f>+AA41+AA42</f>
+        <v>11329</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" ref="C44" si="9">+C40-C43</f>
+        <v>1507</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" ref="D44:E44" si="10">+D40-D43</f>
+        <v>1956</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="10"/>
+        <v>2444</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5">
+        <f t="shared" ref="G44" si="11">+G40-G43</f>
+        <v>2970</v>
+      </c>
+      <c r="H44" s="5">
+        <f>+H40-H43</f>
+        <v>3221</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" ref="I44" si="12">+I40-I43</f>
+        <v>499</v>
+      </c>
+      <c r="J44" s="5">
+        <f>+J40-J43</f>
+        <v>601</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5">
+        <f>+L40-L43</f>
+        <v>2140</v>
+      </c>
+      <c r="M44" s="5">
+        <f>+M40-M43</f>
+        <v>6800</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" ref="N44:P44" si="13">+N40-N43</f>
+        <v>10417</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="13"/>
+        <v>13615</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="13"/>
+        <v>15463.400000000001</v>
+      </c>
+      <c r="Q44" s="5">
+        <f t="shared" ref="Q44:S44" si="14">+Q40-Q43</f>
+        <v>17225.400000000001</v>
+      </c>
+      <c r="R44" s="5">
+        <f t="shared" si="14"/>
+        <v>19056.2</v>
+      </c>
+      <c r="S44" s="5">
+        <f t="shared" si="14"/>
+        <v>21245</v>
+      </c>
+      <c r="Y44" s="2">
+        <f>+Y40-Y43</f>
+        <v>10041</v>
+      </c>
+      <c r="Z44" s="2">
+        <f>+Z40-Z43</f>
+        <v>5577</v>
+      </c>
+      <c r="AA44" s="2">
+        <f>+AA40-AA43</f>
+        <v>32972</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="5">
+        <v>-37</v>
+      </c>
+      <c r="D45" s="5">
+        <v>88</v>
+      </c>
+      <c r="E45" s="5">
+        <v>-50</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
         <v>-105</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H45" s="5">
         <f>18-68-13</f>
         <v>-63</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I45" s="5">
         <v>-24</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J45" s="5">
         <v>12</v>
       </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5">
+      <c r="K45" s="5"/>
+      <c r="L45" s="5">
         <f>150-66-15</f>
         <v>69</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M45" s="2">
         <f>187-65+59</f>
         <v>181</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N45" s="2">
         <f>234-63-66</f>
         <v>105</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O45" s="2">
         <v>491</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="2" t="s">
+      <c r="P45" s="2">
+        <f>+O45</f>
+        <v>491</v>
+      </c>
+      <c r="Q45" s="2">
+        <f>+P45</f>
+        <v>491</v>
+      </c>
+      <c r="R45" s="2">
+        <f>+Q45</f>
+        <v>491</v>
+      </c>
+      <c r="S45" s="2">
+        <f>+R45</f>
+        <v>491</v>
+      </c>
+      <c r="Y45" s="2">
+        <f>29-236+107</f>
+        <v>-100</v>
+      </c>
+      <c r="Z45" s="2">
+        <f>267-262-48</f>
+        <v>-43</v>
+      </c>
+      <c r="AA45" s="2">
+        <f>866-257+237</f>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="5">
-        <f>+C40+C41</f>
+      <c r="C46" s="5">
+        <f>+C44+C45</f>
         <v>1470</v>
       </c>
-      <c r="D42" s="5">
-        <f>+D40+D41</f>
+      <c r="D46" s="5">
+        <f>+D44+D45</f>
         <v>2044</v>
       </c>
-      <c r="E42" s="5">
-        <f>+E40+E41</f>
+      <c r="E46" s="5">
+        <f>+E44+E45</f>
         <v>2394</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5">
-        <f>+G40+G41</f>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5">
+        <f>+G44+G45</f>
         <v>2865</v>
       </c>
-      <c r="H42" s="5">
-        <f>+H40+H41</f>
+      <c r="H46" s="5">
+        <f>+H44+H45</f>
         <v>3158</v>
       </c>
-      <c r="I42" s="5">
-        <f>+I40+I41</f>
+      <c r="I46" s="5">
+        <f>+I44+I45</f>
         <v>475</v>
       </c>
-      <c r="J42" s="5">
-        <f>+J40+J41</f>
+      <c r="J46" s="5">
+        <f>+J44+J45</f>
         <v>613</v>
-      </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5">
-        <f>+L40+L41</f>
-        <v>2209</v>
-      </c>
-      <c r="M42" s="5">
-        <f>+M40+M41</f>
-        <v>6981</v>
-      </c>
-      <c r="N42" s="5">
-        <f t="shared" ref="N42:O42" si="12">+N40+N41</f>
-        <v>10522</v>
-      </c>
-      <c r="O42" s="5">
-        <f t="shared" si="12"/>
-        <v>14106</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="5">
-        <v>13</v>
-      </c>
-      <c r="D43" s="5">
-        <v>132</v>
-      </c>
-      <c r="E43" s="5">
-        <v>20</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5">
-        <v>-138</v>
-      </c>
-      <c r="H43" s="5">
-        <v>187</v>
-      </c>
-      <c r="I43" s="5">
-        <v>-181</v>
-      </c>
-      <c r="J43" s="5">
-        <v>-67</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5">
-        <v>166</v>
-      </c>
-      <c r="M43" s="2">
-        <v>793</v>
-      </c>
-      <c r="N43" s="2">
-        <v>1279</v>
-      </c>
-      <c r="O43" s="2">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="5">
-        <f>+C42-C43</f>
-        <v>1457</v>
-      </c>
-      <c r="D44" s="5">
-        <f>+D42-D43</f>
-        <v>1912</v>
-      </c>
-      <c r="E44" s="5">
-        <f>+E42-E43</f>
-        <v>2374</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5">
-        <f>+G42-G43</f>
-        <v>3003</v>
-      </c>
-      <c r="H44" s="5">
-        <f>+H42-H43</f>
-        <v>2971</v>
-      </c>
-      <c r="I44" s="5">
-        <f>+I42-I43</f>
-        <v>656</v>
-      </c>
-      <c r="J44" s="5">
-        <f>+J42-J43</f>
-        <v>680</v>
-      </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5">
-        <f>+L42-L43</f>
-        <v>2043</v>
-      </c>
-      <c r="M44" s="2">
-        <f>M42-M43</f>
-        <v>6188</v>
-      </c>
-      <c r="N44" s="2">
-        <f t="shared" ref="N44" si="13">N42-N43</f>
-        <v>9243</v>
-      </c>
-      <c r="O44" s="2">
-        <f>+O42-O43</f>
-        <v>12285</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="6">
-        <f>+C44/C46</f>
-        <v>0.57725832012678291</v>
-      </c>
-      <c r="D45" s="6">
-        <f>+D44/D46</f>
-        <v>0.75632911392405067</v>
-      </c>
-      <c r="E45" s="6">
-        <f>+E44/E46</f>
-        <v>0.93759873617693523</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6">
-        <f>+G44/G46</f>
-        <v>1.1799607072691551</v>
-      </c>
-      <c r="H45" s="6">
-        <f>+H44/H46</f>
-        <v>1.1710681907765077</v>
-      </c>
-      <c r="I45" s="6">
-        <f>+I44/I46</f>
-        <v>0.26073131955484896</v>
-      </c>
-      <c r="J45" s="6">
-        <f>+J44/J46</f>
-        <v>0.27210884353741499</v>
-      </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6">
-        <f>+L44/L46</f>
-        <v>0.82048192771084338</v>
-      </c>
-      <c r="M45" s="6">
-        <f>+M44/M46</f>
-        <v>2.4761904761904763</v>
-      </c>
-      <c r="N45" s="6">
-        <f t="shared" ref="N45:O45" si="14">+N44/N46</f>
-        <v>3.7060946271050521</v>
-      </c>
-      <c r="O45" s="6">
-        <f t="shared" si="14"/>
-        <v>4.9337349397590362</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="5">
-        <v>2524</v>
-      </c>
-      <c r="D46" s="5">
-        <v>2528</v>
-      </c>
-      <c r="E46" s="5">
-        <v>2532</v>
-      </c>
-      <c r="G46" s="5">
-        <v>2545</v>
-      </c>
-      <c r="H46" s="5">
-        <v>2537</v>
-      </c>
-      <c r="I46" s="5">
-        <v>2516</v>
-      </c>
-      <c r="J46" s="5">
-        <v>2499</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5">
+        <f>+L44+L45</f>
+        <v>2209</v>
+      </c>
+      <c r="M46" s="5">
+        <f>+M44+M45</f>
+        <v>6981</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" ref="N46:S46" si="15">+N44+N45</f>
+        <v>10522</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="15"/>
+        <v>14106</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="15"/>
+        <v>15954.400000000001</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="15"/>
+        <v>17716.400000000001</v>
+      </c>
+      <c r="R46" s="5">
+        <f t="shared" si="15"/>
+        <v>19547.2</v>
+      </c>
+      <c r="S46" s="5">
+        <f t="shared" si="15"/>
+        <v>21736</v>
+      </c>
+      <c r="Y46" s="2">
+        <f>+Y44+Y45</f>
+        <v>9941</v>
+      </c>
+      <c r="Z46" s="2">
+        <f>+Z44+Z45</f>
+        <v>5534</v>
+      </c>
+      <c r="AA46" s="2">
+        <f>+AA44+AA45</f>
+        <v>33818</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="5">
+        <v>13</v>
+      </c>
+      <c r="D47" s="5">
+        <v>132</v>
+      </c>
+      <c r="E47" s="5">
+        <v>20</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5">
+        <v>-138</v>
+      </c>
+      <c r="H47" s="5">
+        <v>187</v>
+      </c>
+      <c r="I47" s="5">
+        <v>-181</v>
+      </c>
+      <c r="J47" s="5">
+        <v>-67</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5">
+        <v>166</v>
+      </c>
+      <c r="M47" s="2">
+        <v>793</v>
+      </c>
+      <c r="N47" s="2">
+        <v>1279</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1821</v>
+      </c>
+      <c r="P47" s="2">
+        <f>+P46*0.15</f>
+        <v>2393.1600000000003</v>
+      </c>
+      <c r="Q47" s="2">
+        <f>+Q46*0.15</f>
+        <v>2657.46</v>
+      </c>
+      <c r="R47" s="2">
+        <f>+R46*0.15</f>
+        <v>2932.08</v>
+      </c>
+      <c r="S47" s="2">
+        <f>+S46*0.15</f>
+        <v>3260.4</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>189</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5">
+        <f>+C46-C47</f>
+        <v>1457</v>
+      </c>
+      <c r="D48" s="5">
+        <f>+D46-D47</f>
+        <v>1912</v>
+      </c>
+      <c r="E48" s="5">
+        <f>+E46-E47</f>
+        <v>2374</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5">
+        <f>+G46-G47</f>
+        <v>3003</v>
+      </c>
+      <c r="H48" s="5">
+        <f>+H46-H47</f>
+        <v>2971</v>
+      </c>
+      <c r="I48" s="5">
+        <f>+I46-I47</f>
+        <v>656</v>
+      </c>
+      <c r="J48" s="5">
+        <f>+J46-J47</f>
+        <v>680</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5">
+        <f>+L46-L47</f>
+        <v>2043</v>
+      </c>
+      <c r="M48" s="2">
+        <f>M46-M47</f>
+        <v>6188</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" ref="N48" si="16">N46-N47</f>
+        <v>9243</v>
+      </c>
+      <c r="O48" s="2">
+        <f>+O46-O47</f>
+        <v>12285</v>
+      </c>
+      <c r="P48" s="2">
+        <f>+P46-P47</f>
+        <v>13561.240000000002</v>
+      </c>
+      <c r="Q48" s="2">
+        <f t="shared" ref="Q48:S48" si="17">+Q46-Q47</f>
+        <v>15058.940000000002</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" si="17"/>
+        <v>16615.120000000003</v>
+      </c>
+      <c r="S48" s="2">
+        <f t="shared" si="17"/>
+        <v>18475.599999999999</v>
+      </c>
+      <c r="Y48" s="2">
+        <f>+Y46-Y47</f>
+        <v>9752</v>
+      </c>
+      <c r="Z48" s="2">
+        <f>+Z46-Z47</f>
+        <v>5534</v>
+      </c>
+      <c r="AA48" s="2">
+        <f>+AA46-AA47</f>
+        <v>29760</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="6">
+        <f>+C48/C50</f>
+        <v>0.57725832012678291</v>
+      </c>
+      <c r="D49" s="6">
+        <f>+D48/D50</f>
+        <v>0.75632911392405067</v>
+      </c>
+      <c r="E49" s="6">
+        <f>+E48/E50</f>
+        <v>0.93759873617693523</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6">
+        <f>+G48/G50</f>
+        <v>1.1799607072691551</v>
+      </c>
+      <c r="H49" s="6">
+        <f>+H48/H50</f>
+        <v>1.1710681907765077</v>
+      </c>
+      <c r="I49" s="6">
+        <f>+I48/I50</f>
+        <v>0.26073131955484896</v>
+      </c>
+      <c r="J49" s="6">
+        <f>+J48/J50</f>
+        <v>0.27210884353741499</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6">
+        <f>+L48/L50</f>
+        <v>0.82048192771084338</v>
+      </c>
+      <c r="M49" s="6">
+        <f>+M48/M50</f>
+        <v>2.4761904761904763</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" ref="N49:P49" si="18">+N48/N50</f>
+        <v>3.7060946271050521</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="18"/>
+        <v>4.9337349397590362</v>
+      </c>
+      <c r="P49" s="6">
+        <f t="shared" si="18"/>
+        <v>5.4462811244979923</v>
+      </c>
+      <c r="Q49" s="6">
+        <f t="shared" ref="Q49:S49" si="19">+Q48/Q50</f>
+        <v>6.0477670682730933</v>
+      </c>
+      <c r="R49" s="6">
+        <f t="shared" si="19"/>
+        <v>6.6727389558232941</v>
+      </c>
+      <c r="S49" s="6">
+        <f t="shared" si="19"/>
+        <v>7.4199196787148587</v>
+      </c>
+      <c r="Y49" s="16">
+        <f>+Y48/Y50</f>
+        <v>3.8469428007889546</v>
+      </c>
+      <c r="Z49" s="16">
+        <f>+Z48/Z50</f>
+        <v>2.2074192261667331</v>
+      </c>
+      <c r="AA49" s="16">
+        <f>+AA48/AA50</f>
+        <v>11.932638331996792</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2524</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2528</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2532</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2545</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2537</v>
+      </c>
+      <c r="I50" s="5">
+        <v>2516</v>
+      </c>
+      <c r="J50" s="5">
+        <v>2499</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5">
         <v>2490</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M50" s="5">
         <v>2499</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N50" s="5">
         <v>2494</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O50" s="2">
         <v>2490</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
+      <c r="P50" s="2">
+        <f>+O50</f>
+        <v>2490</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" ref="Q50:S50" si="20">+P50</f>
+        <v>2490</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="20"/>
+        <v>2490</v>
+      </c>
+      <c r="S50" s="2">
+        <f t="shared" si="20"/>
+        <v>2490</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>2535</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>2507</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10">
-        <f t="shared" ref="G48:O48" si="15">+G34/C34-1</f>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10">
+        <f t="shared" ref="G52:O52" si="21">+G38/C38-1</f>
         <v>0.52768338996602049</v>
       </c>
-      <c r="H48" s="10">
-        <f t="shared" si="15"/>
+      <c r="H52" s="10">
+        <f t="shared" si="21"/>
         <v>0.46405228758169925</v>
       </c>
-      <c r="I48" s="10">
-        <f t="shared" si="15"/>
+      <c r="I52" s="10">
+        <f t="shared" si="21"/>
         <v>3.0275088366374714E-2</v>
       </c>
-      <c r="J48" s="10">
-        <f t="shared" si="15"/>
+      <c r="J52" s="10">
+        <f t="shared" si="21"/>
         <v>-0.16500070392791777</v>
       </c>
-      <c r="K48" s="10">
-        <f t="shared" si="15"/>
+      <c r="K52" s="10">
+        <f t="shared" si="21"/>
         <v>-0.20829517205285886</v>
       </c>
-      <c r="L48" s="10">
-        <f t="shared" si="15"/>
+      <c r="L52" s="19">
+        <f t="shared" si="21"/>
         <v>-0.13223938223938225</v>
       </c>
-      <c r="M48" s="10">
-        <f t="shared" si="15"/>
+      <c r="M52" s="19">
+        <f t="shared" si="21"/>
         <v>1.0147673031026252</v>
       </c>
-      <c r="N48" s="10">
-        <f t="shared" si="15"/>
+      <c r="N52" s="19">
+        <f t="shared" si="21"/>
         <v>2.0551340414769852</v>
       </c>
-      <c r="O48" s="10">
-        <f t="shared" si="15"/>
+      <c r="O52" s="19">
+        <f t="shared" si="21"/>
         <v>2.6527846636919516</v>
       </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
+      <c r="P52" s="19">
+        <f t="shared" ref="P52" si="22">+P38/L38-1</f>
+        <v>2.4329810901001112</v>
+      </c>
+      <c r="Q52" s="19">
+        <f t="shared" ref="Q52" si="23">+Q38/M38-1</f>
+        <v>0.98563707707114823</v>
+      </c>
+      <c r="R52" s="19">
+        <f t="shared" ref="R52" si="24">+R38/N38-1</f>
+        <v>0.62030905077262699</v>
+      </c>
+      <c r="S52" s="19">
+        <f t="shared" ref="S52" si="25">+S38/O38-1</f>
+        <v>0.4455051350495407</v>
+      </c>
+      <c r="Z52" s="10">
+        <f>+Z38/Y38-1</f>
+        <v>2.2293230289069932E-3</v>
+      </c>
+      <c r="AA52" s="10">
+        <f>+AA38/Z38-1</f>
+        <v>1.2585452658115224</v>
+      </c>
+      <c r="AB52" s="10">
+        <f>+AB38/AA38-1</f>
+        <v>0.85187616952824929</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="10">
-        <f t="shared" ref="D49:O49" si="16">+D34/C34-1</f>
+      <c r="D53" s="10">
+        <f t="shared" ref="D53:O53" si="26">+D38/C38-1</f>
         <v>0.13152108734759138</v>
       </c>
-      <c r="E49" s="10">
-        <f t="shared" si="16"/>
+      <c r="E53" s="10">
+        <f t="shared" si="26"/>
         <v>0.14944356120826718</v>
       </c>
-      <c r="F49" s="10">
-        <f t="shared" si="16"/>
+      <c r="F53" s="10">
+        <f t="shared" si="26"/>
         <v>9.1593668357153879E-2</v>
       </c>
-      <c r="G49" s="10">
-        <f t="shared" si="16"/>
+      <c r="G53" s="10">
+        <f t="shared" si="26"/>
         <v>7.6024215120371608E-2</v>
       </c>
-      <c r="H49" s="10">
-        <f t="shared" si="16"/>
+      <c r="H53" s="10">
+        <f t="shared" si="26"/>
         <v>8.4390945963626951E-2</v>
       </c>
-      <c r="I49" s="10">
-        <f t="shared" si="16"/>
+      <c r="I53" s="10">
+        <f t="shared" si="26"/>
         <v>-0.19111969111969107</v>
       </c>
-      <c r="J49" s="10">
-        <f t="shared" si="16"/>
+      <c r="J53" s="10">
+        <f t="shared" si="26"/>
         <v>-0.11530429594272074</v>
       </c>
-      <c r="K49" s="10">
-        <f t="shared" si="16"/>
+      <c r="K53" s="10">
+        <f t="shared" si="26"/>
         <v>2.0232675771370667E-2</v>
       </c>
-      <c r="L49" s="10">
-        <f t="shared" si="16"/>
+      <c r="L53" s="10">
+        <f t="shared" si="26"/>
         <v>0.1885638737398776</v>
       </c>
-      <c r="M49" s="10">
-        <f t="shared" si="16"/>
+      <c r="M53" s="10">
+        <f t="shared" si="26"/>
         <v>0.87805895439377091</v>
       </c>
-      <c r="N49" s="10">
-        <f t="shared" si="16"/>
+      <c r="N53" s="10">
+        <f t="shared" si="26"/>
         <v>0.34152661582882948</v>
       </c>
-      <c r="O49" s="10">
-        <f t="shared" si="16"/>
+      <c r="O53" s="10">
+        <f t="shared" si="26"/>
         <v>0.21981236203090515</v>
       </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+      <c r="P53" s="10">
+        <f t="shared" ref="P53" si="27">+P38/O38-1</f>
+        <v>0.11704293534814281</v>
+      </c>
+      <c r="Q53" s="10">
+        <f t="shared" ref="Q53" si="28">+Q38/P38-1</f>
+        <v>8.6269744835965945E-2</v>
+      </c>
+      <c r="R53" s="10">
+        <f t="shared" ref="R53" si="29">+R38/Q38-1</f>
+        <v>9.4705443698732239E-2</v>
+      </c>
+      <c r="S53" s="10">
+        <f t="shared" ref="S53" si="30">+S38/R38-1</f>
+        <v>8.8215258855585788E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="10">
-        <f t="shared" ref="E50:O50" si="17">+E32/D32-1</f>
+      <c r="E54" s="10">
+        <f t="shared" ref="E54:O54" si="31">+E36/D36-1</f>
         <v>0.15609756097560967</v>
       </c>
-      <c r="F50" s="10">
-        <f t="shared" si="17"/>
+      <c r="F54" s="10">
+        <f t="shared" si="31"/>
         <v>0.240506329113924</v>
       </c>
-      <c r="G50" s="10">
-        <f t="shared" si="17"/>
+      <c r="G54" s="10">
+        <f t="shared" si="31"/>
         <v>0.10884353741496589</v>
       </c>
-      <c r="H50" s="10">
-        <f t="shared" si="17"/>
+      <c r="H54" s="10">
+        <f t="shared" si="31"/>
         <v>0.15030674846625769</v>
       </c>
-      <c r="I50" s="10">
-        <f t="shared" si="17"/>
+      <c r="I54" s="10">
+        <f t="shared" si="31"/>
         <v>1.6000000000000014E-2</v>
       </c>
-      <c r="J50" s="10">
-        <f t="shared" si="17"/>
+      <c r="J54" s="10">
+        <f t="shared" si="31"/>
         <v>6.0367454068241955E-3</v>
       </c>
-      <c r="K50" s="10">
-        <f t="shared" si="17"/>
+      <c r="K54" s="10">
+        <f t="shared" si="31"/>
         <v>-5.5570049569527824E-2</v>
       </c>
-      <c r="L50" s="10">
-        <f t="shared" si="17"/>
+      <c r="L54" s="10">
+        <f t="shared" si="31"/>
         <v>0.18342541436464099</v>
       </c>
-      <c r="M50" s="10">
-        <f t="shared" si="17"/>
+      <c r="M54" s="10">
+        <f t="shared" si="31"/>
         <v>1.4096638655462184</v>
       </c>
-      <c r="N50" s="10">
-        <f t="shared" si="17"/>
+      <c r="N54" s="10">
+        <f t="shared" si="31"/>
         <v>0.40598663179308336</v>
       </c>
-      <c r="O50" s="10">
-        <f t="shared" si="17"/>
+      <c r="O54" s="10">
+        <f t="shared" si="31"/>
         <v>0.26677690505718621</v>
       </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
+      <c r="P54" s="10">
+        <f t="shared" ref="P54" si="32">+P36/O36-1</f>
+        <v>0.54465354073751771</v>
+      </c>
+      <c r="Q54" s="10">
+        <f t="shared" ref="Q54" si="33">+Q36/P36-1</f>
+        <v>-1</v>
+      </c>
+      <c r="R54" s="10" t="e">
+        <f t="shared" ref="R54" si="34">+R36/Q36-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S54" s="10" t="e">
+        <f t="shared" ref="S54" si="35">+S36/R36-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="7">
-        <f>C36/C34</f>
+      <c r="C55" s="7">
+        <f>C40/C38</f>
         <v>0.6310213871676994</v>
       </c>
-      <c r="D51" s="7">
-        <f>D36/D34</f>
+      <c r="D55" s="7">
+        <f>D40/D38</f>
         <v>0.6410528175234057</v>
       </c>
-      <c r="E51" s="7">
-        <f>E36/E34</f>
+      <c r="E55" s="7">
+        <f>E40/E38</f>
         <v>0.64776394651913327</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7">
-        <f>G36/G34</f>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7">
+        <f>G40/G38</f>
         <v>0.65406254088708626</v>
       </c>
-      <c r="H51" s="7">
-        <f>H36/H34</f>
+      <c r="H55" s="7">
+        <f>H40/H38</f>
         <v>0.65528474903474898</v>
       </c>
-      <c r="I51" s="7">
-        <f>I36/I34</f>
+      <c r="I55" s="7">
+        <f>I40/I38</f>
         <v>0.43481503579952269</v>
       </c>
-      <c r="J51" s="7">
-        <f>J36/J34</f>
+      <c r="J55" s="7">
+        <f>J40/J38</f>
         <v>0.53566009104704093</v>
       </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7">
-        <f>L36/L34</f>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7">
+        <f>L40/L38</f>
         <v>0.64627363737486099</v>
       </c>
-      <c r="M51" s="7">
-        <f>M36/M34</f>
+      <c r="M55" s="7">
+        <f>M40/M38</f>
         <v>0.7005256533649219</v>
       </c>
-      <c r="N51" s="7">
-        <f>N36/N34</f>
+      <c r="N55" s="7">
+        <f>N40/N38</f>
         <v>0.73951434878587197</v>
       </c>
-      <c r="O51" s="7">
-        <f>O36/O34</f>
+      <c r="O55" s="7">
+        <f>O40/O38</f>
         <v>0.75967063294575399</v>
       </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
+      <c r="P55" s="7">
+        <f t="shared" ref="P55:S55" si="36">P40/P38</f>
+        <v>0.76</v>
+      </c>
+      <c r="Q55" s="7">
+        <f t="shared" si="36"/>
+        <v>0.77</v>
+      </c>
+      <c r="R55" s="7">
+        <f t="shared" si="36"/>
+        <v>0.77</v>
+      </c>
+      <c r="S55" s="7">
+        <f t="shared" si="36"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="7">
-        <f t="shared" ref="C52:H52" si="18">C32/C34</f>
+      <c r="C56" s="7">
+        <f t="shared" ref="C56:H56" si="37">C36/C38</f>
         <v>0</v>
       </c>
-      <c r="D52" s="7">
-        <f t="shared" si="18"/>
+      <c r="D56" s="7">
+        <f t="shared" si="37"/>
         <v>0.36212683271506801</v>
       </c>
-      <c r="E52" s="7">
-        <f t="shared" si="18"/>
+      <c r="E56" s="7">
+        <f t="shared" si="37"/>
         <v>0.36422314430613184</v>
       </c>
-      <c r="F52" s="7">
-        <f t="shared" si="18"/>
+      <c r="F56" s="7">
+        <f t="shared" si="37"/>
         <v>0.41390961565535689</v>
       </c>
-      <c r="G52" s="7">
-        <f t="shared" si="18"/>
+      <c r="G56" s="7">
+        <f t="shared" si="37"/>
         <v>0.42653408347507521</v>
       </c>
-      <c r="H52" s="7">
-        <f t="shared" si="18"/>
+      <c r="H56" s="7">
+        <f t="shared" si="37"/>
         <v>0.45246138996138996</v>
       </c>
-      <c r="I52" s="7">
-        <f t="shared" ref="I52:N52" si="19">I32/I34</f>
+      <c r="I56" s="7">
+        <f t="shared" ref="I56:N56" si="38">I36/I38</f>
         <v>0.56831742243436756</v>
       </c>
-      <c r="J52" s="7">
-        <f t="shared" si="19"/>
+      <c r="J56" s="7">
+        <f t="shared" si="38"/>
         <v>0.64626538526386779</v>
       </c>
-      <c r="K52" s="7">
-        <f t="shared" si="19"/>
+      <c r="K56" s="7">
+        <f t="shared" si="38"/>
         <v>0.59824822343414308</v>
       </c>
-      <c r="L52" s="7">
-        <f t="shared" si="19"/>
+      <c r="L56" s="7">
+        <f t="shared" si="38"/>
         <v>0.59566184649610676</v>
       </c>
-      <c r="M52" s="7">
-        <f t="shared" si="19"/>
+      <c r="M56" s="7">
+        <f t="shared" si="38"/>
         <v>0.76427037832235134</v>
       </c>
-      <c r="N52" s="7">
-        <f t="shared" si="19"/>
+      <c r="N56" s="7">
+        <f t="shared" si="38"/>
         <v>0.80099337748344368</v>
       </c>
-      <c r="O52" s="7">
-        <f t="shared" ref="O52" si="20">O32/O34</f>
+      <c r="O56" s="7">
+        <f t="shared" ref="O56:S56" si="39">O36/O38</f>
         <v>0.83183278288015206</v>
       </c>
-    </row>
-    <row r="55" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="2" t="s">
+      <c r="P56" s="7">
+        <f t="shared" si="39"/>
+        <v>1.1502632644795463</v>
+      </c>
+      <c r="Q56" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>165</v>
+      </c>
+      <c r="L58" s="2">
+        <f>+L59-L72</f>
+        <v>4366</v>
+      </c>
+      <c r="M58" s="2">
+        <f>+M59-M72</f>
+        <v>6318</v>
+      </c>
+      <c r="N58" s="2">
+        <f>+N59-N72</f>
+        <v>8575</v>
+      </c>
+      <c r="O58" s="2">
+        <f>+O59-O72</f>
+        <v>16275</v>
+      </c>
+      <c r="P58" s="2">
+        <f t="shared" ref="P58:S58" si="40">+P59-P72</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="2">
-        <f>5079+10241</f>
-        <v>15320</v>
-      </c>
-      <c r="M55" s="2">
-        <f>5783+10240</f>
-        <v>16023</v>
-      </c>
-      <c r="N55" s="2">
-        <f>5519+12762</f>
-        <v>18281</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="2">
-        <v>4080</v>
-      </c>
-      <c r="M56" s="2">
-        <v>7066</v>
-      </c>
-      <c r="N56" s="2">
-        <v>8309</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="2">
-        <v>4611</v>
-      </c>
-      <c r="M57" s="2">
-        <v>4319</v>
-      </c>
-      <c r="N57" s="2">
-        <v>4779</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="2">
-        <v>872</v>
-      </c>
-      <c r="M58" s="2">
-        <v>1389</v>
-      </c>
-      <c r="N58" s="2">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -3026,18 +4020,25 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="2">
-        <v>3740</v>
+        <f>5079+10241</f>
+        <v>15320</v>
       </c>
       <c r="M59" s="2">
-        <v>3799</v>
+        <f>5783+10240</f>
+        <v>16023</v>
       </c>
       <c r="N59" s="2">
-        <v>3844</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <f>5519+12762</f>
+        <v>18281</v>
+      </c>
+      <c r="O59" s="2">
+        <f>7280+18704</f>
+        <v>25984</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -3049,18 +4050,21 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="2">
-        <v>1094</v>
+        <v>4080</v>
       </c>
       <c r="M60" s="2">
-        <v>1235</v>
+        <v>7066</v>
       </c>
       <c r="N60" s="2">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>8309</v>
+      </c>
+      <c r="O60" s="2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3072,21 +4076,21 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="2">
-        <f>4430+1541</f>
-        <v>5971</v>
+        <v>4611</v>
       </c>
       <c r="M61" s="2">
-        <f>4430+1395</f>
-        <v>5825</v>
+        <v>4319</v>
       </c>
       <c r="N61" s="2">
-        <f>4430+1251</f>
-        <v>5681</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>4779</v>
+      </c>
+      <c r="O61" s="2">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3098,18 +4102,21 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="2">
-        <v>4568</v>
+        <v>872</v>
       </c>
       <c r="M62" s="2">
-        <v>5398</v>
+        <v>1389</v>
       </c>
       <c r="N62" s="2">
-        <v>5982</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1289</v>
+      </c>
+      <c r="O62" s="2">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -3121,18 +4128,21 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="2">
-        <v>4204</v>
+        <v>3740</v>
       </c>
       <c r="M63" s="2">
-        <v>4501</v>
+        <v>3799</v>
       </c>
       <c r="N63" s="2">
-        <v>4667</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>3844</v>
+      </c>
+      <c r="O63" s="2">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3144,19 +4154,22 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="2">
-        <f t="shared" ref="L64" si="21">SUM(L55:L63)</f>
-        <v>44460</v>
+        <v>1094</v>
       </c>
       <c r="M64" s="2">
-        <f>SUM(M55:M63)</f>
-        <v>49555</v>
+        <v>1235</v>
       </c>
       <c r="N64" s="2">
-        <f>SUM(N55:N63)</f>
-        <v>54148</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1316</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3166,10 +4179,26 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-    </row>
-    <row r="66" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L65" s="2">
+        <f>4430+1541</f>
+        <v>5971</v>
+      </c>
+      <c r="M65" s="2">
+        <f>4430+1395</f>
+        <v>5825</v>
+      </c>
+      <c r="N65" s="2">
+        <f>4430+1251</f>
+        <v>5681</v>
+      </c>
+      <c r="O65" s="2">
+        <f>4430+1112</f>
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3181,18 +4210,21 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="2">
-        <v>1141</v>
+        <v>4568</v>
       </c>
       <c r="M66" s="2">
-        <v>1929</v>
+        <v>5398</v>
       </c>
       <c r="N66" s="2">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>5982</v>
+      </c>
+      <c r="O66" s="2">
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -3204,18 +4236,21 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="2">
-        <v>4869</v>
+        <v>4204</v>
       </c>
       <c r="M67" s="2">
-        <v>7156</v>
+        <v>4501</v>
       </c>
       <c r="N67" s="2">
-        <v>5472</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>4667</v>
+      </c>
+      <c r="O67" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3227,22 +4262,23 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="2">
-        <f>1250+9704</f>
-        <v>10954</v>
+        <f t="shared" ref="L68" si="41">SUM(L59:L67)</f>
+        <v>44460</v>
       </c>
       <c r="M68" s="2">
-        <f>1249+8456</f>
-        <v>9705</v>
+        <f>SUM(M59:M67)</f>
+        <v>49555</v>
       </c>
       <c r="N68" s="2">
-        <f>1249+8457</f>
-        <v>9706</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="2" t="s">
-        <v>33</v>
-      </c>
+        <f>SUM(N59:N67)</f>
+        <v>54148</v>
+      </c>
+      <c r="O68" s="2">
+        <f>SUM(O59:O67)</f>
+        <v>65728</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3252,20 +4288,10 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="2">
-        <f>939</f>
-        <v>939</v>
-      </c>
-      <c r="M69" s="2">
-        <v>1041</v>
-      </c>
-      <c r="N69" s="2">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3277,18 +4303,21 @@
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="2">
-        <v>2037</v>
+        <v>1141</v>
       </c>
       <c r="M70" s="2">
-        <v>2223</v>
+        <v>1929</v>
       </c>
       <c r="N70" s="2">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2380</v>
+      </c>
+      <c r="O70" s="2">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3300,18 +4329,21 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="2">
-        <v>24520</v>
+        <v>4869</v>
       </c>
       <c r="M71" s="2">
-        <v>27501</v>
+        <v>7156</v>
       </c>
       <c r="N71" s="2">
-        <v>33265</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>5472</v>
+      </c>
+      <c r="O71" s="2">
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3323,443 +4355,895 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="2">
-        <f t="shared" ref="L72" si="22">SUM(L66:L71)</f>
+        <f>1250+9704</f>
+        <v>10954</v>
+      </c>
+      <c r="M72" s="2">
+        <f>1249+8456</f>
+        <v>9705</v>
+      </c>
+      <c r="N72" s="2">
+        <f>1249+8457</f>
+        <v>9706</v>
+      </c>
+      <c r="O72" s="2">
+        <f>1250+8459</f>
+        <v>9709</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="2">
+        <f>939</f>
+        <v>939</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1041</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1091</v>
+      </c>
+      <c r="O73" s="2">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="2">
+        <v>2037</v>
+      </c>
+      <c r="M74" s="2">
+        <v>2223</v>
+      </c>
+      <c r="N74" s="2">
+        <v>2234</v>
+      </c>
+      <c r="O74" s="2">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="2">
+        <v>24520</v>
+      </c>
+      <c r="M75" s="2">
+        <v>27501</v>
+      </c>
+      <c r="N75" s="2">
+        <v>33265</v>
+      </c>
+      <c r="O75" s="2">
+        <v>42978</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="2">
+        <f t="shared" ref="L76" si="42">SUM(L70:L75)</f>
         <v>44460</v>
       </c>
-      <c r="M72" s="2">
-        <f>SUM(M66:M71)</f>
+      <c r="M76" s="2">
+        <f>SUM(M70:M75)</f>
         <v>49555</v>
       </c>
-      <c r="N72" s="2">
-        <f>SUM(N66:N71)</f>
+      <c r="N76" s="2">
+        <f>SUM(N70:N75)</f>
         <v>54148</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="L73" s="5"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B74" s="2" t="s">
+      <c r="O76" s="2">
+        <f>SUM(O70:O75)</f>
+        <v>65728</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L77" s="5"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L74" s="5">
-        <f>L44</f>
+      <c r="L78" s="5">
+        <f>L48</f>
         <v>2043</v>
       </c>
-      <c r="M74" s="5">
-        <f>M44</f>
+      <c r="M78" s="5">
+        <f>M48</f>
         <v>6188</v>
       </c>
-      <c r="N74" s="5">
-        <f>N44</f>
+      <c r="N78" s="5">
+        <f>N48</f>
         <v>9243</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B75" s="2" t="s">
+      <c r="O78" s="5">
+        <f>O48</f>
+        <v>12285</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L79" s="5">
         <v>735</v>
       </c>
-      <c r="M75" s="2">
-        <f>1576-L75</f>
+      <c r="M79" s="2">
+        <f>1576-L79</f>
         <v>841</v>
       </c>
-      <c r="N75" s="2">
-        <f>2555-M75-L75</f>
+      <c r="N79" s="2">
+        <f>2555-M79-L79</f>
         <v>979</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B76" s="2" t="s">
+      <c r="O79" s="2">
+        <f>3549-N79-M79-L79</f>
+        <v>994</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L80" s="5">
         <v>384</v>
       </c>
-      <c r="M76" s="2">
-        <f>749-L76</f>
+      <c r="M80" s="2">
+        <f>749-L80</f>
         <v>365</v>
       </c>
-      <c r="N76" s="2">
-        <f>1121-M76-L76</f>
+      <c r="N80" s="2">
+        <f>1121-M80-L80</f>
         <v>372</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B77" s="2" t="s">
+      <c r="O80" s="2">
+        <f>1508-N80-M80-L80</f>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L81" s="5">
         <v>14</v>
       </c>
-      <c r="M77" s="2">
-        <f>-45-L77</f>
+      <c r="M81" s="2">
+        <f>-45-L81</f>
         <v>-59</v>
       </c>
-      <c r="N77" s="2">
-        <f>24-M77-L77</f>
+      <c r="N81" s="2">
+        <f>24-M81-L81</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B78" s="2" t="s">
+      <c r="O81" s="2">
+        <f>-238-N81-M81-L81</f>
+        <v>-262</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L82" s="5">
         <v>-1135</v>
       </c>
-      <c r="M78" s="2">
-        <f>-1881-L78</f>
+      <c r="M82" s="2">
+        <f>-1881-L82</f>
         <v>-746</v>
       </c>
-      <c r="N78" s="2">
-        <f>-2411-M78-L78</f>
+      <c r="N82" s="2">
+        <f>-2411-M82-L82</f>
         <v>-530</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B79" s="2" t="s">
+      <c r="O82" s="2">
+        <f>-2489-N82-M82-L82</f>
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L83" s="5">
         <v>-34</v>
       </c>
-      <c r="M79" s="2">
-        <f>-102-L79</f>
+      <c r="M83" s="2">
+        <f>-102-L83</f>
         <v>-68</v>
       </c>
-      <c r="N79" s="2">
-        <f>-170-M79-L79</f>
+      <c r="N83" s="2">
+        <f>-170-M83-L83</f>
         <v>-68</v>
       </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B80" s="2" t="s">
+      <c r="O83" s="2">
+        <f>-278-N83-M83-L83</f>
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L84" s="5">
         <f>-252+566-215+11+689+105</f>
         <v>904</v>
       </c>
-      <c r="M80" s="2">
-        <f>-3239+861-592+789+2675+236-L80</f>
+      <c r="M84" s="2">
+        <f>-3239+861-592+789+2675+236-L84</f>
         <v>-174</v>
       </c>
-      <c r="N80" s="2">
-        <f>-4482+405-337+1250+953+208-M80-L80</f>
+      <c r="N84" s="2">
+        <f>-4482+405-337+1250+953+208-M84-L84</f>
         <v>-2733</v>
       </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
+      <c r="O84" s="2">
+        <f>-6172-98-1522+1531+2025+514-N84-M84-L84</f>
+        <v>-1719</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>54</v>
       </c>
-      <c r="L81" s="5">
-        <f>SUM(L74:L80)</f>
+      <c r="L85" s="5">
+        <f>SUM(L78:L84)</f>
         <v>2911</v>
       </c>
-      <c r="M81" s="5">
-        <f>SUM(M74:M80)</f>
+      <c r="M85" s="5">
+        <f>SUM(M78:M84)</f>
         <v>6347</v>
       </c>
-      <c r="N81" s="5">
-        <f>SUM(N74:N80)</f>
+      <c r="N85" s="5">
+        <f>SUM(N78:N84)</f>
         <v>7332</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="L82" s="5"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B83" s="2" t="s">
+      <c r="O85" s="5">
+        <f>SUM(O78:O84)</f>
+        <v>11499</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L86" s="5"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L87" s="5">
         <f>2512-2801-221</f>
         <v>-510</v>
       </c>
-      <c r="M83" s="2">
-        <f>5111-5343-L83-435</f>
+      <c r="M87" s="2">
+        <f>5111-5343-L87-435</f>
         <v>-157</v>
       </c>
-      <c r="N83" s="2">
-        <f>8001-10688-M83-L83-872</f>
+      <c r="N87" s="2">
+        <f>8001-10688-M87-L87-872</f>
         <v>-2892</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B84" s="2" t="s">
+      <c r="O87" s="2">
+        <f>9732+50-18211-N87-M87-L87-985</f>
+        <v>-5855</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L88" s="5">
         <v>-248</v>
       </c>
-      <c r="M84" s="2">
-        <f>-537-L84</f>
+      <c r="M88" s="2">
+        <f>-537-L88</f>
         <v>-289</v>
       </c>
-      <c r="N84" s="2">
-        <f>-815-M84-L84</f>
+      <c r="N88" s="2">
+        <f>-815-M88-L88</f>
         <v>-278</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B85" s="2" t="s">
+      <c r="O88" s="2">
+        <f>-1069-N88-M88-L88</f>
+        <v>-254</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L89" s="5">
         <v>-83</v>
       </c>
-      <c r="M85" s="2">
-        <f>-83-L85</f>
+      <c r="M89" s="2">
+        <f>-83-L89</f>
         <v>0</v>
       </c>
-      <c r="N85" s="2">
-        <f>-83-M85-L85</f>
+      <c r="N89" s="2">
+        <f>-83-M89-L89</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B86" s="2" t="s">
+      <c r="O89" s="2">
+        <f>-83-N89-M89-L89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L86" s="5">
-        <f>SUM(L83:L85)</f>
+      <c r="L90" s="5">
+        <f>SUM(L87:L89)</f>
         <v>-841</v>
       </c>
-      <c r="M86" s="5">
-        <f>SUM(M83:M85)</f>
+      <c r="M90" s="5">
+        <f>SUM(M87:M89)</f>
         <v>-446</v>
       </c>
-      <c r="N86" s="5">
-        <f>SUM(N83:N85)</f>
+      <c r="N90" s="5">
+        <f>SUM(N87:N89)</f>
         <v>-3170</v>
       </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B88" s="2" t="s">
+      <c r="O90" s="5">
+        <f>SUM(O87:O89)</f>
+        <v>-6109</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L92" s="5">
         <f>246</f>
         <v>246</v>
       </c>
-      <c r="M88" s="2">
-        <f>247-L88</f>
+      <c r="M92" s="2">
+        <f>247-L92</f>
         <v>1</v>
       </c>
-      <c r="N88" s="2">
-        <f>403-M88-L88</f>
+      <c r="N92" s="2">
+        <f>403-M92-L92</f>
         <v>156</v>
       </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B89" s="2" t="s">
+      <c r="O92" s="2">
+        <f>403-N92-M92-L92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L89" s="5">
+      <c r="L93" s="5">
         <v>-507</v>
       </c>
-      <c r="M89" s="2">
-        <f>-1179-L89</f>
+      <c r="M93" s="2">
+        <f>-1179-L93</f>
         <v>-672</v>
       </c>
-      <c r="N89" s="2">
-        <f>-1942-M89-L89</f>
+      <c r="N93" s="2">
+        <f>-1942-M93-L93</f>
         <v>-763</v>
       </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B90" s="2" t="s">
+      <c r="O93" s="2">
+        <f>-2783-N93-M93-L93</f>
+        <v>-841</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L90" s="5">
+      <c r="L94" s="5">
         <v>-99</v>
       </c>
-      <c r="M90" s="2">
-        <f>-199-L90</f>
+      <c r="M94" s="2">
+        <f>-199-L94</f>
         <v>-100</v>
       </c>
-      <c r="N90" s="2">
-        <f>-296-M90-L90</f>
+      <c r="N94" s="2">
+        <f>-296-M94-L94</f>
         <v>-97</v>
       </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B91" s="2" t="s">
+      <c r="O94" s="2">
+        <f>-395-N94-M94-L94</f>
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L95" s="5">
         <v>0</v>
       </c>
-      <c r="M91" s="2">
-        <f>-3067-L91</f>
+      <c r="M95" s="2">
+        <f>-3067-L95</f>
         <v>-3067</v>
       </c>
-      <c r="N91" s="2">
-        <f>-6874-M91-L91</f>
+      <c r="N95" s="2">
+        <f>-6874-M95-L95</f>
         <v>-3807</v>
       </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B92" s="2" t="s">
+      <c r="O95" s="2">
+        <f>-9533-N95-M95-L95</f>
+        <v>-2659</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L92" s="5">
+      <c r="L96" s="5">
         <v>0</v>
       </c>
-      <c r="M92" s="2">
-        <f>-1250-L92</f>
+      <c r="M96" s="2">
+        <f>-1250-L96</f>
         <v>-1250</v>
       </c>
-      <c r="N92" s="2">
-        <f>-1250-M92-L92</f>
+      <c r="N96" s="2">
+        <f>-1250-M96-L96</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B93" s="2" t="s">
+      <c r="O96" s="2">
+        <f>-1250-N96-M96-L96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L93" s="5">
+      <c r="L97" s="5">
         <v>-20</v>
       </c>
-      <c r="M93" s="2">
-        <f>-31-L93</f>
+      <c r="M97" s="2">
+        <f>-31-L97</f>
         <v>-11</v>
       </c>
-      <c r="N93" s="2">
-        <f>-44-M93-L93</f>
+      <c r="N97" s="2">
+        <f>-44-M97-L97</f>
         <v>-13</v>
       </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
+      <c r="O97" s="2">
+        <f>-74-N97-M97-L97</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="98" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>64</v>
       </c>
-      <c r="L94" s="5">
-        <f>SUM(L88:L93)</f>
+      <c r="L98" s="5">
+        <f>SUM(L92:L97)</f>
         <v>-380</v>
       </c>
-      <c r="M94" s="5">
-        <f>SUM(M88:M93)</f>
+      <c r="M98" s="5">
+        <f>SUM(M92:M97)</f>
         <v>-5099</v>
       </c>
-      <c r="N94" s="5">
-        <f>SUM(N88:N93)</f>
+      <c r="N98" s="5">
+        <f>SUM(N92:N97)</f>
         <v>-4524</v>
       </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
+      <c r="O98" s="5">
+        <f>SUM(O92:O97)</f>
+        <v>-3629</v>
+      </c>
+    </row>
+    <row r="99" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>63</v>
       </c>
-      <c r="L95" s="5">
-        <f>L94+L86+L81</f>
+      <c r="L99" s="5">
+        <f>L98+L90+L85</f>
         <v>1690</v>
       </c>
-      <c r="M95" s="5">
-        <f>M94+M86+M81</f>
+      <c r="M99" s="5">
+        <f>M98+M90+M85</f>
         <v>802</v>
       </c>
-      <c r="N95" s="5">
-        <f>N94+N86+N81</f>
+      <c r="N99" s="5">
+        <f>N98+N90+N85</f>
         <v>-362</v>
       </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
+      <c r="O99" s="5">
+        <f>O98+O90+O85</f>
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="101" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>70</v>
       </c>
-      <c r="L97" s="5">
-        <f>(L56/L34)*90</f>
+      <c r="L101" s="5">
+        <f>(L60/L38)*90</f>
         <v>51.056729699666299</v>
       </c>
-      <c r="M97" s="5">
-        <f>(M56/M34)*90</f>
+      <c r="M101" s="5">
+        <f>(M60/M38)*90</f>
         <v>47.082253646257499</v>
       </c>
-      <c r="N97" s="5">
-        <f>(N56/N34)*90</f>
+      <c r="N101" s="5">
+        <f>(N60/N38)*90</f>
         <v>41.269867549668874</v>
       </c>
+      <c r="O101" s="5">
+        <f>(O60/O38)*90</f>
+        <v>40.714382662986928</v>
+      </c>
+    </row>
+    <row r="103" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>149</v>
+      </c>
+      <c r="P103">
+        <v>5.65</v>
+      </c>
+      <c r="Q103">
+        <v>6.03</v>
+      </c>
+      <c r="R103">
+        <v>6.58</v>
+      </c>
+      <c r="S103">
+        <v>7.19</v>
+      </c>
+      <c r="AB103">
+        <v>25.36</v>
+      </c>
+      <c r="AC103">
+        <v>31.51</v>
+      </c>
+      <c r="AD103">
+        <v>34.94</v>
+      </c>
+      <c r="AE103">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="AF103">
+        <v>36.58</v>
+      </c>
+      <c r="AG103">
+        <v>44.15</v>
+      </c>
+      <c r="AH103">
+        <v>49.91</v>
+      </c>
+      <c r="AI103">
+        <v>81.459999999999994</v>
+      </c>
+      <c r="AJ103">
+        <v>92.67</v>
+      </c>
+      <c r="AK103">
+        <v>105.45</v>
+      </c>
+    </row>
+    <row r="104" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>150</v>
+      </c>
+      <c r="P104" s="15">
+        <v>24.69</v>
+      </c>
+      <c r="Q104" s="15">
+        <v>26.8</v>
+      </c>
+      <c r="R104" s="15">
+        <v>29.36</v>
+      </c>
+      <c r="S104" s="15">
+        <v>31.95</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AF3AAC-01AB-4B45-833B-91B200A793E2}">
-  <dimension ref="C4:F10"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D643C2DF-42DA-41EA-9376-8EEC08F9AC1D}">
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4">
-        <v>665</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5">
-        <v>665</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F7">
-        <f>+F4+F5</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D8" s="10">
-        <f>+F7/D9</f>
-        <v>0.12762762762762764</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D9">
-        <v>666</v>
-      </c>
-      <c r="E9" s="11">
-        <f>+D9-85</f>
-        <v>581</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E10" s="11">
-        <f>+D9+85</f>
-        <v>751</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>24690</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5">
+        <v>26820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6">
+        <v>23520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7">
+        <v>24480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10">
+        <v>24690</v>
+      </c>
+      <c r="D10" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10">
+        <v>26820</v>
+      </c>
+      <c r="H10" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="K10" s="10">
+        <f>+D10+H10</f>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>25000</v>
+      </c>
+      <c r="D11" s="10">
+        <v>-0.05</v>
+      </c>
+      <c r="G11">
+        <f>G10+500</f>
+        <v>27320</v>
+      </c>
+      <c r="H11" s="10">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="11">
+        <v>25500</v>
+      </c>
+      <c r="D12" s="18">
+        <v>-0.03</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <f t="shared" ref="G12:G18" si="0">G11+500</f>
+        <v>27820</v>
+      </c>
+      <c r="H12" s="18">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="11">
+        <v>26000</v>
+      </c>
+      <c r="D13" s="18">
+        <v>-0.01</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>28320</v>
+      </c>
+      <c r="H13" s="18">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="11">
+        <v>26500</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>28820</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="11">
+        <v>27000</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>29320</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="11">
+        <v>27500</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>29820</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>28000</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>30320</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>28500</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>30820</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="10">
+        <f>+H18+D18</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="16">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="16">
+        <f>C21+C22</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="17">
+        <f>C23/C20</f>
+        <v>8.2809224318658281E-2</v>
       </c>
     </row>
   </sheetData>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0513CF9-68AE-456A-B3AE-B5A2890F4A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15494C8-160D-2640-8293-5C7BC1B95A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51690" yWindow="1020" windowWidth="16290" windowHeight="18240" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="15860" yWindow="-21100" windowWidth="20220" windowHeight="16080" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
-    <sheet name="Quarterly Earnings Preview" sheetId="4" r:id="rId3"/>
+    <sheet name="Intel Case Study" sheetId="5" r:id="rId3"/>
+    <sheet name="Quarterly Earnings Preview" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="180">
   <si>
     <t>Main</t>
   </si>
@@ -591,6 +592,48 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  y/y</t>
+  </si>
+  <si>
+    <t>16-bit 286</t>
+  </si>
+  <si>
+    <t>Pentium, i586</t>
+  </si>
+  <si>
+    <t>Pentium Pro</t>
+  </si>
+  <si>
+    <t>Pentium 4</t>
+  </si>
+  <si>
+    <t>8080</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>486</t>
   </si>
 </sst>
 </file>
@@ -598,9 +641,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -642,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -670,13 +713,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +751,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>54051</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>99785</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -751,15 +793,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>26836</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>26836</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>99785</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1128,16 +1170,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>133</v>
       </c>
@@ -1148,7 +1189,7 @@
         <v>953.86</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>121</v>
       </c>
@@ -1165,7 +1206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>122</v>
       </c>
@@ -1180,7 +1221,7 @@
         <v>2384650</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>123</v>
       </c>
@@ -1194,7 +1235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>124</v>
       </c>
@@ -1208,7 +1249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>125</v>
       </c>
@@ -1223,7 +1264,7 @@
         <v>2384650</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>127</v>
       </c>
@@ -1232,7 +1273,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>128</v>
       </c>
@@ -1241,7 +1282,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -1249,7 +1290,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>138</v>
       </c>
@@ -1257,22 +1298,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>143</v>
       </c>
@@ -1283,7 +1324,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>145</v>
       </c>
@@ -1294,7 +1335,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>147</v>
       </c>
@@ -1305,17 +1346,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="H19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="H20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>161</v>
       </c>
@@ -1323,7 +1364,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="H22" t="s">
         <v>135</v>
       </c>
@@ -1335,31 +1376,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
-  <dimension ref="A1:AK104"/>
+  <dimension ref="A1:CD105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N45" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AG32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O59" sqref="O59"/>
+      <selection pane="bottomRight" activeCell="AL38" sqref="AL38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="12" width="9.7109375" style="3" customWidth="1"/>
-    <col min="13" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="19" width="10.140625" customWidth="1"/>
-    <col min="27" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="12" width="9.6640625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="19" width="10.1640625" customWidth="1"/>
+    <col min="30" max="31" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
       <c r="C2" s="13">
         <v>44227</v>
       </c>
@@ -1418,15 +1460,38 @@
         <f>+O2+366</f>
         <v>45685</v>
       </c>
+      <c r="V2" s="1">
+        <v>42400</v>
+      </c>
+      <c r="W2" s="1">
+        <v>42764</v>
+      </c>
+      <c r="X2" s="1">
+        <v>43128</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>43492</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>43856</v>
+      </c>
       <c r="AA2" s="1">
-        <v>45320</v>
+        <v>44227</v>
       </c>
       <c r="AB2" s="1">
-        <f>S2</f>
-        <v>45685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+        <v>44591</v>
+      </c>
+      <c r="AC2" s="13">
+        <f>K2</f>
+        <v>44955</v>
+      </c>
+      <c r="AD2" s="1">
+        <f>O2</f>
+        <v>45319</v>
+      </c>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1478,56 +1543,59 @@
       <c r="S3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="X3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>76</v>
       </c>
@@ -1563,7 +1631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -1599,7 +1667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>88</v>
       </c>
@@ -1635,7 +1703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -1671,7 +1739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>79</v>
       </c>
@@ -1707,7 +1775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>89</v>
       </c>
@@ -1743,7 +1811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>80</v>
       </c>
@@ -1780,7 +1848,7 @@
       </c>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -1816,7 +1884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>90</v>
       </c>
@@ -1852,7 +1920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
         <v>82</v>
       </c>
@@ -1888,7 +1956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -1924,7 +1992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -1960,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -1996,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -2032,7 +2100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -2068,7 +2136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>91</v>
       </c>
@@ -2104,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -2140,7 +2208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>95</v>
       </c>
@@ -2176,7 +2244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>92</v>
       </c>
@@ -2212,7 +2280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>93</v>
       </c>
@@ -2248,7 +2316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:30" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="11" t="s">
         <v>96</v>
       </c>
@@ -2291,7 +2359,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="25" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:30" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
         <v>162</v>
       </c>
@@ -2316,7 +2384,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2335,7 +2403,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:30" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="11" t="s">
         <v>74</v>
       </c>
@@ -2365,7 +2433,7 @@
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>75</v>
       </c>
@@ -2395,7 +2463,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2414,7 +2482,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>163</v>
       </c>
@@ -2435,14 +2503,26 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
+      <c r="Y30" s="2">
+        <v>3557</v>
+      </c>
       <c r="Z30" s="2">
+        <v>3279</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>9834</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>15868</v>
+      </c>
+      <c r="AC30" s="2">
         <v>15068</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AD30" s="2">
         <v>47405</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>164</v>
       </c>
@@ -2463,14 +2543,26 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
+      <c r="Y31" s="2">
+        <v>8159</v>
+      </c>
       <c r="Z31" s="2">
+        <v>7639</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>6841</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>11046</v>
+      </c>
+      <c r="AC31" s="2">
         <v>11906</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AD31" s="2">
         <v>13517</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2489,7 +2581,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>46</v>
       </c>
@@ -2517,8 +2609,20 @@
         <f>+N33</f>
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB33" s="19">
+        <f>SUM(D33:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="19">
+        <f>SUM(H33:K33)</f>
+        <v>73</v>
+      </c>
+      <c r="AD33" s="19">
+        <f>SUM(L33:O33)</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>20</v>
       </c>
@@ -2555,8 +2659,20 @@
       <c r="O34">
         <v>463</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB34" s="19">
+        <f>SUM(D34:G34)</f>
+        <v>1015</v>
+      </c>
+      <c r="AC34" s="19">
+        <f>SUM(H34:K34)</f>
+        <v>1544</v>
+      </c>
+      <c r="AD34" s="19">
+        <f>SUM(L34:O34)</f>
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="35" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>21</v>
       </c>
@@ -2593,8 +2709,20 @@
       <c r="O35" s="2">
         <v>281</v>
       </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB35" s="19">
+        <f>SUM(D35:G35)</f>
+        <v>279</v>
+      </c>
+      <c r="AC35" s="19">
+        <f>SUM(H35:K35)</f>
+        <v>903</v>
+      </c>
+      <c r="AD35" s="19">
+        <f>SUM(L35:O35)</f>
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="36" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>22</v>
       </c>
@@ -2639,8 +2767,20 @@
         <f>+P24*P28</f>
         <v>28400</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB36" s="19">
+        <f>SUM(D36:G36)</f>
+        <v>10620</v>
+      </c>
+      <c r="AC36" s="19">
+        <f>SUM(H36:K36)</f>
+        <v>15013</v>
+      </c>
+      <c r="AD36" s="19">
+        <f>SUM(L36:O36)</f>
+        <v>47507</v>
+      </c>
+    </row>
+    <row r="37" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>19</v>
       </c>
@@ -2677,8 +2817,20 @@
       <c r="O37" s="2">
         <v>2900</v>
       </c>
-    </row>
-    <row r="38" spans="2:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB37" s="19">
+        <f>SUM(D37:G37)</f>
+        <v>6180</v>
+      </c>
+      <c r="AC37" s="19">
+        <f>SUM(H37:K37)</f>
+        <v>9064</v>
+      </c>
+      <c r="AD37" s="19">
+        <f>SUM(L37:O37)</f>
+        <v>10482</v>
+      </c>
+    </row>
+    <row r="38" spans="2:82" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8" t="s">
         <v>1</v>
       </c>
@@ -2738,24 +2890,62 @@
       <c r="S38" s="9">
         <v>31950</v>
       </c>
+      <c r="V38" s="8">
+        <v>5010</v>
+      </c>
+      <c r="W38" s="8">
+        <v>6910</v>
+      </c>
+      <c r="X38" s="8">
+        <v>9714</v>
+      </c>
       <c r="Y38" s="8">
+        <v>11716</v>
+      </c>
+      <c r="Z38" s="8">
+        <v>10918</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>16675</v>
+      </c>
+      <c r="AB38" s="8">
         <f>SUM(D38:G38)</f>
         <v>26914</v>
       </c>
-      <c r="Z38" s="8">
+      <c r="AC38" s="8">
         <f>SUM(H38:K38)</f>
         <v>26974</v>
       </c>
-      <c r="AA38" s="8">
+      <c r="AD38" s="8">
         <f>SUM(L38:O38)</f>
         <v>60922</v>
       </c>
-      <c r="AB38" s="8">
+      <c r="AE38" s="8">
         <f>SUM(P38:S38)</f>
         <v>112820</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF38" s="8">
+        <f>+AE38*1.3</f>
+        <v>146666</v>
+      </c>
+      <c r="AG38" s="8">
+        <f>+AF38*1.25</f>
+        <v>183332.5</v>
+      </c>
+      <c r="AH38" s="8">
+        <f>+AG38*1.2</f>
+        <v>219999</v>
+      </c>
+      <c r="AI38" s="8">
+        <f>+AH38*1.15</f>
+        <v>252998.84999999998</v>
+      </c>
+      <c r="AJ38" s="8">
+        <f>+AI38*1.05</f>
+        <v>265648.79249999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
@@ -2768,7 +2958,9 @@
       <c r="E39" s="5">
         <v>2292</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="5">
+        <v>2472</v>
+      </c>
       <c r="G39" s="5">
         <v>2644</v>
       </c>
@@ -2781,7 +2973,10 @@
       <c r="J39" s="5">
         <v>2754</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="5">
+        <f>AC39-J39-I39-H39</f>
+        <v>2218</v>
+      </c>
       <c r="L39" s="5">
         <v>2544</v>
       </c>
@@ -2811,16 +3006,49 @@
         <v>7029</v>
       </c>
       <c r="Y39" s="2">
+        <v>4545</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>4150</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>6279</v>
+      </c>
+      <c r="AB39" s="2">
         <v>9439</v>
       </c>
-      <c r="Z39" s="20">
+      <c r="AC39" s="2">
         <v>11618</v>
       </c>
-      <c r="AA39" s="2">
+      <c r="AD39" s="2">
         <v>16621</v>
       </c>
-    </row>
-    <row r="40" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE39" s="2">
+        <f>SUM(P39:S39)</f>
+        <v>25875.999999999996</v>
+      </c>
+      <c r="AF39" s="2">
+        <f>+AF38*0.25</f>
+        <v>36666.5</v>
+      </c>
+      <c r="AG39" s="2">
+        <f>+AG38*0.25</f>
+        <v>45833.125</v>
+      </c>
+      <c r="AH39" s="2">
+        <f>+AH38*0.25</f>
+        <v>54999.75</v>
+      </c>
+      <c r="AI39" s="2">
+        <f>+AI38*0.25</f>
+        <v>63249.712499999994</v>
+      </c>
+      <c r="AJ39" s="2">
+        <f>+AJ38*0.25</f>
+        <v>66412.198124999995</v>
+      </c>
+    </row>
+    <row r="40" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
@@ -2836,7 +3064,10 @@
         <f>+E38-E39</f>
         <v>4215</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5">
+        <f>+F38-F39</f>
+        <v>4631</v>
+      </c>
       <c r="G40" s="5">
         <f>+G38-G39</f>
         <v>4999</v>
@@ -2853,7 +3084,10 @@
         <f>+J38-J39</f>
         <v>3177</v>
       </c>
-      <c r="K40" s="5"/>
+      <c r="K40" s="5">
+        <f>K38-K39</f>
+        <v>3833</v>
+      </c>
       <c r="L40" s="5">
         <f>+L38-L39</f>
         <v>4648</v>
@@ -2888,18 +3122,54 @@
       </c>
       <c r="Y40" s="2">
         <f>+Y38-Y39</f>
-        <v>17475</v>
+        <v>7171</v>
       </c>
       <c r="Z40" s="2">
         <f>+Z38-Z39</f>
-        <v>15356</v>
+        <v>6768</v>
       </c>
       <c r="AA40" s="2">
         <f>+AA38-AA39</f>
+        <v>10396</v>
+      </c>
+      <c r="AB40" s="2">
+        <f>+AB38-AB39</f>
+        <v>17475</v>
+      </c>
+      <c r="AC40" s="2">
+        <f>+AC38-AC39</f>
+        <v>15356</v>
+      </c>
+      <c r="AD40" s="2">
+        <f>+AD38-AD39</f>
         <v>44301</v>
       </c>
-    </row>
-    <row r="41" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE40" s="2">
+        <f>AE38-AE39</f>
+        <v>86944</v>
+      </c>
+      <c r="AF40" s="2">
+        <f t="shared" ref="AF40:AJ40" si="2">AF38-AF39</f>
+        <v>109999.5</v>
+      </c>
+      <c r="AG40" s="2">
+        <f t="shared" si="2"/>
+        <v>137499.375</v>
+      </c>
+      <c r="AH40" s="2">
+        <f t="shared" si="2"/>
+        <v>164999.25</v>
+      </c>
+      <c r="AI40" s="2">
+        <f t="shared" si="2"/>
+        <v>189749.13749999998</v>
+      </c>
+      <c r="AJ40" s="2">
+        <f t="shared" si="2"/>
+        <v>199236.59437499999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -2912,7 +3182,9 @@
       <c r="E41" s="5">
         <v>1245</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5">
+        <v>1403</v>
+      </c>
       <c r="G41" s="5">
         <v>1466</v>
       </c>
@@ -2925,7 +3197,10 @@
       <c r="J41" s="5">
         <v>1945</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="K41" s="5">
+        <f>AC41-J41-I41-H41</f>
+        <v>1952</v>
+      </c>
       <c r="L41" s="5">
         <v>1875</v>
       </c>
@@ -2943,28 +3218,61 @@
         <v>2565</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" ref="Q41:S41" si="2">+P41+100</f>
+        <f t="shared" ref="Q41:S41" si="3">+P41+100</f>
         <v>2665</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2765</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2865</v>
       </c>
       <c r="Y41" s="2">
+        <v>2376</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>2829</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>3924</v>
+      </c>
+      <c r="AB41" s="2">
         <v>5268</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="AC41" s="2">
         <v>7339</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AD41" s="2">
         <v>8675</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE41" s="2">
+        <f>SUM(P41:S41)</f>
+        <v>10860</v>
+      </c>
+      <c r="AF41" s="2">
+        <f>+AE41*1.01</f>
+        <v>10968.6</v>
+      </c>
+      <c r="AG41" s="2">
+        <f t="shared" ref="AG41:AJ41" si="4">+AF41*1.01</f>
+        <v>11078.286</v>
+      </c>
+      <c r="AH41" s="2">
+        <f t="shared" si="4"/>
+        <v>11189.068859999999</v>
+      </c>
+      <c r="AI41" s="2">
+        <f t="shared" si="4"/>
+        <v>11300.9595486</v>
+      </c>
+      <c r="AJ41" s="2">
+        <f t="shared" si="4"/>
+        <v>11413.969144086001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
@@ -2977,7 +3285,9 @@
       <c r="E42" s="5">
         <v>526</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="5">
+        <v>557</v>
+      </c>
       <c r="G42" s="5">
         <v>563</v>
       </c>
@@ -2990,7 +3300,10 @@
       <c r="J42" s="5">
         <v>631</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="5">
+        <f>AC42-J42-I42-H42</f>
+        <v>625</v>
+      </c>
       <c r="L42" s="5">
         <v>633</v>
       </c>
@@ -3020,34 +3333,70 @@
         <v>811</v>
       </c>
       <c r="Y42" s="2">
+        <v>991</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>1093</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>1940</v>
+      </c>
+      <c r="AB42" s="2">
         <v>2166</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="AC42" s="2">
         <v>2440</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AD42" s="2">
         <v>2654</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE42" s="2">
+        <f>SUM(P42:S42)</f>
+        <v>3094</v>
+      </c>
+      <c r="AF42" s="2">
+        <f t="shared" ref="AF42:AJ42" si="5">+AE42*1.01</f>
+        <v>3124.94</v>
+      </c>
+      <c r="AG42" s="2">
+        <f t="shared" si="5"/>
+        <v>3156.1894000000002</v>
+      </c>
+      <c r="AH42" s="2">
+        <f t="shared" si="5"/>
+        <v>3187.7512940000001</v>
+      </c>
+      <c r="AI42" s="2">
+        <f t="shared" si="5"/>
+        <v>3219.6288069400002</v>
+      </c>
+      <c r="AJ42" s="2">
+        <f t="shared" si="5"/>
+        <v>3251.8250950094002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43" si="3">+C41+C42</f>
+        <f t="shared" ref="C43" si="6">+C41+C42</f>
         <v>1650</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" ref="D43:E43" si="4">+D41+D42</f>
+        <f t="shared" ref="D43:F43" si="7">+D41+D42</f>
         <v>1673</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1771</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="5">
+        <f t="shared" si="7"/>
+        <v>1960</v>
+      </c>
       <c r="G43" s="5">
-        <f t="shared" ref="G43" si="5">+G41+G42</f>
+        <f t="shared" ref="G43" si="8">+G41+G42</f>
         <v>2029</v>
       </c>
       <c r="H43" s="5">
@@ -3055,14 +3404,17 @@
         <v>2210</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" ref="I43" si="6">+I41+I42</f>
+        <f t="shared" ref="I43" si="9">+I41+I42</f>
         <v>2416</v>
       </c>
       <c r="J43" s="5">
         <f>+J41+J42</f>
         <v>2576</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="5">
+        <f>+K41+K42</f>
+        <v>2577</v>
+      </c>
       <c r="L43" s="5">
         <f>+L41+L42</f>
         <v>2508</v>
@@ -3072,61 +3424,100 @@
         <v>2662</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" ref="N43:P43" si="7">+N41+N42</f>
+        <f t="shared" ref="N43:P43" si="10">+N41+N42</f>
         <v>2983</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3176</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3301</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" ref="Q43:S43" si="8">+Q41+Q42</f>
+        <f t="shared" ref="Q43:S43" si="11">+Q41+Q42</f>
         <v>3426</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3551</v>
       </c>
       <c r="S43" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3676</v>
       </c>
       <c r="Y43" s="2">
         <f>+Y41+Y42</f>
-        <v>7434</v>
+        <v>3367</v>
       </c>
       <c r="Z43" s="2">
         <f>+Z41+Z42</f>
-        <v>9779</v>
+        <v>3922</v>
       </c>
       <c r="AA43" s="2">
         <f>+AA41+AA42</f>
+        <v>5864</v>
+      </c>
+      <c r="AB43" s="2">
+        <f>+AB41+AB42</f>
+        <v>7434</v>
+      </c>
+      <c r="AC43" s="2">
+        <f>+AC41+AC42</f>
+        <v>9779</v>
+      </c>
+      <c r="AD43" s="2">
+        <f>+AD41+AD42</f>
         <v>11329</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE43" s="2">
+        <f>+AE41+AE42</f>
+        <v>13954</v>
+      </c>
+      <c r="AF43" s="2">
+        <f t="shared" ref="AF43:AJ43" si="12">+AF41+AF42</f>
+        <v>14093.54</v>
+      </c>
+      <c r="AG43" s="2">
+        <f t="shared" si="12"/>
+        <v>14234.475399999999</v>
+      </c>
+      <c r="AH43" s="2">
+        <f t="shared" si="12"/>
+        <v>14376.820153999999</v>
+      </c>
+      <c r="AI43" s="2">
+        <f t="shared" si="12"/>
+        <v>14520.58835554</v>
+      </c>
+      <c r="AJ43" s="2">
+        <f t="shared" si="12"/>
+        <v>14665.794239095401</v>
+      </c>
+    </row>
+    <row r="44" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44" si="9">+C40-C43</f>
+        <f t="shared" ref="C44" si="13">+C40-C43</f>
         <v>1507</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" ref="D44:E44" si="10">+D40-D43</f>
+        <f t="shared" ref="D44:F44" si="14">+D40-D43</f>
         <v>1956</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2444</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5">
+        <f t="shared" si="14"/>
+        <v>2671</v>
+      </c>
       <c r="G44" s="5">
-        <f t="shared" ref="G44" si="11">+G40-G43</f>
+        <f t="shared" ref="G44" si="15">+G40-G43</f>
         <v>2970</v>
       </c>
       <c r="H44" s="5">
@@ -3134,14 +3525,17 @@
         <v>3221</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" ref="I44" si="12">+I40-I43</f>
+        <f t="shared" ref="I44" si="16">+I40-I43</f>
         <v>499</v>
       </c>
       <c r="J44" s="5">
         <f>+J40-J43</f>
         <v>601</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="K44" s="5">
+        <f>+K40-K43</f>
+        <v>1256</v>
+      </c>
       <c r="L44" s="5">
         <f>+L40-L43</f>
         <v>2140</v>
@@ -3151,43 +3545,79 @@
         <v>6800</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" ref="N44:P44" si="13">+N40-N43</f>
+        <f t="shared" ref="N44:P44" si="17">+N40-N43</f>
         <v>10417</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>13615</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>15463.400000000001</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" ref="Q44:S44" si="14">+Q40-Q43</f>
+        <f t="shared" ref="Q44:S44" si="18">+Q40-Q43</f>
         <v>17225.400000000001</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19056.2</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>21245</v>
       </c>
       <c r="Y44" s="2">
         <f>+Y40-Y43</f>
-        <v>10041</v>
+        <v>3804</v>
       </c>
       <c r="Z44" s="2">
         <f>+Z40-Z43</f>
-        <v>5577</v>
+        <v>2846</v>
       </c>
       <c r="AA44" s="2">
         <f>+AA40-AA43</f>
+        <v>4532</v>
+      </c>
+      <c r="AB44" s="2">
+        <f>+AB40-AB43</f>
+        <v>10041</v>
+      </c>
+      <c r="AC44" s="2">
+        <f>+AC40-AC43</f>
+        <v>5577</v>
+      </c>
+      <c r="AD44" s="2">
+        <f>+AD40-AD43</f>
         <v>32972</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE44" s="2">
+        <f>+AE40-AE43</f>
+        <v>72990</v>
+      </c>
+      <c r="AF44" s="2">
+        <f t="shared" ref="AF44:AJ44" si="19">+AF40-AF43</f>
+        <v>95905.959999999992</v>
+      </c>
+      <c r="AG44" s="2">
+        <f t="shared" si="19"/>
+        <v>123264.8996</v>
+      </c>
+      <c r="AH44" s="2">
+        <f t="shared" si="19"/>
+        <v>150622.42984600001</v>
+      </c>
+      <c r="AI44" s="2">
+        <f t="shared" si="19"/>
+        <v>175228.54914445998</v>
+      </c>
+      <c r="AJ44" s="2">
+        <f t="shared" si="19"/>
+        <v>184570.80013590457</v>
+      </c>
+    </row>
+    <row r="45" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
@@ -3200,7 +3630,10 @@
       <c r="E45" s="5">
         <v>-50</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5">
+        <f>7-62+22</f>
+        <v>-33</v>
+      </c>
       <c r="G45" s="5">
         <v>-105</v>
       </c>
@@ -3214,7 +3647,10 @@
       <c r="J45" s="5">
         <v>12</v>
       </c>
-      <c r="K45" s="5"/>
+      <c r="K45" s="5">
+        <f>AC45-J45-I45-H45</f>
+        <v>32</v>
+      </c>
       <c r="L45" s="5">
         <f>150-66-15</f>
         <v>69</v>
@@ -3247,19 +3683,52 @@
         <v>491</v>
       </c>
       <c r="Y45" s="2">
+        <v>92</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>124</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>-123</v>
+      </c>
+      <c r="AB45" s="2">
         <f>29-236+107</f>
         <v>-100</v>
       </c>
-      <c r="Z45" s="2">
+      <c r="AC45" s="2">
         <f>267-262-48</f>
         <v>-43</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="AD45" s="2">
         <f>866-257+237</f>
         <v>846</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE45" s="2">
+        <f>SUM(P45:S45)</f>
+        <v>1964</v>
+      </c>
+      <c r="AF45" s="2">
+        <f>+AE58*$AN$52</f>
+        <v>799.85899999999992</v>
+      </c>
+      <c r="AG45" s="2">
+        <f>+AF58*$AN$52</f>
+        <v>1621.8584615</v>
+      </c>
+      <c r="AH45" s="2">
+        <f>+AG58*$AN$52</f>
+        <v>2683.3959050227504</v>
+      </c>
+      <c r="AI45" s="2">
+        <f>+AH58*$AN$52</f>
+        <v>3986.4954239064436</v>
+      </c>
+      <c r="AJ45" s="2">
+        <f>+AI58*$AN$52</f>
+        <v>5509.8233027375582</v>
+      </c>
+    </row>
+    <row r="46" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
@@ -3275,7 +3744,10 @@
         <f>+E44+E45</f>
         <v>2394</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="5">
+        <f>+F44+F45</f>
+        <v>2638</v>
+      </c>
       <c r="G46" s="5">
         <f>+G44+G45</f>
         <v>2865</v>
@@ -3292,7 +3764,10 @@
         <f>+J44+J45</f>
         <v>613</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="5">
+        <f>+K44+K45</f>
+        <v>1288</v>
+      </c>
       <c r="L46" s="5">
         <f>+L44+L45</f>
         <v>2209</v>
@@ -3302,43 +3777,79 @@
         <v>6981</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" ref="N46:S46" si="15">+N44+N45</f>
+        <f t="shared" ref="N46:S46" si="20">+N44+N45</f>
         <v>10522</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>14106</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>15954.400000000001</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>17716.400000000001</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>19547.2</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>21736</v>
       </c>
       <c r="Y46" s="2">
         <f>+Y44+Y45</f>
-        <v>9941</v>
+        <v>3896</v>
       </c>
       <c r="Z46" s="2">
         <f>+Z44+Z45</f>
-        <v>5534</v>
+        <v>2970</v>
       </c>
       <c r="AA46" s="2">
         <f>+AA44+AA45</f>
+        <v>4409</v>
+      </c>
+      <c r="AB46" s="2">
+        <f>+AB44+AB45</f>
+        <v>9941</v>
+      </c>
+      <c r="AC46" s="2">
+        <f>+AC44+AC45</f>
+        <v>5534</v>
+      </c>
+      <c r="AD46" s="2">
+        <f>+AD44+AD45</f>
         <v>33818</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE46" s="2">
+        <f>+AE44+AE45</f>
+        <v>74954</v>
+      </c>
+      <c r="AF46" s="2">
+        <f t="shared" ref="AF46:AJ46" si="21">+AF44+AF45</f>
+        <v>96705.818999999989</v>
+      </c>
+      <c r="AG46" s="2">
+        <f t="shared" si="21"/>
+        <v>124886.7580615</v>
+      </c>
+      <c r="AH46" s="2">
+        <f t="shared" si="21"/>
+        <v>153305.82575102276</v>
+      </c>
+      <c r="AI46" s="2">
+        <f t="shared" si="21"/>
+        <v>179215.04456836643</v>
+      </c>
+      <c r="AJ46" s="2">
+        <f t="shared" si="21"/>
+        <v>190080.62343864213</v>
+      </c>
+    </row>
+    <row r="47" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
@@ -3351,7 +3862,9 @@
       <c r="E47" s="5">
         <v>20</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="5">
+        <v>174</v>
+      </c>
       <c r="G47" s="5">
         <v>-138</v>
       </c>
@@ -3364,7 +3877,10 @@
       <c r="J47" s="5">
         <v>-67</v>
       </c>
-      <c r="K47" s="5"/>
+      <c r="K47" s="5">
+        <f>AC47-J47-I47-H47</f>
+        <v>61</v>
+      </c>
       <c r="L47" s="5">
         <v>166</v>
       </c>
@@ -3394,16 +3910,49 @@
         <v>3260.4</v>
       </c>
       <c r="Y47" s="2">
+        <v>-245</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>174</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" s="2">
         <v>189</v>
       </c>
-      <c r="Z47" s="2">
+      <c r="AC47" s="2">
         <v>0</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AD47" s="2">
         <v>4058</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE47" s="2">
+        <f>SUM(P47:S47)</f>
+        <v>11243.1</v>
+      </c>
+      <c r="AF47" s="2">
+        <f>+AF46*0.15</f>
+        <v>14505.872849999998</v>
+      </c>
+      <c r="AG47" s="2">
+        <f>+AG46*0.15</f>
+        <v>18733.013709225001</v>
+      </c>
+      <c r="AH47" s="2">
+        <f>+AH46*0.15</f>
+        <v>22995.873862653414</v>
+      </c>
+      <c r="AI47" s="2">
+        <f>+AI46*0.15</f>
+        <v>26882.256685254964</v>
+      </c>
+      <c r="AJ47" s="2">
+        <f>+AJ46*0.15</f>
+        <v>28512.093515796318</v>
+      </c>
+    </row>
+    <row r="48" spans="2:82" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
@@ -3419,7 +3968,10 @@
         <f>+E46-E47</f>
         <v>2374</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="5">
+        <f>+F46-F47</f>
+        <v>2464</v>
+      </c>
       <c r="G48" s="5">
         <f>+G46-G47</f>
         <v>3003</v>
@@ -3436,7 +3988,10 @@
         <f>+J46-J47</f>
         <v>680</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="K48" s="5">
+        <f>+K46-K47</f>
+        <v>1227</v>
+      </c>
       <c r="L48" s="5">
         <f>+L46-L47</f>
         <v>2043</v>
@@ -3446,7 +4001,7 @@
         <v>6188</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" ref="N48" si="16">N46-N47</f>
+        <f t="shared" ref="N48" si="22">N46-N47</f>
         <v>9243</v>
       </c>
       <c r="O48" s="2">
@@ -3458,31 +4013,251 @@
         <v>13561.240000000002</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" ref="Q48:S48" si="17">+Q46-Q47</f>
+        <f t="shared" ref="Q48:S48" si="23">+Q46-Q47</f>
         <v>15058.940000000002</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>16615.120000000003</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>18475.599999999999</v>
       </c>
       <c r="Y48" s="2">
         <f>+Y46-Y47</f>
-        <v>9752</v>
+        <v>4141</v>
       </c>
       <c r="Z48" s="2">
         <f>+Z46-Z47</f>
-        <v>5534</v>
+        <v>2796</v>
       </c>
       <c r="AA48" s="2">
         <f>+AA46-AA47</f>
+        <v>4332</v>
+      </c>
+      <c r="AB48" s="2">
+        <f>+AB46-AB47</f>
+        <v>9752</v>
+      </c>
+      <c r="AC48" s="2">
+        <f>+AC46-AC47</f>
+        <v>5534</v>
+      </c>
+      <c r="AD48" s="2">
+        <f>+AD46-AD47</f>
         <v>29760</v>
       </c>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AE48" s="2">
+        <f>+AE46-AE47</f>
+        <v>63710.9</v>
+      </c>
+      <c r="AF48" s="2">
+        <f t="shared" ref="AF48:AJ48" si="24">+AF46-AF47</f>
+        <v>82199.946149999989</v>
+      </c>
+      <c r="AG48" s="2">
+        <f t="shared" si="24"/>
+        <v>106153.74435227501</v>
+      </c>
+      <c r="AH48" s="2">
+        <f t="shared" si="24"/>
+        <v>130309.95188836934</v>
+      </c>
+      <c r="AI48" s="2">
+        <f t="shared" si="24"/>
+        <v>152332.78788311145</v>
+      </c>
+      <c r="AJ48" s="2">
+        <f t="shared" si="24"/>
+        <v>161568.5299228458</v>
+      </c>
+      <c r="AK48" s="2">
+        <f>AJ48*(1+$AN$53)</f>
+        <v>164799.90052130271</v>
+      </c>
+      <c r="AL48" s="2">
+        <f>AK48*(1+$AN$53)</f>
+        <v>168095.89853172877</v>
+      </c>
+      <c r="AM48" s="2">
+        <f>AL48*(1+$AN$53)</f>
+        <v>171457.81650236336</v>
+      </c>
+      <c r="AN48" s="2">
+        <f>AM48*(1+$AN$53)</f>
+        <v>174886.97283241063</v>
+      </c>
+      <c r="AO48" s="2">
+        <f>AN48*(1+$AN$53)</f>
+        <v>178384.71228905884</v>
+      </c>
+      <c r="AP48" s="2">
+        <f>AO48*(1+$AN$53)</f>
+        <v>181952.40653484</v>
+      </c>
+      <c r="AQ48" s="2">
+        <f>AP48*(1+$AN$53)</f>
+        <v>185591.45466553682</v>
+      </c>
+      <c r="AR48" s="2">
+        <f>AQ48*(1+$AN$53)</f>
+        <v>189303.28375884757</v>
+      </c>
+      <c r="AS48" s="2">
+        <f>AR48*(1+$AN$53)</f>
+        <v>193089.34943402451</v>
+      </c>
+      <c r="AT48" s="2">
+        <f>AS48*(1+$AN$53)</f>
+        <v>196951.13642270499</v>
+      </c>
+      <c r="AU48" s="2">
+        <f>AT48*(1+$AN$53)</f>
+        <v>200890.15915115911</v>
+      </c>
+      <c r="AV48" s="2">
+        <f>AU48*(1+$AN$53)</f>
+        <v>204907.96233418229</v>
+      </c>
+      <c r="AW48" s="2">
+        <f>AV48*(1+$AN$53)</f>
+        <v>209006.12158086593</v>
+      </c>
+      <c r="AX48" s="2">
+        <f>AW48*(1+$AN$53)</f>
+        <v>213186.24401248325</v>
+      </c>
+      <c r="AY48" s="2">
+        <f>AX48*(1+$AN$53)</f>
+        <v>217449.96889273293</v>
+      </c>
+      <c r="AZ48" s="2">
+        <f>AY48*(1+$AN$53)</f>
+        <v>221798.96827058759</v>
+      </c>
+      <c r="BA48" s="2">
+        <f>AZ48*(1+$AN$53)</f>
+        <v>226234.94763599936</v>
+      </c>
+      <c r="BB48" s="2">
+        <f>BA48*(1+$AN$53)</f>
+        <v>230759.64658871933</v>
+      </c>
+      <c r="BC48" s="2">
+        <f>BB48*(1+$AN$53)</f>
+        <v>235374.83952049373</v>
+      </c>
+      <c r="BD48" s="2">
+        <f>BC48*(1+$AN$53)</f>
+        <v>240082.3363109036</v>
+      </c>
+      <c r="BE48" s="2">
+        <f>BD48*(1+$AN$53)</f>
+        <v>244883.98303712168</v>
+      </c>
+      <c r="BF48" s="2">
+        <f>BE48*(1+$AN$53)</f>
+        <v>249781.66269786411</v>
+      </c>
+      <c r="BG48" s="2">
+        <f>BF48*(1+$AN$53)</f>
+        <v>254777.2959518214</v>
+      </c>
+      <c r="BH48" s="2">
+        <f>BG48*(1+$AN$53)</f>
+        <v>259872.84187085784</v>
+      </c>
+      <c r="BI48" s="2">
+        <f>BH48*(1+$AN$53)</f>
+        <v>265070.29870827502</v>
+      </c>
+      <c r="BJ48" s="2">
+        <f>BI48*(1+$AN$53)</f>
+        <v>270371.7046824405</v>
+      </c>
+      <c r="BK48" s="2">
+        <f>BJ48*(1+$AN$53)</f>
+        <v>275779.1387760893</v>
+      </c>
+      <c r="BL48" s="2">
+        <f>BK48*(1+$AN$53)</f>
+        <v>281294.72155161109</v>
+      </c>
+      <c r="BM48" s="2">
+        <f>BL48*(1+$AN$53)</f>
+        <v>286920.61598264333</v>
+      </c>
+      <c r="BN48" s="2">
+        <f>BM48*(1+$AN$53)</f>
+        <v>292659.02830229618</v>
+      </c>
+      <c r="BO48" s="2">
+        <f>BN48*(1+$AN$53)</f>
+        <v>298512.2088683421</v>
+      </c>
+      <c r="BP48" s="2">
+        <f>BO48*(1+$AN$53)</f>
+        <v>304482.45304570894</v>
+      </c>
+      <c r="BQ48" s="2">
+        <f>BP48*(1+$AN$53)</f>
+        <v>310572.10210662312</v>
+      </c>
+      <c r="BR48" s="2">
+        <f>BQ48*(1+$AN$53)</f>
+        <v>316783.54414875561</v>
+      </c>
+      <c r="BS48" s="2">
+        <f>BR48*(1+$AN$53)</f>
+        <v>323119.21503173071</v>
+      </c>
+      <c r="BT48" s="2">
+        <f>BS48*(1+$AN$53)</f>
+        <v>329581.59933236532</v>
+      </c>
+      <c r="BU48" s="2">
+        <f>BT48*(1+$AN$53)</f>
+        <v>336173.23131901264</v>
+      </c>
+      <c r="BV48" s="2">
+        <f>BU48*(1+$AN$53)</f>
+        <v>342896.69594539289</v>
+      </c>
+      <c r="BW48" s="2">
+        <f>BV48*(1+$AN$53)</f>
+        <v>349754.62986430078</v>
+      </c>
+      <c r="BX48" s="2">
+        <f>BW48*(1+$AN$53)</f>
+        <v>356749.72246158682</v>
+      </c>
+      <c r="BY48" s="2">
+        <f>BX48*(1+$AN$53)</f>
+        <v>363884.71691081853</v>
+      </c>
+      <c r="BZ48" s="2">
+        <f>BY48*(1+$AN$53)</f>
+        <v>371162.41124903492</v>
+      </c>
+      <c r="CA48" s="2">
+        <f>BZ48*(1+$AN$53)</f>
+        <v>378585.65947401564</v>
+      </c>
+      <c r="CB48" s="2">
+        <f>CA48*(1+$AN$53)</f>
+        <v>386157.37266349595</v>
+      </c>
+      <c r="CC48" s="2">
+        <f>CB48*(1+$AN$53)</f>
+        <v>393880.52011676587</v>
+      </c>
+      <c r="CD48" s="2">
+        <f>CC48*(1+$AN$53)</f>
+        <v>401758.13051910116</v>
+      </c>
+    </row>
+    <row r="49" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>12</v>
       </c>
@@ -3498,7 +4273,10 @@
         <f>+E48/E50</f>
         <v>0.93759873617693523</v>
       </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="6">
+        <f>+F48/F50</f>
+        <v>0.97084318360914101</v>
+      </c>
       <c r="G49" s="6">
         <f>+G48/G50</f>
         <v>1.1799607072691551</v>
@@ -3515,7 +4293,10 @@
         <f>+J48/J50</f>
         <v>0.27210884353741499</v>
       </c>
-      <c r="K49" s="6"/>
+      <c r="K49" s="6">
+        <f>+K48/K50</f>
+        <v>0.48942959712804146</v>
+      </c>
       <c r="L49" s="6">
         <f>+L48/L50</f>
         <v>0.82048192771084338</v>
@@ -3525,43 +4306,79 @@
         <v>2.4761904761904763</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" ref="N49:P49" si="18">+N48/N50</f>
+        <f t="shared" ref="N49:P49" si="25">+N48/N50</f>
         <v>3.7060946271050521</v>
       </c>
       <c r="O49" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>4.9337349397590362</v>
       </c>
       <c r="P49" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>5.4462811244979923</v>
       </c>
       <c r="Q49" s="6">
-        <f t="shared" ref="Q49:S49" si="19">+Q48/Q50</f>
+        <f t="shared" ref="Q49:S49" si="26">+Q48/Q50</f>
         <v>6.0477670682730933</v>
       </c>
       <c r="R49" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>6.6727389558232941</v>
       </c>
       <c r="S49" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>7.4199196787148587</v>
       </c>
       <c r="Y49" s="16">
         <f>+Y48/Y50</f>
-        <v>3.8469428007889546</v>
+        <v>6.6256000000000004</v>
       </c>
       <c r="Z49" s="16">
         <f>+Z48/Z50</f>
-        <v>2.2074192261667331</v>
+        <v>1.1310679611650485</v>
       </c>
       <c r="AA49" s="16">
         <f>+AA48/AA50</f>
+        <v>1.7258964143426294</v>
+      </c>
+      <c r="AB49" s="16">
+        <f>+AB48/AB50</f>
+        <v>3.8469428007889546</v>
+      </c>
+      <c r="AC49" s="16">
+        <f>+AC48/AC50</f>
+        <v>2.2074192261667331</v>
+      </c>
+      <c r="AD49" s="16">
+        <f>+AD48/AD50</f>
         <v>11.932638331996792</v>
       </c>
-    </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AE49" s="16">
+        <f>+AE48/AE50</f>
+        <v>25.545669607056936</v>
+      </c>
+      <c r="AF49" s="16">
+        <f>+AF48/AF50</f>
+        <v>32.959080252606249</v>
+      </c>
+      <c r="AG49" s="16">
+        <f t="shared" ref="AG49:AJ49" si="27">+AG48/AG50</f>
+        <v>42.563650502115081</v>
+      </c>
+      <c r="AH49" s="16">
+        <f t="shared" si="27"/>
+        <v>52.249379265585141</v>
+      </c>
+      <c r="AI49" s="16">
+        <f t="shared" si="27"/>
+        <v>61.07970644872151</v>
+      </c>
+      <c r="AJ49" s="16">
+        <f t="shared" si="27"/>
+        <v>64.782890907315874</v>
+      </c>
+    </row>
+    <row r="50" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>13</v>
       </c>
@@ -3574,6 +4391,9 @@
       <c r="E50" s="5">
         <v>2532</v>
       </c>
+      <c r="F50" s="5">
+        <v>2538</v>
+      </c>
       <c r="G50" s="5">
         <v>2545</v>
       </c>
@@ -3586,7 +4406,10 @@
       <c r="J50" s="5">
         <v>2499</v>
       </c>
-      <c r="K50" s="5"/>
+      <c r="K50" s="5">
+        <f>AC50</f>
+        <v>2507</v>
+      </c>
       <c r="L50" s="5">
         <v>2490</v>
       </c>
@@ -3604,232 +4427,327 @@
         <v>2490</v>
       </c>
       <c r="Q50" s="2">
-        <f t="shared" ref="Q50:S50" si="20">+P50</f>
+        <f t="shared" ref="Q50:S50" si="28">+P50</f>
         <v>2490</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2490</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2490</v>
       </c>
       <c r="Y50" s="2">
+        <v>625</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>2472</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>2510</v>
+      </c>
+      <c r="AB50" s="2">
         <v>2535</v>
       </c>
-      <c r="Z50" s="2">
+      <c r="AC50" s="2">
         <v>2507</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AD50" s="2">
         <v>2494</v>
       </c>
-    </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AE50" s="2">
+        <f>+AD50</f>
+        <v>2494</v>
+      </c>
+      <c r="AF50" s="2">
+        <f>+AE50</f>
+        <v>2494</v>
+      </c>
+      <c r="AG50" s="2">
+        <f t="shared" ref="AG50:AJ50" si="29">+AF50</f>
+        <v>2494</v>
+      </c>
+      <c r="AH50" s="2">
+        <f t="shared" si="29"/>
+        <v>2494</v>
+      </c>
+      <c r="AI50" s="2">
+        <f t="shared" si="29"/>
+        <v>2494</v>
+      </c>
+      <c r="AJ50" s="2">
+        <f t="shared" si="29"/>
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="52" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>71</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10">
-        <f t="shared" ref="G52:O52" si="21">+G38/C38-1</f>
+        <f t="shared" ref="G52:O52" si="30">+G38/C38-1</f>
         <v>0.52768338996602049</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="J52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="K52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-0.20829517205285886</v>
       </c>
-      <c r="L52" s="19">
-        <f t="shared" si="21"/>
+      <c r="L52" s="10">
+        <f t="shared" si="30"/>
         <v>-0.13223938223938225</v>
       </c>
-      <c r="M52" s="19">
-        <f t="shared" si="21"/>
+      <c r="M52" s="10">
+        <f t="shared" si="30"/>
         <v>1.0147673031026252</v>
       </c>
-      <c r="N52" s="19">
-        <f t="shared" si="21"/>
+      <c r="N52" s="10">
+        <f t="shared" si="30"/>
         <v>2.0551340414769852</v>
       </c>
-      <c r="O52" s="19">
-        <f t="shared" si="21"/>
+      <c r="O52" s="10">
+        <f t="shared" si="30"/>
         <v>2.6527846636919516</v>
       </c>
-      <c r="P52" s="19">
-        <f t="shared" ref="P52" si="22">+P38/L38-1</f>
+      <c r="P52" s="10">
+        <f t="shared" ref="P52" si="31">+P38/L38-1</f>
         <v>2.4329810901001112</v>
       </c>
-      <c r="Q52" s="19">
-        <f t="shared" ref="Q52" si="23">+Q38/M38-1</f>
+      <c r="Q52" s="10">
+        <f t="shared" ref="Q52" si="32">+Q38/M38-1</f>
         <v>0.98563707707114823</v>
       </c>
-      <c r="R52" s="19">
-        <f t="shared" ref="R52" si="24">+R38/N38-1</f>
+      <c r="R52" s="10">
+        <f t="shared" ref="R52" si="33">+R38/N38-1</f>
         <v>0.62030905077262699</v>
       </c>
-      <c r="S52" s="19">
-        <f t="shared" ref="S52" si="25">+S38/O38-1</f>
+      <c r="S52" s="10">
+        <f t="shared" ref="S52" si="34">+S38/O38-1</f>
         <v>0.4455051350495407</v>
+      </c>
+      <c r="W52" s="10">
+        <f t="shared" ref="W52:Z52" si="35">+W38/V38-1</f>
+        <v>0.37924151696606789</v>
+      </c>
+      <c r="X52" s="10">
+        <f t="shared" si="35"/>
+        <v>0.40578871201157751</v>
+      </c>
+      <c r="Y52" s="10">
+        <f t="shared" si="35"/>
+        <v>0.20609429689108505</v>
       </c>
       <c r="Z52" s="10">
         <f>+Z38/Y38-1</f>
-        <v>2.2293230289069932E-3</v>
+        <v>-6.8111983612154314E-2</v>
       </c>
       <c r="AA52" s="10">
         <f>+AA38/Z38-1</f>
-        <v>1.2585452658115224</v>
+        <v>0.52729437625938824</v>
       </c>
       <c r="AB52" s="10">
         <f>+AB38/AA38-1</f>
+        <v>0.61403298350824587</v>
+      </c>
+      <c r="AC52" s="10">
+        <f>+AC38/AB38-1</f>
+        <v>2.2293230289069932E-3</v>
+      </c>
+      <c r="AD52" s="10">
+        <f>+AD38/AC38-1</f>
+        <v>1.2585452658115224</v>
+      </c>
+      <c r="AE52" s="10">
+        <f>+AE38/AD38-1</f>
         <v>0.85187616952824929</v>
       </c>
-    </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AF52" s="10">
+        <f t="shared" ref="AF52:AJ52" si="36">+AF38/AE38-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AG52" s="10">
+        <f t="shared" si="36"/>
+        <v>0.25</v>
+      </c>
+      <c r="AH52" s="10">
+        <f t="shared" si="36"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AI52" s="10">
+        <f t="shared" si="36"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AJ52" s="10">
+        <f t="shared" si="36"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN52" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="53" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" ref="D53:O53" si="26">+D38/C38-1</f>
+        <f t="shared" ref="D53:O53" si="37">+D38/C38-1</f>
         <v>0.13152108734759138</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.14944356120826718</v>
       </c>
       <c r="F53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>9.1593668357153879E-2</v>
       </c>
       <c r="G53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>7.6024215120371608E-2</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>8.4390945963626951E-2</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>-0.19111969111969107</v>
       </c>
       <c r="J53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>-0.11530429594272074</v>
       </c>
       <c r="K53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>2.0232675771370667E-2</v>
       </c>
       <c r="L53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.1885638737398776</v>
       </c>
       <c r="M53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.87805895439377091</v>
       </c>
       <c r="N53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.34152661582882948</v>
       </c>
       <c r="O53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.21981236203090515</v>
       </c>
       <c r="P53" s="10">
-        <f t="shared" ref="P53" si="27">+P38/O38-1</f>
+        <f t="shared" ref="P53" si="38">+P38/O38-1</f>
         <v>0.11704293534814281</v>
       </c>
       <c r="Q53" s="10">
-        <f t="shared" ref="Q53" si="28">+Q38/P38-1</f>
+        <f t="shared" ref="Q53" si="39">+Q38/P38-1</f>
         <v>8.6269744835965945E-2</v>
       </c>
       <c r="R53" s="10">
-        <f t="shared" ref="R53" si="29">+R38/Q38-1</f>
+        <f t="shared" ref="R53" si="40">+R38/Q38-1</f>
         <v>9.4705443698732239E-2</v>
       </c>
       <c r="S53" s="10">
-        <f t="shared" ref="S53" si="30">+S38/R38-1</f>
+        <f t="shared" ref="S53" si="41">+S38/R38-1</f>
         <v>8.8215258855585788E-2</v>
       </c>
-    </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AM53" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN53" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>73</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" ref="E54:O54" si="31">+E36/D36-1</f>
+        <f t="shared" ref="E54:O54" si="42">+E36/D36-1</f>
         <v>0.15609756097560967</v>
       </c>
       <c r="F54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0.240506329113924</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0.10884353741496589</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0.15030674846625769</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="J54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>6.0367454068241955E-3</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>-5.5570049569527824E-2</v>
       </c>
       <c r="L54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0.18342541436464099</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>1.4096638655462184</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0.40598663179308336</v>
       </c>
       <c r="O54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>0.26677690505718621</v>
       </c>
       <c r="P54" s="10">
-        <f t="shared" ref="P54" si="32">+P36/O36-1</f>
+        <f t="shared" ref="P54" si="43">+P36/O36-1</f>
         <v>0.54465354073751771</v>
       </c>
       <c r="Q54" s="10">
-        <f t="shared" ref="Q54" si="33">+Q36/P36-1</f>
+        <f t="shared" ref="Q54" si="44">+Q36/P36-1</f>
         <v>-1</v>
       </c>
       <c r="R54" s="10" t="e">
-        <f t="shared" ref="R54" si="34">+R36/Q36-1</f>
+        <f t="shared" ref="R54" si="45">+R36/Q36-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S54" s="10" t="e">
-        <f t="shared" ref="S54" si="35">+S36/R36-1</f>
+        <f t="shared" ref="S54" si="46">+S36/R36-1</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AM54" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN54" s="10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="55" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>5</v>
       </c>
@@ -3845,7 +4763,10 @@
         <f>E40/E38</f>
         <v>0.64776394651913327</v>
       </c>
-      <c r="F55" s="7"/>
+      <c r="F55" s="7">
+        <f>F40/F38</f>
+        <v>0.65197803744896521</v>
+      </c>
       <c r="G55" s="7">
         <f>G40/G38</f>
         <v>0.65406254088708626</v>
@@ -3862,7 +4783,10 @@
         <f>J40/J38</f>
         <v>0.53566009104704093</v>
       </c>
-      <c r="K55" s="7"/>
+      <c r="K55" s="7">
+        <f>K40/K38</f>
+        <v>0.63344901669145592</v>
+      </c>
       <c r="L55" s="7">
         <f>L40/L38</f>
         <v>0.64627363737486099</v>
@@ -3880,98 +4804,125 @@
         <v>0.75967063294575399</v>
       </c>
       <c r="P55" s="7">
-        <f t="shared" ref="P55:S55" si="36">P40/P38</f>
+        <f t="shared" ref="P55:S55" si="47">P40/P38</f>
         <v>0.76</v>
       </c>
       <c r="Q55" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>0.77</v>
       </c>
       <c r="R55" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>0.77</v>
       </c>
       <c r="S55" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>0.78</v>
       </c>
-    </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AM55" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN55" s="2">
+        <f>NPV(AN54,AE48:CD48)</f>
+        <v>2121023.2707946864</v>
+      </c>
+    </row>
+    <row r="56" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="7">
-        <f t="shared" ref="C56:H56" si="37">C36/C38</f>
+        <f t="shared" ref="C56:H56" si="48">C36/C38</f>
         <v>0</v>
       </c>
       <c r="D56" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>0.36212683271506801</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>0.36422314430613184</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>0.41390961565535689</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>0.42653408347507521</v>
       </c>
       <c r="H56" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>0.45246138996138996</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" ref="I56:N56" si="38">I36/I38</f>
+        <f t="shared" ref="I56:N56" si="49">I36/I38</f>
         <v>0.56831742243436756</v>
       </c>
       <c r="J56" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.64626538526386779</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.59824822343414308</v>
       </c>
       <c r="L56" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.59566184649610676</v>
       </c>
       <c r="M56" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.76427037832235134</v>
       </c>
       <c r="N56" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>0.80099337748344368</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" ref="O56:S56" si="39">O36/O38</f>
+        <f t="shared" ref="O56:S56" si="50">O36/O38</f>
         <v>0.83183278288015206</v>
       </c>
       <c r="P56" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>1.1502632644795463</v>
       </c>
       <c r="Q56" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R56" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="S56" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>165</v>
+      </c>
+      <c r="G58" s="2">
+        <f>+G59-G72</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <f>+H59-H72</f>
+        <v>9391</v>
+      </c>
+      <c r="I58" s="2">
+        <f>+I59-I72</f>
+        <v>6088</v>
+      </c>
+      <c r="J58" s="2">
+        <f>+J59-J72</f>
+        <v>2193</v>
+      </c>
+      <c r="K58" s="2">
+        <f>+K59-K72</f>
+        <v>2343</v>
       </c>
       <c r="L58" s="2">
         <f>+L59-L72</f>
@@ -3990,23 +4941,51 @@
         <v>16275</v>
       </c>
       <c r="P58" s="2">
-        <f t="shared" ref="P58:S58" si="40">+P59-P72</f>
+        <f t="shared" ref="P58:S58" si="51">+P59-P72</f>
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD58" s="2">
+        <f>O58</f>
+        <v>16275</v>
+      </c>
+      <c r="AE58" s="2">
+        <f>+AD58+AE48</f>
+        <v>79985.899999999994</v>
+      </c>
+      <c r="AF58" s="2">
+        <f>+AE58+AF48</f>
+        <v>162185.84615</v>
+      </c>
+      <c r="AG58" s="2">
+        <f>+AF58+AG48</f>
+        <v>268339.59050227504</v>
+      </c>
+      <c r="AH58" s="2">
+        <f>+AG58+AH48</f>
+        <v>398649.54239064438</v>
+      </c>
+      <c r="AI58" s="2">
+        <f>+AH58+AI48</f>
+        <v>550982.33027375583</v>
+      </c>
+      <c r="AJ58" s="2">
+        <f>+AI58+AJ48</f>
+        <v>712550.8601966016</v>
+      </c>
+    </row>
+    <row r="59" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
         <v>38</v>
       </c>
@@ -4015,10 +4994,22 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+      <c r="H59" s="5">
+        <f>3887+16451</f>
+        <v>20338</v>
+      </c>
+      <c r="I59" s="5">
+        <f>3013+14024</f>
+        <v>17037</v>
+      </c>
+      <c r="J59" s="5">
+        <f>2800+10343</f>
+        <v>13143</v>
+      </c>
+      <c r="K59" s="5">
+        <f>3389+9907</f>
+        <v>13296</v>
+      </c>
       <c r="L59" s="2">
         <f>5079+10241</f>
         <v>15320</v>
@@ -4035,8 +5026,12 @@
         <f>7280+18704</f>
         <v>25984</v>
       </c>
-    </row>
-    <row r="60" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD59" s="2">
+        <f t="shared" ref="AD59:AD76" si="52">O59</f>
+        <v>25984</v>
+      </c>
+    </row>
+    <row r="60" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="s">
         <v>39</v>
       </c>
@@ -4045,10 +5040,18 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
+      <c r="H60" s="5">
+        <v>5438</v>
+      </c>
+      <c r="I60" s="5">
+        <v>5317</v>
+      </c>
+      <c r="J60" s="5">
+        <v>4908</v>
+      </c>
+      <c r="K60" s="5">
+        <v>3827</v>
+      </c>
       <c r="L60" s="2">
         <v>4080</v>
       </c>
@@ -4061,8 +5064,12 @@
       <c r="O60" s="2">
         <v>9999</v>
       </c>
-    </row>
-    <row r="61" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD60" s="2">
+        <f t="shared" si="52"/>
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
         <v>40</v>
       </c>
@@ -4071,10 +5078,18 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
+      <c r="H61" s="5">
+        <v>3163</v>
+      </c>
+      <c r="I61" s="5">
+        <v>3889</v>
+      </c>
+      <c r="J61" s="5">
+        <v>4454</v>
+      </c>
+      <c r="K61" s="5">
+        <v>5159</v>
+      </c>
       <c r="L61" s="2">
         <v>4611</v>
       </c>
@@ -4087,8 +5102,12 @@
       <c r="O61" s="2">
         <v>5282</v>
       </c>
-    </row>
-    <row r="62" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD61" s="2">
+        <f t="shared" si="52"/>
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="62" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
         <v>41</v>
       </c>
@@ -4097,10 +5116,18 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
+      <c r="H62" s="5">
+        <v>636</v>
+      </c>
+      <c r="I62" s="5">
+        <v>1175</v>
+      </c>
+      <c r="J62" s="5">
+        <v>718</v>
+      </c>
+      <c r="K62" s="5">
+        <v>791</v>
+      </c>
       <c r="L62" s="2">
         <v>872</v>
       </c>
@@ -4113,8 +5140,12 @@
       <c r="O62" s="2">
         <v>3080</v>
       </c>
-    </row>
-    <row r="63" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD62" s="2">
+        <f t="shared" si="52"/>
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="63" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
         <v>42</v>
       </c>
@@ -4123,10 +5154,18 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="H63" s="5">
+        <v>2916</v>
+      </c>
+      <c r="I63" s="5">
+        <v>3233</v>
+      </c>
+      <c r="J63" s="5">
+        <v>3774</v>
+      </c>
+      <c r="K63" s="5">
+        <v>3807</v>
+      </c>
       <c r="L63" s="2">
         <v>3740</v>
       </c>
@@ -4139,8 +5178,12 @@
       <c r="O63" s="2">
         <v>3914</v>
       </c>
-    </row>
-    <row r="64" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD63" s="2">
+        <f t="shared" si="52"/>
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="64" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
         <v>43</v>
       </c>
@@ -4149,10 +5192,18 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="H64" s="5">
+        <v>856</v>
+      </c>
+      <c r="I64" s="5">
+        <v>852</v>
+      </c>
+      <c r="J64" s="5">
+        <v>927</v>
+      </c>
+      <c r="K64" s="5">
+        <v>1038</v>
+      </c>
       <c r="L64" s="2">
         <v>1094</v>
       </c>
@@ -4165,8 +5216,12 @@
       <c r="O64" s="2">
         <v>1346</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD64" s="2">
+        <f t="shared" si="52"/>
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
         <v>44</v>
       </c>
@@ -4175,10 +5230,22 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="H65" s="5">
+        <f>4365+2211</f>
+        <v>6576</v>
+      </c>
+      <c r="I65" s="5">
+        <f>4372+2036</f>
+        <v>6408</v>
+      </c>
+      <c r="J65" s="5">
+        <f>4372+1850</f>
+        <v>6222</v>
+      </c>
+      <c r="K65" s="5">
+        <f>4372+1676</f>
+        <v>6048</v>
+      </c>
       <c r="L65" s="2">
         <f>4430+1541</f>
         <v>5971</v>
@@ -4195,8 +5262,12 @@
         <f>4430+1112</f>
         <v>5542</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD65" s="2">
+        <f t="shared" si="52"/>
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
         <v>9</v>
       </c>
@@ -4205,10 +5276,18 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="H66" s="5">
+        <v>1784</v>
+      </c>
+      <c r="I66" s="5">
+        <v>2225</v>
+      </c>
+      <c r="J66" s="5">
+        <v>2762</v>
+      </c>
+      <c r="K66" s="5">
+        <v>3396</v>
+      </c>
       <c r="L66" s="2">
         <v>4568</v>
       </c>
@@ -4221,8 +5300,12 @@
       <c r="O66" s="2">
         <v>6081</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD66" s="2">
+        <f t="shared" si="52"/>
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
         <v>45</v>
       </c>
@@ -4231,10 +5314,18 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="H67" s="5">
+        <v>3505</v>
+      </c>
+      <c r="I67" s="5">
+        <v>3340</v>
+      </c>
+      <c r="J67" s="5">
+        <v>3580</v>
+      </c>
+      <c r="K67" s="5">
+        <v>3820</v>
+      </c>
       <c r="L67" s="2">
         <v>4204</v>
       </c>
@@ -4247,8 +5338,12 @@
       <c r="O67" s="2">
         <v>4500</v>
       </c>
-    </row>
-    <row r="68" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD67" s="2">
+        <f t="shared" si="52"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="68" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
         <v>37</v>
       </c>
@@ -4256,13 +5351,28 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="G68" s="2">
+        <f t="shared" ref="G68:H68" si="53">SUM(G59:G67)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="53"/>
+        <v>45212</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" ref="I68:L68" si="54">SUM(I59:I67)</f>
+        <v>43476</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="54"/>
+        <v>40488</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="54"/>
+        <v>41182</v>
+      </c>
       <c r="L68" s="2">
-        <f t="shared" ref="L68" si="41">SUM(L59:L67)</f>
+        <f t="shared" si="54"/>
         <v>44460</v>
       </c>
       <c r="M68" s="2">
@@ -4277,8 +5387,12 @@
         <f>SUM(O59:O67)</f>
         <v>65728</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD68" s="2">
+        <f t="shared" si="52"/>
+        <v>65728</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -4289,7 +5403,7 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
         <v>36</v>
       </c>
@@ -4298,10 +5412,18 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="H70" s="5">
+        <v>1999</v>
+      </c>
+      <c r="I70" s="5">
+        <v>2421</v>
+      </c>
+      <c r="J70" s="5">
+        <v>1491</v>
+      </c>
+      <c r="K70" s="5">
+        <v>1193</v>
+      </c>
       <c r="L70" s="2">
         <v>1141</v>
       </c>
@@ -4314,8 +5436,12 @@
       <c r="O70" s="2">
         <v>2699</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD70" s="2">
+        <f t="shared" si="52"/>
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
         <v>35</v>
       </c>
@@ -4324,10 +5450,18 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="H71" s="5">
+        <v>3563</v>
+      </c>
+      <c r="I71" s="5">
+        <v>3903</v>
+      </c>
+      <c r="J71" s="5">
+        <v>4115</v>
+      </c>
+      <c r="K71" s="5">
+        <v>4120</v>
+      </c>
       <c r="L71" s="2">
         <v>4869</v>
       </c>
@@ -4340,8 +5474,12 @@
       <c r="O71" s="2">
         <v>6682</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD71" s="2">
+        <f t="shared" si="52"/>
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
@@ -4350,10 +5488,21 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+      <c r="H72" s="5">
+        <v>10947</v>
+      </c>
+      <c r="I72" s="5">
+        <f>1249+9700</f>
+        <v>10949</v>
+      </c>
+      <c r="J72" s="5">
+        <f>+1249+9701</f>
+        <v>10950</v>
+      </c>
+      <c r="K72" s="5">
+        <f>1250+9703</f>
+        <v>10953</v>
+      </c>
       <c r="L72" s="2">
         <f>1250+9704</f>
         <v>10954</v>
@@ -4370,8 +5519,12 @@
         <f>1250+8459</f>
         <v>9709</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD72" s="2">
+        <f t="shared" si="52"/>
+        <v>9709</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
         <v>33</v>
       </c>
@@ -4380,10 +5533,18 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="H73" s="5">
+        <v>752</v>
+      </c>
+      <c r="I73" s="5">
+        <v>743</v>
+      </c>
+      <c r="J73" s="5">
+        <v>798</v>
+      </c>
+      <c r="K73" s="5">
+        <v>902</v>
+      </c>
       <c r="L73" s="2">
         <f>939</f>
         <v>939</v>
@@ -4397,8 +5558,12 @@
       <c r="O73" s="2">
         <v>1119</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD73" s="2">
+        <f t="shared" si="52"/>
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
         <v>32</v>
       </c>
@@ -4407,10 +5572,18 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="H74" s="5">
+        <v>1631</v>
+      </c>
+      <c r="I74" s="5">
+        <v>1609</v>
+      </c>
+      <c r="J74" s="5">
+        <v>1785</v>
+      </c>
+      <c r="K74" s="5">
+        <v>1913</v>
+      </c>
       <c r="L74" s="2">
         <v>2037</v>
       </c>
@@ -4423,8 +5596,12 @@
       <c r="O74" s="2">
         <v>2541</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD74" s="2">
+        <f t="shared" si="52"/>
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
         <v>31</v>
       </c>
@@ -4433,10 +5610,18 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="H75" s="5">
+        <v>26320</v>
+      </c>
+      <c r="I75" s="5">
+        <v>23851</v>
+      </c>
+      <c r="J75" s="5">
+        <v>21349</v>
+      </c>
+      <c r="K75" s="5">
+        <v>22101</v>
+      </c>
       <c r="L75" s="2">
         <v>24520</v>
       </c>
@@ -4449,8 +5634,12 @@
       <c r="O75" s="2">
         <v>42978</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD75" s="2">
+        <f t="shared" si="52"/>
+        <v>42978</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2" t="s">
         <v>30</v>
       </c>
@@ -4458,13 +5647,28 @@
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="G76" s="2">
+        <f t="shared" ref="G76:H76" si="55">SUM(G70:G75)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="55"/>
+        <v>45212</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" ref="I76:L76" si="56">SUM(I70:I75)</f>
+        <v>43476</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="56"/>
+        <v>40488</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="56"/>
+        <v>41182</v>
+      </c>
       <c r="L76" s="2">
-        <f t="shared" ref="L76" si="42">SUM(L70:L75)</f>
+        <f t="shared" si="56"/>
         <v>44460</v>
       </c>
       <c r="M76" s="2">
@@ -4479,507 +5683,1005 @@
         <f>SUM(O70:O75)</f>
         <v>65728</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="AD76" s="2">
+        <f t="shared" si="52"/>
+        <v>65728</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="J77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H78" s="5">
+        <f>+H48</f>
+        <v>2971</v>
+      </c>
+      <c r="I78" s="5">
+        <f>+I48</f>
+        <v>656</v>
+      </c>
+      <c r="J78" s="5">
+        <f>+J48</f>
+        <v>680</v>
+      </c>
+      <c r="K78" s="5">
+        <f>+K48</f>
+        <v>1227</v>
+      </c>
+      <c r="L78" s="5">
+        <f>+L48</f>
+        <v>2043</v>
+      </c>
+      <c r="M78" s="5">
+        <f>+M48</f>
+        <v>6188</v>
+      </c>
+      <c r="N78" s="5">
+        <f>+N48</f>
+        <v>9243</v>
+      </c>
+      <c r="O78" s="5">
+        <f>+O48</f>
+        <v>12285</v>
+      </c>
+      <c r="AD78" s="2">
+        <f>AD48</f>
+        <v>29760</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L78" s="5">
+      <c r="G79" s="5">
+        <f>9752-F79-E79-D79</f>
+        <v>9752</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1618</v>
+      </c>
+      <c r="I79" s="5">
+        <f>2274-H79</f>
+        <v>656</v>
+      </c>
+      <c r="J79" s="5">
+        <f>2954-I79-H79</f>
+        <v>680</v>
+      </c>
+      <c r="K79" s="5">
+        <f>4368-J79-I79-H79</f>
+        <v>1414</v>
+      </c>
+      <c r="L79" s="5">
         <f>L48</f>
         <v>2043</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M79" s="5">
         <f>M48</f>
         <v>6188</v>
       </c>
-      <c r="N78" s="5">
+      <c r="N79" s="5">
         <f>N48</f>
         <v>9243</v>
       </c>
-      <c r="O78" s="5">
+      <c r="O79" s="5">
         <f>O48</f>
         <v>12285</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
+      <c r="AD79" s="2">
+        <f>SUM(L79:O79)</f>
+        <v>29759</v>
+      </c>
+    </row>
+    <row r="80" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L79" s="5">
+      <c r="G80" s="5">
+        <f>2004-F80-E80-D80</f>
+        <v>2004</v>
+      </c>
+      <c r="H80" s="5">
+        <v>578</v>
+      </c>
+      <c r="I80" s="5">
+        <f>1226-H80</f>
+        <v>648</v>
+      </c>
+      <c r="J80" s="5">
+        <f>1353-I80-H80</f>
+        <v>127</v>
+      </c>
+      <c r="K80" s="5">
+        <f>2709-J80-I80-H80</f>
+        <v>1356</v>
+      </c>
+      <c r="L80" s="5">
         <v>735</v>
       </c>
-      <c r="M79" s="2">
-        <f>1576-L79</f>
+      <c r="M80" s="2">
+        <f>1576-L80</f>
         <v>841</v>
       </c>
-      <c r="N79" s="2">
-        <f>2555-M79-L79</f>
+      <c r="N80" s="2">
+        <f>2555-M80-L80</f>
         <v>979</v>
       </c>
-      <c r="O79" s="2">
-        <f>3549-N79-M79-L79</f>
+      <c r="O80" s="2">
+        <f>3549-N80-M80-L80</f>
         <v>994</v>
       </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
+      <c r="AD80" s="2">
+        <f t="shared" ref="AD80:AD99" si="57">SUM(L80:O80)</f>
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="81" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B81" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L80" s="5">
+      <c r="G81" s="5">
+        <f>1174-F81-E81-D81</f>
+        <v>1174</v>
+      </c>
+      <c r="H81" s="5">
+        <v>334</v>
+      </c>
+      <c r="I81" s="5">
+        <f>712-H81</f>
+        <v>378</v>
+      </c>
+      <c r="J81" s="5">
+        <f>1118-I81-H81</f>
+        <v>406</v>
+      </c>
+      <c r="K81" s="5">
+        <f>1544-J81-I81-H81</f>
+        <v>426</v>
+      </c>
+      <c r="L81" s="5">
         <v>384</v>
       </c>
-      <c r="M80" s="2">
-        <f>749-L80</f>
+      <c r="M81" s="2">
+        <f>749-L81</f>
         <v>365</v>
       </c>
-      <c r="N80" s="2">
-        <f>1121-M80-L80</f>
+      <c r="N81" s="2">
+        <f>1121-M81-L81</f>
         <v>372</v>
       </c>
-      <c r="O80" s="2">
-        <f>1508-N80-M80-L80</f>
+      <c r="O81" s="2">
+        <f>1508-N81-M81-L81</f>
         <v>387</v>
       </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
+      <c r="AD81" s="2">
+        <f t="shared" si="57"/>
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="82" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B82" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L81" s="5">
+      <c r="G82" s="5">
+        <f>-100-F82-E82-D82</f>
+        <v>-100</v>
+      </c>
+      <c r="H82" s="5">
+        <v>17</v>
+      </c>
+      <c r="I82" s="5">
+        <f>24-H82</f>
+        <v>7</v>
+      </c>
+      <c r="J82" s="5">
+        <f>35-I82-H82</f>
+        <v>11</v>
+      </c>
+      <c r="K82" s="5">
+        <f>45-J82-I82-H82+1353</f>
+        <v>1363</v>
+      </c>
+      <c r="L82" s="5">
         <v>14</v>
       </c>
-      <c r="M81" s="2">
-        <f>-45-L81</f>
+      <c r="M82" s="2">
+        <f>-45-L82</f>
         <v>-59</v>
       </c>
-      <c r="N81" s="2">
-        <f>24-M81-L81</f>
+      <c r="N82" s="2">
+        <f>24-M82-L82</f>
         <v>69</v>
       </c>
-      <c r="O81" s="2">
-        <f>-238-N81-M81-L81</f>
+      <c r="O82" s="2">
+        <f>-238-N82-M82-L82</f>
         <v>-262</v>
       </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
+      <c r="AD82" s="2">
+        <f t="shared" si="57"/>
+        <v>-238</v>
+      </c>
+    </row>
+    <row r="83" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B83" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L82" s="5">
+      <c r="G83" s="5">
+        <f>-406-F83-E83-D83</f>
+        <v>-406</v>
+      </c>
+      <c r="H83" s="5">
+        <v>-542</v>
+      </c>
+      <c r="I83" s="5">
+        <f>-985-H83</f>
+        <v>-443</v>
+      </c>
+      <c r="J83" s="5">
+        <f>-1517-I83-H83</f>
+        <v>-532</v>
+      </c>
+      <c r="K83" s="5">
+        <f>-2164-J83-I83-H83</f>
+        <v>-647</v>
+      </c>
+      <c r="L83" s="5">
         <v>-1135</v>
       </c>
-      <c r="M82" s="2">
-        <f>-1881-L82</f>
+      <c r="M83" s="2">
+        <f>-1881-L83</f>
         <v>-746</v>
       </c>
-      <c r="N82" s="2">
-        <f>-2411-M82-L82</f>
+      <c r="N83" s="2">
+        <f>-2411-M83-L83</f>
         <v>-530</v>
       </c>
-      <c r="O82" s="2">
-        <f>-2489-N82-M82-L82</f>
+      <c r="O83" s="2">
+        <f>-2489-N83-M83-L83</f>
         <v>-78</v>
       </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
+      <c r="AD83" s="2">
+        <f t="shared" si="57"/>
+        <v>-2489</v>
+      </c>
+    </row>
+    <row r="84" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B84" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L83" s="5">
+      <c r="G84" s="5">
+        <f>47-F84-E84-D84</f>
+        <v>47</v>
+      </c>
+      <c r="H84" s="5">
+        <f>23+1353</f>
+        <v>1376</v>
+      </c>
+      <c r="I84" s="5">
+        <f>18+1353-H84</f>
+        <v>-5</v>
+      </c>
+      <c r="J84" s="5">
+        <f>-27-I84-H84</f>
+        <v>-1398</v>
+      </c>
+      <c r="K84" s="3">
+        <f>-7-J84-I84-H84</f>
+        <v>20</v>
+      </c>
+      <c r="L84" s="5">
         <v>-34</v>
       </c>
-      <c r="M83" s="2">
-        <f>-102-L83</f>
+      <c r="M84" s="2">
+        <f>-102-L84</f>
         <v>-68</v>
       </c>
-      <c r="N83" s="2">
-        <f>-170-M83-L83</f>
+      <c r="N84" s="2">
+        <f>-170-M84-L84</f>
         <v>-68</v>
       </c>
-      <c r="O83" s="2">
-        <f>-278-N83-M83-L83</f>
+      <c r="O84" s="2">
+        <f>-278-N84-M84-L84</f>
         <v>-108</v>
       </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
+      <c r="AD84" s="2">
+        <f t="shared" si="57"/>
+        <v>-278</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B85" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L84" s="5">
+      <c r="G85" s="5">
+        <f>-2215-774-1715+568+581+192-F85-E85-D85</f>
+        <v>-3363</v>
+      </c>
+      <c r="H85" s="5">
+        <f>-788-560-1261+255+634+70</f>
+        <v>-1650</v>
+      </c>
+      <c r="I85" s="5">
+        <f>-668-1285-1554+559+1267+60-H85</f>
+        <v>29</v>
+      </c>
+      <c r="J85" s="5">
+        <f>-258-1848-1307-358+1175+102-I85-H85</f>
+        <v>-873</v>
+      </c>
+      <c r="K85" s="5">
+        <f>822-2554-1517-551+1341+252-J85-I85-H85</f>
+        <v>287</v>
+      </c>
+      <c r="L85" s="5">
         <f>-252+566-215+11+689+105</f>
         <v>904</v>
       </c>
-      <c r="M84" s="2">
-        <f>-3239+861-592+789+2675+236-L84</f>
+      <c r="M85" s="2">
+        <f>-3239+861-592+789+2675+236-L85</f>
         <v>-174</v>
       </c>
-      <c r="N84" s="2">
-        <f>-4482+405-337+1250+953+208-M84-L84</f>
+      <c r="N85" s="2">
+        <f>-4482+405-337+1250+953+208-M85-L85</f>
         <v>-2733</v>
       </c>
-      <c r="O84" s="2">
-        <f>-6172-98-1522+1531+2025+514-N84-M84-L84</f>
+      <c r="O85" s="2">
+        <f>-6172-98-1522+1531+2025+514-N85-M85-L85</f>
         <v>-1719</v>
       </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+      <c r="AD85" s="2">
+        <f t="shared" si="57"/>
+        <v>-3722</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
         <v>54</v>
       </c>
-      <c r="L85" s="5">
-        <f>SUM(L78:L84)</f>
+      <c r="G86" s="5">
+        <f>SUM(G79:G85)</f>
+        <v>9108</v>
+      </c>
+      <c r="H86" s="5">
+        <f>SUM(H79:H85)</f>
+        <v>1731</v>
+      </c>
+      <c r="I86" s="5">
+        <f>SUM(I79:I85)</f>
+        <v>1270</v>
+      </c>
+      <c r="J86" s="5">
+        <f>SUM(J79:J85)</f>
+        <v>-1579</v>
+      </c>
+      <c r="K86" s="5">
+        <f>SUM(K79:K85)</f>
+        <v>4219</v>
+      </c>
+      <c r="L86" s="5">
+        <f>SUM(L79:L85)</f>
         <v>2911</v>
       </c>
-      <c r="M85" s="5">
-        <f>SUM(M78:M84)</f>
+      <c r="M86" s="5">
+        <f>SUM(M79:M85)</f>
         <v>6347</v>
       </c>
-      <c r="N85" s="5">
-        <f>SUM(N78:N84)</f>
+      <c r="N86" s="5">
+        <f>SUM(N79:N85)</f>
         <v>7332</v>
       </c>
-      <c r="O85" s="5">
-        <f>SUM(O78:O84)</f>
+      <c r="O86" s="5">
+        <f>SUM(O79:O85)</f>
         <v>11499</v>
       </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="L86" s="5"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
+      <c r="AD86" s="2">
+        <f t="shared" si="57"/>
+        <v>28089</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="L87" s="5"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B88" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L87" s="5">
+      <c r="G88" s="5">
+        <f>15197+1023-24787-24-F88-E88-D88</f>
+        <v>-8591</v>
+      </c>
+      <c r="H88" s="5">
+        <f>5947+1029-3932-35</f>
+        <v>3009</v>
+      </c>
+      <c r="I88" s="5">
+        <f>10983+1731-7576-794-H88-65</f>
+        <v>1270</v>
+      </c>
+      <c r="J88" s="5">
+        <f>16792+1806-9764-83-I88-H88</f>
+        <v>4472</v>
+      </c>
+      <c r="K88" s="5">
+        <f>19425+1806-11897-77-J88-I88-H88</f>
+        <v>506</v>
+      </c>
+      <c r="L88" s="5">
         <f>2512-2801-221</f>
         <v>-510</v>
       </c>
-      <c r="M87" s="2">
-        <f>5111-5343-L87-435</f>
+      <c r="M88" s="2">
+        <f>5111-5343-L88-435</f>
         <v>-157</v>
       </c>
-      <c r="N87" s="2">
-        <f>8001-10688-M87-L87-872</f>
+      <c r="N88" s="2">
+        <f>8001-10688-M88-L88-872</f>
         <v>-2892</v>
       </c>
-      <c r="O87" s="2">
-        <f>9732+50-18211-N87-M87-L87-985</f>
+      <c r="O88" s="2">
+        <f>9732+50-18211-N88-M88-L88-985</f>
         <v>-5855</v>
       </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="2" t="s">
+      <c r="AD88" s="2">
+        <f t="shared" si="57"/>
+        <v>-9414</v>
+      </c>
+    </row>
+    <row r="89" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B89" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L88" s="5">
+      <c r="G89" s="5">
+        <f>-976-F89-E89-D89</f>
+        <v>-976</v>
+      </c>
+      <c r="H89" s="5">
+        <v>-361</v>
+      </c>
+      <c r="I89" s="5">
+        <f>-794-H89</f>
+        <v>-433</v>
+      </c>
+      <c r="J89" s="5">
+        <f>-1324-I89-H89</f>
+        <v>-530</v>
+      </c>
+      <c r="K89" s="5">
+        <f>-1833-J89-I89-H89</f>
+        <v>-509</v>
+      </c>
+      <c r="L89" s="5">
         <v>-248</v>
       </c>
-      <c r="M88" s="2">
-        <f>-537-L88</f>
+      <c r="M89" s="2">
+        <f>-537-L89</f>
         <v>-289</v>
       </c>
-      <c r="N88" s="2">
-        <f>-815-M88-L88</f>
+      <c r="N89" s="2">
+        <f>-815-M89-L89</f>
         <v>-278</v>
       </c>
-      <c r="O88" s="2">
-        <f>-1069-N88-M88-L88</f>
+      <c r="O89" s="2">
+        <f>-1069-N89-M89-L89</f>
         <v>-254</v>
       </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
+      <c r="AD89" s="2">
+        <f t="shared" si="57"/>
+        <v>-1069</v>
+      </c>
+    </row>
+    <row r="90" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B90" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L89" s="5">
+      <c r="G90" s="5">
+        <f>-263-F90-E90-D90</f>
+        <v>-263</v>
+      </c>
+      <c r="H90" s="5">
+        <v>-36</v>
+      </c>
+      <c r="I90" s="5">
+        <f>-49-H90</f>
+        <v>-13</v>
+      </c>
+      <c r="J90" s="5">
+        <f>-49-I90-H90</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="5">
+        <f>-49-J90-I90-H90</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="5">
         <v>-83</v>
       </c>
-      <c r="M89" s="2">
-        <f>-83-L89</f>
+      <c r="M90" s="2">
+        <f>-83-L90</f>
         <v>0</v>
       </c>
-      <c r="N89" s="2">
-        <f>-83-M89-L89</f>
+      <c r="N90" s="2">
+        <f>-83-M90-L90</f>
         <v>0</v>
       </c>
-      <c r="O89" s="2">
-        <f>-83-N89-M89-L89</f>
+      <c r="O90" s="2">
+        <f>-83-N90-M90-L90</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
+      <c r="AD90" s="2">
+        <f t="shared" si="57"/>
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="91" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B91" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L90" s="5">
-        <f>SUM(L87:L89)</f>
+      <c r="G91" s="5">
+        <f>SUM(G88:G90)</f>
+        <v>-9830</v>
+      </c>
+      <c r="H91" s="5">
+        <f>SUM(H88:H90)</f>
+        <v>2612</v>
+      </c>
+      <c r="I91" s="5">
+        <f>SUM(I88:I90)</f>
+        <v>824</v>
+      </c>
+      <c r="J91" s="5">
+        <f>SUM(J88:J90)</f>
+        <v>3942</v>
+      </c>
+      <c r="K91" s="5">
+        <f>SUM(K88:K90)</f>
+        <v>-3</v>
+      </c>
+      <c r="L91" s="5">
+        <f>SUM(L88:L90)</f>
         <v>-841</v>
       </c>
-      <c r="M90" s="5">
-        <f>SUM(M87:M89)</f>
+      <c r="M91" s="5">
+        <f>SUM(M88:M90)</f>
         <v>-446</v>
       </c>
-      <c r="N90" s="5">
-        <f>SUM(N87:N89)</f>
+      <c r="N91" s="5">
+        <f>SUM(N88:N90)</f>
         <v>-3170</v>
       </c>
-      <c r="O90" s="5">
-        <f>SUM(O87:O89)</f>
+      <c r="O91" s="5">
+        <f>SUM(O88:O90)</f>
         <v>-6109</v>
       </c>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="2" t="s">
+      <c r="AD91" s="2">
+        <f t="shared" si="57"/>
+        <v>-10566</v>
+      </c>
+    </row>
+    <row r="93" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B93" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L92" s="5">
+      <c r="G93" s="3">
+        <f>281-F93-E93-D93</f>
+        <v>281</v>
+      </c>
+      <c r="H93" s="5">
+        <v>204</v>
+      </c>
+      <c r="I93" s="5">
+        <f>205-H93</f>
+        <v>1</v>
+      </c>
+      <c r="J93" s="5">
+        <f>349-I93-H93</f>
+        <v>144</v>
+      </c>
+      <c r="K93" s="5">
+        <f>355-J93-I93-H93</f>
+        <v>6</v>
+      </c>
+      <c r="L93" s="5">
         <f>246</f>
         <v>246</v>
       </c>
-      <c r="M92" s="2">
-        <f>247-L92</f>
+      <c r="M93" s="2">
+        <f>247-L93</f>
         <v>1</v>
       </c>
-      <c r="N92" s="2">
-        <f>403-M92-L92</f>
+      <c r="N93" s="2">
+        <f>403-M93-L93</f>
         <v>156</v>
       </c>
-      <c r="O92" s="2">
-        <f>403-N92-M92-L92</f>
+      <c r="O93" s="2">
+        <f>403-N93-M93-L93</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
+      <c r="AD93" s="2">
+        <f t="shared" si="57"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B94" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L93" s="5">
+      <c r="H94" s="5">
+        <v>-532</v>
+      </c>
+      <c r="I94" s="5">
+        <f>-837-H94</f>
+        <v>-305</v>
+      </c>
+      <c r="J94" s="5">
+        <f>-1131-I94-H94</f>
+        <v>-294</v>
+      </c>
+      <c r="K94" s="5">
+        <f>-1475-J94-I94-H94</f>
+        <v>-344</v>
+      </c>
+      <c r="L94" s="5">
         <v>-507</v>
       </c>
-      <c r="M93" s="2">
-        <f>-1179-L93</f>
+      <c r="M94" s="2">
+        <f>-1179-L94</f>
         <v>-672</v>
       </c>
-      <c r="N93" s="2">
-        <f>-1942-M93-L93</f>
+      <c r="N94" s="2">
+        <f>-1942-M94-L94</f>
         <v>-763</v>
       </c>
-      <c r="O93" s="2">
-        <f>-2783-N93-M93-L93</f>
+      <c r="O94" s="2">
+        <f>-2783-N94-M94-L94</f>
         <v>-841</v>
       </c>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="2" t="s">
+      <c r="AD94" s="2">
+        <f t="shared" si="57"/>
+        <v>-2783</v>
+      </c>
+    </row>
+    <row r="95" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B95" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L94" s="5">
+      <c r="H95" s="5">
+        <v>-100</v>
+      </c>
+      <c r="I95" s="5">
+        <f>-200-H95</f>
+        <v>-100</v>
+      </c>
+      <c r="J95" s="5">
+        <f>-300-I95-H95</f>
+        <v>-100</v>
+      </c>
+      <c r="K95" s="5">
+        <f>-398-J95-I95-H95</f>
+        <v>-98</v>
+      </c>
+      <c r="L95" s="5">
         <v>-99</v>
       </c>
-      <c r="M94" s="2">
-        <f>-199-L94</f>
+      <c r="M95" s="2">
+        <f>-199-L95</f>
         <v>-100</v>
       </c>
-      <c r="N94" s="2">
-        <f>-296-M94-L94</f>
+      <c r="N95" s="2">
+        <f>-296-M95-L95</f>
         <v>-97</v>
       </c>
-      <c r="O94" s="2">
-        <f>-395-N94-M94-L94</f>
+      <c r="O95" s="2">
+        <f>-395-N95-M95-L95</f>
         <v>-99</v>
       </c>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="2" t="s">
+      <c r="AD95" s="2">
+        <f t="shared" si="57"/>
+        <v>-395</v>
+      </c>
+    </row>
+    <row r="96" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B96" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L95" s="5">
-        <v>0</v>
-      </c>
-      <c r="M95" s="2">
-        <f>-3067-L95</f>
-        <v>-3067</v>
-      </c>
-      <c r="N95" s="2">
-        <f>-6874-M95-L95</f>
-        <v>-3807</v>
-      </c>
-      <c r="O95" s="2">
-        <f>-9533-N95-M95-L95</f>
-        <v>-2659</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="2" t="s">
-        <v>34</v>
+      <c r="H96" s="5">
+        <v>-1996</v>
+      </c>
+      <c r="I96" s="5">
+        <f>-5341-H96</f>
+        <v>-3345</v>
+      </c>
+      <c r="J96" s="5">
+        <f>-8826-I96-H96</f>
+        <v>-3485</v>
+      </c>
+      <c r="K96" s="5">
+        <f>-10039-J96-I96-H96</f>
+        <v>-1213</v>
       </c>
       <c r="L96" s="5">
         <v>0</v>
       </c>
       <c r="M96" s="2">
-        <f>-1250-L96</f>
+        <f>-3067-L96</f>
+        <v>-3067</v>
+      </c>
+      <c r="N96" s="2">
+        <f>-6874-M96-L96</f>
+        <v>-3807</v>
+      </c>
+      <c r="O96" s="2">
+        <f>-9533-N96-M96-L96</f>
+        <v>-2659</v>
+      </c>
+      <c r="AD96" s="2">
+        <f t="shared" si="57"/>
+        <v>-9533</v>
+      </c>
+    </row>
+    <row r="97" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="5">
+        <v>0</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+      <c r="K97" s="5">
+        <v>0</v>
+      </c>
+      <c r="L97" s="5">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <f>-1250-L97</f>
         <v>-1250</v>
       </c>
-      <c r="N96" s="2">
-        <f>-1250-M96-L96</f>
+      <c r="N97" s="2">
+        <f>-1250-M97-L97</f>
         <v>0</v>
       </c>
-      <c r="O96" s="2">
-        <f>-1250-N96-M96-L96</f>
+      <c r="O97" s="2">
+        <f>-1250-N97-M97-L97</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B97" s="2" t="s">
+      <c r="AD97" s="2">
+        <f t="shared" si="57"/>
+        <v>-1250</v>
+      </c>
+    </row>
+    <row r="98" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B98" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L97" s="5">
+      <c r="H98" s="5">
+        <v>-22</v>
+      </c>
+      <c r="I98" s="5">
+        <f>-36+1-H98</f>
+        <v>-13</v>
+      </c>
+      <c r="J98" s="5">
+        <f>-54-I98-H98</f>
+        <v>-19</v>
+      </c>
+      <c r="K98" s="5">
+        <f>-58-J98-I98-H98-2</f>
+        <v>-6</v>
+      </c>
+      <c r="L98" s="5">
         <v>-20</v>
       </c>
-      <c r="M97" s="2">
-        <f>-31-L97</f>
+      <c r="M98" s="2">
+        <f>-31-L98</f>
         <v>-11</v>
       </c>
-      <c r="N97" s="2">
-        <f>-44-M97-L97</f>
+      <c r="N98" s="2">
+        <f>-44-M98-L98</f>
         <v>-13</v>
       </c>
-      <c r="O97" s="2">
-        <f>-74-N97-M97-L97</f>
+      <c r="O98" s="2">
+        <f>-74-N98-M98-L98</f>
         <v>-30</v>
       </c>
-    </row>
-    <row r="98" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+      <c r="AD98" s="2">
+        <f t="shared" si="57"/>
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="99" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
         <v>64</v>
       </c>
-      <c r="L98" s="5">
-        <f>SUM(L92:L97)</f>
+      <c r="H99" s="5">
+        <f>SUM(H93:H98)</f>
+        <v>-2446</v>
+      </c>
+      <c r="I99" s="5">
+        <f>SUM(I93:I98)</f>
+        <v>-3762</v>
+      </c>
+      <c r="J99" s="5">
+        <f>SUM(J93:J98)</f>
+        <v>-3754</v>
+      </c>
+      <c r="K99" s="5">
+        <f>SUM(K93:K98)</f>
+        <v>-1655</v>
+      </c>
+      <c r="L99" s="5">
+        <f>SUM(L93:L98)</f>
         <v>-380</v>
       </c>
-      <c r="M98" s="5">
-        <f>SUM(M92:M97)</f>
+      <c r="M99" s="5">
+        <f>SUM(M93:M98)</f>
         <v>-5099</v>
       </c>
-      <c r="N98" s="5">
-        <f>SUM(N92:N97)</f>
+      <c r="N99" s="5">
+        <f>SUM(N93:N98)</f>
         <v>-4524</v>
       </c>
-      <c r="O98" s="5">
-        <f>SUM(O92:O97)</f>
+      <c r="O99" s="5">
+        <f>SUM(O93:O98)</f>
         <v>-3629</v>
       </c>
-    </row>
-    <row r="99" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+      <c r="AD99" s="2">
+        <f t="shared" si="57"/>
+        <v>-13632</v>
+      </c>
+    </row>
+    <row r="100" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
         <v>63</v>
       </c>
-      <c r="L99" s="5">
-        <f>L98+L90+L85</f>
+      <c r="H100" s="5">
+        <f>H99+H91+H86</f>
+        <v>1897</v>
+      </c>
+      <c r="I100" s="5">
+        <f>I99+I91+I86</f>
+        <v>-1668</v>
+      </c>
+      <c r="J100" s="5">
+        <f>J99+J91+J86</f>
+        <v>-1391</v>
+      </c>
+      <c r="K100" s="5">
+        <f>K99+K91+K86</f>
+        <v>2561</v>
+      </c>
+      <c r="L100" s="5">
+        <f>L99+L91+L86</f>
         <v>1690</v>
       </c>
-      <c r="M99" s="5">
-        <f>M98+M90+M85</f>
+      <c r="M100" s="5">
+        <f>M99+M91+M86</f>
         <v>802</v>
       </c>
-      <c r="N99" s="5">
-        <f>N98+N90+N85</f>
+      <c r="N100" s="5">
+        <f>N99+N91+N86</f>
         <v>-362</v>
       </c>
-      <c r="O99" s="5">
-        <f>O98+O90+O85</f>
+      <c r="O100" s="5">
+        <f>O99+O91+O86</f>
         <v>1761</v>
       </c>
     </row>
-    <row r="101" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+    <row r="102" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
         <v>70</v>
       </c>
-      <c r="L101" s="5">
+      <c r="H102" s="5">
+        <f>(H60/H38)*90</f>
+        <v>59.051640926640928</v>
+      </c>
+      <c r="I102" s="5">
+        <f>(I60/I38)*90</f>
+        <v>71.379773269689736</v>
+      </c>
+      <c r="J102" s="5">
+        <f>(J60/J38)*90</f>
+        <v>74.476479514415786</v>
+      </c>
+      <c r="K102" s="5">
+        <f>(K60/K38)*90</f>
+        <v>56.921170054536439</v>
+      </c>
+      <c r="L102" s="5">
         <f>(L60/L38)*90</f>
         <v>51.056729699666299</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M102" s="5">
         <f>(M60/M38)*90</f>
         <v>47.082253646257499</v>
       </c>
-      <c r="N101" s="5">
+      <c r="N102" s="5">
         <f>(N60/N38)*90</f>
         <v>41.269867549668874</v>
       </c>
-      <c r="O101" s="5">
+      <c r="O102" s="5">
         <f>(O60/O38)*90</f>
         <v>40.714382662986928</v>
       </c>
-    </row>
-    <row r="103" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+      <c r="AD102" s="5">
+        <f>(AD60/AD38)*365</f>
+        <v>59.906683956534586</v>
+      </c>
+    </row>
+    <row r="104" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
         <v>149</v>
       </c>
-      <c r="P103">
+      <c r="P104">
         <v>5.65</v>
       </c>
-      <c r="Q103">
+      <c r="Q104">
         <v>6.03</v>
       </c>
-      <c r="R103">
+      <c r="R104">
         <v>6.58</v>
       </c>
-      <c r="S103">
+      <c r="S104">
         <v>7.19</v>
       </c>
-      <c r="AB103">
+      <c r="AE104">
         <v>25.36</v>
       </c>
-      <c r="AC103">
+      <c r="AF104">
         <v>31.51</v>
       </c>
-      <c r="AD103">
+      <c r="AG104">
         <v>34.94</v>
       </c>
-      <c r="AE103">
+      <c r="AH104">
         <v>37.049999999999997</v>
       </c>
-      <c r="AF103">
+      <c r="AI104">
         <v>36.58</v>
       </c>
-      <c r="AG103">
+      <c r="AJ104">
         <v>44.15</v>
       </c>
-      <c r="AH103">
+      <c r="AK104">
         <v>49.91</v>
       </c>
-      <c r="AI103">
+      <c r="AL104">
         <v>81.459999999999994</v>
       </c>
-      <c r="AJ103">
+      <c r="AM104">
         <v>92.67</v>
       </c>
-      <c r="AK103">
+      <c r="AN104">
         <v>105.45</v>
       </c>
     </row>
-    <row r="104" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="105" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
         <v>150</v>
       </c>
-      <c r="P104" s="15">
+      <c r="P105" s="15">
         <v>24.69</v>
       </c>
-      <c r="Q104" s="15">
+      <c r="Q105" s="15">
         <v>26.8</v>
       </c>
-      <c r="R104" s="15">
+      <c r="R105" s="15">
         <v>29.36</v>
       </c>
-      <c r="S104" s="15">
+      <c r="S105" s="15">
         <v>31.95</v>
       </c>
     </row>
@@ -4992,6 +6694,369 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57B859C-674F-564F-AD85-9A1C3B5421F3}">
+  <dimension ref="A1:AE6"/>
+  <sheetViews>
+    <sheetView zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="11" width="5.5" customWidth="1"/>
+    <col min="12" max="16" width="5.33203125" customWidth="1"/>
+    <col min="17" max="18" width="5.83203125" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="28" width="6" customWidth="1"/>
+    <col min="29" max="30" width="5.6640625" customWidth="1"/>
+    <col min="31" max="31" width="5.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="C2">
+        <v>1974</v>
+      </c>
+      <c r="D2">
+        <v>1975</v>
+      </c>
+      <c r="E2">
+        <v>1976</v>
+      </c>
+      <c r="F2">
+        <v>1977</v>
+      </c>
+      <c r="G2">
+        <v>1978</v>
+      </c>
+      <c r="H2">
+        <v>1979</v>
+      </c>
+      <c r="I2">
+        <v>1980</v>
+      </c>
+      <c r="J2">
+        <v>1981</v>
+      </c>
+      <c r="K2">
+        <v>1982</v>
+      </c>
+      <c r="L2">
+        <v>1983</v>
+      </c>
+      <c r="M2">
+        <v>1984</v>
+      </c>
+      <c r="N2">
+        <v>1985</v>
+      </c>
+      <c r="O2">
+        <v>1986</v>
+      </c>
+      <c r="P2">
+        <v>1987</v>
+      </c>
+      <c r="Q2">
+        <v>1988</v>
+      </c>
+      <c r="R2">
+        <v>1989</v>
+      </c>
+      <c r="S2">
+        <v>1990</v>
+      </c>
+      <c r="T2">
+        <v>1991</v>
+      </c>
+      <c r="U2">
+        <v>1992</v>
+      </c>
+      <c r="V2">
+        <v>1993</v>
+      </c>
+      <c r="W2">
+        <f>+V2+1</f>
+        <v>1994</v>
+      </c>
+      <c r="X2">
+        <f>+W2+1</f>
+        <v>1995</v>
+      </c>
+      <c r="Y2">
+        <f>+X2+1</f>
+        <v>1996</v>
+      </c>
+      <c r="Z2">
+        <f>+Y2+1</f>
+        <v>1997</v>
+      </c>
+      <c r="AA2">
+        <f>+Z2+1</f>
+        <v>1998</v>
+      </c>
+      <c r="AB2">
+        <f>+AA2+1</f>
+        <v>1999</v>
+      </c>
+      <c r="AC2">
+        <f>+AB2+1</f>
+        <v>2000</v>
+      </c>
+      <c r="AD2">
+        <f>+AC2+1</f>
+        <v>2001</v>
+      </c>
+      <c r="AE2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>134.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>226</v>
+      </c>
+      <c r="F3" s="2">
+        <v>285.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>399.4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>661</v>
+      </c>
+      <c r="I3" s="2">
+        <v>854.6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>788.7</v>
+      </c>
+      <c r="K3" s="2">
+        <v>899.8</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1121.9000000000001</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1629</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1365</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1265</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1907</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2874.7689999999998</v>
+      </c>
+      <c r="R3" s="2">
+        <v>3126.8330000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <v>3921.2739999999999</v>
+      </c>
+      <c r="T3" s="2">
+        <v>4779</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5884</v>
+      </c>
+      <c r="V3" s="2">
+        <v>8782</v>
+      </c>
+      <c r="W3" s="2">
+        <v>11521</v>
+      </c>
+      <c r="X3" s="2">
+        <v>16202</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>20847</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>25070</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>26273</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>29389</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>33726</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>26539</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>26764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:M4" si="0">+D3/C3-1</f>
+        <v>1.7100371747212018E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.65204678362573087</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26327433628318575</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.39894921190893151</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.65498247371056584</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.29288956127080179</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>-7.7112099227708786E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.14086471408647139</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.24683262947321638</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.45200106961404751</v>
+      </c>
+      <c r="N4" s="10">
+        <f>+N3/M3-1</f>
+        <v>-0.16206261510128916</v>
+      </c>
+      <c r="O4" s="10">
+        <f>+O3/N3-1</f>
+        <v>-7.3260073260073222E-2</v>
+      </c>
+      <c r="P4" s="10">
+        <f>+P3/O3-1</f>
+        <v>0.50750988142292486</v>
+      </c>
+      <c r="Q4" s="10">
+        <f>+Q3/P3-1</f>
+        <v>0.50748243314105923</v>
+      </c>
+      <c r="R4" s="10">
+        <f>+R3/Q3-1</f>
+        <v>8.7681479798898732E-2</v>
+      </c>
+      <c r="S4" s="10">
+        <f>+S3/R3-1</f>
+        <v>0.25407209147402487</v>
+      </c>
+      <c r="T4" s="10">
+        <f>+T3/S3-1</f>
+        <v>0.21873656367802918</v>
+      </c>
+      <c r="U4" s="10">
+        <f>+U3/T3-1</f>
+        <v>0.23121992048545725</v>
+      </c>
+      <c r="V4" s="10">
+        <f>+V3/U3-1</f>
+        <v>0.49252209381373224</v>
+      </c>
+      <c r="W4" s="10">
+        <f>+W3/V3-1</f>
+        <v>0.31188795263038038</v>
+      </c>
+      <c r="X4" s="10">
+        <f>+X3/W3-1</f>
+        <v>0.40630153632497179</v>
+      </c>
+      <c r="Y4" s="10">
+        <f>+Y3/X3-1</f>
+        <v>0.28669300086409089</v>
+      </c>
+      <c r="Z4" s="10">
+        <f>+Z3/Y3-1</f>
+        <v>0.20257111334964262</v>
+      </c>
+      <c r="AA4" s="10">
+        <f>+AA3/Z3-1</f>
+        <v>4.7985640207419245E-2</v>
+      </c>
+      <c r="AB4" s="10">
+        <f>+AB3/AA3-1</f>
+        <v>0.11860084497392753</v>
+      </c>
+      <c r="AC4" s="10">
+        <f>+AC3/AB3-1</f>
+        <v>0.14757222089897581</v>
+      </c>
+      <c r="AD4" s="10">
+        <f>+AD3/AC3-1</f>
+        <v>-0.21309968570242543</v>
+      </c>
+      <c r="AE4" s="10">
+        <f>+AE3/AD3-1</f>
+        <v>8.4780888503710461E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="C6" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="V6" t="s">
+        <v>174</v>
+      </c>
+      <c r="X6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D643C2DF-42DA-41EA-9376-8EEC08F9AC1D}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -4999,19 +7064,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>151</v>
       </c>
@@ -5019,7 +7084,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>152</v>
       </c>
@@ -5033,7 +7098,7 @@
         <v>26820</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>153</v>
       </c>
@@ -5041,7 +7106,7 @@
         <v>23520</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>154</v>
       </c>
@@ -5049,7 +7114,7 @@
         <v>24480</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>155</v>
       </c>
@@ -5073,7 +7138,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C11">
         <v>25000</v>
       </c>
@@ -5088,7 +7153,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C12" s="11">
         <v>25500</v>
       </c>
@@ -5105,7 +7170,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13" s="11">
         <v>26000</v>
       </c>
@@ -5122,7 +7187,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="11">
         <v>26500</v>
       </c>
@@ -5139,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C15" s="11">
         <v>27000</v>
       </c>
@@ -5156,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C16" s="11">
         <v>27500</v>
       </c>
@@ -5173,7 +7238,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C17">
         <v>28000</v>
       </c>
@@ -5188,7 +7253,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C18">
         <v>28500</v>
       </c>
@@ -5207,7 +7272,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>157</v>
       </c>
@@ -5215,7 +7280,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>158</v>
       </c>
@@ -5223,7 +7288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>159</v>
       </c>
@@ -5231,7 +7296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>160</v>
       </c>
@@ -5240,7 +7305,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C24" s="17">
         <f>C23/C20</f>
         <v>8.2809224318658281E-2</v>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0513CF9-68AE-456A-B3AE-B5A2890F4A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8FDF93-DE6E-4876-B231-941D7B6DFA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51690" yWindow="1020" windowWidth="16290" windowHeight="18240" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-29025" yWindow="1560" windowWidth="28530" windowHeight="18735" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -598,9 +598,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -642,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -670,14 +670,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,14 +699,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>54051</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74462</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>54051</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74462</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>99785</xdr:rowOff>
     </xdr:to>
@@ -725,8 +723,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11858247" y="0"/>
-          <a:ext cx="0" cy="16918214"/>
+          <a:off x="11014605" y="0"/>
+          <a:ext cx="0" cy="17571356"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1338,10 +1336,10 @@
   <dimension ref="A1:AK104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O59" sqref="O59"/>
+      <selection pane="bottomRight" activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2635,10 +2633,7 @@
       <c r="O36" s="5">
         <v>18386</v>
       </c>
-      <c r="P36" s="2">
-        <f>+P24*P28</f>
-        <v>28400</v>
-      </c>
+      <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
@@ -2726,7 +2721,7 @@
         <f>SUM(O33:O37)</f>
         <v>22103</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="9">
         <v>24690</v>
       </c>
       <c r="Q38" s="9">
@@ -2813,7 +2808,7 @@
       <c r="Y39" s="2">
         <v>9439</v>
       </c>
-      <c r="Z39" s="20">
+      <c r="Z39" s="2">
         <v>11618</v>
       </c>
       <c r="AA39" s="2">
@@ -3650,35 +3645,35 @@
         <f t="shared" si="21"/>
         <v>-0.20829517205285886</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L52" s="10">
         <f t="shared" si="21"/>
         <v>-0.13223938223938225</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M52" s="10">
         <f t="shared" si="21"/>
         <v>1.0147673031026252</v>
       </c>
-      <c r="N52" s="19">
+      <c r="N52" s="10">
         <f t="shared" si="21"/>
         <v>2.0551340414769852</v>
       </c>
-      <c r="O52" s="19">
+      <c r="O52" s="10">
         <f t="shared" si="21"/>
         <v>2.6527846636919516</v>
       </c>
-      <c r="P52" s="19">
+      <c r="P52" s="10">
         <f t="shared" ref="P52" si="22">+P38/L38-1</f>
         <v>2.4329810901001112</v>
       </c>
-      <c r="Q52" s="19">
+      <c r="Q52" s="10">
         <f t="shared" ref="Q52" si="23">+Q38/M38-1</f>
         <v>0.98563707707114823</v>
       </c>
-      <c r="R52" s="19">
+      <c r="R52" s="10">
         <f t="shared" ref="R52" si="24">+R38/N38-1</f>
         <v>0.62030905077262699</v>
       </c>
-      <c r="S52" s="19">
+      <c r="S52" s="10">
         <f t="shared" ref="S52" si="25">+S38/O38-1</f>
         <v>0.4455051350495407</v>
       </c>
@@ -3814,11 +3809,11 @@
       </c>
       <c r="P54" s="10">
         <f t="shared" ref="P54" si="32">+P36/O36-1</f>
-        <v>0.54465354073751771</v>
-      </c>
-      <c r="Q54" s="10">
+        <v>-1</v>
+      </c>
+      <c r="Q54" s="10" t="e">
         <f t="shared" ref="Q54" si="33">+Q36/P36-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R54" s="10" t="e">
         <f t="shared" ref="R54" si="34">+R36/Q36-1</f>
@@ -3954,7 +3949,7 @@
       </c>
       <c r="P56" s="7">
         <f t="shared" si="39"/>
-        <v>1.1502632644795463</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="7">
         <f t="shared" si="39"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8FDF93-DE6E-4876-B231-941D7B6DFA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B7EE24-800A-4A3B-AF79-5E74B22DB923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29025" yWindow="1560" windowWidth="28530" windowHeight="18735" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-30465" yWindow="975" windowWidth="30015" windowHeight="18480" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -41,10 +41,13 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E320785E-9BCE-AC4E-B37C-7EB104B6CF82}</author>
+    <author>tc={AC62E1DD-5F48-4CE0-8635-05BA74B5AC99}</author>
     <author>tc={3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}</author>
     <author>tc={23E40331-82EE-794B-BF71-362AABD49EB0}</author>
     <author>tc={7661685F-D234-EE4D-9EE3-823EB4FBA0E2}</author>
     <author>tc={195B7556-9D37-2C4A-AE00-5F1730A1F989}</author>
+    <author>tc={ABEADC1D-5EB0-4C3F-94A3-CDCB9F5F27A0}</author>
+    <author>tc={4E6E582A-C13D-49BC-B7B1-29F955B3A8F8}</author>
   </authors>
   <commentList>
     <comment ref="L36" authorId="0" shapeId="0" xr:uid="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
@@ -55,7 +58,16 @@
     H100 started shipping</t>
       </text>
     </comment>
-    <comment ref="L38" authorId="1" shapeId="0" xr:uid="{3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}">
+    <comment ref="S36" authorId="1" shapeId="0" xr:uid="{AC62E1DD-5F48-4CE0-8635-05BA74B5AC99}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Blackwell will sell several billion
+Blackwall product ramp starts</t>
+      </text>
+    </comment>
+    <comment ref="L38" authorId="2" shapeId="0" xr:uid="{3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +75,7 @@
     6.5B guidance</t>
       </text>
     </comment>
-    <comment ref="M38" authorId="2" shapeId="0" xr:uid="{23E40331-82EE-794B-BF71-362AABD49EB0}">
+    <comment ref="M38" authorId="3" shapeId="0" xr:uid="{23E40331-82EE-794B-BF71-362AABD49EB0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +83,7 @@
     Guidance was 11B</t>
       </text>
     </comment>
-    <comment ref="N38" authorId="3" shapeId="0" xr:uid="{7661685F-D234-EE4D-9EE3-823EB4FBA0E2}">
+    <comment ref="N38" authorId="4" shapeId="0" xr:uid="{7661685F-D234-EE4D-9EE3-823EB4FBA0E2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +91,7 @@
     Guidance was 16B</t>
       </text>
     </comment>
-    <comment ref="P38" authorId="4" shapeId="0" xr:uid="{195B7556-9D37-2C4A-AE00-5F1730A1F989}">
+    <comment ref="P38" authorId="5" shapeId="0" xr:uid="{195B7556-9D37-2C4A-AE00-5F1730A1F989}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,12 +100,28 @@
 2/21/24 guided to 23.52-24.48B</t>
       </text>
     </comment>
+    <comment ref="Q38" authorId="6" shapeId="0" xr:uid="{ABEADC1D-5EB0-4C3F-94A3-CDCB9F5F27A0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Guidance: 28000</t>
+      </text>
+    </comment>
+    <comment ref="R38" authorId="7" shapeId="0" xr:uid="{4E6E582A-C13D-49BC-B7B1-29F955B3A8F8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus 31.7</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="171">
   <si>
     <t>Main</t>
   </si>
@@ -347,9 +375,6 @@
     <t>Coreweave</t>
   </si>
   <si>
-    <t>Tesla</t>
-  </si>
-  <si>
     <t>Baidu</t>
   </si>
   <si>
@@ -591,6 +616,24 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Tesla/X</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Spectrum-X outperforms Ethernet as networking fabric, will be multi-billion product</t>
+  </si>
+  <si>
+    <t>"Sov AI revenue will reach low double digit billions in FY25"</t>
   </si>
 </sst>
 </file>
@@ -602,7 +645,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -618,6 +661,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -639,10 +695,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -676,8 +733,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1106,6 +1165,10 @@
   <threadedComment ref="L36" dT="2024-02-21T20:05:44.73" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
     <text>H100 started shipping</text>
   </threadedComment>
+  <threadedComment ref="S36" dT="2024-08-28T21:08:16.17" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{AC62E1DD-5F48-4CE0-8635-05BA74B5AC99}">
+    <text>Blackwell will sell several billion
+Blackwall product ramp starts</text>
+  </threadedComment>
   <threadedComment ref="L38" dT="2024-02-21T20:05:14.08" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}">
     <text>6.5B guidance</text>
   </threadedComment>
@@ -1119,6 +1182,12 @@
     <text>Consensus 20.570B
 2/21/24 guided to 23.52-24.48B</text>
   </threadedComment>
+  <threadedComment ref="Q38" dT="2024-08-28T19:54:29.44" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{ABEADC1D-5EB0-4C3F-94A3-CDCB9F5F27A0}">
+    <text>Guidance: 28000</text>
+  </threadedComment>
+  <threadedComment ref="R38" dT="2024-08-28T20:02:46.45" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{4E6E582A-C13D-49BC-B7B1-29F955B3A8F8}">
+    <text>Consensus 31.7</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1127,7 +1196,7 @@
   <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1137,27 +1206,28 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2">
-        <v>953.86</v>
+        <v>112</v>
+      </c>
+      <c r="K2" s="16">
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="2">
-        <v>2500</v>
+        <f>2460*10</f>
+        <v>24600</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>18</v>
@@ -1165,165 +1235,177 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>2384650</v>
+        <v>3099600</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
       </c>
+      <c r="K5" s="2">
+        <v>31438</v>
+      </c>
       <c r="L5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
       </c>
+      <c r="K6" s="2">
+        <v>9710</v>
+      </c>
       <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
         <v>125</v>
       </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>2384650</v>
+        <v>3077872</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
         <v>128</v>
-      </c>
-      <c r="C9" t="s">
-        <v>129</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
         <v>136</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
         <v>138</v>
       </c>
-      <c r="C11" t="s">
-        <v>139</v>
+      <c r="D11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" t="s">
         <v>143</v>
       </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
         <v>145</v>
       </c>
-      <c r="C17" t="s">
-        <v>146</v>
-      </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
         <v>147</v>
       </c>
-      <c r="C18" t="s">
-        <v>148</v>
-      </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H22" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1333,13 +1415,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
-  <dimension ref="A1:AK104"/>
+  <dimension ref="A1:DZ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S42" sqref="S42"/>
+      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1350,10 +1432,11 @@
     <col min="13" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="19" width="10.140625" customWidth="1"/>
     <col min="27" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1477,52 +1560,52 @@
         <v>52</v>
       </c>
       <c r="V3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
@@ -1546,19 +1629,23 @@
         <v>25</v>
       </c>
       <c r="O4" s="5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="P4" s="5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="5">
         <v>60</v>
       </c>
       <c r="R4" s="5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S4" s="5">
         <v>50</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>SUM(P4:S4)</f>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
@@ -1596,10 +1683,14 @@
       <c r="S5" s="5">
         <v>25</v>
       </c>
+      <c r="AB5" s="2">
+        <f t="shared" ref="AB5:AB23" si="0">SUM(P5:S5)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1632,6 +1723,10 @@
       <c r="S6" s="5">
         <v>50</v>
       </c>
+      <c r="AB6" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -1668,6 +1763,10 @@
       <c r="S7" s="5">
         <v>50</v>
       </c>
+      <c r="AB7" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -1704,10 +1803,14 @@
       <c r="S8" s="5">
         <v>25</v>
       </c>
+      <c r="AB8" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1740,6 +1843,10 @@
       <c r="S9" s="5">
         <v>100</v>
       </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -1777,6 +1884,10 @@
         <v>0</v>
       </c>
       <c r="T10" s="5"/>
+      <c r="AB10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -1813,10 +1924,14 @@
       <c r="S11" s="5">
         <v>100</v>
       </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1849,6 +1964,10 @@
       <c r="S12" s="5">
         <v>25</v>
       </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
@@ -1885,6 +2004,10 @@
       <c r="S13" s="5">
         <v>25</v>
       </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -1910,21 +2033,25 @@
         <v>20</v>
       </c>
       <c r="P14" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="R14" s="5">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="S14" s="5">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1949,18 +2076,22 @@
         <v>0</v>
       </c>
       <c r="Q15" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R15" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S15" s="5">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1993,10 +2124,14 @@
       <c r="S16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2018,21 +2153,25 @@
         <v>35</v>
       </c>
       <c r="P17" s="5">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R17" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S17" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="AB17" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2051,24 +2190,28 @@
         <v>30</v>
       </c>
       <c r="O18" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P18" s="5">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R18" s="5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="S18" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2101,10 +2244,14 @@
       <c r="S19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2126,7 +2273,7 @@
         <v>20</v>
       </c>
       <c r="P20" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="5">
         <v>50</v>
@@ -2137,10 +2284,14 @@
       <c r="S20" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="2">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2162,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="P21" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="5">
         <v>50</v>
@@ -2173,10 +2324,14 @@
       <c r="S21" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="2">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2209,10 +2364,14 @@
       <c r="S22" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2245,10 +2404,14 @@
       <c r="S23" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB23" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -2269,29 +2432,33 @@
         <v>360</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" ref="O24:S24" si="0">SUM(O4:O23)</f>
-        <v>500</v>
+        <f t="shared" ref="O24:S24" si="1">SUM(O4:O23)</f>
+        <v>460</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="0"/>
-        <v>710</v>
+        <f t="shared" si="1"/>
+        <v>570</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="0"/>
-        <v>705</v>
+        <f t="shared" si="1"/>
+        <v>690</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="0"/>
-        <v>695</v>
+        <f t="shared" si="1"/>
+        <v>735</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="0"/>
-        <v>695</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+      <c r="AB24" s="8">
+        <f>SUM(AB4:AB23)</f>
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -2314,7 +2481,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2333,7 +2500,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>74</v>
       </c>
@@ -2356,14 +2523,18 @@
         <v>362.85</v>
       </c>
       <c r="O27" s="9">
-        <v>450</v>
-      </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+        <f>+O36/O28</f>
+        <v>459.65</v>
+      </c>
+      <c r="P27" s="9">
+        <f>+P36/P28</f>
+        <v>564.07500000000005</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>75</v>
       </c>
@@ -2389,11 +2560,19 @@
       <c r="P28" s="5">
         <v>40</v>
       </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Q28" s="5">
+        <f>+P28</f>
+        <v>40</v>
+      </c>
+      <c r="R28" s="5">
+        <f>+Q28</f>
+        <v>40</v>
+      </c>
+      <c r="S28" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2411,10 +2590,11 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="2"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2439,10 +2619,11 @@
       <c r="AA30" s="2">
         <v>47405</v>
       </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="2"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2468,7 +2649,7 @@
         <v>13517</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2487,7 +2668,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:130" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>46</v>
       </c>
@@ -2515,8 +2696,23 @@
         <f>+N33</f>
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" ref="Q33:R34" si="2">+M33*1.1</f>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="2"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" ref="S33:S35" si="3">+O33*1.1</f>
+        <v>80.300000000000011</v>
+      </c>
+    </row>
+    <row r="34" spans="2:130" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>20</v>
       </c>
@@ -2553,8 +2749,23 @@
       <c r="O34">
         <v>463</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P34" s="5">
+        <v>427</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="2"/>
+        <v>416.90000000000003</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="2"/>
+        <v>457.6</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" si="3"/>
+        <v>509.30000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="2:130" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>21</v>
       </c>
@@ -2591,8 +2802,23 @@
       <c r="O35" s="2">
         <v>281</v>
       </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P35" s="5">
+        <v>329</v>
+      </c>
+      <c r="Q35" s="2">
+        <f>+M35*1.1</f>
+        <v>278.3</v>
+      </c>
+      <c r="R35" s="2">
+        <f>+N35*1.1</f>
+        <v>287.10000000000002</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="3"/>
+        <v>309.10000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:130" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>22</v>
       </c>
@@ -2633,9 +2859,23 @@
       <c r="O36" s="5">
         <v>18386</v>
       </c>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="P36" s="2">
+        <v>22563</v>
+      </c>
+      <c r="Q36" s="2">
+        <f>+Q28*Q24</f>
+        <v>27600</v>
+      </c>
+      <c r="R36" s="2">
+        <f>+R28*R24</f>
+        <v>29400</v>
+      </c>
+      <c r="S36" s="2">
+        <f>+S28*S24</f>
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="37" spans="2:130" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>19</v>
       </c>
@@ -2672,8 +2912,23 @@
       <c r="O37" s="2">
         <v>2900</v>
       </c>
-    </row>
-    <row r="38" spans="2:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P37" s="5">
+        <v>2647</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>+M37*1.1</f>
+        <v>2734.6000000000004</v>
+      </c>
+      <c r="R37" s="2">
+        <f>+N37*1.1</f>
+        <v>3141.6000000000004</v>
+      </c>
+      <c r="S37" s="2">
+        <f>+O37*1.1</f>
+        <v>3190.0000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="2:130" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>1</v>
       </c>
@@ -2722,16 +2977,19 @@
         <v>22103</v>
       </c>
       <c r="P38" s="9">
-        <v>24690</v>
+        <f>SUM(P33:P37)</f>
+        <v>26044</v>
       </c>
       <c r="Q38" s="9">
-        <v>26820</v>
+        <v>30040</v>
       </c>
       <c r="R38" s="9">
-        <v>29360</v>
+        <f>SUM(R33:R37)</f>
+        <v>33366.6</v>
       </c>
       <c r="S38" s="9">
-        <v>31950</v>
+        <f>SUM(S33:S37)</f>
+        <v>40838.699999999997</v>
       </c>
       <c r="Y38" s="8">
         <f>SUM(D38:G38)</f>
@@ -2747,10 +3005,34 @@
       </c>
       <c r="AB38" s="8">
         <f>SUM(P38:S38)</f>
-        <v>112820</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130289.3</v>
+      </c>
+      <c r="AC38" s="8">
+        <f>+AB38*1.4</f>
+        <v>182405.02</v>
+      </c>
+      <c r="AD38" s="8">
+        <f>+AC38*1.3</f>
+        <v>237126.52599999998</v>
+      </c>
+      <c r="AE38" s="8">
+        <f>+AD38*1.3</f>
+        <v>308264.48379999999</v>
+      </c>
+      <c r="AF38" s="8">
+        <f>+AE38*1.2</f>
+        <v>369917.38055999996</v>
+      </c>
+      <c r="AG38" s="8">
+        <f t="shared" ref="AG38" si="4">+AF38*1.2</f>
+        <v>443900.85667199997</v>
+      </c>
+      <c r="AH38" s="8">
+        <f>+AG38*1.1</f>
+        <v>488290.9423392</v>
+      </c>
+    </row>
+    <row r="39" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
@@ -2790,20 +3072,18 @@
         <v>5312</v>
       </c>
       <c r="P39" s="2">
-        <f>+P38-P40</f>
-        <v>5925.5999999999985</v>
+        <v>5638</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" ref="Q39:S39" si="1">+Q38-Q40</f>
-        <v>6168.5999999999985</v>
+        <v>7466</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="1"/>
-        <v>6752.7999999999993</v>
+        <f t="shared" ref="R39:S39" si="5">+R38-R40</f>
+        <v>7674.3179999999993</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="1"/>
-        <v>7029</v>
+        <f t="shared" si="5"/>
+        <v>8984.5139999999992</v>
       </c>
       <c r="Y39" s="2">
         <v>9439</v>
@@ -2814,8 +3094,36 @@
       <c r="AA39" s="2">
         <v>16621</v>
       </c>
-    </row>
-    <row r="40" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB39" s="2">
+        <f>+AB38-AB40</f>
+        <v>29206.032000000007</v>
+      </c>
+      <c r="AC39" s="2">
+        <f>+AC38-AC40</f>
+        <v>40129.104399999982</v>
+      </c>
+      <c r="AD39" s="2">
+        <f t="shared" ref="AD39:AF39" si="6">+AD38-AD40</f>
+        <v>52167.835720000003</v>
+      </c>
+      <c r="AE39" s="2">
+        <f t="shared" si="6"/>
+        <v>67818.186435999989</v>
+      </c>
+      <c r="AF39" s="2">
+        <f t="shared" si="6"/>
+        <v>81381.82372320001</v>
+      </c>
+      <c r="AG39" s="2">
+        <f t="shared" ref="AG39" si="7">+AG38-AG40</f>
+        <v>97658.188467839966</v>
+      </c>
+      <c r="AH39" s="2">
+        <f t="shared" ref="AH39" si="8">+AH38-AH40</f>
+        <v>107424.00731462397</v>
+      </c>
+    </row>
+    <row r="40" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
@@ -2866,20 +3174,20 @@
         <v>16791</v>
       </c>
       <c r="P40" s="2">
-        <f>+P38*0.76</f>
-        <v>18764.400000000001</v>
+        <f>+P38-P39</f>
+        <v>20406</v>
       </c>
       <c r="Q40" s="2">
         <f>+Q38*0.77</f>
-        <v>20651.400000000001</v>
+        <v>23130.799999999999</v>
       </c>
       <c r="R40" s="2">
         <f>+R38*0.77</f>
-        <v>22607.200000000001</v>
+        <v>25692.281999999999</v>
       </c>
       <c r="S40" s="2">
         <f>+S38*0.78</f>
-        <v>24921</v>
+        <v>31854.185999999998</v>
       </c>
       <c r="Y40" s="2">
         <f>+Y38-Y39</f>
@@ -2893,8 +3201,36 @@
         <f>+AA38-AA39</f>
         <v>44301</v>
       </c>
-    </row>
-    <row r="41" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB40" s="2">
+        <f>SUM(P40:S40)</f>
+        <v>101083.268</v>
+      </c>
+      <c r="AC40" s="2">
+        <f>+AC38*0.78</f>
+        <v>142275.91560000001</v>
+      </c>
+      <c r="AD40" s="2">
+        <f>+AD38*0.78</f>
+        <v>184958.69027999998</v>
+      </c>
+      <c r="AE40" s="2">
+        <f>+AE38*0.78</f>
+        <v>240446.297364</v>
+      </c>
+      <c r="AF40" s="2">
+        <f>+AF38*0.78</f>
+        <v>288535.55683679995</v>
+      </c>
+      <c r="AG40" s="2">
+        <f t="shared" ref="AG40:AH40" si="9">+AG38*0.78</f>
+        <v>346242.66820416</v>
+      </c>
+      <c r="AH40" s="2">
+        <f t="shared" si="9"/>
+        <v>380866.93502457603</v>
+      </c>
+    </row>
+    <row r="41" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -2934,20 +3270,18 @@
         <v>2465</v>
       </c>
       <c r="P41" s="2">
-        <f>+O41+100</f>
-        <v>2565</v>
+        <v>2720</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" ref="Q41:S41" si="2">+P41+100</f>
-        <v>2665</v>
+        <v>3090</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="2"/>
-        <v>2765</v>
+        <f t="shared" ref="R41:S41" si="10">+Q41+100</f>
+        <v>3190</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="2"/>
-        <v>2865</v>
+        <f t="shared" si="10"/>
+        <v>3290</v>
       </c>
       <c r="Y41" s="2">
         <v>5268</v>
@@ -2958,8 +3292,36 @@
       <c r="AA41" s="2">
         <v>8675</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB41" s="2">
+        <f>SUM(P41:S41)</f>
+        <v>12290</v>
+      </c>
+      <c r="AC41" s="2">
+        <f>+AB41*1.2</f>
+        <v>14748</v>
+      </c>
+      <c r="AD41" s="2">
+        <f t="shared" ref="AD41:AF41" si="11">+AC41*1.2</f>
+        <v>17697.599999999999</v>
+      </c>
+      <c r="AE41" s="2">
+        <f t="shared" si="11"/>
+        <v>21237.119999999999</v>
+      </c>
+      <c r="AF41" s="2">
+        <f t="shared" si="11"/>
+        <v>25484.543999999998</v>
+      </c>
+      <c r="AG41" s="2">
+        <f t="shared" ref="AG41:AH41" si="12">+AF41*1.2</f>
+        <v>30581.452799999995</v>
+      </c>
+      <c r="AH41" s="2">
+        <f t="shared" si="12"/>
+        <v>36697.743359999993</v>
+      </c>
+    </row>
+    <row r="42" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
@@ -2999,20 +3361,18 @@
         <v>711</v>
       </c>
       <c r="P42" s="2">
-        <f>+O42+25</f>
-        <v>736</v>
+        <v>777</v>
       </c>
       <c r="Q42" s="2">
-        <f>+P42+25</f>
-        <v>761</v>
+        <v>842</v>
       </c>
       <c r="R42" s="2">
         <f>+Q42+25</f>
-        <v>786</v>
+        <v>867</v>
       </c>
       <c r="S42" s="2">
         <f>+R42+25</f>
-        <v>811</v>
+        <v>892</v>
       </c>
       <c r="Y42" s="2">
         <v>2166</v>
@@ -3023,26 +3383,54 @@
       <c r="AA42" s="2">
         <v>2654</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB42" s="2">
+        <f>SUM(P42:S42)</f>
+        <v>3378</v>
+      </c>
+      <c r="AC42" s="2">
+        <f t="shared" ref="AC42:AF42" si="13">+AB42*1.2</f>
+        <v>4053.6</v>
+      </c>
+      <c r="AD42" s="2">
+        <f t="shared" si="13"/>
+        <v>4864.32</v>
+      </c>
+      <c r="AE42" s="2">
+        <f t="shared" si="13"/>
+        <v>5837.1839999999993</v>
+      </c>
+      <c r="AF42" s="2">
+        <f t="shared" si="13"/>
+        <v>7004.6207999999988</v>
+      </c>
+      <c r="AG42" s="2">
+        <f t="shared" ref="AG42:AH42" si="14">+AF42*1.2</f>
+        <v>8405.5449599999974</v>
+      </c>
+      <c r="AH42" s="2">
+        <f t="shared" si="14"/>
+        <v>10086.653951999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43" si="3">+C41+C42</f>
+        <f t="shared" ref="C43" si="15">+C41+C42</f>
         <v>1650</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" ref="D43:E43" si="4">+D41+D42</f>
+        <f t="shared" ref="D43:E43" si="16">+D41+D42</f>
         <v>1673</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1771</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5">
-        <f t="shared" ref="G43" si="5">+G41+G42</f>
+        <f t="shared" ref="G43" si="17">+G41+G42</f>
         <v>2029</v>
       </c>
       <c r="H43" s="5">
@@ -3050,7 +3438,7 @@
         <v>2210</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" ref="I43" si="6">+I41+I42</f>
+        <f t="shared" ref="I43" si="18">+I41+I42</f>
         <v>2416</v>
       </c>
       <c r="J43" s="5">
@@ -3067,28 +3455,28 @@
         <v>2662</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" ref="N43:P43" si="7">+N41+N42</f>
+        <f t="shared" ref="N43:P43" si="19">+N41+N42</f>
         <v>2983</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3176</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="7"/>
-        <v>3301</v>
+        <f t="shared" si="19"/>
+        <v>3497</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" ref="Q43:S43" si="8">+Q41+Q42</f>
-        <v>3426</v>
+        <f t="shared" ref="Q43:S43" si="20">+Q41+Q42</f>
+        <v>3932</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="8"/>
-        <v>3551</v>
+        <f t="shared" si="20"/>
+        <v>4057</v>
       </c>
       <c r="S43" s="5">
-        <f t="shared" si="8"/>
-        <v>3676</v>
+        <f t="shared" si="20"/>
+        <v>4182</v>
       </c>
       <c r="Y43" s="2">
         <f>+Y41+Y42</f>
@@ -3102,26 +3490,54 @@
         <f>+AA41+AA42</f>
         <v>11329</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB43" s="2">
+        <f>+AB41+AB42</f>
+        <v>15668</v>
+      </c>
+      <c r="AC43" s="2">
+        <f t="shared" ref="AC43:AF43" si="21">+AC41+AC42</f>
+        <v>18801.599999999999</v>
+      </c>
+      <c r="AD43" s="2">
+        <f t="shared" si="21"/>
+        <v>22561.919999999998</v>
+      </c>
+      <c r="AE43" s="2">
+        <f t="shared" si="21"/>
+        <v>27074.303999999996</v>
+      </c>
+      <c r="AF43" s="2">
+        <f t="shared" si="21"/>
+        <v>32489.164799999999</v>
+      </c>
+      <c r="AG43" s="2">
+        <f t="shared" ref="AG43" si="22">+AG41+AG42</f>
+        <v>38986.997759999991</v>
+      </c>
+      <c r="AH43" s="2">
+        <f t="shared" ref="AH43" si="23">+AH41+AH42</f>
+        <v>46784.397311999986</v>
+      </c>
+    </row>
+    <row r="44" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44" si="9">+C40-C43</f>
+        <f t="shared" ref="C44" si="24">+C40-C43</f>
         <v>1507</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" ref="D44:E44" si="10">+D40-D43</f>
+        <f t="shared" ref="D44:E44" si="25">+D40-D43</f>
         <v>1956</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>2444</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5">
-        <f t="shared" ref="G44" si="11">+G40-G43</f>
+        <f t="shared" ref="G44" si="26">+G40-G43</f>
         <v>2970</v>
       </c>
       <c r="H44" s="5">
@@ -3129,7 +3545,7 @@
         <v>3221</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" ref="I44" si="12">+I40-I43</f>
+        <f t="shared" ref="I44" si="27">+I40-I43</f>
         <v>499</v>
       </c>
       <c r="J44" s="5">
@@ -3146,28 +3562,28 @@
         <v>6800</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" ref="N44:P44" si="13">+N40-N43</f>
+        <f t="shared" ref="N44:P44" si="28">+N40-N43</f>
         <v>10417</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>13615</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="13"/>
-        <v>15463.400000000001</v>
+        <f t="shared" si="28"/>
+        <v>16909</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" ref="Q44:S44" si="14">+Q40-Q43</f>
-        <v>17225.400000000001</v>
+        <f t="shared" ref="Q44:S44" si="29">+Q40-Q43</f>
+        <v>19198.8</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="14"/>
-        <v>19056.2</v>
+        <f t="shared" si="29"/>
+        <v>21635.281999999999</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="14"/>
-        <v>21245</v>
+        <f t="shared" si="29"/>
+        <v>27672.185999999998</v>
       </c>
       <c r="Y44" s="2">
         <f>+Y40-Y43</f>
@@ -3181,8 +3597,36 @@
         <f>+AA40-AA43</f>
         <v>32972</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB44" s="2">
+        <f>+AB40-AB43</f>
+        <v>85415.267999999996</v>
+      </c>
+      <c r="AC44" s="2">
+        <f t="shared" ref="AC44:AF44" si="30">+AC40-AC43</f>
+        <v>123474.3156</v>
+      </c>
+      <c r="AD44" s="2">
+        <f t="shared" si="30"/>
+        <v>162396.77028</v>
+      </c>
+      <c r="AE44" s="2">
+        <f t="shared" si="30"/>
+        <v>213371.99336399999</v>
+      </c>
+      <c r="AF44" s="2">
+        <f t="shared" si="30"/>
+        <v>256046.39203679995</v>
+      </c>
+      <c r="AG44" s="2">
+        <f t="shared" ref="AG44" si="31">+AG40-AG43</f>
+        <v>307255.67044416</v>
+      </c>
+      <c r="AH44" s="2">
+        <f t="shared" ref="AH44" si="32">+AH40-AH43</f>
+        <v>334082.53771257604</v>
+      </c>
+    </row>
+    <row r="45" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
@@ -3226,20 +3670,19 @@
         <v>491</v>
       </c>
       <c r="P45" s="2">
-        <f>+O45</f>
-        <v>491</v>
+        <f>359-64+75</f>
+        <v>370</v>
       </c>
       <c r="Q45" s="2">
-        <f>+P45</f>
-        <v>491</v>
+        <v>572</v>
       </c>
       <c r="R45" s="2">
         <f>+Q45</f>
-        <v>491</v>
+        <v>572</v>
       </c>
       <c r="S45" s="2">
         <f>+R45</f>
-        <v>491</v>
+        <v>572</v>
       </c>
       <c r="Y45" s="2">
         <f>29-236+107</f>
@@ -3253,8 +3696,36 @@
         <f>866-257+237</f>
         <v>846</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB45" s="2">
+        <f>SUM(P45:S45)</f>
+        <v>2086</v>
+      </c>
+      <c r="AC45" s="2">
+        <f>+AB45*1.1</f>
+        <v>2294.6000000000004</v>
+      </c>
+      <c r="AD45" s="2">
+        <f>+AC45*1.1</f>
+        <v>2524.0600000000004</v>
+      </c>
+      <c r="AE45" s="2">
+        <f>+AD45*1.1</f>
+        <v>2776.4660000000008</v>
+      </c>
+      <c r="AF45" s="2">
+        <f>+AE45*1.1</f>
+        <v>3054.1126000000013</v>
+      </c>
+      <c r="AG45" s="2">
+        <f t="shared" ref="AG45:AH45" si="33">+AF45*1.1</f>
+        <v>3359.5238600000016</v>
+      </c>
+      <c r="AH45" s="2">
+        <f t="shared" si="33"/>
+        <v>3695.476246000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
@@ -3297,28 +3768,28 @@
         <v>6981</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" ref="N46:S46" si="15">+N44+N45</f>
+        <f t="shared" ref="N46:S46" si="34">+N44+N45</f>
         <v>10522</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>14106</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="15"/>
-        <v>15954.400000000001</v>
+        <f t="shared" si="34"/>
+        <v>17279</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="15"/>
-        <v>17716.400000000001</v>
+        <f t="shared" si="34"/>
+        <v>19770.8</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="15"/>
-        <v>19547.2</v>
+        <f t="shared" si="34"/>
+        <v>22207.281999999999</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="15"/>
-        <v>21736</v>
+        <f t="shared" si="34"/>
+        <v>28244.185999999998</v>
       </c>
       <c r="Y46" s="2">
         <f>+Y44+Y45</f>
@@ -3332,8 +3803,36 @@
         <f>+AA44+AA45</f>
         <v>33818</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB46" s="2">
+        <f>+AB44+AB45</f>
+        <v>87501.267999999996</v>
+      </c>
+      <c r="AC46" s="2">
+        <f t="shared" ref="AC46:AF46" si="35">+AC44+AC45</f>
+        <v>125768.91560000001</v>
+      </c>
+      <c r="AD46" s="2">
+        <f t="shared" si="35"/>
+        <v>164920.83027999999</v>
+      </c>
+      <c r="AE46" s="2">
+        <f t="shared" si="35"/>
+        <v>216148.45936400001</v>
+      </c>
+      <c r="AF46" s="2">
+        <f t="shared" si="35"/>
+        <v>259100.50463679995</v>
+      </c>
+      <c r="AG46" s="2">
+        <f t="shared" ref="AG46" si="36">+AG44+AG45</f>
+        <v>310615.19430416002</v>
+      </c>
+      <c r="AH46" s="2">
+        <f t="shared" ref="AH46" si="37">+AH44+AH45</f>
+        <v>337778.01395857602</v>
+      </c>
+    </row>
+    <row r="47" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
@@ -3373,20 +3872,18 @@
         <v>1821</v>
       </c>
       <c r="P47" s="2">
-        <f>+P46*0.15</f>
-        <v>2393.1600000000003</v>
+        <v>2398</v>
       </c>
       <c r="Q47" s="2">
-        <f>+Q46*0.15</f>
-        <v>2657.46</v>
+        <v>2615</v>
       </c>
       <c r="R47" s="2">
         <f>+R46*0.15</f>
-        <v>2932.08</v>
+        <v>3331.0922999999998</v>
       </c>
       <c r="S47" s="2">
         <f>+S46*0.15</f>
-        <v>3260.4</v>
+        <v>4236.6278999999995</v>
       </c>
       <c r="Y47" s="2">
         <v>189</v>
@@ -3397,8 +3894,36 @@
       <c r="AA47" s="2">
         <v>4058</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB47" s="2">
+        <f>+AB46*0.2</f>
+        <v>17500.2536</v>
+      </c>
+      <c r="AC47" s="2">
+        <f t="shared" ref="AC47:AF47" si="38">+AC46*0.2</f>
+        <v>25153.783120000004</v>
+      </c>
+      <c r="AD47" s="2">
+        <f t="shared" si="38"/>
+        <v>32984.166056000002</v>
+      </c>
+      <c r="AE47" s="2">
+        <f t="shared" si="38"/>
+        <v>43229.691872800002</v>
+      </c>
+      <c r="AF47" s="2">
+        <f t="shared" si="38"/>
+        <v>51820.100927359992</v>
+      </c>
+      <c r="AG47" s="2">
+        <f t="shared" ref="AG47" si="39">+AG46*0.2</f>
+        <v>62123.038860832006</v>
+      </c>
+      <c r="AH47" s="2">
+        <f t="shared" ref="AH47" si="40">+AH46*0.2</f>
+        <v>67555.60279171521</v>
+      </c>
+    </row>
+    <row r="48" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
@@ -3441,7 +3966,7 @@
         <v>6188</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" ref="N48" si="16">N46-N47</f>
+        <f t="shared" ref="N48" si="41">N46-N47</f>
         <v>9243</v>
       </c>
       <c r="O48" s="2">
@@ -3450,19 +3975,19 @@
       </c>
       <c r="P48" s="2">
         <f>+P46-P47</f>
-        <v>13561.240000000002</v>
+        <v>14881</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" ref="Q48:S48" si="17">+Q46-Q47</f>
-        <v>15058.940000000002</v>
+        <f t="shared" ref="Q48:S48" si="42">+Q46-Q47</f>
+        <v>17155.8</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="17"/>
-        <v>16615.120000000003</v>
+        <f t="shared" si="42"/>
+        <v>18876.189699999999</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="17"/>
-        <v>18475.599999999999</v>
+        <f t="shared" si="42"/>
+        <v>24007.558099999998</v>
       </c>
       <c r="Y48" s="2">
         <f>+Y46-Y47</f>
@@ -3476,8 +4001,420 @@
         <f>+AA46-AA47</f>
         <v>29760</v>
       </c>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB48" s="2">
+        <f>+AB46-AB47</f>
+        <v>70001.0144</v>
+      </c>
+      <c r="AC48" s="2">
+        <f t="shared" ref="AC48:AF48" si="43">+AC46-AC47</f>
+        <v>100615.13248</v>
+      </c>
+      <c r="AD48" s="2">
+        <f t="shared" si="43"/>
+        <v>131936.66422400001</v>
+      </c>
+      <c r="AE48" s="2">
+        <f t="shared" si="43"/>
+        <v>172918.76749120001</v>
+      </c>
+      <c r="AF48" s="2">
+        <f t="shared" si="43"/>
+        <v>207280.40370943997</v>
+      </c>
+      <c r="AG48" s="2">
+        <f t="shared" ref="AG48" si="44">+AG46-AG47</f>
+        <v>248492.15544332803</v>
+      </c>
+      <c r="AH48" s="2">
+        <f t="shared" ref="AH48" si="45">+AH46-AH47</f>
+        <v>270222.41116686084</v>
+      </c>
+      <c r="AI48" s="2">
+        <f>AH48*(1+$AI$54)</f>
+        <v>272924.63527852943</v>
+      </c>
+      <c r="AJ48" s="2">
+        <f t="shared" ref="AJ48:CU48" si="46">AI48*(1+$AI$54)</f>
+        <v>275653.88163131475</v>
+      </c>
+      <c r="AK48" s="2">
+        <f t="shared" si="46"/>
+        <v>278410.4204476279</v>
+      </c>
+      <c r="AL48" s="2">
+        <f t="shared" si="46"/>
+        <v>281194.52465210418</v>
+      </c>
+      <c r="AM48" s="2">
+        <f t="shared" si="46"/>
+        <v>284006.46989862522</v>
+      </c>
+      <c r="AN48" s="2">
+        <f t="shared" si="46"/>
+        <v>286846.53459761146</v>
+      </c>
+      <c r="AO48" s="2">
+        <f t="shared" si="46"/>
+        <v>289714.99994358758</v>
+      </c>
+      <c r="AP48" s="2">
+        <f t="shared" si="46"/>
+        <v>292612.14994302345</v>
+      </c>
+      <c r="AQ48" s="2">
+        <f t="shared" si="46"/>
+        <v>295538.27144245367</v>
+      </c>
+      <c r="AR48" s="2">
+        <f t="shared" si="46"/>
+        <v>298493.65415687818</v>
+      </c>
+      <c r="AS48" s="2">
+        <f t="shared" si="46"/>
+        <v>301478.59069844696</v>
+      </c>
+      <c r="AT48" s="2">
+        <f t="shared" si="46"/>
+        <v>304493.37660543143</v>
+      </c>
+      <c r="AU48" s="2">
+        <f t="shared" si="46"/>
+        <v>307538.31037148577</v>
+      </c>
+      <c r="AV48" s="2">
+        <f t="shared" si="46"/>
+        <v>310613.69347520062</v>
+      </c>
+      <c r="AW48" s="2">
+        <f t="shared" si="46"/>
+        <v>313719.83040995261</v>
+      </c>
+      <c r="AX48" s="2">
+        <f t="shared" si="46"/>
+        <v>316857.02871405217</v>
+      </c>
+      <c r="AY48" s="2">
+        <f t="shared" si="46"/>
+        <v>320025.59900119272</v>
+      </c>
+      <c r="AZ48" s="2">
+        <f t="shared" si="46"/>
+        <v>323225.85499120463</v>
+      </c>
+      <c r="BA48" s="2">
+        <f t="shared" si="46"/>
+        <v>326458.11354111671</v>
+      </c>
+      <c r="BB48" s="2">
+        <f t="shared" si="46"/>
+        <v>329722.69467652787</v>
+      </c>
+      <c r="BC48" s="2">
+        <f t="shared" si="46"/>
+        <v>333019.92162329314</v>
+      </c>
+      <c r="BD48" s="2">
+        <f t="shared" si="46"/>
+        <v>336350.12083952606</v>
+      </c>
+      <c r="BE48" s="2">
+        <f t="shared" si="46"/>
+        <v>339713.62204792135</v>
+      </c>
+      <c r="BF48" s="2">
+        <f t="shared" si="46"/>
+        <v>343110.75826840056</v>
+      </c>
+      <c r="BG48" s="2">
+        <f t="shared" si="46"/>
+        <v>346541.86585108459</v>
+      </c>
+      <c r="BH48" s="2">
+        <f t="shared" si="46"/>
+        <v>350007.28450959543</v>
+      </c>
+      <c r="BI48" s="2">
+        <f t="shared" si="46"/>
+        <v>353507.35735469137</v>
+      </c>
+      <c r="BJ48" s="2">
+        <f t="shared" si="46"/>
+        <v>357042.43092823826</v>
+      </c>
+      <c r="BK48" s="2">
+        <f t="shared" si="46"/>
+        <v>360612.85523752065</v>
+      </c>
+      <c r="BL48" s="2">
+        <f t="shared" si="46"/>
+        <v>364218.98378989584</v>
+      </c>
+      <c r="BM48" s="2">
+        <f t="shared" si="46"/>
+        <v>367861.17362779478</v>
+      </c>
+      <c r="BN48" s="2">
+        <f t="shared" si="46"/>
+        <v>371539.78536407271</v>
+      </c>
+      <c r="BO48" s="2">
+        <f t="shared" si="46"/>
+        <v>375255.18321771343</v>
+      </c>
+      <c r="BP48" s="2">
+        <f t="shared" si="46"/>
+        <v>379007.73504989059</v>
+      </c>
+      <c r="BQ48" s="2">
+        <f t="shared" si="46"/>
+        <v>382797.81240038952</v>
+      </c>
+      <c r="BR48" s="2">
+        <f t="shared" si="46"/>
+        <v>386625.79052439344</v>
+      </c>
+      <c r="BS48" s="2">
+        <f t="shared" si="46"/>
+        <v>390492.04842963739</v>
+      </c>
+      <c r="BT48" s="2">
+        <f t="shared" si="46"/>
+        <v>394396.96891393379</v>
+      </c>
+      <c r="BU48" s="2">
+        <f t="shared" si="46"/>
+        <v>398340.93860307313</v>
+      </c>
+      <c r="BV48" s="2">
+        <f t="shared" si="46"/>
+        <v>402324.34798910387</v>
+      </c>
+      <c r="BW48" s="2">
+        <f t="shared" si="46"/>
+        <v>406347.59146899491</v>
+      </c>
+      <c r="BX48" s="2">
+        <f t="shared" si="46"/>
+        <v>410411.06738368486</v>
+      </c>
+      <c r="BY48" s="2">
+        <f t="shared" si="46"/>
+        <v>414515.1780575217</v>
+      </c>
+      <c r="BZ48" s="2">
+        <f t="shared" si="46"/>
+        <v>418660.32983809692</v>
+      </c>
+      <c r="CA48" s="2">
+        <f t="shared" si="46"/>
+        <v>422846.93313647789</v>
+      </c>
+      <c r="CB48" s="2">
+        <f t="shared" si="46"/>
+        <v>427075.40246784268</v>
+      </c>
+      <c r="CC48" s="2">
+        <f t="shared" si="46"/>
+        <v>431346.15649252111</v>
+      </c>
+      <c r="CD48" s="2">
+        <f t="shared" si="46"/>
+        <v>435659.61805744632</v>
+      </c>
+      <c r="CE48" s="2">
+        <f t="shared" si="46"/>
+        <v>440016.21423802077</v>
+      </c>
+      <c r="CF48" s="2">
+        <f t="shared" si="46"/>
+        <v>444416.37638040096</v>
+      </c>
+      <c r="CG48" s="2">
+        <f t="shared" si="46"/>
+        <v>448860.54014420498</v>
+      </c>
+      <c r="CH48" s="2">
+        <f t="shared" si="46"/>
+        <v>453349.14554564701</v>
+      </c>
+      <c r="CI48" s="2">
+        <f t="shared" si="46"/>
+        <v>457882.63700110349</v>
+      </c>
+      <c r="CJ48" s="2">
+        <f t="shared" si="46"/>
+        <v>462461.46337111451</v>
+      </c>
+      <c r="CK48" s="2">
+        <f t="shared" si="46"/>
+        <v>467086.07800482569</v>
+      </c>
+      <c r="CL48" s="2">
+        <f t="shared" si="46"/>
+        <v>471756.93878487393</v>
+      </c>
+      <c r="CM48" s="2">
+        <f t="shared" si="46"/>
+        <v>476474.50817272265</v>
+      </c>
+      <c r="CN48" s="2">
+        <f t="shared" si="46"/>
+        <v>481239.25325444987</v>
+      </c>
+      <c r="CO48" s="2">
+        <f t="shared" si="46"/>
+        <v>486051.64578699437</v>
+      </c>
+      <c r="CP48" s="2">
+        <f t="shared" si="46"/>
+        <v>490912.16224486433</v>
+      </c>
+      <c r="CQ48" s="2">
+        <f t="shared" si="46"/>
+        <v>495821.283867313</v>
+      </c>
+      <c r="CR48" s="2">
+        <f t="shared" si="46"/>
+        <v>500779.49670598615</v>
+      </c>
+      <c r="CS48" s="2">
+        <f t="shared" si="46"/>
+        <v>505787.29167304601</v>
+      </c>
+      <c r="CT48" s="2">
+        <f t="shared" si="46"/>
+        <v>510845.16458977648</v>
+      </c>
+      <c r="CU48" s="2">
+        <f t="shared" si="46"/>
+        <v>515953.61623567424</v>
+      </c>
+      <c r="CV48" s="2">
+        <f t="shared" ref="CV48:DZ48" si="47">CU48*(1+$AI$54)</f>
+        <v>521113.15239803097</v>
+      </c>
+      <c r="CW48" s="2">
+        <f t="shared" si="47"/>
+        <v>526324.28392201127</v>
+      </c>
+      <c r="CX48" s="2">
+        <f t="shared" si="47"/>
+        <v>531587.52676123136</v>
+      </c>
+      <c r="CY48" s="2">
+        <f t="shared" si="47"/>
+        <v>536903.40202884364</v>
+      </c>
+      <c r="CZ48" s="2">
+        <f t="shared" si="47"/>
+        <v>542272.43604913214</v>
+      </c>
+      <c r="DA48" s="2">
+        <f t="shared" si="47"/>
+        <v>547695.16040962352</v>
+      </c>
+      <c r="DB48" s="2">
+        <f t="shared" si="47"/>
+        <v>553172.11201371974</v>
+      </c>
+      <c r="DC48" s="2">
+        <f t="shared" si="47"/>
+        <v>558703.833133857</v>
+      </c>
+      <c r="DD48" s="2">
+        <f t="shared" si="47"/>
+        <v>564290.87146519555</v>
+      </c>
+      <c r="DE48" s="2">
+        <f t="shared" si="47"/>
+        <v>569933.7801798475</v>
+      </c>
+      <c r="DF48" s="2">
+        <f t="shared" si="47"/>
+        <v>575633.11798164598</v>
+      </c>
+      <c r="DG48" s="2">
+        <f t="shared" si="47"/>
+        <v>581389.44916146249</v>
+      </c>
+      <c r="DH48" s="2">
+        <f t="shared" si="47"/>
+        <v>587203.34365307714</v>
+      </c>
+      <c r="DI48" s="2">
+        <f t="shared" si="47"/>
+        <v>593075.37708960788</v>
+      </c>
+      <c r="DJ48" s="2">
+        <f t="shared" si="47"/>
+        <v>599006.130860504</v>
+      </c>
+      <c r="DK48" s="2">
+        <f t="shared" si="47"/>
+        <v>604996.19216910901</v>
+      </c>
+      <c r="DL48" s="2">
+        <f t="shared" si="47"/>
+        <v>611046.15409080009</v>
+      </c>
+      <c r="DM48" s="2">
+        <f t="shared" si="47"/>
+        <v>617156.61563170806</v>
+      </c>
+      <c r="DN48" s="2">
+        <f t="shared" si="47"/>
+        <v>623328.18178802519</v>
+      </c>
+      <c r="DO48" s="2">
+        <f t="shared" si="47"/>
+        <v>629561.46360590542</v>
+      </c>
+      <c r="DP48" s="2">
+        <f t="shared" si="47"/>
+        <v>635857.07824196445</v>
+      </c>
+      <c r="DQ48" s="2">
+        <f t="shared" si="47"/>
+        <v>642215.6490243841</v>
+      </c>
+      <c r="DR48" s="2">
+        <f t="shared" si="47"/>
+        <v>648637.80551462795</v>
+      </c>
+      <c r="DS48" s="2">
+        <f t="shared" si="47"/>
+        <v>655124.18356977426</v>
+      </c>
+      <c r="DT48" s="2">
+        <f t="shared" si="47"/>
+        <v>661675.42540547205</v>
+      </c>
+      <c r="DU48" s="2">
+        <f t="shared" si="47"/>
+        <v>668292.1796595268</v>
+      </c>
+      <c r="DV48" s="2">
+        <f t="shared" si="47"/>
+        <v>674975.10145612212</v>
+      </c>
+      <c r="DW48" s="2">
+        <f t="shared" si="47"/>
+        <v>681724.8524706834</v>
+      </c>
+      <c r="DX48" s="2">
+        <f t="shared" si="47"/>
+        <v>688542.10099539021</v>
+      </c>
+      <c r="DY48" s="2">
+        <f t="shared" si="47"/>
+        <v>695427.52200534416</v>
+      </c>
+      <c r="DZ48" s="2">
+        <f t="shared" si="47"/>
+        <v>702381.79722539766</v>
+      </c>
+    </row>
+    <row r="49" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>12</v>
       </c>
@@ -3520,43 +4457,72 @@
         <v>2.4761904761904763</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" ref="N49:P49" si="18">+N48/N50</f>
+        <f t="shared" ref="N49:P49" si="48">+N48/N50</f>
         <v>3.7060946271050521</v>
       </c>
       <c r="O49" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="48"/>
         <v>4.9337349397590362</v>
       </c>
       <c r="P49" s="6">
-        <f t="shared" si="18"/>
-        <v>5.4462811244979923</v>
+        <f t="shared" si="48"/>
+        <v>5.978706307754118</v>
       </c>
       <c r="Q49" s="6">
-        <f t="shared" ref="Q49:S49" si="19">+Q48/Q50</f>
-        <v>6.0477670682730933</v>
+        <f t="shared" ref="Q49:S49" si="49">+Q48/Q50</f>
+        <v>0.69042981326464903</v>
       </c>
       <c r="R49" s="6">
-        <f t="shared" si="19"/>
-        <v>6.6727389558232941</v>
+        <f t="shared" si="49"/>
+        <v>0.7596663594655505</v>
       </c>
       <c r="S49" s="6">
-        <f t="shared" si="19"/>
-        <v>7.4199196787148587</v>
+        <f t="shared" si="49"/>
+        <v>0.96617667820347708</v>
       </c>
       <c r="Y49" s="16">
-        <f>+Y48/Y50</f>
+        <f t="shared" ref="Y49:AF49" si="50">+Y48/Y50</f>
         <v>3.8469428007889546</v>
       </c>
       <c r="Z49" s="16">
-        <f>+Z48/Z50</f>
+        <f t="shared" si="50"/>
         <v>2.2074192261667331</v>
       </c>
       <c r="AA49" s="16">
-        <f>+AA48/AA50</f>
+        <f t="shared" si="50"/>
         <v>11.932638331996792</v>
       </c>
-    </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB49" s="16">
+        <f t="shared" si="50"/>
+        <v>2.8171689632968446</v>
+      </c>
+      <c r="AC49" s="16">
+        <f t="shared" si="50"/>
+        <v>4.0492245846748229</v>
+      </c>
+      <c r="AD49" s="16">
+        <f t="shared" si="50"/>
+        <v>5.3097498480360592</v>
+      </c>
+      <c r="AE49" s="16">
+        <f t="shared" si="50"/>
+        <v>6.9590617953638123</v>
+      </c>
+      <c r="AF49" s="16">
+        <f t="shared" si="50"/>
+        <v>8.341935113869928</v>
+      </c>
+      <c r="AG49" s="16">
+        <f t="shared" ref="AG49:AH49" si="51">+AG48/AG50</f>
+        <v>10.000489192020606</v>
+      </c>
+      <c r="AH49" s="16">
+        <f t="shared" si="51"/>
+        <v>10.875016547281907</v>
+      </c>
+      <c r="AI49" s="16"/>
+    </row>
+    <row r="50" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>13</v>
       </c>
@@ -3595,20 +4561,18 @@
         <v>2490</v>
       </c>
       <c r="P50" s="2">
-        <f>+O50</f>
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="Q50" s="2">
-        <f t="shared" ref="Q50:S50" si="20">+P50</f>
-        <v>2490</v>
+        <v>24848</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="20"/>
-        <v>2490</v>
+        <f t="shared" ref="R50:S50" si="52">+Q50</f>
+        <v>24848</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="20"/>
-        <v>2490</v>
+        <f t="shared" si="52"/>
+        <v>24848</v>
       </c>
       <c r="Y50" s="2">
         <v>2535</v>
@@ -3619,63 +4583,92 @@
       <c r="AA50" s="2">
         <v>2494</v>
       </c>
-    </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB50" s="2">
+        <f>S50</f>
+        <v>24848</v>
+      </c>
+      <c r="AC50" s="2">
+        <f>+AB50</f>
+        <v>24848</v>
+      </c>
+      <c r="AD50" s="2">
+        <f>+AC50</f>
+        <v>24848</v>
+      </c>
+      <c r="AE50" s="2">
+        <f>+AD50</f>
+        <v>24848</v>
+      </c>
+      <c r="AF50" s="2">
+        <f>+AE50</f>
+        <v>24848</v>
+      </c>
+      <c r="AG50" s="2">
+        <f t="shared" ref="AG50:AH50" si="53">+AF50</f>
+        <v>24848</v>
+      </c>
+      <c r="AH50" s="2">
+        <f t="shared" si="53"/>
+        <v>24848</v>
+      </c>
+      <c r="AI50" s="2"/>
+    </row>
+    <row r="52" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>71</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10">
-        <f t="shared" ref="G52:O52" si="21">+G38/C38-1</f>
+        <f t="shared" ref="G52:O52" si="54">+G38/C38-1</f>
         <v>0.52768338996602049</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="54"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="54"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="J52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="54"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="K52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="54"/>
         <v>-0.20829517205285886</v>
       </c>
       <c r="L52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="54"/>
         <v>-0.13223938223938225</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="54"/>
         <v>1.0147673031026252</v>
       </c>
       <c r="N52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="54"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="O52" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="54"/>
         <v>2.6527846636919516</v>
       </c>
       <c r="P52" s="10">
-        <f t="shared" ref="P52" si="22">+P38/L38-1</f>
-        <v>2.4329810901001112</v>
+        <f>+P38/L38-1</f>
+        <v>2.6212458286985538</v>
       </c>
       <c r="Q52" s="10">
-        <f t="shared" ref="Q52" si="23">+Q38/M38-1</f>
-        <v>0.98563707707114823</v>
+        <f t="shared" ref="Q52" si="55">+Q38/M38-1</f>
+        <v>1.2240319834160065</v>
       </c>
       <c r="R52" s="10">
-        <f t="shared" ref="R52" si="24">+R38/N38-1</f>
-        <v>0.62030905077262699</v>
+        <f t="shared" ref="R52" si="56">+R38/N38-1</f>
+        <v>0.84142384105960266</v>
       </c>
       <c r="S52" s="10">
-        <f t="shared" ref="S52" si="25">+S38/O38-1</f>
-        <v>0.4455051350495407</v>
+        <f t="shared" ref="S52" si="57">+S38/O38-1</f>
+        <v>0.84765416459304155</v>
       </c>
       <c r="Z52" s="10">
         <f>+Z38/Y38-1</f>
@@ -3687,144 +4680,176 @@
       </c>
       <c r="AB52" s="10">
         <f>+AB38/AA38-1</f>
-        <v>0.85187616952824929</v>
-      </c>
-    </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
+        <v>1.1386247989232134</v>
+      </c>
+      <c r="AC52" s="10">
+        <f>+AC38/AB38-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AD52" s="10">
+        <f>+AD38/AC38-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AE52" s="10">
+        <f>+AE38/AD38-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF52" s="10">
+        <f>+AF38/AE38-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AG52" s="10">
+        <f>+AG38/AF38-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AH52" s="10">
+        <f>+AH38/AG38-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+    </row>
+    <row r="53" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" ref="D53:O53" si="26">+D38/C38-1</f>
+        <f t="shared" ref="D53:O53" si="58">+D38/C38-1</f>
         <v>0.13152108734759138</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>0.14944356120826718</v>
       </c>
       <c r="F53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>9.1593668357153879E-2</v>
       </c>
       <c r="G53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>7.6024215120371608E-2</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>8.4390945963626951E-2</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>-0.19111969111969107</v>
       </c>
       <c r="J53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>-0.11530429594272074</v>
       </c>
       <c r="K53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>2.0232675771370667E-2</v>
       </c>
       <c r="L53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>0.1885638737398776</v>
       </c>
       <c r="M53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>0.87805895439377091</v>
       </c>
       <c r="N53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>0.34152661582882948</v>
       </c>
       <c r="O53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>0.21981236203090515</v>
       </c>
       <c r="P53" s="10">
-        <f t="shared" ref="P53" si="27">+P38/O38-1</f>
-        <v>0.11704293534814281</v>
+        <f>+P38/O38-1</f>
+        <v>0.17830158801972584</v>
       </c>
       <c r="Q53" s="10">
-        <f t="shared" ref="Q53" si="28">+Q38/P38-1</f>
-        <v>8.6269744835965945E-2</v>
+        <f t="shared" ref="Q53" si="59">+Q38/P38-1</f>
+        <v>0.1534326524343419</v>
       </c>
       <c r="R53" s="10">
-        <f t="shared" ref="R53" si="29">+R38/Q38-1</f>
-        <v>9.4705443698732239E-2</v>
+        <f t="shared" ref="R53" si="60">+R38/Q38-1</f>
+        <v>0.1107390146471372</v>
       </c>
       <c r="S53" s="10">
-        <f t="shared" ref="S53" si="30">+S38/R38-1</f>
-        <v>8.8215258855585788E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S53" si="61">+S38/R38-1</f>
+        <v>0.22393950837064613</v>
+      </c>
+    </row>
+    <row r="54" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>73</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" ref="E54:O54" si="31">+E36/D36-1</f>
+        <f t="shared" ref="E54:O54" si="62">+E36/D36-1</f>
         <v>0.15609756097560967</v>
       </c>
       <c r="F54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>0.240506329113924</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>0.10884353741496589</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>0.15030674846625769</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="J54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>6.0367454068241955E-3</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>-5.5570049569527824E-2</v>
       </c>
       <c r="L54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>0.18342541436464099</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>1.4096638655462184</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>0.40598663179308336</v>
       </c>
       <c r="O54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="62"/>
         <v>0.26677690505718621</v>
       </c>
       <c r="P54" s="10">
-        <f t="shared" ref="P54" si="32">+P36/O36-1</f>
-        <v>-1</v>
-      </c>
-      <c r="Q54" s="10" t="e">
-        <f t="shared" ref="Q54" si="33">+Q36/P36-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R54" s="10" t="e">
-        <f t="shared" ref="R54" si="34">+R36/Q36-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S54" s="10" t="e">
-        <f t="shared" ref="S54" si="35">+S36/R36-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
+        <f>+P36/O36-1</f>
+        <v>0.22718372674861298</v>
+      </c>
+      <c r="Q54" s="10">
+        <f t="shared" ref="Q54" si="63">+Q36/P36-1</f>
+        <v>0.2232415902140672</v>
+      </c>
+      <c r="R54" s="10">
+        <f t="shared" ref="R54" si="64">+R36/Q36-1</f>
+        <v>6.5217391304347894E-2</v>
+      </c>
+      <c r="S54" s="10">
+        <f t="shared" ref="S54" si="65">+S36/R36-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI54" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>5</v>
       </c>
@@ -3859,114 +4884,168 @@
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7">
-        <f>L40/L38</f>
+        <f t="shared" ref="L55:Q55" si="66">L40/L38</f>
         <v>0.64627363737486099</v>
       </c>
       <c r="M55" s="7">
-        <f>M40/M38</f>
+        <f t="shared" si="66"/>
         <v>0.7005256533649219</v>
       </c>
       <c r="N55" s="7">
-        <f>N40/N38</f>
+        <f t="shared" si="66"/>
         <v>0.73951434878587197</v>
       </c>
       <c r="O55" s="7">
-        <f>O40/O38</f>
+        <f t="shared" si="66"/>
         <v>0.75967063294575399</v>
       </c>
       <c r="P55" s="7">
-        <f t="shared" ref="P55:S55" si="36">P40/P38</f>
-        <v>0.76</v>
+        <f t="shared" si="66"/>
+        <v>0.78352019659038552</v>
       </c>
       <c r="Q55" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="66"/>
         <v>0.77</v>
       </c>
       <c r="R55" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="R55:S55" si="67">R40/R38</f>
         <v>0.77</v>
       </c>
       <c r="S55" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="67"/>
         <v>0.78</v>
       </c>
-    </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Y55" s="7">
+        <f t="shared" ref="Y55:AF55" si="68">Y40/Y38</f>
+        <v>0.64929033216913135</v>
+      </c>
+      <c r="Z55" s="7">
+        <f t="shared" si="68"/>
+        <v>0.56928894490991322</v>
+      </c>
+      <c r="AA55" s="7">
+        <f t="shared" si="68"/>
+        <v>0.72717573290436954</v>
+      </c>
+      <c r="AB55" s="7">
+        <f t="shared" si="68"/>
+        <v>0.77583706413343223</v>
+      </c>
+      <c r="AC55" s="7">
+        <f t="shared" si="68"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="AD55" s="7">
+        <f t="shared" si="68"/>
+        <v>0.78</v>
+      </c>
+      <c r="AE55" s="7">
+        <f t="shared" si="68"/>
+        <v>0.78</v>
+      </c>
+      <c r="AF55" s="7">
+        <f t="shared" si="68"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI55" s="10">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="56" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="7">
-        <f t="shared" ref="C56:H56" si="37">C36/C38</f>
+        <f t="shared" ref="C56:H56" si="69">C36/C38</f>
         <v>0</v>
       </c>
       <c r="D56" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="69"/>
         <v>0.36212683271506801</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="69"/>
         <v>0.36422314430613184</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="69"/>
         <v>0.41390961565535689</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="69"/>
         <v>0.42653408347507521</v>
       </c>
       <c r="H56" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="69"/>
         <v>0.45246138996138996</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" ref="I56:N56" si="38">I36/I38</f>
+        <f t="shared" ref="I56:N56" si="70">I36/I38</f>
         <v>0.56831742243436756</v>
       </c>
       <c r="J56" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>0.64626538526386779</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>0.59824822343414308</v>
       </c>
       <c r="L56" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>0.59566184649610676</v>
       </c>
       <c r="M56" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>0.76427037832235134</v>
       </c>
       <c r="N56" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>0.80099337748344368</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" ref="O56:S56" si="39">O36/O38</f>
+        <f t="shared" ref="O56:S56" si="71">O36/O38</f>
         <v>0.83183278288015206</v>
       </c>
       <c r="P56" s="7">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f>P36/P38</f>
+        <v>0.86634157579480875</v>
       </c>
       <c r="Q56" s="7">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="71"/>
+        <v>0.91877496671105197</v>
       </c>
       <c r="R56" s="7">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="71"/>
+        <v>0.88112064159968351</v>
       </c>
       <c r="S56" s="7">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="71"/>
+        <v>0.89988172982979386</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI56" s="2">
+        <f>NPV(AI55,AC48:DZ48)+Main!K5-Main!K6</f>
+        <v>2860929.8700776007</v>
+      </c>
+    </row>
+    <row r="57" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AH57" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI57" s="16">
+        <f>AI56/Main!K3</f>
+        <v>116.29796219827645</v>
+      </c>
+    </row>
+    <row r="58" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L58" s="2">
         <f>+L59-L72</f>
@@ -3985,23 +5064,23 @@
         <v>16275</v>
       </c>
       <c r="P58" s="2">
-        <f t="shared" ref="P58:S58" si="40">+P59-P72</f>
+        <f t="shared" ref="P58:S58" si="72">+P59-P72</f>
+        <v>21728</v>
+      </c>
+      <c r="Q58" s="2">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="2">
-        <f t="shared" si="40"/>
+      <c r="R58" s="2">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="R58" s="2">
-        <f t="shared" si="40"/>
+      <c r="S58" s="2">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="S58" s="2">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>38</v>
       </c>
@@ -4030,8 +5109,12 @@
         <f>7280+18704</f>
         <v>25984</v>
       </c>
-    </row>
-    <row r="60" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P59" s="2">
+        <f>7587+23851</f>
+        <v>31438</v>
+      </c>
+    </row>
+    <row r="60" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>39</v>
       </c>
@@ -4056,8 +5139,11 @@
       <c r="O60" s="2">
         <v>9999</v>
       </c>
-    </row>
-    <row r="61" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P60" s="2">
+        <v>12365</v>
+      </c>
+    </row>
+    <row r="61" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>40</v>
       </c>
@@ -4082,8 +5168,11 @@
       <c r="O61" s="2">
         <v>5282</v>
       </c>
-    </row>
-    <row r="62" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P61" s="2">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="62" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>41</v>
       </c>
@@ -4108,8 +5197,11 @@
       <c r="O62" s="2">
         <v>3080</v>
       </c>
-    </row>
-    <row r="63" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P62" s="2">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="63" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>42</v>
       </c>
@@ -4134,8 +5226,11 @@
       <c r="O63" s="2">
         <v>3914</v>
       </c>
-    </row>
-    <row r="64" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P63" s="2">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="64" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>43</v>
       </c>
@@ -4160,8 +5255,11 @@
       <c r="O64" s="2">
         <v>1346</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P64" s="2">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>44</v>
       </c>
@@ -4190,8 +5288,12 @@
         <f>4430+1112</f>
         <v>5542</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P65" s="2">
+        <f>4453+986</f>
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>9</v>
       </c>
@@ -4216,8 +5318,11 @@
       <c r="O66" s="2">
         <v>6081</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P66" s="2">
+        <v>7798</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>45</v>
       </c>
@@ -4242,8 +5347,11 @@
       <c r="O67" s="2">
         <v>4500</v>
       </c>
-    </row>
-    <row r="68" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P67" s="2">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>37</v>
       </c>
@@ -4257,7 +5365,7 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="2">
-        <f t="shared" ref="L68" si="41">SUM(L59:L67)</f>
+        <f t="shared" ref="L68" si="73">SUM(L59:L67)</f>
         <v>44460</v>
       </c>
       <c r="M68" s="2">
@@ -4272,8 +5380,12 @@
         <f>SUM(O59:O67)</f>
         <v>65728</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P68" s="2">
+        <f>SUM(P59:P67)</f>
+        <v>77072</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -4284,7 +5396,7 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>36</v>
       </c>
@@ -4309,8 +5421,11 @@
       <c r="O70" s="2">
         <v>2699</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P70" s="2">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>35</v>
       </c>
@@ -4335,8 +5450,11 @@
       <c r="O71" s="2">
         <v>6682</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P71" s="2">
+        <v>11258</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
@@ -4365,8 +5483,12 @@
         <f>1250+8459</f>
         <v>9709</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P72" s="2">
+        <f>1250+8460</f>
+        <v>9710</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>33</v>
       </c>
@@ -4392,8 +5514,11 @@
       <c r="O73" s="2">
         <v>1119</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P73" s="2">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>32</v>
       </c>
@@ -4418,8 +5543,11 @@
       <c r="O74" s="2">
         <v>2541</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P74" s="2">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>31</v>
       </c>
@@ -4444,8 +5572,11 @@
       <c r="O75" s="2">
         <v>42978</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P75" s="2">
+        <v>49142</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>30</v>
       </c>
@@ -4459,7 +5590,7 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="2">
-        <f t="shared" ref="L76" si="42">SUM(L70:L75)</f>
+        <f t="shared" ref="L76" si="74">SUM(L70:L75)</f>
         <v>44460</v>
       </c>
       <c r="M76" s="2">
@@ -4474,13 +5605,17 @@
         <f>SUM(O70:O75)</f>
         <v>65728</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="2">
+        <f>SUM(P70:P75)</f>
+        <v>77072</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="L77" s="5"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>8</v>
       </c>
@@ -4500,8 +5635,12 @@
         <f>O48</f>
         <v>12285</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P78" s="5">
+        <f>P48</f>
+        <v>14881</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>53</v>
       </c>
@@ -4520,8 +5659,11 @@
         <f>3549-N79-M79-L79</f>
         <v>994</v>
       </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P79">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>55</v>
       </c>
@@ -4540,8 +5682,11 @@
         <f>1508-N80-M80-L80</f>
         <v>387</v>
       </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P80">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>56</v>
       </c>
@@ -4560,8 +5705,11 @@
         <f>-238-N81-M81-L81</f>
         <v>-262</v>
       </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P81">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>57</v>
       </c>
@@ -4580,8 +5728,11 @@
         <f>-2489-N82-M82-L82</f>
         <v>-78</v>
       </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P82">
+        <v>-1577</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>46</v>
       </c>
@@ -4600,8 +5751,11 @@
         <f>-278-N83-M83-L83</f>
         <v>-108</v>
       </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>58</v>
       </c>
@@ -4621,8 +5775,12 @@
         <f>-6172-98-1522+1531+2025+514-N84-M84-L84</f>
         <v>-1719</v>
       </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <f>-2366-577-726-22+4202+323</f>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>54</v>
       </c>
@@ -4642,13 +5800,17 @@
         <f>SUM(O78:O84)</f>
         <v>11499</v>
       </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="5">
+        <f>SUM(P78:P84)</f>
+        <v>15345</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="L86" s="5"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
@@ -4668,8 +5830,12 @@
         <f>9732+50-18211-N87-M87-L87-985</f>
         <v>-5855</v>
       </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="2">
+        <f>4004+149-9303-135</f>
+        <v>-5285</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>60</v>
       </c>
@@ -4688,8 +5854,11 @@
         <f>-1069-N88-M88-L88</f>
         <v>-254</v>
       </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="2">
+        <v>-369</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>61</v>
       </c>
@@ -4708,8 +5877,11 @@
         <f>-83-N89-M89-L89</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="2">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>62</v>
       </c>
@@ -4729,8 +5901,12 @@
         <f>SUM(O87:O89)</f>
         <v>-6109</v>
       </c>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="5">
+        <f>SUM(P87:P89)</f>
+        <v>-5693</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>65</v>
       </c>
@@ -4750,8 +5926,11 @@
         <f>403-N92-M92-L92</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
         <v>66</v>
       </c>
@@ -4770,8 +5949,11 @@
         <f>-2783-N93-M93-L93</f>
         <v>-841</v>
       </c>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P93">
+        <v>-1752</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>67</v>
       </c>
@@ -4790,8 +5972,11 @@
         <f>-395-N94-M94-L94</f>
         <v>-99</v>
       </c>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P94">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>69</v>
       </c>
@@ -4810,8 +5995,11 @@
         <f>-9533-N95-M95-L95</f>
         <v>-2659</v>
       </c>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P95">
+        <v>-7740</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>34</v>
       </c>
@@ -4830,6 +6018,9 @@
         <f>-1250-N96-M96-L96</f>
         <v>0</v>
       </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
@@ -4850,6 +6041,9 @@
         <f>-74-N97-M97-L97</f>
         <v>-30</v>
       </c>
+      <c r="P97">
+        <v>-40</v>
+      </c>
     </row>
     <row r="98" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
@@ -4871,6 +6065,10 @@
         <f>SUM(O92:O97)</f>
         <v>-3629</v>
       </c>
+      <c r="P98" s="5">
+        <f>SUM(P92:P97)</f>
+        <v>-9345</v>
+      </c>
     </row>
     <row r="99" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
@@ -4892,6 +6090,10 @@
         <f>O98+O90+O85</f>
         <v>1761</v>
       </c>
+      <c r="P99" s="5">
+        <f>P98+P90+P85</f>
+        <v>307</v>
+      </c>
     </row>
     <row r="101" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
@@ -4913,10 +6115,14 @@
         <f>(O60/O38)*90</f>
         <v>40.714382662986928</v>
       </c>
+      <c r="P101" s="5">
+        <f>(P60/P38)*90</f>
+        <v>42.729611426816156</v>
+      </c>
     </row>
     <row r="103" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P103">
         <v>5.65</v>
@@ -4963,7 +6169,7 @@
     </row>
     <row r="104" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P104" s="15">
         <v>24.69</v>
@@ -4980,6 +6186,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E7DD8E94-DC45-4471-BE1E-1C72A09BA9C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5008,21 +6217,21 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5">
         <v>24690</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5">
         <v>26820</v>
@@ -5030,7 +6239,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>23520</v>
@@ -5038,7 +6247,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7">
         <v>24480</v>
@@ -5046,7 +6255,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10">
         <v>24690</v>
@@ -5055,7 +6264,7 @@
         <v>-0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G10">
         <v>26820</v>
@@ -5204,7 +6413,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="16">
         <v>954</v>
@@ -5212,7 +6421,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="16">
         <v>39</v>
@@ -5220,7 +6429,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="16">
         <v>40</v>
@@ -5228,7 +6437,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="16">
         <f>C21+C22</f>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B7EE24-800A-4A3B-AF79-5E74B22DB923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF60E863-1743-4266-8E8F-0883EF61CA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30465" yWindow="975" windowWidth="30015" windowHeight="18480" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-45570" yWindow="1950" windowWidth="30015" windowHeight="18480" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -645,7 +645,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -662,12 +662,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -697,7 +691,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -733,7 +727,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1195,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1206,7 @@
         <v>112</v>
       </c>
       <c r="K2" s="16">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1245,7 +1239,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>3099600</v>
+        <v>2878200</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1294,7 +1288,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>3077872</v>
+        <v>2856472</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1417,11 +1411,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
   <dimension ref="A1:DZ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="X37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
+      <selection pane="bottomRight" activeCell="AJ53" sqref="AJ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3008,28 +3002,28 @@
         <v>130289.3</v>
       </c>
       <c r="AC38" s="8">
-        <f>+AB38*1.4</f>
-        <v>182405.02</v>
+        <f>+AB38*1.5</f>
+        <v>195433.95</v>
       </c>
       <c r="AD38" s="8">
-        <f>+AC38*1.3</f>
-        <v>237126.52599999998</v>
+        <f>+AC38*1.5</f>
+        <v>293150.92500000005</v>
       </c>
       <c r="AE38" s="8">
-        <f>+AD38*1.3</f>
-        <v>308264.48379999999</v>
+        <f>+AD38*1.4</f>
+        <v>410411.29500000004</v>
       </c>
       <c r="AF38" s="8">
-        <f>+AE38*1.2</f>
-        <v>369917.38055999996</v>
+        <f>+AE38*1.4</f>
+        <v>574575.81299999997</v>
       </c>
       <c r="AG38" s="8">
-        <f t="shared" ref="AG38" si="4">+AF38*1.2</f>
-        <v>443900.85667199997</v>
+        <f>+AF38*1.3</f>
+        <v>746948.55689999997</v>
       </c>
       <c r="AH38" s="8">
-        <f>+AG38*1.1</f>
-        <v>488290.9423392</v>
+        <f>+AG38*1.3</f>
+        <v>971033.12396999996</v>
       </c>
     </row>
     <row r="39" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3078,11 +3072,11 @@
         <v>7466</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" ref="R39:S39" si="5">+R38-R40</f>
+        <f t="shared" ref="R39:S39" si="4">+R38-R40</f>
         <v>7674.3179999999993</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8984.5139999999992</v>
       </c>
       <c r="Y39" s="2">
@@ -3100,27 +3094,27 @@
       </c>
       <c r="AC39" s="2">
         <f>+AC38-AC40</f>
-        <v>40129.104399999982</v>
+        <v>42995.469000000012</v>
       </c>
       <c r="AD39" s="2">
-        <f t="shared" ref="AD39:AF39" si="6">+AD38-AD40</f>
-        <v>52167.835720000003</v>
+        <f t="shared" ref="AD39:AF39" si="5">+AD38-AD40</f>
+        <v>64493.203500000003</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="6"/>
-        <v>67818.186435999989</v>
+        <f t="shared" si="5"/>
+        <v>90290.484899999981</v>
       </c>
       <c r="AF39" s="2">
-        <f t="shared" si="6"/>
-        <v>81381.82372320001</v>
+        <f t="shared" si="5"/>
+        <v>126406.67885999999</v>
       </c>
       <c r="AG39" s="2">
-        <f t="shared" ref="AG39" si="7">+AG38-AG40</f>
-        <v>97658.188467839966</v>
+        <f t="shared" ref="AG39" si="6">+AG38-AG40</f>
+        <v>164328.68251800002</v>
       </c>
       <c r="AH39" s="2">
-        <f t="shared" ref="AH39" si="8">+AH38-AH40</f>
-        <v>107424.00731462397</v>
+        <f t="shared" ref="AH39" si="7">+AH38-AH40</f>
+        <v>213627.2872734</v>
       </c>
     </row>
     <row r="40" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3207,27 +3201,27 @@
       </c>
       <c r="AC40" s="2">
         <f>+AC38*0.78</f>
-        <v>142275.91560000001</v>
+        <v>152438.481</v>
       </c>
       <c r="AD40" s="2">
         <f>+AD38*0.78</f>
-        <v>184958.69027999998</v>
+        <v>228657.72150000004</v>
       </c>
       <c r="AE40" s="2">
         <f>+AE38*0.78</f>
-        <v>240446.297364</v>
+        <v>320120.81010000006</v>
       </c>
       <c r="AF40" s="2">
         <f>+AF38*0.78</f>
-        <v>288535.55683679995</v>
+        <v>448169.13413999998</v>
       </c>
       <c r="AG40" s="2">
-        <f t="shared" ref="AG40:AH40" si="9">+AG38*0.78</f>
-        <v>346242.66820416</v>
+        <f t="shared" ref="AG40:AH40" si="8">+AG38*0.78</f>
+        <v>582619.87438199995</v>
       </c>
       <c r="AH40" s="2">
-        <f t="shared" si="9"/>
-        <v>380866.93502457603</v>
+        <f t="shared" si="8"/>
+        <v>757405.83669659996</v>
       </c>
     </row>
     <row r="41" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3276,11 +3270,11 @@
         <v>3090</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" ref="R41:S41" si="10">+Q41+100</f>
+        <f t="shared" ref="R41:S41" si="9">+Q41+100</f>
         <v>3190</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3290</v>
       </c>
       <c r="Y41" s="2">
@@ -3301,23 +3295,23 @@
         <v>14748</v>
       </c>
       <c r="AD41" s="2">
-        <f t="shared" ref="AD41:AF41" si="11">+AC41*1.2</f>
+        <f t="shared" ref="AD41:AF41" si="10">+AC41*1.2</f>
         <v>17697.599999999999</v>
       </c>
       <c r="AE41" s="2">
+        <f t="shared" si="10"/>
+        <v>21237.119999999999</v>
+      </c>
+      <c r="AF41" s="2">
+        <f t="shared" si="10"/>
+        <v>25484.543999999998</v>
+      </c>
+      <c r="AG41" s="2">
+        <f t="shared" ref="AG41:AH41" si="11">+AF41*1.2</f>
+        <v>30581.452799999995</v>
+      </c>
+      <c r="AH41" s="2">
         <f t="shared" si="11"/>
-        <v>21237.119999999999</v>
-      </c>
-      <c r="AF41" s="2">
-        <f t="shared" si="11"/>
-        <v>25484.543999999998</v>
-      </c>
-      <c r="AG41" s="2">
-        <f t="shared" ref="AG41:AH41" si="12">+AF41*1.2</f>
-        <v>30581.452799999995</v>
-      </c>
-      <c r="AH41" s="2">
-        <f t="shared" si="12"/>
         <v>36697.743359999993</v>
       </c>
     </row>
@@ -3388,27 +3382,27 @@
         <v>3378</v>
       </c>
       <c r="AC42" s="2">
-        <f t="shared" ref="AC42:AF42" si="13">+AB42*1.2</f>
+        <f t="shared" ref="AC42:AF42" si="12">+AB42*1.2</f>
         <v>4053.6</v>
       </c>
       <c r="AD42" s="2">
+        <f t="shared" si="12"/>
+        <v>4864.32</v>
+      </c>
+      <c r="AE42" s="2">
+        <f t="shared" si="12"/>
+        <v>5837.1839999999993</v>
+      </c>
+      <c r="AF42" s="2">
+        <f t="shared" si="12"/>
+        <v>7004.6207999999988</v>
+      </c>
+      <c r="AG42" s="2">
+        <f t="shared" ref="AG42:AH42" si="13">+AF42*1.2</f>
+        <v>8405.5449599999974</v>
+      </c>
+      <c r="AH42" s="2">
         <f t="shared" si="13"/>
-        <v>4864.32</v>
-      </c>
-      <c r="AE42" s="2">
-        <f t="shared" si="13"/>
-        <v>5837.1839999999993</v>
-      </c>
-      <c r="AF42" s="2">
-        <f t="shared" si="13"/>
-        <v>7004.6207999999988</v>
-      </c>
-      <c r="AG42" s="2">
-        <f t="shared" ref="AG42:AH42" si="14">+AF42*1.2</f>
-        <v>8405.5449599999974</v>
-      </c>
-      <c r="AH42" s="2">
-        <f t="shared" si="14"/>
         <v>10086.653951999997</v>
       </c>
     </row>
@@ -3417,20 +3411,20 @@
         <v>3</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43" si="15">+C41+C42</f>
+        <f t="shared" ref="C43" si="14">+C41+C42</f>
         <v>1650</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" ref="D43:E43" si="16">+D41+D42</f>
+        <f t="shared" ref="D43:E43" si="15">+D41+D42</f>
         <v>1673</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1771</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5">
-        <f t="shared" ref="G43" si="17">+G41+G42</f>
+        <f t="shared" ref="G43" si="16">+G41+G42</f>
         <v>2029</v>
       </c>
       <c r="H43" s="5">
@@ -3438,7 +3432,7 @@
         <v>2210</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" ref="I43" si="18">+I41+I42</f>
+        <f t="shared" ref="I43" si="17">+I41+I42</f>
         <v>2416</v>
       </c>
       <c r="J43" s="5">
@@ -3455,27 +3449,27 @@
         <v>2662</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" ref="N43:P43" si="19">+N41+N42</f>
+        <f t="shared" ref="N43:P43" si="18">+N41+N42</f>
         <v>2983</v>
       </c>
       <c r="O43" s="5">
+        <f t="shared" si="18"/>
+        <v>3176</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="18"/>
+        <v>3497</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" ref="Q43:S43" si="19">+Q41+Q42</f>
+        <v>3932</v>
+      </c>
+      <c r="R43" s="5">
         <f t="shared" si="19"/>
-        <v>3176</v>
-      </c>
-      <c r="P43" s="5">
+        <v>4057</v>
+      </c>
+      <c r="S43" s="5">
         <f t="shared" si="19"/>
-        <v>3497</v>
-      </c>
-      <c r="Q43" s="5">
-        <f t="shared" ref="Q43:S43" si="20">+Q41+Q42</f>
-        <v>3932</v>
-      </c>
-      <c r="R43" s="5">
-        <f t="shared" si="20"/>
-        <v>4057</v>
-      </c>
-      <c r="S43" s="5">
-        <f t="shared" si="20"/>
         <v>4182</v>
       </c>
       <c r="Y43" s="2">
@@ -3495,27 +3489,27 @@
         <v>15668</v>
       </c>
       <c r="AC43" s="2">
-        <f t="shared" ref="AC43:AF43" si="21">+AC41+AC42</f>
+        <f t="shared" ref="AC43:AF43" si="20">+AC41+AC42</f>
         <v>18801.599999999999</v>
       </c>
       <c r="AD43" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>22561.919999999998</v>
       </c>
       <c r="AE43" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>27074.303999999996</v>
       </c>
       <c r="AF43" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>32489.164799999999</v>
       </c>
       <c r="AG43" s="2">
-        <f t="shared" ref="AG43" si="22">+AG41+AG42</f>
+        <f t="shared" ref="AG43" si="21">+AG41+AG42</f>
         <v>38986.997759999991</v>
       </c>
       <c r="AH43" s="2">
-        <f t="shared" ref="AH43" si="23">+AH41+AH42</f>
+        <f t="shared" ref="AH43" si="22">+AH41+AH42</f>
         <v>46784.397311999986</v>
       </c>
     </row>
@@ -3524,20 +3518,20 @@
         <v>2</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44" si="24">+C40-C43</f>
+        <f t="shared" ref="C44" si="23">+C40-C43</f>
         <v>1507</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" ref="D44:E44" si="25">+D40-D43</f>
+        <f t="shared" ref="D44:E44" si="24">+D40-D43</f>
         <v>1956</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2444</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5">
-        <f t="shared" ref="G44" si="26">+G40-G43</f>
+        <f t="shared" ref="G44" si="25">+G40-G43</f>
         <v>2970</v>
       </c>
       <c r="H44" s="5">
@@ -3545,7 +3539,7 @@
         <v>3221</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" ref="I44" si="27">+I40-I43</f>
+        <f t="shared" ref="I44" si="26">+I40-I43</f>
         <v>499</v>
       </c>
       <c r="J44" s="5">
@@ -3562,27 +3556,27 @@
         <v>6800</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" ref="N44:P44" si="28">+N40-N43</f>
+        <f t="shared" ref="N44:P44" si="27">+N40-N43</f>
         <v>10417</v>
       </c>
       <c r="O44" s="5">
+        <f t="shared" si="27"/>
+        <v>13615</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="27"/>
+        <v>16909</v>
+      </c>
+      <c r="Q44" s="5">
+        <f t="shared" ref="Q44:S44" si="28">+Q40-Q43</f>
+        <v>19198.8</v>
+      </c>
+      <c r="R44" s="5">
         <f t="shared" si="28"/>
-        <v>13615</v>
-      </c>
-      <c r="P44" s="5">
+        <v>21635.281999999999</v>
+      </c>
+      <c r="S44" s="5">
         <f t="shared" si="28"/>
-        <v>16909</v>
-      </c>
-      <c r="Q44" s="5">
-        <f t="shared" ref="Q44:S44" si="29">+Q40-Q43</f>
-        <v>19198.8</v>
-      </c>
-      <c r="R44" s="5">
-        <f t="shared" si="29"/>
-        <v>21635.281999999999</v>
-      </c>
-      <c r="S44" s="5">
-        <f t="shared" si="29"/>
         <v>27672.185999999998</v>
       </c>
       <c r="Y44" s="2">
@@ -3602,28 +3596,28 @@
         <v>85415.267999999996</v>
       </c>
       <c r="AC44" s="2">
-        <f t="shared" ref="AC44:AF44" si="30">+AC40-AC43</f>
-        <v>123474.3156</v>
+        <f t="shared" ref="AC44:AF44" si="29">+AC40-AC43</f>
+        <v>133636.88099999999</v>
       </c>
       <c r="AD44" s="2">
-        <f t="shared" si="30"/>
-        <v>162396.77028</v>
+        <f t="shared" si="29"/>
+        <v>206095.80150000006</v>
       </c>
       <c r="AE44" s="2">
-        <f t="shared" si="30"/>
-        <v>213371.99336399999</v>
+        <f t="shared" si="29"/>
+        <v>293046.50610000006</v>
       </c>
       <c r="AF44" s="2">
-        <f t="shared" si="30"/>
-        <v>256046.39203679995</v>
+        <f t="shared" si="29"/>
+        <v>415679.96933999995</v>
       </c>
       <c r="AG44" s="2">
-        <f t="shared" ref="AG44" si="31">+AG40-AG43</f>
-        <v>307255.67044416</v>
+        <f t="shared" ref="AG44" si="30">+AG40-AG43</f>
+        <v>543632.87662200001</v>
       </c>
       <c r="AH44" s="2">
-        <f t="shared" ref="AH44" si="32">+AH40-AH43</f>
-        <v>334082.53771257604</v>
+        <f t="shared" ref="AH44" si="31">+AH40-AH43</f>
+        <v>710621.43938459991</v>
       </c>
     </row>
     <row r="45" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3717,11 +3711,11 @@
         <v>3054.1126000000013</v>
       </c>
       <c r="AG45" s="2">
-        <f t="shared" ref="AG45:AH45" si="33">+AF45*1.1</f>
+        <f t="shared" ref="AG45:AH45" si="32">+AF45*1.1</f>
         <v>3359.5238600000016</v>
       </c>
       <c r="AH45" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3695.476246000002</v>
       </c>
     </row>
@@ -3768,27 +3762,27 @@
         <v>6981</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" ref="N46:S46" si="34">+N44+N45</f>
+        <f t="shared" ref="N46:S46" si="33">+N44+N45</f>
         <v>10522</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>14106</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>17279</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>19770.8</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>22207.281999999999</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>28244.185999999998</v>
       </c>
       <c r="Y46" s="2">
@@ -3808,28 +3802,28 @@
         <v>87501.267999999996</v>
       </c>
       <c r="AC46" s="2">
-        <f t="shared" ref="AC46:AF46" si="35">+AC44+AC45</f>
-        <v>125768.91560000001</v>
+        <f t="shared" ref="AC46:AF46" si="34">+AC44+AC45</f>
+        <v>135931.481</v>
       </c>
       <c r="AD46" s="2">
-        <f t="shared" si="35"/>
-        <v>164920.83027999999</v>
+        <f t="shared" si="34"/>
+        <v>208619.86150000006</v>
       </c>
       <c r="AE46" s="2">
-        <f t="shared" si="35"/>
-        <v>216148.45936400001</v>
+        <f t="shared" si="34"/>
+        <v>295822.97210000007</v>
       </c>
       <c r="AF46" s="2">
-        <f t="shared" si="35"/>
-        <v>259100.50463679995</v>
+        <f t="shared" si="34"/>
+        <v>418734.08193999995</v>
       </c>
       <c r="AG46" s="2">
-        <f t="shared" ref="AG46" si="36">+AG44+AG45</f>
-        <v>310615.19430416002</v>
+        <f t="shared" ref="AG46" si="35">+AG44+AG45</f>
+        <v>546992.40048199997</v>
       </c>
       <c r="AH46" s="2">
-        <f t="shared" ref="AH46" si="37">+AH44+AH45</f>
-        <v>337778.01395857602</v>
+        <f t="shared" ref="AH46" si="36">+AH44+AH45</f>
+        <v>714316.91563059995</v>
       </c>
     </row>
     <row r="47" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3899,28 +3893,28 @@
         <v>17500.2536</v>
       </c>
       <c r="AC47" s="2">
-        <f t="shared" ref="AC47:AF47" si="38">+AC46*0.2</f>
-        <v>25153.783120000004</v>
+        <f t="shared" ref="AC47:AF47" si="37">+AC46*0.2</f>
+        <v>27186.296200000001</v>
       </c>
       <c r="AD47" s="2">
-        <f t="shared" si="38"/>
-        <v>32984.166056000002</v>
+        <f t="shared" si="37"/>
+        <v>41723.972300000016</v>
       </c>
       <c r="AE47" s="2">
-        <f t="shared" si="38"/>
-        <v>43229.691872800002</v>
+        <f t="shared" si="37"/>
+        <v>59164.594420000016</v>
       </c>
       <c r="AF47" s="2">
-        <f t="shared" si="38"/>
-        <v>51820.100927359992</v>
+        <f t="shared" si="37"/>
+        <v>83746.816387999992</v>
       </c>
       <c r="AG47" s="2">
-        <f t="shared" ref="AG47" si="39">+AG46*0.2</f>
-        <v>62123.038860832006</v>
+        <f t="shared" ref="AG47" si="38">+AG46*0.2</f>
+        <v>109398.4800964</v>
       </c>
       <c r="AH47" s="2">
-        <f t="shared" ref="AH47" si="40">+AH46*0.2</f>
-        <v>67555.60279171521</v>
+        <f t="shared" ref="AH47" si="39">+AH46*0.2</f>
+        <v>142863.38312612</v>
       </c>
     </row>
     <row r="48" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3966,7 +3960,7 @@
         <v>6188</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" ref="N48" si="41">N46-N47</f>
+        <f t="shared" ref="N48" si="40">N46-N47</f>
         <v>9243</v>
       </c>
       <c r="O48" s="2">
@@ -3978,15 +3972,15 @@
         <v>14881</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" ref="Q48:S48" si="42">+Q46-Q47</f>
+        <f t="shared" ref="Q48:S48" si="41">+Q46-Q47</f>
         <v>17155.8</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>18876.189699999999</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>24007.558099999998</v>
       </c>
       <c r="Y48" s="2">
@@ -4006,412 +4000,412 @@
         <v>70001.0144</v>
       </c>
       <c r="AC48" s="2">
-        <f t="shared" ref="AC48:AF48" si="43">+AC46-AC47</f>
-        <v>100615.13248</v>
+        <f t="shared" ref="AC48:AF48" si="42">+AC46-AC47</f>
+        <v>108745.1848</v>
       </c>
       <c r="AD48" s="2">
-        <f t="shared" si="43"/>
-        <v>131936.66422400001</v>
+        <f t="shared" si="42"/>
+        <v>166895.88920000003</v>
       </c>
       <c r="AE48" s="2">
-        <f t="shared" si="43"/>
-        <v>172918.76749120001</v>
+        <f t="shared" si="42"/>
+        <v>236658.37768000006</v>
       </c>
       <c r="AF48" s="2">
-        <f t="shared" si="43"/>
-        <v>207280.40370943997</v>
+        <f t="shared" si="42"/>
+        <v>334987.26555199997</v>
       </c>
       <c r="AG48" s="2">
-        <f t="shared" ref="AG48" si="44">+AG46-AG47</f>
-        <v>248492.15544332803</v>
+        <f t="shared" ref="AG48" si="43">+AG46-AG47</f>
+        <v>437593.92038559995</v>
       </c>
       <c r="AH48" s="2">
-        <f t="shared" ref="AH48" si="45">+AH46-AH47</f>
-        <v>270222.41116686084</v>
+        <f t="shared" ref="AH48" si="44">+AH46-AH47</f>
+        <v>571453.53250447998</v>
       </c>
       <c r="AI48" s="2">
         <f>AH48*(1+$AI$54)</f>
-        <v>272924.63527852943</v>
+        <v>588597.1384796144</v>
       </c>
       <c r="AJ48" s="2">
-        <f t="shared" ref="AJ48:CU48" si="46">AI48*(1+$AI$54)</f>
-        <v>275653.88163131475</v>
+        <f t="shared" ref="AJ48:CU48" si="45">AI48*(1+$AI$54)</f>
+        <v>606255.05263400287</v>
       </c>
       <c r="AK48" s="2">
+        <f t="shared" si="45"/>
+        <v>624442.70421302295</v>
+      </c>
+      <c r="AL48" s="2">
+        <f t="shared" si="45"/>
+        <v>643175.98533941363</v>
+      </c>
+      <c r="AM48" s="2">
+        <f t="shared" si="45"/>
+        <v>662471.26489959611</v>
+      </c>
+      <c r="AN48" s="2">
+        <f t="shared" si="45"/>
+        <v>682345.40284658398</v>
+      </c>
+      <c r="AO48" s="2">
+        <f t="shared" si="45"/>
+        <v>702815.76493198157</v>
+      </c>
+      <c r="AP48" s="2">
+        <f t="shared" si="45"/>
+        <v>723900.23787994101</v>
+      </c>
+      <c r="AQ48" s="2">
+        <f t="shared" si="45"/>
+        <v>745617.24501633924</v>
+      </c>
+      <c r="AR48" s="2">
+        <f t="shared" si="45"/>
+        <v>767985.76236682944</v>
+      </c>
+      <c r="AS48" s="2">
+        <f t="shared" si="45"/>
+        <v>791025.33523783437</v>
+      </c>
+      <c r="AT48" s="2">
+        <f t="shared" si="45"/>
+        <v>814756.09529496939</v>
+      </c>
+      <c r="AU48" s="2">
+        <f t="shared" si="45"/>
+        <v>839198.77815381845</v>
+      </c>
+      <c r="AV48" s="2">
+        <f t="shared" si="45"/>
+        <v>864374.74149843305</v>
+      </c>
+      <c r="AW48" s="2">
+        <f t="shared" si="45"/>
+        <v>890305.98374338611</v>
+      </c>
+      <c r="AX48" s="2">
+        <f t="shared" si="45"/>
+        <v>917015.16325568769</v>
+      </c>
+      <c r="AY48" s="2">
+        <f t="shared" si="45"/>
+        <v>944525.61815335834</v>
+      </c>
+      <c r="AZ48" s="2">
+        <f t="shared" si="45"/>
+        <v>972861.38669795915</v>
+      </c>
+      <c r="BA48" s="2">
+        <f t="shared" si="45"/>
+        <v>1002047.228298898</v>
+      </c>
+      <c r="BB48" s="2">
+        <f t="shared" si="45"/>
+        <v>1032108.6451478649</v>
+      </c>
+      <c r="BC48" s="2">
+        <f t="shared" si="45"/>
+        <v>1063071.904502301</v>
+      </c>
+      <c r="BD48" s="2">
+        <f t="shared" si="45"/>
+        <v>1094964.0616373701</v>
+      </c>
+      <c r="BE48" s="2">
+        <f t="shared" si="45"/>
+        <v>1127812.9834864913</v>
+      </c>
+      <c r="BF48" s="2">
+        <f t="shared" si="45"/>
+        <v>1161647.372991086</v>
+      </c>
+      <c r="BG48" s="2">
+        <f t="shared" si="45"/>
+        <v>1196496.7941808186</v>
+      </c>
+      <c r="BH48" s="2">
+        <f t="shared" si="45"/>
+        <v>1232391.6980062432</v>
+      </c>
+      <c r="BI48" s="2">
+        <f t="shared" si="45"/>
+        <v>1269363.4489464306</v>
+      </c>
+      <c r="BJ48" s="2">
+        <f t="shared" si="45"/>
+        <v>1307444.3524148236</v>
+      </c>
+      <c r="BK48" s="2">
+        <f t="shared" si="45"/>
+        <v>1346667.6829872683</v>
+      </c>
+      <c r="BL48" s="2">
+        <f t="shared" si="45"/>
+        <v>1387067.7134768865</v>
+      </c>
+      <c r="BM48" s="2">
+        <f t="shared" si="45"/>
+        <v>1428679.7448811932</v>
+      </c>
+      <c r="BN48" s="2">
+        <f t="shared" si="45"/>
+        <v>1471540.1372276291</v>
+      </c>
+      <c r="BO48" s="2">
+        <f t="shared" si="45"/>
+        <v>1515686.3413444581</v>
+      </c>
+      <c r="BP48" s="2">
+        <f t="shared" si="45"/>
+        <v>1561156.9315847917</v>
+      </c>
+      <c r="BQ48" s="2">
+        <f t="shared" si="45"/>
+        <v>1607991.6395323356</v>
+      </c>
+      <c r="BR48" s="2">
+        <f t="shared" si="45"/>
+        <v>1656231.3887183056</v>
+      </c>
+      <c r="BS48" s="2">
+        <f t="shared" si="45"/>
+        <v>1705918.3303798549</v>
+      </c>
+      <c r="BT48" s="2">
+        <f t="shared" si="45"/>
+        <v>1757095.8802912505</v>
+      </c>
+      <c r="BU48" s="2">
+        <f t="shared" si="45"/>
+        <v>1809808.7566999882</v>
+      </c>
+      <c r="BV48" s="2">
+        <f t="shared" si="45"/>
+        <v>1864103.0194009878</v>
+      </c>
+      <c r="BW48" s="2">
+        <f t="shared" si="45"/>
+        <v>1920026.1099830174</v>
+      </c>
+      <c r="BX48" s="2">
+        <f t="shared" si="45"/>
+        <v>1977626.893282508</v>
+      </c>
+      <c r="BY48" s="2">
+        <f t="shared" si="45"/>
+        <v>2036955.7000809833</v>
+      </c>
+      <c r="BZ48" s="2">
+        <f t="shared" si="45"/>
+        <v>2098064.3710834128</v>
+      </c>
+      <c r="CA48" s="2">
+        <f t="shared" si="45"/>
+        <v>2161006.3022159152</v>
+      </c>
+      <c r="CB48" s="2">
+        <f t="shared" si="45"/>
+        <v>2225836.4912823928</v>
+      </c>
+      <c r="CC48" s="2">
+        <f t="shared" si="45"/>
+        <v>2292611.5860208645</v>
+      </c>
+      <c r="CD48" s="2">
+        <f t="shared" si="45"/>
+        <v>2361389.9336014907</v>
+      </c>
+      <c r="CE48" s="2">
+        <f t="shared" si="45"/>
+        <v>2432231.6316095353</v>
+      </c>
+      <c r="CF48" s="2">
+        <f t="shared" si="45"/>
+        <v>2505198.5805578213</v>
+      </c>
+      <c r="CG48" s="2">
+        <f t="shared" si="45"/>
+        <v>2580354.537974556</v>
+      </c>
+      <c r="CH48" s="2">
+        <f t="shared" si="45"/>
+        <v>2657765.1741137928</v>
+      </c>
+      <c r="CI48" s="2">
+        <f t="shared" si="45"/>
+        <v>2737498.1293372065</v>
+      </c>
+      <c r="CJ48" s="2">
+        <f t="shared" si="45"/>
+        <v>2819623.0732173226</v>
+      </c>
+      <c r="CK48" s="2">
+        <f t="shared" si="45"/>
+        <v>2904211.7654138422</v>
+      </c>
+      <c r="CL48" s="2">
+        <f t="shared" si="45"/>
+        <v>2991338.1183762574</v>
+      </c>
+      <c r="CM48" s="2">
+        <f t="shared" si="45"/>
+        <v>3081078.2619275451</v>
+      </c>
+      <c r="CN48" s="2">
+        <f t="shared" si="45"/>
+        <v>3173510.6097853715</v>
+      </c>
+      <c r="CO48" s="2">
+        <f t="shared" si="45"/>
+        <v>3268715.9280789327</v>
+      </c>
+      <c r="CP48" s="2">
+        <f t="shared" si="45"/>
+        <v>3366777.4059213009</v>
+      </c>
+      <c r="CQ48" s="2">
+        <f t="shared" si="45"/>
+        <v>3467780.7280989401</v>
+      </c>
+      <c r="CR48" s="2">
+        <f t="shared" si="45"/>
+        <v>3571814.1499419082</v>
+      </c>
+      <c r="CS48" s="2">
+        <f t="shared" si="45"/>
+        <v>3678968.5744401654</v>
+      </c>
+      <c r="CT48" s="2">
+        <f t="shared" si="45"/>
+        <v>3789337.6316733705</v>
+      </c>
+      <c r="CU48" s="2">
+        <f t="shared" si="45"/>
+        <v>3903017.7606235719</v>
+      </c>
+      <c r="CV48" s="2">
+        <f t="shared" ref="CV48:DZ48" si="46">CU48*(1+$AI$54)</f>
+        <v>4020108.2934422791</v>
+      </c>
+      <c r="CW48" s="2">
         <f t="shared" si="46"/>
-        <v>278410.4204476279</v>
-      </c>
-      <c r="AL48" s="2">
+        <v>4140711.5422455478</v>
+      </c>
+      <c r="CX48" s="2">
         <f t="shared" si="46"/>
-        <v>281194.52465210418</v>
-      </c>
-      <c r="AM48" s="2">
+        <v>4264932.8885129141</v>
+      </c>
+      <c r="CY48" s="2">
         <f t="shared" si="46"/>
-        <v>284006.46989862522</v>
-      </c>
-      <c r="AN48" s="2">
+        <v>4392880.8751683012</v>
+      </c>
+      <c r="CZ48" s="2">
         <f t="shared" si="46"/>
-        <v>286846.53459761146</v>
-      </c>
-      <c r="AO48" s="2">
+        <v>4524667.3014233503</v>
+      </c>
+      <c r="DA48" s="2">
         <f t="shared" si="46"/>
-        <v>289714.99994358758</v>
-      </c>
-      <c r="AP48" s="2">
+        <v>4660407.3204660509</v>
+      </c>
+      <c r="DB48" s="2">
         <f t="shared" si="46"/>
-        <v>292612.14994302345</v>
-      </c>
-      <c r="AQ48" s="2">
+        <v>4800219.5400800323</v>
+      </c>
+      <c r="DC48" s="2">
         <f t="shared" si="46"/>
-        <v>295538.27144245367</v>
-      </c>
-      <c r="AR48" s="2">
+        <v>4944226.126282433</v>
+      </c>
+      <c r="DD48" s="2">
         <f t="shared" si="46"/>
-        <v>298493.65415687818</v>
-      </c>
-      <c r="AS48" s="2">
+        <v>5092552.9100709064</v>
+      </c>
+      <c r="DE48" s="2">
         <f t="shared" si="46"/>
-        <v>301478.59069844696</v>
-      </c>
-      <c r="AT48" s="2">
+        <v>5245329.4973730333</v>
+      </c>
+      <c r="DF48" s="2">
         <f t="shared" si="46"/>
-        <v>304493.37660543143</v>
-      </c>
-      <c r="AU48" s="2">
+        <v>5402689.3822942246</v>
+      </c>
+      <c r="DG48" s="2">
         <f t="shared" si="46"/>
-        <v>307538.31037148577</v>
-      </c>
-      <c r="AV48" s="2">
+        <v>5564770.0637630513</v>
+      </c>
+      <c r="DH48" s="2">
         <f t="shared" si="46"/>
-        <v>310613.69347520062</v>
-      </c>
-      <c r="AW48" s="2">
+        <v>5731713.1656759428</v>
+      </c>
+      <c r="DI48" s="2">
         <f t="shared" si="46"/>
-        <v>313719.83040995261</v>
-      </c>
-      <c r="AX48" s="2">
+        <v>5903664.560646221</v>
+      </c>
+      <c r="DJ48" s="2">
         <f t="shared" si="46"/>
-        <v>316857.02871405217</v>
-      </c>
-      <c r="AY48" s="2">
+        <v>6080774.4974656077</v>
+      </c>
+      <c r="DK48" s="2">
         <f t="shared" si="46"/>
-        <v>320025.59900119272</v>
-      </c>
-      <c r="AZ48" s="2">
+        <v>6263197.7323895758</v>
+      </c>
+      <c r="DL48" s="2">
         <f t="shared" si="46"/>
-        <v>323225.85499120463</v>
-      </c>
-      <c r="BA48" s="2">
+        <v>6451093.6643612636</v>
+      </c>
+      <c r="DM48" s="2">
         <f t="shared" si="46"/>
-        <v>326458.11354111671</v>
-      </c>
-      <c r="BB48" s="2">
+        <v>6644626.4742921013</v>
+      </c>
+      <c r="DN48" s="2">
         <f t="shared" si="46"/>
-        <v>329722.69467652787</v>
-      </c>
-      <c r="BC48" s="2">
+        <v>6843965.2685208647</v>
+      </c>
+      <c r="DO48" s="2">
         <f t="shared" si="46"/>
-        <v>333019.92162329314</v>
-      </c>
-      <c r="BD48" s="2">
+        <v>7049284.2265764903</v>
+      </c>
+      <c r="DP48" s="2">
         <f t="shared" si="46"/>
-        <v>336350.12083952606</v>
-      </c>
-      <c r="BE48" s="2">
+        <v>7260762.7533737849</v>
+      </c>
+      <c r="DQ48" s="2">
         <f t="shared" si="46"/>
-        <v>339713.62204792135</v>
-      </c>
-      <c r="BF48" s="2">
+        <v>7478585.6359749986</v>
+      </c>
+      <c r="DR48" s="2">
         <f t="shared" si="46"/>
-        <v>343110.75826840056</v>
-      </c>
-      <c r="BG48" s="2">
+        <v>7702943.2050542487</v>
+      </c>
+      <c r="DS48" s="2">
         <f t="shared" si="46"/>
-        <v>346541.86585108459</v>
-      </c>
-      <c r="BH48" s="2">
+        <v>7934031.5012058765</v>
+      </c>
+      <c r="DT48" s="2">
         <f t="shared" si="46"/>
-        <v>350007.28450959543</v>
-      </c>
-      <c r="BI48" s="2">
+        <v>8172052.4462420531</v>
+      </c>
+      <c r="DU48" s="2">
         <f t="shared" si="46"/>
-        <v>353507.35735469137</v>
-      </c>
-      <c r="BJ48" s="2">
+        <v>8417214.0196293145</v>
+      </c>
+      <c r="DV48" s="2">
         <f t="shared" si="46"/>
-        <v>357042.43092823826</v>
-      </c>
-      <c r="BK48" s="2">
+        <v>8669730.4402181935</v>
+      </c>
+      <c r="DW48" s="2">
         <f t="shared" si="46"/>
-        <v>360612.85523752065</v>
-      </c>
-      <c r="BL48" s="2">
+        <v>8929822.3534247391</v>
+      </c>
+      <c r="DX48" s="2">
         <f t="shared" si="46"/>
-        <v>364218.98378989584</v>
-      </c>
-      <c r="BM48" s="2">
+        <v>9197717.0240274817</v>
+      </c>
+      <c r="DY48" s="2">
         <f t="shared" si="46"/>
-        <v>367861.17362779478</v>
-      </c>
-      <c r="BN48" s="2">
+        <v>9473648.5347483065</v>
+      </c>
+      <c r="DZ48" s="2">
         <f t="shared" si="46"/>
-        <v>371539.78536407271</v>
-      </c>
-      <c r="BO48" s="2">
-        <f t="shared" si="46"/>
-        <v>375255.18321771343</v>
-      </c>
-      <c r="BP48" s="2">
-        <f t="shared" si="46"/>
-        <v>379007.73504989059</v>
-      </c>
-      <c r="BQ48" s="2">
-        <f t="shared" si="46"/>
-        <v>382797.81240038952</v>
-      </c>
-      <c r="BR48" s="2">
-        <f t="shared" si="46"/>
-        <v>386625.79052439344</v>
-      </c>
-      <c r="BS48" s="2">
-        <f t="shared" si="46"/>
-        <v>390492.04842963739</v>
-      </c>
-      <c r="BT48" s="2">
-        <f t="shared" si="46"/>
-        <v>394396.96891393379</v>
-      </c>
-      <c r="BU48" s="2">
-        <f t="shared" si="46"/>
-        <v>398340.93860307313</v>
-      </c>
-      <c r="BV48" s="2">
-        <f t="shared" si="46"/>
-        <v>402324.34798910387</v>
-      </c>
-      <c r="BW48" s="2">
-        <f t="shared" si="46"/>
-        <v>406347.59146899491</v>
-      </c>
-      <c r="BX48" s="2">
-        <f t="shared" si="46"/>
-        <v>410411.06738368486</v>
-      </c>
-      <c r="BY48" s="2">
-        <f t="shared" si="46"/>
-        <v>414515.1780575217</v>
-      </c>
-      <c r="BZ48" s="2">
-        <f t="shared" si="46"/>
-        <v>418660.32983809692</v>
-      </c>
-      <c r="CA48" s="2">
-        <f t="shared" si="46"/>
-        <v>422846.93313647789</v>
-      </c>
-      <c r="CB48" s="2">
-        <f t="shared" si="46"/>
-        <v>427075.40246784268</v>
-      </c>
-      <c r="CC48" s="2">
-        <f t="shared" si="46"/>
-        <v>431346.15649252111</v>
-      </c>
-      <c r="CD48" s="2">
-        <f t="shared" si="46"/>
-        <v>435659.61805744632</v>
-      </c>
-      <c r="CE48" s="2">
-        <f t="shared" si="46"/>
-        <v>440016.21423802077</v>
-      </c>
-      <c r="CF48" s="2">
-        <f t="shared" si="46"/>
-        <v>444416.37638040096</v>
-      </c>
-      <c r="CG48" s="2">
-        <f t="shared" si="46"/>
-        <v>448860.54014420498</v>
-      </c>
-      <c r="CH48" s="2">
-        <f t="shared" si="46"/>
-        <v>453349.14554564701</v>
-      </c>
-      <c r="CI48" s="2">
-        <f t="shared" si="46"/>
-        <v>457882.63700110349</v>
-      </c>
-      <c r="CJ48" s="2">
-        <f t="shared" si="46"/>
-        <v>462461.46337111451</v>
-      </c>
-      <c r="CK48" s="2">
-        <f t="shared" si="46"/>
-        <v>467086.07800482569</v>
-      </c>
-      <c r="CL48" s="2">
-        <f t="shared" si="46"/>
-        <v>471756.93878487393</v>
-      </c>
-      <c r="CM48" s="2">
-        <f t="shared" si="46"/>
-        <v>476474.50817272265</v>
-      </c>
-      <c r="CN48" s="2">
-        <f t="shared" si="46"/>
-        <v>481239.25325444987</v>
-      </c>
-      <c r="CO48" s="2">
-        <f t="shared" si="46"/>
-        <v>486051.64578699437</v>
-      </c>
-      <c r="CP48" s="2">
-        <f t="shared" si="46"/>
-        <v>490912.16224486433</v>
-      </c>
-      <c r="CQ48" s="2">
-        <f t="shared" si="46"/>
-        <v>495821.283867313</v>
-      </c>
-      <c r="CR48" s="2">
-        <f t="shared" si="46"/>
-        <v>500779.49670598615</v>
-      </c>
-      <c r="CS48" s="2">
-        <f t="shared" si="46"/>
-        <v>505787.29167304601</v>
-      </c>
-      <c r="CT48" s="2">
-        <f t="shared" si="46"/>
-        <v>510845.16458977648</v>
-      </c>
-      <c r="CU48" s="2">
-        <f t="shared" si="46"/>
-        <v>515953.61623567424</v>
-      </c>
-      <c r="CV48" s="2">
-        <f t="shared" ref="CV48:DZ48" si="47">CU48*(1+$AI$54)</f>
-        <v>521113.15239803097</v>
-      </c>
-      <c r="CW48" s="2">
-        <f t="shared" si="47"/>
-        <v>526324.28392201127</v>
-      </c>
-      <c r="CX48" s="2">
-        <f t="shared" si="47"/>
-        <v>531587.52676123136</v>
-      </c>
-      <c r="CY48" s="2">
-        <f t="shared" si="47"/>
-        <v>536903.40202884364</v>
-      </c>
-      <c r="CZ48" s="2">
-        <f t="shared" si="47"/>
-        <v>542272.43604913214</v>
-      </c>
-      <c r="DA48" s="2">
-        <f t="shared" si="47"/>
-        <v>547695.16040962352</v>
-      </c>
-      <c r="DB48" s="2">
-        <f t="shared" si="47"/>
-        <v>553172.11201371974</v>
-      </c>
-      <c r="DC48" s="2">
-        <f t="shared" si="47"/>
-        <v>558703.833133857</v>
-      </c>
-      <c r="DD48" s="2">
-        <f t="shared" si="47"/>
-        <v>564290.87146519555</v>
-      </c>
-      <c r="DE48" s="2">
-        <f t="shared" si="47"/>
-        <v>569933.7801798475</v>
-      </c>
-      <c r="DF48" s="2">
-        <f t="shared" si="47"/>
-        <v>575633.11798164598</v>
-      </c>
-      <c r="DG48" s="2">
-        <f t="shared" si="47"/>
-        <v>581389.44916146249</v>
-      </c>
-      <c r="DH48" s="2">
-        <f t="shared" si="47"/>
-        <v>587203.34365307714</v>
-      </c>
-      <c r="DI48" s="2">
-        <f t="shared" si="47"/>
-        <v>593075.37708960788</v>
-      </c>
-      <c r="DJ48" s="2">
-        <f t="shared" si="47"/>
-        <v>599006.130860504</v>
-      </c>
-      <c r="DK48" s="2">
-        <f t="shared" si="47"/>
-        <v>604996.19216910901</v>
-      </c>
-      <c r="DL48" s="2">
-        <f t="shared" si="47"/>
-        <v>611046.15409080009</v>
-      </c>
-      <c r="DM48" s="2">
-        <f t="shared" si="47"/>
-        <v>617156.61563170806</v>
-      </c>
-      <c r="DN48" s="2">
-        <f t="shared" si="47"/>
-        <v>623328.18178802519</v>
-      </c>
-      <c r="DO48" s="2">
-        <f t="shared" si="47"/>
-        <v>629561.46360590542</v>
-      </c>
-      <c r="DP48" s="2">
-        <f t="shared" si="47"/>
-        <v>635857.07824196445</v>
-      </c>
-      <c r="DQ48" s="2">
-        <f t="shared" si="47"/>
-        <v>642215.6490243841</v>
-      </c>
-      <c r="DR48" s="2">
-        <f t="shared" si="47"/>
-        <v>648637.80551462795</v>
-      </c>
-      <c r="DS48" s="2">
-        <f t="shared" si="47"/>
-        <v>655124.18356977426</v>
-      </c>
-      <c r="DT48" s="2">
-        <f t="shared" si="47"/>
-        <v>661675.42540547205</v>
-      </c>
-      <c r="DU48" s="2">
-        <f t="shared" si="47"/>
-        <v>668292.1796595268</v>
-      </c>
-      <c r="DV48" s="2">
-        <f t="shared" si="47"/>
-        <v>674975.10145612212</v>
-      </c>
-      <c r="DW48" s="2">
-        <f t="shared" si="47"/>
-        <v>681724.8524706834</v>
-      </c>
-      <c r="DX48" s="2">
-        <f t="shared" si="47"/>
-        <v>688542.10099539021</v>
-      </c>
-      <c r="DY48" s="2">
-        <f t="shared" si="47"/>
-        <v>695427.52200534416</v>
-      </c>
-      <c r="DZ48" s="2">
-        <f t="shared" si="47"/>
-        <v>702381.79722539766</v>
+        <v>9757857.9907907564</v>
       </c>
     </row>
     <row r="49" spans="2:36" x14ac:dyDescent="0.2">
@@ -4457,68 +4451,68 @@
         <v>2.4761904761904763</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" ref="N49:P49" si="48">+N48/N50</f>
+        <f t="shared" ref="N49:P49" si="47">+N48/N50</f>
         <v>3.7060946271050521</v>
       </c>
       <c r="O49" s="6">
+        <f t="shared" si="47"/>
+        <v>4.9337349397590362</v>
+      </c>
+      <c r="P49" s="6">
+        <f t="shared" si="47"/>
+        <v>5.978706307754118</v>
+      </c>
+      <c r="Q49" s="6">
+        <f t="shared" ref="Q49:S49" si="48">+Q48/Q50</f>
+        <v>0.69042981326464903</v>
+      </c>
+      <c r="R49" s="6">
         <f t="shared" si="48"/>
-        <v>4.9337349397590362</v>
-      </c>
-      <c r="P49" s="6">
+        <v>0.7596663594655505</v>
+      </c>
+      <c r="S49" s="6">
         <f t="shared" si="48"/>
-        <v>5.978706307754118</v>
-      </c>
-      <c r="Q49" s="6">
-        <f t="shared" ref="Q49:S49" si="49">+Q48/Q50</f>
-        <v>0.69042981326464903</v>
-      </c>
-      <c r="R49" s="6">
+        <v>0.96617667820347708</v>
+      </c>
+      <c r="Y49" s="16">
+        <f t="shared" ref="Y49:AF49" si="49">+Y48/Y50</f>
+        <v>3.8469428007889546</v>
+      </c>
+      <c r="Z49" s="16">
         <f t="shared" si="49"/>
-        <v>0.7596663594655505</v>
-      </c>
-      <c r="S49" s="6">
+        <v>2.2074192261667331</v>
+      </c>
+      <c r="AA49" s="16">
         <f t="shared" si="49"/>
-        <v>0.96617667820347708</v>
-      </c>
-      <c r="Y49" s="16">
-        <f t="shared" ref="Y49:AF49" si="50">+Y48/Y50</f>
-        <v>3.8469428007889546</v>
-      </c>
-      <c r="Z49" s="16">
+        <v>11.932638331996792</v>
+      </c>
+      <c r="AB49" s="16">
+        <f t="shared" si="49"/>
+        <v>2.8171689632968446</v>
+      </c>
+      <c r="AC49" s="16">
+        <f t="shared" si="49"/>
+        <v>4.3764160012878301</v>
+      </c>
+      <c r="AD49" s="16">
+        <f t="shared" si="49"/>
+        <v>6.7166729394719908</v>
+      </c>
+      <c r="AE49" s="16">
+        <f t="shared" si="49"/>
+        <v>9.5242425016097894</v>
+      </c>
+      <c r="AF49" s="16">
+        <f t="shared" si="49"/>
+        <v>13.481457886027043</v>
+      </c>
+      <c r="AG49" s="16">
+        <f t="shared" ref="AG49:AH49" si="50">+AG48/AG50</f>
+        <v>17.610830665872502</v>
+      </c>
+      <c r="AH49" s="16">
         <f t="shared" si="50"/>
-        <v>2.2074192261667331</v>
-      </c>
-      <c r="AA49" s="16">
-        <f t="shared" si="50"/>
-        <v>11.932638331996792</v>
-      </c>
-      <c r="AB49" s="16">
-        <f t="shared" si="50"/>
-        <v>2.8171689632968446</v>
-      </c>
-      <c r="AC49" s="16">
-        <f t="shared" si="50"/>
-        <v>4.0492245846748229</v>
-      </c>
-      <c r="AD49" s="16">
-        <f t="shared" si="50"/>
-        <v>5.3097498480360592</v>
-      </c>
-      <c r="AE49" s="16">
-        <f t="shared" si="50"/>
-        <v>6.9590617953638123</v>
-      </c>
-      <c r="AF49" s="16">
-        <f t="shared" si="50"/>
-        <v>8.341935113869928</v>
-      </c>
-      <c r="AG49" s="16">
-        <f t="shared" ref="AG49:AH49" si="51">+AG48/AG50</f>
-        <v>10.000489192020606</v>
-      </c>
-      <c r="AH49" s="16">
-        <f t="shared" si="51"/>
-        <v>10.875016547281907</v>
+        <v>22.997968951403735</v>
       </c>
       <c r="AI49" s="16"/>
     </row>
@@ -4567,11 +4561,11 @@
         <v>24848</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" ref="R50:S50" si="52">+Q50</f>
+        <f t="shared" ref="R50:S50" si="51">+Q50</f>
         <v>24848</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>24848</v>
       </c>
       <c r="Y50" s="2">
@@ -4604,11 +4598,11 @@
         <v>24848</v>
       </c>
       <c r="AG50" s="2">
-        <f t="shared" ref="AG50:AH50" si="53">+AF50</f>
+        <f t="shared" ref="AG50:AH50" si="52">+AF50</f>
         <v>24848</v>
       </c>
       <c r="AH50" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>24848</v>
       </c>
       <c r="AI50" s="2"/>
@@ -4619,39 +4613,39 @@
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10">
-        <f t="shared" ref="G52:O52" si="54">+G38/C38-1</f>
+        <f t="shared" ref="G52:O52" si="53">+G38/C38-1</f>
         <v>0.52768338996602049</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="J52" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="K52" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-0.20829517205285886</v>
       </c>
       <c r="L52" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>-0.13223938223938225</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.0147673031026252</v>
       </c>
       <c r="N52" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="O52" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>2.6527846636919516</v>
       </c>
       <c r="P52" s="10">
@@ -4659,52 +4653,52 @@
         <v>2.6212458286985538</v>
       </c>
       <c r="Q52" s="10">
-        <f t="shared" ref="Q52" si="55">+Q38/M38-1</f>
+        <f t="shared" ref="Q52" si="54">+Q38/M38-1</f>
         <v>1.2240319834160065</v>
       </c>
       <c r="R52" s="10">
-        <f t="shared" ref="R52" si="56">+R38/N38-1</f>
+        <f t="shared" ref="R52" si="55">+R38/N38-1</f>
         <v>0.84142384105960266</v>
       </c>
       <c r="S52" s="10">
-        <f t="shared" ref="S52" si="57">+S38/O38-1</f>
+        <f t="shared" ref="S52" si="56">+S38/O38-1</f>
         <v>0.84765416459304155</v>
       </c>
       <c r="Z52" s="10">
-        <f>+Z38/Y38-1</f>
+        <f t="shared" ref="Z52:AH52" si="57">+Z38/Y38-1</f>
         <v>2.2293230289069932E-3</v>
       </c>
       <c r="AA52" s="10">
-        <f>+AA38/Z38-1</f>
+        <f t="shared" si="57"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="AB52" s="10">
-        <f>+AB38/AA38-1</f>
+        <f t="shared" si="57"/>
         <v>1.1386247989232134</v>
       </c>
       <c r="AC52" s="10">
-        <f>+AC38/AB38-1</f>
+        <f t="shared" si="57"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD52" s="10">
+        <f t="shared" si="57"/>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="AE52" s="10">
+        <f t="shared" si="57"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="AD52" s="10">
-        <f>+AD38/AC38-1</f>
+      <c r="AF52" s="10">
+        <f t="shared" si="57"/>
+        <v>0.39999999999999969</v>
+      </c>
+      <c r="AG52" s="10">
+        <f t="shared" si="57"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AE52" s="10">
-        <f>+AE38/AD38-1</f>
+      <c r="AH52" s="10">
+        <f t="shared" si="57"/>
         <v>0.30000000000000004</v>
-      </c>
-      <c r="AF52" s="10">
-        <f>+AF38/AE38-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AG52" s="10">
-        <f>+AG38/AF38-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AH52" s="10">
-        <f>+AH38/AG38-1</f>
-        <v>0.10000000000000009</v>
       </c>
       <c r="AI52" s="10"/>
       <c r="AJ52" s="10"/>
@@ -4846,7 +4840,7 @@
         <v>168</v>
       </c>
       <c r="AI54" s="10">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="55" spans="2:36" x14ac:dyDescent="0.2">
@@ -4933,7 +4927,7 @@
       </c>
       <c r="AC55" s="7">
         <f t="shared" si="68"/>
-        <v>0.78000000000000014</v>
+        <v>0.77999999999999992</v>
       </c>
       <c r="AD55" s="7">
         <f t="shared" si="68"/>
@@ -4945,7 +4939,7 @@
       </c>
       <c r="AF55" s="7">
         <f t="shared" si="68"/>
-        <v>0.77999999999999992</v>
+        <v>0.78</v>
       </c>
       <c r="AH55" t="s">
         <v>166</v>
@@ -5031,7 +5025,7 @@
       </c>
       <c r="AI56" s="2">
         <f>NPV(AI55,AC48:DZ48)+Main!K5-Main!K6</f>
-        <v>2860929.8700776007</v>
+        <v>7131023.5494701201</v>
       </c>
     </row>
     <row r="57" spans="2:36" x14ac:dyDescent="0.2">
@@ -5040,7 +5034,7 @@
       </c>
       <c r="AI57" s="16">
         <f>AI56/Main!K3</f>
-        <v>116.29796219827645</v>
+        <v>289.87900607602114</v>
       </c>
     </row>
     <row r="58" spans="2:36" x14ac:dyDescent="0.2">

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF60E863-1743-4266-8E8F-0883EF61CA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE56466-C333-42D6-9619-6E0DCF5BB4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45570" yWindow="1950" windowWidth="30015" windowHeight="18480" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-39795" yWindow="3855" windowWidth="31875" windowHeight="16470" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -680,7 +680,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -688,12 +688,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -722,12 +808,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1189,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1199,23 +1294,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="26" t="s">
         <v>132</v>
       </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
       <c r="J2" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="16">
-        <v>117</v>
+      <c r="K2" s="15">
+        <v>102.49</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B3" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="20" t="s">
         <v>131</v>
       </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
       <c r="J3" t="s">
         <v>13</v>
       </c>
@@ -1228,27 +1334,37 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="20" t="s">
         <v>131</v>
       </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
       <c r="J4" t="s">
         <v>113</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>2878200</v>
+        <v>2521254</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="20" t="s">
         <v>131</v>
       </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
       <c r="J5" t="s">
         <v>38</v>
       </c>
@@ -1260,12 +1376,17 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="20" t="s">
         <v>130</v>
       </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
       <c r="J6" t="s">
         <v>34</v>
       </c>
@@ -1277,71 +1398,113 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="20" t="s">
         <v>125</v>
       </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
       <c r="J7" t="s">
         <v>114</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>2856472</v>
+        <v>2499526</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="B8" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="20" t="s">
         <v>129</v>
       </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="B9" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="20" t="s">
         <v>128</v>
       </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="B10" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="20" t="s">
         <v>136</v>
       </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="20" t="s">
         <v>169</v>
       </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="B12" s="19" t="s">
         <v>139</v>
       </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="B13" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="B14" s="23" t="s">
         <v>141</v>
       </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -1350,55 +1513,55 @@
       <c r="C16" t="s">
         <v>143</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>144</v>
       </c>
       <c r="C17" t="s">
         <v>145</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>146</v>
       </c>
       <c r="C18" t="s">
         <v>147</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H19" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H20" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>160</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>170</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1411,11 +1574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
   <dimension ref="A1:DZ104"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="X37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="V34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ53" sqref="AJ53"/>
+      <selection pane="bottomRight" activeCell="AF38" sqref="AF38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1425,12 +1588,12 @@
     <col min="3" max="12" width="9.7109375" style="3" customWidth="1"/>
     <col min="13" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="19" width="10.140625" customWidth="1"/>
-    <col min="27" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="33" width="10" customWidth="1"/>
+    <col min="34" max="36" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4474,47 +4637,47 @@
         <f t="shared" si="48"/>
         <v>0.96617667820347708</v>
       </c>
-      <c r="Y49" s="16">
+      <c r="Y49" s="15">
         <f t="shared" ref="Y49:AF49" si="49">+Y48/Y50</f>
         <v>3.8469428007889546</v>
       </c>
-      <c r="Z49" s="16">
+      <c r="Z49" s="15">
         <f t="shared" si="49"/>
         <v>2.2074192261667331</v>
       </c>
-      <c r="AA49" s="16">
+      <c r="AA49" s="15">
         <f t="shared" si="49"/>
         <v>11.932638331996792</v>
       </c>
-      <c r="AB49" s="16">
+      <c r="AB49" s="15">
         <f t="shared" si="49"/>
         <v>2.8171689632968446</v>
       </c>
-      <c r="AC49" s="16">
+      <c r="AC49" s="15">
         <f t="shared" si="49"/>
         <v>4.3764160012878301</v>
       </c>
-      <c r="AD49" s="16">
+      <c r="AD49" s="15">
         <f t="shared" si="49"/>
         <v>6.7166729394719908</v>
       </c>
-      <c r="AE49" s="16">
+      <c r="AE49" s="15">
         <f t="shared" si="49"/>
         <v>9.5242425016097894</v>
       </c>
-      <c r="AF49" s="16">
+      <c r="AF49" s="15">
         <f t="shared" si="49"/>
         <v>13.481457886027043</v>
       </c>
-      <c r="AG49" s="16">
+      <c r="AG49" s="15">
         <f t="shared" ref="AG49:AH49" si="50">+AG48/AG50</f>
         <v>17.610830665872502</v>
       </c>
-      <c r="AH49" s="16">
+      <c r="AH49" s="15">
         <f t="shared" si="50"/>
         <v>22.997968951403735</v>
       </c>
-      <c r="AI49" s="16"/>
+      <c r="AI49" s="15"/>
     </row>
     <row r="50" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
@@ -5032,7 +5195,7 @@
       <c r="AH57" t="s">
         <v>13</v>
       </c>
-      <c r="AI57" s="16">
+      <c r="AI57" s="15">
         <f>AI56/Main!K3</f>
         <v>289.87900607602114</v>
       </c>
@@ -6165,16 +6328,16 @@
       <c r="B104" t="s">
         <v>149</v>
       </c>
-      <c r="P104" s="15">
+      <c r="P104" s="14">
         <v>24.69</v>
       </c>
-      <c r="Q104" s="15">
+      <c r="Q104" s="14">
         <v>26.8</v>
       </c>
-      <c r="R104" s="15">
+      <c r="R104" s="14">
         <v>29.36</v>
       </c>
-      <c r="S104" s="15">
+      <c r="S104" s="14">
         <v>31.95</v>
       </c>
     </row>
@@ -6290,7 +6453,7 @@
       <c r="C12" s="11">
         <v>25500</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>-0.03</v>
       </c>
       <c r="E12" s="11"/>
@@ -6299,7 +6462,7 @@
         <f t="shared" ref="G12:G18" si="0">G11+500</f>
         <v>27820</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>-0.03</v>
       </c>
     </row>
@@ -6307,7 +6470,7 @@
       <c r="C13" s="11">
         <v>26000</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>-0.01</v>
       </c>
       <c r="E13" s="11"/>
@@ -6316,7 +6479,7 @@
         <f t="shared" si="0"/>
         <v>28320</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <v>-0.01</v>
       </c>
     </row>
@@ -6324,7 +6487,7 @@
       <c r="C14" s="11">
         <v>26500</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>0</v>
       </c>
       <c r="E14" s="11"/>
@@ -6333,7 +6496,7 @@
         <f t="shared" si="0"/>
         <v>28820</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <v>0</v>
       </c>
     </row>
@@ -6341,7 +6504,7 @@
       <c r="C15" s="11">
         <v>27000</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>0</v>
       </c>
       <c r="E15" s="11"/>
@@ -6350,7 +6513,7 @@
         <f t="shared" si="0"/>
         <v>29320</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <v>0</v>
       </c>
     </row>
@@ -6358,7 +6521,7 @@
       <c r="C16" s="11">
         <v>27500</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>0.03</v>
       </c>
       <c r="E16" s="11"/>
@@ -6367,7 +6530,7 @@
         <f t="shared" si="0"/>
         <v>29820</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>0.03</v>
       </c>
     </row>
@@ -6409,7 +6572,7 @@
       <c r="B20" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>954</v>
       </c>
     </row>
@@ -6417,7 +6580,7 @@
       <c r="B21" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>39</v>
       </c>
     </row>
@@ -6425,7 +6588,7 @@
       <c r="B22" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>40</v>
       </c>
     </row>
@@ -6433,13 +6596,13 @@
       <c r="B23" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <f>C21+C22</f>
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <f>C23/C20</f>
         <v>8.2809224318658281E-2</v>
       </c>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE56466-C333-42D6-9619-6E0DCF5BB4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E421B9C-80E7-4B05-AD9A-34418E76EC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39795" yWindow="3855" windowWidth="31875" windowHeight="16470" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-47160" yWindow="495" windowWidth="24135" windowHeight="20715" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -779,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -814,7 +814,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1294,15 +1293,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
       <c r="J2" t="s">
         <v>112</v>
       </c>
@@ -1314,14 +1313,10 @@
       <c r="B3" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="H3" s="20"/>
       <c r="J3" t="s">
         <v>13</v>
       </c>
@@ -1337,14 +1332,10 @@
       <c r="B4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="H4" s="20"/>
       <c r="J4" t="s">
         <v>113</v>
       </c>
@@ -1357,14 +1348,10 @@
       <c r="B5" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="20"/>
       <c r="J5" t="s">
         <v>38</v>
       </c>
@@ -1376,17 +1363,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="20"/>
       <c r="J6" t="s">
         <v>34</v>
       </c>
@@ -1401,14 +1384,10 @@
       <c r="B7" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="20"/>
       <c r="J7" t="s">
         <v>114</v>
       </c>
@@ -1421,90 +1400,65 @@
       <c r="B8" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="H8" s="20"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="H9" s="20"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -1575,10 +1529,10 @@
   <dimension ref="A1:DZ104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="V25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF38" sqref="AF38"/>
+      <selection pane="bottomRight" activeCell="AC38" sqref="AC38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E421B9C-80E7-4B05-AD9A-34418E76EC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93C48BE-E08F-4F05-93C5-8BAD239C9093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47160" yWindow="495" windowWidth="24135" windowHeight="20715" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-36630" yWindow="1380" windowWidth="25650" windowHeight="19635" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1306,7 +1306,7 @@
         <v>112</v>
       </c>
       <c r="K2" s="15">
-        <v>102.49</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>2521254</v>
+        <v>3394800</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>2499526</v>
+        <v>3373072</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1528,11 +1528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
   <dimension ref="A1:DZ104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V25" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC38" sqref="AC38"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93C48BE-E08F-4F05-93C5-8BAD239C9093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA7BD05-50CA-4D83-8B6F-FD6C542A6940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36630" yWindow="1380" windowWidth="25650" windowHeight="19635" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-33090" yWindow="2910" windowWidth="32820" windowHeight="15960" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -846,14 +846,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74462</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>37420</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>74462</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>37420</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>99785</xdr:rowOff>
     </xdr:to>
@@ -870,8 +870,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11014605" y="0"/>
-          <a:ext cx="0" cy="17571356"/>
+          <a:off x="12329962" y="0"/>
+          <a:ext cx="0" cy="17652243"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1306,7 +1306,7 @@
         <v>112</v>
       </c>
       <c r="K2" s="15">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>3394800</v>
+        <v>3517800</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>3373072</v>
+        <v>3496072</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1528,11 +1528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
   <dimension ref="A1:DZ104"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2810,16 +2810,10 @@
       <c r="P33">
         <v>78</v>
       </c>
-      <c r="Q33" s="2">
-        <f t="shared" ref="Q33:R34" si="2">+M33*1.1</f>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="R33" s="2">
-        <f t="shared" si="2"/>
-        <v>80.300000000000011</v>
-      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
       <c r="S33" s="2">
-        <f t="shared" ref="S33:S35" si="3">+O33*1.1</f>
+        <f t="shared" ref="S33:S35" si="2">+O33*1.1</f>
         <v>80.300000000000011</v>
       </c>
     </row>
@@ -2863,16 +2857,10 @@
       <c r="P34" s="5">
         <v>427</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2">
         <f t="shared" si="2"/>
-        <v>416.90000000000003</v>
-      </c>
-      <c r="R34" s="2">
-        <f t="shared" si="2"/>
-        <v>457.6</v>
-      </c>
-      <c r="S34" s="2">
-        <f t="shared" si="3"/>
         <v>509.30000000000007</v>
       </c>
     </row>
@@ -2916,16 +2904,10 @@
       <c r="P35" s="5">
         <v>329</v>
       </c>
-      <c r="Q35" s="2">
-        <f>+M35*1.1</f>
-        <v>278.3</v>
-      </c>
-      <c r="R35" s="2">
-        <f>+N35*1.1</f>
-        <v>287.10000000000002</v>
-      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
       <c r="S35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>309.10000000000002</v>
       </c>
     </row>
@@ -2973,14 +2955,8 @@
       <c r="P36" s="2">
         <v>22563</v>
       </c>
-      <c r="Q36" s="2">
-        <f>+Q28*Q24</f>
-        <v>27600</v>
-      </c>
-      <c r="R36" s="2">
-        <f>+R28*R24</f>
-        <v>29400</v>
-      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
       <c r="S36" s="2">
         <f>+S28*S24</f>
         <v>36750</v>
@@ -3026,14 +3002,8 @@
       <c r="P37" s="5">
         <v>2647</v>
       </c>
-      <c r="Q37" s="2">
-        <f>+M37*1.1</f>
-        <v>2734.6000000000004</v>
-      </c>
-      <c r="R37" s="2">
-        <f>+N37*1.1</f>
-        <v>3141.6000000000004</v>
-      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
       <c r="S37" s="2">
         <f>+O37*1.1</f>
         <v>3190.0000000000005</v>
@@ -3095,8 +3065,7 @@
         <v>30040</v>
       </c>
       <c r="R38" s="9">
-        <f>SUM(R33:R37)</f>
-        <v>33366.6</v>
+        <v>35082</v>
       </c>
       <c r="S38" s="9">
         <f>SUM(S33:S37)</f>
@@ -3116,31 +3085,31 @@
       </c>
       <c r="AB38" s="8">
         <f>SUM(P38:S38)</f>
-        <v>130289.3</v>
+        <v>132004.70000000001</v>
       </c>
       <c r="AC38" s="8">
         <f>+AB38*1.5</f>
-        <v>195433.95</v>
+        <v>198007.05000000002</v>
       </c>
       <c r="AD38" s="8">
         <f>+AC38*1.5</f>
-        <v>293150.92500000005</v>
+        <v>297010.57500000001</v>
       </c>
       <c r="AE38" s="8">
         <f>+AD38*1.4</f>
-        <v>410411.29500000004</v>
+        <v>415814.80499999999</v>
       </c>
       <c r="AF38" s="8">
         <f>+AE38*1.4</f>
-        <v>574575.81299999997</v>
+        <v>582140.72699999996</v>
       </c>
       <c r="AG38" s="8">
         <f>+AF38*1.3</f>
-        <v>746948.55689999997</v>
+        <v>756782.94510000001</v>
       </c>
       <c r="AH38" s="8">
         <f>+AG38*1.3</f>
-        <v>971033.12396999996</v>
+        <v>983817.82863</v>
       </c>
     </row>
     <row r="39" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3189,11 +3158,10 @@
         <v>7466</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" ref="R39:S39" si="4">+R38-R40</f>
-        <v>7674.3179999999993</v>
+        <v>8926</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="R39:S39" si="3">+S38-S40</f>
         <v>8984.5139999999992</v>
       </c>
       <c r="Y39" s="2">
@@ -3207,31 +3175,31 @@
       </c>
       <c r="AB39" s="2">
         <f>+AB38-AB40</f>
-        <v>29206.032000000007</v>
+        <v>30457.714000000007</v>
       </c>
       <c r="AC39" s="2">
         <f>+AC38-AC40</f>
-        <v>42995.469000000012</v>
+        <v>43561.551000000007</v>
       </c>
       <c r="AD39" s="2">
-        <f t="shared" ref="AD39:AF39" si="5">+AD38-AD40</f>
-        <v>64493.203500000003</v>
+        <f t="shared" ref="AD39:AF39" si="4">+AD38-AD40</f>
+        <v>65342.326499999996</v>
       </c>
       <c r="AE39" s="2">
-        <f t="shared" si="5"/>
-        <v>90290.484899999981</v>
+        <f t="shared" si="4"/>
+        <v>91479.257099999988</v>
       </c>
       <c r="AF39" s="2">
-        <f t="shared" si="5"/>
-        <v>126406.67885999999</v>
+        <f t="shared" si="4"/>
+        <v>128070.95993999997</v>
       </c>
       <c r="AG39" s="2">
-        <f t="shared" ref="AG39" si="6">+AG38-AG40</f>
-        <v>164328.68251800002</v>
+        <f t="shared" ref="AG39" si="5">+AG38-AG40</f>
+        <v>166492.24792200001</v>
       </c>
       <c r="AH39" s="2">
-        <f t="shared" ref="AH39" si="7">+AH38-AH40</f>
-        <v>213627.2872734</v>
+        <f t="shared" ref="AH39" si="6">+AH38-AH40</f>
+        <v>216439.92229859997</v>
       </c>
     </row>
     <row r="40" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3293,8 +3261,8 @@
         <v>23130.799999999999</v>
       </c>
       <c r="R40" s="2">
-        <f>+R38*0.77</f>
-        <v>25692.281999999999</v>
+        <f>+R38-R39</f>
+        <v>26156</v>
       </c>
       <c r="S40" s="2">
         <f>+S38*0.78</f>
@@ -3314,31 +3282,31 @@
       </c>
       <c r="AB40" s="2">
         <f>SUM(P40:S40)</f>
-        <v>101083.268</v>
+        <v>101546.986</v>
       </c>
       <c r="AC40" s="2">
         <f>+AC38*0.78</f>
-        <v>152438.481</v>
+        <v>154445.49900000001</v>
       </c>
       <c r="AD40" s="2">
         <f>+AD38*0.78</f>
-        <v>228657.72150000004</v>
+        <v>231668.24850000002</v>
       </c>
       <c r="AE40" s="2">
         <f>+AE38*0.78</f>
-        <v>320120.81010000006</v>
+        <v>324335.54790000001</v>
       </c>
       <c r="AF40" s="2">
         <f>+AF38*0.78</f>
-        <v>448169.13413999998</v>
+        <v>454069.76705999998</v>
       </c>
       <c r="AG40" s="2">
-        <f t="shared" ref="AG40:AH40" si="8">+AG38*0.78</f>
-        <v>582619.87438199995</v>
+        <f t="shared" ref="AG40:AH40" si="7">+AG38*0.78</f>
+        <v>590290.697178</v>
       </c>
       <c r="AH40" s="2">
-        <f t="shared" si="8"/>
-        <v>757405.83669659996</v>
+        <f t="shared" si="7"/>
+        <v>767377.90633140004</v>
       </c>
     </row>
     <row r="41" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3387,12 +3355,11 @@
         <v>3090</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" ref="R41:S41" si="9">+Q41+100</f>
-        <v>3190</v>
+        <v>3390</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="9"/>
-        <v>3290</v>
+        <f t="shared" ref="R41:S41" si="8">+R41+100</f>
+        <v>3490</v>
       </c>
       <c r="Y41" s="2">
         <v>5268</v>
@@ -3405,31 +3372,31 @@
       </c>
       <c r="AB41" s="2">
         <f>SUM(P41:S41)</f>
-        <v>12290</v>
+        <v>12690</v>
       </c>
       <c r="AC41" s="2">
         <f>+AB41*1.2</f>
-        <v>14748</v>
+        <v>15228</v>
       </c>
       <c r="AD41" s="2">
-        <f t="shared" ref="AD41:AF41" si="10">+AC41*1.2</f>
-        <v>17697.599999999999</v>
+        <f t="shared" ref="AD41:AF41" si="9">+AC41*1.2</f>
+        <v>18273.599999999999</v>
       </c>
       <c r="AE41" s="2">
+        <f t="shared" si="9"/>
+        <v>21928.319999999996</v>
+      </c>
+      <c r="AF41" s="2">
+        <f t="shared" si="9"/>
+        <v>26313.983999999993</v>
+      </c>
+      <c r="AG41" s="2">
+        <f t="shared" ref="AG41:AH41" si="10">+AF41*1.2</f>
+        <v>31576.78079999999</v>
+      </c>
+      <c r="AH41" s="2">
         <f t="shared" si="10"/>
-        <v>21237.119999999999</v>
-      </c>
-      <c r="AF41" s="2">
-        <f t="shared" si="10"/>
-        <v>25484.543999999998</v>
-      </c>
-      <c r="AG41" s="2">
-        <f t="shared" ref="AG41:AH41" si="11">+AF41*1.2</f>
-        <v>30581.452799999995</v>
-      </c>
-      <c r="AH41" s="2">
-        <f t="shared" si="11"/>
-        <v>36697.743359999993</v>
+        <v>37892.136959999989</v>
       </c>
     </row>
     <row r="42" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3478,12 +3445,11 @@
         <v>842</v>
       </c>
       <c r="R42" s="2">
-        <f>+Q42+25</f>
-        <v>867</v>
+        <v>897</v>
       </c>
       <c r="S42" s="2">
         <f>+R42+25</f>
-        <v>892</v>
+        <v>922</v>
       </c>
       <c r="Y42" s="2">
         <v>2166</v>
@@ -3496,31 +3462,31 @@
       </c>
       <c r="AB42" s="2">
         <f>SUM(P42:S42)</f>
-        <v>3378</v>
+        <v>3438</v>
       </c>
       <c r="AC42" s="2">
-        <f t="shared" ref="AC42:AF42" si="12">+AB42*1.2</f>
-        <v>4053.6</v>
+        <f t="shared" ref="AC42:AF42" si="11">+AB42*1.2</f>
+        <v>4125.5999999999995</v>
       </c>
       <c r="AD42" s="2">
+        <f t="shared" si="11"/>
+        <v>4950.7199999999993</v>
+      </c>
+      <c r="AE42" s="2">
+        <f t="shared" si="11"/>
+        <v>5940.8639999999987</v>
+      </c>
+      <c r="AF42" s="2">
+        <f t="shared" si="11"/>
+        <v>7129.036799999998</v>
+      </c>
+      <c r="AG42" s="2">
+        <f t="shared" ref="AG42:AH42" si="12">+AF42*1.2</f>
+        <v>8554.8441599999969</v>
+      </c>
+      <c r="AH42" s="2">
         <f t="shared" si="12"/>
-        <v>4864.32</v>
-      </c>
-      <c r="AE42" s="2">
-        <f t="shared" si="12"/>
-        <v>5837.1839999999993</v>
-      </c>
-      <c r="AF42" s="2">
-        <f t="shared" si="12"/>
-        <v>7004.6207999999988</v>
-      </c>
-      <c r="AG42" s="2">
-        <f t="shared" ref="AG42:AH42" si="13">+AF42*1.2</f>
-        <v>8405.5449599999974</v>
-      </c>
-      <c r="AH42" s="2">
-        <f t="shared" si="13"/>
-        <v>10086.653951999997</v>
+        <v>10265.812991999996</v>
       </c>
     </row>
     <row r="43" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3528,20 +3494,20 @@
         <v>3</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43" si="14">+C41+C42</f>
+        <f t="shared" ref="C43" si="13">+C41+C42</f>
         <v>1650</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" ref="D43:E43" si="15">+D41+D42</f>
+        <f t="shared" ref="D43:E43" si="14">+D41+D42</f>
         <v>1673</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1771</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5">
-        <f t="shared" ref="G43" si="16">+G41+G42</f>
+        <f t="shared" ref="G43" si="15">+G41+G42</f>
         <v>2029</v>
       </c>
       <c r="H43" s="5">
@@ -3549,7 +3515,7 @@
         <v>2210</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" ref="I43" si="17">+I41+I42</f>
+        <f t="shared" ref="I43" si="16">+I41+I42</f>
         <v>2416</v>
       </c>
       <c r="J43" s="5">
@@ -3566,28 +3532,28 @@
         <v>2662</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" ref="N43:P43" si="18">+N41+N42</f>
+        <f t="shared" ref="N43:P43" si="17">+N41+N42</f>
         <v>2983</v>
       </c>
       <c r="O43" s="5">
+        <f t="shared" si="17"/>
+        <v>3176</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="17"/>
+        <v>3497</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" ref="Q43:S43" si="18">+Q41+Q42</f>
+        <v>3932</v>
+      </c>
+      <c r="R43" s="5">
         <f t="shared" si="18"/>
-        <v>3176</v>
-      </c>
-      <c r="P43" s="5">
+        <v>4287</v>
+      </c>
+      <c r="S43" s="5">
         <f t="shared" si="18"/>
-        <v>3497</v>
-      </c>
-      <c r="Q43" s="5">
-        <f t="shared" ref="Q43:S43" si="19">+Q41+Q42</f>
-        <v>3932</v>
-      </c>
-      <c r="R43" s="5">
-        <f t="shared" si="19"/>
-        <v>4057</v>
-      </c>
-      <c r="S43" s="5">
-        <f t="shared" si="19"/>
-        <v>4182</v>
+        <v>4412</v>
       </c>
       <c r="Y43" s="2">
         <f>+Y41+Y42</f>
@@ -3603,31 +3569,31 @@
       </c>
       <c r="AB43" s="2">
         <f>+AB41+AB42</f>
-        <v>15668</v>
+        <v>16128</v>
       </c>
       <c r="AC43" s="2">
-        <f t="shared" ref="AC43:AF43" si="20">+AC41+AC42</f>
-        <v>18801.599999999999</v>
+        <f t="shared" ref="AC43:AF43" si="19">+AC41+AC42</f>
+        <v>19353.599999999999</v>
       </c>
       <c r="AD43" s="2">
-        <f t="shared" si="20"/>
-        <v>22561.919999999998</v>
+        <f t="shared" si="19"/>
+        <v>23224.32</v>
       </c>
       <c r="AE43" s="2">
-        <f t="shared" si="20"/>
-        <v>27074.303999999996</v>
+        <f t="shared" si="19"/>
+        <v>27869.183999999994</v>
       </c>
       <c r="AF43" s="2">
-        <f t="shared" si="20"/>
-        <v>32489.164799999999</v>
+        <f t="shared" si="19"/>
+        <v>33443.020799999991</v>
       </c>
       <c r="AG43" s="2">
-        <f t="shared" ref="AG43" si="21">+AG41+AG42</f>
-        <v>38986.997759999991</v>
+        <f t="shared" ref="AG43" si="20">+AG41+AG42</f>
+        <v>40131.624959999986</v>
       </c>
       <c r="AH43" s="2">
-        <f t="shared" ref="AH43" si="22">+AH41+AH42</f>
-        <v>46784.397311999986</v>
+        <f t="shared" ref="AH43" si="21">+AH41+AH42</f>
+        <v>48157.949951999981</v>
       </c>
     </row>
     <row r="44" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3635,20 +3601,20 @@
         <v>2</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44" si="23">+C40-C43</f>
+        <f t="shared" ref="C44" si="22">+C40-C43</f>
         <v>1507</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" ref="D44:E44" si="24">+D40-D43</f>
+        <f t="shared" ref="D44:E44" si="23">+D40-D43</f>
         <v>1956</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2444</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5">
-        <f t="shared" ref="G44" si="25">+G40-G43</f>
+        <f t="shared" ref="G44" si="24">+G40-G43</f>
         <v>2970</v>
       </c>
       <c r="H44" s="5">
@@ -3656,7 +3622,7 @@
         <v>3221</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" ref="I44" si="26">+I40-I43</f>
+        <f t="shared" ref="I44" si="25">+I40-I43</f>
         <v>499</v>
       </c>
       <c r="J44" s="5">
@@ -3673,28 +3639,28 @@
         <v>6800</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" ref="N44:P44" si="27">+N40-N43</f>
+        <f t="shared" ref="N44:P44" si="26">+N40-N43</f>
         <v>10417</v>
       </c>
       <c r="O44" s="5">
+        <f t="shared" si="26"/>
+        <v>13615</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="26"/>
+        <v>16909</v>
+      </c>
+      <c r="Q44" s="5">
+        <f t="shared" ref="Q44:S44" si="27">+Q40-Q43</f>
+        <v>19198.8</v>
+      </c>
+      <c r="R44" s="5">
         <f t="shared" si="27"/>
-        <v>13615</v>
-      </c>
-      <c r="P44" s="5">
+        <v>21869</v>
+      </c>
+      <c r="S44" s="5">
         <f t="shared" si="27"/>
-        <v>16909</v>
-      </c>
-      <c r="Q44" s="5">
-        <f t="shared" ref="Q44:S44" si="28">+Q40-Q43</f>
-        <v>19198.8</v>
-      </c>
-      <c r="R44" s="5">
-        <f t="shared" si="28"/>
-        <v>21635.281999999999</v>
-      </c>
-      <c r="S44" s="5">
-        <f t="shared" si="28"/>
-        <v>27672.185999999998</v>
+        <v>27442.185999999998</v>
       </c>
       <c r="Y44" s="2">
         <f>+Y40-Y43</f>
@@ -3710,31 +3676,31 @@
       </c>
       <c r="AB44" s="2">
         <f>+AB40-AB43</f>
-        <v>85415.267999999996</v>
+        <v>85418.986000000004</v>
       </c>
       <c r="AC44" s="2">
-        <f t="shared" ref="AC44:AF44" si="29">+AC40-AC43</f>
-        <v>133636.88099999999</v>
+        <f t="shared" ref="AC44:AF44" si="28">+AC40-AC43</f>
+        <v>135091.899</v>
       </c>
       <c r="AD44" s="2">
-        <f t="shared" si="29"/>
-        <v>206095.80150000006</v>
+        <f t="shared" si="28"/>
+        <v>208443.92850000001</v>
       </c>
       <c r="AE44" s="2">
-        <f t="shared" si="29"/>
-        <v>293046.50610000006</v>
+        <f t="shared" si="28"/>
+        <v>296466.3639</v>
       </c>
       <c r="AF44" s="2">
-        <f t="shared" si="29"/>
-        <v>415679.96933999995</v>
+        <f t="shared" si="28"/>
+        <v>420626.74625999999</v>
       </c>
       <c r="AG44" s="2">
-        <f t="shared" ref="AG44" si="30">+AG40-AG43</f>
-        <v>543632.87662200001</v>
+        <f t="shared" ref="AG44" si="29">+AG40-AG43</f>
+        <v>550159.07221799996</v>
       </c>
       <c r="AH44" s="2">
-        <f t="shared" ref="AH44" si="31">+AH40-AH43</f>
-        <v>710621.43938459991</v>
+        <f t="shared" ref="AH44" si="30">+AH40-AH43</f>
+        <v>719219.9563794001</v>
       </c>
     </row>
     <row r="45" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3788,12 +3754,12 @@
         <v>572</v>
       </c>
       <c r="R45" s="2">
-        <f>+Q45</f>
-        <v>572</v>
+        <f>472-61+36</f>
+        <v>447</v>
       </c>
       <c r="S45" s="2">
         <f>+R45</f>
-        <v>572</v>
+        <v>447</v>
       </c>
       <c r="Y45" s="2">
         <f>29-236+107</f>
@@ -3809,31 +3775,31 @@
       </c>
       <c r="AB45" s="2">
         <f>SUM(P45:S45)</f>
-        <v>2086</v>
+        <v>1836</v>
       </c>
       <c r="AC45" s="2">
         <f>+AB45*1.1</f>
-        <v>2294.6000000000004</v>
+        <v>2019.6000000000001</v>
       </c>
       <c r="AD45" s="2">
         <f>+AC45*1.1</f>
-        <v>2524.0600000000004</v>
+        <v>2221.5600000000004</v>
       </c>
       <c r="AE45" s="2">
         <f>+AD45*1.1</f>
-        <v>2776.4660000000008</v>
+        <v>2443.7160000000008</v>
       </c>
       <c r="AF45" s="2">
         <f>+AE45*1.1</f>
-        <v>3054.1126000000013</v>
+        <v>2688.0876000000012</v>
       </c>
       <c r="AG45" s="2">
-        <f t="shared" ref="AG45:AH45" si="32">+AF45*1.1</f>
-        <v>3359.5238600000016</v>
+        <f t="shared" ref="AG45:AH45" si="31">+AF45*1.1</f>
+        <v>2956.8963600000016</v>
       </c>
       <c r="AH45" s="2">
-        <f t="shared" si="32"/>
-        <v>3695.476246000002</v>
+        <f t="shared" si="31"/>
+        <v>3252.5859960000021</v>
       </c>
     </row>
     <row r="46" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3879,28 +3845,28 @@
         <v>6981</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" ref="N46:S46" si="33">+N44+N45</f>
+        <f t="shared" ref="N46:S46" si="32">+N44+N45</f>
         <v>10522</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>14106</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>17279</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>19770.8</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="33"/>
-        <v>22207.281999999999</v>
+        <f t="shared" si="32"/>
+        <v>22316</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="33"/>
-        <v>28244.185999999998</v>
+        <f t="shared" si="32"/>
+        <v>27889.185999999998</v>
       </c>
       <c r="Y46" s="2">
         <f>+Y44+Y45</f>
@@ -3916,31 +3882,31 @@
       </c>
       <c r="AB46" s="2">
         <f>+AB44+AB45</f>
-        <v>87501.267999999996</v>
+        <v>87254.986000000004</v>
       </c>
       <c r="AC46" s="2">
-        <f t="shared" ref="AC46:AF46" si="34">+AC44+AC45</f>
-        <v>135931.481</v>
+        <f t="shared" ref="AC46:AF46" si="33">+AC44+AC45</f>
+        <v>137111.49900000001</v>
       </c>
       <c r="AD46" s="2">
-        <f t="shared" si="34"/>
-        <v>208619.86150000006</v>
+        <f t="shared" si="33"/>
+        <v>210665.48850000001</v>
       </c>
       <c r="AE46" s="2">
-        <f t="shared" si="34"/>
-        <v>295822.97210000007</v>
+        <f t="shared" si="33"/>
+        <v>298910.07990000001</v>
       </c>
       <c r="AF46" s="2">
-        <f t="shared" si="34"/>
-        <v>418734.08193999995</v>
+        <f t="shared" si="33"/>
+        <v>423314.83386000001</v>
       </c>
       <c r="AG46" s="2">
-        <f t="shared" ref="AG46" si="35">+AG44+AG45</f>
-        <v>546992.40048199997</v>
+        <f t="shared" ref="AG46" si="34">+AG44+AG45</f>
+        <v>553115.96857799997</v>
       </c>
       <c r="AH46" s="2">
-        <f t="shared" ref="AH46" si="36">+AH44+AH45</f>
-        <v>714316.91563059995</v>
+        <f t="shared" ref="AH46" si="35">+AH44+AH45</f>
+        <v>722472.54237540008</v>
       </c>
     </row>
     <row r="47" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3989,12 +3955,11 @@
         <v>2615</v>
       </c>
       <c r="R47" s="2">
-        <f>+R46*0.15</f>
-        <v>3331.0922999999998</v>
+        <v>3007</v>
       </c>
       <c r="S47" s="2">
         <f>+S46*0.15</f>
-        <v>4236.6278999999995</v>
+        <v>4183.3778999999995</v>
       </c>
       <c r="Y47" s="2">
         <v>189</v>
@@ -4007,31 +3972,31 @@
       </c>
       <c r="AB47" s="2">
         <f>+AB46*0.2</f>
-        <v>17500.2536</v>
+        <v>17450.997200000002</v>
       </c>
       <c r="AC47" s="2">
-        <f t="shared" ref="AC47:AF47" si="37">+AC46*0.2</f>
-        <v>27186.296200000001</v>
+        <f t="shared" ref="AC47:AF47" si="36">+AC46*0.2</f>
+        <v>27422.299800000004</v>
       </c>
       <c r="AD47" s="2">
-        <f t="shared" si="37"/>
-        <v>41723.972300000016</v>
+        <f t="shared" si="36"/>
+        <v>42133.097700000006</v>
       </c>
       <c r="AE47" s="2">
-        <f t="shared" si="37"/>
-        <v>59164.594420000016</v>
+        <f t="shared" si="36"/>
+        <v>59782.015980000004</v>
       </c>
       <c r="AF47" s="2">
-        <f t="shared" si="37"/>
-        <v>83746.816387999992</v>
+        <f t="shared" si="36"/>
+        <v>84662.966772000014</v>
       </c>
       <c r="AG47" s="2">
-        <f t="shared" ref="AG47" si="38">+AG46*0.2</f>
-        <v>109398.4800964</v>
+        <f t="shared" ref="AG47" si="37">+AG46*0.2</f>
+        <v>110623.19371560001</v>
       </c>
       <c r="AH47" s="2">
-        <f t="shared" ref="AH47" si="39">+AH46*0.2</f>
-        <v>142863.38312612</v>
+        <f t="shared" ref="AH47" si="38">+AH46*0.2</f>
+        <v>144494.50847508002</v>
       </c>
     </row>
     <row r="48" spans="2:130" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4077,7 +4042,7 @@
         <v>6188</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" ref="N48" si="40">N46-N47</f>
+        <f t="shared" ref="N48" si="39">N46-N47</f>
         <v>9243</v>
       </c>
       <c r="O48" s="2">
@@ -4089,16 +4054,16 @@
         <v>14881</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" ref="Q48:S48" si="41">+Q46-Q47</f>
+        <f t="shared" ref="Q48:S48" si="40">+Q46-Q47</f>
         <v>17155.8</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="41"/>
-        <v>18876.189699999999</v>
+        <f t="shared" si="40"/>
+        <v>19309</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="41"/>
-        <v>24007.558099999998</v>
+        <f t="shared" si="40"/>
+        <v>23705.808099999998</v>
       </c>
       <c r="Y48" s="2">
         <f>+Y46-Y47</f>
@@ -4114,415 +4079,415 @@
       </c>
       <c r="AB48" s="2">
         <f>+AB46-AB47</f>
-        <v>70001.0144</v>
+        <v>69803.988800000006</v>
       </c>
       <c r="AC48" s="2">
-        <f t="shared" ref="AC48:AF48" si="42">+AC46-AC47</f>
-        <v>108745.1848</v>
+        <f t="shared" ref="AC48:AF48" si="41">+AC46-AC47</f>
+        <v>109689.1992</v>
       </c>
       <c r="AD48" s="2">
-        <f t="shared" si="42"/>
-        <v>166895.88920000003</v>
+        <f t="shared" si="41"/>
+        <v>168532.39079999999</v>
       </c>
       <c r="AE48" s="2">
-        <f t="shared" si="42"/>
-        <v>236658.37768000006</v>
+        <f t="shared" si="41"/>
+        <v>239128.06392000002</v>
       </c>
       <c r="AF48" s="2">
-        <f t="shared" si="42"/>
-        <v>334987.26555199997</v>
+        <f t="shared" si="41"/>
+        <v>338651.867088</v>
       </c>
       <c r="AG48" s="2">
-        <f t="shared" ref="AG48" si="43">+AG46-AG47</f>
-        <v>437593.92038559995</v>
+        <f t="shared" ref="AG48" si="42">+AG46-AG47</f>
+        <v>442492.77486239997</v>
       </c>
       <c r="AH48" s="2">
-        <f t="shared" ref="AH48" si="44">+AH46-AH47</f>
-        <v>571453.53250447998</v>
+        <f t="shared" ref="AH48" si="43">+AH46-AH47</f>
+        <v>577978.03390032006</v>
       </c>
       <c r="AI48" s="2">
         <f>AH48*(1+$AI$54)</f>
-        <v>588597.1384796144</v>
+        <v>595317.37491732964</v>
       </c>
       <c r="AJ48" s="2">
-        <f t="shared" ref="AJ48:CU48" si="45">AI48*(1+$AI$54)</f>
-        <v>606255.05263400287</v>
+        <f t="shared" ref="AJ48:CU48" si="44">AI48*(1+$AI$54)</f>
+        <v>613176.89616484952</v>
       </c>
       <c r="AK48" s="2">
+        <f t="shared" si="44"/>
+        <v>631572.203049795</v>
+      </c>
+      <c r="AL48" s="2">
+        <f t="shared" si="44"/>
+        <v>650519.36914128892</v>
+      </c>
+      <c r="AM48" s="2">
+        <f t="shared" si="44"/>
+        <v>670034.95021552755</v>
+      </c>
+      <c r="AN48" s="2">
+        <f t="shared" si="44"/>
+        <v>690135.99872199341</v>
+      </c>
+      <c r="AO48" s="2">
+        <f t="shared" si="44"/>
+        <v>710840.07868365326</v>
+      </c>
+      <c r="AP48" s="2">
+        <f t="shared" si="44"/>
+        <v>732165.28104416293</v>
+      </c>
+      <c r="AQ48" s="2">
+        <f t="shared" si="44"/>
+        <v>754130.23947548785</v>
+      </c>
+      <c r="AR48" s="2">
+        <f t="shared" si="44"/>
+        <v>776754.14665975247</v>
+      </c>
+      <c r="AS48" s="2">
+        <f t="shared" si="44"/>
+        <v>800056.77105954511</v>
+      </c>
+      <c r="AT48" s="2">
+        <f t="shared" si="44"/>
+        <v>824058.47419133154</v>
+      </c>
+      <c r="AU48" s="2">
+        <f t="shared" si="44"/>
+        <v>848780.22841707151</v>
+      </c>
+      <c r="AV48" s="2">
+        <f t="shared" si="44"/>
+        <v>874243.63526958367</v>
+      </c>
+      <c r="AW48" s="2">
+        <f t="shared" si="44"/>
+        <v>900470.9443276712</v>
+      </c>
+      <c r="AX48" s="2">
+        <f t="shared" si="44"/>
+        <v>927485.07265750133</v>
+      </c>
+      <c r="AY48" s="2">
+        <f t="shared" si="44"/>
+        <v>955309.62483722635</v>
+      </c>
+      <c r="AZ48" s="2">
+        <f t="shared" si="44"/>
+        <v>983968.91358234314</v>
+      </c>
+      <c r="BA48" s="2">
+        <f t="shared" si="44"/>
+        <v>1013487.9809898135</v>
+      </c>
+      <c r="BB48" s="2">
+        <f t="shared" si="44"/>
+        <v>1043892.6204195078</v>
+      </c>
+      <c r="BC48" s="2">
+        <f t="shared" si="44"/>
+        <v>1075209.3990320931</v>
+      </c>
+      <c r="BD48" s="2">
+        <f t="shared" si="44"/>
+        <v>1107465.681003056</v>
+      </c>
+      <c r="BE48" s="2">
+        <f t="shared" si="44"/>
+        <v>1140689.6514331477</v>
+      </c>
+      <c r="BF48" s="2">
+        <f t="shared" si="44"/>
+        <v>1174910.3409761421</v>
+      </c>
+      <c r="BG48" s="2">
+        <f t="shared" si="44"/>
+        <v>1210157.6512054263</v>
+      </c>
+      <c r="BH48" s="2">
+        <f t="shared" si="44"/>
+        <v>1246462.3807415892</v>
+      </c>
+      <c r="BI48" s="2">
+        <f t="shared" si="44"/>
+        <v>1283856.252163837</v>
+      </c>
+      <c r="BJ48" s="2">
+        <f t="shared" si="44"/>
+        <v>1322371.939728752</v>
+      </c>
+      <c r="BK48" s="2">
+        <f t="shared" si="44"/>
+        <v>1362043.0979206145</v>
+      </c>
+      <c r="BL48" s="2">
+        <f t="shared" si="44"/>
+        <v>1402904.390858233</v>
+      </c>
+      <c r="BM48" s="2">
+        <f t="shared" si="44"/>
+        <v>1444991.5225839801</v>
+      </c>
+      <c r="BN48" s="2">
+        <f t="shared" si="44"/>
+        <v>1488341.2682614995</v>
+      </c>
+      <c r="BO48" s="2">
+        <f t="shared" si="44"/>
+        <v>1532991.5063093444</v>
+      </c>
+      <c r="BP48" s="2">
+        <f t="shared" si="44"/>
+        <v>1578981.2514986249</v>
+      </c>
+      <c r="BQ48" s="2">
+        <f t="shared" si="44"/>
+        <v>1626350.6890435838</v>
+      </c>
+      <c r="BR48" s="2">
+        <f t="shared" si="44"/>
+        <v>1675141.2097148914</v>
+      </c>
+      <c r="BS48" s="2">
+        <f t="shared" si="44"/>
+        <v>1725395.4460063381</v>
+      </c>
+      <c r="BT48" s="2">
+        <f t="shared" si="44"/>
+        <v>1777157.3093865283</v>
+      </c>
+      <c r="BU48" s="2">
+        <f t="shared" si="44"/>
+        <v>1830472.0286681242</v>
+      </c>
+      <c r="BV48" s="2">
+        <f t="shared" si="44"/>
+        <v>1885386.1895281679</v>
+      </c>
+      <c r="BW48" s="2">
+        <f t="shared" si="44"/>
+        <v>1941947.7752140129</v>
+      </c>
+      <c r="BX48" s="2">
+        <f t="shared" si="44"/>
+        <v>2000206.2084704335</v>
+      </c>
+      <c r="BY48" s="2">
+        <f t="shared" si="44"/>
+        <v>2060212.3947245465</v>
+      </c>
+      <c r="BZ48" s="2">
+        <f t="shared" si="44"/>
+        <v>2122018.7665662831</v>
+      </c>
+      <c r="CA48" s="2">
+        <f t="shared" si="44"/>
+        <v>2185679.3295632717</v>
+      </c>
+      <c r="CB48" s="2">
+        <f t="shared" si="44"/>
+        <v>2251249.7094501699</v>
+      </c>
+      <c r="CC48" s="2">
+        <f t="shared" si="44"/>
+        <v>2318787.2007336752</v>
+      </c>
+      <c r="CD48" s="2">
+        <f t="shared" si="44"/>
+        <v>2388350.8167556855</v>
+      </c>
+      <c r="CE48" s="2">
+        <f t="shared" si="44"/>
+        <v>2460001.3412583563</v>
+      </c>
+      <c r="CF48" s="2">
+        <f t="shared" si="44"/>
+        <v>2533801.3814961072</v>
+      </c>
+      <c r="CG48" s="2">
+        <f t="shared" si="44"/>
+        <v>2609815.4229409904</v>
+      </c>
+      <c r="CH48" s="2">
+        <f t="shared" si="44"/>
+        <v>2688109.8856292204</v>
+      </c>
+      <c r="CI48" s="2">
+        <f t="shared" si="44"/>
+        <v>2768753.182198097</v>
+      </c>
+      <c r="CJ48" s="2">
+        <f t="shared" si="44"/>
+        <v>2851815.7776640397</v>
+      </c>
+      <c r="CK48" s="2">
+        <f t="shared" si="44"/>
+        <v>2937370.250993961</v>
+      </c>
+      <c r="CL48" s="2">
+        <f t="shared" si="44"/>
+        <v>3025491.35852378</v>
+      </c>
+      <c r="CM48" s="2">
+        <f t="shared" si="44"/>
+        <v>3116256.0992794936</v>
+      </c>
+      <c r="CN48" s="2">
+        <f t="shared" si="44"/>
+        <v>3209743.7822578782</v>
+      </c>
+      <c r="CO48" s="2">
+        <f t="shared" si="44"/>
+        <v>3306036.0957256146</v>
+      </c>
+      <c r="CP48" s="2">
+        <f t="shared" si="44"/>
+        <v>3405217.1785973832</v>
+      </c>
+      <c r="CQ48" s="2">
+        <f t="shared" si="44"/>
+        <v>3507373.6939553046</v>
+      </c>
+      <c r="CR48" s="2">
+        <f t="shared" si="44"/>
+        <v>3612594.9047739636</v>
+      </c>
+      <c r="CS48" s="2">
+        <f t="shared" si="44"/>
+        <v>3720972.7519171825</v>
+      </c>
+      <c r="CT48" s="2">
+        <f t="shared" si="44"/>
+        <v>3832601.9344746983</v>
+      </c>
+      <c r="CU48" s="2">
+        <f t="shared" si="44"/>
+        <v>3947579.9925089395</v>
+      </c>
+      <c r="CV48" s="2">
+        <f t="shared" ref="CV48:DZ48" si="45">CU48*(1+$AI$54)</f>
+        <v>4066007.392284208</v>
+      </c>
+      <c r="CW48" s="2">
         <f t="shared" si="45"/>
-        <v>624442.70421302295</v>
-      </c>
-      <c r="AL48" s="2">
+        <v>4187987.6140527343</v>
+      </c>
+      <c r="CX48" s="2">
         <f t="shared" si="45"/>
-        <v>643175.98533941363</v>
-      </c>
-      <c r="AM48" s="2">
+        <v>4313627.2424743166</v>
+      </c>
+      <c r="CY48" s="2">
         <f t="shared" si="45"/>
-        <v>662471.26489959611</v>
-      </c>
-      <c r="AN48" s="2">
+        <v>4443036.0597485462</v>
+      </c>
+      <c r="CZ48" s="2">
         <f t="shared" si="45"/>
-        <v>682345.40284658398</v>
-      </c>
-      <c r="AO48" s="2">
+        <v>4576327.1415410023</v>
+      </c>
+      <c r="DA48" s="2">
         <f t="shared" si="45"/>
-        <v>702815.76493198157</v>
-      </c>
-      <c r="AP48" s="2">
+        <v>4713616.9557872321</v>
+      </c>
+      <c r="DB48" s="2">
         <f t="shared" si="45"/>
-        <v>723900.23787994101</v>
-      </c>
-      <c r="AQ48" s="2">
+        <v>4855025.4644608488</v>
+      </c>
+      <c r="DC48" s="2">
         <f t="shared" si="45"/>
-        <v>745617.24501633924</v>
-      </c>
-      <c r="AR48" s="2">
+        <v>5000676.2283946741</v>
+      </c>
+      <c r="DD48" s="2">
         <f t="shared" si="45"/>
-        <v>767985.76236682944</v>
-      </c>
-      <c r="AS48" s="2">
+        <v>5150696.5152465142</v>
+      </c>
+      <c r="DE48" s="2">
         <f t="shared" si="45"/>
-        <v>791025.33523783437</v>
-      </c>
-      <c r="AT48" s="2">
+        <v>5305217.4107039096</v>
+      </c>
+      <c r="DF48" s="2">
         <f t="shared" si="45"/>
-        <v>814756.09529496939</v>
-      </c>
-      <c r="AU48" s="2">
+        <v>5464373.9330250267</v>
+      </c>
+      <c r="DG48" s="2">
         <f t="shared" si="45"/>
-        <v>839198.77815381845</v>
-      </c>
-      <c r="AV48" s="2">
+        <v>5628305.1510157781</v>
+      </c>
+      <c r="DH48" s="2">
         <f t="shared" si="45"/>
-        <v>864374.74149843305</v>
-      </c>
-      <c r="AW48" s="2">
+        <v>5797154.3055462511</v>
+      </c>
+      <c r="DI48" s="2">
         <f t="shared" si="45"/>
-        <v>890305.98374338611</v>
-      </c>
-      <c r="AX48" s="2">
+        <v>5971068.9347126391</v>
+      </c>
+      <c r="DJ48" s="2">
         <f t="shared" si="45"/>
-        <v>917015.16325568769</v>
-      </c>
-      <c r="AY48" s="2">
+        <v>6150201.0027540186</v>
+      </c>
+      <c r="DK48" s="2">
         <f t="shared" si="45"/>
-        <v>944525.61815335834</v>
-      </c>
-      <c r="AZ48" s="2">
+        <v>6334707.0328366393</v>
+      </c>
+      <c r="DL48" s="2">
         <f t="shared" si="45"/>
-        <v>972861.38669795915</v>
-      </c>
-      <c r="BA48" s="2">
+        <v>6524748.2438217383</v>
+      </c>
+      <c r="DM48" s="2">
         <f t="shared" si="45"/>
-        <v>1002047.228298898</v>
-      </c>
-      <c r="BB48" s="2">
+        <v>6720490.6911363909</v>
+      </c>
+      <c r="DN48" s="2">
         <f t="shared" si="45"/>
-        <v>1032108.6451478649</v>
-      </c>
-      <c r="BC48" s="2">
+        <v>6922105.4118704824</v>
+      </c>
+      <c r="DO48" s="2">
         <f t="shared" si="45"/>
-        <v>1063071.904502301</v>
-      </c>
-      <c r="BD48" s="2">
+        <v>7129768.5742265973</v>
+      </c>
+      <c r="DP48" s="2">
         <f t="shared" si="45"/>
-        <v>1094964.0616373701</v>
-      </c>
-      <c r="BE48" s="2">
+        <v>7343661.6314533958</v>
+      </c>
+      <c r="DQ48" s="2">
         <f t="shared" si="45"/>
-        <v>1127812.9834864913</v>
-      </c>
-      <c r="BF48" s="2">
+        <v>7563971.4803969981</v>
+      </c>
+      <c r="DR48" s="2">
         <f t="shared" si="45"/>
-        <v>1161647.372991086</v>
-      </c>
-      <c r="BG48" s="2">
+        <v>7790890.6248089084</v>
+      </c>
+      <c r="DS48" s="2">
         <f t="shared" si="45"/>
-        <v>1196496.7941808186</v>
-      </c>
-      <c r="BH48" s="2">
+        <v>8024617.3435531761</v>
+      </c>
+      <c r="DT48" s="2">
         <f t="shared" si="45"/>
-        <v>1232391.6980062432</v>
-      </c>
-      <c r="BI48" s="2">
+        <v>8265355.8638597718</v>
+      </c>
+      <c r="DU48" s="2">
         <f t="shared" si="45"/>
-        <v>1269363.4489464306</v>
-      </c>
-      <c r="BJ48" s="2">
+        <v>8513316.5397755653</v>
+      </c>
+      <c r="DV48" s="2">
         <f t="shared" si="45"/>
-        <v>1307444.3524148236</v>
-      </c>
-      <c r="BK48" s="2">
+        <v>8768716.0359688327</v>
+      </c>
+      <c r="DW48" s="2">
         <f t="shared" si="45"/>
-        <v>1346667.6829872683</v>
-      </c>
-      <c r="BL48" s="2">
+        <v>9031777.517047897</v>
+      </c>
+      <c r="DX48" s="2">
         <f t="shared" si="45"/>
-        <v>1387067.7134768865</v>
-      </c>
-      <c r="BM48" s="2">
+        <v>9302730.8425593339</v>
+      </c>
+      <c r="DY48" s="2">
         <f t="shared" si="45"/>
-        <v>1428679.7448811932</v>
-      </c>
-      <c r="BN48" s="2">
+        <v>9581812.7678361144</v>
+      </c>
+      <c r="DZ48" s="2">
         <f t="shared" si="45"/>
-        <v>1471540.1372276291</v>
-      </c>
-      <c r="BO48" s="2">
-        <f t="shared" si="45"/>
-        <v>1515686.3413444581</v>
-      </c>
-      <c r="BP48" s="2">
-        <f t="shared" si="45"/>
-        <v>1561156.9315847917</v>
-      </c>
-      <c r="BQ48" s="2">
-        <f t="shared" si="45"/>
-        <v>1607991.6395323356</v>
-      </c>
-      <c r="BR48" s="2">
-        <f t="shared" si="45"/>
-        <v>1656231.3887183056</v>
-      </c>
-      <c r="BS48" s="2">
-        <f t="shared" si="45"/>
-        <v>1705918.3303798549</v>
-      </c>
-      <c r="BT48" s="2">
-        <f t="shared" si="45"/>
-        <v>1757095.8802912505</v>
-      </c>
-      <c r="BU48" s="2">
-        <f t="shared" si="45"/>
-        <v>1809808.7566999882</v>
-      </c>
-      <c r="BV48" s="2">
-        <f t="shared" si="45"/>
-        <v>1864103.0194009878</v>
-      </c>
-      <c r="BW48" s="2">
-        <f t="shared" si="45"/>
-        <v>1920026.1099830174</v>
-      </c>
-      <c r="BX48" s="2">
-        <f t="shared" si="45"/>
-        <v>1977626.893282508</v>
-      </c>
-      <c r="BY48" s="2">
-        <f t="shared" si="45"/>
-        <v>2036955.7000809833</v>
-      </c>
-      <c r="BZ48" s="2">
-        <f t="shared" si="45"/>
-        <v>2098064.3710834128</v>
-      </c>
-      <c r="CA48" s="2">
-        <f t="shared" si="45"/>
-        <v>2161006.3022159152</v>
-      </c>
-      <c r="CB48" s="2">
-        <f t="shared" si="45"/>
-        <v>2225836.4912823928</v>
-      </c>
-      <c r="CC48" s="2">
-        <f t="shared" si="45"/>
-        <v>2292611.5860208645</v>
-      </c>
-      <c r="CD48" s="2">
-        <f t="shared" si="45"/>
-        <v>2361389.9336014907</v>
-      </c>
-      <c r="CE48" s="2">
-        <f t="shared" si="45"/>
-        <v>2432231.6316095353</v>
-      </c>
-      <c r="CF48" s="2">
-        <f t="shared" si="45"/>
-        <v>2505198.5805578213</v>
-      </c>
-      <c r="CG48" s="2">
-        <f t="shared" si="45"/>
-        <v>2580354.537974556</v>
-      </c>
-      <c r="CH48" s="2">
-        <f t="shared" si="45"/>
-        <v>2657765.1741137928</v>
-      </c>
-      <c r="CI48" s="2">
-        <f t="shared" si="45"/>
-        <v>2737498.1293372065</v>
-      </c>
-      <c r="CJ48" s="2">
-        <f t="shared" si="45"/>
-        <v>2819623.0732173226</v>
-      </c>
-      <c r="CK48" s="2">
-        <f t="shared" si="45"/>
-        <v>2904211.7654138422</v>
-      </c>
-      <c r="CL48" s="2">
-        <f t="shared" si="45"/>
-        <v>2991338.1183762574</v>
-      </c>
-      <c r="CM48" s="2">
-        <f t="shared" si="45"/>
-        <v>3081078.2619275451</v>
-      </c>
-      <c r="CN48" s="2">
-        <f t="shared" si="45"/>
-        <v>3173510.6097853715</v>
-      </c>
-      <c r="CO48" s="2">
-        <f t="shared" si="45"/>
-        <v>3268715.9280789327</v>
-      </c>
-      <c r="CP48" s="2">
-        <f t="shared" si="45"/>
-        <v>3366777.4059213009</v>
-      </c>
-      <c r="CQ48" s="2">
-        <f t="shared" si="45"/>
-        <v>3467780.7280989401</v>
-      </c>
-      <c r="CR48" s="2">
-        <f t="shared" si="45"/>
-        <v>3571814.1499419082</v>
-      </c>
-      <c r="CS48" s="2">
-        <f t="shared" si="45"/>
-        <v>3678968.5744401654</v>
-      </c>
-      <c r="CT48" s="2">
-        <f t="shared" si="45"/>
-        <v>3789337.6316733705</v>
-      </c>
-      <c r="CU48" s="2">
-        <f t="shared" si="45"/>
-        <v>3903017.7606235719</v>
-      </c>
-      <c r="CV48" s="2">
-        <f t="shared" ref="CV48:DZ48" si="46">CU48*(1+$AI$54)</f>
-        <v>4020108.2934422791</v>
-      </c>
-      <c r="CW48" s="2">
-        <f t="shared" si="46"/>
-        <v>4140711.5422455478</v>
-      </c>
-      <c r="CX48" s="2">
-        <f t="shared" si="46"/>
-        <v>4264932.8885129141</v>
-      </c>
-      <c r="CY48" s="2">
-        <f t="shared" si="46"/>
-        <v>4392880.8751683012</v>
-      </c>
-      <c r="CZ48" s="2">
-        <f t="shared" si="46"/>
-        <v>4524667.3014233503</v>
-      </c>
-      <c r="DA48" s="2">
-        <f t="shared" si="46"/>
-        <v>4660407.3204660509</v>
-      </c>
-      <c r="DB48" s="2">
-        <f t="shared" si="46"/>
-        <v>4800219.5400800323</v>
-      </c>
-      <c r="DC48" s="2">
-        <f t="shared" si="46"/>
-        <v>4944226.126282433</v>
-      </c>
-      <c r="DD48" s="2">
-        <f t="shared" si="46"/>
-        <v>5092552.9100709064</v>
-      </c>
-      <c r="DE48" s="2">
-        <f t="shared" si="46"/>
-        <v>5245329.4973730333</v>
-      </c>
-      <c r="DF48" s="2">
-        <f t="shared" si="46"/>
-        <v>5402689.3822942246</v>
-      </c>
-      <c r="DG48" s="2">
-        <f t="shared" si="46"/>
-        <v>5564770.0637630513</v>
-      </c>
-      <c r="DH48" s="2">
-        <f t="shared" si="46"/>
-        <v>5731713.1656759428</v>
-      </c>
-      <c r="DI48" s="2">
-        <f t="shared" si="46"/>
-        <v>5903664.560646221</v>
-      </c>
-      <c r="DJ48" s="2">
-        <f t="shared" si="46"/>
-        <v>6080774.4974656077</v>
-      </c>
-      <c r="DK48" s="2">
-        <f t="shared" si="46"/>
-        <v>6263197.7323895758</v>
-      </c>
-      <c r="DL48" s="2">
-        <f t="shared" si="46"/>
-        <v>6451093.6643612636</v>
-      </c>
-      <c r="DM48" s="2">
-        <f t="shared" si="46"/>
-        <v>6644626.4742921013</v>
-      </c>
-      <c r="DN48" s="2">
-        <f t="shared" si="46"/>
-        <v>6843965.2685208647</v>
-      </c>
-      <c r="DO48" s="2">
-        <f t="shared" si="46"/>
-        <v>7049284.2265764903</v>
-      </c>
-      <c r="DP48" s="2">
-        <f t="shared" si="46"/>
-        <v>7260762.7533737849</v>
-      </c>
-      <c r="DQ48" s="2">
-        <f t="shared" si="46"/>
-        <v>7478585.6359749986</v>
-      </c>
-      <c r="DR48" s="2">
-        <f t="shared" si="46"/>
-        <v>7702943.2050542487</v>
-      </c>
-      <c r="DS48" s="2">
-        <f t="shared" si="46"/>
-        <v>7934031.5012058765</v>
-      </c>
-      <c r="DT48" s="2">
-        <f t="shared" si="46"/>
-        <v>8172052.4462420531</v>
-      </c>
-      <c r="DU48" s="2">
-        <f t="shared" si="46"/>
-        <v>8417214.0196293145</v>
-      </c>
-      <c r="DV48" s="2">
-        <f t="shared" si="46"/>
-        <v>8669730.4402181935</v>
-      </c>
-      <c r="DW48" s="2">
-        <f t="shared" si="46"/>
-        <v>8929822.3534247391</v>
-      </c>
-      <c r="DX48" s="2">
-        <f t="shared" si="46"/>
-        <v>9197717.0240274817</v>
-      </c>
-      <c r="DY48" s="2">
-        <f t="shared" si="46"/>
-        <v>9473648.5347483065</v>
-      </c>
-      <c r="DZ48" s="2">
-        <f t="shared" si="46"/>
-        <v>9757857.9907907564</v>
+        <v>9869267.1508711986</v>
       </c>
     </row>
     <row r="49" spans="2:36" x14ac:dyDescent="0.2">
@@ -4568,68 +4533,68 @@
         <v>2.4761904761904763</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" ref="N49:P49" si="47">+N48/N50</f>
+        <f t="shared" ref="N49:P49" si="46">+N48/N50</f>
         <v>3.7060946271050521</v>
       </c>
       <c r="O49" s="6">
+        <f t="shared" si="46"/>
+        <v>4.9337349397590362</v>
+      </c>
+      <c r="P49" s="6">
+        <f t="shared" si="46"/>
+        <v>5.978706307754118</v>
+      </c>
+      <c r="Q49" s="6">
+        <f t="shared" ref="Q49:S49" si="47">+Q48/Q50</f>
+        <v>0.69042981326464903</v>
+      </c>
+      <c r="R49" s="6">
         <f t="shared" si="47"/>
-        <v>4.9337349397590362</v>
-      </c>
-      <c r="P49" s="6">
+        <v>0.77940582869136998</v>
+      </c>
+      <c r="S49" s="6">
         <f t="shared" si="47"/>
-        <v>5.978706307754118</v>
-      </c>
-      <c r="Q49" s="6">
-        <f t="shared" ref="Q49:S49" si="48">+Q48/Q50</f>
-        <v>0.69042981326464903</v>
-      </c>
-      <c r="R49" s="6">
+        <v>0.95688254218131907</v>
+      </c>
+      <c r="Y49" s="15">
+        <f t="shared" ref="Y49:AF49" si="48">+Y48/Y50</f>
+        <v>3.8469428007889546</v>
+      </c>
+      <c r="Z49" s="15">
         <f t="shared" si="48"/>
-        <v>0.7596663594655505</v>
-      </c>
-      <c r="S49" s="6">
+        <v>2.2074192261667331</v>
+      </c>
+      <c r="AA49" s="15">
         <f t="shared" si="48"/>
-        <v>0.96617667820347708</v>
-      </c>
-      <c r="Y49" s="15">
-        <f t="shared" ref="Y49:AF49" si="49">+Y48/Y50</f>
-        <v>3.8469428007889546</v>
-      </c>
-      <c r="Z49" s="15">
+        <v>11.932638331996792</v>
+      </c>
+      <c r="AB49" s="15">
+        <f t="shared" si="48"/>
+        <v>2.8176309356583515</v>
+      </c>
+      <c r="AC49" s="15">
+        <f t="shared" si="48"/>
+        <v>4.4275934124485348</v>
+      </c>
+      <c r="AD49" s="15">
+        <f t="shared" si="48"/>
+        <v>6.8027928796318715</v>
+      </c>
+      <c r="AE49" s="15">
+        <f t="shared" si="48"/>
+        <v>9.6523800726568183</v>
+      </c>
+      <c r="AF49" s="15">
+        <f t="shared" si="48"/>
+        <v>13.669648304189877</v>
+      </c>
+      <c r="AG49" s="15">
+        <f t="shared" ref="AG49:AH49" si="49">+AG48/AG50</f>
+        <v>17.861176025768948</v>
+      </c>
+      <c r="AH49" s="15">
         <f t="shared" si="49"/>
-        <v>2.2074192261667331</v>
-      </c>
-      <c r="AA49" s="15">
-        <f t="shared" si="49"/>
-        <v>11.932638331996792</v>
-      </c>
-      <c r="AB49" s="15">
-        <f t="shared" si="49"/>
-        <v>2.8171689632968446</v>
-      </c>
-      <c r="AC49" s="15">
-        <f t="shared" si="49"/>
-        <v>4.3764160012878301</v>
-      </c>
-      <c r="AD49" s="15">
-        <f t="shared" si="49"/>
-        <v>6.7166729394719908</v>
-      </c>
-      <c r="AE49" s="15">
-        <f t="shared" si="49"/>
-        <v>9.5242425016097894</v>
-      </c>
-      <c r="AF49" s="15">
-        <f t="shared" si="49"/>
-        <v>13.481457886027043</v>
-      </c>
-      <c r="AG49" s="15">
-        <f t="shared" ref="AG49:AH49" si="50">+AG48/AG50</f>
-        <v>17.610830665872502</v>
-      </c>
-      <c r="AH49" s="15">
-        <f t="shared" si="50"/>
-        <v>22.997968951403735</v>
+        <v>23.330024780024221</v>
       </c>
       <c r="AI49" s="15"/>
     </row>
@@ -4678,12 +4643,11 @@
         <v>24848</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" ref="R50:S50" si="51">+Q50</f>
-        <v>24848</v>
+        <v>24774</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="51"/>
-        <v>24848</v>
+        <f t="shared" ref="R50:S50" si="50">+R50</f>
+        <v>24774</v>
       </c>
       <c r="Y50" s="2">
         <v>2535</v>
@@ -4696,31 +4660,31 @@
       </c>
       <c r="AB50" s="2">
         <f>S50</f>
-        <v>24848</v>
+        <v>24774</v>
       </c>
       <c r="AC50" s="2">
         <f>+AB50</f>
-        <v>24848</v>
+        <v>24774</v>
       </c>
       <c r="AD50" s="2">
         <f>+AC50</f>
-        <v>24848</v>
+        <v>24774</v>
       </c>
       <c r="AE50" s="2">
         <f>+AD50</f>
-        <v>24848</v>
+        <v>24774</v>
       </c>
       <c r="AF50" s="2">
         <f>+AE50</f>
-        <v>24848</v>
+        <v>24774</v>
       </c>
       <c r="AG50" s="2">
-        <f t="shared" ref="AG50:AH50" si="52">+AF50</f>
-        <v>24848</v>
+        <f t="shared" ref="AG50:AH50" si="51">+AF50</f>
+        <v>24774</v>
       </c>
       <c r="AH50" s="2">
-        <f t="shared" si="52"/>
-        <v>24848</v>
+        <f t="shared" si="51"/>
+        <v>24774</v>
       </c>
       <c r="AI50" s="2"/>
     </row>
@@ -4730,39 +4694,39 @@
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10">
-        <f t="shared" ref="G52:O52" si="53">+G38/C38-1</f>
+        <f t="shared" ref="G52:O52" si="52">+G38/C38-1</f>
         <v>0.52768338996602049</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="J52" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="K52" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>-0.20829517205285886</v>
       </c>
       <c r="L52" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>-0.13223938223938225</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1.0147673031026252</v>
       </c>
       <c r="N52" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="O52" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2.6527846636919516</v>
       </c>
       <c r="P52" s="10">
@@ -4770,51 +4734,51 @@
         <v>2.6212458286985538</v>
       </c>
       <c r="Q52" s="10">
-        <f t="shared" ref="Q52" si="54">+Q38/M38-1</f>
+        <f t="shared" ref="Q52" si="53">+Q38/M38-1</f>
         <v>1.2240319834160065</v>
       </c>
       <c r="R52" s="10">
-        <f t="shared" ref="R52" si="55">+R38/N38-1</f>
-        <v>0.84142384105960266</v>
+        <f t="shared" ref="R52" si="54">+R38/N38-1</f>
+        <v>0.93609271523178816</v>
       </c>
       <c r="S52" s="10">
-        <f t="shared" ref="S52" si="56">+S38/O38-1</f>
+        <f t="shared" ref="S52" si="55">+S38/O38-1</f>
         <v>0.84765416459304155</v>
       </c>
       <c r="Z52" s="10">
-        <f t="shared" ref="Z52:AH52" si="57">+Z38/Y38-1</f>
+        <f t="shared" ref="Z52:AH52" si="56">+Z38/Y38-1</f>
         <v>2.2293230289069932E-3</v>
       </c>
       <c r="AA52" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="AB52" s="10">
-        <f t="shared" si="57"/>
-        <v>1.1386247989232134</v>
+        <f t="shared" si="56"/>
+        <v>1.1667821148353634</v>
       </c>
       <c r="AC52" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>0.5</v>
       </c>
       <c r="AD52" s="10">
-        <f t="shared" si="57"/>
-        <v>0.50000000000000022</v>
+        <f t="shared" si="56"/>
+        <v>0.5</v>
       </c>
       <c r="AE52" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AF52" s="10">
-        <f t="shared" si="57"/>
-        <v>0.39999999999999969</v>
+        <f t="shared" si="56"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="AG52" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AH52" s="10">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AI52" s="10"/>
@@ -4825,51 +4789,51 @@
         <v>72</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" ref="D53:O53" si="58">+D38/C38-1</f>
+        <f t="shared" ref="D53:O53" si="57">+D38/C38-1</f>
         <v>0.13152108734759138</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.14944356120826718</v>
       </c>
       <c r="F53" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>9.1593668357153879E-2</v>
       </c>
       <c r="G53" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>7.6024215120371608E-2</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>8.4390945963626951E-2</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>-0.19111969111969107</v>
       </c>
       <c r="J53" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>-0.11530429594272074</v>
       </c>
       <c r="K53" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2.0232675771370667E-2</v>
       </c>
       <c r="L53" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.1885638737398776</v>
       </c>
       <c r="M53" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.87805895439377091</v>
       </c>
       <c r="N53" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.34152661582882948</v>
       </c>
       <c r="O53" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.21981236203090515</v>
       </c>
       <c r="P53" s="10">
@@ -4877,16 +4841,16 @@
         <v>0.17830158801972584</v>
       </c>
       <c r="Q53" s="10">
-        <f t="shared" ref="Q53" si="59">+Q38/P38-1</f>
+        <f t="shared" ref="Q53" si="58">+Q38/P38-1</f>
         <v>0.1534326524343419</v>
       </c>
       <c r="R53" s="10">
-        <f t="shared" ref="R53" si="60">+R38/Q38-1</f>
-        <v>0.1107390146471372</v>
+        <f t="shared" ref="R53" si="59">+R38/Q38-1</f>
+        <v>0.16784287616511318</v>
       </c>
       <c r="S53" s="10">
-        <f t="shared" ref="S53" si="61">+S38/R38-1</f>
-        <v>0.22393950837064613</v>
+        <f t="shared" ref="S53" si="60">+S38/R38-1</f>
+        <v>0.16409269710962882</v>
       </c>
     </row>
     <row r="54" spans="2:36" x14ac:dyDescent="0.2">
@@ -4894,47 +4858,47 @@
         <v>73</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" ref="E54:O54" si="62">+E36/D36-1</f>
+        <f t="shared" ref="E54:O54" si="61">+E36/D36-1</f>
         <v>0.15609756097560967</v>
       </c>
       <c r="F54" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0.240506329113924</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0.10884353741496589</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0.15030674846625769</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="J54" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>6.0367454068241955E-3</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>-5.5570049569527824E-2</v>
       </c>
       <c r="L54" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0.18342541436464099</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>1.4096638655462184</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0.40598663179308336</v>
       </c>
       <c r="O54" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>0.26677690505718621</v>
       </c>
       <c r="P54" s="10">
@@ -4942,16 +4906,16 @@
         <v>0.22718372674861298</v>
       </c>
       <c r="Q54" s="10">
-        <f t="shared" ref="Q54" si="63">+Q36/P36-1</f>
-        <v>0.2232415902140672</v>
-      </c>
-      <c r="R54" s="10">
-        <f t="shared" ref="R54" si="64">+R36/Q36-1</f>
-        <v>6.5217391304347894E-2</v>
-      </c>
-      <c r="S54" s="10">
-        <f t="shared" ref="S54" si="65">+S36/R36-1</f>
-        <v>0.25</v>
+        <f t="shared" ref="Q54" si="62">+Q36/P36-1</f>
+        <v>-1</v>
+      </c>
+      <c r="R54" s="10" t="e">
+        <f t="shared" ref="R54" si="63">+R36/Q36-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S54" s="10" t="e">
+        <f t="shared" ref="S54" si="64">+S36/R36-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AH54" t="s">
         <v>168</v>
@@ -4995,67 +4959,67 @@
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="7">
-        <f t="shared" ref="L55:Q55" si="66">L40/L38</f>
+        <f t="shared" ref="L55:Q55" si="65">L40/L38</f>
         <v>0.64627363737486099</v>
       </c>
       <c r="M55" s="7">
+        <f t="shared" si="65"/>
+        <v>0.7005256533649219</v>
+      </c>
+      <c r="N55" s="7">
+        <f t="shared" si="65"/>
+        <v>0.73951434878587197</v>
+      </c>
+      <c r="O55" s="7">
+        <f t="shared" si="65"/>
+        <v>0.75967063294575399</v>
+      </c>
+      <c r="P55" s="7">
+        <f t="shared" si="65"/>
+        <v>0.78352019659038552</v>
+      </c>
+      <c r="Q55" s="7">
+        <f t="shared" si="65"/>
+        <v>0.77</v>
+      </c>
+      <c r="R55" s="7">
+        <f t="shared" ref="R55:S55" si="66">R40/R38</f>
+        <v>0.74556752750698363</v>
+      </c>
+      <c r="S55" s="7">
         <f t="shared" si="66"/>
-        <v>0.7005256533649219</v>
-      </c>
-      <c r="N55" s="7">
-        <f t="shared" si="66"/>
-        <v>0.73951434878587197</v>
-      </c>
-      <c r="O55" s="7">
-        <f t="shared" si="66"/>
-        <v>0.75967063294575399</v>
-      </c>
-      <c r="P55" s="7">
-        <f t="shared" si="66"/>
-        <v>0.78352019659038552</v>
-      </c>
-      <c r="Q55" s="7">
-        <f t="shared" si="66"/>
-        <v>0.77</v>
-      </c>
-      <c r="R55" s="7">
-        <f t="shared" ref="R55:S55" si="67">R40/R38</f>
-        <v>0.77</v>
-      </c>
-      <c r="S55" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="Y55" s="7">
+        <f t="shared" ref="Y55:AF55" si="67">Y40/Y38</f>
+        <v>0.64929033216913135</v>
+      </c>
+      <c r="Z55" s="7">
+        <f t="shared" si="67"/>
+        <v>0.56928894490991322</v>
+      </c>
+      <c r="AA55" s="7">
+        <f t="shared" si="67"/>
+        <v>0.72717573290436954</v>
+      </c>
+      <c r="AB55" s="7">
+        <f t="shared" si="67"/>
+        <v>0.76926795788331781</v>
+      </c>
+      <c r="AC55" s="7">
         <f t="shared" si="67"/>
         <v>0.78</v>
       </c>
-      <c r="Y55" s="7">
-        <f t="shared" ref="Y55:AF55" si="68">Y40/Y38</f>
-        <v>0.64929033216913135</v>
-      </c>
-      <c r="Z55" s="7">
-        <f t="shared" si="68"/>
-        <v>0.56928894490991322</v>
-      </c>
-      <c r="AA55" s="7">
-        <f t="shared" si="68"/>
-        <v>0.72717573290436954</v>
-      </c>
-      <c r="AB55" s="7">
-        <f t="shared" si="68"/>
-        <v>0.77583706413343223</v>
-      </c>
-      <c r="AC55" s="7">
-        <f t="shared" si="68"/>
-        <v>0.77999999999999992</v>
-      </c>
       <c r="AD55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.78</v>
       </c>
       <c r="AE55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.78</v>
       </c>
       <c r="AF55" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.78</v>
       </c>
       <c r="AH55" t="s">
@@ -5070,55 +5034,55 @@
         <v>24</v>
       </c>
       <c r="C56" s="7">
-        <f t="shared" ref="C56:H56" si="69">C36/C38</f>
+        <f t="shared" ref="C56:H56" si="68">C36/C38</f>
         <v>0</v>
       </c>
       <c r="D56" s="7">
+        <f t="shared" si="68"/>
+        <v>0.36212683271506801</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="68"/>
+        <v>0.36422314430613184</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="68"/>
+        <v>0.41390961565535689</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="68"/>
+        <v>0.42653408347507521</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="68"/>
+        <v>0.45246138996138996</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" ref="I56:N56" si="69">I36/I38</f>
+        <v>0.56831742243436756</v>
+      </c>
+      <c r="J56" s="7">
         <f t="shared" si="69"/>
-        <v>0.36212683271506801</v>
-      </c>
-      <c r="E56" s="7">
+        <v>0.64626538526386779</v>
+      </c>
+      <c r="K56" s="7">
         <f t="shared" si="69"/>
-        <v>0.36422314430613184</v>
-      </c>
-      <c r="F56" s="7">
+        <v>0.59824822343414308</v>
+      </c>
+      <c r="L56" s="7">
         <f t="shared" si="69"/>
-        <v>0.41390961565535689</v>
-      </c>
-      <c r="G56" s="7">
+        <v>0.59566184649610676</v>
+      </c>
+      <c r="M56" s="7">
         <f t="shared" si="69"/>
-        <v>0.42653408347507521</v>
-      </c>
-      <c r="H56" s="7">
+        <v>0.76427037832235134</v>
+      </c>
+      <c r="N56" s="7">
         <f t="shared" si="69"/>
-        <v>0.45246138996138996</v>
-      </c>
-      <c r="I56" s="7">
-        <f t="shared" ref="I56:N56" si="70">I36/I38</f>
-        <v>0.56831742243436756</v>
-      </c>
-      <c r="J56" s="7">
-        <f t="shared" si="70"/>
-        <v>0.64626538526386779</v>
-      </c>
-      <c r="K56" s="7">
-        <f t="shared" si="70"/>
-        <v>0.59824822343414308</v>
-      </c>
-      <c r="L56" s="7">
-        <f t="shared" si="70"/>
-        <v>0.59566184649610676</v>
-      </c>
-      <c r="M56" s="7">
-        <f t="shared" si="70"/>
-        <v>0.76427037832235134</v>
-      </c>
-      <c r="N56" s="7">
-        <f t="shared" si="70"/>
         <v>0.80099337748344368</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" ref="O56:S56" si="71">O36/O38</f>
+        <f t="shared" ref="O56:S56" si="70">O36/O38</f>
         <v>0.83183278288015206</v>
       </c>
       <c r="P56" s="7">
@@ -5126,15 +5090,15 @@
         <v>0.86634157579480875</v>
       </c>
       <c r="Q56" s="7">
-        <f t="shared" si="71"/>
-        <v>0.91877496671105197</v>
+        <f t="shared" si="70"/>
+        <v>0</v>
       </c>
       <c r="R56" s="7">
-        <f t="shared" si="71"/>
-        <v>0.88112064159968351</v>
+        <f t="shared" si="70"/>
+        <v>0</v>
       </c>
       <c r="S56" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.89988172982979386</v>
       </c>
       <c r="AH56" t="s">
@@ -5142,7 +5106,7 @@
       </c>
       <c r="AI56" s="2">
         <f>NPV(AI55,AC48:DZ48)+Main!K5-Main!K6</f>
-        <v>7131023.5494701201</v>
+        <v>7211337.5905018141</v>
       </c>
     </row>
     <row r="57" spans="2:36" x14ac:dyDescent="0.2">
@@ -5151,7 +5115,7 @@
       </c>
       <c r="AI57" s="15">
         <f>AI56/Main!K3</f>
-        <v>289.87900607602114</v>
+        <v>293.14380449194368</v>
       </c>
     </row>
     <row r="58" spans="2:36" x14ac:dyDescent="0.2">
@@ -5175,19 +5139,19 @@
         <v>16275</v>
       </c>
       <c r="P58" s="2">
-        <f t="shared" ref="P58:S58" si="72">+P59-P72</f>
+        <f t="shared" ref="P58:S58" si="71">+P59-P72</f>
         <v>21728</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
     </row>
@@ -5476,7 +5440,7 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="2">
-        <f t="shared" ref="L68" si="73">SUM(L59:L67)</f>
+        <f t="shared" ref="L68" si="72">SUM(L59:L67)</f>
         <v>44460</v>
       </c>
       <c r="M68" s="2">
@@ -5701,7 +5665,7 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="2">
-        <f t="shared" ref="L76" si="74">SUM(L70:L75)</f>
+        <f t="shared" ref="L76" si="73">SUM(L70:L75)</f>
         <v>44460</v>
       </c>
       <c r="M76" s="2">

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62307DCD-756D-4E14-A11B-4DDCE9E052B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D7EDE4-482B-463A-8F3A-F96A01A67FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27525" yWindow="1650" windowWidth="27210" windowHeight="17880" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-28545" yWindow="1110" windowWidth="25725" windowHeight="19050" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -1603,11 +1603,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
   <dimension ref="A1:EJ118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AK19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AS8" sqref="AS8"/>
+      <selection pane="bottomRight" activeCell="AM24" sqref="AM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5644,7 +5644,7 @@
         <v>1.1658447758255819</v>
       </c>
       <c r="AM38" s="10">
-        <f t="shared" si="82"/>
+        <f>+AM24/AL24-1</f>
         <v>0.5</v>
       </c>
       <c r="AN38" s="10">

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D7EDE4-482B-463A-8F3A-F96A01A67FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B72DAE-FAFB-4F4D-8736-B4CC672B82EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28545" yWindow="1110" windowWidth="25725" windowHeight="19050" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="6270" yWindow="3400" windowWidth="28800" windowHeight="15370" activeTab="3" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
-    <sheet name="Quarterly Earnings Preview" sheetId="4" r:id="rId3"/>
+    <sheet name="Q1 Quarterly Earnings Preview" sheetId="4" r:id="rId3"/>
+    <sheet name="Q424 Quarterly Earnings Preview" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,6 +49,9 @@
     <author>tc={195B7556-9D37-2C4A-AE00-5F1730A1F989}</author>
     <author>tc={ABEADC1D-5EB0-4C3F-94A3-CDCB9F5F27A0}</author>
     <author>tc={4E6E582A-C13D-49BC-B7B1-29F955B3A8F8}</author>
+    <author>tc={797E6991-901E-44BC-97CB-E306AC374116}</author>
+    <author>tc={5C4B539B-3737-41A2-ACD8-5457F543DF7D}</author>
+    <author>tc={4E056475-A7E3-43D8-B802-93813DACE25F}</author>
   </authors>
   <commentList>
     <comment ref="O22" authorId="0" shapeId="0" xr:uid="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
@@ -116,12 +120,36 @@
     Consensus 31.7</t>
       </text>
     </comment>
+    <comment ref="V24" authorId="8" shapeId="0" xr:uid="{797E6991-901E-44BC-97CB-E306AC374116}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    38250 consensus</t>
+      </text>
+    </comment>
+    <comment ref="W24" authorId="9" shapeId="0" xr:uid="{5C4B539B-3737-41A2-ACD8-5457F543DF7D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    42.26B consensus</t>
+      </text>
+    </comment>
+    <comment ref="AR24" authorId="10" shapeId="0" xr:uid="{4E056475-A7E3-43D8-B802-93813DACE25F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    196490 consensus</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="210">
   <si>
     <t>Main</t>
   </si>
@@ -703,6 +731,54 @@
   </si>
   <si>
     <t xml:space="preserve">  Autonomous Vehicles</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
+  <si>
+    <t>xAI</t>
+  </si>
+  <si>
+    <t>MSFT CapEx</t>
+  </si>
+  <si>
+    <t>GOOG CapEx</t>
+  </si>
+  <si>
+    <t>AMZN CapEx</t>
+  </si>
+  <si>
+    <t>Top Players Raised+CapEx</t>
+  </si>
+  <si>
+    <t>CoreWeave</t>
+  </si>
+  <si>
+    <t>Meta CapEx</t>
+  </si>
+  <si>
+    <t>Oracle CapEx</t>
+  </si>
+  <si>
+    <t>Data Center/Capital</t>
+  </si>
+  <si>
+    <t>Revenue/Capital</t>
+  </si>
+  <si>
+    <t>Q4 Consensus</t>
+  </si>
+  <si>
+    <t>Q1 Consensus</t>
   </si>
 </sst>
 </file>
@@ -714,7 +790,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -738,6 +814,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -848,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -892,6 +974,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -924,8 +1009,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>37420</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>99785</xdr:rowOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -940,8 +1025,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12329962" y="0"/>
-          <a:ext cx="0" cy="17652243"/>
+          <a:off x="14983733" y="0"/>
+          <a:ext cx="0" cy="22558375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -966,13 +1051,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>26836</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>26836</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>99785</xdr:rowOff>
@@ -1346,6 +1431,15 @@
   <threadedComment ref="U24" dT="2024-08-28T20:02:46.45" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{4E6E582A-C13D-49BC-B7B1-29F955B3A8F8}">
     <text>Consensus 31.7</text>
   </threadedComment>
+  <threadedComment ref="V24" dT="2025-02-26T16:48:39.66" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{797E6991-901E-44BC-97CB-E306AC374116}">
+    <text>38250 consensus</text>
+  </threadedComment>
+  <threadedComment ref="W24" dT="2025-02-26T16:57:38.01" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{5C4B539B-3737-41A2-ACD8-5457F543DF7D}">
+    <text>42.26B consensus</text>
+  </threadedComment>
+  <threadedComment ref="AR24" dT="2025-02-26T16:49:05.11" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{4E056475-A7E3-43D8-B802-93813DACE25F}">
+    <text>196490 consensus</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1357,13 +1451,13 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>131</v>
       </c>
@@ -1380,7 +1474,7 @@
         <v>139.63</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>119</v>
       </c>
@@ -1398,7 +1492,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>120</v>
       </c>
@@ -1414,7 +1508,7 @@
         <v>3459193.62</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>121</v>
       </c>
@@ -1432,7 +1526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>122</v>
       </c>
@@ -1450,7 +1544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>123</v>
       </c>
@@ -1466,7 +1560,7 @@
         <v>3429168.62</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>125</v>
       </c>
@@ -1476,7 +1570,7 @@
       <c r="H8" s="20"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>126</v>
       </c>
@@ -1491,7 +1585,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>134</v>
       </c>
@@ -1500,7 +1594,7 @@
       </c>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
         <v>136</v>
       </c>
@@ -1512,19 +1606,19 @@
       </c>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>139</v>
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>140</v>
       </c>
@@ -1535,7 +1629,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>141</v>
       </c>
@@ -1546,7 +1640,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>143</v>
       </c>
@@ -1557,7 +1651,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>145</v>
       </c>
@@ -1568,17 +1662,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>159</v>
       </c>
@@ -1586,7 +1680,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>169</v>
       </c>
@@ -1601,37 +1695,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
-  <dimension ref="A1:EJ118"/>
+  <dimension ref="A1:EO135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AK19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="T112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AM24" sqref="AM24"/>
+      <selection pane="bottomRight" activeCell="V124" sqref="V124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="15" width="9.7109375" style="3" customWidth="1"/>
-    <col min="16" max="17" width="9.7109375" customWidth="1"/>
-    <col min="18" max="27" width="10.140625" customWidth="1"/>
-    <col min="28" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" customWidth="1"/>
-    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" customWidth="1"/>
-    <col min="33" max="43" width="10" customWidth="1"/>
-    <col min="44" max="46" width="10.28515625" customWidth="1"/>
-    <col min="47" max="47" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="15" width="9.7265625" style="3" customWidth="1"/>
+    <col min="16" max="17" width="9.7265625" customWidth="1"/>
+    <col min="18" max="32" width="10.1796875" customWidth="1"/>
+    <col min="33" max="34" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.26953125" customWidth="1"/>
+    <col min="36" max="36" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.26953125" customWidth="1"/>
+    <col min="38" max="48" width="10" customWidth="1"/>
+    <col min="49" max="51" width="10.26953125" customWidth="1"/>
+    <col min="52" max="52" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C2" s="13">
         <v>43947</v>
       </c>
@@ -1697,92 +1791,109 @@
         <f>+R2+366</f>
         <v>45685</v>
       </c>
-      <c r="W2" s="13"/>
-      <c r="X2" s="1">
+      <c r="W2" s="13">
+        <f>+S2+365</f>
+        <v>45777</v>
+      </c>
+      <c r="X2" s="13">
+        <f>+T2+365</f>
+        <v>45868</v>
+      </c>
+      <c r="Y2" s="13">
+        <f>+U2+365</f>
+        <v>45959</v>
+      </c>
+      <c r="Z2" s="13">
+        <f>+V2+365</f>
+        <v>46050</v>
+      </c>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="1">
         <v>40573</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AD2" s="1">
         <v>40937</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AE2" s="1">
         <v>41301</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AF2" s="1">
         <v>41665</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AG2" s="1">
         <v>42029</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AH2" s="1">
         <v>42400</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AI2" s="1">
         <v>42764</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AJ2" s="1">
         <v>43128</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AK2" s="1">
         <v>43492</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AL2" s="1">
         <v>43856</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AM2" s="1">
         <v>44227</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AN2" s="1">
         <v>44591</v>
       </c>
-      <c r="AJ2" s="1">
-        <f>+AK2-365</f>
+      <c r="AO2" s="1">
+        <f>+AP2-365</f>
         <v>44955</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AP2" s="1">
         <v>45320</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AQ2" s="1">
         <f>V2</f>
         <v>45685</v>
       </c>
-      <c r="AM2" s="1">
-        <f t="shared" ref="AM2:AU2" si="0">+AL2+365</f>
+      <c r="AR2" s="1">
+        <f t="shared" ref="AR2:AZ2" si="0">+AQ2+365</f>
         <v>46050</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AS2" s="1">
         <f t="shared" si="0"/>
         <v>46415</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AT2" s="1">
         <f t="shared" si="0"/>
         <v>46780</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AU2" s="1">
         <f t="shared" si="0"/>
         <v>47145</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AV2" s="1">
         <f t="shared" si="0"/>
         <v>47510</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AW2" s="1">
         <f t="shared" si="0"/>
         <v>47875</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AX2" s="1">
         <f t="shared" si="0"/>
         <v>48240</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AY2" s="1">
         <f t="shared" si="0"/>
         <v>48605</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AZ2" s="1">
         <f t="shared" si="0"/>
         <v>48970</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>178</v>
       </c>
@@ -1843,81 +1954,94 @@
       <c r="V3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="4"/>
+      <c r="W3" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="X3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>191</v>
       </c>
@@ -1961,27 +2085,32 @@
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
-      <c r="AQ4" s="5">
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="5">
         <v>5000000</v>
       </c>
-      <c r="AR4" s="5">
-        <f>+AQ4*2</f>
+      <c r="AW4" s="5">
+        <f>+AV4*2</f>
         <v>10000000</v>
       </c>
-      <c r="AS4" s="5">
-        <f>+AR4*1.5</f>
+      <c r="AX4" s="5">
+        <f>+AW4*1.5</f>
         <v>15000000</v>
       </c>
-      <c r="AT4" s="5">
-        <f>+AS4*1.5</f>
+      <c r="AY4" s="5">
+        <f>+AX4*1.5</f>
         <v>22500000</v>
       </c>
-      <c r="AU4" s="5">
-        <f>+AT4*1.5</f>
+      <c r="AZ4" s="5">
+        <f>+AY4*1.5</f>
         <v>33750000</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>192</v>
       </c>
@@ -2025,23 +2154,28 @@
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
-      <c r="AQ5" s="5">
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="5">
         <v>50000</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AW5" s="5">
         <v>50000</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AX5" s="5">
         <v>50000</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AY5" s="5">
         <v>50000</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AZ5" s="5">
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>188</v>
       </c>
@@ -2085,28 +2219,33 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
-      <c r="AQ6" s="5">
-        <f>+AQ5*AQ4/1000000</f>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="5">
+        <f>+AV5*AV4/1000000</f>
         <v>250000</v>
       </c>
-      <c r="AR6" s="5">
-        <f>+AR5*AR4/1000000</f>
+      <c r="AW6" s="5">
+        <f>+AW5*AW4/1000000</f>
         <v>500000</v>
       </c>
-      <c r="AS6" s="5">
-        <f>+AS5*AS4/1000000</f>
+      <c r="AX6" s="5">
+        <f>+AX5*AX4/1000000</f>
         <v>750000</v>
       </c>
-      <c r="AT6" s="5">
-        <f>+AT5*AT4/1000000</f>
+      <c r="AY6" s="5">
+        <f>+AY5*AY4/1000000</f>
         <v>1125000</v>
       </c>
-      <c r="AU6" s="5">
-        <f>+AU5*AU4/1000000</f>
+      <c r="AZ6" s="5">
+        <f>+AZ5*AZ4/1000000</f>
         <v>1687500</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2147,13 +2286,18 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>189</v>
       </c>
@@ -2202,8 +2346,13 @@
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2249,8 +2398,13 @@
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>193</v>
       </c>
@@ -2294,27 +2448,32 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
-      <c r="AQ10" s="5">
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="5">
         <v>1000000</v>
       </c>
-      <c r="AR10" s="5">
-        <f>+AQ10*2</f>
+      <c r="AW10" s="5">
+        <f>+AV10*2</f>
         <v>2000000</v>
       </c>
-      <c r="AS10" s="5">
-        <f>+AR10*2</f>
+      <c r="AX10" s="5">
+        <f>+AW10*2</f>
         <v>4000000</v>
       </c>
-      <c r="AT10" s="5">
-        <f>+AS10*1.5</f>
+      <c r="AY10" s="5">
+        <f>+AX10*1.5</f>
         <v>6000000</v>
       </c>
-      <c r="AU10" s="5">
-        <f>+AT10*1.5</f>
+      <c r="AZ10" s="5">
+        <f>+AY10*1.5</f>
         <v>9000000</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>192</v>
       </c>
@@ -2358,23 +2517,28 @@
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
-      <c r="AQ11" s="5">
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="5">
         <v>20000</v>
       </c>
-      <c r="AR11" s="5">
+      <c r="AW11" s="5">
         <v>20000</v>
       </c>
-      <c r="AS11" s="5">
+      <c r="AX11" s="5">
         <v>20000</v>
       </c>
-      <c r="AT11" s="5">
+      <c r="AY11" s="5">
         <v>20000</v>
       </c>
-      <c r="AU11" s="5">
+      <c r="AZ11" s="5">
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>190</v>
       </c>
@@ -2418,28 +2582,33 @@
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
-      <c r="AQ12" s="5">
-        <f>+AQ11*AQ10/1000000</f>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="5">
+        <f>+AV11*AV10/1000000</f>
         <v>20000</v>
       </c>
-      <c r="AR12" s="5">
-        <f>+AR11*AR10/1000000</f>
+      <c r="AW12" s="5">
+        <f>+AW11*AW10/1000000</f>
         <v>40000</v>
       </c>
-      <c r="AS12" s="5">
-        <f>+AS11*AS10/1000000</f>
+      <c r="AX12" s="5">
+        <f>+AX11*AX10/1000000</f>
         <v>80000</v>
       </c>
-      <c r="AT12" s="5">
-        <f>+AT11*AT10/1000000</f>
+      <c r="AY12" s="5">
+        <f>+AY11*AY10/1000000</f>
         <v>120000</v>
       </c>
-      <c r="AU12" s="5">
-        <f>+AU11*AU10/1000000</f>
+      <c r="AZ12" s="5">
+        <f>+AZ11*AZ10/1000000</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2485,8 +2654,13 @@
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>161</v>
       </c>
@@ -2515,21 +2689,26 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AH14" s="2">
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AM14" s="2">
         <v>6841</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AN14" s="2">
         <v>11046</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AO14" s="2">
         <v>15068</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AP14" s="2">
         <v>47405</v>
       </c>
-      <c r="AL14" s="2"/>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AQ14" s="2"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>162</v>
       </c>
@@ -2558,20 +2737,25 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-      <c r="AH15" s="2">
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AM15" s="2">
         <v>9834</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AN15" s="2">
         <v>15868</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AO15" s="2">
         <v>11906</v>
       </c>
-      <c r="AK15" s="2">
+      <c r="AP15" s="2">
         <v>13517</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2597,8 +2781,13 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+    </row>
+    <row r="17" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -2658,30 +2847,35 @@
         <f t="shared" ref="V17:V19" si="1">+R17*1.1</f>
         <v>99.000000000000014</v>
       </c>
+      <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AG17" s="2">
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AL17" s="2">
         <v>505</v>
       </c>
-      <c r="AH17" s="2">
+      <c r="AM17" s="2">
         <v>631</v>
       </c>
-      <c r="AI17" s="2">
+      <c r="AN17" s="2">
         <v>1162</v>
       </c>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2">
-        <f t="shared" ref="AK17:AK22" si="2">SUM(O17:R17)</f>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2">
+        <f t="shared" ref="AP17:AP22" si="2">SUM(O17:R17)</f>
         <v>306</v>
       </c>
-      <c r="AL17" s="2">
-        <f t="shared" ref="AL17:AL21" si="3">SUM(S17:V17)</f>
+      <c r="AQ17" s="2">
+        <f t="shared" ref="AQ17:AQ21" si="3">SUM(S17:V17)</f>
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -2738,34 +2932,39 @@
         <f t="shared" si="1"/>
         <v>509.30000000000007</v>
       </c>
-      <c r="W18" s="5"/>
+      <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AG18" s="2">
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AL18" s="2">
         <v>1212</v>
       </c>
-      <c r="AH18" s="2">
+      <c r="AM18" s="2">
         <v>1053</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AN18" s="2">
         <v>2111</v>
       </c>
-      <c r="AJ18" s="2">
-        <f t="shared" ref="AJ18:AJ19" si="4">SUM(K18:N18)</f>
+      <c r="AO18" s="2">
+        <f t="shared" ref="AO18:AO19" si="4">SUM(K18:N18)</f>
         <v>1544</v>
       </c>
-      <c r="AK18" s="2">
+      <c r="AP18" s="2">
         <f t="shared" si="2"/>
         <v>1553</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AQ18" s="2">
         <f t="shared" si="3"/>
         <v>1876.3000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -2822,34 +3021,39 @@
         <f t="shared" si="1"/>
         <v>309.10000000000002</v>
       </c>
-      <c r="W19" s="5"/>
+      <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AG19">
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AL19">
         <v>700</v>
       </c>
-      <c r="AH19">
+      <c r="AM19">
         <v>536</v>
       </c>
-      <c r="AI19">
+      <c r="AN19">
         <v>566</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AO19" s="2">
         <f t="shared" si="4"/>
         <v>903</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="AP19" s="2">
         <f t="shared" si="2"/>
         <v>1091</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AQ19" s="2">
         <f t="shared" si="3"/>
         <v>1433.1</v>
       </c>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>171</v>
       </c>
@@ -2885,18 +3089,23 @@
         <v>3127</v>
       </c>
       <c r="V20" s="2"/>
-      <c r="W20" s="5"/>
+      <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2">
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2">
         <f t="shared" si="3"/>
         <v>9966</v>
       </c>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>170</v>
       </c>
@@ -2932,18 +3141,23 @@
         <v>27644</v>
       </c>
       <c r="V21" s="2"/>
-      <c r="W21" s="5"/>
+      <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2">
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2">
         <f t="shared" si="3"/>
         <v>69640</v>
       </c>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -3012,31 +3226,36 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2">
+      <c r="AI22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2">
         <v>2983</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AM22" s="2">
         <v>6696</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AN22" s="2">
         <v>10613</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AO22" s="2">
         <f>SUM(K22:N22)</f>
         <v>15009</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AP22" s="2">
         <f t="shared" si="2"/>
         <v>47525</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AQ22" s="2">
         <f>SUM(S22:V22)</f>
         <v>116356</v>
       </c>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -3093,36 +3312,41 @@
         <f>+R23*1.1</f>
         <v>3190.0000000000005</v>
       </c>
-      <c r="W23" s="5"/>
+      <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="2">
+      <c r="AI23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2">
         <v>5518</v>
       </c>
-      <c r="AH23" s="2">
+      <c r="AM23" s="2">
         <v>7759</v>
       </c>
-      <c r="AI23" s="2">
+      <c r="AN23" s="2">
         <v>12462</v>
       </c>
-      <c r="AJ23" s="2">
+      <c r="AO23" s="2">
         <f>SUM(K23:N23)</f>
         <v>9066</v>
       </c>
-      <c r="AK23" s="2">
+      <c r="AP23" s="2">
         <f>SUM(O23:R23)</f>
         <v>10482</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AQ23" s="2">
         <f>SUM(S23:V23)</f>
         <v>11996</v>
       </c>
     </row>
-    <row r="24" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:49" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>1</v>
       </c>
@@ -3199,82 +3423,99 @@
         <f>SUM(V17:V23)</f>
         <v>40857.4</v>
       </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="8">
+      <c r="W24" s="9">
+        <f>+W121</f>
+        <v>43740.27</v>
+      </c>
+      <c r="X24" s="9">
+        <f>SUM(X17:X23)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="9">
+        <f>SUM(Y17:Y23)</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9">
+        <f>SUM(Z17:Z23)</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="8">
         <v>3543.3090000000002</v>
       </c>
-      <c r="Y24" s="8">
+      <c r="AD24" s="8">
         <v>3997.93</v>
       </c>
-      <c r="Z24" s="8">
+      <c r="AE24" s="8">
         <v>4280.1589999999997</v>
       </c>
-      <c r="AA24" s="8">
+      <c r="AF24" s="8">
         <v>4130</v>
       </c>
-      <c r="AB24" s="8">
+      <c r="AG24" s="8">
         <v>4682</v>
       </c>
-      <c r="AC24" s="8">
+      <c r="AH24" s="8">
         <v>5010</v>
       </c>
-      <c r="AD24" s="8">
+      <c r="AI24" s="8">
         <v>6910</v>
       </c>
-      <c r="AE24" s="8">
+      <c r="AJ24" s="8">
         <v>9714</v>
       </c>
-      <c r="AF24" s="8">
+      <c r="AK24" s="8">
         <v>11716</v>
       </c>
-      <c r="AG24" s="8">
+      <c r="AL24" s="8">
         <v>10918</v>
       </c>
-      <c r="AH24" s="8">
+      <c r="AM24" s="8">
         <v>16675</v>
       </c>
-      <c r="AI24" s="8">
+      <c r="AN24" s="8">
         <f>SUM(G24:J24)</f>
         <v>26914</v>
       </c>
-      <c r="AJ24" s="8">
+      <c r="AO24" s="8">
         <f>SUM(K24:N24)</f>
         <v>26974</v>
       </c>
-      <c r="AK24" s="8">
+      <c r="AP24" s="8">
         <f>SUM(O24:R24)</f>
         <v>60957</v>
       </c>
-      <c r="AL24" s="8">
+      <c r="AQ24" s="8">
         <f>SUM(S24:V24)</f>
         <v>132023.4</v>
       </c>
-      <c r="AM24" s="8">
-        <f>+AL24*1.5</f>
+      <c r="AR24" s="8">
+        <f>+AQ24*1.5</f>
         <v>198035.09999999998</v>
       </c>
-      <c r="AN24" s="8">
-        <f>+AM24*1.5</f>
+      <c r="AS24" s="8">
+        <f>+AR24*1.5</f>
         <v>297052.64999999997</v>
       </c>
-      <c r="AO24" s="8">
-        <f>+AN24*1.4</f>
+      <c r="AT24" s="8">
+        <f>+AS24*1.4</f>
         <v>415873.7099999999</v>
       </c>
-      <c r="AP24" s="8">
-        <f>+AO24*1.4</f>
+      <c r="AU24" s="8">
+        <f>+AT24*1.4</f>
         <v>582223.19399999978</v>
       </c>
-      <c r="AQ24" s="8">
-        <f>+AP24*1.3</f>
+      <c r="AV24" s="8">
+        <f>+AU24*1.3</f>
         <v>756890.15219999978</v>
       </c>
-      <c r="AR24" s="8">
-        <f>+AQ24*1.3</f>
+      <c r="AW24" s="8">
+        <f>+AV24*1.3</f>
         <v>983957.19785999972</v>
       </c>
     </row>
-    <row r="25" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3553,7 @@
         <v>2754</v>
       </c>
       <c r="N25" s="5">
-        <f>+AJ25-M25-L25-K25</f>
+        <f>+AO25-M25-L25-K25</f>
         <v>2218</v>
       </c>
       <c r="O25" s="5">
@@ -3340,79 +3581,79 @@
         <f t="shared" ref="V25" si="5">+V24-V26</f>
         <v>8988.6280000000006</v>
       </c>
-      <c r="X25" s="2">
+      <c r="AC25" s="2">
         <v>2134.2190000000001</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="AD25" s="2">
         <v>1941.413</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="AE25" s="2">
         <v>2053.8159999999998</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AF25" s="2">
         <v>1862</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AG25" s="2">
         <v>2083</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AH25" s="2">
         <v>2199</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AI25" s="2">
         <v>2847</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AJ25" s="2">
         <v>3892</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AK25" s="2">
         <v>4545</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AL25" s="2">
         <v>4150</v>
       </c>
-      <c r="AH25" s="2">
+      <c r="AM25" s="2">
         <v>6279</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AN25" s="2">
         <v>9439</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AO25" s="2">
         <v>11618</v>
       </c>
-      <c r="AK25" s="2">
+      <c r="AP25" s="2">
         <f>SUM(O25:R25)</f>
         <v>16621</v>
       </c>
-      <c r="AL25" s="2">
-        <f>+AL24-AL26</f>
+      <c r="AQ25" s="2">
+        <f>+AQ24-AQ26</f>
         <v>31018.627999999997</v>
       </c>
-      <c r="AM25" s="2">
-        <f>+AM24-AM26</f>
+      <c r="AR25" s="2">
+        <f>+AR24-AR26</f>
         <v>43567.72199999998</v>
       </c>
-      <c r="AN25" s="2">
-        <f t="shared" ref="AN25:AP25" si="6">+AN24-AN26</f>
+      <c r="AS25" s="2">
+        <f t="shared" ref="AS25:AU25" si="6">+AS24-AS26</f>
         <v>65351.582999999984</v>
       </c>
-      <c r="AO25" s="2">
+      <c r="AT25" s="2">
         <f t="shared" si="6"/>
         <v>91492.216199999966</v>
       </c>
-      <c r="AP25" s="2">
+      <c r="AU25" s="2">
         <f t="shared" si="6"/>
         <v>128089.10267999995</v>
       </c>
-      <c r="AQ25" s="2">
-        <f t="shared" ref="AQ25" si="7">+AQ24-AQ26</f>
+      <c r="AV25" s="2">
+        <f t="shared" ref="AV25" si="7">+AV24-AV26</f>
         <v>166515.83348399994</v>
       </c>
-      <c r="AR25" s="2">
-        <f t="shared" ref="AR25" si="8">+AR24-AR26</f>
+      <c r="AW25" s="2">
+        <f t="shared" ref="AW25" si="8">+AW24-AW26</f>
         <v>216470.58352919994</v>
       </c>
     </row>
-    <row r="26" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
@@ -3496,92 +3737,92 @@
         <f>+V24*0.78</f>
         <v>31868.772000000001</v>
       </c>
-      <c r="X26" s="2">
-        <f t="shared" ref="X26:AK26" si="10">+X24-X25</f>
+      <c r="AC26" s="2">
+        <f t="shared" ref="AC26:AP26" si="10">+AC24-AC25</f>
         <v>1409.0900000000001</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="AD26" s="2">
         <f t="shared" si="10"/>
         <v>2056.5169999999998</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="AE26" s="2">
         <f t="shared" si="10"/>
         <v>2226.3429999999998</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AF26" s="2">
         <f t="shared" si="10"/>
         <v>2268</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AG26" s="2">
         <f t="shared" si="10"/>
         <v>2599</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AH26" s="2">
         <f t="shared" si="10"/>
         <v>2811</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AI26" s="2">
         <f t="shared" si="10"/>
         <v>4063</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AJ26" s="2">
         <f t="shared" si="10"/>
         <v>5822</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AK26" s="2">
         <f t="shared" si="10"/>
         <v>7171</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AL26" s="2">
         <f t="shared" si="10"/>
         <v>6768</v>
       </c>
-      <c r="AH26" s="2">
+      <c r="AM26" s="2">
         <f t="shared" si="10"/>
         <v>10396</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AN26" s="2">
         <f t="shared" si="10"/>
         <v>17475</v>
       </c>
-      <c r="AJ26" s="2">
+      <c r="AO26" s="2">
         <f t="shared" si="10"/>
         <v>15356</v>
       </c>
-      <c r="AK26" s="2">
+      <c r="AP26" s="2">
         <f t="shared" si="10"/>
         <v>44336</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AQ26" s="2">
         <f>SUM(S26:V26)</f>
         <v>101004.772</v>
       </c>
-      <c r="AM26" s="2">
-        <f>+AM24*0.78</f>
+      <c r="AR26" s="2">
+        <f>+AR24*0.78</f>
         <v>154467.378</v>
       </c>
-      <c r="AN26" s="2">
-        <f>+AN24*0.78</f>
+      <c r="AS26" s="2">
+        <f>+AS24*0.78</f>
         <v>231701.06699999998</v>
       </c>
-      <c r="AO26" s="2">
-        <f>+AO24*0.78</f>
+      <c r="AT26" s="2">
+        <f>+AT24*0.78</f>
         <v>324381.49379999994</v>
       </c>
-      <c r="AP26" s="2">
-        <f>+AP24*0.78</f>
+      <c r="AU26" s="2">
+        <f>+AU24*0.78</f>
         <v>454134.09131999983</v>
       </c>
-      <c r="AQ26" s="2">
-        <f t="shared" ref="AQ26:AR26" si="11">+AQ24*0.78</f>
+      <c r="AV26" s="2">
+        <f t="shared" ref="AV26:AW26" si="11">+AV24*0.78</f>
         <v>590374.31871599983</v>
       </c>
-      <c r="AR26" s="2">
+      <c r="AW26" s="2">
         <f t="shared" si="11"/>
         <v>767486.61433079978</v>
       </c>
     </row>
-    <row r="27" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
@@ -3619,7 +3860,7 @@
         <v>1945</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" ref="N27:N28" si="12">+AJ27-M27-L27-K27</f>
+        <f t="shared" ref="N27:N28" si="12">+AO27-M27-L27-K27</f>
         <v>1952</v>
       </c>
       <c r="O27" s="5">
@@ -3647,79 +3888,79 @@
         <f t="shared" ref="V27" si="13">+U27+100</f>
         <v>3490</v>
       </c>
-      <c r="X27" s="2">
+      <c r="AC27" s="2">
         <v>848.83</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="AD27" s="2">
         <v>1002.605</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="AE27" s="2">
         <v>1147.2819999999999</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AF27" s="2">
         <v>1336</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AG27" s="2">
         <v>1360</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AH27" s="2">
         <v>1331</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AI27" s="2">
         <v>1463</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AJ27" s="2">
         <v>1797</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AK27" s="2">
         <v>2376</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AL27" s="2">
         <v>2829</v>
       </c>
-      <c r="AH27" s="2">
+      <c r="AM27" s="2">
         <v>3924</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AN27" s="2">
         <v>5268</v>
       </c>
-      <c r="AJ27" s="2">
+      <c r="AO27" s="2">
         <v>7339</v>
       </c>
-      <c r="AK27" s="2">
+      <c r="AP27" s="2">
         <f>SUM(O27:R27)</f>
         <v>8674</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AQ27" s="2">
         <f>SUM(S27:V27)</f>
         <v>12690</v>
       </c>
-      <c r="AM27" s="2">
-        <f>+AL27*1.2</f>
+      <c r="AR27" s="2">
+        <f>+AQ27*1.2</f>
         <v>15228</v>
       </c>
-      <c r="AN27" s="2">
-        <f t="shared" ref="AN27:AP27" si="14">+AM27*1.2</f>
+      <c r="AS27" s="2">
+        <f t="shared" ref="AS27:AU27" si="14">+AR27*1.2</f>
         <v>18273.599999999999</v>
       </c>
-      <c r="AO27" s="2">
+      <c r="AT27" s="2">
         <f t="shared" si="14"/>
         <v>21928.319999999996</v>
       </c>
-      <c r="AP27" s="2">
+      <c r="AU27" s="2">
         <f t="shared" si="14"/>
         <v>26313.983999999993</v>
       </c>
-      <c r="AQ27" s="2">
-        <f t="shared" ref="AQ27:AR27" si="15">+AP27*1.2</f>
+      <c r="AV27" s="2">
+        <f t="shared" ref="AV27:AW27" si="15">+AU27*1.2</f>
         <v>31576.78079999999</v>
       </c>
-      <c r="AR27" s="2">
+      <c r="AW27" s="2">
         <f t="shared" si="15"/>
         <v>37892.136959999989</v>
       </c>
     </row>
-    <row r="28" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
@@ -3785,79 +4026,79 @@
         <f>+U28+25</f>
         <v>922</v>
       </c>
-      <c r="X28" s="2">
+      <c r="AC28" s="2">
         <v>361.51299999999998</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="AD28" s="2">
         <v>405.613</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="AE28" s="2">
         <v>430.822</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AF28" s="2">
         <v>436</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AG28" s="2">
         <v>480</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AH28" s="2">
         <v>602</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AI28" s="2">
         <v>663</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AJ28" s="2">
         <v>815</v>
       </c>
-      <c r="AF28" s="2">
+      <c r="AK28" s="2">
         <v>991</v>
       </c>
-      <c r="AG28" s="2">
+      <c r="AL28" s="2">
         <v>1093</v>
       </c>
-      <c r="AH28" s="2">
+      <c r="AM28" s="2">
         <v>1940</v>
       </c>
-      <c r="AI28" s="2">
+      <c r="AN28" s="2">
         <v>2166</v>
       </c>
-      <c r="AJ28" s="2">
+      <c r="AO28" s="2">
         <v>2440</v>
       </c>
-      <c r="AK28" s="2">
+      <c r="AP28" s="2">
         <f>SUM(O28:R28)</f>
         <v>2655</v>
       </c>
-      <c r="AL28" s="2">
+      <c r="AQ28" s="2">
         <f>SUM(S28:V28)</f>
         <v>3438</v>
       </c>
-      <c r="AM28" s="2">
-        <f t="shared" ref="AM28:AP28" si="16">+AL28*1.2</f>
+      <c r="AR28" s="2">
+        <f t="shared" ref="AR28:AU28" si="16">+AQ28*1.2</f>
         <v>4125.5999999999995</v>
       </c>
-      <c r="AN28" s="2">
+      <c r="AS28" s="2">
         <f t="shared" si="16"/>
         <v>4950.7199999999993</v>
       </c>
-      <c r="AO28" s="2">
+      <c r="AT28" s="2">
         <f t="shared" si="16"/>
         <v>5940.8639999999987</v>
       </c>
-      <c r="AP28" s="2">
+      <c r="AU28" s="2">
         <f t="shared" si="16"/>
         <v>7129.036799999998</v>
       </c>
-      <c r="AQ28" s="2">
-        <f t="shared" ref="AQ28:AR28" si="17">+AP28*1.2</f>
+      <c r="AV28" s="2">
+        <f t="shared" ref="AV28:AW28" si="17">+AU28*1.2</f>
         <v>8554.8441599999969</v>
       </c>
-      <c r="AR28" s="2">
+      <c r="AW28" s="2">
         <f t="shared" si="17"/>
         <v>10265.812991999996</v>
       </c>
     </row>
-    <row r="29" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -3942,92 +4183,97 @@
         <v>4412</v>
       </c>
       <c r="W29" s="5"/>
-      <c r="X29" s="2">
-        <f t="shared" ref="X29:AJ29" si="26">+X27+X28</f>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="2">
+        <f t="shared" ref="AC29:AO29" si="26">+AC27+AC28</f>
         <v>1210.3430000000001</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="AD29" s="2">
         <f t="shared" si="26"/>
         <v>1408.2180000000001</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="AE29" s="2">
         <f t="shared" si="26"/>
         <v>1578.1039999999998</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AF29" s="2">
         <f t="shared" si="26"/>
         <v>1772</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AG29" s="2">
         <f t="shared" si="26"/>
         <v>1840</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AH29" s="2">
         <f t="shared" si="26"/>
         <v>1933</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AI29" s="2">
         <f t="shared" si="26"/>
         <v>2126</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AJ29" s="2">
         <f t="shared" si="26"/>
         <v>2612</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AK29" s="2">
         <f t="shared" si="26"/>
         <v>3367</v>
       </c>
-      <c r="AG29" s="2">
+      <c r="AL29" s="2">
         <f t="shared" si="26"/>
         <v>3922</v>
       </c>
-      <c r="AH29" s="2">
+      <c r="AM29" s="2">
         <f t="shared" si="26"/>
         <v>5864</v>
       </c>
-      <c r="AI29" s="2">
+      <c r="AN29" s="2">
         <f t="shared" si="26"/>
         <v>7434</v>
       </c>
-      <c r="AJ29" s="2">
+      <c r="AO29" s="2">
         <f t="shared" si="26"/>
         <v>9779</v>
       </c>
-      <c r="AK29" s="2">
+      <c r="AP29" s="2">
         <f>SUM(O29:R29)</f>
         <v>11329</v>
       </c>
-      <c r="AL29" s="2">
-        <f>+AL27+AL28</f>
+      <c r="AQ29" s="2">
+        <f>+AQ27+AQ28</f>
         <v>16128</v>
       </c>
-      <c r="AM29" s="2">
-        <f t="shared" ref="AM29:AP29" si="27">+AM27+AM28</f>
+      <c r="AR29" s="2">
+        <f t="shared" ref="AR29:AU29" si="27">+AR27+AR28</f>
         <v>19353.599999999999</v>
       </c>
-      <c r="AN29" s="2">
+      <c r="AS29" s="2">
         <f t="shared" si="27"/>
         <v>23224.32</v>
       </c>
-      <c r="AO29" s="2">
+      <c r="AT29" s="2">
         <f t="shared" si="27"/>
         <v>27869.183999999994</v>
       </c>
-      <c r="AP29" s="2">
+      <c r="AU29" s="2">
         <f t="shared" si="27"/>
         <v>33443.020799999991</v>
       </c>
-      <c r="AQ29" s="2">
-        <f t="shared" ref="AQ29" si="28">+AQ27+AQ28</f>
+      <c r="AV29" s="2">
+        <f t="shared" ref="AV29" si="28">+AV27+AV28</f>
         <v>40131.624959999986</v>
       </c>
-      <c r="AR29" s="2">
-        <f t="shared" ref="AR29" si="29">+AR27+AR28</f>
+      <c r="AW29" s="2">
+        <f t="shared" ref="AW29" si="29">+AW27+AW28</f>
         <v>48157.949951999981</v>
       </c>
     </row>
-    <row r="30" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
@@ -4112,92 +4358,97 @@
         <v>27456.772000000001</v>
       </c>
       <c r="W30" s="5"/>
-      <c r="X30" s="2">
-        <f t="shared" ref="X30:AL30" si="38">+X26-X29</f>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="2">
+        <f t="shared" ref="AC30:AQ30" si="38">+AC26-AC29</f>
         <v>198.74700000000007</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="AD30" s="2">
         <f t="shared" si="38"/>
         <v>648.29899999999975</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="AE30" s="2">
         <f t="shared" si="38"/>
         <v>648.23900000000003</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AF30" s="2">
         <f t="shared" si="38"/>
         <v>496</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AG30" s="2">
         <f t="shared" si="38"/>
         <v>759</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AH30" s="2">
         <f t="shared" si="38"/>
         <v>878</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AI30" s="2">
         <f t="shared" si="38"/>
         <v>1937</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AJ30" s="2">
         <f t="shared" si="38"/>
         <v>3210</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AK30" s="2">
         <f t="shared" si="38"/>
         <v>3804</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AL30" s="2">
         <f t="shared" si="38"/>
         <v>2846</v>
       </c>
-      <c r="AH30" s="2">
+      <c r="AM30" s="2">
         <f t="shared" si="38"/>
         <v>4532</v>
       </c>
-      <c r="AI30" s="2">
+      <c r="AN30" s="2">
         <f t="shared" si="38"/>
         <v>10041</v>
       </c>
-      <c r="AJ30" s="2">
+      <c r="AO30" s="2">
         <f t="shared" si="38"/>
         <v>5577</v>
       </c>
-      <c r="AK30" s="2">
+      <c r="AP30" s="2">
         <f t="shared" si="38"/>
         <v>33007</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AQ30" s="2">
         <f t="shared" si="38"/>
         <v>84876.771999999997</v>
       </c>
-      <c r="AM30" s="2">
-        <f t="shared" ref="AM30:AP30" si="39">+AM26-AM29</f>
+      <c r="AR30" s="2">
+        <f t="shared" ref="AR30:AU30" si="39">+AR26-AR29</f>
         <v>135113.77799999999</v>
       </c>
-      <c r="AN30" s="2">
+      <c r="AS30" s="2">
         <f t="shared" si="39"/>
         <v>208476.74699999997</v>
       </c>
-      <c r="AO30" s="2">
+      <c r="AT30" s="2">
         <f t="shared" si="39"/>
         <v>296512.30979999993</v>
       </c>
-      <c r="AP30" s="2">
+      <c r="AU30" s="2">
         <f t="shared" si="39"/>
         <v>420691.07051999983</v>
       </c>
-      <c r="AQ30" s="2">
-        <f t="shared" ref="AQ30" si="40">+AQ26-AQ29</f>
+      <c r="AV30" s="2">
+        <f t="shared" ref="AV30" si="40">+AV26-AV29</f>
         <v>550242.69375599991</v>
       </c>
-      <c r="AR30" s="2">
-        <f t="shared" ref="AR30" si="41">+AR26-AR29</f>
+      <c r="AW30" s="2">
+        <f t="shared" ref="AW30" si="41">+AW26-AW29</f>
         <v>719328.66437879985</v>
       </c>
     </row>
-    <row r="31" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
@@ -4236,7 +4487,7 @@
         <v>12</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" ref="N31" si="42">+AJ31-M31-L31-K31</f>
+        <f t="shared" ref="N31" si="42">+AO31-M31-L31-K31</f>
         <v>32</v>
       </c>
       <c r="O31" s="5">
@@ -4269,84 +4520,84 @@
         <f>+U31</f>
         <v>447</v>
       </c>
-      <c r="X31" s="2">
+      <c r="AC31" s="2">
         <f>19.057-3.127-0.508</f>
         <v>15.422000000000001</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="AD31" s="2">
         <f>19.149-3.089-0.963</f>
         <v>15.097000000000003</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="AE31" s="2">
         <f>19.908-3.294-2.814</f>
         <v>13.8</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AF31" s="2">
         <v>14</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AG31" s="2">
         <v>14</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AH31" s="2">
         <v>-4</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AI31" s="2">
         <v>-29</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AJ31" s="2">
         <v>-14</v>
       </c>
-      <c r="AF31" s="2">
+      <c r="AK31" s="2">
         <v>92</v>
       </c>
-      <c r="AG31" s="2">
+      <c r="AL31" s="2">
         <v>124</v>
       </c>
-      <c r="AH31" s="2">
+      <c r="AM31" s="2">
         <v>-123</v>
       </c>
-      <c r="AI31" s="2">
+      <c r="AN31" s="2">
         <f>29-236+107</f>
         <v>-100</v>
       </c>
-      <c r="AJ31" s="2">
+      <c r="AO31" s="2">
         <f>267-262-48</f>
         <v>-43</v>
       </c>
-      <c r="AK31" s="2">
+      <c r="AP31" s="2">
         <f>SUM(O31:R31)</f>
         <v>846</v>
       </c>
-      <c r="AL31" s="2">
+      <c r="AQ31" s="2">
         <f>SUM(S31:V31)</f>
         <v>1836</v>
       </c>
-      <c r="AM31" s="2">
-        <f>+AL31*1.1</f>
+      <c r="AR31" s="2">
+        <f>+AQ31*1.1</f>
         <v>2019.6000000000001</v>
       </c>
-      <c r="AN31" s="2">
-        <f>+AM31*1.1</f>
+      <c r="AS31" s="2">
+        <f>+AR31*1.1</f>
         <v>2221.5600000000004</v>
       </c>
-      <c r="AO31" s="2">
-        <f>+AN31*1.1</f>
+      <c r="AT31" s="2">
+        <f>+AS31*1.1</f>
         <v>2443.7160000000008</v>
       </c>
-      <c r="AP31" s="2">
-        <f>+AO31*1.1</f>
+      <c r="AU31" s="2">
+        <f>+AT31*1.1</f>
         <v>2688.0876000000012</v>
       </c>
-      <c r="AQ31" s="2">
-        <f t="shared" ref="AQ31:AR31" si="43">+AP31*1.1</f>
+      <c r="AV31" s="2">
+        <f t="shared" ref="AV31:AW31" si="43">+AU31*1.1</f>
         <v>2956.8963600000016</v>
       </c>
-      <c r="AR31" s="2">
+      <c r="AW31" s="2">
         <f t="shared" si="43"/>
         <v>3252.5859960000021</v>
       </c>
     </row>
-    <row r="32" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
@@ -4431,92 +4682,97 @@
         <v>27903.772000000001</v>
       </c>
       <c r="W32" s="5"/>
-      <c r="X32" s="2">
-        <f t="shared" ref="X32:AL32" si="46">+X30+X31</f>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="2">
+        <f t="shared" ref="AC32:AQ32" si="46">+AC30+AC31</f>
         <v>214.16900000000007</v>
       </c>
-      <c r="Y32" s="2">
+      <c r="AD32" s="2">
         <f t="shared" si="46"/>
         <v>663.39599999999973</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="AE32" s="2">
         <f t="shared" si="46"/>
         <v>662.03899999999999</v>
       </c>
-      <c r="AA32" s="2">
+      <c r="AF32" s="2">
         <f t="shared" si="46"/>
         <v>510</v>
       </c>
-      <c r="AB32" s="2">
+      <c r="AG32" s="2">
         <f t="shared" si="46"/>
         <v>773</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AH32" s="2">
         <f t="shared" si="46"/>
         <v>874</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AI32" s="2">
         <f t="shared" si="46"/>
         <v>1908</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AJ32" s="2">
         <f t="shared" si="46"/>
         <v>3196</v>
       </c>
-      <c r="AF32" s="2">
+      <c r="AK32" s="2">
         <f t="shared" si="46"/>
         <v>3896</v>
       </c>
-      <c r="AG32" s="2">
+      <c r="AL32" s="2">
         <f t="shared" si="46"/>
         <v>2970</v>
       </c>
-      <c r="AH32" s="2">
+      <c r="AM32" s="2">
         <f t="shared" si="46"/>
         <v>4409</v>
       </c>
-      <c r="AI32" s="2">
+      <c r="AN32" s="2">
         <f t="shared" si="46"/>
         <v>9941</v>
       </c>
-      <c r="AJ32" s="2">
+      <c r="AO32" s="2">
         <f t="shared" si="46"/>
         <v>5534</v>
       </c>
-      <c r="AK32" s="2">
+      <c r="AP32" s="2">
         <f t="shared" si="46"/>
         <v>33853</v>
       </c>
-      <c r="AL32" s="2">
+      <c r="AQ32" s="2">
         <f t="shared" si="46"/>
         <v>86712.771999999997</v>
       </c>
-      <c r="AM32" s="2">
-        <f t="shared" ref="AM32:AP32" si="47">+AM30+AM31</f>
+      <c r="AR32" s="2">
+        <f t="shared" ref="AR32:AU32" si="47">+AR30+AR31</f>
         <v>137133.378</v>
       </c>
-      <c r="AN32" s="2">
+      <c r="AS32" s="2">
         <f t="shared" si="47"/>
         <v>210698.30699999997</v>
       </c>
-      <c r="AO32" s="2">
+      <c r="AT32" s="2">
         <f t="shared" si="47"/>
         <v>298956.02579999994</v>
       </c>
-      <c r="AP32" s="2">
+      <c r="AU32" s="2">
         <f t="shared" si="47"/>
         <v>423379.15811999986</v>
       </c>
-      <c r="AQ32" s="2">
-        <f t="shared" ref="AQ32" si="48">+AQ30+AQ31</f>
+      <c r="AV32" s="2">
+        <f t="shared" ref="AV32" si="48">+AV30+AV31</f>
         <v>553199.59011599992</v>
       </c>
-      <c r="AR32" s="2">
-        <f t="shared" ref="AR32" si="49">+AR30+AR31</f>
+      <c r="AW32" s="2">
+        <f t="shared" ref="AW32" si="49">+AW30+AW31</f>
         <v>722581.25037479983</v>
       </c>
     </row>
-    <row r="33" spans="2:140" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
@@ -4554,7 +4810,7 @@
         <v>-67</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" ref="N33" si="50">+AJ33-M33-L33-K33</f>
+        <f t="shared" ref="N33" si="50">+AO33-M33-L33-K33</f>
         <v>61</v>
       </c>
       <c r="O33" s="5">
@@ -4582,79 +4838,79 @@
         <f>+V32*0.15</f>
         <v>4185.5658000000003</v>
       </c>
-      <c r="X33" s="2">
+      <c r="AC33" s="2">
         <v>18.023</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="AD33" s="2">
         <v>82.305999999999997</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="AE33" s="2">
         <v>99.503</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AF33" s="2">
         <v>70</v>
       </c>
-      <c r="AB33" s="2">
+      <c r="AG33" s="2">
         <v>124</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AH33" s="2">
         <v>129</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AI33" s="2">
         <v>239</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AJ33" s="2">
         <v>149</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AK33" s="2">
         <v>-245</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AL33" s="2">
         <v>174</v>
       </c>
-      <c r="AH33" s="2">
+      <c r="AM33" s="2">
         <v>77</v>
       </c>
-      <c r="AI33" s="2">
+      <c r="AN33" s="2">
         <v>189</v>
       </c>
-      <c r="AJ33" s="2">
+      <c r="AO33" s="2">
         <v>0</v>
       </c>
-      <c r="AK33" s="2">
+      <c r="AP33" s="2">
         <f>SUM(O33:R33)</f>
         <v>4059</v>
       </c>
-      <c r="AL33" s="2">
+      <c r="AQ33" s="2">
         <f>SUM(S33:V33)</f>
         <v>12205.5658</v>
       </c>
-      <c r="AM33" s="2">
-        <f t="shared" ref="AM33:AP33" si="51">+AM32*0.2</f>
+      <c r="AR33" s="2">
+        <f t="shared" ref="AR33:AU33" si="51">+AR32*0.2</f>
         <v>27426.675600000002</v>
       </c>
-      <c r="AN33" s="2">
+      <c r="AS33" s="2">
         <f t="shared" si="51"/>
         <v>42139.661399999997</v>
       </c>
-      <c r="AO33" s="2">
+      <c r="AT33" s="2">
         <f t="shared" si="51"/>
         <v>59791.20515999999</v>
       </c>
-      <c r="AP33" s="2">
+      <c r="AU33" s="2">
         <f t="shared" si="51"/>
         <v>84675.831623999984</v>
       </c>
-      <c r="AQ33" s="2">
-        <f t="shared" ref="AQ33" si="52">+AQ32*0.2</f>
+      <c r="AV33" s="2">
+        <f t="shared" ref="AV33" si="52">+AV32*0.2</f>
         <v>110639.91802319999</v>
       </c>
-      <c r="AR33" s="2">
-        <f t="shared" ref="AR33" si="53">+AR32*0.2</f>
+      <c r="AW33" s="2">
+        <f t="shared" ref="AW33" si="53">+AW32*0.2</f>
         <v>144516.25007495997</v>
       </c>
     </row>
-    <row r="34" spans="2:140" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
@@ -4738,476 +4994,476 @@
         <f t="shared" si="56"/>
         <v>23718.206200000001</v>
       </c>
-      <c r="X34" s="2">
-        <f t="shared" ref="X34:AL34" si="57">+X32-X33</f>
+      <c r="AC34" s="2">
+        <f t="shared" ref="AC34:AQ34" si="57">+AC32-AC33</f>
         <v>196.14600000000007</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="AD34" s="2">
         <f t="shared" si="57"/>
         <v>581.08999999999969</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="AE34" s="2">
         <f t="shared" si="57"/>
         <v>562.53599999999994</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AF34" s="2">
         <f t="shared" si="57"/>
         <v>440</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AG34" s="2">
         <f t="shared" si="57"/>
         <v>649</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AH34" s="2">
         <f t="shared" si="57"/>
         <v>745</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AI34" s="2">
         <f t="shared" si="57"/>
         <v>1669</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AJ34" s="2">
         <f t="shared" si="57"/>
         <v>3047</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AK34" s="2">
         <f t="shared" si="57"/>
         <v>4141</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AL34" s="2">
         <f t="shared" si="57"/>
         <v>2796</v>
       </c>
-      <c r="AH34" s="2">
+      <c r="AM34" s="2">
         <f t="shared" si="57"/>
         <v>4332</v>
       </c>
-      <c r="AI34" s="2">
+      <c r="AN34" s="2">
         <f t="shared" si="57"/>
         <v>9752</v>
       </c>
-      <c r="AJ34" s="2">
+      <c r="AO34" s="2">
         <f t="shared" si="57"/>
         <v>5534</v>
       </c>
-      <c r="AK34" s="2">
+      <c r="AP34" s="2">
         <f t="shared" si="57"/>
         <v>29794</v>
       </c>
-      <c r="AL34" s="2">
+      <c r="AQ34" s="2">
         <f t="shared" si="57"/>
         <v>74507.206200000001</v>
       </c>
-      <c r="AM34" s="2">
-        <f t="shared" ref="AM34:AP34" si="58">+AM32-AM33</f>
+      <c r="AR34" s="2">
+        <f t="shared" ref="AR34:AU34" si="58">+AR32-AR33</f>
         <v>109706.70239999999</v>
       </c>
-      <c r="AN34" s="2">
+      <c r="AS34" s="2">
         <f t="shared" si="58"/>
         <v>168558.64559999999</v>
       </c>
-      <c r="AO34" s="2">
+      <c r="AT34" s="2">
         <f t="shared" si="58"/>
         <v>239164.82063999996</v>
       </c>
-      <c r="AP34" s="2">
+      <c r="AU34" s="2">
         <f t="shared" si="58"/>
         <v>338703.32649599988</v>
       </c>
-      <c r="AQ34" s="2">
-        <f t="shared" ref="AQ34" si="59">+AQ32-AQ33</f>
+      <c r="AV34" s="2">
+        <f t="shared" ref="AV34" si="59">+AV32-AV33</f>
         <v>442559.67209279991</v>
       </c>
-      <c r="AR34" s="2">
-        <f t="shared" ref="AR34" si="60">+AR32-AR33</f>
+      <c r="AW34" s="2">
+        <f t="shared" ref="AW34" si="60">+AW32-AW33</f>
         <v>578065.00029983988</v>
       </c>
-      <c r="AS34" s="2">
-        <f t="shared" ref="AS34:BX34" si="61">AR34*(1+$AT$41)</f>
+      <c r="AX34" s="2">
+        <f t="shared" ref="AX34:CC34" si="61">AW34*(1+$AY$41)</f>
         <v>583845.6503028383</v>
       </c>
-      <c r="AT34" s="2">
+      <c r="AY34" s="2">
         <f t="shared" si="61"/>
         <v>589684.1068058667</v>
       </c>
-      <c r="AU34" s="2">
+      <c r="AZ34" s="2">
         <f t="shared" si="61"/>
         <v>595580.94787392532</v>
       </c>
-      <c r="AV34" s="2">
+      <c r="BA34" s="2">
         <f t="shared" si="61"/>
         <v>601536.7573526646</v>
       </c>
-      <c r="AW34" s="2">
+      <c r="BB34" s="2">
         <f t="shared" si="61"/>
         <v>607552.12492619129</v>
       </c>
-      <c r="AX34" s="2">
+      <c r="BC34" s="2">
         <f t="shared" si="61"/>
         <v>613627.64617545321</v>
       </c>
-      <c r="AY34" s="2">
+      <c r="BD34" s="2">
         <f t="shared" si="61"/>
         <v>619763.92263720778</v>
       </c>
-      <c r="AZ34" s="2">
+      <c r="BE34" s="2">
         <f t="shared" si="61"/>
         <v>625961.5618635799</v>
       </c>
-      <c r="BA34" s="2">
+      <c r="BF34" s="2">
         <f t="shared" si="61"/>
         <v>632221.17748221569</v>
       </c>
-      <c r="BB34" s="2">
+      <c r="BG34" s="2">
         <f t="shared" si="61"/>
         <v>638543.3892570379</v>
       </c>
-      <c r="BC34" s="2">
+      <c r="BH34" s="2">
         <f t="shared" si="61"/>
         <v>644928.82314960833</v>
       </c>
-      <c r="BD34" s="2">
+      <c r="BI34" s="2">
         <f t="shared" si="61"/>
         <v>651378.11138110445</v>
       </c>
-      <c r="BE34" s="2">
+      <c r="BJ34" s="2">
         <f t="shared" si="61"/>
         <v>657891.89249491552</v>
       </c>
-      <c r="BF34" s="2">
+      <c r="BK34" s="2">
         <f t="shared" si="61"/>
         <v>664470.81141986465</v>
       </c>
-      <c r="BG34" s="2">
+      <c r="BL34" s="2">
         <f t="shared" si="61"/>
         <v>671115.51953406329</v>
       </c>
-      <c r="BH34" s="2">
+      <c r="BM34" s="2">
         <f t="shared" si="61"/>
         <v>677826.67472940392</v>
       </c>
-      <c r="BI34" s="2">
+      <c r="BN34" s="2">
         <f t="shared" si="61"/>
         <v>684604.94147669792</v>
       </c>
-      <c r="BJ34" s="2">
+      <c r="BO34" s="2">
         <f t="shared" si="61"/>
         <v>691450.99089146487</v>
       </c>
-      <c r="BK34" s="2">
+      <c r="BP34" s="2">
         <f t="shared" si="61"/>
         <v>698365.50080037955</v>
       </c>
-      <c r="BL34" s="2">
+      <c r="BQ34" s="2">
         <f t="shared" si="61"/>
         <v>705349.15580838337</v>
       </c>
-      <c r="BM34" s="2">
+      <c r="BR34" s="2">
         <f t="shared" si="61"/>
         <v>712402.64736646716</v>
       </c>
-      <c r="BN34" s="2">
+      <c r="BS34" s="2">
         <f t="shared" si="61"/>
         <v>719526.67384013184</v>
       </c>
-      <c r="BO34" s="2">
+      <c r="BT34" s="2">
         <f t="shared" si="61"/>
         <v>726721.94057853322</v>
       </c>
-      <c r="BP34" s="2">
+      <c r="BU34" s="2">
         <f t="shared" si="61"/>
         <v>733989.15998431854</v>
       </c>
-      <c r="BQ34" s="2">
+      <c r="BV34" s="2">
         <f t="shared" si="61"/>
         <v>741329.0515841617</v>
       </c>
-      <c r="BR34" s="2">
+      <c r="BW34" s="2">
         <f t="shared" si="61"/>
         <v>748742.34210000327</v>
       </c>
-      <c r="BS34" s="2">
+      <c r="BX34" s="2">
         <f t="shared" si="61"/>
         <v>756229.76552100328</v>
       </c>
-      <c r="BT34" s="2">
+      <c r="BY34" s="2">
         <f t="shared" si="61"/>
         <v>763792.0631762133</v>
       </c>
-      <c r="BU34" s="2">
+      <c r="BZ34" s="2">
         <f t="shared" si="61"/>
         <v>771429.98380797543</v>
       </c>
-      <c r="BV34" s="2">
+      <c r="CA34" s="2">
         <f t="shared" si="61"/>
         <v>779144.28364605515</v>
       </c>
-      <c r="BW34" s="2">
+      <c r="CB34" s="2">
         <f t="shared" si="61"/>
         <v>786935.72648251569</v>
       </c>
-      <c r="BX34" s="2">
+      <c r="CC34" s="2">
         <f t="shared" si="61"/>
         <v>794805.08374734083</v>
       </c>
-      <c r="BY34" s="2">
-        <f t="shared" ref="BY34:DD34" si="62">BX34*(1+$AT$41)</f>
+      <c r="CD34" s="2">
+        <f t="shared" ref="CD34:DI34" si="62">CC34*(1+$AY$41)</f>
         <v>802753.13458481419</v>
       </c>
-      <c r="BZ34" s="2">
+      <c r="CE34" s="2">
         <f t="shared" si="62"/>
         <v>810780.6659306623</v>
       </c>
-      <c r="CA34" s="2">
+      <c r="CF34" s="2">
         <f t="shared" si="62"/>
         <v>818888.47258996894</v>
       </c>
-      <c r="CB34" s="2">
+      <c r="CG34" s="2">
         <f t="shared" si="62"/>
         <v>827077.3573158686</v>
       </c>
-      <c r="CC34" s="2">
+      <c r="CH34" s="2">
         <f t="shared" si="62"/>
         <v>835348.13088902726</v>
       </c>
-      <c r="CD34" s="2">
+      <c r="CI34" s="2">
         <f t="shared" si="62"/>
         <v>843701.61219791754</v>
       </c>
-      <c r="CE34" s="2">
+      <c r="CJ34" s="2">
         <f t="shared" si="62"/>
         <v>852138.62831989676</v>
       </c>
-      <c r="CF34" s="2">
+      <c r="CK34" s="2">
         <f t="shared" si="62"/>
         <v>860660.01460309571</v>
       </c>
-      <c r="CG34" s="2">
+      <c r="CL34" s="2">
         <f t="shared" si="62"/>
         <v>869266.61474912672</v>
       </c>
-      <c r="CH34" s="2">
+      <c r="CM34" s="2">
         <f t="shared" si="62"/>
         <v>877959.28089661803</v>
       </c>
-      <c r="CI34" s="2">
+      <c r="CN34" s="2">
         <f t="shared" si="62"/>
         <v>886738.87370558421</v>
       </c>
-      <c r="CJ34" s="2">
+      <c r="CO34" s="2">
         <f t="shared" si="62"/>
         <v>895606.26244264003</v>
       </c>
-      <c r="CK34" s="2">
+      <c r="CP34" s="2">
         <f t="shared" si="62"/>
         <v>904562.32506706647</v>
       </c>
-      <c r="CL34" s="2">
+      <c r="CQ34" s="2">
         <f t="shared" si="62"/>
         <v>913607.94831773709</v>
       </c>
-      <c r="CM34" s="2">
+      <c r="CR34" s="2">
         <f t="shared" si="62"/>
         <v>922744.02780091448</v>
       </c>
-      <c r="CN34" s="2">
+      <c r="CS34" s="2">
         <f t="shared" si="62"/>
         <v>931971.46807892364</v>
       </c>
-      <c r="CO34" s="2">
+      <c r="CT34" s="2">
         <f t="shared" si="62"/>
         <v>941291.18275971292</v>
       </c>
-      <c r="CP34" s="2">
+      <c r="CU34" s="2">
         <f t="shared" si="62"/>
         <v>950704.0945873101</v>
       </c>
-      <c r="CQ34" s="2">
+      <c r="CV34" s="2">
         <f t="shared" si="62"/>
         <v>960211.13553318323</v>
       </c>
-      <c r="CR34" s="2">
+      <c r="CW34" s="2">
         <f t="shared" si="62"/>
         <v>969813.24688851507</v>
       </c>
-      <c r="CS34" s="2">
+      <c r="CX34" s="2">
         <f t="shared" si="62"/>
         <v>979511.37935740023</v>
       </c>
-      <c r="CT34" s="2">
+      <c r="CY34" s="2">
         <f t="shared" si="62"/>
         <v>989306.49315097427</v>
       </c>
-      <c r="CU34" s="2">
+      <c r="CZ34" s="2">
         <f t="shared" si="62"/>
         <v>999199.55808248406</v>
       </c>
-      <c r="CV34" s="2">
+      <c r="DA34" s="2">
         <f t="shared" si="62"/>
         <v>1009191.553663309</v>
       </c>
-      <c r="CW34" s="2">
+      <c r="DB34" s="2">
         <f t="shared" si="62"/>
         <v>1019283.4691999421</v>
       </c>
-      <c r="CX34" s="2">
+      <c r="DC34" s="2">
         <f t="shared" si="62"/>
         <v>1029476.3038919416</v>
       </c>
-      <c r="CY34" s="2">
+      <c r="DD34" s="2">
         <f t="shared" si="62"/>
         <v>1039771.066930861</v>
       </c>
-      <c r="CZ34" s="2">
+      <c r="DE34" s="2">
         <f t="shared" si="62"/>
         <v>1050168.7776001696</v>
       </c>
-      <c r="DA34" s="2">
+      <c r="DF34" s="2">
         <f t="shared" si="62"/>
         <v>1060670.4653761713</v>
       </c>
-      <c r="DB34" s="2">
+      <c r="DG34" s="2">
         <f t="shared" si="62"/>
         <v>1071277.1700299331</v>
       </c>
-      <c r="DC34" s="2">
+      <c r="DH34" s="2">
         <f t="shared" si="62"/>
         <v>1081989.9417302324</v>
       </c>
-      <c r="DD34" s="2">
+      <c r="DI34" s="2">
         <f t="shared" si="62"/>
         <v>1092809.8411475348</v>
       </c>
-      <c r="DE34" s="2">
-        <f t="shared" ref="DE34:EJ34" si="63">DD34*(1+$AT$41)</f>
+      <c r="DJ34" s="2">
+        <f t="shared" ref="DJ34:EO34" si="63">DI34*(1+$AY$41)</f>
         <v>1103737.9395590101</v>
       </c>
-      <c r="DF34" s="2">
+      <c r="DK34" s="2">
         <f t="shared" si="63"/>
         <v>1114775.3189546003</v>
       </c>
-      <c r="DG34" s="2">
+      <c r="DL34" s="2">
         <f t="shared" si="63"/>
         <v>1125923.0721441463</v>
       </c>
-      <c r="DH34" s="2">
+      <c r="DM34" s="2">
         <f t="shared" si="63"/>
         <v>1137182.3028655879</v>
       </c>
-      <c r="DI34" s="2">
+      <c r="DN34" s="2">
         <f t="shared" si="63"/>
         <v>1148554.1258942438</v>
       </c>
-      <c r="DJ34" s="2">
+      <c r="DO34" s="2">
         <f t="shared" si="63"/>
         <v>1160039.6671531862</v>
       </c>
-      <c r="DK34" s="2">
+      <c r="DP34" s="2">
         <f t="shared" si="63"/>
         <v>1171640.0638247181</v>
       </c>
-      <c r="DL34" s="2">
+      <c r="DQ34" s="2">
         <f t="shared" si="63"/>
         <v>1183356.4644629653</v>
       </c>
-      <c r="DM34" s="2">
+      <c r="DR34" s="2">
         <f t="shared" si="63"/>
         <v>1195190.0291075949</v>
       </c>
-      <c r="DN34" s="2">
+      <c r="DS34" s="2">
         <f t="shared" si="63"/>
         <v>1207141.9293986708</v>
       </c>
-      <c r="DO34" s="2">
+      <c r="DT34" s="2">
         <f t="shared" si="63"/>
         <v>1219213.3486926574</v>
       </c>
-      <c r="DP34" s="2">
+      <c r="DU34" s="2">
         <f t="shared" si="63"/>
         <v>1231405.482179584</v>
       </c>
-      <c r="DQ34" s="2">
+      <c r="DV34" s="2">
         <f t="shared" si="63"/>
         <v>1243719.5370013798</v>
       </c>
-      <c r="DR34" s="2">
+      <c r="DW34" s="2">
         <f t="shared" si="63"/>
         <v>1256156.7323713936</v>
       </c>
-      <c r="DS34" s="2">
+      <c r="DX34" s="2">
         <f t="shared" si="63"/>
         <v>1268718.2996951076</v>
       </c>
-      <c r="DT34" s="2">
+      <c r="DY34" s="2">
         <f t="shared" si="63"/>
         <v>1281405.4826920587</v>
       </c>
-      <c r="DU34" s="2">
+      <c r="DZ34" s="2">
         <f t="shared" si="63"/>
         <v>1294219.5375189793</v>
       </c>
-      <c r="DV34" s="2">
+      <c r="EA34" s="2">
         <f t="shared" si="63"/>
         <v>1307161.7328941692</v>
       </c>
-      <c r="DW34" s="2">
+      <c r="EB34" s="2">
         <f t="shared" si="63"/>
         <v>1320233.3502231108</v>
       </c>
-      <c r="DX34" s="2">
+      <c r="EC34" s="2">
         <f t="shared" si="63"/>
         <v>1333435.6837253419</v>
       </c>
-      <c r="DY34" s="2">
+      <c r="ED34" s="2">
         <f t="shared" si="63"/>
         <v>1346770.0405625952</v>
       </c>
-      <c r="DZ34" s="2">
+      <c r="EE34" s="2">
         <f t="shared" si="63"/>
         <v>1360237.7409682211</v>
       </c>
-      <c r="EA34" s="2">
+      <c r="EF34" s="2">
         <f t="shared" si="63"/>
         <v>1373840.1183779032</v>
       </c>
-      <c r="EB34" s="2">
+      <c r="EG34" s="2">
         <f t="shared" si="63"/>
         <v>1387578.5195616824</v>
       </c>
-      <c r="EC34" s="2">
+      <c r="EH34" s="2">
         <f t="shared" si="63"/>
         <v>1401454.3047572991</v>
       </c>
-      <c r="ED34" s="2">
+      <c r="EI34" s="2">
         <f t="shared" si="63"/>
         <v>1415468.8478048721</v>
       </c>
-      <c r="EE34" s="2">
+      <c r="EJ34" s="2">
         <f t="shared" si="63"/>
         <v>1429623.5362829207</v>
       </c>
-      <c r="EF34" s="2">
+      <c r="EK34" s="2">
         <f t="shared" si="63"/>
         <v>1443919.7716457499</v>
       </c>
-      <c r="EG34" s="2">
+      <c r="EL34" s="2">
         <f t="shared" si="63"/>
         <v>1458358.9693622075</v>
       </c>
-      <c r="EH34" s="2">
+      <c r="EM34" s="2">
         <f t="shared" si="63"/>
         <v>1472942.5590558297</v>
       </c>
-      <c r="EI34" s="2">
+      <c r="EN34" s="2">
         <f t="shared" si="63"/>
         <v>1487671.9846463879</v>
       </c>
-      <c r="EJ34" s="2">
+      <c r="EO34" s="2">
         <f t="shared" si="63"/>
         <v>1502548.7044928519</v>
       </c>
     </row>
-    <row r="35" spans="2:140" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:145" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>12</v>
       </c>
@@ -5292,93 +5548,98 @@
         <v>0.95738299023169449</v>
       </c>
       <c r="W35" s="6"/>
-      <c r="X35" s="15">
-        <f t="shared" ref="X35" si="67">+X34/X36</f>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="15">
+        <f t="shared" ref="AC35" si="67">+AC34/AC36</f>
         <v>0.33319403958660349</v>
       </c>
-      <c r="Y35" s="15">
-        <f t="shared" ref="Y35:Z35" si="68">+Y34/Y36</f>
+      <c r="AD35" s="15">
+        <f t="shared" ref="AD35:AE35" si="68">+AD34/AD36</f>
         <v>0.94276012336725723</v>
       </c>
-      <c r="Z35" s="15">
+      <c r="AE35" s="15">
         <f t="shared" si="68"/>
         <v>0.90011952822354169</v>
       </c>
-      <c r="AA35" s="15">
-        <f t="shared" ref="AA35:AB35" si="69">+AA34/AA36</f>
+      <c r="AF35" s="15">
+        <f t="shared" ref="AF35:AG35" si="69">+AF34/AF36</f>
         <v>0.73949579831932777</v>
       </c>
-      <c r="AB35" s="15">
+      <c r="AG35" s="15">
         <f t="shared" si="69"/>
         <v>1.152753108348135</v>
       </c>
-      <c r="AC35" s="15">
-        <f t="shared" ref="AC35:AD35" si="70">+AC34/AC36</f>
+      <c r="AH35" s="15">
+        <f t="shared" ref="AH35:AI35" si="70">+AH34/AH36</f>
         <v>1.3093145869947276</v>
       </c>
-      <c r="AD35" s="15">
+      <c r="AI35" s="15">
         <f t="shared" si="70"/>
         <v>2.5716486902927582</v>
       </c>
-      <c r="AE35" s="15">
-        <f t="shared" ref="AE35:AF35" si="71">+AE34/AE36</f>
+      <c r="AJ35" s="15">
+        <f t="shared" ref="AJ35:AK35" si="71">+AJ34/AJ36</f>
         <v>4.8212025316455698</v>
       </c>
-      <c r="AF35" s="15">
+      <c r="AK35" s="15">
         <f t="shared" si="71"/>
         <v>6.6256000000000004</v>
       </c>
-      <c r="AG35" s="15">
-        <f t="shared" ref="AG35:AH35" si="72">+AG34/AG36</f>
+      <c r="AL35" s="15">
+        <f t="shared" ref="AL35:AM35" si="72">+AL34/AL36</f>
         <v>1.1310679611650485</v>
       </c>
-      <c r="AH35" s="15">
+      <c r="AM35" s="15">
         <f t="shared" si="72"/>
         <v>1.7258964143426294</v>
       </c>
-      <c r="AI35" s="15">
-        <f t="shared" ref="AI35:AP35" si="73">+AI34/AI36</f>
+      <c r="AN35" s="15">
+        <f t="shared" ref="AN35:AU35" si="73">+AN34/AN36</f>
         <v>3.8469428007889546</v>
       </c>
-      <c r="AJ35" s="15">
+      <c r="AO35" s="15">
         <f t="shared" si="73"/>
         <v>2.2074192261667331</v>
       </c>
-      <c r="AK35" s="15">
+      <c r="AP35" s="15">
         <f t="shared" si="73"/>
         <v>11.946271050521251</v>
       </c>
-      <c r="AL35" s="15">
+      <c r="AQ35" s="15">
         <f t="shared" si="73"/>
         <v>3.0074758294986679</v>
       </c>
-      <c r="AM35" s="15">
+      <c r="AR35" s="15">
         <f t="shared" si="73"/>
         <v>4.4282999273431818</v>
       </c>
-      <c r="AN35" s="15">
+      <c r="AS35" s="15">
         <f t="shared" si="73"/>
         <v>6.8038526519738429</v>
       </c>
-      <c r="AO35" s="15">
+      <c r="AT35" s="15">
         <f t="shared" si="73"/>
         <v>9.6538637539355765</v>
       </c>
-      <c r="AP35" s="15">
+      <c r="AU35" s="15">
         <f t="shared" si="73"/>
         <v>13.671725457980136</v>
       </c>
-      <c r="AQ35" s="15">
-        <f t="shared" ref="AQ35:AR35" si="74">+AQ34/AQ36</f>
+      <c r="AV35" s="15">
+        <f t="shared" ref="AV35:AW35" si="74">+AV34/AV36</f>
         <v>17.863876325696292</v>
       </c>
-      <c r="AR35" s="15">
+      <c r="AW35" s="15">
         <f t="shared" si="74"/>
         <v>23.33353516992976</v>
       </c>
-      <c r="AS35" s="15"/>
-    </row>
-    <row r="36" spans="2:140" x14ac:dyDescent="0.2">
+      <c r="AX35" s="15"/>
+    </row>
+    <row r="36" spans="2:145" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -5416,7 +5677,7 @@
         <v>2499</v>
       </c>
       <c r="N36" s="5">
-        <f>+AJ36</f>
+        <f>+AO36</f>
         <v>2507</v>
       </c>
       <c r="O36" s="5">
@@ -5445,79 +5706,84 @@
         <v>24774</v>
       </c>
       <c r="W36" s="2"/>
-      <c r="X36" s="2">
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2">
         <v>588.68399999999997</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="AD36" s="2">
         <v>616.37099999999998</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="AE36" s="2">
         <v>624.95699999999999</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AF36" s="2">
         <v>595</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AG36" s="2">
         <v>563</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AH36" s="2">
         <v>569</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AI36" s="2">
         <v>649</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AJ36" s="2">
         <v>632</v>
       </c>
-      <c r="AF36" s="2">
+      <c r="AK36" s="2">
         <v>625</v>
       </c>
-      <c r="AG36" s="2">
+      <c r="AL36" s="2">
         <v>2472</v>
       </c>
-      <c r="AH36" s="2">
+      <c r="AM36" s="2">
         <v>2510</v>
       </c>
-      <c r="AI36" s="2">
+      <c r="AN36" s="2">
         <v>2535</v>
       </c>
-      <c r="AJ36" s="2">
+      <c r="AO36" s="2">
         <v>2507</v>
       </c>
-      <c r="AK36" s="2">
+      <c r="AP36" s="2">
         <v>2494</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AQ36" s="2">
         <f>V36</f>
         <v>24774</v>
       </c>
-      <c r="AM36" s="2">
-        <f>+AL36</f>
+      <c r="AR36" s="2">
+        <f>+AQ36</f>
         <v>24774</v>
       </c>
-      <c r="AN36" s="2">
-        <f>+AM36</f>
+      <c r="AS36" s="2">
+        <f>+AR36</f>
         <v>24774</v>
       </c>
-      <c r="AO36" s="2">
-        <f>+AN36</f>
+      <c r="AT36" s="2">
+        <f>+AS36</f>
         <v>24774</v>
       </c>
-      <c r="AP36" s="2">
-        <f>+AO36</f>
+      <c r="AU36" s="2">
+        <f>+AT36</f>
         <v>24774</v>
       </c>
-      <c r="AQ36" s="2">
-        <f t="shared" ref="AQ36:AR36" si="76">+AP36</f>
+      <c r="AV36" s="2">
+        <f t="shared" ref="AV36:AW36" si="76">+AU36</f>
         <v>24774</v>
       </c>
-      <c r="AR36" s="2">
+      <c r="AW36" s="2">
         <f t="shared" si="76"/>
         <v>24774</v>
       </c>
-      <c r="AS36" s="2"/>
-    </row>
-    <row r="38" spans="2:140" x14ac:dyDescent="0.2">
+      <c r="AX36" s="2"/>
+    </row>
+    <row r="38" spans="2:145" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>71</v>
       </c>
@@ -5587,90 +5853,95 @@
       </c>
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
-      <c r="Y38" s="10">
-        <f t="shared" ref="Y38:AR38" si="82">+Y24/X24-1</f>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10">
+        <f t="shared" ref="AD38:AW38" si="82">+AD24/AC24-1</f>
         <v>0.12830407960468571</v>
       </c>
-      <c r="Z38" s="10">
+      <c r="AE38" s="10">
         <f t="shared" si="82"/>
         <v>7.0593782282331041E-2</v>
       </c>
-      <c r="AA38" s="10">
+      <c r="AF38" s="10">
         <f t="shared" si="82"/>
         <v>-3.5082575203397748E-2</v>
       </c>
-      <c r="AB38" s="10">
+      <c r="AG38" s="10">
         <f t="shared" si="82"/>
         <v>0.13365617433414045</v>
       </c>
-      <c r="AC38" s="10">
+      <c r="AH38" s="10">
         <f t="shared" si="82"/>
         <v>7.0055531824006811E-2</v>
       </c>
-      <c r="AD38" s="10">
+      <c r="AI38" s="10">
         <f t="shared" si="82"/>
         <v>0.37924151696606789</v>
       </c>
-      <c r="AE38" s="10">
+      <c r="AJ38" s="10">
         <f t="shared" si="82"/>
         <v>0.40578871201157751</v>
       </c>
-      <c r="AF38" s="10">
+      <c r="AK38" s="10">
         <f t="shared" si="82"/>
         <v>0.20609429689108505</v>
       </c>
-      <c r="AG38" s="10">
+      <c r="AL38" s="10">
         <f t="shared" si="82"/>
         <v>-6.8111983612154314E-2</v>
       </c>
-      <c r="AH38" s="10">
+      <c r="AM38" s="10">
         <f t="shared" si="82"/>
         <v>0.52729437625938824</v>
       </c>
-      <c r="AI38" s="10">
+      <c r="AN38" s="10">
         <f t="shared" si="82"/>
         <v>0.61403298350824587</v>
       </c>
-      <c r="AJ38" s="10">
+      <c r="AO38" s="10">
         <f t="shared" si="82"/>
         <v>2.2293230289069932E-3</v>
       </c>
-      <c r="AK38" s="10">
+      <c r="AP38" s="10">
         <f t="shared" si="82"/>
         <v>1.2598428115963523</v>
       </c>
-      <c r="AL38" s="10">
+      <c r="AQ38" s="10">
         <f t="shared" si="82"/>
         <v>1.1658447758255819</v>
       </c>
-      <c r="AM38" s="10">
-        <f>+AM24/AL24-1</f>
+      <c r="AR38" s="10">
+        <f>+AR24/AQ24-1</f>
         <v>0.5</v>
       </c>
-      <c r="AN38" s="10">
+      <c r="AS38" s="10">
         <f t="shared" si="82"/>
         <v>0.5</v>
       </c>
-      <c r="AO38" s="10">
+      <c r="AT38" s="10">
         <f t="shared" si="82"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="AP38" s="10">
+      <c r="AU38" s="10">
         <f t="shared" si="82"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="AQ38" s="10">
+      <c r="AV38" s="10">
         <f t="shared" si="82"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AR38" s="10">
+      <c r="AW38" s="10">
         <f t="shared" si="82"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AS38" s="10"/>
-      <c r="AT38" s="10"/>
-    </row>
-    <row r="39" spans="2:140" x14ac:dyDescent="0.2">
+      <c r="AX38" s="10"/>
+      <c r="AY38" s="10"/>
+    </row>
+    <row r="39" spans="2:145" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>72</v>
       </c>
@@ -5755,8 +6026,13 @@
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
-    </row>
-    <row r="40" spans="2:140" x14ac:dyDescent="0.2">
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+    </row>
+    <row r="40" spans="2:145" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>73</v>
       </c>
@@ -5825,8 +6101,13 @@
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
-    </row>
-    <row r="41" spans="2:140" x14ac:dyDescent="0.2">
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+    </row>
+    <row r="41" spans="2:145" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>5</v>
       </c>
@@ -5908,90 +6189,95 @@
         <v>0.78</v>
       </c>
       <c r="W41" s="7"/>
-      <c r="X41" s="7">
-        <f t="shared" ref="X41" si="98">X26/X24</f>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7">
+        <f t="shared" ref="AC41" si="98">AC26/AC24</f>
         <v>0.39767629636591112</v>
       </c>
-      <c r="Y41" s="7">
-        <f t="shared" ref="Y41:Z41" si="99">Y26/Y24</f>
+      <c r="AD41" s="7">
+        <f t="shared" ref="AD41:AE41" si="99">AD26/AD24</f>
         <v>0.51439544964519135</v>
       </c>
-      <c r="Z41" s="7">
+      <c r="AE41" s="7">
         <f t="shared" si="99"/>
         <v>0.52015427464260089</v>
       </c>
-      <c r="AA41" s="7">
-        <f t="shared" ref="AA41:AP41" si="100">AA26/AA24</f>
+      <c r="AF41" s="7">
+        <f t="shared" ref="AF41:AU41" si="100">AF26/AF24</f>
         <v>0.54915254237288136</v>
       </c>
-      <c r="AB41" s="7">
+      <c r="AG41" s="7">
         <f t="shared" si="100"/>
         <v>0.55510465612985904</v>
       </c>
-      <c r="AC41" s="7">
+      <c r="AH41" s="7">
         <f t="shared" si="100"/>
         <v>0.56107784431137719</v>
       </c>
-      <c r="AD41" s="7">
+      <c r="AI41" s="7">
         <f t="shared" si="100"/>
         <v>0.58798842257597683</v>
       </c>
-      <c r="AE41" s="7">
+      <c r="AJ41" s="7">
         <f t="shared" si="100"/>
         <v>0.59934115709285563</v>
       </c>
-      <c r="AF41" s="7">
+      <c r="AK41" s="7">
         <f t="shared" si="100"/>
         <v>0.61206896551724133</v>
       </c>
-      <c r="AG41" s="7">
+      <c r="AL41" s="7">
         <f t="shared" si="100"/>
         <v>0.61989375343469499</v>
       </c>
-      <c r="AH41" s="7">
+      <c r="AM41" s="7">
         <f t="shared" si="100"/>
         <v>0.62344827586206897</v>
       </c>
-      <c r="AI41" s="7">
+      <c r="AN41" s="7">
         <f t="shared" si="100"/>
         <v>0.64929033216913135</v>
       </c>
-      <c r="AJ41" s="7">
+      <c r="AO41" s="7">
         <f t="shared" si="100"/>
         <v>0.56928894490991322</v>
       </c>
-      <c r="AK41" s="7">
+      <c r="AP41" s="7">
         <f t="shared" si="100"/>
         <v>0.72733238184293847</v>
       </c>
-      <c r="AL41" s="7">
+      <c r="AQ41" s="7">
         <f t="shared" si="100"/>
         <v>0.76505204380435587</v>
       </c>
-      <c r="AM41" s="7">
+      <c r="AR41" s="7">
         <f t="shared" si="100"/>
         <v>0.78</v>
       </c>
-      <c r="AN41" s="7">
+      <c r="AS41" s="7">
         <f t="shared" si="100"/>
         <v>0.78</v>
       </c>
-      <c r="AO41" s="7">
+      <c r="AT41" s="7">
         <f t="shared" si="100"/>
         <v>0.78</v>
       </c>
-      <c r="AP41" s="7">
+      <c r="AU41" s="7">
         <f t="shared" si="100"/>
         <v>0.78</v>
       </c>
-      <c r="AS41" t="s">
+      <c r="AX41" t="s">
         <v>167</v>
       </c>
-      <c r="AT41" s="10">
+      <c r="AY41" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="2:140" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:145" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>24</v>
       </c>
@@ -6080,23 +6366,28 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
-      <c r="AS42" t="s">
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AX42" t="s">
         <v>165</v>
       </c>
-      <c r="AT42" s="10">
+      <c r="AY42" s="10">
         <v>0.09</v>
       </c>
     </row>
-    <row r="43" spans="2:140" x14ac:dyDescent="0.2">
-      <c r="AS43" t="s">
+    <row r="43" spans="2:145" x14ac:dyDescent="0.25">
+      <c r="AX43" t="s">
         <v>166</v>
       </c>
-      <c r="AT43" s="2">
-        <f>NPV(AT42,AM34:EJ34)+Main!K5-Main!K6</f>
+      <c r="AY43" s="2">
+        <f>NPV(AY42,AR34:EO34)+Main!K5-Main!K6</f>
         <v>5678198.9146928452</v>
       </c>
     </row>
-    <row r="44" spans="2:140" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:145" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>163</v>
       </c>
@@ -6162,15 +6453,20 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
-      <c r="AS44" t="s">
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AX44" t="s">
         <v>13</v>
       </c>
-      <c r="AT44" s="15">
-        <f>AT43/Main!K3</f>
+      <c r="AY44" s="15">
+        <f>AY43/Main!K3</f>
         <v>229.1999238997677</v>
       </c>
     </row>
-    <row r="45" spans="2:140" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
@@ -6232,12 +6528,12 @@
         <f>9107+29380</f>
         <v>38487</v>
       </c>
-      <c r="AK45" s="2">
+      <c r="AP45" s="2">
         <f>+R45</f>
         <v>25984</v>
       </c>
     </row>
-    <row r="46" spans="2:140" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
@@ -6286,12 +6582,12 @@
       <c r="U46" s="2">
         <v>17693</v>
       </c>
-      <c r="AK46" s="2">
-        <f t="shared" ref="AK46:AK53" si="108">+R46</f>
+      <c r="AP46" s="2">
+        <f t="shared" ref="AP46:AP53" si="108">+R46</f>
         <v>9999</v>
       </c>
     </row>
-    <row r="47" spans="2:140" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>40</v>
       </c>
@@ -6340,12 +6636,12 @@
       <c r="U47" s="2">
         <v>7654</v>
       </c>
-      <c r="AK47" s="2">
+      <c r="AP47" s="2">
         <f t="shared" si="108"/>
         <v>5282</v>
       </c>
     </row>
-    <row r="48" spans="2:140" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>41</v>
       </c>
@@ -6394,12 +6690,12 @@
       <c r="U48" s="2">
         <v>3806</v>
       </c>
-      <c r="AK48" s="2">
+      <c r="AP48" s="2">
         <f t="shared" si="108"/>
         <v>3080</v>
       </c>
     </row>
-    <row r="49" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>42</v>
       </c>
@@ -6448,12 +6744,12 @@
       <c r="U49" s="2">
         <v>5343</v>
       </c>
-      <c r="AK49" s="2">
+      <c r="AP49" s="2">
         <f t="shared" si="108"/>
         <v>3914</v>
       </c>
     </row>
-    <row r="50" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>43</v>
       </c>
@@ -6502,12 +6798,12 @@
       <c r="U50" s="2">
         <v>1755</v>
       </c>
-      <c r="AK50" s="2">
+      <c r="AP50" s="2">
         <f t="shared" si="108"/>
         <v>1346</v>
       </c>
     </row>
-    <row r="51" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>44</v>
       </c>
@@ -6569,12 +6865,12 @@
         <f>4724+838</f>
         <v>5562</v>
       </c>
-      <c r="AK51" s="2">
+      <c r="AP51" s="2">
         <f t="shared" si="108"/>
         <v>5542</v>
       </c>
     </row>
-    <row r="52" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
@@ -6623,12 +6919,12 @@
       <c r="U52" s="2">
         <v>10276</v>
       </c>
-      <c r="AK52" s="2">
+      <c r="AP52" s="2">
         <f t="shared" si="108"/>
         <v>6081</v>
       </c>
     </row>
-    <row r="53" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>45</v>
       </c>
@@ -6677,12 +6973,12 @@
       <c r="U53" s="2">
         <v>5437</v>
       </c>
-      <c r="AK53" s="2">
+      <c r="AP53" s="2">
         <f t="shared" si="108"/>
         <v>4500</v>
       </c>
     </row>
-    <row r="54" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>37</v>
       </c>
@@ -6744,12 +7040,12 @@
         <f t="shared" si="112"/>
         <v>96013</v>
       </c>
-      <c r="AK54" s="2">
-        <f>SUM(AK45:AK53)</f>
+      <c r="AP54" s="2">
+        <f>SUM(AP45:AP53)</f>
         <v>65728</v>
       </c>
     </row>
-    <row r="55" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -6763,7 +7059,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>36</v>
       </c>
@@ -6812,12 +7108,12 @@
       <c r="U56" s="2">
         <v>5353</v>
       </c>
-      <c r="AK56" s="2">
-        <f t="shared" ref="AK56:AK61" si="113">+R56</f>
+      <c r="AP56" s="2">
+        <f t="shared" ref="AP56:AP61" si="113">+R56</f>
         <v>2699</v>
       </c>
     </row>
-    <row r="57" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>35</v>
       </c>
@@ -6866,12 +7162,12 @@
       <c r="U57" s="2">
         <v>11126</v>
       </c>
-      <c r="AK57" s="2">
+      <c r="AP57" s="2">
         <f t="shared" si="113"/>
         <v>6682</v>
       </c>
     </row>
-    <row r="58" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>34</v>
       </c>
@@ -6930,12 +7226,12 @@
       <c r="U58" s="2">
         <v>8462</v>
       </c>
-      <c r="AK58" s="2">
+      <c r="AP58" s="2">
         <f t="shared" si="113"/>
         <v>9709</v>
       </c>
     </row>
-    <row r="59" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>33</v>
       </c>
@@ -6985,12 +7281,12 @@
       <c r="U59" s="2">
         <v>1490</v>
       </c>
-      <c r="AK59" s="2">
+      <c r="AP59" s="2">
         <f t="shared" si="113"/>
         <v>1119</v>
       </c>
     </row>
-    <row r="60" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -7039,12 +7335,12 @@
       <c r="U60" s="2">
         <v>3683</v>
       </c>
-      <c r="AK60" s="2">
+      <c r="AP60" s="2">
         <f t="shared" si="113"/>
         <v>2541</v>
       </c>
     </row>
-    <row r="61" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>31</v>
       </c>
@@ -7093,12 +7389,12 @@
       <c r="U61" s="2">
         <v>65899</v>
       </c>
-      <c r="AK61" s="2">
+      <c r="AP61" s="2">
         <f t="shared" si="113"/>
         <v>42978</v>
       </c>
     </row>
-    <row r="62" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>30</v>
       </c>
@@ -7160,17 +7456,17 @@
         <f t="shared" si="117"/>
         <v>96013</v>
       </c>
-      <c r="AK62" s="2">
-        <f>SUM(AK56:AK61)</f>
+      <c r="AP62" s="2">
+        <f>SUM(AP56:AP61)</f>
         <v>65728</v>
       </c>
     </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:42" x14ac:dyDescent="0.25">
       <c r="O63" s="5"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>173</v>
       </c>
@@ -7234,16 +7530,16 @@
         <f t="shared" si="119"/>
         <v>19309</v>
       </c>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AK64" s="2">
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AP64" s="2">
         <f>SUM(O64:R64)</f>
         <v>29794</v>
       </c>
     </row>
-    <row r="65" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>177</v>
       </c>
@@ -7278,13 +7574,13 @@
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AK65" s="2"/>
-    </row>
-    <row r="66" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AP65" s="2"/>
+    </row>
+    <row r="66" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>174</v>
       </c>
@@ -7318,13 +7614,13 @@
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AK66" s="2"/>
-    </row>
-    <row r="67" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AP66" s="2"/>
+    </row>
+    <row r="67" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>53</v>
       </c>
@@ -7376,16 +7672,16 @@
         <f>3416-T67-S67</f>
         <v>1252</v>
       </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AK67" s="2">
-        <f t="shared" ref="AK67:AK72" si="120">SUM(O67:R67)</f>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AP67" s="2">
+        <f t="shared" ref="AP67:AP72" si="120">SUM(O67:R67)</f>
         <v>3549</v>
       </c>
     </row>
-    <row r="68" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>55</v>
       </c>
@@ -7437,12 +7733,12 @@
         <f>1321-T68-S68</f>
         <v>478</v>
       </c>
-      <c r="AK68" s="2">
+      <c r="AP68" s="2">
         <f t="shared" si="120"/>
         <v>1508</v>
       </c>
     </row>
-    <row r="69" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>56</v>
       </c>
@@ -7494,12 +7790,12 @@
         <f>-302-T69-S69</f>
         <v>-38</v>
       </c>
-      <c r="AK69" s="2">
+      <c r="AP69" s="2">
         <f t="shared" si="120"/>
         <v>-238</v>
       </c>
     </row>
-    <row r="70" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>57</v>
       </c>
@@ -7551,16 +7847,16 @@
         <f>-3879-T70-S70</f>
         <v>-603</v>
       </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-      <c r="AK70" s="2">
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AP70" s="2">
         <f t="shared" si="120"/>
         <v>-2489</v>
       </c>
     </row>
-    <row r="71" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>46</v>
       </c>
@@ -7612,12 +7908,12 @@
         <f>-365-T71-S71</f>
         <v>-77</v>
       </c>
-      <c r="AK71" s="2">
+      <c r="AP71" s="2">
         <f t="shared" si="120"/>
         <v>-278</v>
       </c>
     </row>
-    <row r="72" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>58</v>
       </c>
@@ -7673,15 +7969,15 @@
         <f>-7694-2357-726+2490+3918+849-T72-S72</f>
         <v>-2694</v>
       </c>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AK72" s="2">
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AP72" s="2">
         <f t="shared" si="120"/>
         <v>-3722</v>
       </c>
     </row>
-    <row r="73" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>54</v>
       </c>
@@ -7737,22 +8033,22 @@
         <f t="shared" si="121"/>
         <v>17627</v>
       </c>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AK73" s="2">
-        <f>SUM(AK64:AK72)</f>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AP73" s="2">
+        <f>SUM(AP64:AP72)</f>
         <v>28124</v>
       </c>
     </row>
-    <row r="74" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:42" x14ac:dyDescent="0.25">
       <c r="K74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>59</v>
       </c>
@@ -7808,16 +8104,16 @@
         <f>9485+318+171-19565-T75-S75-1008</f>
         <v>-3385</v>
       </c>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AK75" s="2">
-        <f t="shared" ref="AK75:AK77" si="122">SUM(O75:R75)</f>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AP75" s="2">
+        <f t="shared" ref="AP75:AP77" si="122">SUM(O75:R75)</f>
         <v>-9414</v>
       </c>
     </row>
-    <row r="76" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>60</v>
       </c>
@@ -7869,16 +8165,16 @@
         <f>-2159-T76-S76</f>
         <v>-813</v>
       </c>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AK76" s="2">
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AP76" s="2">
         <f t="shared" si="122"/>
         <v>-1069</v>
       </c>
     </row>
-    <row r="77" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>61</v>
       </c>
@@ -7929,16 +8225,16 @@
         <f>-465-T77-S77</f>
         <v>-148</v>
       </c>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AK77" s="2">
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AP77" s="2">
         <f t="shared" si="122"/>
         <v>-83</v>
       </c>
     </row>
-    <row r="78" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>62</v>
       </c>
@@ -7994,19 +8290,19 @@
         <f t="shared" si="123"/>
         <v>-4346</v>
       </c>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AK78" s="2">
-        <f>SUM(AK75:AK77)</f>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AP78" s="2">
+        <f>SUM(AP75:AP77)</f>
         <v>-10566</v>
       </c>
     </row>
-    <row r="79" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:42" x14ac:dyDescent="0.25">
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>65</v>
       </c>
@@ -8065,12 +8361,12 @@
         <f>489-T80-S80</f>
         <v>204</v>
       </c>
-      <c r="AK80" s="2">
-        <f t="shared" ref="AK80:AK85" si="124">SUM(O80:R80)</f>
+      <c r="AP80" s="2">
+        <f t="shared" ref="AP80:AP85" si="124">SUM(O80:R80)</f>
         <v>403</v>
       </c>
     </row>
-    <row r="81" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>66</v>
       </c>
@@ -8128,12 +8424,12 @@
         <f>-5068-T81-S81</f>
         <v>-1679</v>
       </c>
-      <c r="AK81" s="2">
+      <c r="AP81" s="2">
         <f t="shared" si="124"/>
         <v>-2783</v>
       </c>
     </row>
-    <row r="82" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>67</v>
       </c>
@@ -8191,12 +8487,12 @@
         <f>-589-T82-S82</f>
         <v>-245</v>
       </c>
-      <c r="AK82" s="2">
+      <c r="AP82" s="2">
         <f t="shared" si="124"/>
         <v>-395</v>
       </c>
     </row>
-    <row r="83" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>69</v>
       </c>
@@ -8253,12 +8549,12 @@
         <f>-25895-T83-S83</f>
         <v>-10997</v>
       </c>
-      <c r="AK83" s="2">
+      <c r="AP83" s="2">
         <f t="shared" si="124"/>
         <v>-9533</v>
       </c>
     </row>
-    <row r="84" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>34</v>
       </c>
@@ -8309,15 +8605,15 @@
         <f>-1250-T84-S84</f>
         <v>0</v>
       </c>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-      <c r="AK84" s="2">
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AP84" s="2">
         <f t="shared" si="124"/>
         <v>-1250</v>
       </c>
     </row>
-    <row r="85" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>68</v>
       </c>
@@ -8370,12 +8666,12 @@
         <f>-97-T85-S85</f>
         <v>-28</v>
       </c>
-      <c r="AK85" s="2">
+      <c r="AP85" s="2">
         <f t="shared" si="124"/>
         <v>-74</v>
       </c>
     </row>
-    <row r="86" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>64</v>
       </c>
@@ -8431,16 +8727,16 @@
         <f t="shared" si="125"/>
         <v>-12745</v>
       </c>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AK86" s="2">
-        <f>SUM(AK80:AK85)</f>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AP86" s="2">
+        <f>SUM(AP80:AP85)</f>
         <v>-13632</v>
       </c>
     </row>
-    <row r="87" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>63</v>
       </c>
@@ -8496,16 +8792,16 @@
         <f t="shared" si="126"/>
         <v>536</v>
       </c>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AK87" s="5">
-        <f>AK86+AK78+AK73</f>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AP87" s="5">
+        <f>AP86+AP78+AP73</f>
         <v>3926</v>
       </c>
     </row>
-    <row r="89" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>70</v>
       </c>
@@ -8561,12 +8857,12 @@
         <f t="shared" si="127"/>
         <v>45.389943560800411</v>
       </c>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-    </row>
-    <row r="91" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+    </row>
+    <row r="91" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>147</v>
       </c>
@@ -8582,38 +8878,38 @@
       <c r="V91">
         <v>7.19</v>
       </c>
-      <c r="AL91">
+      <c r="AQ91">
         <v>25.36</v>
       </c>
-      <c r="AM91">
+      <c r="AR91">
         <v>31.51</v>
       </c>
-      <c r="AN91">
+      <c r="AS91">
         <v>34.94</v>
       </c>
-      <c r="AO91">
+      <c r="AT91">
         <v>37.049999999999997</v>
       </c>
-      <c r="AP91">
+      <c r="AU91">
         <v>36.58</v>
       </c>
-      <c r="AQ91">
+      <c r="AV91">
         <v>44.15</v>
       </c>
-      <c r="AR91">
+      <c r="AW91">
         <v>49.91</v>
       </c>
-      <c r="AS91">
+      <c r="AX91">
         <v>81.459999999999994</v>
       </c>
-      <c r="AT91">
+      <c r="AY91">
         <v>92.67</v>
       </c>
-      <c r="AU91">
+      <c r="AZ91">
         <v>105.45</v>
       </c>
     </row>
-    <row r="92" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>148</v>
       </c>
@@ -8634,8 +8930,13 @@
       <c r="Y92" s="14"/>
       <c r="Z92" s="14"/>
       <c r="AA92" s="14"/>
-    </row>
-    <row r="94" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AB92" s="14"/>
+      <c r="AC92" s="14"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="14"/>
+      <c r="AF92" s="14"/>
+    </row>
+    <row r="94" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>76</v>
       </c>
@@ -8678,12 +8979,17 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
-      <c r="AL94" s="2">
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+      <c r="AQ94" s="2">
         <f>SUM(S94:V94)</f>
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>77</v>
       </c>
@@ -8726,12 +9032,17 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
-      <c r="AL95" s="2">
-        <f t="shared" ref="AL95:AL113" si="128">SUM(S95:V95)</f>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+      <c r="AQ95" s="2">
+        <f t="shared" ref="AQ95:AQ113" si="128">SUM(S95:V95)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>87</v>
       </c>
@@ -8774,12 +9085,17 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
-      <c r="AL96" s="2">
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+      <c r="AQ96" s="2">
         <f t="shared" si="128"/>
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>78</v>
       </c>
@@ -8822,12 +9138,17 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
-      <c r="AL97" s="2">
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5"/>
+      <c r="AQ97" s="2">
         <f t="shared" si="128"/>
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>79</v>
       </c>
@@ -8870,12 +9191,17 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
-      <c r="AL98" s="2">
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+      <c r="AQ98" s="2">
         <f t="shared" si="128"/>
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>88</v>
       </c>
@@ -8918,12 +9244,17 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
-      <c r="AL99" s="2">
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+      <c r="AQ99" s="2">
         <f t="shared" si="128"/>
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -8966,12 +9297,17 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
-      <c r="AL100" s="2">
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5"/>
+      <c r="AQ100" s="2">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>81</v>
       </c>
@@ -9014,12 +9350,17 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
-      <c r="AL101" s="2">
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5"/>
+      <c r="AQ101" s="2">
         <f t="shared" si="128"/>
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>89</v>
       </c>
@@ -9062,12 +9403,17 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
-      <c r="AL102" s="2">
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+      <c r="AQ102" s="2">
         <f t="shared" si="128"/>
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:43" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="11" t="s">
         <v>82</v>
       </c>
@@ -9110,12 +9456,17 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
-      <c r="AL103" s="2">
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+      <c r="AQ103" s="2">
         <f t="shared" si="128"/>
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>83</v>
       </c>
@@ -9158,12 +9509,17 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
-      <c r="AL104" s="2">
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+      <c r="AQ104" s="2">
         <f t="shared" si="128"/>
         <v>210</v>
       </c>
     </row>
-    <row r="105" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>164</v>
       </c>
@@ -9206,12 +9562,17 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
-      <c r="AL105" s="2">
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5"/>
+      <c r="AQ105" s="2">
         <f t="shared" si="128"/>
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>84</v>
       </c>
@@ -9254,12 +9615,17 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
-      <c r="AL106" s="2">
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5"/>
+      <c r="AQ106" s="2">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>85</v>
       </c>
@@ -9302,12 +9668,17 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
-      <c r="AL107" s="2">
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5"/>
+      <c r="AQ107" s="2">
         <f t="shared" si="128"/>
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>86</v>
       </c>
@@ -9350,12 +9721,17 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
-      <c r="AL108" s="2">
+      <c r="AB108" s="5"/>
+      <c r="AC108" s="5"/>
+      <c r="AD108" s="5"/>
+      <c r="AE108" s="5"/>
+      <c r="AF108" s="5"/>
+      <c r="AQ108" s="2">
         <f t="shared" si="128"/>
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>90</v>
       </c>
@@ -9398,12 +9774,17 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
-      <c r="AL109" s="2">
+      <c r="AB109" s="5"/>
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="5"/>
+      <c r="AE109" s="5"/>
+      <c r="AF109" s="5"/>
+      <c r="AQ109" s="2">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>93</v>
       </c>
@@ -9446,12 +9827,17 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
-      <c r="AL110" s="2">
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5"/>
+      <c r="AQ110" s="2">
         <f t="shared" si="128"/>
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>94</v>
       </c>
@@ -9494,12 +9880,17 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
-      <c r="AL111" s="2">
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5"/>
+      <c r="AQ111" s="2">
         <f t="shared" si="128"/>
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>91</v>
       </c>
@@ -9542,12 +9933,17 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
-      <c r="AL112" s="2">
+      <c r="AB112" s="5"/>
+      <c r="AC112" s="5"/>
+      <c r="AD112" s="5"/>
+      <c r="AE112" s="5"/>
+      <c r="AF112" s="5"/>
+      <c r="AQ112" s="2">
         <f t="shared" si="128"/>
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>92</v>
       </c>
@@ -9590,12 +9986,17 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
-      <c r="AL113" s="2">
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5"/>
+      <c r="AQ113" s="2">
         <f t="shared" si="128"/>
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="2:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:43" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B114" s="11" t="s">
         <v>95</v>
       </c>
@@ -9645,12 +10046,17 @@
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
-      <c r="AL114" s="8">
-        <f>SUM(AL94:AL113)</f>
+      <c r="AB114" s="9"/>
+      <c r="AC114" s="9"/>
+      <c r="AD114" s="9"/>
+      <c r="AE114" s="9"/>
+      <c r="AF114" s="9"/>
+      <c r="AQ114" s="8">
+        <f>SUM(AQ94:AQ113)</f>
         <v>2730</v>
       </c>
     </row>
-    <row r="115" spans="2:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:43" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B115" s="11" t="s">
         <v>160</v>
       </c>
@@ -9682,8 +10088,13 @@
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
-    </row>
-    <row r="116" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AB115" s="9"/>
+      <c r="AC115" s="9"/>
+      <c r="AD115" s="9"/>
+      <c r="AE115" s="9"/>
+      <c r="AF115" s="9"/>
+    </row>
+    <row r="116" spans="2:43" x14ac:dyDescent="0.25">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -9709,8 +10120,13 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
-    </row>
-    <row r="117" spans="2:38" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB116" s="4"/>
+      <c r="AC116" s="4"/>
+      <c r="AD116" s="4"/>
+      <c r="AE116" s="4"/>
+      <c r="AF116" s="4"/>
+    </row>
+    <row r="117" spans="2:43" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
         <v>74</v>
       </c>
@@ -9751,8 +10167,13 @@
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
-    </row>
-    <row r="118" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AB117" s="9"/>
+      <c r="AC117" s="9"/>
+      <c r="AD117" s="9"/>
+      <c r="AE117" s="9"/>
+      <c r="AF117" s="9"/>
+    </row>
+    <row r="118" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>75</v>
       </c>
@@ -9797,6 +10218,664 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
+      <c r="AB118" s="5"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="5"/>
+      <c r="AE118" s="5"/>
+      <c r="AF118" s="5"/>
+    </row>
+    <row r="121" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="O121" s="2">
+        <f t="shared" ref="O121:U121" si="130">O24</f>
+        <v>7192</v>
+      </c>
+      <c r="P121" s="2">
+        <f t="shared" si="130"/>
+        <v>13507</v>
+      </c>
+      <c r="Q121" s="2">
+        <f t="shared" si="130"/>
+        <v>18120</v>
+      </c>
+      <c r="R121" s="2">
+        <f t="shared" si="130"/>
+        <v>22138</v>
+      </c>
+      <c r="S121" s="2">
+        <f t="shared" si="130"/>
+        <v>26044</v>
+      </c>
+      <c r="T121" s="2">
+        <f t="shared" si="130"/>
+        <v>30040</v>
+      </c>
+      <c r="U121" s="2">
+        <f>U24</f>
+        <v>35082</v>
+      </c>
+      <c r="V121" s="2">
+        <f>V24</f>
+        <v>40857.4</v>
+      </c>
+      <c r="W121" s="2">
+        <f>+W123*0.5</f>
+        <v>43740.27</v>
+      </c>
+      <c r="X121" s="2">
+        <f>+X123*0.5</f>
+        <v>46441.600000000006</v>
+      </c>
+      <c r="Y121" s="2">
+        <f>+Y123*0.5</f>
+        <v>49180.475000000006</v>
+      </c>
+      <c r="Z121" s="2">
+        <f>+Z123*0.5</f>
+        <v>59314.570000000007</v>
+      </c>
+    </row>
+    <row r="122" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="O122" s="5">
+        <f>O22</f>
+        <v>4284</v>
+      </c>
+      <c r="P122" s="5">
+        <f t="shared" ref="P122:W122" si="131">P22</f>
+        <v>10323</v>
+      </c>
+      <c r="Q122" s="5">
+        <f t="shared" si="131"/>
+        <v>14514</v>
+      </c>
+      <c r="R122" s="5">
+        <f t="shared" si="131"/>
+        <v>18404</v>
+      </c>
+      <c r="S122" s="5">
+        <f t="shared" si="131"/>
+        <v>22563</v>
+      </c>
+      <c r="T122" s="5">
+        <f t="shared" si="131"/>
+        <v>26272</v>
+      </c>
+      <c r="U122" s="5">
+        <f t="shared" si="131"/>
+        <v>30771</v>
+      </c>
+      <c r="V122" s="5">
+        <f t="shared" si="131"/>
+        <v>36750</v>
+      </c>
+      <c r="W122" s="5">
+        <f>+W123*0.45</f>
+        <v>39366.242999999995</v>
+      </c>
+      <c r="X122" s="5">
+        <f>+X123*0.45</f>
+        <v>41797.44000000001</v>
+      </c>
+      <c r="Y122" s="5">
+        <f>+Y123*0.45</f>
+        <v>44262.427500000005</v>
+      </c>
+      <c r="Z122" s="5">
+        <f>+Z123*0.45</f>
+        <v>53383.113000000005</v>
+      </c>
+    </row>
+    <row r="123" spans="2:43" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B123" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="29"/>
+      <c r="M123" s="29"/>
+      <c r="N123" s="29"/>
+      <c r="O123" s="8">
+        <f>SUM(O124:O132)</f>
+        <v>36225.571428571428</v>
+      </c>
+      <c r="P123" s="8">
+        <f t="shared" ref="P123:Z123" si="132">SUM(P124:P132)</f>
+        <v>39615.238095238092</v>
+      </c>
+      <c r="Q123" s="8">
+        <f t="shared" si="132"/>
+        <v>41142.238095238092</v>
+      </c>
+      <c r="R123" s="8">
+        <f t="shared" si="132"/>
+        <v>46004.238095238092</v>
+      </c>
+      <c r="S123" s="8">
+        <f t="shared" si="132"/>
+        <v>50584.571428571428</v>
+      </c>
+      <c r="T123" s="8">
+        <f t="shared" si="132"/>
+        <v>62022.571428571428</v>
+      </c>
+      <c r="U123" s="8">
+        <f t="shared" si="132"/>
+        <v>68837</v>
+      </c>
+      <c r="V123" s="8">
+        <f t="shared" si="132"/>
+        <v>82314</v>
+      </c>
+      <c r="W123" s="8">
+        <f t="shared" si="132"/>
+        <v>87480.54</v>
+      </c>
+      <c r="X123" s="8">
+        <f t="shared" si="132"/>
+        <v>92883.200000000012</v>
+      </c>
+      <c r="Y123" s="8">
+        <f t="shared" si="132"/>
+        <v>98360.950000000012</v>
+      </c>
+      <c r="Z123" s="8">
+        <f t="shared" si="132"/>
+        <v>118629.14000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5">
+        <v>0</v>
+      </c>
+      <c r="P124" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>0</v>
+      </c>
+      <c r="R124" s="2">
+        <v>125</v>
+      </c>
+      <c r="S124" s="2">
+        <v>125</v>
+      </c>
+      <c r="T124" s="2">
+        <v>3000</v>
+      </c>
+      <c r="U124" s="2">
+        <v>3000</v>
+      </c>
+      <c r="V124" s="2">
+        <v>6000</v>
+      </c>
+      <c r="W124" s="2">
+        <v>10000</v>
+      </c>
+      <c r="X124" s="2">
+        <v>5000</v>
+      </c>
+      <c r="Y124" s="2">
+        <v>2500</v>
+      </c>
+      <c r="Z124" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="125" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5">
+        <v>450</v>
+      </c>
+      <c r="P125" s="2">
+        <v>4000</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>2000</v>
+      </c>
+      <c r="R125" s="2">
+        <v>750</v>
+      </c>
+      <c r="S125" s="2">
+        <v>442</v>
+      </c>
+      <c r="T125" s="2">
+        <v>442</v>
+      </c>
+      <c r="U125" s="2">
+        <v>4000</v>
+      </c>
+      <c r="V125" s="2">
+        <v>1000</v>
+      </c>
+      <c r="W125" s="2">
+        <v>3000</v>
+      </c>
+      <c r="X125" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Y125" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Z125" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="2">
+        <v>6607</v>
+      </c>
+      <c r="P126" s="2">
+        <v>8943</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>9917</v>
+      </c>
+      <c r="R126" s="2">
+        <v>9735</v>
+      </c>
+      <c r="S126" s="2">
+        <v>10952</v>
+      </c>
+      <c r="T126" s="2">
+        <v>13873</v>
+      </c>
+      <c r="U126" s="2">
+        <v>14923</v>
+      </c>
+      <c r="V126" s="2">
+        <v>15804</v>
+      </c>
+      <c r="W126" s="2">
+        <f>+S126*1.44</f>
+        <v>15770.88</v>
+      </c>
+      <c r="X126" s="2">
+        <f>+T126*1.44</f>
+        <v>19977.12</v>
+      </c>
+      <c r="Y126" s="2">
+        <f>+U126*1.44</f>
+        <v>21489.119999999999</v>
+      </c>
+      <c r="Z126" s="2">
+        <f>+V126*1.44</f>
+        <v>22757.759999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>200</v>
+      </c>
+      <c r="O127" s="5">
+        <v>6289</v>
+      </c>
+      <c r="P127" s="5">
+        <f>13177-O127</f>
+        <v>6888</v>
+      </c>
+      <c r="Q127" s="5">
+        <v>8055</v>
+      </c>
+      <c r="R127" s="5">
+        <v>11019</v>
+      </c>
+      <c r="S127" s="5">
+        <v>12012</v>
+      </c>
+      <c r="T127" s="5">
+        <f>25198-S127</f>
+        <v>13186</v>
+      </c>
+      <c r="U127" s="5">
+        <f>38259-T127-S127</f>
+        <v>13061</v>
+      </c>
+      <c r="V127" s="5">
+        <f>52535-U127-T127-S127</f>
+        <v>14276</v>
+      </c>
+      <c r="W127" s="2">
+        <f>+S127*1.43</f>
+        <v>17177.16</v>
+      </c>
+      <c r="X127" s="2">
+        <f>+T127*1.43</f>
+        <v>18855.98</v>
+      </c>
+      <c r="Y127" s="2">
+        <f>+U127*1.43</f>
+        <v>18677.23</v>
+      </c>
+      <c r="Z127" s="2">
+        <f>+V127*1.43</f>
+        <v>20414.68</v>
+      </c>
+    </row>
+    <row r="128" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>201</v>
+      </c>
+      <c r="O128" s="2">
+        <v>14207</v>
+      </c>
+      <c r="P128" s="2">
+        <v>11455</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>12479</v>
+      </c>
+      <c r="R128" s="2">
+        <v>14588</v>
+      </c>
+      <c r="S128" s="2">
+        <v>14925</v>
+      </c>
+      <c r="T128" s="2">
+        <v>17620</v>
+      </c>
+      <c r="U128" s="2">
+        <v>22620</v>
+      </c>
+      <c r="V128" s="2">
+        <v>27834</v>
+      </c>
+      <c r="W128" s="2">
+        <f>+S128*1.3</f>
+        <v>19402.5</v>
+      </c>
+      <c r="X128" s="2">
+        <f>+T128*1.3</f>
+        <v>22906</v>
+      </c>
+      <c r="Y128" s="2">
+        <f>+U128*1.3</f>
+        <v>29406</v>
+      </c>
+      <c r="Z128" s="2">
+        <f>+V128*1.3</f>
+        <v>36184.200000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>78</v>
+      </c>
+      <c r="N129" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="O129" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="P129" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="Q129" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="R129" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="S129" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="T129" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="U129" s="2">
+        <v>2650</v>
+      </c>
+      <c r="V129" s="2">
+        <v>2650</v>
+      </c>
+      <c r="W129" s="2">
+        <v>10000</v>
+      </c>
+      <c r="X129" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Y129" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Z129" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="130" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>203</v>
+      </c>
+      <c r="N130" s="5">
+        <v>100</v>
+      </c>
+      <c r="O130" s="5">
+        <f>200+221</f>
+        <v>421</v>
+      </c>
+      <c r="P130" s="2">
+        <v>766.66666666666663</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>766.66666666666663</v>
+      </c>
+      <c r="R130" s="2">
+        <v>766.66666666666663</v>
+      </c>
+      <c r="S130" s="2">
+        <v>4300</v>
+      </c>
+      <c r="T130" s="2">
+        <v>4300</v>
+      </c>
+      <c r="U130" s="2">
+        <v>325</v>
+      </c>
+      <c r="V130" s="2">
+        <v>325</v>
+      </c>
+      <c r="W130" s="2">
+        <f>5000/4</f>
+        <v>1250</v>
+      </c>
+      <c r="X130" s="2">
+        <f>5000/4</f>
+        <v>1250</v>
+      </c>
+      <c r="Y130" s="2">
+        <f>5000/4</f>
+        <v>1250</v>
+      </c>
+      <c r="Z130" s="2">
+        <f>5000/4</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="131" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>204</v>
+      </c>
+      <c r="O131" s="5">
+        <v>6823</v>
+      </c>
+      <c r="P131" s="5">
+        <v>6134</v>
+      </c>
+      <c r="Q131" s="5">
+        <v>6496</v>
+      </c>
+      <c r="R131" s="2">
+        <v>7592</v>
+      </c>
+      <c r="S131" s="2">
+        <v>6400</v>
+      </c>
+      <c r="T131" s="2">
+        <v>8173</v>
+      </c>
+      <c r="U131" s="2">
+        <v>8258</v>
+      </c>
+      <c r="V131" s="2">
+        <v>14425</v>
+      </c>
+      <c r="W131" s="2">
+        <f>+S131*1.7</f>
+        <v>10880</v>
+      </c>
+      <c r="X131" s="2">
+        <f>+T131*1.7</f>
+        <v>13894.1</v>
+      </c>
+      <c r="Y131" s="2">
+        <f>+U131*1.7</f>
+        <v>14038.6</v>
+      </c>
+      <c r="Z131" s="2">
+        <f>+V131*1.7</f>
+        <v>24522.5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>206</v>
+      </c>
+      <c r="O134" s="7">
+        <f>+O122/O123</f>
+        <v>0.11825900409734245</v>
+      </c>
+      <c r="P134" s="7">
+        <f t="shared" ref="P134:W134" si="133">+P122/P123</f>
+        <v>0.26058154630252911</v>
+      </c>
+      <c r="Q134" s="7">
+        <f t="shared" si="133"/>
+        <v>0.35277614130768176</v>
+      </c>
+      <c r="R134" s="7">
+        <f t="shared" si="133"/>
+        <v>0.40005009890393123</v>
+      </c>
+      <c r="S134" s="7">
+        <f t="shared" si="133"/>
+        <v>0.44604509562486588</v>
+      </c>
+      <c r="T134" s="7">
+        <f t="shared" si="133"/>
+        <v>0.42358772612735457</v>
+      </c>
+      <c r="U134" s="7">
+        <f t="shared" si="133"/>
+        <v>0.44701250780830076</v>
+      </c>
+      <c r="V134" s="7">
+        <f t="shared" si="133"/>
+        <v>0.4464611123259713</v>
+      </c>
+      <c r="W134" s="7">
+        <f t="shared" si="133"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>207</v>
+      </c>
+      <c r="O135" s="7">
+        <f>+O121/O123</f>
+        <v>0.19853379025865708</v>
+      </c>
+      <c r="P135" s="7">
+        <f t="shared" ref="P135:W135" si="134">+P121/P123</f>
+        <v>0.34095465910183675</v>
+      </c>
+      <c r="Q135" s="7">
+        <f t="shared" si="134"/>
+        <v>0.44042329340603509</v>
+      </c>
+      <c r="R135" s="7">
+        <f t="shared" si="134"/>
+        <v>0.48121653388041891</v>
+      </c>
+      <c r="S135" s="7">
+        <f t="shared" si="134"/>
+        <v>0.51486054471719211</v>
+      </c>
+      <c r="T135" s="7">
+        <f t="shared" si="134"/>
+        <v>0.48433980256035825</v>
+      </c>
+      <c r="U135" s="7">
+        <f t="shared" si="134"/>
+        <v>0.50963871173932629</v>
+      </c>
+      <c r="V135" s="7">
+        <f t="shared" si="134"/>
+        <v>0.49636027893189494</v>
+      </c>
+      <c r="W135" s="7">
+        <f t="shared" si="134"/>
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9813,23 +10892,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D643C2DF-42DA-41EA-9376-8EEC08F9AC1D}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -9837,7 +10914,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>150</v>
       </c>
@@ -9851,7 +10928,7 @@
         <v>26820</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>151</v>
       </c>
@@ -9859,7 +10936,7 @@
         <v>23520</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>152</v>
       </c>
@@ -9867,7 +10944,7 @@
         <v>24480</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>153</v>
       </c>
@@ -9891,7 +10968,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>25000</v>
       </c>
@@ -9906,7 +10983,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="11">
         <v>25500</v>
       </c>
@@ -9923,7 +11000,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="11">
         <v>26000</v>
       </c>
@@ -9940,7 +11017,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="11">
         <v>26500</v>
       </c>
@@ -9957,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="11">
         <v>27000</v>
       </c>
@@ -9974,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C16" s="11">
         <v>27500</v>
       </c>
@@ -9991,7 +11068,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>28000</v>
       </c>
@@ -10006,7 +11083,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>28500</v>
       </c>
@@ -10025,7 +11102,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>155</v>
       </c>
@@ -10033,7 +11110,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>156</v>
       </c>
@@ -10041,7 +11118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>157</v>
       </c>
@@ -10049,7 +11126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>158</v>
       </c>
@@ -10058,7 +11135,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C24" s="16">
         <f>C23/C20</f>
         <v>8.2809224318658281E-2</v>
@@ -10067,4 +11144,221 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA07D43-A391-463A-AB92-A7E5F2B81574}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="11">
+        <v>38250</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="11">
+        <v>42260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" ref="B5:B8" si="0">+B6-750</f>
+        <v>35250</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E8" si="1">+E6-1000</f>
+        <v>38260</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-0.25</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>39260</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>36750</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>40260</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>+B9-750</f>
+        <v>37500</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-0.15</v>
+      </c>
+      <c r="E8">
+        <f>+E9-1000</f>
+        <v>41260</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>+C4</f>
+        <v>38250</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="E9">
+        <v>42260</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>+B9+1000</f>
+        <v>39250</v>
+      </c>
+      <c r="C10" s="10">
+        <v>-0.05</v>
+      </c>
+      <c r="E10" s="11">
+        <f>+E9+1000</f>
+        <v>43260</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
+        <f t="shared" ref="B11:B15" si="2">+B10+1000</f>
+        <v>40250</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E15" si="3">+E10+1000</f>
+        <v>44260</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>41250</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>45260</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>42250</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>46260</v>
+      </c>
+      <c r="F13" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>43250</v>
+      </c>
+      <c r="C14" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>47260</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>44250</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>48260</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E8E60E99-D254-4BC9-B0E8-4D7465BE2F83}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B72DAE-FAFB-4F4D-8736-B4CC672B82EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7371C-72D7-4CE9-A729-D7711E2707F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="3400" windowWidth="28800" windowHeight="15370" activeTab="3" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="19150" yWindow="9740" windowWidth="19060" windowHeight="10740" activeTab="2" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
     <sheet name="Model" sheetId="1" r:id="rId2"/>
-    <sheet name="Q1 Quarterly Earnings Preview" sheetId="4" r:id="rId3"/>
-    <sheet name="Q424 Quarterly Earnings Preview" sheetId="5" r:id="rId4"/>
+    <sheet name="Q424 Quarterly Earnings Preview" sheetId="5" r:id="rId3"/>
+    <sheet name="Q1 Quarterly Earnings Preview" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="219">
   <si>
     <t>Main</t>
   </si>
@@ -779,6 +779,33 @@
   </si>
   <si>
     <t>Q1 Consensus</t>
+  </si>
+  <si>
+    <t>Stock Price</t>
+  </si>
+  <si>
+    <t>Expected Move</t>
+  </si>
+  <si>
+    <t>132 CALLS</t>
+  </si>
+  <si>
+    <t>132 PUTS</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>125 PUTS</t>
+  </si>
+  <si>
+    <t>139 CALLS</t>
+  </si>
+  <si>
+    <t>GLOBE NEWSWIRE</t>
   </si>
 </sst>
 </file>
@@ -790,7 +817,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -816,19 +843,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -930,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -977,6 +1004,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1698,10 +1730,10 @@
   <dimension ref="A1:EO135"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="T112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V124" sqref="V124"/>
+      <selection pane="bottomRight" activeCell="V121" sqref="V121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10229,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="O121" s="2">
-        <f t="shared" ref="O121:U121" si="130">O24</f>
+        <f t="shared" ref="O121:T121" si="130">O24</f>
         <v>7192</v>
       </c>
       <c r="P121" s="2">
@@ -10286,7 +10318,7 @@
         <v>4284</v>
       </c>
       <c r="P122" s="5">
-        <f t="shared" ref="P122:W122" si="131">P22</f>
+        <f t="shared" ref="P122:V122" si="131">P22</f>
         <v>10323</v>
       </c>
       <c r="Q122" s="5">
@@ -10889,6 +10921,303 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA07D43-A391-463A-AB92-A7E5F2B81574}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="34">
+        <v>0.18063657407407407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="34">
+        <v>0.1807175925925926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="34">
+        <v>0.18059027777777778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="11">
+        <v>38250</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="11">
+        <v>42260</v>
+      </c>
+      <c r="I4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" ref="B5:B7" si="0">+B6-750</f>
+        <v>35250</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E7" si="1">+E6-1000</f>
+        <v>38260</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-0.25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" s="16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-0.25</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>39260</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J6">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>36750</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>40260</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-0.15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="15">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>+B9-750</f>
+        <v>37500</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-0.15</v>
+      </c>
+      <c r="E8">
+        <f>+E9-1000</f>
+        <v>41260</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J8" s="15">
+        <f>+J7+J6</f>
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>+C4</f>
+        <v>38250</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="E9">
+        <v>42260</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-0.05</v>
+      </c>
+      <c r="I9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J9">
+        <f>+J5*J4</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>+B9+1000</f>
+        <v>39250</v>
+      </c>
+      <c r="C10" s="10">
+        <v>-0.05</v>
+      </c>
+      <c r="E10" s="32">
+        <f>+E9+1000</f>
+        <v>43260</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="B11" s="32">
+        <f t="shared" ref="B11:B15" si="2">+B10+1000</f>
+        <v>40250</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
+        <f t="shared" ref="E11:E15" si="3">+E10+1000</f>
+        <v>44260</v>
+      </c>
+      <c r="F11" s="31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="30">
+        <f t="shared" si="2"/>
+        <v>41250</v>
+      </c>
+      <c r="C12" s="31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>45260</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="I12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" s="15">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>42250</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>46260</v>
+      </c>
+      <c r="F13" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="15">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>43250</v>
+      </c>
+      <c r="C14" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>47260</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="15">
+        <f>+J12+J13</f>
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>44250</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>48260</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>215</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E8E60E99-D254-4BC9-B0E8-4D7465BE2F83}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D643C2DF-42DA-41EA-9376-8EEC08F9AC1D}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -11144,221 +11473,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA07D43-A391-463A-AB92-A7E5F2B81574}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="11">
-        <v>38250</v>
-      </c>
-      <c r="E4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="11">
-        <v>42260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <f t="shared" ref="B5:B8" si="0">+B6-750</f>
-        <v>35250</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E8" si="1">+E6-1000</f>
-        <v>38260</v>
-      </c>
-      <c r="F5" s="10">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>36000</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-0.25</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>39260</v>
-      </c>
-      <c r="F6" s="10">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>36750</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>40260</v>
-      </c>
-      <c r="F7" s="10">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>+B9-750</f>
-        <v>37500</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-0.15</v>
-      </c>
-      <c r="E8">
-        <f>+E9-1000</f>
-        <v>41260</v>
-      </c>
-      <c r="F8" s="10">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <f>+C4</f>
-        <v>38250</v>
-      </c>
-      <c r="C9" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="E9">
-        <v>42260</v>
-      </c>
-      <c r="F9" s="10">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <f>+B9+1000</f>
-        <v>39250</v>
-      </c>
-      <c r="C10" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="E10" s="11">
-        <f>+E9+1000</f>
-        <v>43260</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
-        <f t="shared" ref="B11:B15" si="2">+B10+1000</f>
-        <v>40250</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ref="E11:E15" si="3">+E10+1000</f>
-        <v>44260</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f t="shared" si="2"/>
-        <v>41250</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>45260</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <f t="shared" si="2"/>
-        <v>42250</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>46260</v>
-      </c>
-      <c r="F13" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f t="shared" si="2"/>
-        <v>43250</v>
-      </c>
-      <c r="C14" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>47260</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f t="shared" si="2"/>
-        <v>44250</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>48260</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.105</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E8E60E99-D254-4BC9-B0E8-4D7465BE2F83}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7371C-72D7-4CE9-A729-D7711E2707F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7ADDDA-07E4-4F7F-A087-B815B1DBD971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19150" yWindow="9740" windowWidth="19060" windowHeight="10740" activeTab="2" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-27060" yWindow="3540" windowWidth="25155" windowHeight="14640" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -1479,17 +1479,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
         <v>131</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>139.63</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>119</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
         <v>120</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>3459193.62</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>121</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>122</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>123</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>3429168.62</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>125</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="H8" s="20"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
         <v>126</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
         <v>134</v>
       </c>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
         <v>136</v>
       </c>
@@ -1638,19 +1638,19 @@
       </c>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>138</v>
       </c>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>139</v>
       </c>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>140</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>141</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>143</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>145</v>
       </c>
@@ -1694,17 +1694,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>159</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>169</v>
       </c>
@@ -1729,35 +1729,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
   <dimension ref="A1:EO135"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="T118" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="S150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V121" sqref="V121"/>
+      <selection pane="bottomRight" activeCell="S172" sqref="S172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="3" max="15" width="9.7265625" style="3" customWidth="1"/>
-    <col min="16" max="17" width="9.7265625" customWidth="1"/>
-    <col min="18" max="32" width="10.1796875" customWidth="1"/>
-    <col min="33" max="34" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.26953125" customWidth="1"/>
-    <col min="36" max="36" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="15" width="9.7109375" style="3" customWidth="1"/>
+    <col min="16" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="32" width="10.140625" customWidth="1"/>
+    <col min="33" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" customWidth="1"/>
+    <col min="36" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" customWidth="1"/>
     <col min="38" max="48" width="10" customWidth="1"/>
-    <col min="49" max="51" width="10.26953125" customWidth="1"/>
-    <col min="52" max="52" width="10.453125" customWidth="1"/>
+    <col min="49" max="51" width="10.28515625" customWidth="1"/>
+    <col min="52" max="52" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C2" s="13">
         <v>43947</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>48970</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>178</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>191</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>33750000</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>192</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>188</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>1687500</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2329,7 +2329,7 @@
       <c r="AY7" s="5"/>
       <c r="AZ7" s="5"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>189</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="AY8" s="4"/>
       <c r="AZ8" s="4"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2436,7 +2436,7 @@
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>193</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>192</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>190</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2692,7 +2692,7 @@
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>161</v>
       </c>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="AQ14" s="2"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>162</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>13517</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2819,7 +2819,7 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>1876.3000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>1433.1</v>
       </c>
     </row>
-    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>171</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>9966</v>
       </c>
     </row>
-    <row r="21" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>170</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>69640</v>
       </c>
     </row>
-    <row r="22" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>116356</v>
       </c>
     </row>
-    <row r="23" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>11996</v>
       </c>
     </row>
-    <row r="24" spans="2:49" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>1</v>
       </c>
@@ -3460,16 +3460,16 @@
         <v>43740.27</v>
       </c>
       <c r="X24" s="9">
-        <f>SUM(X17:X23)</f>
-        <v>0</v>
+        <f>+X121</f>
+        <v>46441.600000000006</v>
       </c>
       <c r="Y24" s="9">
-        <f>SUM(Y17:Y23)</f>
-        <v>0</v>
+        <f>+Y121</f>
+        <v>49180.475000000006</v>
       </c>
       <c r="Z24" s="9">
-        <f>SUM(Z17:Z23)</f>
-        <v>0</v>
+        <f>+Z121</f>
+        <v>59314.570000000007</v>
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
@@ -3547,7 +3547,7 @@
         <v>983957.19785999972</v>
       </c>
     </row>
-    <row r="25" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>216470.58352919994</v>
       </c>
     </row>
-    <row r="26" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>767486.61433079978</v>
       </c>
     </row>
-    <row r="27" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>37892.136959999989</v>
       </c>
     </row>
-    <row r="28" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>10265.812991999996</v>
       </c>
     </row>
-    <row r="29" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>48157.949951999981</v>
       </c>
     </row>
-    <row r="30" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>719328.66437879985</v>
       </c>
     </row>
-    <row r="31" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>3252.5859960000021</v>
       </c>
     </row>
-    <row r="32" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:49" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>722581.25037479983</v>
       </c>
     </row>
-    <row r="33" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>144516.25007495997</v>
       </c>
     </row>
-    <row r="34" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
@@ -5111,472 +5111,472 @@
         <v>578065.00029983988</v>
       </c>
       <c r="AX34" s="2">
-        <f t="shared" ref="AX34:CC34" si="61">AW34*(1+$AY$41)</f>
+        <f>AW34*(1+$AZ$41)</f>
         <v>583845.6503028383</v>
       </c>
       <c r="AY34" s="2">
-        <f t="shared" si="61"/>
+        <f>AX34*(1+$AZ$41)</f>
         <v>589684.1068058667</v>
       </c>
       <c r="AZ34" s="2">
-        <f t="shared" si="61"/>
+        <f>AY34*(1+$AZ$41)</f>
         <v>595580.94787392532</v>
       </c>
       <c r="BA34" s="2">
-        <f t="shared" si="61"/>
+        <f>AZ34*(1+$AZ$41)</f>
         <v>601536.7573526646</v>
       </c>
       <c r="BB34" s="2">
-        <f t="shared" si="61"/>
+        <f>BA34*(1+$AZ$41)</f>
         <v>607552.12492619129</v>
       </c>
       <c r="BC34" s="2">
-        <f t="shared" si="61"/>
+        <f>BB34*(1+$AZ$41)</f>
         <v>613627.64617545321</v>
       </c>
       <c r="BD34" s="2">
-        <f t="shared" si="61"/>
+        <f>BC34*(1+$AZ$41)</f>
         <v>619763.92263720778</v>
       </c>
       <c r="BE34" s="2">
-        <f t="shared" si="61"/>
+        <f>BD34*(1+$AZ$41)</f>
         <v>625961.5618635799</v>
       </c>
       <c r="BF34" s="2">
-        <f t="shared" si="61"/>
+        <f>BE34*(1+$AZ$41)</f>
         <v>632221.17748221569</v>
       </c>
       <c r="BG34" s="2">
-        <f t="shared" si="61"/>
+        <f>BF34*(1+$AZ$41)</f>
         <v>638543.3892570379</v>
       </c>
       <c r="BH34" s="2">
-        <f t="shared" si="61"/>
+        <f>BG34*(1+$AZ$41)</f>
         <v>644928.82314960833</v>
       </c>
       <c r="BI34" s="2">
-        <f t="shared" si="61"/>
+        <f>BH34*(1+$AZ$41)</f>
         <v>651378.11138110445</v>
       </c>
       <c r="BJ34" s="2">
-        <f t="shared" si="61"/>
+        <f>BI34*(1+$AZ$41)</f>
         <v>657891.89249491552</v>
       </c>
       <c r="BK34" s="2">
-        <f t="shared" si="61"/>
+        <f>BJ34*(1+$AZ$41)</f>
         <v>664470.81141986465</v>
       </c>
       <c r="BL34" s="2">
-        <f t="shared" si="61"/>
+        <f>BK34*(1+$AZ$41)</f>
         <v>671115.51953406329</v>
       </c>
       <c r="BM34" s="2">
-        <f t="shared" si="61"/>
+        <f>BL34*(1+$AZ$41)</f>
         <v>677826.67472940392</v>
       </c>
       <c r="BN34" s="2">
-        <f t="shared" si="61"/>
+        <f>BM34*(1+$AZ$41)</f>
         <v>684604.94147669792</v>
       </c>
       <c r="BO34" s="2">
-        <f t="shared" si="61"/>
+        <f>BN34*(1+$AZ$41)</f>
         <v>691450.99089146487</v>
       </c>
       <c r="BP34" s="2">
-        <f t="shared" si="61"/>
+        <f>BO34*(1+$AZ$41)</f>
         <v>698365.50080037955</v>
       </c>
       <c r="BQ34" s="2">
-        <f t="shared" si="61"/>
+        <f>BP34*(1+$AZ$41)</f>
         <v>705349.15580838337</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" si="61"/>
+        <f>BQ34*(1+$AZ$41)</f>
         <v>712402.64736646716</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" si="61"/>
+        <f>BR34*(1+$AZ$41)</f>
         <v>719526.67384013184</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="61"/>
+        <f>BS34*(1+$AZ$41)</f>
         <v>726721.94057853322</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="61"/>
+        <f>BT34*(1+$AZ$41)</f>
         <v>733989.15998431854</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="61"/>
+        <f>BU34*(1+$AZ$41)</f>
         <v>741329.0515841617</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="61"/>
+        <f>BV34*(1+$AZ$41)</f>
         <v>748742.34210000327</v>
       </c>
       <c r="BX34" s="2">
-        <f t="shared" si="61"/>
+        <f>BW34*(1+$AZ$41)</f>
         <v>756229.76552100328</v>
       </c>
       <c r="BY34" s="2">
-        <f t="shared" si="61"/>
+        <f>BX34*(1+$AZ$41)</f>
         <v>763792.0631762133</v>
       </c>
       <c r="BZ34" s="2">
-        <f t="shared" si="61"/>
+        <f>BY34*(1+$AZ$41)</f>
         <v>771429.98380797543</v>
       </c>
       <c r="CA34" s="2">
-        <f t="shared" si="61"/>
+        <f>BZ34*(1+$AZ$41)</f>
         <v>779144.28364605515</v>
       </c>
       <c r="CB34" s="2">
-        <f t="shared" si="61"/>
+        <f>CA34*(1+$AZ$41)</f>
         <v>786935.72648251569</v>
       </c>
       <c r="CC34" s="2">
-        <f t="shared" si="61"/>
+        <f>CB34*(1+$AZ$41)</f>
         <v>794805.08374734083</v>
       </c>
       <c r="CD34" s="2">
-        <f t="shared" ref="CD34:DI34" si="62">CC34*(1+$AY$41)</f>
+        <f>CC34*(1+$AZ$41)</f>
         <v>802753.13458481419</v>
       </c>
       <c r="CE34" s="2">
-        <f t="shared" si="62"/>
+        <f>CD34*(1+$AZ$41)</f>
         <v>810780.6659306623</v>
       </c>
       <c r="CF34" s="2">
-        <f t="shared" si="62"/>
+        <f>CE34*(1+$AZ$41)</f>
         <v>818888.47258996894</v>
       </c>
       <c r="CG34" s="2">
-        <f t="shared" si="62"/>
+        <f>CF34*(1+$AZ$41)</f>
         <v>827077.3573158686</v>
       </c>
       <c r="CH34" s="2">
-        <f t="shared" si="62"/>
+        <f>CG34*(1+$AZ$41)</f>
         <v>835348.13088902726</v>
       </c>
       <c r="CI34" s="2">
-        <f t="shared" si="62"/>
+        <f>CH34*(1+$AZ$41)</f>
         <v>843701.61219791754</v>
       </c>
       <c r="CJ34" s="2">
-        <f t="shared" si="62"/>
+        <f>CI34*(1+$AZ$41)</f>
         <v>852138.62831989676</v>
       </c>
       <c r="CK34" s="2">
-        <f t="shared" si="62"/>
+        <f>CJ34*(1+$AZ$41)</f>
         <v>860660.01460309571</v>
       </c>
       <c r="CL34" s="2">
-        <f t="shared" si="62"/>
+        <f>CK34*(1+$AZ$41)</f>
         <v>869266.61474912672</v>
       </c>
       <c r="CM34" s="2">
-        <f t="shared" si="62"/>
+        <f>CL34*(1+$AZ$41)</f>
         <v>877959.28089661803</v>
       </c>
       <c r="CN34" s="2">
-        <f t="shared" si="62"/>
+        <f>CM34*(1+$AZ$41)</f>
         <v>886738.87370558421</v>
       </c>
       <c r="CO34" s="2">
-        <f t="shared" si="62"/>
+        <f>CN34*(1+$AZ$41)</f>
         <v>895606.26244264003</v>
       </c>
       <c r="CP34" s="2">
-        <f t="shared" si="62"/>
+        <f>CO34*(1+$AZ$41)</f>
         <v>904562.32506706647</v>
       </c>
       <c r="CQ34" s="2">
-        <f t="shared" si="62"/>
+        <f>CP34*(1+$AZ$41)</f>
         <v>913607.94831773709</v>
       </c>
       <c r="CR34" s="2">
-        <f t="shared" si="62"/>
+        <f>CQ34*(1+$AZ$41)</f>
         <v>922744.02780091448</v>
       </c>
       <c r="CS34" s="2">
-        <f t="shared" si="62"/>
+        <f>CR34*(1+$AZ$41)</f>
         <v>931971.46807892364</v>
       </c>
       <c r="CT34" s="2">
-        <f t="shared" si="62"/>
+        <f>CS34*(1+$AZ$41)</f>
         <v>941291.18275971292</v>
       </c>
       <c r="CU34" s="2">
-        <f t="shared" si="62"/>
+        <f>CT34*(1+$AZ$41)</f>
         <v>950704.0945873101</v>
       </c>
       <c r="CV34" s="2">
-        <f t="shared" si="62"/>
+        <f>CU34*(1+$AZ$41)</f>
         <v>960211.13553318323</v>
       </c>
       <c r="CW34" s="2">
-        <f t="shared" si="62"/>
+        <f>CV34*(1+$AZ$41)</f>
         <v>969813.24688851507</v>
       </c>
       <c r="CX34" s="2">
-        <f t="shared" si="62"/>
+        <f>CW34*(1+$AZ$41)</f>
         <v>979511.37935740023</v>
       </c>
       <c r="CY34" s="2">
-        <f t="shared" si="62"/>
+        <f>CX34*(1+$AZ$41)</f>
         <v>989306.49315097427</v>
       </c>
       <c r="CZ34" s="2">
-        <f t="shared" si="62"/>
+        <f>CY34*(1+$AZ$41)</f>
         <v>999199.55808248406</v>
       </c>
       <c r="DA34" s="2">
-        <f t="shared" si="62"/>
+        <f>CZ34*(1+$AZ$41)</f>
         <v>1009191.553663309</v>
       </c>
       <c r="DB34" s="2">
-        <f t="shared" si="62"/>
+        <f>DA34*(1+$AZ$41)</f>
         <v>1019283.4691999421</v>
       </c>
       <c r="DC34" s="2">
-        <f t="shared" si="62"/>
+        <f>DB34*(1+$AZ$41)</f>
         <v>1029476.3038919416</v>
       </c>
       <c r="DD34" s="2">
-        <f t="shared" si="62"/>
+        <f>DC34*(1+$AZ$41)</f>
         <v>1039771.066930861</v>
       </c>
       <c r="DE34" s="2">
-        <f t="shared" si="62"/>
+        <f>DD34*(1+$AZ$41)</f>
         <v>1050168.7776001696</v>
       </c>
       <c r="DF34" s="2">
-        <f t="shared" si="62"/>
+        <f>DE34*(1+$AZ$41)</f>
         <v>1060670.4653761713</v>
       </c>
       <c r="DG34" s="2">
-        <f t="shared" si="62"/>
+        <f>DF34*(1+$AZ$41)</f>
         <v>1071277.1700299331</v>
       </c>
       <c r="DH34" s="2">
-        <f t="shared" si="62"/>
+        <f>DG34*(1+$AZ$41)</f>
         <v>1081989.9417302324</v>
       </c>
       <c r="DI34" s="2">
-        <f t="shared" si="62"/>
+        <f>DH34*(1+$AZ$41)</f>
         <v>1092809.8411475348</v>
       </c>
       <c r="DJ34" s="2">
-        <f t="shared" ref="DJ34:EO34" si="63">DI34*(1+$AY$41)</f>
+        <f>DI34*(1+$AZ$41)</f>
         <v>1103737.9395590101</v>
       </c>
       <c r="DK34" s="2">
-        <f t="shared" si="63"/>
+        <f>DJ34*(1+$AZ$41)</f>
         <v>1114775.3189546003</v>
       </c>
       <c r="DL34" s="2">
-        <f t="shared" si="63"/>
+        <f>DK34*(1+$AZ$41)</f>
         <v>1125923.0721441463</v>
       </c>
       <c r="DM34" s="2">
-        <f t="shared" si="63"/>
+        <f>DL34*(1+$AZ$41)</f>
         <v>1137182.3028655879</v>
       </c>
       <c r="DN34" s="2">
-        <f t="shared" si="63"/>
+        <f>DM34*(1+$AZ$41)</f>
         <v>1148554.1258942438</v>
       </c>
       <c r="DO34" s="2">
-        <f t="shared" si="63"/>
+        <f>DN34*(1+$AZ$41)</f>
         <v>1160039.6671531862</v>
       </c>
       <c r="DP34" s="2">
-        <f t="shared" si="63"/>
+        <f>DO34*(1+$AZ$41)</f>
         <v>1171640.0638247181</v>
       </c>
       <c r="DQ34" s="2">
-        <f t="shared" si="63"/>
+        <f>DP34*(1+$AZ$41)</f>
         <v>1183356.4644629653</v>
       </c>
       <c r="DR34" s="2">
-        <f t="shared" si="63"/>
+        <f>DQ34*(1+$AZ$41)</f>
         <v>1195190.0291075949</v>
       </c>
       <c r="DS34" s="2">
-        <f t="shared" si="63"/>
+        <f>DR34*(1+$AZ$41)</f>
         <v>1207141.9293986708</v>
       </c>
       <c r="DT34" s="2">
-        <f t="shared" si="63"/>
+        <f>DS34*(1+$AZ$41)</f>
         <v>1219213.3486926574</v>
       </c>
       <c r="DU34" s="2">
-        <f t="shared" si="63"/>
+        <f>DT34*(1+$AZ$41)</f>
         <v>1231405.482179584</v>
       </c>
       <c r="DV34" s="2">
-        <f t="shared" si="63"/>
+        <f>DU34*(1+$AZ$41)</f>
         <v>1243719.5370013798</v>
       </c>
       <c r="DW34" s="2">
-        <f t="shared" si="63"/>
+        <f>DV34*(1+$AZ$41)</f>
         <v>1256156.7323713936</v>
       </c>
       <c r="DX34" s="2">
-        <f t="shared" si="63"/>
+        <f>DW34*(1+$AZ$41)</f>
         <v>1268718.2996951076</v>
       </c>
       <c r="DY34" s="2">
-        <f t="shared" si="63"/>
+        <f>DX34*(1+$AZ$41)</f>
         <v>1281405.4826920587</v>
       </c>
       <c r="DZ34" s="2">
-        <f t="shared" si="63"/>
+        <f>DY34*(1+$AZ$41)</f>
         <v>1294219.5375189793</v>
       </c>
       <c r="EA34" s="2">
-        <f t="shared" si="63"/>
+        <f>DZ34*(1+$AZ$41)</f>
         <v>1307161.7328941692</v>
       </c>
       <c r="EB34" s="2">
-        <f t="shared" si="63"/>
+        <f>EA34*(1+$AZ$41)</f>
         <v>1320233.3502231108</v>
       </c>
       <c r="EC34" s="2">
-        <f t="shared" si="63"/>
+        <f>EB34*(1+$AZ$41)</f>
         <v>1333435.6837253419</v>
       </c>
       <c r="ED34" s="2">
-        <f t="shared" si="63"/>
+        <f>EC34*(1+$AZ$41)</f>
         <v>1346770.0405625952</v>
       </c>
       <c r="EE34" s="2">
-        <f t="shared" si="63"/>
+        <f>ED34*(1+$AZ$41)</f>
         <v>1360237.7409682211</v>
       </c>
       <c r="EF34" s="2">
-        <f t="shared" si="63"/>
+        <f>EE34*(1+$AZ$41)</f>
         <v>1373840.1183779032</v>
       </c>
       <c r="EG34" s="2">
-        <f t="shared" si="63"/>
+        <f>EF34*(1+$AZ$41)</f>
         <v>1387578.5195616824</v>
       </c>
       <c r="EH34" s="2">
-        <f t="shared" si="63"/>
+        <f>EG34*(1+$AZ$41)</f>
         <v>1401454.3047572991</v>
       </c>
       <c r="EI34" s="2">
-        <f t="shared" si="63"/>
+        <f>EH34*(1+$AZ$41)</f>
         <v>1415468.8478048721</v>
       </c>
       <c r="EJ34" s="2">
-        <f t="shared" si="63"/>
+        <f>EI34*(1+$AZ$41)</f>
         <v>1429623.5362829207</v>
       </c>
       <c r="EK34" s="2">
-        <f t="shared" si="63"/>
+        <f>EJ34*(1+$AZ$41)</f>
         <v>1443919.7716457499</v>
       </c>
       <c r="EL34" s="2">
-        <f t="shared" si="63"/>
+        <f>EK34*(1+$AZ$41)</f>
         <v>1458358.9693622075</v>
       </c>
       <c r="EM34" s="2">
-        <f t="shared" si="63"/>
+        <f>EL34*(1+$AZ$41)</f>
         <v>1472942.5590558297</v>
       </c>
       <c r="EN34" s="2">
-        <f t="shared" si="63"/>
+        <f>EM34*(1+$AZ$41)</f>
         <v>1487671.9846463879</v>
       </c>
       <c r="EO34" s="2">
-        <f t="shared" si="63"/>
+        <f>EN34*(1+$AZ$41)</f>
         <v>1502548.7044928519</v>
       </c>
     </row>
-    <row r="35" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:P35" si="64">+C34/C36</f>
+        <f t="shared" ref="C35:P35" si="61">+C34/C36</f>
         <v>1.4742765273311897</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.24840255591054314</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.27210884353741499</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.57725832012678291</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.75632911392405067</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.93759873617693523</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.97084318360914101</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>1.1799607072691551</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>1.1710681907765077</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.26073131955484896</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.27210884353741499</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.48942959712804146</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.82048192771084338</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0.24757941906057454</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" ref="Q35:S35" si="65">+Q34/Q36</f>
+        <f t="shared" ref="Q35:S35" si="62">+Q34/Q36</f>
         <v>3.7060946271050521</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>4.9477911646586348</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>5.978706307754118</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" ref="T35:V35" si="66">+T34/T36</f>
+        <f t="shared" ref="T35:V35" si="63">+T34/T36</f>
         <v>0.66802157115260785</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>0.77940582869136998</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>0.95738299023169449</v>
       </c>
       <c r="W35" s="6"/>
@@ -5586,92 +5586,92 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="15">
-        <f t="shared" ref="AC35" si="67">+AC34/AC36</f>
+        <f t="shared" ref="AC35" si="64">+AC34/AC36</f>
         <v>0.33319403958660349</v>
       </c>
       <c r="AD35" s="15">
-        <f t="shared" ref="AD35:AE35" si="68">+AD34/AD36</f>
+        <f t="shared" ref="AD35:AE35" si="65">+AD34/AD36</f>
         <v>0.94276012336725723</v>
       </c>
       <c r="AE35" s="15">
+        <f t="shared" si="65"/>
+        <v>0.90011952822354169</v>
+      </c>
+      <c r="AF35" s="15">
+        <f t="shared" ref="AF35:AG35" si="66">+AF34/AF36</f>
+        <v>0.73949579831932777</v>
+      </c>
+      <c r="AG35" s="15">
+        <f t="shared" si="66"/>
+        <v>1.152753108348135</v>
+      </c>
+      <c r="AH35" s="15">
+        <f t="shared" ref="AH35:AI35" si="67">+AH34/AH36</f>
+        <v>1.3093145869947276</v>
+      </c>
+      <c r="AI35" s="15">
+        <f t="shared" si="67"/>
+        <v>2.5716486902927582</v>
+      </c>
+      <c r="AJ35" s="15">
+        <f t="shared" ref="AJ35:AK35" si="68">+AJ34/AJ36</f>
+        <v>4.8212025316455698</v>
+      </c>
+      <c r="AK35" s="15">
         <f t="shared" si="68"/>
-        <v>0.90011952822354169</v>
-      </c>
-      <c r="AF35" s="15">
-        <f t="shared" ref="AF35:AG35" si="69">+AF34/AF36</f>
-        <v>0.73949579831932777</v>
-      </c>
-      <c r="AG35" s="15">
+        <v>6.6256000000000004</v>
+      </c>
+      <c r="AL35" s="15">
+        <f t="shared" ref="AL35:AM35" si="69">+AL34/AL36</f>
+        <v>1.1310679611650485</v>
+      </c>
+      <c r="AM35" s="15">
         <f t="shared" si="69"/>
-        <v>1.152753108348135</v>
-      </c>
-      <c r="AH35" s="15">
-        <f t="shared" ref="AH35:AI35" si="70">+AH34/AH36</f>
-        <v>1.3093145869947276</v>
-      </c>
-      <c r="AI35" s="15">
+        <v>1.7258964143426294</v>
+      </c>
+      <c r="AN35" s="15">
+        <f t="shared" ref="AN35:AU35" si="70">+AN34/AN36</f>
+        <v>3.8469428007889546</v>
+      </c>
+      <c r="AO35" s="15">
         <f t="shared" si="70"/>
-        <v>2.5716486902927582</v>
-      </c>
-      <c r="AJ35" s="15">
-        <f t="shared" ref="AJ35:AK35" si="71">+AJ34/AJ36</f>
-        <v>4.8212025316455698</v>
-      </c>
-      <c r="AK35" s="15">
+        <v>2.2074192261667331</v>
+      </c>
+      <c r="AP35" s="15">
+        <f t="shared" si="70"/>
+        <v>11.946271050521251</v>
+      </c>
+      <c r="AQ35" s="15">
+        <f t="shared" si="70"/>
+        <v>3.0074758294986679</v>
+      </c>
+      <c r="AR35" s="15">
+        <f t="shared" si="70"/>
+        <v>4.4282999273431818</v>
+      </c>
+      <c r="AS35" s="15">
+        <f t="shared" si="70"/>
+        <v>6.8038526519738429</v>
+      </c>
+      <c r="AT35" s="15">
+        <f t="shared" si="70"/>
+        <v>9.6538637539355765</v>
+      </c>
+      <c r="AU35" s="15">
+        <f t="shared" si="70"/>
+        <v>13.671725457980136</v>
+      </c>
+      <c r="AV35" s="15">
+        <f t="shared" ref="AV35:AW35" si="71">+AV34/AV36</f>
+        <v>17.863876325696292</v>
+      </c>
+      <c r="AW35" s="15">
         <f t="shared" si="71"/>
-        <v>6.6256000000000004</v>
-      </c>
-      <c r="AL35" s="15">
-        <f t="shared" ref="AL35:AM35" si="72">+AL34/AL36</f>
-        <v>1.1310679611650485</v>
-      </c>
-      <c r="AM35" s="15">
-        <f t="shared" si="72"/>
-        <v>1.7258964143426294</v>
-      </c>
-      <c r="AN35" s="15">
-        <f t="shared" ref="AN35:AU35" si="73">+AN34/AN36</f>
-        <v>3.8469428007889546</v>
-      </c>
-      <c r="AO35" s="15">
-        <f t="shared" si="73"/>
-        <v>2.2074192261667331</v>
-      </c>
-      <c r="AP35" s="15">
-        <f t="shared" si="73"/>
-        <v>11.946271050521251</v>
-      </c>
-      <c r="AQ35" s="15">
-        <f t="shared" si="73"/>
-        <v>3.0074758294986679</v>
-      </c>
-      <c r="AR35" s="15">
-        <f t="shared" si="73"/>
-        <v>4.4282999273431818</v>
-      </c>
-      <c r="AS35" s="15">
-        <f t="shared" si="73"/>
-        <v>6.8038526519738429</v>
-      </c>
-      <c r="AT35" s="15">
-        <f t="shared" si="73"/>
-        <v>9.6538637539355765</v>
-      </c>
-      <c r="AU35" s="15">
-        <f t="shared" si="73"/>
-        <v>13.671725457980136</v>
-      </c>
-      <c r="AV35" s="15">
-        <f t="shared" ref="AV35:AW35" si="74">+AV34/AV36</f>
-        <v>17.863876325696292</v>
-      </c>
-      <c r="AW35" s="15">
-        <f t="shared" si="74"/>
         <v>23.33353516992976</v>
       </c>
       <c r="AX35" s="15"/>
     </row>
-    <row r="36" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>24774</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" ref="V36" si="75">+U36</f>
+        <f t="shared" ref="V36" si="72">+U36</f>
         <v>24774</v>
       </c>
       <c r="W36" s="2"/>
@@ -5806,65 +5806,65 @@
         <v>24774</v>
       </c>
       <c r="AV36" s="2">
-        <f t="shared" ref="AV36:AW36" si="76">+AU36</f>
+        <f t="shared" ref="AV36:AW36" si="73">+AU36</f>
         <v>24774</v>
       </c>
       <c r="AW36" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>24774</v>
       </c>
       <c r="AX36" s="2"/>
     </row>
-    <row r="38" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>71</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" ref="G38:I38" si="77">+G24/C24-1</f>
+        <f t="shared" ref="G38:I38" si="74">+G24/C24-1</f>
         <v>0.83798701298701306</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>0.68313502327987585</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>0.19760580003372108</v>
       </c>
       <c r="J38" s="10">
-        <f t="shared" ref="J38:R38" si="78">+J24/F24-1</f>
+        <f t="shared" ref="J38:R38" si="75">+J24/F24-1</f>
         <v>0.52768338996602049</v>
       </c>
       <c r="K38" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="L38" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="N38" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>-0.20829517205285886</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>-0.13223938223938225</v>
       </c>
       <c r="P38" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>1.0147673031026252</v>
       </c>
       <c r="Q38" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="R38" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>2.6585688315980831</v>
       </c>
       <c r="S38" s="10">
@@ -5872,21 +5872,33 @@
         <v>2.6212458286985538</v>
       </c>
       <c r="T38" s="10">
-        <f t="shared" ref="T38" si="79">+T24/P24-1</f>
+        <f t="shared" ref="T38" si="76">+T24/P24-1</f>
         <v>1.2240319834160065</v>
       </c>
       <c r="U38" s="10">
-        <f t="shared" ref="U38" si="80">+U24/Q24-1</f>
+        <f t="shared" ref="U38" si="77">+U24/Q24-1</f>
         <v>0.93609271523178816</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" ref="V38" si="81">+V24/R24-1</f>
+        <f t="shared" ref="V38:W38" si="78">+V24/R24-1</f>
         <v>0.84557773963321003</v>
       </c>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
+      <c r="W38" s="10">
+        <f t="shared" si="78"/>
+        <v>0.67947588696052819</v>
+      </c>
+      <c r="X38" s="10">
+        <f t="shared" ref="X38" si="79">+X24/T24-1</f>
+        <v>0.54599201065246361</v>
+      </c>
+      <c r="Y38" s="10">
+        <f t="shared" ref="Y38" si="80">+Y24/U24-1</f>
+        <v>0.40187204264295096</v>
+      </c>
+      <c r="Z38" s="10">
+        <f t="shared" ref="Z38" si="81">+Z24/V24-1</f>
+        <v>0.4517460729268139</v>
+      </c>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
@@ -5973,7 +5985,7 @@
       <c r="AX38" s="10"/>
       <c r="AY38" s="10"/>
     </row>
-    <row r="39" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>72</v>
       </c>
@@ -6064,7 +6076,7 @@
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
     </row>
-    <row r="40" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>73</v>
       </c>
@@ -6139,7 +6151,7 @@
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
     </row>
-    <row r="41" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>5</v>
       </c>
@@ -6239,7 +6251,7 @@
         <v>0.52015427464260089</v>
       </c>
       <c r="AF41" s="7">
-        <f t="shared" ref="AF41:AU41" si="100">AF26/AF24</f>
+        <f t="shared" ref="AF41:AW41" si="100">AF26/AF24</f>
         <v>0.54915254237288136</v>
       </c>
       <c r="AG41" s="7">
@@ -6302,14 +6314,22 @@
         <f t="shared" si="100"/>
         <v>0.78</v>
       </c>
-      <c r="AX41" t="s">
+      <c r="AV41" s="7">
+        <f t="shared" si="100"/>
+        <v>0.78</v>
+      </c>
+      <c r="AW41" s="7">
+        <f t="shared" si="100"/>
+        <v>0.78</v>
+      </c>
+      <c r="AY41" t="s">
         <v>167</v>
       </c>
-      <c r="AY41" s="10">
+      <c r="AZ41" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>24</v>
       </c>
@@ -6403,23 +6423,23 @@
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
-      <c r="AX42" t="s">
+      <c r="AY42" t="s">
         <v>165</v>
       </c>
-      <c r="AY42" s="10">
+      <c r="AZ42" s="10">
         <v>0.09</v>
       </c>
     </row>
-    <row r="43" spans="2:145" x14ac:dyDescent="0.25">
-      <c r="AX43" t="s">
+    <row r="43" spans="2:145" x14ac:dyDescent="0.2">
+      <c r="AY43" t="s">
         <v>166</v>
       </c>
-      <c r="AY43" s="2">
-        <f>NPV(AY42,AR34:EO34)+Main!K5-Main!K6</f>
+      <c r="AZ43" s="2">
+        <f>NPV(AZ42,AR34:EO34)+Main!K5-Main!K6</f>
         <v>5678198.9146928452</v>
       </c>
     </row>
-    <row r="44" spans="2:145" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:145" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>163</v>
       </c>
@@ -6490,15 +6510,15 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AX44" t="s">
+      <c r="AY44" t="s">
         <v>13</v>
       </c>
-      <c r="AY44" s="15">
-        <f>AY43/Main!K3</f>
+      <c r="AZ44" s="15">
+        <f>AZ43/Main!K3</f>
         <v>229.1999238997677</v>
       </c>
     </row>
-    <row r="45" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
@@ -6565,7 +6585,7 @@
         <v>25984</v>
       </c>
     </row>
-    <row r="46" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>39</v>
       </c>
@@ -6619,7 +6639,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="47" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>40</v>
       </c>
@@ -6673,7 +6693,7 @@
         <v>5282</v>
       </c>
     </row>
-    <row r="48" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:145" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>41</v>
       </c>
@@ -6727,7 +6747,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="49" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>42</v>
       </c>
@@ -6781,7 +6801,7 @@
         <v>3914</v>
       </c>
     </row>
-    <row r="50" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>43</v>
       </c>
@@ -6835,7 +6855,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="51" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>44</v>
       </c>
@@ -6902,7 +6922,7 @@
         <v>5542</v>
       </c>
     </row>
-    <row r="52" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
@@ -6956,7 +6976,7 @@
         <v>6081</v>
       </c>
     </row>
-    <row r="53" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>45</v>
       </c>
@@ -7010,7 +7030,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="54" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>37</v>
       </c>
@@ -7077,7 +7097,7 @@
         <v>65728</v>
       </c>
     </row>
-    <row r="55" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -7091,7 +7111,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>36</v>
       </c>
@@ -7145,7 +7165,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="57" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>35</v>
       </c>
@@ -7199,7 +7219,7 @@
         <v>6682</v>
       </c>
     </row>
-    <row r="58" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>34</v>
       </c>
@@ -7263,7 +7283,7 @@
         <v>9709</v>
       </c>
     </row>
-    <row r="59" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>33</v>
       </c>
@@ -7318,7 +7338,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="60" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -7372,7 +7392,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="61" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>31</v>
       </c>
@@ -7426,7 +7446,7 @@
         <v>42978</v>
       </c>
     </row>
-    <row r="62" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>30</v>
       </c>
@@ -7493,12 +7513,12 @@
         <v>65728</v>
       </c>
     </row>
-    <row r="63" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:42" x14ac:dyDescent="0.2">
       <c r="O63" s="5"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>173</v>
       </c>
@@ -7571,7 +7591,7 @@
         <v>29794</v>
       </c>
     </row>
-    <row r="65" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>177</v>
       </c>
@@ -7612,7 +7632,7 @@
       <c r="AE65" s="5"/>
       <c r="AP65" s="2"/>
     </row>
-    <row r="66" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>174</v>
       </c>
@@ -7652,7 +7672,7 @@
       <c r="AE66" s="5"/>
       <c r="AP66" s="2"/>
     </row>
-    <row r="67" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>53</v>
       </c>
@@ -7713,7 +7733,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="68" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>55</v>
       </c>
@@ -7770,7 +7790,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="69" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>56</v>
       </c>
@@ -7827,7 +7847,7 @@
         <v>-238</v>
       </c>
     </row>
-    <row r="70" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>57</v>
       </c>
@@ -7888,7 +7908,7 @@
         <v>-2489</v>
       </c>
     </row>
-    <row r="71" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>46</v>
       </c>
@@ -7945,7 +7965,7 @@
         <v>-278</v>
       </c>
     </row>
-    <row r="72" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>58</v>
       </c>
@@ -8009,7 +8029,7 @@
         <v>-3722</v>
       </c>
     </row>
-    <row r="73" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>54</v>
       </c>
@@ -8074,13 +8094,13 @@
         <v>28124</v>
       </c>
     </row>
-    <row r="74" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:42" x14ac:dyDescent="0.2">
       <c r="K74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>59</v>
       </c>
@@ -8145,7 +8165,7 @@
         <v>-9414</v>
       </c>
     </row>
-    <row r="76" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>60</v>
       </c>
@@ -8206,7 +8226,7 @@
         <v>-1069</v>
       </c>
     </row>
-    <row r="77" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>61</v>
       </c>
@@ -8266,7 +8286,7 @@
         <v>-83</v>
       </c>
     </row>
-    <row r="78" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>62</v>
       </c>
@@ -8331,10 +8351,10 @@
         <v>-10566</v>
       </c>
     </row>
-    <row r="79" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:42" x14ac:dyDescent="0.2">
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>65</v>
       </c>
@@ -8398,7 +8418,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="81" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>66</v>
       </c>
@@ -8461,7 +8481,7 @@
         <v>-2783</v>
       </c>
     </row>
-    <row r="82" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>67</v>
       </c>
@@ -8524,7 +8544,7 @@
         <v>-395</v>
       </c>
     </row>
-    <row r="83" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>69</v>
       </c>
@@ -8586,7 +8606,7 @@
         <v>-9533</v>
       </c>
     </row>
-    <row r="84" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>34</v>
       </c>
@@ -8645,7 +8665,7 @@
         <v>-1250</v>
       </c>
     </row>
-    <row r="85" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>68</v>
       </c>
@@ -8703,7 +8723,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="86" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>64</v>
       </c>
@@ -8768,7 +8788,7 @@
         <v>-13632</v>
       </c>
     </row>
-    <row r="87" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>63</v>
       </c>
@@ -8833,7 +8853,7 @@
         <v>3926</v>
       </c>
     </row>
-    <row r="89" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>70</v>
       </c>
@@ -8894,7 +8914,7 @@
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
     </row>
-    <row r="91" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>147</v>
       </c>
@@ -8941,7 +8961,7 @@
         <v>105.45</v>
       </c>
     </row>
-    <row r="92" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>148</v>
       </c>
@@ -8968,7 +8988,7 @@
       <c r="AE92" s="14"/>
       <c r="AF92" s="14"/>
     </row>
-    <row r="94" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>76</v>
       </c>
@@ -9021,7 +9041,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>77</v>
       </c>
@@ -9074,7 +9094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>87</v>
       </c>
@@ -9127,7 +9147,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>78</v>
       </c>
@@ -9180,7 +9200,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>79</v>
       </c>
@@ -9233,7 +9253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>88</v>
       </c>
@@ -9286,7 +9306,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -9339,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>81</v>
       </c>
@@ -9392,7 +9412,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>89</v>
       </c>
@@ -9445,7 +9465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:43" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B103" s="11" t="s">
         <v>82</v>
       </c>
@@ -9498,7 +9518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>83</v>
       </c>
@@ -9551,7 +9571,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="105" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>164</v>
       </c>
@@ -9604,7 +9624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>84</v>
       </c>
@@ -9657,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>85</v>
       </c>
@@ -9710,7 +9730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>86</v>
       </c>
@@ -9763,7 +9783,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>90</v>
       </c>
@@ -9816,7 +9836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>93</v>
       </c>
@@ -9869,7 +9889,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>94</v>
       </c>
@@ -9922,7 +9942,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>91</v>
       </c>
@@ -9975,7 +9995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>92</v>
       </c>
@@ -10028,7 +10048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="2:43" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="11" t="s">
         <v>95</v>
       </c>
@@ -10088,7 +10108,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="115" spans="2:43" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="11" t="s">
         <v>160</v>
       </c>
@@ -10126,7 +10146,7 @@
       <c r="AE115" s="9"/>
       <c r="AF115" s="9"/>
     </row>
-    <row r="116" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -10158,7 +10178,7 @@
       <c r="AE116" s="4"/>
       <c r="AF116" s="4"/>
     </row>
-    <row r="117" spans="2:43" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="11" t="s">
         <v>74</v>
       </c>
@@ -10205,7 +10225,7 @@
       <c r="AE117" s="9"/>
       <c r="AF117" s="9"/>
     </row>
-    <row r="118" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>75</v>
       </c>
@@ -10256,7 +10276,7 @@
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
     </row>
-    <row r="121" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>1</v>
       </c>
@@ -10309,7 +10329,7 @@
         <v>59314.570000000007</v>
       </c>
     </row>
-    <row r="122" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>22</v>
       </c>
@@ -10362,7 +10382,7 @@
         <v>53383.113000000005</v>
       </c>
     </row>
-    <row r="123" spans="2:43" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="11" t="s">
         <v>202</v>
       </c>
@@ -10427,7 +10447,7 @@
         <v>118629.14000000001</v>
       </c>
     </row>
-    <row r="124" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
         <v>198</v>
       </c>
@@ -10480,7 +10500,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="125" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
         <v>91</v>
       </c>
@@ -10533,7 +10553,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="126" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
         <v>199</v>
       </c>
@@ -10590,7 +10610,7 @@
         <v>22757.759999999998</v>
       </c>
     </row>
-    <row r="127" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>200</v>
       </c>
@@ -10639,7 +10659,7 @@
         <v>20414.68</v>
       </c>
     </row>
-    <row r="128" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>201</v>
       </c>
@@ -10684,7 +10704,7 @@
         <v>36184.200000000004</v>
       </c>
     </row>
-    <row r="129" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>78</v>
       </c>
@@ -10728,7 +10748,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="130" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>203</v>
       </c>
@@ -10777,7 +10797,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="131" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>204</v>
       </c>
@@ -10822,12 +10842,12 @@
         <v>24522.5</v>
       </c>
     </row>
-    <row r="132" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>206</v>
       </c>
@@ -10868,7 +10888,7 @@
         <v>0.44999999999999996</v>
       </c>
     </row>
-    <row r="135" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>207</v>
       </c>
@@ -10924,19 +10944,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA07D43-A391-463A-AB92-A7E5F2B81574}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -10944,7 +10964,7 @@
         <v>0.18063657407407407</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G2" t="s">
         <v>218</v>
       </c>
@@ -10952,12 +10972,12 @@
         <v>0.1807175925925926</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" s="34">
         <v>0.18059027777777778</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>208</v>
       </c>
@@ -10977,7 +10997,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <f t="shared" ref="B5:B7" si="0">+B6-750</f>
         <v>35250</v>
@@ -10999,7 +11019,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>36000</v>
@@ -11021,7 +11041,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>36750</v>
@@ -11043,7 +11063,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <f>+B9-750</f>
         <v>37500</v>
@@ -11066,7 +11086,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <f>+C4</f>
         <v>38250</v>
@@ -11088,7 +11108,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <f>+B9+1000</f>
         <v>39250</v>
@@ -11104,7 +11124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="32">
         <f t="shared" ref="B11:B15" si="2">+B10+1000</f>
         <v>40250</v>
@@ -11120,7 +11140,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30">
         <f t="shared" si="2"/>
         <v>41250</v>
@@ -11142,7 +11162,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <f t="shared" si="2"/>
         <v>42250</v>
@@ -11164,7 +11184,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <f t="shared" si="2"/>
         <v>43250</v>
@@ -11187,7 +11207,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <f t="shared" si="2"/>
         <v>44250</v>
@@ -11223,19 +11243,19 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -11243,7 +11263,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>150</v>
       </c>
@@ -11257,7 +11277,7 @@
         <v>26820</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>151</v>
       </c>
@@ -11265,7 +11285,7 @@
         <v>23520</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>152</v>
       </c>
@@ -11273,7 +11293,7 @@
         <v>24480</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>153</v>
       </c>
@@ -11297,7 +11317,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>25000</v>
       </c>
@@ -11312,7 +11332,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="11">
         <v>25500</v>
       </c>
@@ -11329,7 +11349,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="11">
         <v>26000</v>
       </c>
@@ -11346,7 +11366,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="11">
         <v>26500</v>
       </c>
@@ -11363,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="11">
         <v>27000</v>
       </c>
@@ -11380,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="11">
         <v>27500</v>
       </c>
@@ -11397,7 +11417,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>28000</v>
       </c>
@@ -11412,7 +11432,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>28500</v>
       </c>
@@ -11431,7 +11451,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>155</v>
       </c>
@@ -11439,7 +11459,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>156</v>
       </c>
@@ -11447,7 +11467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>157</v>
       </c>
@@ -11455,7 +11475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>158</v>
       </c>
@@ -11464,7 +11484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C24" s="16">
         <f>C23/C20</f>
         <v>8.2809224318658281E-2</v>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7ADDDA-07E4-4F7F-A087-B815B1DBD971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93774277-7FA6-4ABB-982C-CAE5BF4740CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27060" yWindow="3540" windowWidth="25155" windowHeight="14640" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -1084,13 +1084,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>26836</xdr:colOff>
+      <xdr:colOff>657457</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>26836</xdr:colOff>
+      <xdr:colOff>657457</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>99785</xdr:rowOff>
     </xdr:to>
@@ -1107,8 +1107,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17790961" y="0"/>
-          <a:ext cx="0" cy="17571356"/>
+          <a:off x="28838319" y="0"/>
+          <a:ext cx="0" cy="15701078"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1479,9 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1503,7 +1501,7 @@
         <v>112</v>
       </c>
       <c r="K2" s="15">
-        <v>139.63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1537,7 +1535,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>3459193.62</v>
+        <v>2328756</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1589,7 +1587,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>3429168.62</v>
+        <v>2298731</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1730,10 +1728,10 @@
   <dimension ref="A1:EO135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AQ19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S172" sqref="S172"/>
+      <selection pane="bottomRight" activeCell="AR38" sqref="AR38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5111,387 +5109,387 @@
         <v>578065.00029983988</v>
       </c>
       <c r="AX34" s="2">
-        <f>AW34*(1+$AZ$41)</f>
+        <f t="shared" ref="AX34:CC34" si="61">AW34*(1+$AZ$41)</f>
         <v>583845.6503028383</v>
       </c>
       <c r="AY34" s="2">
-        <f>AX34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>589684.1068058667</v>
       </c>
       <c r="AZ34" s="2">
-        <f>AY34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>595580.94787392532</v>
       </c>
       <c r="BA34" s="2">
-        <f>AZ34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>601536.7573526646</v>
       </c>
       <c r="BB34" s="2">
-        <f>BA34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>607552.12492619129</v>
       </c>
       <c r="BC34" s="2">
-        <f>BB34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>613627.64617545321</v>
       </c>
       <c r="BD34" s="2">
-        <f>BC34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>619763.92263720778</v>
       </c>
       <c r="BE34" s="2">
-        <f>BD34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>625961.5618635799</v>
       </c>
       <c r="BF34" s="2">
-        <f>BE34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>632221.17748221569</v>
       </c>
       <c r="BG34" s="2">
-        <f>BF34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>638543.3892570379</v>
       </c>
       <c r="BH34" s="2">
-        <f>BG34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>644928.82314960833</v>
       </c>
       <c r="BI34" s="2">
-        <f>BH34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>651378.11138110445</v>
       </c>
       <c r="BJ34" s="2">
-        <f>BI34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>657891.89249491552</v>
       </c>
       <c r="BK34" s="2">
-        <f>BJ34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>664470.81141986465</v>
       </c>
       <c r="BL34" s="2">
-        <f>BK34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>671115.51953406329</v>
       </c>
       <c r="BM34" s="2">
-        <f>BL34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>677826.67472940392</v>
       </c>
       <c r="BN34" s="2">
-        <f>BM34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>684604.94147669792</v>
       </c>
       <c r="BO34" s="2">
-        <f>BN34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>691450.99089146487</v>
       </c>
       <c r="BP34" s="2">
-        <f>BO34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>698365.50080037955</v>
       </c>
       <c r="BQ34" s="2">
-        <f>BP34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>705349.15580838337</v>
       </c>
       <c r="BR34" s="2">
-        <f>BQ34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>712402.64736646716</v>
       </c>
       <c r="BS34" s="2">
-        <f>BR34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>719526.67384013184</v>
       </c>
       <c r="BT34" s="2">
-        <f>BS34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>726721.94057853322</v>
       </c>
       <c r="BU34" s="2">
-        <f>BT34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>733989.15998431854</v>
       </c>
       <c r="BV34" s="2">
-        <f>BU34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>741329.0515841617</v>
       </c>
       <c r="BW34" s="2">
-        <f>BV34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>748742.34210000327</v>
       </c>
       <c r="BX34" s="2">
-        <f>BW34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>756229.76552100328</v>
       </c>
       <c r="BY34" s="2">
-        <f>BX34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>763792.0631762133</v>
       </c>
       <c r="BZ34" s="2">
-        <f>BY34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>771429.98380797543</v>
       </c>
       <c r="CA34" s="2">
-        <f>BZ34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>779144.28364605515</v>
       </c>
       <c r="CB34" s="2">
-        <f>CA34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>786935.72648251569</v>
       </c>
       <c r="CC34" s="2">
-        <f>CB34*(1+$AZ$41)</f>
+        <f t="shared" si="61"/>
         <v>794805.08374734083</v>
       </c>
       <c r="CD34" s="2">
-        <f>CC34*(1+$AZ$41)</f>
+        <f t="shared" ref="CD34:DI34" si="62">CC34*(1+$AZ$41)</f>
         <v>802753.13458481419</v>
       </c>
       <c r="CE34" s="2">
-        <f>CD34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>810780.6659306623</v>
       </c>
       <c r="CF34" s="2">
-        <f>CE34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>818888.47258996894</v>
       </c>
       <c r="CG34" s="2">
-        <f>CF34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>827077.3573158686</v>
       </c>
       <c r="CH34" s="2">
-        <f>CG34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>835348.13088902726</v>
       </c>
       <c r="CI34" s="2">
-        <f>CH34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>843701.61219791754</v>
       </c>
       <c r="CJ34" s="2">
-        <f>CI34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>852138.62831989676</v>
       </c>
       <c r="CK34" s="2">
-        <f>CJ34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>860660.01460309571</v>
       </c>
       <c r="CL34" s="2">
-        <f>CK34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>869266.61474912672</v>
       </c>
       <c r="CM34" s="2">
-        <f>CL34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>877959.28089661803</v>
       </c>
       <c r="CN34" s="2">
-        <f>CM34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>886738.87370558421</v>
       </c>
       <c r="CO34" s="2">
-        <f>CN34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>895606.26244264003</v>
       </c>
       <c r="CP34" s="2">
-        <f>CO34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>904562.32506706647</v>
       </c>
       <c r="CQ34" s="2">
-        <f>CP34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>913607.94831773709</v>
       </c>
       <c r="CR34" s="2">
-        <f>CQ34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>922744.02780091448</v>
       </c>
       <c r="CS34" s="2">
-        <f>CR34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>931971.46807892364</v>
       </c>
       <c r="CT34" s="2">
-        <f>CS34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>941291.18275971292</v>
       </c>
       <c r="CU34" s="2">
-        <f>CT34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>950704.0945873101</v>
       </c>
       <c r="CV34" s="2">
-        <f>CU34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>960211.13553318323</v>
       </c>
       <c r="CW34" s="2">
-        <f>CV34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>969813.24688851507</v>
       </c>
       <c r="CX34" s="2">
-        <f>CW34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>979511.37935740023</v>
       </c>
       <c r="CY34" s="2">
-        <f>CX34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>989306.49315097427</v>
       </c>
       <c r="CZ34" s="2">
-        <f>CY34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>999199.55808248406</v>
       </c>
       <c r="DA34" s="2">
-        <f>CZ34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>1009191.553663309</v>
       </c>
       <c r="DB34" s="2">
-        <f>DA34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>1019283.4691999421</v>
       </c>
       <c r="DC34" s="2">
-        <f>DB34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>1029476.3038919416</v>
       </c>
       <c r="DD34" s="2">
-        <f>DC34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>1039771.066930861</v>
       </c>
       <c r="DE34" s="2">
-        <f>DD34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>1050168.7776001696</v>
       </c>
       <c r="DF34" s="2">
-        <f>DE34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>1060670.4653761713</v>
       </c>
       <c r="DG34" s="2">
-        <f>DF34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>1071277.1700299331</v>
       </c>
       <c r="DH34" s="2">
-        <f>DG34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>1081989.9417302324</v>
       </c>
       <c r="DI34" s="2">
-        <f>DH34*(1+$AZ$41)</f>
+        <f t="shared" si="62"/>
         <v>1092809.8411475348</v>
       </c>
       <c r="DJ34" s="2">
-        <f>DI34*(1+$AZ$41)</f>
+        <f t="shared" ref="DJ34:EO34" si="63">DI34*(1+$AZ$41)</f>
         <v>1103737.9395590101</v>
       </c>
       <c r="DK34" s="2">
-        <f>DJ34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1114775.3189546003</v>
       </c>
       <c r="DL34" s="2">
-        <f>DK34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1125923.0721441463</v>
       </c>
       <c r="DM34" s="2">
-        <f>DL34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1137182.3028655879</v>
       </c>
       <c r="DN34" s="2">
-        <f>DM34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1148554.1258942438</v>
       </c>
       <c r="DO34" s="2">
-        <f>DN34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1160039.6671531862</v>
       </c>
       <c r="DP34" s="2">
-        <f>DO34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1171640.0638247181</v>
       </c>
       <c r="DQ34" s="2">
-        <f>DP34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1183356.4644629653</v>
       </c>
       <c r="DR34" s="2">
-        <f>DQ34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1195190.0291075949</v>
       </c>
       <c r="DS34" s="2">
-        <f>DR34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1207141.9293986708</v>
       </c>
       <c r="DT34" s="2">
-        <f>DS34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1219213.3486926574</v>
       </c>
       <c r="DU34" s="2">
-        <f>DT34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1231405.482179584</v>
       </c>
       <c r="DV34" s="2">
-        <f>DU34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1243719.5370013798</v>
       </c>
       <c r="DW34" s="2">
-        <f>DV34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1256156.7323713936</v>
       </c>
       <c r="DX34" s="2">
-        <f>DW34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1268718.2996951076</v>
       </c>
       <c r="DY34" s="2">
-        <f>DX34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1281405.4826920587</v>
       </c>
       <c r="DZ34" s="2">
-        <f>DY34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1294219.5375189793</v>
       </c>
       <c r="EA34" s="2">
-        <f>DZ34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1307161.7328941692</v>
       </c>
       <c r="EB34" s="2">
-        <f>EA34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1320233.3502231108</v>
       </c>
       <c r="EC34" s="2">
-        <f>EB34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1333435.6837253419</v>
       </c>
       <c r="ED34" s="2">
-        <f>EC34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1346770.0405625952</v>
       </c>
       <c r="EE34" s="2">
-        <f>ED34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1360237.7409682211</v>
       </c>
       <c r="EF34" s="2">
-        <f>EE34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1373840.1183779032</v>
       </c>
       <c r="EG34" s="2">
-        <f>EF34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1387578.5195616824</v>
       </c>
       <c r="EH34" s="2">
-        <f>EG34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1401454.3047572991</v>
       </c>
       <c r="EI34" s="2">
-        <f>EH34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1415468.8478048721</v>
       </c>
       <c r="EJ34" s="2">
-        <f>EI34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1429623.5362829207</v>
       </c>
       <c r="EK34" s="2">
-        <f>EJ34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1443919.7716457499</v>
       </c>
       <c r="EL34" s="2">
-        <f>EK34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1458358.9693622075</v>
       </c>
       <c r="EM34" s="2">
-        <f>EL34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1472942.5590558297</v>
       </c>
       <c r="EN34" s="2">
-        <f>EM34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1487671.9846463879</v>
       </c>
       <c r="EO34" s="2">
-        <f>EN34*(1+$AZ$41)</f>
+        <f t="shared" si="63"/>
         <v>1502548.7044928519</v>
       </c>
     </row>
@@ -5500,83 +5498,83 @@
         <v>12</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:P35" si="61">+C34/C36</f>
+        <f t="shared" ref="C35:P35" si="64">+C34/C36</f>
         <v>1.4742765273311897</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.24840255591054314</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.27210884353741499</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.57725832012678291</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.75632911392405067</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.93759873617693523</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.97084318360914101</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>1.1799607072691551</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>1.1710681907765077</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.26073131955484896</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.27210884353741499</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.48942959712804146</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.82048192771084338</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.24757941906057454</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" ref="Q35:S35" si="62">+Q34/Q36</f>
+        <f t="shared" ref="Q35:S35" si="65">+Q34/Q36</f>
         <v>3.7060946271050521</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>4.9477911646586348</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>5.978706307754118</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" ref="T35:V35" si="63">+T34/T36</f>
+        <f t="shared" ref="T35:V35" si="66">+T34/T36</f>
         <v>0.66802157115260785</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>0.77940582869136998</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>0.95738299023169449</v>
       </c>
       <c r="W35" s="6"/>
@@ -5586,87 +5584,87 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="15">
-        <f t="shared" ref="AC35" si="64">+AC34/AC36</f>
+        <f t="shared" ref="AC35" si="67">+AC34/AC36</f>
         <v>0.33319403958660349</v>
       </c>
       <c r="AD35" s="15">
-        <f t="shared" ref="AD35:AE35" si="65">+AD34/AD36</f>
+        <f t="shared" ref="AD35:AE35" si="68">+AD34/AD36</f>
         <v>0.94276012336725723</v>
       </c>
       <c r="AE35" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0.90011952822354169</v>
       </c>
       <c r="AF35" s="15">
-        <f t="shared" ref="AF35:AG35" si="66">+AF34/AF36</f>
+        <f t="shared" ref="AF35:AG35" si="69">+AF34/AF36</f>
         <v>0.73949579831932777</v>
       </c>
       <c r="AG35" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>1.152753108348135</v>
       </c>
       <c r="AH35" s="15">
-        <f t="shared" ref="AH35:AI35" si="67">+AH34/AH36</f>
+        <f t="shared" ref="AH35:AI35" si="70">+AH34/AH36</f>
         <v>1.3093145869947276</v>
       </c>
       <c r="AI35" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>2.5716486902927582</v>
       </c>
       <c r="AJ35" s="15">
-        <f t="shared" ref="AJ35:AK35" si="68">+AJ34/AJ36</f>
+        <f t="shared" ref="AJ35:AK35" si="71">+AJ34/AJ36</f>
         <v>4.8212025316455698</v>
       </c>
       <c r="AK35" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>6.6256000000000004</v>
       </c>
       <c r="AL35" s="15">
-        <f t="shared" ref="AL35:AM35" si="69">+AL34/AL36</f>
+        <f t="shared" ref="AL35:AM35" si="72">+AL34/AL36</f>
         <v>1.1310679611650485</v>
       </c>
       <c r="AM35" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1.7258964143426294</v>
       </c>
       <c r="AN35" s="15">
-        <f t="shared" ref="AN35:AU35" si="70">+AN34/AN36</f>
+        <f t="shared" ref="AN35:AU35" si="73">+AN34/AN36</f>
         <v>3.8469428007889546</v>
       </c>
       <c r="AO35" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2.2074192261667331</v>
       </c>
       <c r="AP35" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>11.946271050521251</v>
       </c>
       <c r="AQ35" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>3.0074758294986679</v>
       </c>
       <c r="AR35" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>4.4282999273431818</v>
       </c>
       <c r="AS35" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>6.8038526519738429</v>
       </c>
       <c r="AT35" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>9.6538637539355765</v>
       </c>
       <c r="AU35" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>13.671725457980136</v>
       </c>
       <c r="AV35" s="15">
-        <f t="shared" ref="AV35:AW35" si="71">+AV34/AV36</f>
+        <f t="shared" ref="AV35:AW35" si="74">+AV34/AV36</f>
         <v>17.863876325696292</v>
       </c>
       <c r="AW35" s="15">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>23.33353516992976</v>
       </c>
       <c r="AX35" s="15"/>
@@ -5734,7 +5732,7 @@
         <v>24774</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" ref="V36" si="72">+U36</f>
+        <f t="shared" ref="V36" si="75">+U36</f>
         <v>24774</v>
       </c>
       <c r="W36" s="2"/>
@@ -5806,11 +5804,11 @@
         <v>24774</v>
       </c>
       <c r="AV36" s="2">
-        <f t="shared" ref="AV36:AW36" si="73">+AU36</f>
+        <f t="shared" ref="AV36:AW36" si="76">+AU36</f>
         <v>24774</v>
       </c>
       <c r="AW36" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>24774</v>
       </c>
       <c r="AX36" s="2"/>
@@ -5820,51 +5818,51 @@
         <v>71</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" ref="G38:I38" si="74">+G24/C24-1</f>
+        <f t="shared" ref="G38:I38" si="77">+G24/C24-1</f>
         <v>0.83798701298701306</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.68313502327987585</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>0.19760580003372108</v>
       </c>
       <c r="J38" s="10">
-        <f t="shared" ref="J38:R38" si="75">+J24/F24-1</f>
+        <f t="shared" ref="J38:R38" si="78">+J24/F24-1</f>
         <v>0.52768338996602049</v>
       </c>
       <c r="K38" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="L38" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="N38" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>-0.20829517205285886</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>-0.13223938223938225</v>
       </c>
       <c r="P38" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>1.0147673031026252</v>
       </c>
       <c r="Q38" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="R38" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2.6585688315980831</v>
       </c>
       <c r="S38" s="10">
@@ -5872,90 +5870,90 @@
         <v>2.6212458286985538</v>
       </c>
       <c r="T38" s="10">
-        <f t="shared" ref="T38" si="76">+T24/P24-1</f>
+        <f t="shared" ref="T38" si="79">+T24/P24-1</f>
         <v>1.2240319834160065</v>
       </c>
       <c r="U38" s="10">
-        <f t="shared" ref="U38" si="77">+U24/Q24-1</f>
+        <f t="shared" ref="U38" si="80">+U24/Q24-1</f>
         <v>0.93609271523178816</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" ref="V38:W38" si="78">+V24/R24-1</f>
+        <f t="shared" ref="V38:W38" si="81">+V24/R24-1</f>
         <v>0.84557773963321003</v>
       </c>
       <c r="W38" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.67947588696052819</v>
       </c>
       <c r="X38" s="10">
-        <f t="shared" ref="X38" si="79">+X24/T24-1</f>
+        <f t="shared" ref="X38" si="82">+X24/T24-1</f>
         <v>0.54599201065246361</v>
       </c>
       <c r="Y38" s="10">
-        <f t="shared" ref="Y38" si="80">+Y24/U24-1</f>
+        <f t="shared" ref="Y38" si="83">+Y24/U24-1</f>
         <v>0.40187204264295096</v>
       </c>
       <c r="Z38" s="10">
-        <f t="shared" ref="Z38" si="81">+Z24/V24-1</f>
+        <f t="shared" ref="Z38" si="84">+Z24/V24-1</f>
         <v>0.4517460729268139</v>
       </c>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
       <c r="AD38" s="10">
-        <f t="shared" ref="AD38:AW38" si="82">+AD24/AC24-1</f>
+        <f t="shared" ref="AD38:AW38" si="85">+AD24/AC24-1</f>
         <v>0.12830407960468571</v>
       </c>
       <c r="AE38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>7.0593782282331041E-2</v>
       </c>
       <c r="AF38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>-3.5082575203397748E-2</v>
       </c>
       <c r="AG38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.13365617433414045</v>
       </c>
       <c r="AH38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>7.0055531824006811E-2</v>
       </c>
       <c r="AI38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.37924151696606789</v>
       </c>
       <c r="AJ38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.40578871201157751</v>
       </c>
       <c r="AK38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.20609429689108505</v>
       </c>
       <c r="AL38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>-6.8111983612154314E-2</v>
       </c>
       <c r="AM38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.52729437625938824</v>
       </c>
       <c r="AN38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.61403298350824587</v>
       </c>
       <c r="AO38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>2.2293230289069932E-3</v>
       </c>
       <c r="AP38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>1.2598428115963523</v>
       </c>
       <c r="AQ38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>1.1658447758255819</v>
       </c>
       <c r="AR38" s="10">
@@ -5963,23 +5961,23 @@
         <v>0.5</v>
       </c>
       <c r="AS38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.5</v>
       </c>
       <c r="AT38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AU38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AV38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AW38" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AX38" s="10"/>
@@ -5990,63 +5988,63 @@
         <v>72</v>
       </c>
       <c r="D39" s="10">
-        <f t="shared" ref="D39" si="83">+D24/C24-1</f>
+        <f t="shared" ref="D39" si="86">+D24/C24-1</f>
         <v>0.2551948051948052</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" ref="E39" si="84">+E24/D24-1</f>
+        <f t="shared" ref="E39" si="87">+E24/D24-1</f>
         <v>0.53414381789963783</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" ref="F39" si="85">+F24/E24-1</f>
+        <f t="shared" ref="F39" si="88">+F24/E24-1</f>
         <v>-0.15646602596526726</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" ref="G39:R39" si="86">+G24/F24-1</f>
+        <f t="shared" ref="G39:R39" si="89">+G24/F24-1</f>
         <v>0.13152108734759138</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.14944356120826718</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>9.1593668357153879E-2</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>7.6024215120371608E-2</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>8.4390945963626951E-2</v>
       </c>
       <c r="L39" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>-0.19111969111969107</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>-0.11530429594272074</v>
       </c>
       <c r="N39" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>2.0232675771370667E-2</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.1885638737398776</v>
       </c>
       <c r="P39" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.87805895439377091</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.34152661582882948</v>
       </c>
       <c r="R39" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0.22174392935982334</v>
       </c>
       <c r="S39" s="10">
@@ -6054,15 +6052,15 @@
         <v>0.1764387026831693</v>
       </c>
       <c r="T39" s="10">
-        <f t="shared" ref="T39" si="87">+T24/S24-1</f>
+        <f t="shared" ref="T39" si="90">+T24/S24-1</f>
         <v>0.1534326524343419</v>
       </c>
       <c r="U39" s="10">
-        <f t="shared" ref="U39" si="88">+U24/T24-1</f>
+        <f t="shared" ref="U39" si="91">+U24/T24-1</f>
         <v>0.16784287616511318</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" ref="V39" si="89">+V24/U24-1</f>
+        <f t="shared" ref="V39" si="92">+V24/U24-1</f>
         <v>0.16462573399464109</v>
       </c>
       <c r="W39" s="10"/>
@@ -6081,47 +6079,47 @@
         <v>73</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" ref="H40:R40" si="90">+H22/G22-1</f>
+        <f t="shared" ref="H40:R40" si="93">+H22/G22-1</f>
         <v>0.15414634146341455</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.24091293322062546</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.11035422343324242</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.15030674846625769</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>1.4933333333333243E-2</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>7.0940620073567384E-3</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>-5.5570049569527824E-2</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.18342541436464099</v>
       </c>
       <c r="P40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>1.4096638655462184</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.40598663179308336</v>
       </c>
       <c r="R40" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>0.2680170869505305</v>
       </c>
       <c r="S40" s="10">
@@ -6129,15 +6127,15 @@
         <v>0.22598348185177142</v>
       </c>
       <c r="T40" s="10">
-        <f t="shared" ref="T40" si="91">+T22/S22-1</f>
+        <f t="shared" ref="T40" si="94">+T22/S22-1</f>
         <v>0.16438416877188322</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" ref="U40" si="92">+U22/T22-1</f>
+        <f t="shared" ref="U40" si="95">+U22/T22-1</f>
         <v>0.17124695493300846</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" ref="V40" si="93">+V22/U22-1</f>
+        <f t="shared" ref="V40" si="96">+V22/U22-1</f>
         <v>0.19430632738617537</v>
       </c>
       <c r="W40" s="10"/>
@@ -6156,80 +6154,80 @@
         <v>5</v>
       </c>
       <c r="C41" s="7">
-        <f t="shared" ref="C41:D41" si="94">C26/C24</f>
+        <f t="shared" ref="C41:D41" si="97">C26/C24</f>
         <v>0.6506493506493507</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.58846352819451631</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" ref="E41:M41" si="95">E26/E24</f>
+        <f t="shared" ref="E41:M41" si="98">E26/E24</f>
         <v>0.53566009104704093</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.6310213871676994</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.6410528175234057</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.64776394651913327</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.65197803744896521</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.65406254088708626</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.65528474903474898</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.43481503579952269</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.53566009104704093</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:T41" si="96">O26/O24</f>
+        <f t="shared" ref="O41:T41" si="99">O26/O24</f>
         <v>0.64627363737486099</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.7005256533649219</v>
       </c>
       <c r="Q41" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.73951434878587197</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.76005059174270484</v>
       </c>
       <c r="S41" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.78352019659038552</v>
       </c>
       <c r="T41" s="7">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.75146471371504664</v>
       </c>
       <c r="U41" s="7">
-        <f t="shared" ref="U41:V41" si="97">U26/U24</f>
+        <f t="shared" ref="U41:V41" si="100">U26/U24</f>
         <v>0.74556752750698363</v>
       </c>
       <c r="V41" s="7">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.78</v>
       </c>
       <c r="W41" s="7"/>
@@ -6239,87 +6237,87 @@
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
       <c r="AC41" s="7">
-        <f t="shared" ref="AC41" si="98">AC26/AC24</f>
+        <f t="shared" ref="AC41" si="101">AC26/AC24</f>
         <v>0.39767629636591112</v>
       </c>
       <c r="AD41" s="7">
-        <f t="shared" ref="AD41:AE41" si="99">AD26/AD24</f>
+        <f t="shared" ref="AD41:AE41" si="102">AD26/AD24</f>
         <v>0.51439544964519135</v>
       </c>
       <c r="AE41" s="7">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>0.52015427464260089</v>
       </c>
       <c r="AF41" s="7">
-        <f t="shared" ref="AF41:AW41" si="100">AF26/AF24</f>
+        <f t="shared" ref="AF41:AW41" si="103">AF26/AF24</f>
         <v>0.54915254237288136</v>
       </c>
       <c r="AG41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.55510465612985904</v>
       </c>
       <c r="AH41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.56107784431137719</v>
       </c>
       <c r="AI41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.58798842257597683</v>
       </c>
       <c r="AJ41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.59934115709285563</v>
       </c>
       <c r="AK41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.61206896551724133</v>
       </c>
       <c r="AL41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.61989375343469499</v>
       </c>
       <c r="AM41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.62344827586206897</v>
       </c>
       <c r="AN41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.64929033216913135</v>
       </c>
       <c r="AO41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.56928894490991322</v>
       </c>
       <c r="AP41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.72733238184293847</v>
       </c>
       <c r="AQ41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.76505204380435587</v>
       </c>
       <c r="AR41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.78</v>
       </c>
       <c r="AS41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.78</v>
       </c>
       <c r="AT41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.78</v>
       </c>
       <c r="AU41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.78</v>
       </c>
       <c r="AV41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.78</v>
       </c>
       <c r="AW41" s="7">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.78</v>
       </c>
       <c r="AY41" t="s">
@@ -6334,67 +6332,67 @@
         <v>24</v>
       </c>
       <c r="C42" s="7">
-        <f t="shared" ref="C42:E42" si="101">C22/C24</f>
+        <f t="shared" ref="C42:E42" si="104">C22/C24</f>
         <v>0</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" ref="F42:K42" si="102">F22/F24</f>
+        <f t="shared" ref="F42:K42" si="105">F22/F24</f>
         <v>0</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>0.36212683271506801</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>0.36360842169970803</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>0.41334647332113189</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>0.42653408347507521</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>0.45246138996138996</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" ref="L42:Q42" si="103">L22/L24</f>
+        <f t="shared" ref="L42:Q42" si="106">L22/L24</f>
         <v>0.56772076372315039</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.64626538526386779</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.59824822343414308</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.59566184649610676</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.76427037832235134</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.80099337748344368</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" ref="R42:V42" si="104">R22/R24</f>
+        <f t="shared" ref="R42:V42" si="107">R22/R24</f>
         <v>0.83133074351793301</v>
       </c>
       <c r="S42" s="7">
@@ -6402,15 +6400,15 @@
         <v>0.86634157579480875</v>
       </c>
       <c r="T42" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0.87456724367509986</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0.87711646998460746</v>
       </c>
       <c r="V42" s="7">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0.89946986347638369</v>
       </c>
       <c r="W42" s="7"/>
@@ -6448,56 +6446,56 @@
         <v>5704</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" ref="H44" si="105">+H45-H58</f>
+        <f t="shared" ref="H44" si="108">+H45-H58</f>
         <v>7711</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2">
-        <f t="shared" ref="K44:R44" si="106">+K45-K58</f>
+        <f t="shared" ref="K44:R44" si="109">+K45-K58</f>
         <v>9391</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>6088</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>2193</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>2343</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>4366</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>6318</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>8575</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>16275</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" ref="S44:V44" si="107">+S45-S58</f>
+        <f t="shared" ref="S44:V44" si="110">+S45-S58</f>
         <v>21728</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>26339</v>
       </c>
       <c r="U44" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>30025</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="W44" s="2"/>
@@ -6635,7 +6633,7 @@
         <v>17693</v>
       </c>
       <c r="AP46" s="2">
-        <f t="shared" ref="AP46:AP53" si="108">+R46</f>
+        <f t="shared" ref="AP46:AP53" si="111">+R46</f>
         <v>9999</v>
       </c>
     </row>
@@ -6689,7 +6687,7 @@
         <v>7654</v>
       </c>
       <c r="AP47" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>5282</v>
       </c>
     </row>
@@ -6743,7 +6741,7 @@
         <v>3806</v>
       </c>
       <c r="AP48" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>3080</v>
       </c>
     </row>
@@ -6797,7 +6795,7 @@
         <v>5343</v>
       </c>
       <c r="AP49" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>3914</v>
       </c>
     </row>
@@ -6851,7 +6849,7 @@
         <v>1755</v>
       </c>
       <c r="AP50" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>1346</v>
       </c>
     </row>
@@ -6918,7 +6916,7 @@
         <v>5562</v>
       </c>
       <c r="AP51" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>5542</v>
       </c>
     </row>
@@ -6972,7 +6970,7 @@
         <v>10276</v>
       </c>
       <c r="AP52" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>6081</v>
       </c>
     </row>
@@ -7026,7 +7024,7 @@
         <v>5437</v>
       </c>
       <c r="AP53" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>4500</v>
       </c>
     </row>
@@ -7039,57 +7037,57 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="2">
-        <f t="shared" ref="G54:H54" si="109">SUM(G45:G53)</f>
+        <f t="shared" ref="G54:H54" si="112">SUM(G45:G53)</f>
         <v>30796</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>38650</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="2">
-        <f t="shared" ref="K54:M54" si="110">SUM(K45:K53)</f>
+        <f t="shared" ref="K54:M54" si="113">SUM(K45:K53)</f>
         <v>45212</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>43476</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>40488</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" ref="N54:O54" si="111">SUM(N45:N53)</f>
+        <f t="shared" ref="N54:O54" si="114">SUM(N45:N53)</f>
         <v>41182</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>44460</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" ref="P54:U54" si="112">SUM(P45:P53)</f>
+        <f t="shared" ref="P54:U54" si="115">SUM(P45:P53)</f>
         <v>49555</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>54148</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>65728</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>77072</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>85227</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>96013</v>
       </c>
       <c r="AP54" s="2">
@@ -7161,7 +7159,7 @@
         <v>5353</v>
       </c>
       <c r="AP56" s="2">
-        <f t="shared" ref="AP56:AP61" si="113">+R56</f>
+        <f t="shared" ref="AP56:AP61" si="116">+R56</f>
         <v>2699</v>
       </c>
     </row>
@@ -7215,7 +7213,7 @@
         <v>11126</v>
       </c>
       <c r="AP57" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>6682</v>
       </c>
     </row>
@@ -7279,7 +7277,7 @@
         <v>8462</v>
       </c>
       <c r="AP58" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>9709</v>
       </c>
     </row>
@@ -7334,7 +7332,7 @@
         <v>1490</v>
       </c>
       <c r="AP59" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>1119</v>
       </c>
     </row>
@@ -7388,7 +7386,7 @@
         <v>3683</v>
       </c>
       <c r="AP60" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>2541</v>
       </c>
     </row>
@@ -7442,7 +7440,7 @@
         <v>65899</v>
       </c>
       <c r="AP61" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>42978</v>
       </c>
     </row>
@@ -7455,57 +7453,57 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="2">
-        <f t="shared" ref="G62:H62" si="114">SUM(G56:G61)</f>
+        <f t="shared" ref="G62:H62" si="117">SUM(G56:G61)</f>
         <v>30796</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>38650</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="2">
-        <f t="shared" ref="K62:M62" si="115">SUM(K56:K61)</f>
+        <f t="shared" ref="K62:M62" si="118">SUM(K56:K61)</f>
         <v>45212</v>
       </c>
       <c r="L62" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>43476</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>40488</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" ref="N62:O62" si="116">SUM(N56:N61)</f>
+        <f t="shared" ref="N62:O62" si="119">SUM(N56:N61)</f>
         <v>41182</v>
       </c>
       <c r="O62" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>44460</v>
       </c>
       <c r="P62" s="2">
-        <f t="shared" ref="P62:U62" si="117">SUM(P56:P61)</f>
+        <f t="shared" ref="P62:U62" si="120">SUM(P56:P61)</f>
         <v>49555</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>54148</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>65728</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>77072</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>85227</v>
       </c>
       <c r="U62" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>96013</v>
       </c>
       <c r="AP62" s="2">
@@ -7527,59 +7525,59 @@
         <v>1912</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" ref="H64:N64" si="118">H34</f>
+        <f t="shared" ref="H64:N64" si="121">H34</f>
         <v>2374</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>2464</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>3003</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>2971</v>
       </c>
       <c r="L64" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>656</v>
       </c>
       <c r="M64" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>680</v>
       </c>
       <c r="N64" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>1227</v>
       </c>
       <c r="O64" s="5">
-        <f t="shared" ref="O64:U64" si="119">O34</f>
+        <f t="shared" ref="O64:U64" si="122">O34</f>
         <v>2043</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>6188</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>9243</v>
       </c>
       <c r="R64" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>12320</v>
       </c>
       <c r="S64" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>14881</v>
       </c>
       <c r="T64" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>16599</v>
       </c>
       <c r="U64" s="5">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>19309</v>
       </c>
       <c r="AB64" s="5"/>
@@ -7729,7 +7727,7 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
       <c r="AP67" s="2">
-        <f t="shared" ref="AP67:AP72" si="120">SUM(O67:R67)</f>
+        <f t="shared" ref="AP67:AP72" si="123">SUM(O67:R67)</f>
         <v>3549</v>
       </c>
     </row>
@@ -7786,7 +7784,7 @@
         <v>478</v>
       </c>
       <c r="AP68" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>1508</v>
       </c>
     </row>
@@ -7843,7 +7841,7 @@
         <v>-38</v>
       </c>
       <c r="AP69" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>-238</v>
       </c>
     </row>
@@ -7904,7 +7902,7 @@
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AP70" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>-2489</v>
       </c>
     </row>
@@ -7961,7 +7959,7 @@
         <v>-77</v>
       </c>
       <c r="AP71" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>-278</v>
       </c>
     </row>
@@ -8025,7 +8023,7 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AP72" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>-3722</v>
       </c>
     </row>
@@ -8058,31 +8056,31 @@
         <v>2248</v>
       </c>
       <c r="O73" s="5">
-        <f t="shared" ref="O73:U73" si="121">SUM(O64:O72)</f>
+        <f t="shared" ref="O73:U73" si="124">SUM(O64:O72)</f>
         <v>2911</v>
       </c>
       <c r="P73" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>6347</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>7332</v>
       </c>
       <c r="R73" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>11534</v>
       </c>
       <c r="S73" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>15345</v>
       </c>
       <c r="T73" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>14488</v>
       </c>
       <c r="U73" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>17627</v>
       </c>
       <c r="AB73" s="5"/>
@@ -8161,7 +8159,7 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AP75" s="2">
-        <f t="shared" ref="AP75:AP77" si="122">SUM(O75:R75)</f>
+        <f t="shared" ref="AP75:AP77" si="125">SUM(O75:R75)</f>
         <v>-9414</v>
       </c>
     </row>
@@ -8222,7 +8220,7 @@
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
       <c r="AP76" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>-1069</v>
       </c>
     </row>
@@ -8282,7 +8280,7 @@
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
       <c r="AP77" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>-83</v>
       </c>
     </row>
@@ -8299,47 +8297,47 @@
         <v>-2533</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" ref="K78:U78" si="123">SUM(K75:K77)</f>
+        <f t="shared" ref="K78:U78" si="126">SUM(K75:K77)</f>
         <v>2612</v>
       </c>
       <c r="L78" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>1618</v>
       </c>
       <c r="M78" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>3148</v>
       </c>
       <c r="N78" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>-3</v>
       </c>
       <c r="O78" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>-841</v>
       </c>
       <c r="P78" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>-446</v>
       </c>
       <c r="Q78" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>-3170</v>
       </c>
       <c r="R78" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>-6109</v>
       </c>
       <c r="S78" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>-5693</v>
       </c>
       <c r="T78" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>-3184</v>
       </c>
       <c r="U78" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>-4346</v>
       </c>
       <c r="AB78" s="5"/>
@@ -8414,7 +8412,7 @@
         <v>204</v>
       </c>
       <c r="AP80" s="2">
-        <f t="shared" ref="AP80:AP85" si="124">SUM(O80:R80)</f>
+        <f t="shared" ref="AP80:AP85" si="127">SUM(O80:R80)</f>
         <v>403</v>
       </c>
     </row>
@@ -8477,7 +8475,7 @@
         <v>-1679</v>
       </c>
       <c r="AP81" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>-2783</v>
       </c>
     </row>
@@ -8540,7 +8538,7 @@
         <v>-245</v>
       </c>
       <c r="AP82" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>-395</v>
       </c>
     </row>
@@ -8602,7 +8600,7 @@
         <v>-10997</v>
       </c>
       <c r="AP83" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>-9533</v>
       </c>
     </row>
@@ -8661,7 +8659,7 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AP84" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>-1250</v>
       </c>
     </row>
@@ -8719,7 +8717,7 @@
         <v>-28</v>
       </c>
       <c r="AP85" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>-74</v>
       </c>
     </row>
@@ -8736,47 +8734,47 @@
         <v>4501</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" ref="K86:U86" si="125">SUM(K80:K85)</f>
+        <f t="shared" ref="K86:U86" si="128">SUM(K80:K85)</f>
         <v>-2446</v>
       </c>
       <c r="L86" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>-3762</v>
       </c>
       <c r="M86" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>-3753</v>
       </c>
       <c r="N86" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>-1656</v>
       </c>
       <c r="O86" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>-380</v>
       </c>
       <c r="P86" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>-5099</v>
       </c>
       <c r="Q86" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>-4524</v>
       </c>
       <c r="R86" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>-3629</v>
       </c>
       <c r="S86" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>-9345</v>
       </c>
       <c r="T86" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>-10320</v>
       </c>
       <c r="U86" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>-12745</v>
       </c>
       <c r="AB86" s="5"/>
@@ -8801,47 +8799,47 @@
         <v>4650</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" ref="K87:U87" si="126">K86+K78+K73</f>
+        <f t="shared" ref="K87:U87" si="129">K86+K78+K73</f>
         <v>1897</v>
       </c>
       <c r="L87" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>-874</v>
       </c>
       <c r="M87" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>-213</v>
       </c>
       <c r="N87" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>589</v>
       </c>
       <c r="O87" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>1690</v>
       </c>
       <c r="P87" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>802</v>
       </c>
       <c r="Q87" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>-362</v>
       </c>
       <c r="R87" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>1796</v>
       </c>
       <c r="S87" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>307</v>
       </c>
       <c r="T87" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>984</v>
       </c>
       <c r="U87" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>536</v>
       </c>
       <c r="AB87" s="5"/>
@@ -8866,47 +8864,47 @@
         <v>49.598893499308438</v>
       </c>
       <c r="K89" s="5">
-        <f t="shared" ref="K89:U89" si="127">(K46/K24)*90</f>
+        <f t="shared" ref="K89:U89" si="130">(K46/K24)*90</f>
         <v>59.051640926640928</v>
       </c>
       <c r="L89" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>71.379773269689736</v>
       </c>
       <c r="M89" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>74.476479514415786</v>
       </c>
       <c r="N89" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>56.921170054536439</v>
       </c>
       <c r="O89" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>51.056729699666299</v>
       </c>
       <c r="P89" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>47.082253646257499</v>
       </c>
       <c r="Q89" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>41.269867549668874</v>
       </c>
       <c r="R89" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>40.650013551359656</v>
       </c>
       <c r="S89" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>42.729611426816156</v>
       </c>
       <c r="T89" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>42.339547270306255</v>
       </c>
       <c r="U89" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>45.389943560800411</v>
       </c>
       <c r="AB89" s="5"/>
@@ -9090,7 +9088,7 @@
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
       <c r="AQ95" s="2">
-        <f t="shared" ref="AQ95:AQ113" si="128">SUM(S95:V95)</f>
+        <f t="shared" ref="AQ95:AQ113" si="131">SUM(S95:V95)</f>
         <v>100</v>
       </c>
     </row>
@@ -9143,7 +9141,7 @@
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
       <c r="AQ96" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>200</v>
       </c>
     </row>
@@ -9196,7 +9194,7 @@
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
       <c r="AQ97" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>200</v>
       </c>
     </row>
@@ -9249,7 +9247,7 @@
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
       <c r="AQ98" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>100</v>
       </c>
     </row>
@@ -9302,7 +9300,7 @@
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
       <c r="AQ99" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>400</v>
       </c>
     </row>
@@ -9355,7 +9353,7 @@
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
       <c r="AQ100" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
     </row>
@@ -9408,7 +9406,7 @@
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
       <c r="AQ101" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>400</v>
       </c>
     </row>
@@ -9461,7 +9459,7 @@
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
       <c r="AQ102" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>100</v>
       </c>
     </row>
@@ -9514,7 +9512,7 @@
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
       <c r="AQ103" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>100</v>
       </c>
     </row>
@@ -9567,7 +9565,7 @@
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
       <c r="AQ104" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>210</v>
       </c>
     </row>
@@ -9620,7 +9618,7 @@
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
       <c r="AQ105" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>90</v>
       </c>
     </row>
@@ -9673,7 +9671,7 @@
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
       <c r="AQ106" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
     </row>
@@ -9726,7 +9724,7 @@
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
       <c r="AQ107" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>95</v>
       </c>
     </row>
@@ -9779,7 +9777,7 @@
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
       <c r="AQ108" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>85</v>
       </c>
     </row>
@@ -9832,7 +9830,7 @@
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
       <c r="AQ109" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
     </row>
@@ -9885,7 +9883,7 @@
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
       <c r="AQ110" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>190</v>
       </c>
     </row>
@@ -9938,7 +9936,7 @@
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
       <c r="AQ111" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>160</v>
       </c>
     </row>
@@ -9991,7 +9989,7 @@
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
       <c r="AQ112" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>35</v>
       </c>
     </row>
@@ -10044,7 +10042,7 @@
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
       <c r="AQ113" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>35</v>
       </c>
     </row>
@@ -10074,23 +10072,23 @@
         <v>360</v>
       </c>
       <c r="R114" s="9">
-        <f t="shared" ref="R114:V114" si="129">SUM(R94:R113)</f>
+        <f t="shared" ref="R114:V114" si="132">SUM(R94:R113)</f>
         <v>460</v>
       </c>
       <c r="S114" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>570</v>
       </c>
       <c r="T114" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>690</v>
       </c>
       <c r="U114" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>735</v>
       </c>
       <c r="V114" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>735</v>
       </c>
       <c r="W114" s="9"/>
@@ -10281,27 +10279,27 @@
         <v>1</v>
       </c>
       <c r="O121" s="2">
-        <f t="shared" ref="O121:T121" si="130">O24</f>
+        <f t="shared" ref="O121:T121" si="133">O24</f>
         <v>7192</v>
       </c>
       <c r="P121" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>13507</v>
       </c>
       <c r="Q121" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>18120</v>
       </c>
       <c r="R121" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>22138</v>
       </c>
       <c r="S121" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>26044</v>
       </c>
       <c r="T121" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>30040</v>
       </c>
       <c r="U121" s="2">
@@ -10338,31 +10336,31 @@
         <v>4284</v>
       </c>
       <c r="P122" s="5">
-        <f t="shared" ref="P122:V122" si="131">P22</f>
+        <f t="shared" ref="P122:V122" si="134">P22</f>
         <v>10323</v>
       </c>
       <c r="Q122" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>14514</v>
       </c>
       <c r="R122" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>18404</v>
       </c>
       <c r="S122" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>22563</v>
       </c>
       <c r="T122" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>26272</v>
       </c>
       <c r="U122" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>30771</v>
       </c>
       <c r="V122" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>36750</v>
       </c>
       <c r="W122" s="5">
@@ -10403,47 +10401,47 @@
         <v>36225.571428571428</v>
       </c>
       <c r="P123" s="8">
-        <f t="shared" ref="P123:Z123" si="132">SUM(P124:P132)</f>
+        <f t="shared" ref="P123:Z123" si="135">SUM(P124:P132)</f>
         <v>39615.238095238092</v>
       </c>
       <c r="Q123" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>41142.238095238092</v>
       </c>
       <c r="R123" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>46004.238095238092</v>
       </c>
       <c r="S123" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>50584.571428571428</v>
       </c>
       <c r="T123" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>62022.571428571428</v>
       </c>
       <c r="U123" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>68837</v>
       </c>
       <c r="V123" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>82314</v>
       </c>
       <c r="W123" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>87480.54</v>
       </c>
       <c r="X123" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>92883.200000000012</v>
       </c>
       <c r="Y123" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>98360.950000000012</v>
       </c>
       <c r="Z123" s="8">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>118629.14000000001</v>
       </c>
     </row>
@@ -10856,35 +10854,35 @@
         <v>0.11825900409734245</v>
       </c>
       <c r="P134" s="7">
-        <f t="shared" ref="P134:W134" si="133">+P122/P123</f>
+        <f t="shared" ref="P134:W134" si="136">+P122/P123</f>
         <v>0.26058154630252911</v>
       </c>
       <c r="Q134" s="7">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>0.35277614130768176</v>
       </c>
       <c r="R134" s="7">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>0.40005009890393123</v>
       </c>
       <c r="S134" s="7">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>0.44604509562486588</v>
       </c>
       <c r="T134" s="7">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>0.42358772612735457</v>
       </c>
       <c r="U134" s="7">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>0.44701250780830076</v>
       </c>
       <c r="V134" s="7">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>0.4464611123259713</v>
       </c>
       <c r="W134" s="7">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
@@ -10897,35 +10895,35 @@
         <v>0.19853379025865708</v>
       </c>
       <c r="P135" s="7">
-        <f t="shared" ref="P135:W135" si="134">+P121/P123</f>
+        <f t="shared" ref="P135:W135" si="137">+P121/P123</f>
         <v>0.34095465910183675</v>
       </c>
       <c r="Q135" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>0.44042329340603509</v>
       </c>
       <c r="R135" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>0.48121653388041891</v>
       </c>
       <c r="S135" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>0.51486054471719211</v>
       </c>
       <c r="T135" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>0.48433980256035825</v>
       </c>
       <c r="U135" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>0.50963871173932629</v>
       </c>
       <c r="V135" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>0.49636027893189494</v>
       </c>
       <c r="W135" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>0.5</v>
       </c>
     </row>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93774277-7FA6-4ABB-982C-CAE5BF4740CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C04E09-C23F-4AD3-9535-A8E058E36ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="6465" yWindow="660" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -1728,10 +1728,10 @@
   <dimension ref="A1:EO135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AQ19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AQ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AR38" sqref="AR38"/>
+      <selection pane="bottomRight" activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1746,8 +1746,10 @@
     <col min="36" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9.28515625" customWidth="1"/>
     <col min="38" max="48" width="10" customWidth="1"/>
-    <col min="49" max="51" width="10.28515625" customWidth="1"/>
-    <col min="52" max="52" width="10.42578125" customWidth="1"/>
+    <col min="49" max="49" width="11.140625" customWidth="1"/>
+    <col min="50" max="50" width="11.42578125" customWidth="1"/>
+    <col min="51" max="51" width="11.140625" customWidth="1"/>
+    <col min="52" max="52" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.2">
@@ -2327,60 +2329,62 @@
       <c r="AY7" s="5"/>
       <c r="AZ7" s="5"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5">
+        <v>40000</v>
+      </c>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C9" s="4"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82137BBA-173F-4C1C-AD0B-98415F816C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891BAF10-7DAE-4F0F-A008-0C4CFFC1239D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7810" yWindow="1130" windowWidth="21870" windowHeight="14480" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="-27765" yWindow="1740" windowWidth="25965" windowHeight="16125" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,11 @@
     <author>tc={4E6E582A-C13D-49BC-B7B1-29F955B3A8F8}</author>
     <author>tc={797E6991-901E-44BC-97CB-E306AC374116}</author>
     <author>tc={5C4B539B-3737-41A2-ACD8-5457F543DF7D}</author>
+    <author>tc={0AFD1808-6C0F-4C3F-9836-027F1D0FF106}</author>
+    <author>tc={48933EFE-5C5F-49EA-A80E-E765DE830619}</author>
+    <author>tc={BDF99649-FFA5-4806-8F0A-EDE5EB314212}</author>
     <author>tc={4E056475-A7E3-43D8-B802-93813DACE25F}</author>
+    <author>tc={472BDDD3-4E0A-4C08-8760-ABFC4732C8A2}</author>
     <author>tc={1DF99399-1918-4E2C-8279-9C2FF687E1E3}</author>
     <author>tc={1446D5A2-75F4-49C0-818F-A506FFEEE2AC}</author>
     <author>tc={1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}</author>
@@ -164,10 +168,34 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Q4 guidance: 43B +- 2%
-42.26B consensus</t>
+42.26B consensus, moved up to 43.34B</t>
       </text>
     </comment>
-    <comment ref="BH24" authorId="12" shapeId="0" xr:uid="{4E056475-A7E3-43D8-B802-93813DACE25F}">
+    <comment ref="AB24" authorId="12" shapeId="0" xr:uid="{0AFD1808-6C0F-4C3F-9836-027F1D0FF106}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    45.92B consensus 5/28/25</t>
+      </text>
+    </comment>
+    <comment ref="AC24" authorId="13" shapeId="0" xr:uid="{48933EFE-5C5F-49EA-A80E-E765DE830619}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    51.75B consensus 5/28/25</t>
+      </text>
+    </comment>
+    <comment ref="AD24" authorId="14" shapeId="0" xr:uid="{BDF99649-FFA5-4806-8F0A-EDE5EB314212}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    57.23B consensus 5/28/25</t>
+      </text>
+    </comment>
+    <comment ref="BH24" authorId="15" shapeId="0" xr:uid="{4E056475-A7E3-43D8-B802-93813DACE25F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +203,15 @@
     196490 consensus</t>
       </text>
     </comment>
-    <comment ref="C144" authorId="13" shapeId="0" xr:uid="{1DF99399-1918-4E2C-8279-9C2FF687E1E3}">
+    <comment ref="BI24" authorId="16" shapeId="0" xr:uid="{472BDDD3-4E0A-4C08-8760-ABFC4732C8A2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    247.91B consensus 5/28/25</t>
+      </text>
+    </comment>
+    <comment ref="C144" authorId="17" shapeId="0" xr:uid="{1DF99399-1918-4E2C-8279-9C2FF687E1E3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +219,7 @@
     133m Other, 249m EU, 422m Other APAC</t>
       </text>
     </comment>
-    <comment ref="D144" authorId="14" shapeId="0" xr:uid="{1446D5A2-75F4-49C0-818F-A506FFEEE2AC}">
+    <comment ref="D144" authorId="18" shapeId="0" xr:uid="{1446D5A2-75F4-49C0-818F-A506FFEEE2AC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +227,7 @@
     129m other, 288m EU, 756m other APAC</t>
       </text>
     </comment>
-    <comment ref="E144" authorId="15" shapeId="0" xr:uid="{1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}">
+    <comment ref="E144" authorId="19" shapeId="0" xr:uid="{1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -199,7 +235,7 @@
     216m EU, 161m other, 805m Other APAC</t>
       </text>
     </comment>
-    <comment ref="G144" authorId="16" shapeId="0" xr:uid="{DD2CD9F0-4D52-41A1-9318-3FB1FCEC2AD9}">
+    <comment ref="G144" authorId="20" shapeId="0" xr:uid="{DD2CD9F0-4D52-41A1-9318-3FB1FCEC2AD9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -207,7 +243,7 @@
     151m Other, 254m EU, 607m Other APAC</t>
       </text>
     </comment>
-    <comment ref="H144" authorId="17" shapeId="0" xr:uid="{FCB5C1B5-F411-4AA0-8552-6396ACF5C382}">
+    <comment ref="H144" authorId="21" shapeId="0" xr:uid="{FCB5C1B5-F411-4AA0-8552-6396ACF5C382}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -215,7 +251,7 @@
     240m EU, 175m Other, 698m Other APAC</t>
       </text>
     </comment>
-    <comment ref="I144" authorId="18" shapeId="0" xr:uid="{63A90EF7-3038-4F3C-97B2-466FDABC5E09}">
+    <comment ref="I144" authorId="22" shapeId="0" xr:uid="{63A90EF7-3038-4F3C-97B2-466FDABC5E09}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -223,7 +259,7 @@
     Europe 247m, Other APAC 955m, Other 225m</t>
       </text>
     </comment>
-    <comment ref="J144" authorId="19" shapeId="0" xr:uid="{C63606EF-04FE-45D8-9244-916E253074AB}">
+    <comment ref="J144" authorId="23" shapeId="0" xr:uid="{C63606EF-04FE-45D8-9244-916E253074AB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -231,7 +267,7 @@
     TTM EU 1118m, Other APAC 3093m, Other 833m</t>
       </text>
     </comment>
-    <comment ref="O144" authorId="20" shapeId="0" xr:uid="{8AC347C9-DB8B-48B0-AA14-D262027A155D}">
+    <comment ref="O144" authorId="24" shapeId="0" xr:uid="{8AC347C9-DB8B-48B0-AA14-D262027A155D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -239,7 +275,7 @@
     454m Singapore</t>
       </text>
     </comment>
-    <comment ref="Q144" authorId="21" shapeId="0" xr:uid="{EE73B09E-2677-450F-B8B1-9A119FB6CC0B}">
+    <comment ref="Q144" authorId="25" shapeId="0" xr:uid="{EE73B09E-2677-450F-B8B1-9A119FB6CC0B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -247,7 +283,7 @@
     536m Singapore</t>
       </text>
     </comment>
-    <comment ref="R144" authorId="22" shapeId="0" xr:uid="{97838103-F970-4B17-BAA4-B0F2ADACFA86}">
+    <comment ref="R144" authorId="26" shapeId="0" xr:uid="{97838103-F970-4B17-BAA4-B0F2ADACFA86}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -255,7 +291,7 @@
     2288m Singapore (Q4+Q2)</t>
       </text>
     </comment>
-    <comment ref="BA144" authorId="23" shapeId="0" xr:uid="{FB8A1EF9-0129-43D9-BD4D-E70349E6A7E0}">
+    <comment ref="BA144" authorId="27" shapeId="0" xr:uid="{FB8A1EF9-0129-43D9-BD4D-E70349E6A7E0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -263,7 +299,7 @@
     2368m Other APAC, 914m EU, 767m Other</t>
       </text>
     </comment>
-    <comment ref="BB144" authorId="24" shapeId="0" xr:uid="{D5B65222-64AF-4587-989D-4D4267FB62AC}">
+    <comment ref="BB144" authorId="28" shapeId="0" xr:uid="{D5B65222-64AF-4587-989D-4D4267FB62AC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1673,10 +1709,22 @@
   </threadedComment>
   <threadedComment ref="AA24" dT="2025-02-26T16:57:38.01" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{5C4B539B-3737-41A2-ACD8-5457F543DF7D}">
     <text>Q4 guidance: 43B +- 2%
-42.26B consensus</text>
+42.26B consensus, moved up to 43.34B</text>
+  </threadedComment>
+  <threadedComment ref="AB24" dT="2025-05-28T13:38:02.17" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{0AFD1808-6C0F-4C3F-9836-027F1D0FF106}">
+    <text>45.92B consensus 5/28/25</text>
+  </threadedComment>
+  <threadedComment ref="AC24" dT="2025-05-28T13:39:37.10" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{48933EFE-5C5F-49EA-A80E-E765DE830619}">
+    <text>51.75B consensus 5/28/25</text>
+  </threadedComment>
+  <threadedComment ref="AD24" dT="2025-05-28T13:40:30.80" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{BDF99649-FFA5-4806-8F0A-EDE5EB314212}">
+    <text>57.23B consensus 5/28/25</text>
   </threadedComment>
   <threadedComment ref="BH24" dT="2025-02-26T16:49:05.11" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{4E056475-A7E3-43D8-B802-93813DACE25F}">
     <text>196490 consensus</text>
+  </threadedComment>
+  <threadedComment ref="BI24" dT="2025-05-28T14:08:43.60" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{472BDDD3-4E0A-4C08-8760-ABFC4732C8A2}">
+    <text>247.91B consensus 5/28/25</text>
   </threadedComment>
   <threadedComment ref="C144" dT="2025-04-26T15:49:13.84" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1DF99399-1918-4E2C-8279-9C2FF687E1E3}">
     <text>133m Other, 249m EU, 422m Other APAC</text>
@@ -1721,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1793,7 @@
         <v>112</v>
       </c>
       <c r="K2" s="15">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1779,7 +1827,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>2742366</v>
+        <v>3335310</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1831,7 +1879,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>2707619</v>
+        <v>3300563</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1842,7 +1890,7 @@
         <v>128</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
@@ -1981,11 +2029,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
   <dimension ref="A1:FE144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BB13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BG24" sqref="BG24"/>
+      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4292,19 +4340,18 @@
       </c>
       <c r="AA24" s="9">
         <f>+AA123</f>
-        <v>43740.27</v>
+        <v>44240.27</v>
       </c>
       <c r="AB24" s="9">
-        <f>+AB123</f>
-        <v>46441.600000000006</v>
+        <v>53000</v>
       </c>
       <c r="AC24" s="9">
         <f>+AC123</f>
-        <v>49180.475000000006</v>
+        <v>49680.475000000006</v>
       </c>
       <c r="AD24" s="9">
         <f>+AD123</f>
-        <v>59314.570000000007</v>
+        <v>59814.570000000007</v>
       </c>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
@@ -4396,31 +4443,31 @@
       </c>
       <c r="BH24" s="8">
         <f>SUM(AA24:AD24)</f>
-        <v>198676.91500000001</v>
+        <v>206735.315</v>
       </c>
       <c r="BI24" s="8">
         <f>+BH24*1.5</f>
-        <v>298015.3725</v>
+        <v>310102.97250000003</v>
       </c>
       <c r="BJ24" s="8">
         <f>+BI24*1.4</f>
-        <v>417221.52149999997</v>
+        <v>434144.16150000005</v>
       </c>
       <c r="BK24" s="8">
         <f>+BJ24*1.4</f>
-        <v>584110.13009999995</v>
+        <v>607801.82610000006</v>
       </c>
       <c r="BL24" s="8">
         <f>+BK24*1.3</f>
-        <v>759343.16912999994</v>
+        <v>790142.37393000012</v>
       </c>
       <c r="BM24" s="8">
         <f>+BL24*1.3</f>
-        <v>987146.11986899993</v>
+        <v>1027185.0861090001</v>
       </c>
       <c r="BN24" s="8">
         <f>+BM24*1.3</f>
-        <v>1283289.9558297</v>
+        <v>1335340.6119417003</v>
       </c>
     </row>
     <row r="25" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4503,19 +4550,19 @@
       </c>
       <c r="AA25" s="2">
         <f t="shared" ref="AA25:AC25" si="6">+AA24-AA26</f>
-        <v>10497.664799999999</v>
+        <v>10617.664799999999</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="6"/>
-        <v>11145.984000000004</v>
+        <v>12720</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="6"/>
-        <v>11803.313999999998</v>
+        <v>11923.313999999998</v>
       </c>
       <c r="AD25" s="2">
         <f>+AD24-AD26</f>
-        <v>14235.496800000001</v>
+        <v>14355.496800000001</v>
       </c>
       <c r="AH25" s="2">
         <v>141.84299999999999</v>
@@ -4600,27 +4647,27 @@
       </c>
       <c r="BH25" s="2">
         <f>+BH24-BH26</f>
-        <v>47682.459600000002</v>
+        <v>49616.475600000005</v>
       </c>
       <c r="BI25" s="2">
         <f t="shared" ref="BI25:BK25" si="7">+BI24-BI26</f>
-        <v>65563.381949999981</v>
+        <v>68222.653950000007</v>
       </c>
       <c r="BJ25" s="2">
         <f t="shared" si="7"/>
-        <v>91788.734729999967</v>
+        <v>95511.715529999987</v>
       </c>
       <c r="BK25" s="2">
         <f t="shared" si="7"/>
-        <v>128504.22862199997</v>
+        <v>133716.40174200002</v>
       </c>
       <c r="BL25" s="2">
         <f t="shared" ref="BL25" si="8">+BL24-BL26</f>
-        <v>167055.49720859993</v>
+        <v>173831.32226459996</v>
       </c>
       <c r="BM25" s="2">
         <f t="shared" ref="BM25" si="9">+BM24-BM26</f>
-        <v>217172.14637117996</v>
+        <v>225980.71894398006</v>
       </c>
     </row>
     <row r="26" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4725,19 +4772,19 @@
       </c>
       <c r="AA26" s="2">
         <f>+AA24*0.76</f>
-        <v>33242.605199999998</v>
+        <v>33622.605199999998</v>
       </c>
       <c r="AB26" s="2">
         <f>+AB24*0.76</f>
-        <v>35295.616000000002</v>
+        <v>40280</v>
       </c>
       <c r="AC26" s="2">
         <f>+AC24*0.76</f>
-        <v>37377.161000000007</v>
+        <v>37757.161000000007</v>
       </c>
       <c r="AD26" s="2">
         <f>+AD24*0.76</f>
-        <v>45079.073200000006</v>
+        <v>45459.073200000006</v>
       </c>
       <c r="AH26" s="2">
         <f t="shared" ref="AH26:AI26" si="13">+AH24-AH25</f>
@@ -4845,27 +4892,27 @@
       </c>
       <c r="BH26" s="2">
         <f>SUM(AA26:AD26)</f>
-        <v>150994.45540000001</v>
+        <v>157118.8394</v>
       </c>
       <c r="BI26" s="2">
         <f>+BI24*0.78</f>
-        <v>232451.99055000002</v>
+        <v>241880.31855000003</v>
       </c>
       <c r="BJ26" s="2">
         <f>+BJ24*0.78</f>
-        <v>325432.78677000001</v>
+        <v>338632.44597000006</v>
       </c>
       <c r="BK26" s="2">
         <f>+BK24*0.78</f>
-        <v>455605.90147799999</v>
+        <v>474085.42435800005</v>
       </c>
       <c r="BL26" s="2">
         <f t="shared" ref="BL26:BM26" si="16">+BL24*0.78</f>
-        <v>592287.6719214</v>
+        <v>616311.05166540015</v>
       </c>
       <c r="BM26" s="2">
         <f t="shared" si="16"/>
-        <v>769973.97349781997</v>
+        <v>801204.36716502008</v>
       </c>
     </row>
     <row r="27" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5390,7 +5437,7 @@
         <v>435.221</v>
       </c>
       <c r="AM29" s="2">
-        <f t="shared" ref="AM29:AS29" si="40">+AM27+AM28</f>
+        <f t="shared" ref="AM29:AR29" si="40">+AM27+AM28</f>
         <v>535.89300000000003</v>
       </c>
       <c r="AN29" s="2">
@@ -5600,19 +5647,19 @@
       </c>
       <c r="AA30" s="5">
         <f t="shared" ref="AA30:AD30" si="54">+AA26-AA29</f>
-        <v>29046.205199999997</v>
+        <v>29426.205199999997</v>
       </c>
       <c r="AB30" s="5">
         <f t="shared" si="54"/>
-        <v>30577.216</v>
+        <v>35561.599999999999</v>
       </c>
       <c r="AC30" s="5">
         <f t="shared" si="54"/>
-        <v>32232.761000000006</v>
+        <v>32612.761000000006</v>
       </c>
       <c r="AD30" s="5">
         <f t="shared" si="54"/>
-        <v>39452.273200000003</v>
+        <v>39832.273200000003</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -5638,7 +5685,7 @@
         <v>93.656999999999925</v>
       </c>
       <c r="AM30" s="2">
-        <f t="shared" ref="AM30:AS30" si="58">+AM26-AM29</f>
+        <f t="shared" ref="AM30:AR30" si="58">+AM26-AM29</f>
         <v>113.59299999999985</v>
       </c>
       <c r="AN30" s="2">
@@ -5723,27 +5770,27 @@
       </c>
       <c r="BH30" s="2">
         <f t="shared" ref="BH30:BK30" si="60">+BH26-BH29</f>
-        <v>131308.45540000001</v>
+        <v>137432.8394</v>
       </c>
       <c r="BI30" s="2">
         <f t="shared" si="60"/>
-        <v>208828.79055000001</v>
+        <v>218257.11855000001</v>
       </c>
       <c r="BJ30" s="2">
         <f t="shared" si="60"/>
-        <v>297084.94676999998</v>
+        <v>310284.60597000003</v>
       </c>
       <c r="BK30" s="2">
         <f t="shared" si="60"/>
-        <v>421588.49347799999</v>
+        <v>440068.01635800005</v>
       </c>
       <c r="BL30" s="2">
         <f t="shared" ref="BL30" si="61">+BL26-BL29</f>
-        <v>551466.78232140001</v>
+        <v>575490.16206540016</v>
       </c>
       <c r="BM30" s="2">
         <f t="shared" ref="BM30" si="62">+BM26-BM29</f>
-        <v>720988.90597781993</v>
+        <v>752219.29964502004</v>
       </c>
     </row>
     <row r="31" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6064,19 +6111,19 @@
       </c>
       <c r="AA32" s="5">
         <f t="shared" si="67"/>
-        <v>30229.205199999997</v>
+        <v>30609.205199999997</v>
       </c>
       <c r="AB32" s="5">
         <f t="shared" si="67"/>
-        <v>31760.216</v>
+        <v>36744.6</v>
       </c>
       <c r="AC32" s="5">
         <f t="shared" si="67"/>
-        <v>33415.761000000006</v>
+        <v>33795.761000000006</v>
       </c>
       <c r="AD32" s="5">
         <f t="shared" si="67"/>
-        <v>40635.273200000003</v>
+        <v>41015.273200000003</v>
       </c>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
@@ -6102,7 +6149,7 @@
         <v>112.21799999999993</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" ref="AM32:AS32" si="71">+AM30+AM31</f>
+        <f t="shared" ref="AM32:AR32" si="71">+AM30+AM31</f>
         <v>125.01499999999984</v>
       </c>
       <c r="AN32" s="2">
@@ -6187,27 +6234,27 @@
       </c>
       <c r="BH32" s="2">
         <f t="shared" ref="BH32:BK32" si="73">+BH30+BH31</f>
-        <v>136040.45540000001</v>
+        <v>142164.8394</v>
       </c>
       <c r="BI32" s="2">
         <f t="shared" si="73"/>
-        <v>214033.99055000002</v>
+        <v>223462.31855000003</v>
       </c>
       <c r="BJ32" s="2">
         <f t="shared" si="73"/>
-        <v>302810.66677000001</v>
+        <v>316010.32597000001</v>
       </c>
       <c r="BK32" s="2">
         <f t="shared" si="73"/>
-        <v>427886.78547800001</v>
+        <v>446366.30835800007</v>
       </c>
       <c r="BL32" s="2">
         <f t="shared" ref="BL32" si="74">+BL30+BL31</f>
-        <v>558394.90352140006</v>
+        <v>582418.28326540021</v>
       </c>
       <c r="BM32" s="2">
         <f t="shared" ref="BM32" si="75">+BM30+BM31</f>
-        <v>728609.83929781988</v>
+        <v>759840.23296502</v>
       </c>
     </row>
     <row r="33" spans="2:161" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6290,19 +6337,19 @@
       </c>
       <c r="AA33" s="2">
         <f>+AA32*0.15</f>
-        <v>4534.3807799999995</v>
+        <v>4591.3807799999995</v>
       </c>
       <c r="AB33" s="2">
         <f>+AB32*0.15</f>
-        <v>4764.0324000000001</v>
+        <v>5511.69</v>
       </c>
       <c r="AC33" s="2">
         <f>+AC32*0.15</f>
-        <v>5012.3641500000003</v>
+        <v>5069.3641500000003</v>
       </c>
       <c r="AD33" s="2">
         <f>+AD32*0.15</f>
-        <v>6095.2909800000007</v>
+        <v>6152.2909800000007</v>
       </c>
       <c r="AH33" s="2">
         <v>59.758000000000003</v>
@@ -6387,27 +6434,27 @@
       </c>
       <c r="BH33" s="2">
         <f>SUM(AA33:AD33)</f>
-        <v>20406.068310000002</v>
+        <v>21324.725910000001</v>
       </c>
       <c r="BI33" s="2">
         <f t="shared" ref="BI33:BK33" si="77">+BI32*0.2</f>
-        <v>42806.798110000003</v>
+        <v>44692.463710000011</v>
       </c>
       <c r="BJ33" s="2">
         <f t="shared" si="77"/>
-        <v>60562.133354000005</v>
+        <v>63202.065194000003</v>
       </c>
       <c r="BK33" s="2">
         <f t="shared" si="77"/>
-        <v>85577.357095600004</v>
+        <v>89273.261671600019</v>
       </c>
       <c r="BL33" s="2">
         <f t="shared" ref="BL33" si="78">+BL32*0.2</f>
-        <v>111678.98070428002</v>
+        <v>116483.65665308005</v>
       </c>
       <c r="BM33" s="2">
         <f t="shared" ref="BM33" si="79">+BM32*0.2</f>
-        <v>145721.96785956397</v>
+        <v>151968.04659300399</v>
       </c>
     </row>
     <row r="34" spans="2:161" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6512,19 +6559,19 @@
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="83"/>
-        <v>25694.824419999997</v>
+        <v>26017.824419999997</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="83"/>
-        <v>26996.1836</v>
+        <v>31232.91</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="83"/>
-        <v>28403.396850000005</v>
+        <v>28726.396850000005</v>
       </c>
       <c r="AD34" s="2">
         <f t="shared" si="83"/>
-        <v>34539.982220000005</v>
+        <v>34862.982220000005</v>
       </c>
       <c r="AH34" s="2">
         <f t="shared" ref="AH34" si="84">+AH32-AH33</f>
@@ -6547,7 +6594,7 @@
         <v>99.963999999999928</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" ref="AM34:AS34" si="87">+AM32-AM33</f>
+        <f t="shared" ref="AM34:AR34" si="87">+AM32-AM33</f>
         <v>99.925999999999846</v>
       </c>
       <c r="AN34" s="2">
@@ -6632,411 +6679,411 @@
       </c>
       <c r="BH34" s="2">
         <f t="shared" ref="BH34:BK34" si="89">+BH32-BH33</f>
-        <v>115634.38709</v>
+        <v>120840.11348999999</v>
       </c>
       <c r="BI34" s="2">
         <f t="shared" si="89"/>
-        <v>171227.19244000001</v>
+        <v>178769.85484000001</v>
       </c>
       <c r="BJ34" s="2">
         <f t="shared" si="89"/>
-        <v>242248.53341600002</v>
+        <v>252808.26077600001</v>
       </c>
       <c r="BK34" s="2">
         <f t="shared" si="89"/>
-        <v>342309.42838240002</v>
+        <v>357093.04668640008</v>
       </c>
       <c r="BL34" s="2">
         <f t="shared" ref="BL34" si="90">+BL32-BL33</f>
-        <v>446715.92281712004</v>
+        <v>465934.62661232019</v>
       </c>
       <c r="BM34" s="2">
         <f t="shared" ref="BM34" si="91">+BM32-BM33</f>
-        <v>582887.87143825588</v>
+        <v>607872.18637201597</v>
       </c>
       <c r="BN34" s="2">
         <f t="shared" ref="BN34:CS34" si="92">BM34*(1+$BP$41)</f>
-        <v>588716.75015263841</v>
+        <v>613950.90823573619</v>
       </c>
       <c r="BO34" s="2">
         <f t="shared" si="92"/>
-        <v>594603.91765416483</v>
+        <v>620090.41731809359</v>
       </c>
       <c r="BP34" s="2">
         <f t="shared" si="92"/>
-        <v>600549.95683070645</v>
+        <v>626291.32149127452</v>
       </c>
       <c r="BQ34" s="2">
         <f t="shared" si="92"/>
-        <v>606555.45639901352</v>
+        <v>632554.23470618727</v>
       </c>
       <c r="BR34" s="2">
         <f t="shared" si="92"/>
-        <v>612621.01096300362</v>
+        <v>638879.77705324918</v>
       </c>
       <c r="BS34" s="2">
         <f t="shared" si="92"/>
-        <v>618747.22107263363</v>
+        <v>645268.57482378173</v>
       </c>
       <c r="BT34" s="2">
         <f t="shared" si="92"/>
-        <v>624934.69328335999</v>
+        <v>651721.2605720195</v>
       </c>
       <c r="BU34" s="2">
         <f t="shared" si="92"/>
-        <v>631184.04021619353</v>
+        <v>658238.47317773965</v>
       </c>
       <c r="BV34" s="2">
         <f t="shared" si="92"/>
-        <v>637495.88061835547</v>
+        <v>664820.85790951701</v>
       </c>
       <c r="BW34" s="2">
         <f t="shared" si="92"/>
-        <v>643870.83942453901</v>
+        <v>671469.06648861221</v>
       </c>
       <c r="BX34" s="2">
         <f t="shared" si="92"/>
-        <v>650309.54781878437</v>
+        <v>678183.75715349836</v>
       </c>
       <c r="BY34" s="2">
         <f t="shared" si="92"/>
-        <v>656812.64329697227</v>
+        <v>684965.59472503338</v>
       </c>
       <c r="BZ34" s="2">
         <f t="shared" si="92"/>
-        <v>663380.76972994197</v>
+        <v>691815.2506722837</v>
       </c>
       <c r="CA34" s="2">
         <f t="shared" si="92"/>
-        <v>670014.57742724137</v>
+        <v>698733.40317900653</v>
       </c>
       <c r="CB34" s="2">
         <f t="shared" si="92"/>
-        <v>676714.72320151376</v>
+        <v>705720.73721079656</v>
       </c>
       <c r="CC34" s="2">
         <f t="shared" si="92"/>
-        <v>683481.87043352891</v>
+        <v>712777.94458290457</v>
       </c>
       <c r="CD34" s="2">
         <f t="shared" si="92"/>
-        <v>690316.68913786416</v>
+        <v>719905.72402873368</v>
       </c>
       <c r="CE34" s="2">
         <f t="shared" si="92"/>
-        <v>697219.85602924286</v>
+        <v>727104.78126902098</v>
       </c>
       <c r="CF34" s="2">
         <f t="shared" si="92"/>
-        <v>704192.05458953534</v>
+        <v>734375.82908171124</v>
       </c>
       <c r="CG34" s="2">
         <f t="shared" si="92"/>
-        <v>711233.97513543069</v>
+        <v>741719.58737252839</v>
       </c>
       <c r="CH34" s="2">
         <f t="shared" si="92"/>
-        <v>718346.314886785</v>
+        <v>749136.78324625373</v>
       </c>
       <c r="CI34" s="2">
         <f t="shared" si="92"/>
-        <v>725529.77803565282</v>
+        <v>756628.15107871627</v>
       </c>
       <c r="CJ34" s="2">
         <f t="shared" si="92"/>
-        <v>732785.07581600931</v>
+        <v>764194.43258950347</v>
       </c>
       <c r="CK34" s="2">
         <f t="shared" si="92"/>
-        <v>740112.92657416943</v>
+        <v>771836.37691539852</v>
       </c>
       <c r="CL34" s="2">
         <f t="shared" si="92"/>
-        <v>747514.0558399111</v>
+        <v>779554.74068455247</v>
       </c>
       <c r="CM34" s="2">
         <f t="shared" si="92"/>
-        <v>754989.19639831025</v>
+        <v>787350.28809139796</v>
       </c>
       <c r="CN34" s="2">
         <f t="shared" si="92"/>
-        <v>762539.08836229332</v>
+        <v>795223.79097231198</v>
       </c>
       <c r="CO34" s="2">
         <f t="shared" si="92"/>
-        <v>770164.47924591624</v>
+        <v>803176.02888203505</v>
       </c>
       <c r="CP34" s="2">
         <f t="shared" si="92"/>
-        <v>777866.12403837545</v>
+        <v>811207.78917085542</v>
       </c>
       <c r="CQ34" s="2">
         <f t="shared" si="92"/>
-        <v>785644.7852787592</v>
+        <v>819319.86706256401</v>
       </c>
       <c r="CR34" s="2">
         <f t="shared" si="92"/>
-        <v>793501.23313154676</v>
+        <v>827513.06573318969</v>
       </c>
       <c r="CS34" s="2">
         <f t="shared" si="92"/>
-        <v>801436.24546286219</v>
+        <v>835788.1963905216</v>
       </c>
       <c r="CT34" s="2">
         <f t="shared" ref="CT34:DY34" si="93">CS34*(1+$BP$41)</f>
-        <v>809450.60791749076</v>
+        <v>844146.07835442678</v>
       </c>
       <c r="CU34" s="2">
         <f t="shared" si="93"/>
-        <v>817545.11399666569</v>
+        <v>852587.53913797101</v>
       </c>
       <c r="CV34" s="2">
         <f t="shared" si="93"/>
-        <v>825720.5651366323</v>
+        <v>861113.4145293507</v>
       </c>
       <c r="CW34" s="2">
         <f t="shared" si="93"/>
-        <v>833977.77078799868</v>
+        <v>869724.5486746442</v>
       </c>
       <c r="CX34" s="2">
         <f t="shared" si="93"/>
-        <v>842317.5484958787</v>
+        <v>878421.79416139063</v>
       </c>
       <c r="CY34" s="2">
         <f t="shared" si="93"/>
-        <v>850740.7239808375</v>
+        <v>887206.0121030045</v>
       </c>
       <c r="CZ34" s="2">
         <f t="shared" si="93"/>
-        <v>859248.13122064585</v>
+        <v>896078.07222403458</v>
       </c>
       <c r="DA34" s="2">
         <f t="shared" si="93"/>
-        <v>867840.61253285233</v>
+        <v>905038.85294627491</v>
       </c>
       <c r="DB34" s="2">
         <f t="shared" si="93"/>
-        <v>876519.01865818084</v>
+        <v>914089.24147573765</v>
       </c>
       <c r="DC34" s="2">
         <f t="shared" si="93"/>
-        <v>885284.20884476264</v>
+        <v>923230.13389049505</v>
       </c>
       <c r="DD34" s="2">
         <f t="shared" si="93"/>
-        <v>894137.0509332103</v>
+        <v>932462.43522940006</v>
       </c>
       <c r="DE34" s="2">
         <f t="shared" si="93"/>
-        <v>903078.42144254246</v>
+        <v>941787.05958169408</v>
       </c>
       <c r="DF34" s="2">
         <f t="shared" si="93"/>
-        <v>912109.20565696794</v>
+        <v>951204.93017751107</v>
       </c>
       <c r="DG34" s="2">
         <f t="shared" si="93"/>
-        <v>921230.29771353758</v>
+        <v>960716.97947928624</v>
       </c>
       <c r="DH34" s="2">
         <f t="shared" si="93"/>
-        <v>930442.60069067299</v>
+        <v>970324.14927407913</v>
       </c>
       <c r="DI34" s="2">
         <f t="shared" si="93"/>
-        <v>939747.02669757977</v>
+        <v>980027.39076681994</v>
       </c>
       <c r="DJ34" s="2">
         <f t="shared" si="93"/>
-        <v>949144.49696455558</v>
+        <v>989827.66467448813</v>
       </c>
       <c r="DK34" s="2">
         <f t="shared" si="93"/>
-        <v>958635.94193420117</v>
+        <v>999725.94132123305</v>
       </c>
       <c r="DL34" s="2">
         <f t="shared" si="93"/>
-        <v>968222.30135354318</v>
+        <v>1009723.2007344454</v>
       </c>
       <c r="DM34" s="2">
         <f t="shared" si="93"/>
-        <v>977904.52436707867</v>
+        <v>1019820.4327417898</v>
       </c>
       <c r="DN34" s="2">
         <f t="shared" si="93"/>
-        <v>987683.56961074949</v>
+        <v>1030018.6370692077</v>
       </c>
       <c r="DO34" s="2">
         <f t="shared" si="93"/>
-        <v>997560.40530685696</v>
+        <v>1040318.8234398998</v>
       </c>
       <c r="DP34" s="2">
         <f t="shared" si="93"/>
-        <v>1007536.0093599255</v>
+        <v>1050722.0116742989</v>
       </c>
       <c r="DQ34" s="2">
         <f t="shared" si="93"/>
-        <v>1017611.3694535248</v>
+        <v>1061229.2317910418</v>
       </c>
       <c r="DR34" s="2">
         <f t="shared" si="93"/>
-        <v>1027787.48314806</v>
+        <v>1071841.5241089521</v>
       </c>
       <c r="DS34" s="2">
         <f t="shared" si="93"/>
-        <v>1038065.3579795406</v>
+        <v>1082559.9393500416</v>
       </c>
       <c r="DT34" s="2">
         <f t="shared" si="93"/>
-        <v>1048446.011559336</v>
+        <v>1093385.538743542</v>
       </c>
       <c r="DU34" s="2">
         <f t="shared" si="93"/>
-        <v>1058930.4716749294</v>
+        <v>1104319.3941309776</v>
       </c>
       <c r="DV34" s="2">
         <f t="shared" si="93"/>
-        <v>1069519.7763916787</v>
+        <v>1115362.5880722874</v>
       </c>
       <c r="DW34" s="2">
         <f t="shared" si="93"/>
-        <v>1080214.9741555955</v>
+        <v>1126516.2139530103</v>
       </c>
       <c r="DX34" s="2">
         <f t="shared" si="93"/>
-        <v>1091017.1238971516</v>
+        <v>1137781.3760925403</v>
       </c>
       <c r="DY34" s="2">
         <f t="shared" si="93"/>
-        <v>1101927.2951361232</v>
+        <v>1149159.1898534657</v>
       </c>
       <c r="DZ34" s="2">
         <f t="shared" ref="DZ34:FE34" si="94">DY34*(1+$BP$41)</f>
-        <v>1112946.5680874845</v>
+        <v>1160650.7817520003</v>
       </c>
       <c r="EA34" s="2">
         <f t="shared" si="94"/>
-        <v>1124076.0337683593</v>
+        <v>1172257.2895695204</v>
       </c>
       <c r="EB34" s="2">
         <f t="shared" si="94"/>
-        <v>1135316.7941060429</v>
+        <v>1183979.8624652156</v>
       </c>
       <c r="EC34" s="2">
         <f t="shared" si="94"/>
-        <v>1146669.9620471033</v>
+        <v>1195819.6610898678</v>
       </c>
       <c r="ED34" s="2">
         <f t="shared" si="94"/>
-        <v>1158136.6616675744</v>
+        <v>1207777.8577007665</v>
       </c>
       <c r="EE34" s="2">
         <f t="shared" si="94"/>
-        <v>1169718.0282842503</v>
+        <v>1219855.6362777741</v>
       </c>
       <c r="EF34" s="2">
         <f t="shared" si="94"/>
-        <v>1181415.2085670929</v>
+        <v>1232054.1926405518</v>
       </c>
       <c r="EG34" s="2">
         <f t="shared" si="94"/>
-        <v>1193229.3606527639</v>
+        <v>1244374.7345669575</v>
       </c>
       <c r="EH34" s="2">
         <f t="shared" si="94"/>
-        <v>1205161.6542592915</v>
+        <v>1256818.4819126271</v>
       </c>
       <c r="EI34" s="2">
         <f t="shared" si="94"/>
-        <v>1217213.2708018844</v>
+        <v>1269386.6667317534</v>
       </c>
       <c r="EJ34" s="2">
         <f t="shared" si="94"/>
-        <v>1229385.4035099032</v>
+        <v>1282080.5333990708</v>
       </c>
       <c r="EK34" s="2">
         <f t="shared" si="94"/>
-        <v>1241679.2575450023</v>
+        <v>1294901.3387330614</v>
       </c>
       <c r="EL34" s="2">
         <f t="shared" si="94"/>
-        <v>1254096.0501204524</v>
+        <v>1307850.352120392</v>
       </c>
       <c r="EM34" s="2">
         <f t="shared" si="94"/>
-        <v>1266637.0106216569</v>
+        <v>1320928.855641596</v>
       </c>
       <c r="EN34" s="2">
         <f t="shared" si="94"/>
-        <v>1279303.3807278734</v>
+        <v>1334138.1441980121</v>
       </c>
       <c r="EO34" s="2">
         <f t="shared" si="94"/>
-        <v>1292096.4145351523</v>
+        <v>1347479.5256399922</v>
       </c>
       <c r="EP34" s="2">
         <f t="shared" si="94"/>
-        <v>1305017.3786805037</v>
+        <v>1360954.3208963922</v>
       </c>
       <c r="EQ34" s="2">
         <f t="shared" si="94"/>
-        <v>1318067.5524673087</v>
+        <v>1374563.8641053562</v>
       </c>
       <c r="ER34" s="2">
         <f t="shared" si="94"/>
-        <v>1331248.2279919819</v>
+        <v>1388309.5027464097</v>
       </c>
       <c r="ES34" s="2">
         <f t="shared" si="94"/>
-        <v>1344560.7102719017</v>
+        <v>1402192.5977738739</v>
       </c>
       <c r="ET34" s="2">
         <f t="shared" si="94"/>
-        <v>1358006.3173746208</v>
+        <v>1416214.5237516128</v>
       </c>
       <c r="EU34" s="2">
         <f t="shared" si="94"/>
-        <v>1371586.380548367</v>
+        <v>1430376.6689891289</v>
       </c>
       <c r="EV34" s="2">
         <f t="shared" si="94"/>
-        <v>1385302.2443538508</v>
+        <v>1444680.4356790201</v>
       </c>
       <c r="EW34" s="2">
         <f t="shared" si="94"/>
-        <v>1399155.2667973894</v>
+        <v>1459127.2400358103</v>
       </c>
       <c r="EX34" s="2">
         <f t="shared" si="94"/>
-        <v>1413146.8194653632</v>
+        <v>1473718.5124361685</v>
       </c>
       <c r="EY34" s="2">
         <f t="shared" si="94"/>
-        <v>1427278.2876600169</v>
+        <v>1488455.6975605302</v>
       </c>
       <c r="EZ34" s="2">
         <f t="shared" si="94"/>
-        <v>1441551.0705366172</v>
+        <v>1503340.2545361354</v>
       </c>
       <c r="FA34" s="2">
         <f t="shared" si="94"/>
-        <v>1455966.5812419835</v>
+        <v>1518373.6570814967</v>
       </c>
       <c r="FB34" s="2">
         <f t="shared" si="94"/>
-        <v>1470526.2470544034</v>
+        <v>1533557.3936523118</v>
       </c>
       <c r="FC34" s="2">
         <f t="shared" si="94"/>
-        <v>1485231.5095249475</v>
+        <v>1548892.9675888349</v>
       </c>
       <c r="FD34" s="2">
         <f t="shared" si="94"/>
-        <v>1500083.8246201971</v>
+        <v>1564381.8972647232</v>
       </c>
       <c r="FE34" s="2">
         <f t="shared" si="94"/>
-        <v>1515084.6628663992</v>
+        <v>1580025.7162373704</v>
       </c>
     </row>
     <row r="35" spans="2:161" x14ac:dyDescent="0.25">
@@ -7141,19 +7188,19 @@
       </c>
       <c r="AA35" s="6">
         <f t="shared" si="98"/>
-        <v>1.0400236549825952</v>
+        <v>1.0530974022504653</v>
       </c>
       <c r="AB35" s="6">
         <f t="shared" si="98"/>
-        <v>1.0926974662025419</v>
+        <v>1.2641831943657411</v>
       </c>
       <c r="AC35" s="6">
         <f t="shared" si="98"/>
-        <v>1.149655826519874</v>
+        <v>1.1627295737877441</v>
       </c>
       <c r="AD35" s="6">
         <f t="shared" si="98"/>
-        <v>1.3980402420464666</v>
+        <v>1.4111139893143367</v>
       </c>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
@@ -7179,7 +7226,7 @@
         <v>0.57880688101814015</v>
       </c>
       <c r="AM35" s="15">
-        <f t="shared" ref="AM35:AS35" si="102">+AM34/AM36</f>
+        <f t="shared" ref="AM35:AR35" si="102">+AM34/AM36</f>
         <v>0.56596699101711534</v>
       </c>
       <c r="AN35" s="15">
@@ -7264,27 +7311,27 @@
       </c>
       <c r="BH35" s="15">
         <f t="shared" si="109"/>
-        <v>4.6804171897514779</v>
+        <v>4.8911241597182862</v>
       </c>
       <c r="BI35" s="15">
         <f t="shared" si="109"/>
-        <v>6.9305914530883195</v>
+        <v>7.2358882392940993</v>
       </c>
       <c r="BJ35" s="15">
         <f t="shared" si="109"/>
-        <v>9.8052510894519553</v>
+        <v>10.232666590140047</v>
       </c>
       <c r="BK35" s="15">
         <f t="shared" si="109"/>
-        <v>13.855315647308347</v>
+        <v>14.453697348271678</v>
       </c>
       <c r="BL35" s="15">
         <f t="shared" ref="BL35:BM35" si="110">+BL34/BL36</f>
-        <v>18.08127267939448</v>
+        <v>18.859168890646814</v>
       </c>
       <c r="BM35" s="15">
         <f t="shared" si="110"/>
-        <v>23.592968163128628</v>
+        <v>24.604233237756656</v>
       </c>
       <c r="BN35" s="15"/>
     </row>
@@ -7496,227 +7543,231 @@
       </c>
       <c r="BN36" s="2"/>
     </row>
-    <row r="38" spans="2:161" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:161" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="10">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="17">
         <f t="shared" ref="G38" si="112">+G24/C24-1</f>
         <v>0.38738738738738743</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="17">
         <f t="shared" ref="H38" si="113">+H24/D24-1</f>
         <v>0.49903063202791786</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="17">
         <f t="shared" ref="I38" si="114">+I24/E24-1</f>
         <v>0.56801592568015935</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="17">
         <f t="shared" ref="J38" si="115">+J24/F24-1</f>
         <v>0.61127214170692423</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="17">
         <f t="shared" ref="K38:M38" si="116">+K24/G24-1</f>
         <v>0.83798701298701306</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="17">
         <f t="shared" si="116"/>
         <v>0.68313502327987585</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M38" s="17">
         <f t="shared" si="116"/>
         <v>0.50296233601354201</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="17">
         <f t="shared" ref="N38:V38" si="117">+N24/J24-1</f>
         <v>0.52768338996602049</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="17">
         <f t="shared" si="117"/>
         <v>0.46405228758169925</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="17">
         <f t="shared" si="117"/>
         <v>3.0275088366374714E-2</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="17">
         <f t="shared" si="117"/>
         <v>-0.16500070392791777</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R38" s="17">
         <f t="shared" si="117"/>
         <v>-0.20829517205285886</v>
       </c>
-      <c r="S38" s="10">
+      <c r="S38" s="17">
         <f t="shared" si="117"/>
         <v>-0.13223938223938225</v>
       </c>
-      <c r="T38" s="10">
+      <c r="T38" s="17">
         <f t="shared" si="117"/>
         <v>1.0147673031026252</v>
       </c>
-      <c r="U38" s="10">
+      <c r="U38" s="17">
         <f t="shared" si="117"/>
         <v>2.0551340414769852</v>
       </c>
-      <c r="V38" s="10">
+      <c r="V38" s="17">
         <f t="shared" si="117"/>
         <v>2.6527846636919516</v>
       </c>
-      <c r="W38" s="10">
+      <c r="W38" s="17">
         <f>+W24/S24-1</f>
         <v>2.6212458286985538</v>
       </c>
-      <c r="X38" s="10">
+      <c r="X38" s="17">
         <f t="shared" ref="X38" si="118">+X24/T24-1</f>
         <v>1.2240319834160065</v>
       </c>
-      <c r="Y38" s="10">
+      <c r="Y38" s="17">
         <f t="shared" ref="Y38" si="119">+Y24/U24-1</f>
         <v>0.93609271523178816</v>
       </c>
-      <c r="Z38" s="10">
+      <c r="Z38" s="17">
         <f t="shared" ref="Z38:AA38" si="120">+Z24/V24-1</f>
         <v>0.77944170474596208</v>
       </c>
-      <c r="AA38" s="10">
+      <c r="AA38" s="17">
         <f t="shared" si="120"/>
-        <v>0.67947588696052819</v>
-      </c>
-      <c r="AB38" s="10">
+        <v>0.69867416679465499</v>
+      </c>
+      <c r="AB38" s="17">
         <f t="shared" ref="AB38" si="121">+AB24/X24-1</f>
-        <v>0.54599201065246361</v>
-      </c>
-      <c r="AC38" s="10">
+        <v>0.76431424766977374</v>
+      </c>
+      <c r="AC38" s="17">
         <f t="shared" ref="AC38" si="122">+AC24/Y24-1</f>
-        <v>0.40187204264295096</v>
-      </c>
-      <c r="AD38" s="10">
+        <v>0.41612436577162093</v>
+      </c>
+      <c r="AD38" s="17">
         <f t="shared" ref="AD38" si="123">+AD24/Z24-1</f>
-        <v>0.50808700516132332</v>
-      </c>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="10"/>
-      <c r="AL38" s="10">
+        <v>0.52079962370649113</v>
+      </c>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17">
         <f t="shared" ref="AL38:AN38" si="124">+AL24/AK24-1</f>
         <v>-4.5302121504288917E-2</v>
       </c>
-      <c r="AM38" s="10">
+      <c r="AM38" s="17">
         <f t="shared" si="124"/>
         <v>0.10262953627235039</v>
       </c>
-      <c r="AN38" s="10">
+      <c r="AN38" s="17">
         <f t="shared" si="124"/>
         <v>0.18191442628056365</v>
       </c>
-      <c r="AO38" s="10">
+      <c r="AO38" s="17">
         <f t="shared" ref="AO38" si="125">+AO24/AN24-1</f>
         <v>0.29174045234073365</v>
       </c>
-      <c r="AP38" s="10">
+      <c r="AP38" s="17">
         <f t="shared" ref="AP38" si="126">+AP24/AO24-1</f>
         <v>0.33534238951032824</v>
       </c>
-      <c r="AQ38" s="10">
+      <c r="AQ38" s="17">
         <f t="shared" ref="AQ38" si="127">+AQ24/AP24-1</f>
         <v>-0.16423230661857646</v>
       </c>
-      <c r="AR38" s="10">
+      <c r="AR38" s="17">
         <f t="shared" ref="AR38" si="128">+AR24/AQ24-1</f>
         <v>-2.8735197565797566E-2</v>
       </c>
-      <c r="AS38" s="10">
+      <c r="AS38" s="17">
         <f t="shared" ref="AS38" si="129">+AS24/AR24-1</f>
         <v>6.5193923242380381E-2</v>
       </c>
-      <c r="AT38" s="10">
+      <c r="AT38" s="17">
         <f t="shared" ref="AT38:BM38" si="130">+AT24/AS24-1</f>
         <v>0.12830407960468571</v>
       </c>
-      <c r="AU38" s="10">
+      <c r="AU38" s="17">
         <f t="shared" si="130"/>
         <v>7.0593782282331041E-2</v>
       </c>
-      <c r="AV38" s="10">
+      <c r="AV38" s="17">
         <f t="shared" si="130"/>
         <v>-3.5082575203397748E-2</v>
       </c>
-      <c r="AW38" s="10">
+      <c r="AW38" s="17">
         <f t="shared" si="130"/>
         <v>0.13365617433414045</v>
       </c>
-      <c r="AX38" s="10">
+      <c r="AX38" s="17">
         <f t="shared" si="130"/>
         <v>7.0055531824006811E-2</v>
       </c>
-      <c r="AY38" s="10">
+      <c r="AY38" s="17">
         <f t="shared" si="130"/>
         <v>0.37924151696606789</v>
       </c>
-      <c r="AZ38" s="10">
+      <c r="AZ38" s="17">
         <f t="shared" si="130"/>
         <v>0.40578871201157751</v>
       </c>
-      <c r="BA38" s="10">
+      <c r="BA38" s="17">
         <f t="shared" si="130"/>
         <v>0.20609429689108505</v>
       </c>
-      <c r="BB38" s="10">
+      <c r="BB38" s="17">
         <f t="shared" si="130"/>
         <v>-6.8111983612154314E-2</v>
       </c>
-      <c r="BC38" s="10">
+      <c r="BC38" s="17">
         <f t="shared" si="130"/>
         <v>0.52729437625938824</v>
       </c>
-      <c r="BD38" s="10">
+      <c r="BD38" s="17">
         <f t="shared" si="130"/>
         <v>0.61397301349325328</v>
       </c>
-      <c r="BE38" s="10">
+      <c r="BE38" s="17">
         <f t="shared" si="130"/>
         <v>2.378032920893336E-3</v>
       </c>
-      <c r="BF38" s="10">
+      <c r="BF38" s="17">
         <f t="shared" si="130"/>
         <v>1.2582941023835117</v>
       </c>
-      <c r="BG38" s="10">
+      <c r="BG38" s="17">
         <f t="shared" si="130"/>
         <v>1.1420340763599355</v>
       </c>
-      <c r="BH38" s="10">
+      <c r="BH38" s="17">
         <f>+BH24/BG24-1</f>
-        <v>0.52246346659310183</v>
-      </c>
-      <c r="BI38" s="10">
+        <v>0.5842150777412507</v>
+      </c>
+      <c r="BI38" s="17">
         <f t="shared" si="130"/>
-        <v>0.5</v>
-      </c>
-      <c r="BJ38" s="10">
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="BJ38" s="17">
         <f t="shared" si="130"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BK38" s="10">
+      <c r="BK38" s="17">
         <f t="shared" si="130"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BL38" s="10">
+      <c r="BL38" s="17">
         <f t="shared" si="130"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="BM38" s="10">
+      <c r="BM38" s="17">
         <f t="shared" si="130"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="BN38" s="10"/>
-      <c r="BO38" s="10"/>
+      <c r="BN38" s="17"/>
+      <c r="BO38" s="17"/>
     </row>
     <row r="39" spans="2:161" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
@@ -7816,19 +7867,19 @@
       </c>
       <c r="AA39" s="10">
         <f t="shared" ref="AA39" si="141">+AA24/Z24-1</f>
-        <v>0.11210673514530511</v>
+        <v>0.12481935369047314</v>
       </c>
       <c r="AB39" s="10">
         <f t="shared" ref="AB39" si="142">+AB24/AA24-1</f>
-        <v>6.1758420787068946E-2</v>
+        <v>0.19800353840516816</v>
       </c>
       <c r="AC39" s="10">
         <f t="shared" ref="AC39" si="143">+AC24/AB24-1</f>
-        <v>5.8974604664783215E-2</v>
+        <v>-6.2632547169811259E-2</v>
       </c>
       <c r="AD39" s="10">
         <f t="shared" ref="AD39" si="144">+AD24/AC24-1</f>
-        <v>0.20605931520588205</v>
+        <v>0.20398546914054272</v>
       </c>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
@@ -8083,7 +8134,7 @@
       </c>
       <c r="AB41" s="7">
         <f t="shared" si="164"/>
-        <v>0.7599999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="AC41" s="7">
         <f t="shared" si="164"/>
@@ -8109,7 +8160,7 @@
         <v>0.6208477580029077</v>
       </c>
       <c r="AK41" s="7">
-        <f t="shared" ref="AK41:AS41" si="167">AK26/AK24</f>
+        <f t="shared" ref="AK41:AR41" si="167">AK26/AK24</f>
         <v>0.30489246362952205</v>
       </c>
       <c r="AL41" s="7">
@@ -8378,7 +8429,7 @@
       </c>
       <c r="BP43" s="2">
         <f>NPV(BP42,BH34:FE34)+Main!K5-Main!K6</f>
-        <v>5737399.9421866667</v>
+        <v>5982493.6406702055</v>
       </c>
     </row>
     <row r="44" spans="2:161" x14ac:dyDescent="0.25">
@@ -8513,7 +8564,7 @@
       </c>
       <c r="BP44" s="15">
         <f>BP43/Main!K3</f>
-        <v>232.22698705523624</v>
+        <v>242.14739903951289</v>
       </c>
     </row>
     <row r="45" spans="2:161" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -14650,19 +14701,19 @@
       </c>
       <c r="AA123" s="2">
         <f>+AA125*0.5</f>
-        <v>43740.27</v>
+        <v>44240.27</v>
       </c>
       <c r="AB123" s="2">
         <f>+AB125*0.5</f>
-        <v>46441.600000000006</v>
+        <v>46941.600000000006</v>
       </c>
       <c r="AC123" s="2">
         <f>+AC125*0.5</f>
-        <v>49180.475000000006</v>
+        <v>49680.475000000006</v>
       </c>
       <c r="AD123" s="2">
         <f>+AD125*0.5</f>
-        <v>59314.570000000007</v>
+        <v>59814.570000000007</v>
       </c>
     </row>
     <row r="124" spans="2:59" x14ac:dyDescent="0.25">
@@ -14703,19 +14754,19 @@
       </c>
       <c r="AA124" s="5">
         <f>+AA125*0.45</f>
-        <v>39366.242999999995</v>
+        <v>39816.242999999995</v>
       </c>
       <c r="AB124" s="5">
         <f>+AB125*0.45</f>
-        <v>41797.44000000001</v>
+        <v>42247.44000000001</v>
       </c>
       <c r="AC124" s="5">
         <f>+AC125*0.45</f>
-        <v>44262.427500000005</v>
+        <v>44712.427500000005</v>
       </c>
       <c r="AD124" s="5">
         <f>+AD125*0.45</f>
-        <v>53383.113000000005</v>
+        <v>53833.113000000005</v>
       </c>
     </row>
     <row r="125" spans="2:59" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -14772,19 +14823,19 @@
       </c>
       <c r="AA125" s="8">
         <f t="shared" si="235"/>
-        <v>87480.54</v>
+        <v>88480.54</v>
       </c>
       <c r="AB125" s="8">
         <f t="shared" si="235"/>
-        <v>92883.200000000012</v>
+        <v>93883.200000000012</v>
       </c>
       <c r="AC125" s="8">
         <f t="shared" si="235"/>
-        <v>98360.950000000012</v>
+        <v>99360.950000000012</v>
       </c>
       <c r="AD125" s="8">
         <f t="shared" si="235"/>
-        <v>118629.14000000001</v>
+        <v>119629.14000000001</v>
       </c>
     </row>
     <row r="126" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -15198,6 +15249,18 @@
       <c r="B134" t="s">
         <v>204</v>
       </c>
+      <c r="AA134" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AB134" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AC134" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AD134" s="2">
+        <v>1000</v>
+      </c>
     </row>
     <row r="136" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
@@ -15281,6 +15344,9 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="139" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="AA139" s="10"/>
+    </row>
     <row r="140" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>221</v>
@@ -15363,6 +15429,9 @@
         <f>61257-Y140-X140-W140</f>
         <v>19939</v>
       </c>
+      <c r="AA140" s="2">
+        <v>20739</v>
+      </c>
       <c r="BA140" s="2">
         <v>1506</v>
       </c>
@@ -15471,6 +15540,9 @@
       <c r="Z141" s="2">
         <f>20573-Y141-X141-W141</f>
         <v>5307</v>
+      </c>
+      <c r="AA141" s="2">
+        <v>7158</v>
       </c>
       <c r="BA141" s="2">
         <v>3360</v>
@@ -15545,6 +15617,9 @@
         <f>23684-Y142-X142-W142</f>
         <v>6328</v>
       </c>
+      <c r="AA142" s="2">
+        <v>9017</v>
+      </c>
       <c r="BF142" s="2">
         <f t="shared" si="239"/>
         <v>6831</v>
@@ -15636,6 +15711,9 @@
         <f>17108-Y143-X143-W143</f>
         <v>5534</v>
       </c>
+      <c r="AA143" s="2">
+        <v>5522</v>
+      </c>
       <c r="BA143" s="2">
         <v>2801</v>
       </c>
@@ -15752,6 +15830,9 @@
       <c r="Z144" s="2">
         <f>7875-Y144-X144-W144</f>
         <v>2223</v>
+      </c>
+      <c r="AA144" s="2">
+        <v>1626</v>
       </c>
       <c r="BA144" s="2">
         <f>2368+914+767</f>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891BAF10-7DAE-4F0F-A008-0C4CFFC1239D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D00AB-03B3-4D04-9D55-4BC5ACFB7944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27765" yWindow="1740" windowWidth="25965" windowHeight="16125" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="38210" yWindow="3620" windowWidth="23150" windowHeight="15620" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -1268,16 +1268,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>24282</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>29167</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>43962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>24282</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>29167</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
+      <xdr:rowOff>122790</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1292,8 +1292,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15001523" y="0"/>
-          <a:ext cx="0" cy="25369345"/>
+          <a:off x="19132898" y="43962"/>
+          <a:ext cx="0" cy="24936636"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1769,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -2029,11 +2029,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
   <dimension ref="A1:FE144"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="W120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
+      <selection pane="bottomRight" activeCell="AA133" sqref="AA133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="AA24" s="9">
         <f>+AA123</f>
-        <v>44240.27</v>
+        <v>44318.77</v>
       </c>
       <c r="AB24" s="9">
         <v>53000</v>
@@ -4443,31 +4443,31 @@
       </c>
       <c r="BH24" s="8">
         <f>SUM(AA24:AD24)</f>
-        <v>206735.315</v>
+        <v>206813.815</v>
       </c>
       <c r="BI24" s="8">
         <f>+BH24*1.5</f>
-        <v>310102.97250000003</v>
+        <v>310220.72250000003</v>
       </c>
       <c r="BJ24" s="8">
         <f>+BI24*1.4</f>
-        <v>434144.16150000005</v>
+        <v>434309.01150000002</v>
       </c>
       <c r="BK24" s="8">
         <f>+BJ24*1.4</f>
-        <v>607801.82610000006</v>
+        <v>608032.61609999998</v>
       </c>
       <c r="BL24" s="8">
         <f>+BK24*1.3</f>
-        <v>790142.37393000012</v>
+        <v>790442.40093</v>
       </c>
       <c r="BM24" s="8">
         <f>+BL24*1.3</f>
-        <v>1027185.0861090001</v>
+        <v>1027575.121209</v>
       </c>
       <c r="BN24" s="8">
         <f>+BM24*1.3</f>
-        <v>1335340.6119417003</v>
+        <v>1335847.6575716999</v>
       </c>
     </row>
     <row r="25" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="AA25" s="2">
         <f t="shared" ref="AA25:AC25" si="6">+AA24-AA26</f>
-        <v>10617.664799999999</v>
+        <v>10636.504800000002</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="6"/>
@@ -4647,27 +4647,27 @@
       </c>
       <c r="BH25" s="2">
         <f>+BH24-BH26</f>
-        <v>49616.475600000005</v>
+        <v>49635.315600000002</v>
       </c>
       <c r="BI25" s="2">
         <f t="shared" ref="BI25:BK25" si="7">+BI24-BI26</f>
-        <v>68222.653950000007</v>
+        <v>68248.558950000006</v>
       </c>
       <c r="BJ25" s="2">
         <f t="shared" si="7"/>
-        <v>95511.715529999987</v>
+        <v>95547.982529999979</v>
       </c>
       <c r="BK25" s="2">
         <f t="shared" si="7"/>
-        <v>133716.40174200002</v>
+        <v>133767.17554199998</v>
       </c>
       <c r="BL25" s="2">
         <f t="shared" ref="BL25" si="8">+BL24-BL26</f>
-        <v>173831.32226459996</v>
+        <v>173897.32820460002</v>
       </c>
       <c r="BM25" s="2">
         <f t="shared" ref="BM25" si="9">+BM24-BM26</f>
-        <v>225980.71894398006</v>
+        <v>226066.52666598</v>
       </c>
     </row>
     <row r="26" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="AA26" s="2">
         <f>+AA24*0.76</f>
-        <v>33622.605199999998</v>
+        <v>33682.265199999994</v>
       </c>
       <c r="AB26" s="2">
         <f>+AB24*0.76</f>
@@ -4892,27 +4892,27 @@
       </c>
       <c r="BH26" s="2">
         <f>SUM(AA26:AD26)</f>
-        <v>157118.8394</v>
+        <v>157178.4994</v>
       </c>
       <c r="BI26" s="2">
         <f>+BI24*0.78</f>
-        <v>241880.31855000003</v>
+        <v>241972.16355000003</v>
       </c>
       <c r="BJ26" s="2">
         <f>+BJ24*0.78</f>
-        <v>338632.44597000006</v>
+        <v>338761.02897000004</v>
       </c>
       <c r="BK26" s="2">
         <f>+BK24*0.78</f>
-        <v>474085.42435800005</v>
+        <v>474265.440558</v>
       </c>
       <c r="BL26" s="2">
         <f t="shared" ref="BL26:BM26" si="16">+BL24*0.78</f>
-        <v>616311.05166540015</v>
+        <v>616545.07272539998</v>
       </c>
       <c r="BM26" s="2">
         <f t="shared" si="16"/>
-        <v>801204.36716502008</v>
+        <v>801508.59454302001</v>
       </c>
     </row>
     <row r="27" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="AA30" s="5">
         <f t="shared" ref="AA30:AD30" si="54">+AA26-AA29</f>
-        <v>29426.205199999997</v>
+        <v>29485.865199999993</v>
       </c>
       <c r="AB30" s="5">
         <f t="shared" si="54"/>
@@ -5770,27 +5770,27 @@
       </c>
       <c r="BH30" s="2">
         <f t="shared" ref="BH30:BK30" si="60">+BH26-BH29</f>
-        <v>137432.8394</v>
+        <v>137492.4994</v>
       </c>
       <c r="BI30" s="2">
         <f t="shared" si="60"/>
-        <v>218257.11855000001</v>
+        <v>218348.96355000001</v>
       </c>
       <c r="BJ30" s="2">
         <f t="shared" si="60"/>
-        <v>310284.60597000003</v>
+        <v>310413.18897000002</v>
       </c>
       <c r="BK30" s="2">
         <f t="shared" si="60"/>
-        <v>440068.01635800005</v>
+        <v>440248.03255800001</v>
       </c>
       <c r="BL30" s="2">
         <f t="shared" ref="BL30" si="61">+BL26-BL29</f>
-        <v>575490.16206540016</v>
+        <v>575724.18312539998</v>
       </c>
       <c r="BM30" s="2">
         <f t="shared" ref="BM30" si="62">+BM26-BM29</f>
-        <v>752219.29964502004</v>
+        <v>752523.52702301997</v>
       </c>
     </row>
     <row r="31" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="AA32" s="5">
         <f t="shared" si="67"/>
-        <v>30609.205199999997</v>
+        <v>30668.865199999993</v>
       </c>
       <c r="AB32" s="5">
         <f t="shared" si="67"/>
@@ -6234,27 +6234,27 @@
       </c>
       <c r="BH32" s="2">
         <f t="shared" ref="BH32:BK32" si="73">+BH30+BH31</f>
-        <v>142164.8394</v>
+        <v>142224.4994</v>
       </c>
       <c r="BI32" s="2">
         <f t="shared" si="73"/>
-        <v>223462.31855000003</v>
+        <v>223554.16355000003</v>
       </c>
       <c r="BJ32" s="2">
         <f t="shared" si="73"/>
-        <v>316010.32597000001</v>
+        <v>316138.90896999999</v>
       </c>
       <c r="BK32" s="2">
         <f t="shared" si="73"/>
-        <v>446366.30835800007</v>
+        <v>446546.32455800002</v>
       </c>
       <c r="BL32" s="2">
         <f t="shared" ref="BL32" si="74">+BL30+BL31</f>
-        <v>582418.28326540021</v>
+        <v>582652.30432540004</v>
       </c>
       <c r="BM32" s="2">
         <f t="shared" ref="BM32" si="75">+BM30+BM31</f>
-        <v>759840.23296502</v>
+        <v>760144.46034301992</v>
       </c>
     </row>
     <row r="33" spans="2:161" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="AA33" s="2">
         <f>+AA32*0.15</f>
-        <v>4591.3807799999995</v>
+        <v>4600.3297799999991</v>
       </c>
       <c r="AB33" s="2">
         <f>+AB32*0.15</f>
@@ -6434,27 +6434,27 @@
       </c>
       <c r="BH33" s="2">
         <f>SUM(AA33:AD33)</f>
-        <v>21324.725910000001</v>
+        <v>21333.674910000002</v>
       </c>
       <c r="BI33" s="2">
         <f t="shared" ref="BI33:BK33" si="77">+BI32*0.2</f>
-        <v>44692.463710000011</v>
+        <v>44710.83271000001</v>
       </c>
       <c r="BJ33" s="2">
         <f t="shared" si="77"/>
-        <v>63202.065194000003</v>
+        <v>63227.781794000002</v>
       </c>
       <c r="BK33" s="2">
         <f t="shared" si="77"/>
-        <v>89273.261671600019</v>
+        <v>89309.26491160001</v>
       </c>
       <c r="BL33" s="2">
         <f t="shared" ref="BL33" si="78">+BL32*0.2</f>
-        <v>116483.65665308005</v>
+        <v>116530.46086508001</v>
       </c>
       <c r="BM33" s="2">
         <f t="shared" ref="BM33" si="79">+BM32*0.2</f>
-        <v>151968.04659300399</v>
+        <v>152028.89206860398</v>
       </c>
     </row>
     <row r="34" spans="2:161" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="83"/>
-        <v>26017.824419999997</v>
+        <v>26068.535419999993</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="83"/>
@@ -6679,411 +6679,411 @@
       </c>
       <c r="BH34" s="2">
         <f t="shared" ref="BH34:BK34" si="89">+BH32-BH33</f>
-        <v>120840.11348999999</v>
+        <v>120890.82449</v>
       </c>
       <c r="BI34" s="2">
         <f t="shared" si="89"/>
-        <v>178769.85484000001</v>
+        <v>178843.33084000001</v>
       </c>
       <c r="BJ34" s="2">
         <f t="shared" si="89"/>
-        <v>252808.26077600001</v>
+        <v>252911.12717599998</v>
       </c>
       <c r="BK34" s="2">
         <f t="shared" si="89"/>
-        <v>357093.04668640008</v>
+        <v>357237.05964640004</v>
       </c>
       <c r="BL34" s="2">
         <f t="shared" ref="BL34" si="90">+BL32-BL33</f>
-        <v>465934.62661232019</v>
+        <v>466121.84346032003</v>
       </c>
       <c r="BM34" s="2">
         <f t="shared" ref="BM34" si="91">+BM32-BM33</f>
-        <v>607872.18637201597</v>
+        <v>608115.56827441591</v>
       </c>
       <c r="BN34" s="2">
         <f t="shared" ref="BN34:CS34" si="92">BM34*(1+$BP$41)</f>
-        <v>613950.90823573619</v>
+        <v>614196.72395716002</v>
       </c>
       <c r="BO34" s="2">
         <f t="shared" si="92"/>
-        <v>620090.41731809359</v>
+        <v>620338.69119673164</v>
       </c>
       <c r="BP34" s="2">
         <f t="shared" si="92"/>
-        <v>626291.32149127452</v>
+        <v>626542.07810869894</v>
       </c>
       <c r="BQ34" s="2">
         <f t="shared" si="92"/>
-        <v>632554.23470618727</v>
+        <v>632807.49888978596</v>
       </c>
       <c r="BR34" s="2">
         <f t="shared" si="92"/>
-        <v>638879.77705324918</v>
+        <v>639135.57387868385</v>
       </c>
       <c r="BS34" s="2">
         <f t="shared" si="92"/>
-        <v>645268.57482378173</v>
+        <v>645526.92961747071</v>
       </c>
       <c r="BT34" s="2">
         <f t="shared" si="92"/>
-        <v>651721.2605720195</v>
+        <v>651982.19891364546</v>
       </c>
       <c r="BU34" s="2">
         <f t="shared" si="92"/>
-        <v>658238.47317773965</v>
+        <v>658502.02090278198</v>
       </c>
       <c r="BV34" s="2">
         <f t="shared" si="92"/>
-        <v>664820.85790951701</v>
+        <v>665087.04111180978</v>
       </c>
       <c r="BW34" s="2">
         <f t="shared" si="92"/>
-        <v>671469.06648861221</v>
+        <v>671737.91152292793</v>
       </c>
       <c r="BX34" s="2">
         <f t="shared" si="92"/>
-        <v>678183.75715349836</v>
+        <v>678455.29063815717</v>
       </c>
       <c r="BY34" s="2">
         <f t="shared" si="92"/>
-        <v>684965.59472503338</v>
+        <v>685239.84354453871</v>
       </c>
       <c r="BZ34" s="2">
         <f t="shared" si="92"/>
-        <v>691815.2506722837</v>
+        <v>692092.2419799841</v>
       </c>
       <c r="CA34" s="2">
         <f t="shared" si="92"/>
-        <v>698733.40317900653</v>
+        <v>699013.16439978394</v>
       </c>
       <c r="CB34" s="2">
         <f t="shared" si="92"/>
-        <v>705720.73721079656</v>
+        <v>706003.2960437818</v>
       </c>
       <c r="CC34" s="2">
         <f t="shared" si="92"/>
-        <v>712777.94458290457</v>
+        <v>713063.32900421962</v>
       </c>
       <c r="CD34" s="2">
         <f t="shared" si="92"/>
-        <v>719905.72402873368</v>
+        <v>720193.96229426179</v>
       </c>
       <c r="CE34" s="2">
         <f t="shared" si="92"/>
-        <v>727104.78126902098</v>
+        <v>727395.90191720438</v>
       </c>
       <c r="CF34" s="2">
         <f t="shared" si="92"/>
-        <v>734375.82908171124</v>
+        <v>734669.86093637638</v>
       </c>
       <c r="CG34" s="2">
         <f t="shared" si="92"/>
-        <v>741719.58737252839</v>
+        <v>742016.55954574014</v>
       </c>
       <c r="CH34" s="2">
         <f t="shared" si="92"/>
-        <v>749136.78324625373</v>
+        <v>749436.72514119756</v>
       </c>
       <c r="CI34" s="2">
         <f t="shared" si="92"/>
-        <v>756628.15107871627</v>
+        <v>756931.09239260957</v>
       </c>
       <c r="CJ34" s="2">
         <f t="shared" si="92"/>
-        <v>764194.43258950347</v>
+        <v>764500.40331653564</v>
       </c>
       <c r="CK34" s="2">
         <f t="shared" si="92"/>
-        <v>771836.37691539852</v>
+        <v>772145.40734970104</v>
       </c>
       <c r="CL34" s="2">
         <f t="shared" si="92"/>
-        <v>779554.74068455247</v>
+        <v>779866.86142319802</v>
       </c>
       <c r="CM34" s="2">
         <f t="shared" si="92"/>
-        <v>787350.28809139796</v>
+        <v>787665.53003743</v>
       </c>
       <c r="CN34" s="2">
         <f t="shared" si="92"/>
-        <v>795223.79097231198</v>
+        <v>795542.18533780426</v>
       </c>
       <c r="CO34" s="2">
         <f t="shared" si="92"/>
-        <v>803176.02888203505</v>
+        <v>803497.60719118232</v>
       </c>
       <c r="CP34" s="2">
         <f t="shared" si="92"/>
-        <v>811207.78917085542</v>
+        <v>811532.58326309419</v>
       </c>
       <c r="CQ34" s="2">
         <f t="shared" si="92"/>
-        <v>819319.86706256401</v>
+        <v>819647.90909572516</v>
       </c>
       <c r="CR34" s="2">
         <f t="shared" si="92"/>
-        <v>827513.06573318969</v>
+        <v>827844.38818668236</v>
       </c>
       <c r="CS34" s="2">
         <f t="shared" si="92"/>
-        <v>835788.1963905216</v>
+        <v>836122.83206854924</v>
       </c>
       <c r="CT34" s="2">
         <f t="shared" ref="CT34:DY34" si="93">CS34*(1+$BP$41)</f>
-        <v>844146.07835442678</v>
+        <v>844484.06038923468</v>
       </c>
       <c r="CU34" s="2">
         <f t="shared" si="93"/>
-        <v>852587.53913797101</v>
+        <v>852928.90099312703</v>
       </c>
       <c r="CV34" s="2">
         <f t="shared" si="93"/>
-        <v>861113.4145293507</v>
+        <v>861458.19000305829</v>
       </c>
       <c r="CW34" s="2">
         <f t="shared" si="93"/>
-        <v>869724.5486746442</v>
+        <v>870072.7719030889</v>
       </c>
       <c r="CX34" s="2">
         <f t="shared" si="93"/>
-        <v>878421.79416139063</v>
+        <v>878773.49962211982</v>
       </c>
       <c r="CY34" s="2">
         <f t="shared" si="93"/>
-        <v>887206.0121030045</v>
+        <v>887561.23461834108</v>
       </c>
       <c r="CZ34" s="2">
         <f t="shared" si="93"/>
-        <v>896078.07222403458</v>
+        <v>896436.84696452448</v>
       </c>
       <c r="DA34" s="2">
         <f t="shared" si="93"/>
-        <v>905038.85294627491</v>
+        <v>905401.21543416975</v>
       </c>
       <c r="DB34" s="2">
         <f t="shared" si="93"/>
-        <v>914089.24147573765</v>
+        <v>914455.22758851142</v>
       </c>
       <c r="DC34" s="2">
         <f t="shared" si="93"/>
-        <v>923230.13389049505</v>
+        <v>923599.77986439655</v>
       </c>
       <c r="DD34" s="2">
         <f t="shared" si="93"/>
-        <v>932462.43522940006</v>
+        <v>932835.77766304056</v>
       </c>
       <c r="DE34" s="2">
         <f t="shared" si="93"/>
-        <v>941787.05958169408</v>
+        <v>942164.13543967099</v>
       </c>
       <c r="DF34" s="2">
         <f t="shared" si="93"/>
-        <v>951204.93017751107</v>
+        <v>951585.7767940677</v>
       </c>
       <c r="DG34" s="2">
         <f t="shared" si="93"/>
-        <v>960716.97947928624</v>
+        <v>961101.63456200843</v>
       </c>
       <c r="DH34" s="2">
         <f t="shared" si="93"/>
-        <v>970324.14927407913</v>
+        <v>970712.65090762847</v>
       </c>
       <c r="DI34" s="2">
         <f t="shared" si="93"/>
-        <v>980027.39076681994</v>
+        <v>980419.7774167048</v>
       </c>
       <c r="DJ34" s="2">
         <f t="shared" si="93"/>
-        <v>989827.66467448813</v>
+        <v>990223.97519087186</v>
       </c>
       <c r="DK34" s="2">
         <f t="shared" si="93"/>
-        <v>999725.94132123305</v>
+        <v>1000126.2149427806</v>
       </c>
       <c r="DL34" s="2">
         <f t="shared" si="93"/>
-        <v>1009723.2007344454</v>
+        <v>1010127.4770922083</v>
       </c>
       <c r="DM34" s="2">
         <f t="shared" si="93"/>
-        <v>1019820.4327417898</v>
+        <v>1020228.7518631305</v>
       </c>
       <c r="DN34" s="2">
         <f t="shared" si="93"/>
-        <v>1030018.6370692077</v>
+        <v>1030431.0393817618</v>
       </c>
       <c r="DO34" s="2">
         <f t="shared" si="93"/>
-        <v>1040318.8234398998</v>
+        <v>1040735.3497755794</v>
       </c>
       <c r="DP34" s="2">
         <f t="shared" si="93"/>
-        <v>1050722.0116742989</v>
+        <v>1051142.7032733352</v>
       </c>
       <c r="DQ34" s="2">
         <f t="shared" si="93"/>
-        <v>1061229.2317910418</v>
+        <v>1061654.1303060686</v>
       </c>
       <c r="DR34" s="2">
         <f t="shared" si="93"/>
-        <v>1071841.5241089521</v>
+        <v>1072270.6716091293</v>
       </c>
       <c r="DS34" s="2">
         <f t="shared" si="93"/>
-        <v>1082559.9393500416</v>
+        <v>1082993.3783252207</v>
       </c>
       <c r="DT34" s="2">
         <f t="shared" si="93"/>
-        <v>1093385.538743542</v>
+        <v>1093823.3121084729</v>
       </c>
       <c r="DU34" s="2">
         <f t="shared" si="93"/>
-        <v>1104319.3941309776</v>
+        <v>1104761.5452295577</v>
       </c>
       <c r="DV34" s="2">
         <f t="shared" si="93"/>
-        <v>1115362.5880722874</v>
+        <v>1115809.1606818533</v>
       </c>
       <c r="DW34" s="2">
         <f t="shared" si="93"/>
-        <v>1126516.2139530103</v>
+        <v>1126967.2522886719</v>
       </c>
       <c r="DX34" s="2">
         <f t="shared" si="93"/>
-        <v>1137781.3760925403</v>
+        <v>1138236.9248115586</v>
       </c>
       <c r="DY34" s="2">
         <f t="shared" si="93"/>
-        <v>1149159.1898534657</v>
+        <v>1149619.2940596743</v>
       </c>
       <c r="DZ34" s="2">
         <f t="shared" ref="DZ34:FE34" si="94">DY34*(1+$BP$41)</f>
-        <v>1160650.7817520003</v>
+        <v>1161115.487000271</v>
       </c>
       <c r="EA34" s="2">
         <f t="shared" si="94"/>
-        <v>1172257.2895695204</v>
+        <v>1172726.6418702737</v>
       </c>
       <c r="EB34" s="2">
         <f t="shared" si="94"/>
-        <v>1183979.8624652156</v>
+        <v>1184453.9082889764</v>
       </c>
       <c r="EC34" s="2">
         <f t="shared" si="94"/>
-        <v>1195819.6610898678</v>
+        <v>1196298.4473718661</v>
       </c>
       <c r="ED34" s="2">
         <f t="shared" si="94"/>
-        <v>1207777.8577007665</v>
+        <v>1208261.4318455847</v>
       </c>
       <c r="EE34" s="2">
         <f t="shared" si="94"/>
-        <v>1219855.6362777741</v>
+        <v>1220344.0461640405</v>
       </c>
       <c r="EF34" s="2">
         <f t="shared" si="94"/>
-        <v>1232054.1926405518</v>
+        <v>1232547.4866256809</v>
       </c>
       <c r="EG34" s="2">
         <f t="shared" si="94"/>
-        <v>1244374.7345669575</v>
+        <v>1244872.9614919377</v>
       </c>
       <c r="EH34" s="2">
         <f t="shared" si="94"/>
-        <v>1256818.4819126271</v>
+        <v>1257321.691106857</v>
       </c>
       <c r="EI34" s="2">
         <f t="shared" si="94"/>
-        <v>1269386.6667317534</v>
+        <v>1269894.9080179257</v>
       </c>
       <c r="EJ34" s="2">
         <f t="shared" si="94"/>
-        <v>1282080.5333990708</v>
+        <v>1282593.8570981049</v>
       </c>
       <c r="EK34" s="2">
         <f t="shared" si="94"/>
-        <v>1294901.3387330614</v>
+        <v>1295419.795669086</v>
       </c>
       <c r="EL34" s="2">
         <f t="shared" si="94"/>
-        <v>1307850.352120392</v>
+        <v>1308373.9936257768</v>
       </c>
       <c r="EM34" s="2">
         <f t="shared" si="94"/>
-        <v>1320928.855641596</v>
+        <v>1321457.7335620346</v>
       </c>
       <c r="EN34" s="2">
         <f t="shared" si="94"/>
-        <v>1334138.1441980121</v>
+        <v>1334672.3108976549</v>
       </c>
       <c r="EO34" s="2">
         <f t="shared" si="94"/>
-        <v>1347479.5256399922</v>
+        <v>1348019.0340066315</v>
       </c>
       <c r="EP34" s="2">
         <f t="shared" si="94"/>
-        <v>1360954.3208963922</v>
+        <v>1361499.2243466978</v>
       </c>
       <c r="EQ34" s="2">
         <f t="shared" si="94"/>
-        <v>1374563.8641053562</v>
+        <v>1375114.2165901647</v>
       </c>
       <c r="ER34" s="2">
         <f t="shared" si="94"/>
-        <v>1388309.5027464097</v>
+        <v>1388865.3587560663</v>
       </c>
       <c r="ES34" s="2">
         <f t="shared" si="94"/>
-        <v>1402192.5977738739</v>
+        <v>1402754.0123436269</v>
       </c>
       <c r="ET34" s="2">
         <f t="shared" si="94"/>
-        <v>1416214.5237516128</v>
+        <v>1416781.5524670633</v>
       </c>
       <c r="EU34" s="2">
         <f t="shared" si="94"/>
-        <v>1430376.6689891289</v>
+        <v>1430949.3679917341</v>
       </c>
       <c r="EV34" s="2">
         <f t="shared" si="94"/>
-        <v>1444680.4356790201</v>
+        <v>1445258.8616716515</v>
       </c>
       <c r="EW34" s="2">
         <f t="shared" si="94"/>
-        <v>1459127.2400358103</v>
+        <v>1459711.4502883679</v>
       </c>
       <c r="EX34" s="2">
         <f t="shared" si="94"/>
-        <v>1473718.5124361685</v>
+        <v>1474308.5647912517</v>
       </c>
       <c r="EY34" s="2">
         <f t="shared" si="94"/>
-        <v>1488455.6975605302</v>
+        <v>1489051.6504391641</v>
       </c>
       <c r="EZ34" s="2">
         <f t="shared" si="94"/>
-        <v>1503340.2545361354</v>
+        <v>1503942.1669435557</v>
       </c>
       <c r="FA34" s="2">
         <f t="shared" si="94"/>
-        <v>1518373.6570814967</v>
+        <v>1518981.5886129912</v>
       </c>
       <c r="FB34" s="2">
         <f t="shared" si="94"/>
-        <v>1533557.3936523118</v>
+        <v>1534171.404499121</v>
       </c>
       <c r="FC34" s="2">
         <f t="shared" si="94"/>
-        <v>1548892.9675888349</v>
+        <v>1549513.1185441122</v>
       </c>
       <c r="FD34" s="2">
         <f t="shared" si="94"/>
-        <v>1564381.8972647232</v>
+        <v>1565008.2497295532</v>
       </c>
       <c r="FE34" s="2">
         <f t="shared" si="94"/>
-        <v>1580025.7162373704</v>
+        <v>1580658.3322268487</v>
       </c>
     </row>
     <row r="35" spans="2:161" x14ac:dyDescent="0.25">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="AA35" s="6">
         <f t="shared" si="98"/>
-        <v>1.0530974022504653</v>
+        <v>1.0551499805715208</v>
       </c>
       <c r="AB35" s="6">
         <f t="shared" si="98"/>
@@ -7311,27 +7311,27 @@
       </c>
       <c r="BH35" s="15">
         <f t="shared" si="109"/>
-        <v>4.8911241597182862</v>
+        <v>4.8931767380393429</v>
       </c>
       <c r="BI35" s="15">
         <f t="shared" si="109"/>
-        <v>7.2358882392940993</v>
+        <v>7.2388622537035543</v>
       </c>
       <c r="BJ35" s="15">
         <f t="shared" si="109"/>
-        <v>10.232666590140047</v>
+        <v>10.236830210313283</v>
       </c>
       <c r="BK35" s="15">
         <f t="shared" si="109"/>
-        <v>14.453697348271678</v>
+        <v>14.459526416514208</v>
       </c>
       <c r="BL35" s="15">
         <f t="shared" ref="BL35:BM35" si="110">+BL34/BL36</f>
-        <v>18.859168890646814</v>
+        <v>18.866746679362098</v>
       </c>
       <c r="BM35" s="15">
         <f t="shared" si="110"/>
-        <v>24.604233237756656</v>
+        <v>24.614084363086533</v>
       </c>
       <c r="BN35" s="15"/>
     </row>
@@ -7633,7 +7633,7 @@
       </c>
       <c r="AA38" s="17">
         <f t="shared" si="120"/>
-        <v>0.69867416679465499</v>
+        <v>0.7016882967286131</v>
       </c>
       <c r="AB38" s="17">
         <f t="shared" ref="AB38" si="121">+AB24/X24-1</f>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="BH38" s="17">
         <f>+BH24/BG24-1</f>
-        <v>0.5842150777412507</v>
+        <v>0.58481662413695346</v>
       </c>
       <c r="BI38" s="17">
         <f t="shared" si="130"/>
@@ -7867,11 +7867,11 @@
       </c>
       <c r="AA39" s="10">
         <f t="shared" ref="AA39" si="141">+AA24/Z24-1</f>
-        <v>0.12481935369047314</v>
+        <v>0.12681523480206436</v>
       </c>
       <c r="AB39" s="10">
         <f t="shared" ref="AB39" si="142">+AB24/AA24-1</f>
-        <v>0.19800353840516816</v>
+        <v>0.19588156440262217</v>
       </c>
       <c r="AC39" s="10">
         <f t="shared" ref="AC39" si="143">+AC24/AB24-1</f>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="AA41" s="7">
         <f t="shared" si="164"/>
-        <v>0.76</v>
+        <v>0.7599999999999999</v>
       </c>
       <c r="AB41" s="7">
         <f t="shared" si="164"/>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="BL41" s="7">
         <f t="shared" si="170"/>
-        <v>0.78</v>
+        <v>0.77999999999999992</v>
       </c>
       <c r="BM41" s="7">
         <f t="shared" si="170"/>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="BP43" s="2">
         <f>NPV(BP42,BH34:FE34)+Main!K5-Main!K6</f>
-        <v>5982493.6406702055</v>
+        <v>5984881.1934512733</v>
       </c>
     </row>
     <row r="44" spans="2:161" x14ac:dyDescent="0.25">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="BP44" s="15">
         <f>BP43/Main!K3</f>
-        <v>242.14739903951289</v>
+        <v>242.24403762046762</v>
       </c>
     </row>
     <row r="45" spans="2:161" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="AA123" s="2">
         <f>+AA125*0.5</f>
-        <v>44240.27</v>
+        <v>44318.77</v>
       </c>
       <c r="AB123" s="2">
         <f>+AB125*0.5</f>
@@ -14754,7 +14754,7 @@
       </c>
       <c r="AA124" s="5">
         <f>+AA125*0.45</f>
-        <v>39816.242999999995</v>
+        <v>39886.892999999996</v>
       </c>
       <c r="AB124" s="5">
         <f>+AB125*0.45</f>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="AA125" s="8">
         <f t="shared" si="235"/>
-        <v>88480.54</v>
+        <v>88637.54</v>
       </c>
       <c r="AB125" s="8">
         <f t="shared" si="235"/>
@@ -15184,8 +15184,7 @@
         <v>325</v>
       </c>
       <c r="AA132" s="2">
-        <f>5000/4</f>
-        <v>1250</v>
+        <v>1407</v>
       </c>
       <c r="AB132" s="2">
         <f>5000/4</f>
@@ -15300,7 +15299,7 @@
       </c>
       <c r="AA136" s="7">
         <f t="shared" si="236"/>
-        <v>0.44999999999999996</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="137" spans="2:59" x14ac:dyDescent="0.25">

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D00AB-03B3-4D04-9D55-4BC5ACFB7944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4AE0F0-FD88-4B86-A7DB-F1711B0B00D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38210" yWindow="3620" windowWidth="23150" windowHeight="15620" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="49680" yWindow="3630" windowWidth="32850" windowHeight="14240" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -1769,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1793,7 @@
         <v>112</v>
       </c>
       <c r="K2" s="15">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1808,10 +1808,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="2">
-        <v>24706</v>
+        <v>24611</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>3335310</v>
+        <v>3888538</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1842,10 +1842,10 @@
         <v>38</v>
       </c>
       <c r="K5" s="2">
-        <v>43210</v>
+        <v>53691</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1860,10 +1860,10 @@
         <v>34</v>
       </c>
       <c r="K6" s="2">
-        <v>8463</v>
+        <v>8464</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>3300563</v>
+        <v>3843311</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2029,11 +2029,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
   <dimension ref="A1:FE144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W120" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="S34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA133" sqref="AA133"/>
+      <selection pane="bottomRight" activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2134,8 +2134,8 @@
         <v>45683</v>
       </c>
       <c r="AA2" s="13">
-        <f>+W2+365</f>
-        <v>45775</v>
+        <f>+W2+364</f>
+        <v>45774</v>
       </c>
       <c r="AB2" s="13">
         <f>+X2+365</f>
@@ -3331,7 +3331,9 @@
       <c r="Z14" s="5">
         <v>36036</v>
       </c>
-      <c r="AA14" s="5"/>
+      <c r="AA14" s="5">
+        <v>39589</v>
+      </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
@@ -3454,7 +3456,9 @@
       <c r="Z15" s="5">
         <v>3295</v>
       </c>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="5">
+        <v>4473</v>
+      </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
@@ -3626,6 +3630,22 @@
       <c r="Z17" s="2">
         <v>126</v>
       </c>
+      <c r="AA17" s="2">
+        <f>+W17*1.1</f>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="AB17" s="2">
+        <f t="shared" ref="AB17:AD19" si="3">+X17*1.1</f>
+        <v>96.800000000000011</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="3"/>
+        <v>106.7</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="3"/>
+        <v>138.60000000000002</v>
+      </c>
       <c r="BA17" s="2">
         <v>767</v>
       </c>
@@ -3643,11 +3663,11 @@
         <v>455</v>
       </c>
       <c r="BF17" s="2">
-        <f t="shared" ref="BF17:BF21" si="3">SUM(S17:V17)</f>
+        <f t="shared" ref="BF17:BF21" si="4">SUM(S17:V17)</f>
         <v>306</v>
       </c>
       <c r="BG17" s="2">
-        <f t="shared" ref="BG17:BG21" si="4">SUM(W17:Z17)</f>
+        <f t="shared" ref="BG17:BG21" si="5">SUM(W17:Z17)</f>
         <v>389</v>
       </c>
     </row>
@@ -3728,6 +3748,22 @@
       </c>
       <c r="Z18" s="2">
         <v>511</v>
+      </c>
+      <c r="AA18" s="2">
+        <f>+W18*1.1</f>
+        <v>469.70000000000005</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" si="3"/>
+        <v>499.40000000000003</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="3"/>
+        <v>534.6</v>
+      </c>
+      <c r="AD18" s="2">
+        <f t="shared" si="3"/>
+        <v>562.1</v>
       </c>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
@@ -3759,11 +3795,11 @@
         <v>1544</v>
       </c>
       <c r="BF18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1553</v>
       </c>
       <c r="BG18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1878</v>
       </c>
     </row>
@@ -3844,6 +3880,22 @@
       </c>
       <c r="Z19" s="2">
         <v>570</v>
+      </c>
+      <c r="AA19" s="2">
+        <f>+W19*1.1</f>
+        <v>361.90000000000003</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="3"/>
+        <v>380.6</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="3"/>
+        <v>493.90000000000003</v>
+      </c>
+      <c r="AD19" s="2">
+        <f t="shared" si="3"/>
+        <v>627</v>
       </c>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
@@ -3875,11 +3927,11 @@
         <v>903</v>
       </c>
       <c r="BF19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1091</v>
       </c>
       <c r="BG19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1694</v>
       </c>
     </row>
@@ -3927,6 +3979,9 @@
       <c r="Z20" s="2">
         <v>3024</v>
       </c>
+      <c r="AA20" s="2">
+        <v>4957</v>
+      </c>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
@@ -3941,11 +3996,11 @@
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="BF20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8575</v>
       </c>
       <c r="BG20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12990</v>
       </c>
     </row>
@@ -3993,6 +4048,9 @@
       <c r="Z21" s="2">
         <v>32556</v>
       </c>
+      <c r="AA21" s="2">
+        <v>34155</v>
+      </c>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
@@ -4007,11 +4065,11 @@
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5"/>
       <c r="BF21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38950</v>
       </c>
       <c r="BG21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102196</v>
       </c>
     </row>
@@ -4101,6 +4159,22 @@
         <f>+Z21+Z20</f>
         <v>35580</v>
       </c>
+      <c r="AA22" s="2">
+        <f>+W22*1.8</f>
+        <v>40613.4</v>
+      </c>
+      <c r="AB22" s="2">
+        <f>+X22*1.9</f>
+        <v>49916.799999999996</v>
+      </c>
+      <c r="AC22" s="2">
+        <f>+Y22*1.4</f>
+        <v>43079.399999999994</v>
+      </c>
+      <c r="AD22" s="2">
+        <f>+Z22*1.5</f>
+        <v>53370</v>
+      </c>
       <c r="BA22" s="2">
         <v>2932</v>
       </c>
@@ -4204,6 +4278,22 @@
       </c>
       <c r="Z23" s="2">
         <v>2544</v>
+      </c>
+      <c r="AA23" s="2">
+        <f>+W23*1.2</f>
+        <v>3176.4</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" ref="AB23:AD23" si="6">+X23*1.2</f>
+        <v>3456</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="6"/>
+        <v>3934.7999999999997</v>
+      </c>
+      <c r="AD23" s="2">
+        <f t="shared" si="6"/>
+        <v>3052.7999999999997</v>
       </c>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
@@ -4414,31 +4504,31 @@
         <v>9714</v>
       </c>
       <c r="BA24" s="8">
-        <f t="shared" ref="BA24:BG24" si="5">+BA23+BA22+BA19+BA18+BA17</f>
+        <f t="shared" ref="BA24:BG24" si="7">+BA23+BA22+BA19+BA18+BA17</f>
         <v>11716</v>
       </c>
       <c r="BB24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10918</v>
       </c>
       <c r="BC24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16675</v>
       </c>
       <c r="BD24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26913</v>
       </c>
       <c r="BE24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26977</v>
       </c>
       <c r="BF24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60922</v>
       </c>
       <c r="BG24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>130497</v>
       </c>
       <c r="BH24" s="8">
@@ -4549,15 +4639,15 @@
         <v>10608</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" ref="AA25:AC25" si="6">+AA24-AA26</f>
+        <f t="shared" ref="AA25:AC25" si="8">+AA24-AA26</f>
         <v>10636.504800000002</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12720</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11923.313999999998</v>
       </c>
       <c r="AD25" s="2">
@@ -4650,23 +4740,23 @@
         <v>49635.315600000002</v>
       </c>
       <c r="BI25" s="2">
-        <f t="shared" ref="BI25:BK25" si="7">+BI24-BI26</f>
+        <f t="shared" ref="BI25:BK25" si="9">+BI24-BI26</f>
         <v>68248.558950000006</v>
       </c>
       <c r="BJ25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>95547.982529999979</v>
       </c>
       <c r="BK25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>133767.17554199998</v>
       </c>
       <c r="BL25" s="2">
-        <f t="shared" ref="BL25" si="8">+BL24-BL26</f>
+        <f t="shared" ref="BL25" si="10">+BL24-BL26</f>
         <v>173897.32820460002</v>
       </c>
       <c r="BM25" s="2">
-        <f t="shared" ref="BM25" si="9">+BM24-BM26</f>
+        <f t="shared" ref="BM25" si="11">+BM24-BM26</f>
         <v>226066.52666598</v>
       </c>
     </row>
@@ -4675,71 +4765,71 @@
         <v>5</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" ref="C26:F26" si="10">+C24-C25</f>
+        <f t="shared" ref="C26:F26" si="12">+C24-C25</f>
         <v>1296</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1541</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1916</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2015</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:S26" si="11">+G24-G25</f>
+        <f t="shared" ref="G26:S26" si="13">+G24-G25</f>
         <v>2004</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2275</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2960</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3157</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3629</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4215</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4631</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4999</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5431</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2915</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3177</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3833</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4648</v>
       </c>
       <c r="T26" s="2">
@@ -4747,27 +4837,27 @@
         <v>9462</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" ref="U26:Z26" si="12">+U24-U25</f>
+        <f t="shared" ref="U26:Z26" si="14">+U24-U25</f>
         <v>13400</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16791</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20406</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22574</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>26156</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28723</v>
       </c>
       <c r="AA26" s="2">
@@ -4787,27 +4877,27 @@
         <v>45459.073200000006</v>
       </c>
       <c r="AH26" s="2">
-        <f t="shared" ref="AH26:AI26" si="13">+AH24-AH25</f>
+        <f t="shared" ref="AH26:AI26" si="15">+AH24-AH25</f>
         <v>232.66200000000001</v>
       </c>
       <c r="AI26" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>462.38499999999999</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" ref="AJ26:AM26" si="14">+AJ24-AJ25</f>
+        <f t="shared" ref="AJ26:AM26" si="16">+AJ24-AJ25</f>
         <v>850.23299999999995</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>582.17599999999993</v>
       </c>
       <c r="AL26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>528.87799999999993</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>649.48599999999988</v>
       </c>
       <c r="AN26" s="2">
@@ -4831,59 +4921,59 @@
         <v>1176.9230000000002</v>
       </c>
       <c r="AS26" s="2">
-        <f t="shared" ref="AS26:BF26" si="15">+AS24-AS25</f>
+        <f t="shared" ref="AS26:BF26" si="17">+AS24-AS25</f>
         <v>1409.0900000000001</v>
       </c>
       <c r="AT26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2056.5169999999998</v>
       </c>
       <c r="AU26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2226.3429999999998</v>
       </c>
       <c r="AV26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2268</v>
       </c>
       <c r="AW26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2599</v>
       </c>
       <c r="AX26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2811</v>
       </c>
       <c r="AY26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4063</v>
       </c>
       <c r="AZ26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5822</v>
       </c>
       <c r="BA26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7171</v>
       </c>
       <c r="BB26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6768</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10396</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>17473</v>
       </c>
       <c r="BE26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15359</v>
       </c>
       <c r="BF26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>44301</v>
       </c>
       <c r="BG26" s="2">
@@ -4907,11 +4997,11 @@
         <v>474265.440558</v>
       </c>
       <c r="BL26" s="2">
-        <f t="shared" ref="BL26:BM26" si="16">+BL24*0.78</f>
+        <f t="shared" ref="BL26:BM26" si="18">+BL24*0.78</f>
         <v>616545.07272539998</v>
       </c>
       <c r="BM26" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>801508.59454302001</v>
       </c>
     </row>
@@ -4929,7 +5019,7 @@
         <v>712</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" ref="F27:F28" si="17">+BB27-E27-D27-C27</f>
+        <f t="shared" ref="F27:F28" si="19">+BB27-E27-D27-C27</f>
         <v>739</v>
       </c>
       <c r="G27" s="5">
@@ -4966,7 +5056,7 @@
         <v>1945</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" ref="R27:R28" si="18">+BE27-Q27-P27-O27</f>
+        <f t="shared" ref="R27:R28" si="20">+BE27-Q27-P27-O27</f>
         <v>1952</v>
       </c>
       <c r="S27" s="5">
@@ -4994,19 +5084,19 @@
         <v>3714</v>
       </c>
       <c r="AA27" s="2">
-        <f t="shared" ref="AA27" si="19">+W27*1.2</f>
+        <f t="shared" ref="AA27" si="21">+W27*1.2</f>
         <v>3264</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" ref="AB27" si="20">+X27*1.2</f>
+        <f t="shared" ref="AB27" si="22">+X27*1.2</f>
         <v>3708</v>
       </c>
       <c r="AC27" s="2">
-        <f t="shared" ref="AC27" si="21">+Y27*1.2</f>
+        <f t="shared" ref="AC27" si="23">+Y27*1.2</f>
         <v>4068</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" ref="AD27" si="22">+Z27*1.2</f>
+        <f t="shared" ref="AD27" si="24">+Z27*1.2</f>
         <v>4456.8</v>
       </c>
       <c r="AK27" s="2">
@@ -5086,23 +5176,23 @@
         <v>15496.8</v>
       </c>
       <c r="BI27" s="2">
-        <f t="shared" ref="BI27:BK27" si="23">+BH27*1.2</f>
+        <f t="shared" ref="BI27:BK27" si="25">+BH27*1.2</f>
         <v>18596.16</v>
       </c>
       <c r="BJ27" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>22315.392</v>
       </c>
       <c r="BK27" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>26778.470399999998</v>
       </c>
       <c r="BL27" s="2">
-        <f t="shared" ref="BL27:BM27" si="24">+BK27*1.2</f>
+        <f t="shared" ref="BL27:BM27" si="26">+BK27*1.2</f>
         <v>32134.164479999996</v>
       </c>
       <c r="BM27" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>38560.997375999992</v>
       </c>
     </row>
@@ -5120,7 +5210,7 @@
         <v>277</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>286</v>
       </c>
       <c r="G28" s="5">
@@ -5157,7 +5247,7 @@
         <v>631</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>625</v>
       </c>
       <c r="S28" s="5">
@@ -5277,23 +5367,23 @@
         <v>4189.2</v>
       </c>
       <c r="BI28" s="2">
-        <f t="shared" ref="BI28:BK28" si="25">+BH28*1.2</f>
+        <f t="shared" ref="BI28:BK28" si="27">+BH28*1.2</f>
         <v>5027.04</v>
       </c>
       <c r="BJ28" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6032.4479999999994</v>
       </c>
       <c r="BK28" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7238.9375999999993</v>
       </c>
       <c r="BL28" s="2">
-        <f t="shared" ref="BL28:BM28" si="26">+BK28*1.2</f>
+        <f t="shared" ref="BL28:BM28" si="28">+BK28*1.2</f>
         <v>8686.7251199999992</v>
       </c>
       <c r="BM28" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10424.070143999999</v>
       </c>
     </row>
@@ -5302,51 +5392,51 @@
         <v>3</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:F29" si="27">+C27+C28</f>
+        <f t="shared" ref="C29:F29" si="29">+C27+C28</f>
         <v>938</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>970</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>989</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1025</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" ref="G29:I29" si="28">+G27+G28</f>
+        <f t="shared" ref="G29:I29" si="30">+G27+G28</f>
         <v>1028</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" ref="H29" si="29">+H27+H28</f>
+        <f t="shared" ref="H29" si="31">+H27+H28</f>
         <v>1624</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1562</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" ref="J29" si="30">+J27+J28</f>
+        <f t="shared" ref="J29" si="32">+J27+J28</f>
         <v>1650</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29:M29" si="31">+K27+K28</f>
+        <f t="shared" ref="K29:M29" si="33">+K27+K28</f>
         <v>1673</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1771</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1960</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" ref="N29" si="32">+N27+N28</f>
+        <f t="shared" ref="N29" si="34">+N27+N28</f>
         <v>2029</v>
       </c>
       <c r="O29" s="5">
@@ -5354,7 +5444,7 @@
         <v>2210</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" ref="P29" si="33">+P27+P28</f>
+        <f t="shared" ref="P29" si="35">+P27+P28</f>
         <v>2416</v>
       </c>
       <c r="Q29" s="5">
@@ -5374,142 +5464,142 @@
         <v>2662</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" ref="U29:W29" si="34">+U27+U28</f>
+        <f t="shared" ref="U29:W29" si="36">+U27+U28</f>
         <v>2983</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3176</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3497</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" ref="X29:Z29" si="35">+X27+X28</f>
+        <f t="shared" ref="X29:Z29" si="37">+X27+X28</f>
         <v>3932</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4287</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4689</v>
       </c>
       <c r="AA29" s="5">
-        <f t="shared" ref="AA29:AD29" si="36">+AA27+AA28</f>
+        <f t="shared" ref="AA29:AD29" si="38">+AA27+AA28</f>
         <v>4196.3999999999996</v>
       </c>
       <c r="AB29" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4718.3999999999996</v>
       </c>
       <c r="AC29" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5144.3999999999996</v>
       </c>
       <c r="AD29" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5626.8</v>
       </c>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="2">
-        <f t="shared" ref="AH29" si="37">+AH27+AH28</f>
+        <f t="shared" ref="AH29" si="39">+AH27+AH28</f>
         <v>0</v>
       </c>
       <c r="AI29" s="2">
-        <f t="shared" ref="AI29:AJ29" si="38">+AI27+AI28</f>
+        <f t="shared" ref="AI29:AJ29" si="40">+AI27+AI28</f>
         <v>0</v>
       </c>
       <c r="AJ29" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <f t="shared" ref="AK29:AL29" si="39">+AK27+AK28</f>
+        <f t="shared" ref="AK29:AL29" si="41">+AK27+AK28</f>
         <v>376.358</v>
       </c>
       <c r="AL29" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>435.221</v>
       </c>
       <c r="AM29" s="2">
-        <f t="shared" ref="AM29:AR29" si="40">+AM27+AM28</f>
+        <f t="shared" ref="AM29:AR29" si="42">+AM27+AM28</f>
         <v>535.89300000000003</v>
       </c>
       <c r="AN29" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>559.21100000000001</v>
       </c>
       <c r="AO29" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>846.99699999999996</v>
       </c>
       <c r="AP29" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1032.934</v>
       </c>
       <c r="AQ29" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1218.1010000000001</v>
       </c>
       <c r="AR29" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1275.8679999999999</v>
       </c>
       <c r="AS29" s="2">
-        <f t="shared" ref="AS29:BE29" si="41">+AS27+AS28</f>
+        <f t="shared" ref="AS29:BE29" si="43">+AS27+AS28</f>
         <v>1210.3430000000001</v>
       </c>
       <c r="AT29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1408.2180000000001</v>
       </c>
       <c r="AU29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1578.1039999999998</v>
       </c>
       <c r="AV29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1772</v>
       </c>
       <c r="AW29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1840</v>
       </c>
       <c r="AX29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1933</v>
       </c>
       <c r="AY29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2126</v>
       </c>
       <c r="AZ29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2612</v>
       </c>
       <c r="BA29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3367</v>
       </c>
       <c r="BB29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3922</v>
       </c>
       <c r="BC29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5864</v>
       </c>
       <c r="BD29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>7433</v>
       </c>
       <c r="BE29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9779</v>
       </c>
       <c r="BF29" s="2">
@@ -5521,27 +5611,27 @@
         <v>16405</v>
       </c>
       <c r="BH29" s="2">
-        <f t="shared" ref="BH29:BK29" si="42">+BH27+BH28</f>
+        <f t="shared" ref="BH29:BK29" si="44">+BH27+BH28</f>
         <v>19686</v>
       </c>
       <c r="BI29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>23623.200000000001</v>
       </c>
       <c r="BJ29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>28347.84</v>
       </c>
       <c r="BK29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>34017.407999999996</v>
       </c>
       <c r="BL29" s="2">
-        <f t="shared" ref="BL29" si="43">+BL27+BL28</f>
+        <f t="shared" ref="BL29" si="45">+BL27+BL28</f>
         <v>40820.889599999995</v>
       </c>
       <c r="BM29" s="2">
-        <f t="shared" ref="BM29" si="44">+BM27+BM28</f>
+        <f t="shared" ref="BM29" si="46">+BM27+BM28</f>
         <v>48985.06751999999</v>
       </c>
     </row>
@@ -5550,51 +5640,51 @@
         <v>2</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:F30" si="45">+C26-C29</f>
+        <f t="shared" ref="C30:F30" si="47">+C26-C29</f>
         <v>358</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>571</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>927</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>990</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" ref="G30:I30" si="46">+G26-G29</f>
+        <f t="shared" ref="G30:I30" si="48">+G26-G29</f>
         <v>976</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" ref="H30" si="47">+H26-H29</f>
+        <f t="shared" ref="H30" si="49">+H26-H29</f>
         <v>651</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1398</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" ref="J30" si="48">+J26-J29</f>
+        <f t="shared" ref="J30" si="50">+J26-J29</f>
         <v>1507</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" ref="K30:M30" si="49">+K26-K29</f>
+        <f t="shared" ref="K30:M30" si="51">+K26-K29</f>
         <v>1956</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2444</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2671</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" ref="N30" si="50">+N26-N29</f>
+        <f t="shared" ref="N30" si="52">+N26-N29</f>
         <v>2970</v>
       </c>
       <c r="O30" s="5">
@@ -5602,7 +5692,7 @@
         <v>3221</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" ref="P30" si="51">+P26-P29</f>
+        <f t="shared" ref="P30" si="53">+P26-P29</f>
         <v>499</v>
       </c>
       <c r="Q30" s="5">
@@ -5622,174 +5712,174 @@
         <v>6800</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" ref="U30:W30" si="52">+U26-U29</f>
+        <f t="shared" ref="U30:W30" si="54">+U26-U29</f>
         <v>10417</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>13615</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>16909</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" ref="X30:Z30" si="53">+X26-X29</f>
+        <f t="shared" ref="X30:Z30" si="55">+X26-X29</f>
         <v>18642</v>
       </c>
       <c r="Y30" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>21869</v>
       </c>
       <c r="Z30" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>24034</v>
       </c>
       <c r="AA30" s="5">
-        <f t="shared" ref="AA30:AD30" si="54">+AA26-AA29</f>
+        <f t="shared" ref="AA30:AD30" si="56">+AA26-AA29</f>
         <v>29485.865199999993</v>
       </c>
       <c r="AB30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>35561.599999999999</v>
       </c>
       <c r="AC30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>32612.761000000006</v>
       </c>
       <c r="AD30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>39832.273200000003</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="2">
-        <f t="shared" ref="AH30" si="55">+AH26-AH29</f>
+        <f t="shared" ref="AH30" si="57">+AH26-AH29</f>
         <v>232.66200000000001</v>
       </c>
       <c r="AI30" s="2">
-        <f t="shared" ref="AI30:AJ30" si="56">+AI26-AI29</f>
+        <f t="shared" ref="AI30:AJ30" si="58">+AI26-AI29</f>
         <v>462.38499999999999</v>
       </c>
       <c r="AJ30" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>850.23299999999995</v>
       </c>
       <c r="AK30" s="2">
-        <f t="shared" ref="AK30:AL30" si="57">+AK26-AK29</f>
+        <f t="shared" ref="AK30:AL30" si="59">+AK26-AK29</f>
         <v>205.81799999999993</v>
       </c>
       <c r="AL30" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>93.656999999999925</v>
       </c>
       <c r="AM30" s="2">
-        <f t="shared" ref="AM30:AR30" si="58">+AM26-AM29</f>
+        <f t="shared" ref="AM30:AR30" si="60">+AM26-AM29</f>
         <v>113.59299999999985</v>
       </c>
       <c r="AN30" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>350.82199999999989</v>
       </c>
       <c r="AO30" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>453.45200000000034</v>
       </c>
       <c r="AP30" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>836.34599999999978</v>
       </c>
       <c r="AQ30" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>-43.832000000000335</v>
       </c>
       <c r="AR30" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>-98.944999999999709</v>
       </c>
       <c r="AS30" s="2">
-        <f t="shared" ref="AS30:BG30" si="59">+AS26-AS29</f>
+        <f t="shared" ref="AS30:BG30" si="61">+AS26-AS29</f>
         <v>198.74700000000007</v>
       </c>
       <c r="AT30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>648.29899999999975</v>
       </c>
       <c r="AU30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>648.23900000000003</v>
       </c>
       <c r="AV30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>496</v>
       </c>
       <c r="AW30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>759</v>
       </c>
       <c r="AX30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>878</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1937</v>
       </c>
       <c r="AZ30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3210</v>
       </c>
       <c r="BA30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3804</v>
       </c>
       <c r="BB30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>2846</v>
       </c>
       <c r="BC30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>4532</v>
       </c>
       <c r="BD30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10040</v>
       </c>
       <c r="BE30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>5580</v>
       </c>
       <c r="BF30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>32972</v>
       </c>
       <c r="BG30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>81454</v>
       </c>
       <c r="BH30" s="2">
-        <f t="shared" ref="BH30:BK30" si="60">+BH26-BH29</f>
+        <f t="shared" ref="BH30:BK30" si="62">+BH26-BH29</f>
         <v>137492.4994</v>
       </c>
       <c r="BI30" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>218348.96355000001</v>
       </c>
       <c r="BJ30" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>310413.18897000002</v>
       </c>
       <c r="BK30" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>440248.03255800001</v>
       </c>
       <c r="BL30" s="2">
-        <f t="shared" ref="BL30" si="61">+BL26-BL29</f>
+        <f t="shared" ref="BL30" si="63">+BL26-BL29</f>
         <v>575724.18312539998</v>
       </c>
       <c r="BM30" s="2">
-        <f t="shared" ref="BM30" si="62">+BM26-BM29</f>
+        <f t="shared" ref="BM30" si="64">+BM26-BM29</f>
         <v>752523.52702301997</v>
       </c>
     </row>
@@ -5849,7 +5939,7 @@
         <v>12</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" ref="R31" si="63">+BE31-Q31-P31-O31</f>
+        <f t="shared" ref="R31" si="65">+BE31-Q31-P31-O31</f>
         <v>32</v>
       </c>
       <c r="S31" s="5">
@@ -6001,11 +6091,11 @@
         <v>6298.2920000000022</v>
       </c>
       <c r="BL31" s="2">
-        <f t="shared" ref="BL31:BM31" si="64">+BK31*1.1</f>
+        <f t="shared" ref="BL31:BM31" si="66">+BK31*1.1</f>
         <v>6928.1212000000032</v>
       </c>
       <c r="BM31" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>7620.9333200000037</v>
       </c>
     </row>
@@ -6014,87 +6104,87 @@
         <v>10</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" ref="C32:F32" si="65">+C30+C31</f>
+        <f t="shared" ref="C32:F32" si="67">+C30+C31</f>
         <v>389</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>606</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>959</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1016</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32:T32" si="66">+G30+G31</f>
+        <f t="shared" ref="G32:T32" si="68">+G30+G31</f>
         <v>981</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>609</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1348</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1470</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>2044</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>2394</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>2638</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>2865</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3158</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>475</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>613</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1288</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>2209</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>6981</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" ref="U32:AD32" si="67">+U30+U31</f>
+        <f t="shared" ref="U32:AD32" si="69">+U30+U31</f>
         <v>10522</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>14106</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>17279</v>
       </c>
       <c r="X32" s="5">
@@ -6102,158 +6192,158 @@
         <v>19214</v>
       </c>
       <c r="Y32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>22316</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>25217</v>
       </c>
       <c r="AA32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>30668.865199999993</v>
       </c>
       <c r="AB32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>36744.6</v>
       </c>
       <c r="AC32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>33795.761000000006</v>
       </c>
       <c r="AD32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>41015.273200000003</v>
       </c>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="2">
-        <f t="shared" ref="AH32" si="68">+AH30+AH31</f>
+        <f t="shared" ref="AH32" si="70">+AH30+AH31</f>
         <v>255.90800000000002</v>
       </c>
       <c r="AI32" s="2">
-        <f t="shared" ref="AI32:AJ32" si="69">+AI30+AI31</f>
+        <f t="shared" ref="AI32:AJ32" si="71">+AI30+AI31</f>
         <v>485.63099999999997</v>
       </c>
       <c r="AJ32" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>873.47899999999993</v>
       </c>
       <c r="AK32" s="2">
-        <f t="shared" ref="AK32:AL32" si="70">+AK30+AK31</f>
+        <f t="shared" ref="AK32:AL32" si="72">+AK30+AK31</f>
         <v>229.06399999999994</v>
       </c>
       <c r="AL32" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>112.21799999999993</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" ref="AM32:AR32" si="71">+AM30+AM31</f>
+        <f t="shared" ref="AM32:AR32" si="73">+AM30+AM31</f>
         <v>125.01499999999984</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>371.51999999999987</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>495.27200000000033</v>
       </c>
       <c r="AP32" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>900.63499999999976</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>-1.3790000000003317</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>-75.829999999999714</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" ref="AS32:BG32" si="72">+AS30+AS31</f>
+        <f t="shared" ref="AS32:BG32" si="74">+AS30+AS31</f>
         <v>214.16900000000007</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>663.39599999999973</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>662.03899999999999</v>
       </c>
       <c r="AV32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>510</v>
       </c>
       <c r="AW32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>773</v>
       </c>
       <c r="AX32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>874</v>
       </c>
       <c r="AY32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1908</v>
       </c>
       <c r="AZ32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>3196</v>
       </c>
       <c r="BA32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>3896</v>
       </c>
       <c r="BB32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2970</v>
       </c>
       <c r="BC32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>4409</v>
       </c>
       <c r="BD32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>9940</v>
       </c>
       <c r="BE32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>5537</v>
       </c>
       <c r="BF32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>33818</v>
       </c>
       <c r="BG32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>84026</v>
       </c>
       <c r="BH32" s="2">
-        <f t="shared" ref="BH32:BK32" si="73">+BH30+BH31</f>
+        <f t="shared" ref="BH32:BK32" si="75">+BH30+BH31</f>
         <v>142224.4994</v>
       </c>
       <c r="BI32" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>223554.16355000003</v>
       </c>
       <c r="BJ32" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>316138.90896999999</v>
       </c>
       <c r="BK32" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>446546.32455800002</v>
       </c>
       <c r="BL32" s="2">
-        <f t="shared" ref="BL32" si="74">+BL30+BL31</f>
+        <f t="shared" ref="BL32" si="76">+BL30+BL31</f>
         <v>582652.30432540004</v>
       </c>
       <c r="BM32" s="2">
-        <f t="shared" ref="BM32" si="75">+BM30+BM31</f>
+        <f t="shared" ref="BM32" si="77">+BM30+BM31</f>
         <v>760144.46034301992</v>
       </c>
     </row>
@@ -6308,7 +6398,7 @@
         <v>-67</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" ref="R33" si="76">+BE33-Q33-P33-O33</f>
+        <f t="shared" ref="R33" si="78">+BE33-Q33-P33-O33</f>
         <v>61</v>
       </c>
       <c r="S33" s="5">
@@ -6437,23 +6527,23 @@
         <v>21333.674910000002</v>
       </c>
       <c r="BI33" s="2">
-        <f t="shared" ref="BI33:BK33" si="77">+BI32*0.2</f>
+        <f t="shared" ref="BI33:BK33" si="79">+BI32*0.2</f>
         <v>44710.83271000001</v>
       </c>
       <c r="BJ33" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>63227.781794000002</v>
       </c>
       <c r="BK33" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>89309.26491160001</v>
       </c>
       <c r="BL33" s="2">
-        <f t="shared" ref="BL33" si="78">+BL32*0.2</f>
+        <f t="shared" ref="BL33" si="80">+BL32*0.2</f>
         <v>116530.46086508001</v>
       </c>
       <c r="BM33" s="2">
-        <f t="shared" ref="BM33" si="79">+BM32*0.2</f>
+        <f t="shared" ref="BM33" si="81">+BM32*0.2</f>
         <v>152028.89206860398</v>
       </c>
     </row>
@@ -6462,71 +6552,71 @@
         <v>8</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:F34" si="80">+C32-C33</f>
+        <f t="shared" ref="C34:F34" si="82">+C32-C33</f>
         <v>394</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>552</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>899</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>951</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" ref="G34:S34" si="81">+G32-G33</f>
+        <f t="shared" ref="G34:S34" si="83">+G32-G33</f>
         <v>917</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>622</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1336</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1457</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1912</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>2374</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>2464</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>3003</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>2971</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>656</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>680</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1227</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>2043</v>
       </c>
       <c r="T34" s="2">
@@ -6534,7 +6624,7 @@
         <v>6188</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" ref="U34" si="82">U32-U33</f>
+        <f t="shared" ref="U34" si="84">U32-U33</f>
         <v>9243</v>
       </c>
       <c r="V34" s="2">
@@ -6546,543 +6636,543 @@
         <v>14881</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" ref="X34:AD34" si="83">+X32-X33</f>
+        <f t="shared" ref="X34:AD34" si="85">+X32-X33</f>
         <v>16599</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>19309</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>22091</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>26068.535419999993</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>31232.91</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>28726.396850000005</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>34862.982220000005</v>
       </c>
       <c r="AH34" s="2">
-        <f t="shared" ref="AH34" si="84">+AH32-AH33</f>
+        <f t="shared" ref="AH34" si="86">+AH32-AH33</f>
         <v>196.15</v>
       </c>
       <c r="AI34" s="2">
-        <f t="shared" ref="AI34:AJ34" si="85">+AI32-AI33</f>
+        <f t="shared" ref="AI34:AJ34" si="87">+AI32-AI33</f>
         <v>425.87299999999999</v>
       </c>
       <c r="AJ34" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>813.72099999999989</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" ref="AK34:AL34" si="86">+AK32-AK33</f>
+        <f t="shared" ref="AK34:AL34" si="88">+AK32-AK33</f>
         <v>169.30599999999993</v>
       </c>
       <c r="AL34" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>99.963999999999928</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" ref="AM34:AR34" si="87">+AM32-AM33</f>
+        <f t="shared" ref="AM34:AR34" si="89">+AM32-AM33</f>
         <v>99.925999999999846</v>
       </c>
       <c r="AN34" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>315.90799999999984</v>
       </c>
       <c r="AO34" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>448.92200000000031</v>
       </c>
       <c r="AP34" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>796.93899999999974</v>
       </c>
       <c r="AQ34" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>-1.3790000000003317</v>
       </c>
       <c r="AR34" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>-75.829999999999714</v>
       </c>
       <c r="AS34" s="2">
-        <f t="shared" ref="AS34:BG34" si="88">+AS32-AS33</f>
+        <f t="shared" ref="AS34:BG34" si="90">+AS32-AS33</f>
         <v>196.14600000000007</v>
       </c>
       <c r="AT34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>581.08999999999969</v>
       </c>
       <c r="AU34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>562.53599999999994</v>
       </c>
       <c r="AV34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>440</v>
       </c>
       <c r="AW34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>649</v>
       </c>
       <c r="AX34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>745</v>
       </c>
       <c r="AY34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1669</v>
       </c>
       <c r="AZ34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>3047</v>
       </c>
       <c r="BA34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>4141</v>
       </c>
       <c r="BB34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>2796</v>
       </c>
       <c r="BC34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>4332</v>
       </c>
       <c r="BD34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>9752</v>
       </c>
       <c r="BE34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>5537</v>
       </c>
       <c r="BF34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>29759</v>
       </c>
       <c r="BG34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>72880</v>
       </c>
       <c r="BH34" s="2">
-        <f t="shared" ref="BH34:BK34" si="89">+BH32-BH33</f>
+        <f t="shared" ref="BH34:BK34" si="91">+BH32-BH33</f>
         <v>120890.82449</v>
       </c>
       <c r="BI34" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>178843.33084000001</v>
       </c>
       <c r="BJ34" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>252911.12717599998</v>
       </c>
       <c r="BK34" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>357237.05964640004</v>
       </c>
       <c r="BL34" s="2">
-        <f t="shared" ref="BL34" si="90">+BL32-BL33</f>
+        <f t="shared" ref="BL34" si="92">+BL32-BL33</f>
         <v>466121.84346032003</v>
       </c>
       <c r="BM34" s="2">
-        <f t="shared" ref="BM34" si="91">+BM32-BM33</f>
+        <f t="shared" ref="BM34" si="93">+BM32-BM33</f>
         <v>608115.56827441591</v>
       </c>
       <c r="BN34" s="2">
-        <f t="shared" ref="BN34:CS34" si="92">BM34*(1+$BP$41)</f>
+        <f t="shared" ref="BN34:CS34" si="94">BM34*(1+$BP$41)</f>
         <v>614196.72395716002</v>
       </c>
       <c r="BO34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>620338.69119673164</v>
       </c>
       <c r="BP34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>626542.07810869894</v>
       </c>
       <c r="BQ34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>632807.49888978596</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>639135.57387868385</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>645526.92961747071</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>651982.19891364546</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>658502.02090278198</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>665087.04111180978</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>671737.91152292793</v>
       </c>
       <c r="BX34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>678455.29063815717</v>
       </c>
       <c r="BY34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>685239.84354453871</v>
       </c>
       <c r="BZ34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>692092.2419799841</v>
       </c>
       <c r="CA34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>699013.16439978394</v>
       </c>
       <c r="CB34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>706003.2960437818</v>
       </c>
       <c r="CC34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>713063.32900421962</v>
       </c>
       <c r="CD34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>720193.96229426179</v>
       </c>
       <c r="CE34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>727395.90191720438</v>
       </c>
       <c r="CF34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>734669.86093637638</v>
       </c>
       <c r="CG34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>742016.55954574014</v>
       </c>
       <c r="CH34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>749436.72514119756</v>
       </c>
       <c r="CI34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>756931.09239260957</v>
       </c>
       <c r="CJ34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>764500.40331653564</v>
       </c>
       <c r="CK34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>772145.40734970104</v>
       </c>
       <c r="CL34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>779866.86142319802</v>
       </c>
       <c r="CM34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>787665.53003743</v>
       </c>
       <c r="CN34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>795542.18533780426</v>
       </c>
       <c r="CO34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>803497.60719118232</v>
       </c>
       <c r="CP34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>811532.58326309419</v>
       </c>
       <c r="CQ34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>819647.90909572516</v>
       </c>
       <c r="CR34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>827844.38818668236</v>
       </c>
       <c r="CS34" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>836122.83206854924</v>
       </c>
       <c r="CT34" s="2">
-        <f t="shared" ref="CT34:DY34" si="93">CS34*(1+$BP$41)</f>
+        <f t="shared" ref="CT34:DY34" si="95">CS34*(1+$BP$41)</f>
         <v>844484.06038923468</v>
       </c>
       <c r="CU34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>852928.90099312703</v>
       </c>
       <c r="CV34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>861458.19000305829</v>
       </c>
       <c r="CW34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>870072.7719030889</v>
       </c>
       <c r="CX34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>878773.49962211982</v>
       </c>
       <c r="CY34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>887561.23461834108</v>
       </c>
       <c r="CZ34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>896436.84696452448</v>
       </c>
       <c r="DA34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>905401.21543416975</v>
       </c>
       <c r="DB34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>914455.22758851142</v>
       </c>
       <c r="DC34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>923599.77986439655</v>
       </c>
       <c r="DD34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>932835.77766304056</v>
       </c>
       <c r="DE34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>942164.13543967099</v>
       </c>
       <c r="DF34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>951585.7767940677</v>
       </c>
       <c r="DG34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>961101.63456200843</v>
       </c>
       <c r="DH34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>970712.65090762847</v>
       </c>
       <c r="DI34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>980419.7774167048</v>
       </c>
       <c r="DJ34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>990223.97519087186</v>
       </c>
       <c r="DK34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1000126.2149427806</v>
       </c>
       <c r="DL34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1010127.4770922083</v>
       </c>
       <c r="DM34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1020228.7518631305</v>
       </c>
       <c r="DN34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1030431.0393817618</v>
       </c>
       <c r="DO34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1040735.3497755794</v>
       </c>
       <c r="DP34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1051142.7032733352</v>
       </c>
       <c r="DQ34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1061654.1303060686</v>
       </c>
       <c r="DR34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1072270.6716091293</v>
       </c>
       <c r="DS34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1082993.3783252207</v>
       </c>
       <c r="DT34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1093823.3121084729</v>
       </c>
       <c r="DU34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1104761.5452295577</v>
       </c>
       <c r="DV34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1115809.1606818533</v>
       </c>
       <c r="DW34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1126967.2522886719</v>
       </c>
       <c r="DX34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1138236.9248115586</v>
       </c>
       <c r="DY34" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1149619.2940596743</v>
       </c>
       <c r="DZ34" s="2">
-        <f t="shared" ref="DZ34:FE34" si="94">DY34*(1+$BP$41)</f>
+        <f t="shared" ref="DZ34:FE34" si="96">DY34*(1+$BP$41)</f>
         <v>1161115.487000271</v>
       </c>
       <c r="EA34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1172726.6418702737</v>
       </c>
       <c r="EB34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1184453.9082889764</v>
       </c>
       <c r="EC34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1196298.4473718661</v>
       </c>
       <c r="ED34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1208261.4318455847</v>
       </c>
       <c r="EE34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1220344.0461640405</v>
       </c>
       <c r="EF34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1232547.4866256809</v>
       </c>
       <c r="EG34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1244872.9614919377</v>
       </c>
       <c r="EH34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1257321.691106857</v>
       </c>
       <c r="EI34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1269894.9080179257</v>
       </c>
       <c r="EJ34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1282593.8570981049</v>
       </c>
       <c r="EK34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1295419.795669086</v>
       </c>
       <c r="EL34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1308373.9936257768</v>
       </c>
       <c r="EM34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1321457.7335620346</v>
       </c>
       <c r="EN34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1334672.3108976549</v>
       </c>
       <c r="EO34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1348019.0340066315</v>
       </c>
       <c r="EP34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1361499.2243466978</v>
       </c>
       <c r="EQ34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1375114.2165901647</v>
       </c>
       <c r="ER34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1388865.3587560663</v>
       </c>
       <c r="ES34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1402754.0123436269</v>
       </c>
       <c r="ET34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1416781.5524670633</v>
       </c>
       <c r="EU34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1430949.3679917341</v>
       </c>
       <c r="EV34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1445258.8616716515</v>
       </c>
       <c r="EW34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1459711.4502883679</v>
       </c>
       <c r="EX34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1474308.5647912517</v>
       </c>
       <c r="EY34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1489051.6504391641</v>
       </c>
       <c r="EZ34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1503942.1669435557</v>
       </c>
       <c r="FA34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1518981.5886129912</v>
       </c>
       <c r="FB34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1534171.404499121</v>
       </c>
       <c r="FC34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1549513.1185441122</v>
       </c>
       <c r="FD34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1565008.2497295532</v>
       </c>
       <c r="FE34" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1580658.3322268487</v>
       </c>
     </row>
@@ -7091,247 +7181,247 @@
         <v>12</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:F35" si="95">+C34/C36</f>
+        <f t="shared" ref="C35:F35" si="97">+C34/C36</f>
         <v>0.15990259740259741</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0.22402597402597402</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0.36367313915857608</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>0.38470873786407767</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" ref="G35:T35" si="96">+G34/G36</f>
+        <f t="shared" ref="G35:T35" si="98">+G34/G36</f>
         <v>0.36856913183279744</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.24840255591054314</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.53015873015873016</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.57725832012678291</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.75632911392405067</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.93759873617693523</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.97084318360914101</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1.1799607072691551</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1.1710681907765077</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.26073131955484896</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.27210884353741499</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>4.894295971280415E-2</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>8.2048192771084341E-2</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.24757941906057454</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" ref="U35:W35" si="97">+U34/U36</f>
+        <f t="shared" ref="U35:W35" si="99">+U34/U36</f>
         <v>3.7060946271050521</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>0.49337349397590363</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>5.978706307754118</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" ref="X35:AD35" si="98">+X34/X36</f>
+        <f t="shared" ref="X35:AD35" si="100">+X34/X36</f>
         <v>0.66802157115260785</v>
       </c>
       <c r="Y35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>0.77940582869136998</v>
       </c>
       <c r="Z35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>0.8941552659273051</v>
       </c>
       <c r="AA35" s="6">
-        <f t="shared" si="98"/>
-        <v>1.0551499805715208</v>
+        <f t="shared" si="100"/>
+        <v>1.0592229255211081</v>
       </c>
       <c r="AB35" s="6">
-        <f t="shared" si="98"/>
-        <v>1.2641831943657411</v>
+        <f t="shared" si="100"/>
+        <v>1.2690630206005444</v>
       </c>
       <c r="AC35" s="6">
-        <f t="shared" si="98"/>
-        <v>1.1627295737877441</v>
+        <f t="shared" si="100"/>
+        <v>1.1672177826987935</v>
       </c>
       <c r="AD35" s="6">
-        <f t="shared" si="98"/>
-        <v>1.4111139893143367</v>
+        <f t="shared" si="100"/>
+        <v>1.4165609776116372</v>
       </c>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="15">
-        <f t="shared" ref="AH35" si="99">+AH34/AH36</f>
+        <f t="shared" ref="AH35" si="101">+AH34/AH36</f>
         <v>1.1648346427701863</v>
       </c>
       <c r="AI35" s="15">
-        <f t="shared" ref="AI35:AJ35" si="100">+AI34/AI36</f>
+        <f t="shared" ref="AI35:AJ35" si="102">+AI34/AI36</f>
         <v>2.5290421810882875</v>
       </c>
       <c r="AJ35" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>4.8322733130237001</v>
       </c>
       <c r="AK35" s="15">
-        <f t="shared" ref="AK35:AL35" si="101">+AK34/AK36</f>
+        <f t="shared" ref="AK35:AL35" si="103">+AK34/AK36</f>
         <v>1.0054218405753204</v>
       </c>
       <c r="AL35" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>0.57880688101814015</v>
       </c>
       <c r="AM35" s="15">
-        <f t="shared" ref="AM35:AR35" si="102">+AM34/AM36</f>
+        <f t="shared" ref="AM35:AR35" si="104">+AM34/AM36</f>
         <v>0.56596699101711534</v>
       </c>
       <c r="AN35" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>0.62055905867562389</v>
       </c>
       <c r="AO35" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>0.76444003977822339</v>
       </c>
       <c r="AP35" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1.3134942610575999</v>
       </c>
       <c r="AQ35" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>-2.515844896976848E-3</v>
       </c>
       <c r="AR35" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>-0.13797959874375373</v>
       </c>
       <c r="AS35" s="15">
-        <f t="shared" ref="AS35" si="103">+AS34/AS36</f>
+        <f t="shared" ref="AS35" si="105">+AS34/AS36</f>
         <v>0.33319403958660349</v>
       </c>
       <c r="AT35" s="15">
-        <f t="shared" ref="AT35:AU35" si="104">+AT34/AT36</f>
+        <f t="shared" ref="AT35:AU35" si="106">+AT34/AT36</f>
         <v>0.94276012336725723</v>
       </c>
       <c r="AU35" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>0.90011952822354169</v>
       </c>
       <c r="AV35" s="15">
-        <f t="shared" ref="AV35:AW35" si="105">+AV34/AV36</f>
+        <f t="shared" ref="AV35:AW35" si="107">+AV34/AV36</f>
         <v>0.73949579831932777</v>
       </c>
       <c r="AW35" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1.152753108348135</v>
       </c>
       <c r="AX35" s="15">
-        <f t="shared" ref="AX35:AY35" si="106">+AX34/AX36</f>
+        <f t="shared" ref="AX35:AY35" si="108">+AX34/AX36</f>
         <v>1.3093145869947276</v>
       </c>
       <c r="AY35" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>2.5716486902927582</v>
       </c>
       <c r="AZ35" s="15">
-        <f t="shared" ref="AZ35:BA35" si="107">+AZ34/AZ36</f>
+        <f t="shared" ref="AZ35:BA35" si="109">+AZ34/AZ36</f>
         <v>4.8212025316455698</v>
       </c>
       <c r="BA35" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>6.6256000000000004</v>
       </c>
       <c r="BB35" s="15">
-        <f t="shared" ref="BB35:BC35" si="108">+BB34/BB36</f>
+        <f t="shared" ref="BB35:BC35" si="110">+BB34/BB36</f>
         <v>1.1310679611650485</v>
       </c>
       <c r="BC35" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1.7258964143426294</v>
       </c>
       <c r="BD35" s="15">
-        <f t="shared" ref="BD35:BK35" si="109">+BD34/BD36</f>
+        <f t="shared" ref="BD35:BK35" si="111">+BD34/BD36</f>
         <v>3.8469428007889546</v>
       </c>
       <c r="BE35" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0.22086158755484642</v>
       </c>
       <c r="BF35" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>1.1932237369687249</v>
       </c>
       <c r="BG35" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>2.9382357684244478</v>
       </c>
       <c r="BH35" s="15">
-        <f t="shared" si="109"/>
-        <v>4.8931767380393429</v>
+        <f t="shared" si="111"/>
+        <v>4.9120647064320835</v>
       </c>
       <c r="BI35" s="15">
-        <f t="shared" si="109"/>
-        <v>7.2388622537035543</v>
+        <f t="shared" si="111"/>
+        <v>7.2668047149648531</v>
       </c>
       <c r="BJ35" s="15">
-        <f t="shared" si="109"/>
-        <v>10.236830210313283</v>
+        <f t="shared" si="111"/>
+        <v>10.276345015480882</v>
       </c>
       <c r="BK35" s="15">
-        <f t="shared" si="109"/>
-        <v>14.459526416514208</v>
+        <f t="shared" si="111"/>
+        <v>14.51534109326724</v>
       </c>
       <c r="BL35" s="15">
-        <f t="shared" ref="BL35:BM35" si="110">+BL34/BL36</f>
-        <v>18.866746679362098</v>
+        <f t="shared" ref="BL35:BM35" si="112">+BL34/BL36</f>
+        <v>18.939573502105564</v>
       </c>
       <c r="BM35" s="15">
-        <f t="shared" si="110"/>
-        <v>24.614084363086533</v>
+        <f t="shared" si="112"/>
+        <v>24.709096268921048</v>
       </c>
       <c r="BN35" s="15"/>
     </row>
@@ -7421,20 +7511,19 @@
         <v>24706</v>
       </c>
       <c r="AA36" s="2">
-        <f>+Z36</f>
-        <v>24706</v>
+        <v>24611</v>
       </c>
       <c r="AB36" s="2">
         <f>+AA36</f>
-        <v>24706</v>
+        <v>24611</v>
       </c>
       <c r="AC36" s="2">
         <f>+AB36</f>
-        <v>24706</v>
+        <v>24611</v>
       </c>
       <c r="AD36" s="2">
         <f>+AC36</f>
-        <v>24706</v>
+        <v>24611</v>
       </c>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
@@ -7519,27 +7608,27 @@
       </c>
       <c r="BH36" s="2">
         <f>AVERAGE(AA36:AD36)</f>
-        <v>24706</v>
+        <v>24611</v>
       </c>
       <c r="BI36" s="2">
         <f>+BH36</f>
-        <v>24706</v>
+        <v>24611</v>
       </c>
       <c r="BJ36" s="2">
         <f>+BI36</f>
-        <v>24706</v>
+        <v>24611</v>
       </c>
       <c r="BK36" s="2">
         <f>+BJ36</f>
-        <v>24706</v>
+        <v>24611</v>
       </c>
       <c r="BL36" s="2">
-        <f t="shared" ref="BL36:BM36" si="111">+BK36</f>
-        <v>24706</v>
+        <f t="shared" ref="BL36:BM36" si="113">+BK36</f>
+        <v>24611</v>
       </c>
       <c r="BM36" s="2">
-        <f t="shared" si="111"/>
-        <v>24706</v>
+        <f t="shared" si="113"/>
+        <v>24611</v>
       </c>
       <c r="BN36" s="2"/>
     </row>
@@ -7552,67 +7641,67 @@
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="17">
-        <f t="shared" ref="G38" si="112">+G24/C24-1</f>
+        <f t="shared" ref="G38" si="114">+G24/C24-1</f>
         <v>0.38738738738738743</v>
       </c>
       <c r="H38" s="17">
-        <f t="shared" ref="H38" si="113">+H24/D24-1</f>
+        <f t="shared" ref="H38" si="115">+H24/D24-1</f>
         <v>0.49903063202791786</v>
       </c>
       <c r="I38" s="17">
-        <f t="shared" ref="I38" si="114">+I24/E24-1</f>
+        <f t="shared" ref="I38" si="116">+I24/E24-1</f>
         <v>0.56801592568015935</v>
       </c>
       <c r="J38" s="17">
-        <f t="shared" ref="J38" si="115">+J24/F24-1</f>
+        <f t="shared" ref="J38" si="117">+J24/F24-1</f>
         <v>0.61127214170692423</v>
       </c>
       <c r="K38" s="17">
-        <f t="shared" ref="K38:M38" si="116">+K24/G24-1</f>
+        <f t="shared" ref="K38:M38" si="118">+K24/G24-1</f>
         <v>0.83798701298701306</v>
       </c>
       <c r="L38" s="17">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0.68313502327987585</v>
       </c>
       <c r="M38" s="17">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>0.50296233601354201</v>
       </c>
       <c r="N38" s="17">
-        <f t="shared" ref="N38:V38" si="117">+N24/J24-1</f>
+        <f t="shared" ref="N38:V38" si="119">+N24/J24-1</f>
         <v>0.52768338996602049</v>
       </c>
       <c r="O38" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="P38" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="Q38" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="R38" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>-0.20829517205285886</v>
       </c>
       <c r="S38" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>-0.13223938223938225</v>
       </c>
       <c r="T38" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>1.0147673031026252</v>
       </c>
       <c r="U38" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="V38" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>2.6527846636919516</v>
       </c>
       <c r="W38" s="17">
@@ -7620,31 +7709,31 @@
         <v>2.6212458286985538</v>
       </c>
       <c r="X38" s="17">
-        <f t="shared" ref="X38" si="118">+X24/T24-1</f>
+        <f t="shared" ref="X38" si="120">+X24/T24-1</f>
         <v>1.2240319834160065</v>
       </c>
       <c r="Y38" s="17">
-        <f t="shared" ref="Y38" si="119">+Y24/U24-1</f>
+        <f t="shared" ref="Y38" si="121">+Y24/U24-1</f>
         <v>0.93609271523178816</v>
       </c>
       <c r="Z38" s="17">
-        <f t="shared" ref="Z38:AA38" si="120">+Z24/V24-1</f>
+        <f t="shared" ref="Z38:AA38" si="122">+Z24/V24-1</f>
         <v>0.77944170474596208</v>
       </c>
       <c r="AA38" s="17">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>0.7016882967286131</v>
       </c>
       <c r="AB38" s="17">
-        <f t="shared" ref="AB38" si="121">+AB24/X24-1</f>
+        <f t="shared" ref="AB38" si="123">+AB24/X24-1</f>
         <v>0.76431424766977374</v>
       </c>
       <c r="AC38" s="17">
-        <f t="shared" ref="AC38" si="122">+AC24/Y24-1</f>
+        <f t="shared" ref="AC38" si="124">+AC24/Y24-1</f>
         <v>0.41612436577162093</v>
       </c>
       <c r="AD38" s="17">
-        <f t="shared" ref="AD38" si="123">+AD24/Z24-1</f>
+        <f t="shared" ref="AD38" si="125">+AD24/Z24-1</f>
         <v>0.52079962370649113</v>
       </c>
       <c r="AE38" s="17"/>
@@ -7655,91 +7744,91 @@
       <c r="AJ38" s="17"/>
       <c r="AK38" s="17"/>
       <c r="AL38" s="17">
-        <f t="shared" ref="AL38:AN38" si="124">+AL24/AK24-1</f>
+        <f t="shared" ref="AL38:AN38" si="126">+AL24/AK24-1</f>
         <v>-4.5302121504288917E-2</v>
       </c>
       <c r="AM38" s="17">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0.10262953627235039</v>
       </c>
       <c r="AN38" s="17">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>0.18191442628056365</v>
       </c>
       <c r="AO38" s="17">
-        <f t="shared" ref="AO38" si="125">+AO24/AN24-1</f>
+        <f t="shared" ref="AO38" si="127">+AO24/AN24-1</f>
         <v>0.29174045234073365</v>
       </c>
       <c r="AP38" s="17">
-        <f t="shared" ref="AP38" si="126">+AP24/AO24-1</f>
+        <f t="shared" ref="AP38" si="128">+AP24/AO24-1</f>
         <v>0.33534238951032824</v>
       </c>
       <c r="AQ38" s="17">
-        <f t="shared" ref="AQ38" si="127">+AQ24/AP24-1</f>
+        <f t="shared" ref="AQ38" si="129">+AQ24/AP24-1</f>
         <v>-0.16423230661857646</v>
       </c>
       <c r="AR38" s="17">
-        <f t="shared" ref="AR38" si="128">+AR24/AQ24-1</f>
+        <f t="shared" ref="AR38" si="130">+AR24/AQ24-1</f>
         <v>-2.8735197565797566E-2</v>
       </c>
       <c r="AS38" s="17">
-        <f t="shared" ref="AS38" si="129">+AS24/AR24-1</f>
+        <f t="shared" ref="AS38" si="131">+AS24/AR24-1</f>
         <v>6.5193923242380381E-2</v>
       </c>
       <c r="AT38" s="17">
-        <f t="shared" ref="AT38:BM38" si="130">+AT24/AS24-1</f>
+        <f t="shared" ref="AT38:BM38" si="132">+AT24/AS24-1</f>
         <v>0.12830407960468571</v>
       </c>
       <c r="AU38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>7.0593782282331041E-2</v>
       </c>
       <c r="AV38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>-3.5082575203397748E-2</v>
       </c>
       <c r="AW38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.13365617433414045</v>
       </c>
       <c r="AX38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>7.0055531824006811E-2</v>
       </c>
       <c r="AY38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.37924151696606789</v>
       </c>
       <c r="AZ38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.40578871201157751</v>
       </c>
       <c r="BA38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.20609429689108505</v>
       </c>
       <c r="BB38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>-6.8111983612154314E-2</v>
       </c>
       <c r="BC38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.52729437625938824</v>
       </c>
       <c r="BD38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.61397301349325328</v>
       </c>
       <c r="BE38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>2.378032920893336E-3</v>
       </c>
       <c r="BF38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>1.2582941023835117</v>
       </c>
       <c r="BG38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>1.1420340763599355</v>
       </c>
       <c r="BH38" s="17">
@@ -7747,23 +7836,23 @@
         <v>0.58481662413695346</v>
       </c>
       <c r="BI38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.50000000000000022</v>
       </c>
       <c r="BJ38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="BK38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="BL38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BM38" s="17">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BN38" s="17"/>
@@ -7774,79 +7863,79 @@
         <v>72</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" ref="D39" si="131">+D24/C24-1</f>
+        <f t="shared" ref="D39" si="133">+D24/C24-1</f>
         <v>0.16171171171171173</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" ref="E39" si="132">+E24/D24-1</f>
+        <f t="shared" ref="E39" si="134">+E24/D24-1</f>
         <v>0.16867002714230317</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" ref="F39" si="133">+F24/E24-1</f>
+        <f t="shared" ref="F39" si="135">+F24/E24-1</f>
         <v>3.0192435301924281E-2</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" ref="G39:H39" si="134">+G24/F24-1</f>
+        <f t="shared" ref="G39:H39" si="136">+G24/F24-1</f>
         <v>-8.0515297906602612E-3</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>0.2551948051948052</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" ref="I39" si="135">+I24/H24-1</f>
+        <f t="shared" ref="I39" si="137">+I24/H24-1</f>
         <v>0.22245214692188298</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" ref="J39" si="136">+J24/I24-1</f>
+        <f t="shared" ref="J39" si="138">+J24/I24-1</f>
         <v>5.8611933982225972E-2</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" ref="K39:V39" si="137">+K24/J24-1</f>
+        <f t="shared" ref="K39:V39" si="139">+K24/J24-1</f>
         <v>0.13152108734759138</v>
       </c>
       <c r="L39" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0.14944356120826718</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>9.1593668357153879E-2</v>
       </c>
       <c r="N39" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>7.6024215120371608E-2</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>8.4390945963626951E-2</v>
       </c>
       <c r="P39" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>-0.19111969111969107</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>-0.11530429594272074</v>
       </c>
       <c r="R39" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>2.0232675771370667E-2</v>
       </c>
       <c r="S39" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0.1885638737398776</v>
       </c>
       <c r="T39" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0.87805895439377091</v>
       </c>
       <c r="U39" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0.34152661582882948</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0.21981236203090515</v>
       </c>
       <c r="W39" s="10">
@@ -7854,31 +7943,31 @@
         <v>0.17830158801972584</v>
       </c>
       <c r="X39" s="10">
-        <f t="shared" ref="X39" si="138">+X24/W24-1</f>
+        <f t="shared" ref="X39" si="140">+X24/W24-1</f>
         <v>0.1534326524343419</v>
       </c>
       <c r="Y39" s="10">
-        <f t="shared" ref="Y39" si="139">+Y24/X24-1</f>
+        <f t="shared" ref="Y39" si="141">+Y24/X24-1</f>
         <v>0.16784287616511318</v>
       </c>
       <c r="Z39" s="10">
-        <f t="shared" ref="Z39" si="140">+Z24/Y24-1</f>
+        <f t="shared" ref="Z39" si="142">+Z24/Y24-1</f>
         <v>0.12111624194743742</v>
       </c>
       <c r="AA39" s="10">
-        <f t="shared" ref="AA39" si="141">+AA24/Z24-1</f>
+        <f t="shared" ref="AA39" si="143">+AA24/Z24-1</f>
         <v>0.12681523480206436</v>
       </c>
       <c r="AB39" s="10">
-        <f t="shared" ref="AB39" si="142">+AB24/AA24-1</f>
+        <f t="shared" ref="AB39" si="144">+AB24/AA24-1</f>
         <v>0.19588156440262217</v>
       </c>
       <c r="AC39" s="10">
-        <f t="shared" ref="AC39" si="143">+AC24/AB24-1</f>
+        <f t="shared" ref="AC39" si="145">+AC24/AB24-1</f>
         <v>-6.2632547169811259E-2</v>
       </c>
       <c r="AD39" s="10">
-        <f t="shared" ref="AD39" si="144">+AD24/AC24-1</f>
+        <f t="shared" ref="AD39" si="146">+AD24/AC24-1</f>
         <v>0.20398546914054272</v>
       </c>
       <c r="AE39" s="10"/>
@@ -7906,75 +7995,75 @@
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10">
-        <f t="shared" ref="E40" si="145">+E22/D22-1</f>
+        <f t="shared" ref="E40" si="147">+E22/D22-1</f>
         <v>0.10839694656488552</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" ref="F40" si="146">+F22/E22-1</f>
+        <f t="shared" ref="F40" si="148">+F22/E22-1</f>
         <v>0.33333333333333326</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" ref="G40" si="147">+G22/F22-1</f>
+        <f t="shared" ref="G40" si="149">+G22/F22-1</f>
         <v>0.17871900826446274</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" ref="H40" si="148">+H22/G22-1</f>
+        <f t="shared" ref="H40" si="150">+H22/G22-1</f>
         <v>0.5354951796669587</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" ref="I40" si="149">+I22/H22-1</f>
+        <f t="shared" ref="I40" si="151">+I22/H22-1</f>
         <v>8.4474885844748826E-2</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" ref="J40" si="150">+J22/I22-1</f>
+        <f t="shared" ref="J40" si="152">+J22/I22-1</f>
         <v>1.5789473684211242E-3</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" ref="K40" si="151">+K22/J22-1</f>
+        <f t="shared" ref="K40" si="153">+K22/J22-1</f>
         <v>7.7246452968996238E-2</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" ref="L40:V40" si="152">+L22/K22-1</f>
+        <f t="shared" ref="L40:V40" si="154">+L22/K22-1</f>
         <v>0.15414634146341455</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>0.24091293322062546</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>0.11035422343324242</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>0.15030674846625769</v>
       </c>
       <c r="P40" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>1.4933333333333243E-2</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>7.0940620073567384E-3</v>
       </c>
       <c r="R40" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>-5.5570049569527824E-2</v>
       </c>
       <c r="S40" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>0.18342541436464099</v>
       </c>
       <c r="T40" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>1.4096638655462184</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>0.40598663179308336</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>0.2680170869505305</v>
       </c>
       <c r="W40" s="10">
@@ -7982,32 +8071,32 @@
         <v>0.22598348185177142</v>
       </c>
       <c r="X40" s="10">
-        <f t="shared" ref="X40" si="153">+X22/W22-1</f>
+        <f t="shared" ref="X40" si="155">+X22/W22-1</f>
         <v>0.16438416877188322</v>
       </c>
       <c r="Y40" s="10">
-        <f t="shared" ref="Y40" si="154">+Y22/X22-1</f>
+        <f t="shared" ref="Y40" si="156">+Y22/X22-1</f>
         <v>0.17124695493300846</v>
       </c>
       <c r="Z40" s="10">
-        <f t="shared" ref="Z40" si="155">+Z22/Y22-1</f>
+        <f t="shared" ref="Z40" si="157">+Z22/Y22-1</f>
         <v>0.15628351369796234</v>
       </c>
       <c r="AA40" s="10">
-        <f t="shared" ref="AA40" si="156">+AA22/Z22-1</f>
-        <v>-1</v>
-      </c>
-      <c r="AB40" s="10" t="e">
-        <f t="shared" ref="AB40" si="157">+AB22/AA22-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC40" s="10" t="e">
-        <f t="shared" ref="AC40" si="158">+AC22/AB22-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD40" s="10" t="e">
-        <f t="shared" ref="AD40" si="159">+AD22/AC22-1</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="AA40" si="158">+AA22/Z22-1</f>
+        <v>0.14146711635750431</v>
+      </c>
+      <c r="AB40" s="10">
+        <f t="shared" ref="AB40" si="159">+AB22/AA22-1</f>
+        <v>0.22907217814809866</v>
+      </c>
+      <c r="AC40" s="10">
+        <f t="shared" ref="AC40" si="160">+AC22/AB22-1</f>
+        <v>-0.13697592794409907</v>
+      </c>
+      <c r="AD40" s="10">
+        <f t="shared" ref="AD40" si="161">+AD22/AC22-1</f>
+        <v>0.23887519324781703</v>
       </c>
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
@@ -8033,246 +8122,246 @@
         <v>5</v>
       </c>
       <c r="C41" s="7">
-        <f t="shared" ref="C41:F41" si="160">C26/C24</f>
+        <f t="shared" ref="C41:F41" si="162">C26/C24</f>
         <v>0.58378378378378382</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0.59751841799146954</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0.63570006635700071</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0.64895330112721417</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" ref="G41:H41" si="161">G26/G24</f>
+        <f t="shared" ref="G41:H41" si="163">G26/G24</f>
         <v>0.6506493506493507</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>0.58846352819451631</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" ref="I41:U41" si="162">I26/I24</f>
+        <f t="shared" ref="I41:U41" si="164">I26/I24</f>
         <v>0.62632247143461706</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.6310213871676994</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.6410528175234057</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.64776394651913327</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.65197803744896521</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.65406254088708626</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.65528474903474898</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.43481503579952269</v>
       </c>
       <c r="Q41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.53566009104704093</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.63344901669145592</v>
       </c>
       <c r="S41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.64627363737486099</v>
       </c>
       <c r="T41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.7005256533649219</v>
       </c>
       <c r="U41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.73951434878587197</v>
       </c>
       <c r="V41" s="7">
-        <f t="shared" ref="V41:X41" si="163">V26/V24</f>
+        <f t="shared" ref="V41:X41" si="165">V26/V24</f>
         <v>0.75967063294575399</v>
       </c>
       <c r="W41" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0.78352019659038552</v>
       </c>
       <c r="X41" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>0.75146471371504664</v>
       </c>
       <c r="Y41" s="7">
-        <f t="shared" ref="Y41:AD41" si="164">Y26/Y24</f>
+        <f t="shared" ref="Y41:AD41" si="166">Y26/Y24</f>
         <v>0.74556752750698363</v>
       </c>
       <c r="Z41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0.73028908494571709</v>
       </c>
       <c r="AA41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0.7599999999999999</v>
       </c>
       <c r="AB41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0.76</v>
       </c>
       <c r="AC41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0.76</v>
       </c>
       <c r="AD41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0.76</v>
       </c>
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="7">
-        <f t="shared" ref="AH41" si="165">AH26/AH24</f>
+        <f t="shared" ref="AH41" si="167">AH26/AH24</f>
         <v>0.62125205270957662</v>
       </c>
       <c r="AI41" s="7">
-        <f t="shared" ref="AI41:AJ41" si="166">AI26/AI24</f>
+        <f t="shared" ref="AI41:AJ41" si="168">AI26/AI24</f>
         <v>0.62886935848892367</v>
       </c>
       <c r="AJ41" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>0.6208477580029077</v>
       </c>
       <c r="AK41" s="7">
-        <f t="shared" ref="AK41:AR41" si="167">AK26/AK24</f>
+        <f t="shared" ref="AK41:AR41" si="169">AK26/AK24</f>
         <v>0.30489246362952205</v>
       </c>
       <c r="AL41" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>0.29012285066197824</v>
       </c>
       <c r="AM41" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>0.3231220581950644</v>
       </c>
       <c r="AN41" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>0.38306098404377342</v>
       </c>
       <c r="AO41" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>0.42376866830402143</v>
       </c>
       <c r="AP41" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>0.45616004451103742</v>
       </c>
       <c r="AQ41" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>0.34286637785672341</v>
       </c>
       <c r="AR41" s="7">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>0.35380804432359475</v>
       </c>
       <c r="AS41" s="7">
-        <f t="shared" ref="AS41" si="168">AS26/AS24</f>
+        <f t="shared" ref="AS41" si="170">AS26/AS24</f>
         <v>0.39767629636591112</v>
       </c>
       <c r="AT41" s="7">
-        <f t="shared" ref="AT41:AU41" si="169">AT26/AT24</f>
+        <f t="shared" ref="AT41:AU41" si="171">AT26/AT24</f>
         <v>0.51439544964519135</v>
       </c>
       <c r="AU41" s="7">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0.52015427464260089</v>
       </c>
       <c r="AV41" s="7">
-        <f t="shared" ref="AV41:BM41" si="170">AV26/AV24</f>
+        <f t="shared" ref="AV41:BM41" si="172">AV26/AV24</f>
         <v>0.54915254237288136</v>
       </c>
       <c r="AW41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.55510465612985904</v>
       </c>
       <c r="AX41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.56107784431137719</v>
       </c>
       <c r="AY41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.58798842257597683</v>
       </c>
       <c r="AZ41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.59934115709285563</v>
       </c>
       <c r="BA41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.61206896551724133</v>
       </c>
       <c r="BB41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.61989375343469499</v>
       </c>
       <c r="BC41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.62344827586206897</v>
       </c>
       <c r="BD41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.64924014416824583</v>
       </c>
       <c r="BE41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.56933684249545913</v>
       </c>
       <c r="BF41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.72717573290436954</v>
       </c>
       <c r="BG41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.74989463359310937</v>
       </c>
       <c r="BH41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.76</v>
       </c>
       <c r="BI41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.78</v>
       </c>
       <c r="BJ41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.78</v>
       </c>
       <c r="BK41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.78</v>
       </c>
       <c r="BL41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.77999999999999992</v>
       </c>
       <c r="BM41" s="7">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.78</v>
       </c>
       <c r="BO41" t="s">
@@ -8287,83 +8376,83 @@
         <v>24</v>
       </c>
       <c r="C42" s="7">
-        <f t="shared" ref="C42:F42" si="171">C22/C24</f>
+        <f t="shared" ref="C42:F42" si="173">C22/C24</f>
         <v>0.28558558558558561</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.25397440868553706</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.24087591240875914</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0.3117552334943639</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" ref="G42:I42" si="172">G22/G24</f>
+        <f t="shared" ref="G42:I42" si="174">G22/G24</f>
         <v>0.37045454545454548</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>0.45318158303155714</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>0.40203131612357174</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" ref="J42:O42" si="173">J22/J24</f>
+        <f t="shared" ref="J42:O42" si="175">J22/J24</f>
         <v>0.38037177693383972</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.36212683271506801</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.36360842169970803</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.41334647332113189</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.42653408347507521</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.45246138996138996</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" ref="P42:U42" si="174">P22/P24</f>
+        <f t="shared" ref="P42:U42" si="176">P22/P24</f>
         <v>0.56772076372315039</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.64626538526386779</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.59824822343414308</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.59566184649610676</v>
       </c>
       <c r="T42" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.76427037832235134</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.80099337748344368</v>
       </c>
       <c r="V42" s="7">
-        <f t="shared" ref="V42:AD42" si="175">V22/V24</f>
+        <f t="shared" ref="V42:AD42" si="177">V22/V24</f>
         <v>0.8326471519703208</v>
       </c>
       <c r="W42" s="7">
@@ -8371,32 +8460,32 @@
         <v>0.86634157579480875</v>
       </c>
       <c r="X42" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.87456724367509986</v>
       </c>
       <c r="Y42" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.87711646998460746</v>
       </c>
       <c r="Z42" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.90462993567415018</v>
       </c>
       <c r="AA42" s="7">
-        <f t="shared" si="175"/>
-        <v>0</v>
+        <f t="shared" si="177"/>
+        <v>0.91639276090017852</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="175"/>
-        <v>0</v>
+        <f t="shared" si="177"/>
+        <v>0.94182641509433951</v>
       </c>
       <c r="AC42" s="7">
-        <f t="shared" si="175"/>
-        <v>0</v>
+        <f t="shared" si="177"/>
+        <v>0.86712939036915382</v>
       </c>
       <c r="AD42" s="7">
-        <f t="shared" si="175"/>
-        <v>0</v>
+        <f t="shared" si="177"/>
+        <v>0.89225752187134333</v>
       </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
@@ -8429,7 +8518,7 @@
       </c>
       <c r="BP43" s="2">
         <f>NPV(BP42,BH34:FE34)+Main!K5-Main!K6</f>
-        <v>5984881.1934512733</v>
+        <v>5995361.1934512733</v>
       </c>
     </row>
     <row r="44" spans="2:161" x14ac:dyDescent="0.25">
@@ -8458,66 +8547,69 @@
         <v>5704</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" ref="L44:M44" si="176">+L45-L58</f>
+        <f t="shared" ref="L44:M44" si="178">+L45-L58</f>
         <v>7711</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>8354</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" ref="N44:V44" si="177">+N45-N58</f>
+        <f t="shared" ref="N44:V44" si="179">+N45-N58</f>
         <v>10262</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>9391</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>6088</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>2193</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>2343</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>4366</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>6318</v>
       </c>
       <c r="U44" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>8575</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>16275</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" ref="W44:Z44" si="178">+W45-W58</f>
+        <f t="shared" ref="W44:AA44" si="180">+W45-W58</f>
         <v>21728</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>26339</v>
       </c>
       <c r="Y44" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>30025</v>
       </c>
       <c r="Z44" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>34747</v>
       </c>
-      <c r="AA44" s="2"/>
+      <c r="AA44" s="2">
+        <f t="shared" si="180"/>
+        <v>45227</v>
+      </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
@@ -8564,7 +8656,7 @@
       </c>
       <c r="BP44" s="15">
         <f>BP43/Main!K3</f>
-        <v>242.24403762046762</v>
+        <v>243.60494061400485</v>
       </c>
     </row>
     <row r="45" spans="2:161" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8654,6 +8746,10 @@
       <c r="Z45" s="2">
         <v>43210</v>
       </c>
+      <c r="AA45" s="2">
+        <f>15234+38457</f>
+        <v>53691</v>
+      </c>
       <c r="BC45" s="2">
         <f>+J45</f>
         <v>11561</v>
@@ -8743,24 +8839,27 @@
       <c r="Z46" s="2">
         <v>23065</v>
       </c>
+      <c r="AA46" s="2">
+        <v>22132</v>
+      </c>
       <c r="BC46" s="2">
-        <f t="shared" ref="BC46:BC53" si="179">+J46</f>
+        <f t="shared" ref="BC46:BC53" si="181">+J46</f>
         <v>2429</v>
       </c>
       <c r="BD46" s="2">
-        <f t="shared" ref="BD46:BD53" si="180">+N46</f>
+        <f t="shared" ref="BD46:BD53" si="182">+N46</f>
         <v>4650</v>
       </c>
       <c r="BE46" s="2">
-        <f t="shared" ref="BE46:BE53" si="181">+R46</f>
+        <f t="shared" ref="BE46:BE53" si="183">+R46</f>
         <v>3827</v>
       </c>
       <c r="BF46" s="2">
-        <f t="shared" ref="BF46:BF53" si="182">+V46</f>
+        <f t="shared" ref="BF46:BF53" si="184">+V46</f>
         <v>9999</v>
       </c>
       <c r="BG46" s="2">
-        <f t="shared" ref="BG46:BG53" si="183">+Z46</f>
+        <f t="shared" ref="BG46:BG53" si="185">+Z46</f>
         <v>23065</v>
       </c>
     </row>
@@ -8832,24 +8931,27 @@
       <c r="Z47" s="2">
         <v>10080</v>
       </c>
+      <c r="AA47" s="2">
+        <v>11333</v>
+      </c>
       <c r="BC47" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>1826</v>
       </c>
       <c r="BD47" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>2605</v>
       </c>
       <c r="BE47" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>5159</v>
       </c>
       <c r="BF47" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>5282</v>
       </c>
       <c r="BG47" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>10080</v>
       </c>
     </row>
@@ -8921,24 +9023,27 @@
       <c r="Z48" s="2">
         <v>3771</v>
       </c>
+      <c r="AA48" s="2">
+        <v>2779</v>
+      </c>
       <c r="BC48" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>239</v>
       </c>
       <c r="BD48" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>366</v>
       </c>
       <c r="BE48" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>791</v>
       </c>
       <c r="BF48" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>3080</v>
       </c>
       <c r="BG48" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>3771</v>
       </c>
     </row>
@@ -9010,24 +9115,27 @@
       <c r="Z49" s="2">
         <v>6283</v>
       </c>
+      <c r="AA49" s="2">
+        <v>7136</v>
+      </c>
       <c r="BC49" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>2149</v>
       </c>
       <c r="BD49" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>2778</v>
       </c>
       <c r="BE49" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>3807</v>
       </c>
       <c r="BF49" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>3914</v>
       </c>
       <c r="BG49" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>6283</v>
       </c>
     </row>
@@ -9099,24 +9207,27 @@
       <c r="Z50" s="2">
         <v>1793</v>
       </c>
+      <c r="AA50" s="2">
+        <v>1810</v>
+      </c>
       <c r="BC50" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>707</v>
       </c>
       <c r="BD50" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>829</v>
       </c>
       <c r="BE50" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>1038</v>
       </c>
       <c r="BF50" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>1346</v>
       </c>
       <c r="BG50" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>1793</v>
       </c>
     </row>
@@ -9208,24 +9319,28 @@
         <f>5188+807</f>
         <v>5995</v>
       </c>
+      <c r="AA51" s="2">
+        <f>5498+769</f>
+        <v>6267</v>
+      </c>
       <c r="BC51" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>6930</v>
       </c>
       <c r="BD51" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>6688</v>
       </c>
       <c r="BE51" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>6048</v>
       </c>
       <c r="BF51" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>5542</v>
       </c>
       <c r="BG51" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>5995</v>
       </c>
     </row>
@@ -9297,24 +9412,27 @@
       <c r="Z52" s="2">
         <v>10979</v>
       </c>
+      <c r="AA52" s="2">
+        <v>13318</v>
+      </c>
       <c r="BC52" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>806</v>
       </c>
       <c r="BD52" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>1222</v>
       </c>
       <c r="BE52" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>3396</v>
       </c>
       <c r="BF52" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>6081</v>
       </c>
       <c r="BG52" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>10979</v>
       </c>
     </row>
@@ -9386,24 +9504,27 @@
       <c r="Z53" s="2">
         <v>6425</v>
       </c>
+      <c r="AA53" s="2">
+        <v>6788</v>
+      </c>
       <c r="BC53" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>2144</v>
       </c>
       <c r="BD53" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>3841</v>
       </c>
       <c r="BE53" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>3820</v>
       </c>
       <c r="BF53" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>4500</v>
       </c>
       <c r="BG53" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>6425</v>
       </c>
     </row>
@@ -9415,84 +9536,88 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="G54" s="2">
-        <f t="shared" ref="G54:M54" si="184">SUM(G45:G53)</f>
+        <f t="shared" ref="G54:M54" si="186">SUM(G45:G53)</f>
         <v>23254</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>25180</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>26881</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>28791</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>30796</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>38650</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>40632</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" ref="N54:Q54" si="185">SUM(N45:N53)</f>
+        <f t="shared" ref="N54:Q54" si="187">SUM(N45:N53)</f>
         <v>44187</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>45212</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>43476</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>40488</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" ref="R54:S54" si="186">SUM(R45:R53)</f>
+        <f t="shared" ref="R54:S54" si="188">SUM(R45:R53)</f>
         <v>41182</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>44460</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" ref="T54:Z54" si="187">SUM(T45:T53)</f>
+        <f t="shared" ref="T54:AA54" si="189">SUM(T45:T53)</f>
         <v>49555</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>54148</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>65728</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>77072</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>85227</v>
       </c>
       <c r="Y54" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>96013</v>
       </c>
       <c r="Z54" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>111601</v>
+      </c>
+      <c r="AA54" s="2">
+        <f t="shared" si="189"/>
+        <v>125254</v>
       </c>
       <c r="BC54" s="2">
         <f>SUM(BC45:BC53)</f>
@@ -9601,24 +9726,27 @@
       <c r="Z56" s="2">
         <v>6310</v>
       </c>
+      <c r="AA56" s="2">
+        <v>7331</v>
+      </c>
       <c r="BC56" s="2">
-        <f t="shared" ref="BC56:BC61" si="188">+J56</f>
+        <f t="shared" ref="BC56:BC61" si="190">+J56</f>
         <v>1201</v>
       </c>
       <c r="BD56" s="2">
-        <f t="shared" ref="BD56:BD61" si="189">+N56</f>
+        <f t="shared" ref="BD56:BD61" si="191">+N56</f>
         <v>1783</v>
       </c>
       <c r="BE56" s="2">
-        <f t="shared" ref="BE56:BE61" si="190">+R56</f>
+        <f t="shared" ref="BE56:BE61" si="192">+R56</f>
         <v>1193</v>
       </c>
       <c r="BF56" s="2">
-        <f t="shared" ref="BF56:BF61" si="191">+V56</f>
+        <f t="shared" ref="BF56:BF61" si="193">+V56</f>
         <v>2699</v>
       </c>
       <c r="BG56" s="2">
-        <f t="shared" ref="BG56:BG61" si="192">+Z56</f>
+        <f t="shared" ref="BG56:BG61" si="194">+Z56</f>
         <v>6310</v>
       </c>
     </row>
@@ -9690,24 +9818,27 @@
       <c r="Z57" s="2">
         <v>11737</v>
       </c>
+      <c r="AA57" s="2">
+        <v>19211</v>
+      </c>
       <c r="BC57" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>1725</v>
       </c>
       <c r="BD57" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>2552</v>
       </c>
       <c r="BE57" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>4120</v>
       </c>
       <c r="BF57" s="2">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>6682</v>
       </c>
       <c r="BG57" s="2">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>11737</v>
       </c>
     </row>
@@ -9791,24 +9922,27 @@
       <c r="Z58" s="2">
         <v>8463</v>
       </c>
+      <c r="AA58" s="2">
+        <v>8464</v>
+      </c>
       <c r="BC58" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>6963</v>
       </c>
       <c r="BD58" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>10946</v>
       </c>
       <c r="BE58" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>10953</v>
       </c>
       <c r="BF58" s="2">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>9709</v>
       </c>
       <c r="BG58" s="2">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>8463</v>
       </c>
     </row>
@@ -9881,24 +10015,27 @@
       <c r="Z59" s="2">
         <v>1519</v>
       </c>
+      <c r="AA59" s="2">
+        <v>1521</v>
+      </c>
       <c r="BC59" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>634</v>
       </c>
       <c r="BD59" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>741</v>
       </c>
       <c r="BE59" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>902</v>
       </c>
       <c r="BF59" s="2">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>1119</v>
       </c>
       <c r="BG59" s="2">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>1519</v>
       </c>
     </row>
@@ -9970,24 +10107,27 @@
       <c r="Z60" s="2">
         <v>4245</v>
       </c>
+      <c r="AA60" s="2">
+        <v>4884</v>
+      </c>
       <c r="BC60" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>1375</v>
       </c>
       <c r="BD60" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>1553</v>
       </c>
       <c r="BE60" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>1913</v>
       </c>
       <c r="BF60" s="2">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>2541</v>
       </c>
       <c r="BG60" s="2">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>4245</v>
       </c>
     </row>
@@ -10059,24 +10199,27 @@
       <c r="Z61" s="2">
         <v>79327</v>
       </c>
+      <c r="AA61" s="2">
+        <v>83843</v>
+      </c>
       <c r="BC61" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>16893</v>
       </c>
       <c r="BD61" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>26612</v>
       </c>
       <c r="BE61" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>22101</v>
       </c>
       <c r="BF61" s="2">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>42978</v>
       </c>
       <c r="BG61" s="2">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>79327</v>
       </c>
     </row>
@@ -10088,88 +10231,92 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="2">
-        <f t="shared" ref="F62" si="193">SUM(F56:F61)</f>
+        <f t="shared" ref="F62" si="195">SUM(F56:F61)</f>
         <v>0</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" ref="G62:M62" si="194">SUM(G56:G61)</f>
+        <f t="shared" ref="G62:M62" si="196">SUM(G56:G61)</f>
         <v>23254</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>25180</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>26881</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>28791</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>30796</v>
       </c>
       <c r="L62" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>38650</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>40632</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" ref="N62:Q62" si="195">SUM(N56:N61)</f>
+        <f t="shared" ref="N62:Q62" si="197">SUM(N56:N61)</f>
         <v>44187</v>
       </c>
       <c r="O62" s="2">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>45212</v>
       </c>
       <c r="P62" s="2">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>43476</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>40488</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" ref="R62:S62" si="196">SUM(R56:R61)</f>
+        <f t="shared" ref="R62:S62" si="198">SUM(R56:R61)</f>
         <v>41182</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>44460</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" ref="T62:Z62" si="197">SUM(T56:T61)</f>
+        <f t="shared" ref="T62:AA62" si="199">SUM(T56:T61)</f>
         <v>49555</v>
       </c>
       <c r="U62" s="2">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>54148</v>
       </c>
       <c r="V62" s="2">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>65728</v>
       </c>
       <c r="W62" s="2">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>77072</v>
       </c>
       <c r="X62" s="2">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>85227</v>
       </c>
       <c r="Y62" s="2">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>96013</v>
       </c>
       <c r="Z62" s="2">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>111601</v>
+      </c>
+      <c r="AA62" s="2">
+        <f t="shared" si="199"/>
+        <v>125254</v>
       </c>
       <c r="BC62" s="2">
         <f>SUM(BC56:BC61)</f>
@@ -10205,88 +10352,92 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <f t="shared" ref="F64:K64" si="198">F34</f>
+        <f t="shared" ref="F64:K64" si="200">F34</f>
         <v>951</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>917</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>622</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>1336</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>1457</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>1912</v>
       </c>
       <c r="L64" s="5">
-        <f t="shared" ref="L64:R64" si="199">L34</f>
+        <f t="shared" ref="L64:R64" si="201">L34</f>
         <v>2374</v>
       </c>
       <c r="M64" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>2464</v>
       </c>
       <c r="N64" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>3003</v>
       </c>
       <c r="O64" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>2971</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>656</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>680</v>
       </c>
       <c r="R64" s="5">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>1227</v>
       </c>
       <c r="S64" s="5">
-        <f t="shared" ref="S64:Z64" si="200">S34</f>
+        <f t="shared" ref="S64:AA64" si="202">S34</f>
         <v>2043</v>
       </c>
       <c r="T64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>6188</v>
       </c>
       <c r="U64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>9243</v>
       </c>
       <c r="V64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>12285</v>
       </c>
       <c r="W64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>14881</v>
       </c>
       <c r="X64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>16599</v>
       </c>
       <c r="Y64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>19309</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>22091</v>
+      </c>
+      <c r="AA64" s="5">
+        <f t="shared" si="202"/>
+        <v>26068.535419999993</v>
       </c>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
@@ -10414,6 +10565,9 @@
       <c r="Z65" s="2">
         <v>22091</v>
       </c>
+      <c r="AA65" s="2">
+        <v>18775</v>
+      </c>
       <c r="AF65" s="5"/>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
@@ -10440,7 +10594,7 @@
         <v>4332</v>
       </c>
       <c r="BD65" s="2">
-        <f t="shared" ref="BD65:BD72" si="201">SUM(K65:N65)</f>
+        <f t="shared" ref="BD65:BD72" si="203">SUM(K65:N65)</f>
         <v>9752</v>
       </c>
       <c r="BE65" s="2">
@@ -10474,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" ref="J66:J72" si="202">+BC66-I66-H66-G66</f>
+        <f t="shared" ref="J66:J72" si="204">+BC66-I66-H66-G66</f>
         <v>0</v>
       </c>
       <c r="K66" s="5">
@@ -10537,19 +10691,19 @@
         <v>0</v>
       </c>
       <c r="BD66" s="2">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0</v>
       </c>
       <c r="BE66" s="2">
-        <f t="shared" ref="BE66:BE72" si="203">SUM(O66:R66)</f>
+        <f t="shared" ref="BE66:BE72" si="205">SUM(O66:R66)</f>
         <v>1353</v>
       </c>
       <c r="BF66" s="2">
-        <f t="shared" ref="BF66:BF72" si="204">SUM(S66:V66)</f>
+        <f t="shared" ref="BF66:BF72" si="206">SUM(S66:V66)</f>
         <v>0</v>
       </c>
       <c r="BG66" s="2">
-        <f t="shared" ref="BG66:BG72" si="205">SUM(W66:Z66)</f>
+        <f t="shared" ref="BG66:BG72" si="207">SUM(W66:Z66)</f>
         <v>0</v>
       </c>
     </row>
@@ -10573,7 +10727,7 @@
         <v>383</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>416</v>
       </c>
       <c r="K67" s="5">
@@ -10635,6 +10789,9 @@
       <c r="Z67" s="2">
         <v>1321</v>
       </c>
+      <c r="AA67" s="2">
+        <v>1474</v>
+      </c>
       <c r="BA67" s="2">
         <v>557</v>
       </c>
@@ -10645,19 +10802,19 @@
         <v>1397</v>
       </c>
       <c r="BD67" s="2">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>2004</v>
       </c>
       <c r="BE67" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>2709</v>
       </c>
       <c r="BF67" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>3549</v>
       </c>
       <c r="BG67" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>4737</v>
       </c>
     </row>
@@ -10681,7 +10838,7 @@
         <v>299</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>288</v>
       </c>
       <c r="K68" s="5">
@@ -10743,6 +10900,9 @@
       <c r="Z68" s="2">
         <v>543</v>
       </c>
+      <c r="AA68" s="2">
+        <v>611</v>
+      </c>
       <c r="BA68" s="2">
         <v>262</v>
       </c>
@@ -10753,19 +10913,19 @@
         <v>1098</v>
       </c>
       <c r="BD68" s="2">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>1174</v>
       </c>
       <c r="BE68" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>1544</v>
       </c>
       <c r="BF68" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>1508</v>
       </c>
       <c r="BG68" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>1864</v>
       </c>
     </row>
@@ -10787,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="K69" s="5">
@@ -10849,6 +11009,9 @@
       <c r="Z69" s="2">
         <v>-727</v>
       </c>
+      <c r="AA69" s="2">
+        <v>175</v>
+      </c>
       <c r="BA69" s="2">
         <v>0</v>
       </c>
@@ -10859,19 +11022,19 @@
         <v>0</v>
       </c>
       <c r="BD69" s="2">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>-100</v>
       </c>
       <c r="BE69" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>45</v>
       </c>
       <c r="BF69" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>-238</v>
       </c>
       <c r="BG69" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>-1029</v>
       </c>
     </row>
@@ -10895,7 +11058,7 @@
         <v>-53</v>
       </c>
       <c r="J70" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>-165</v>
       </c>
       <c r="K70" s="5">
@@ -10957,6 +11120,9 @@
       <c r="Z70" s="2">
         <v>-598</v>
       </c>
+      <c r="AA70" s="2">
+        <v>-2177</v>
+      </c>
       <c r="BA70" s="2">
         <v>-315</v>
       </c>
@@ -10967,19 +11133,19 @@
         <v>-282</v>
       </c>
       <c r="BD70" s="2">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>-406</v>
       </c>
       <c r="BE70" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>-2164</v>
       </c>
       <c r="BF70" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>-2489</v>
       </c>
       <c r="BG70" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>-4477</v>
       </c>
     </row>
@@ -11003,7 +11169,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>-18</v>
       </c>
       <c r="K71" s="5">
@@ -11065,6 +11231,9 @@
       <c r="Z71" s="2">
         <v>-138</v>
       </c>
+      <c r="AA71" s="2">
+        <v>-98</v>
+      </c>
       <c r="BA71" s="2">
         <v>-45</v>
       </c>
@@ -11075,19 +11244,19 @@
         <v>-20</v>
       </c>
       <c r="BD71" s="2">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>47</v>
       </c>
       <c r="BE71" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>-7</v>
       </c>
       <c r="BF71" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>-278</v>
       </c>
       <c r="BG71" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>-503</v>
       </c>
     </row>
@@ -11112,7 +11281,7 @@
         <v>-689</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>89</v>
       </c>
       <c r="K72" s="5">
@@ -11179,6 +11348,10 @@
         <f>-5370-2424+331+867+360+372</f>
         <v>-5864</v>
       </c>
+      <c r="AA72" s="2">
+        <f>933-1258+560+941+7128+350</f>
+        <v>8654</v>
+      </c>
       <c r="BA72" s="2">
         <f>-149-776-55-135+256+2</f>
         <v>-857</v>
@@ -11192,19 +11365,19 @@
         <v>-703</v>
       </c>
       <c r="BD72" s="2">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>-3363</v>
       </c>
       <c r="BE72" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>-2207</v>
       </c>
       <c r="BF72" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>-3722</v>
       </c>
       <c r="BG72" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>-9384</v>
       </c>
     </row>
@@ -11217,84 +11390,88 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5">
-        <f t="shared" ref="G73:Z73" si="206">SUM(G65:G72)</f>
+        <f t="shared" ref="G73:AA73" si="208">SUM(G65:G72)</f>
         <v>909</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>1567</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>1279</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>2067</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>1874</v>
       </c>
       <c r="L73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>2682</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>1519</v>
       </c>
       <c r="N73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>3033</v>
       </c>
       <c r="O73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>1731</v>
       </c>
       <c r="P73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>1270</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>392</v>
       </c>
       <c r="R73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>2248</v>
       </c>
       <c r="S73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>2911</v>
       </c>
       <c r="T73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>6348</v>
       </c>
       <c r="U73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>7332</v>
       </c>
       <c r="V73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>11499</v>
       </c>
       <c r="W73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>15345</v>
       </c>
       <c r="X73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>14488</v>
       </c>
       <c r="Y73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>17627</v>
       </c>
       <c r="Z73" s="5">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>16628</v>
+      </c>
+      <c r="AA73" s="5">
+        <f t="shared" si="208"/>
+        <v>27414</v>
       </c>
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
@@ -11313,31 +11490,31 @@
       <c r="AT73" s="5"/>
       <c r="AU73" s="5"/>
       <c r="BA73" s="2">
-        <f t="shared" ref="BA73:BG73" si="207">SUM(BA65:BA72)</f>
+        <f t="shared" ref="BA73:BG73" si="209">SUM(BA65:BA72)</f>
         <v>3743</v>
       </c>
       <c r="BB73" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>4761</v>
       </c>
       <c r="BC73" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>5822</v>
       </c>
       <c r="BD73" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>9108</v>
       </c>
       <c r="BE73" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>5641</v>
       </c>
       <c r="BF73" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>28090</v>
       </c>
       <c r="BG73" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>64088</v>
       </c>
     </row>
@@ -11368,7 +11545,7 @@
         <v>-175</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" ref="J75:J77" si="208">+BC75-I75-H75-G75</f>
+        <f t="shared" ref="J75:J77" si="210">+BC75-I75-H75-G75</f>
         <v>-2846</v>
       </c>
       <c r="K75" s="5">
@@ -11435,6 +11612,10 @@
         <f>1710+177-7010-478+22</f>
         <v>-5579</v>
       </c>
+      <c r="AA75" s="2">
+        <f>3122+467-6546-649</f>
+        <v>-3606</v>
+      </c>
       <c r="BA75" s="2">
         <f>7232+428-11148-9</f>
         <v>-3497</v>
@@ -11452,15 +11633,15 @@
         <v>-8591</v>
       </c>
       <c r="BE75" s="2">
-        <f t="shared" ref="BE75:BE77" si="209">SUM(O75:R75)</f>
+        <f t="shared" ref="BE75:BE77" si="211">SUM(O75:R75)</f>
         <v>9257</v>
       </c>
       <c r="BF75" s="2">
-        <f t="shared" ref="BF75:BF80" si="210">SUM(S75:V75)</f>
+        <f t="shared" ref="BF75:BF80" si="212">SUM(S75:V75)</f>
         <v>-9414</v>
       </c>
       <c r="BG75" s="2">
-        <f t="shared" ref="BG75:BG80" si="211">SUM(W75:Z75)</f>
+        <f t="shared" ref="BG75:BG80" si="213">SUM(W75:Z75)</f>
         <v>-16178</v>
       </c>
     </row>
@@ -11484,7 +11665,7 @@
         <v>-473</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>-283</v>
       </c>
       <c r="K76" s="5">
@@ -11546,6 +11727,9 @@
       <c r="Z76" s="2">
         <v>-1077</v>
       </c>
+      <c r="AA76" s="2">
+        <v>-1227</v>
+      </c>
       <c r="BA76" s="2">
         <v>-600</v>
       </c>
@@ -11560,15 +11744,15 @@
         <v>-976</v>
       </c>
       <c r="BE76" s="2">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>-1833</v>
       </c>
       <c r="BF76" s="2">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>-1069</v>
       </c>
       <c r="BG76" s="2">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>-3236</v>
       </c>
     </row>
@@ -11592,7 +11776,7 @@
         <v>-1353</v>
       </c>
       <c r="J77" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>0</v>
       </c>
       <c r="K77" s="5">
@@ -11653,6 +11837,9 @@
       <c r="Z77" s="2">
         <v>-542</v>
       </c>
+      <c r="AA77" s="2">
+        <v>-383</v>
+      </c>
       <c r="BA77" s="2">
         <v>0</v>
       </c>
@@ -11667,15 +11854,15 @@
         <v>-263</v>
       </c>
       <c r="BE77" s="2">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>-49</v>
       </c>
       <c r="BF77" s="2">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>-83</v>
       </c>
       <c r="BG77" s="2">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>-1007</v>
       </c>
     </row>
@@ -11688,84 +11875,88 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5">
-        <f t="shared" ref="G78:N78" si="212">SUM(G75:G77)</f>
+        <f t="shared" ref="G78:N78" si="214">SUM(G75:G77)</f>
         <v>-1055</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-13490</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-2001</v>
       </c>
       <c r="J78" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-3129</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-1272</v>
       </c>
       <c r="L78" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-2533</v>
       </c>
       <c r="M78" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-4439</v>
       </c>
       <c r="N78" s="5">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>-1586</v>
       </c>
       <c r="O78" s="5">
-        <f t="shared" ref="O78:S78" si="213">SUM(O75:O77)</f>
+        <f t="shared" ref="O78:S78" si="215">SUM(O75:O77)</f>
         <v>2612</v>
       </c>
       <c r="P78" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>1618</v>
       </c>
       <c r="Q78" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>3148</v>
       </c>
       <c r="R78" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>-3</v>
       </c>
       <c r="S78" s="5">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>-841</v>
       </c>
       <c r="T78" s="5">
-        <f t="shared" ref="T78:Z78" si="214">SUM(T75:T77)</f>
+        <f t="shared" ref="T78:AA78" si="216">SUM(T75:T77)</f>
         <v>-446</v>
       </c>
       <c r="U78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>-3170</v>
       </c>
       <c r="V78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>-6109</v>
       </c>
       <c r="W78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>-5693</v>
       </c>
       <c r="X78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>-3184</v>
       </c>
       <c r="Y78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>-4346</v>
       </c>
       <c r="Z78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>-7198</v>
+      </c>
+      <c r="AA78" s="5">
+        <f t="shared" si="216"/>
+        <v>-5216</v>
       </c>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
@@ -11784,11 +11975,11 @@
       <c r="AT78" s="5"/>
       <c r="AU78" s="5"/>
       <c r="BA78" s="2">
-        <f t="shared" ref="BA78:BB78" si="215">SUM(BA75:BA77)</f>
+        <f t="shared" ref="BA78:BB78" si="217">SUM(BA75:BA77)</f>
         <v>-4097</v>
       </c>
       <c r="BB78" s="2">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>6145</v>
       </c>
       <c r="BC78" s="2">
@@ -11835,7 +12026,7 @@
         <v>96</v>
       </c>
       <c r="J80" s="5">
-        <f t="shared" ref="J80:J85" si="216">+BC80-I80-H80-G80</f>
+        <f t="shared" ref="J80:J85" si="218">+BC80-I80-H80-G80</f>
         <v>4</v>
       </c>
       <c r="K80" s="5">
@@ -11898,6 +12089,9 @@
       <c r="Z80" s="2">
         <v>0</v>
       </c>
+      <c r="AA80" s="2">
+        <v>370</v>
+      </c>
       <c r="BA80" s="2">
         <v>137</v>
       </c>
@@ -11908,19 +12102,19 @@
         <v>194</v>
       </c>
       <c r="BD80" s="2">
-        <f t="shared" ref="BD80:BD85" si="217">SUM(K80:N80)</f>
+        <f t="shared" ref="BD80:BD85" si="219">SUM(K80:N80)</f>
         <v>281</v>
       </c>
       <c r="BE80" s="2">
-        <f t="shared" ref="BE80:BE85" si="218">SUM(O80:R80)</f>
+        <f t="shared" ref="BE80:BE85" si="220">SUM(O80:R80)</f>
         <v>355</v>
       </c>
       <c r="BF80" s="2">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>403</v>
       </c>
       <c r="BG80" s="2">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>489</v>
       </c>
     </row>
@@ -11944,7 +12138,7 @@
         <v>-298</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>-226</v>
       </c>
       <c r="K81" s="5">
@@ -12006,6 +12200,9 @@
       <c r="Z81" s="2">
         <v>-1861</v>
       </c>
+      <c r="AA81" s="2">
+        <v>-1532</v>
+      </c>
       <c r="BA81" s="2">
         <v>-1032</v>
       </c>
@@ -12016,19 +12213,19 @@
         <v>-942</v>
       </c>
       <c r="BD81" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>-1904</v>
       </c>
       <c r="BE81" s="2">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>-1475</v>
       </c>
       <c r="BF81" s="2">
-        <f t="shared" ref="BF81:BF85" si="219">SUM(S81:V81)</f>
+        <f t="shared" ref="BF81:BF85" si="221">SUM(S81:V81)</f>
         <v>-2783</v>
       </c>
       <c r="BG81" s="2">
-        <f t="shared" ref="BG81:BG85" si="220">SUM(W81:Z81)</f>
+        <f t="shared" ref="BG81:BG85" si="222">SUM(W81:Z81)</f>
         <v>-6929</v>
       </c>
     </row>
@@ -12052,7 +12249,7 @@
         <v>-99</v>
       </c>
       <c r="J82" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>-99</v>
       </c>
       <c r="K82" s="5">
@@ -12114,6 +12311,9 @@
       <c r="Z82" s="2">
         <v>-245</v>
       </c>
+      <c r="AA82" s="2">
+        <v>-244</v>
+      </c>
       <c r="BA82" s="2">
         <v>-371</v>
       </c>
@@ -12124,19 +12324,19 @@
         <v>-395</v>
       </c>
       <c r="BD82" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>-399</v>
       </c>
       <c r="BE82" s="2">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>-398</v>
       </c>
       <c r="BF82" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>-395</v>
       </c>
       <c r="BG82" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-834</v>
       </c>
     </row>
@@ -12158,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="K83" s="5">
@@ -12217,6 +12417,9 @@
       <c r="Z83" s="2">
         <v>-7810</v>
       </c>
+      <c r="AA83" s="2">
+        <v>-14095</v>
+      </c>
       <c r="BA83" s="2">
         <v>-1579</v>
       </c>
@@ -12227,19 +12430,19 @@
         <v>0</v>
       </c>
       <c r="BD83" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="BE83" s="2">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>-10039</v>
       </c>
       <c r="BF83" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>-9533</v>
       </c>
       <c r="BG83" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-33705</v>
       </c>
     </row>
@@ -12264,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>-4</v>
       </c>
       <c r="K84" s="5">
@@ -12325,6 +12528,9 @@
       <c r="Z84" s="2">
         <v>0</v>
       </c>
+      <c r="AA84" s="2">
+        <v>0</v>
+      </c>
       <c r="BA84" s="2">
         <f>-16-5</f>
         <v>-21</v>
@@ -12337,19 +12543,19 @@
         <v>4964</v>
       </c>
       <c r="BD84" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>3977</v>
       </c>
       <c r="BE84" s="2">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>-2</v>
       </c>
       <c r="BF84" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>-1250</v>
       </c>
       <c r="BG84" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-1250</v>
       </c>
     </row>
@@ -12371,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>-17</v>
       </c>
       <c r="K85" s="5">
@@ -12434,6 +12640,9 @@
       <c r="Z85" s="2">
         <v>-32</v>
       </c>
+      <c r="AA85" s="2">
+        <v>-52</v>
+      </c>
       <c r="BA85" s="2">
         <v>0</v>
       </c>
@@ -12444,19 +12653,19 @@
         <v>-17</v>
       </c>
       <c r="BD85" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>-90</v>
       </c>
       <c r="BE85" s="2">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>-58</v>
       </c>
       <c r="BF85" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>-74</v>
       </c>
       <c r="BG85" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-129</v>
       </c>
     </row>
@@ -12469,84 +12678,88 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5">
-        <f t="shared" ref="G86:N86" si="221">SUM(G80:G85)</f>
+        <f t="shared" ref="G86:N86" si="223">SUM(G80:G85)</f>
         <v>4744</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>-297</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>-301</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>-342</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>-471</v>
       </c>
       <c r="L86" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>4501</v>
       </c>
       <c r="M86" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>-1420</v>
       </c>
       <c r="N86" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>-745</v>
       </c>
       <c r="O86" s="5">
-        <f t="shared" ref="O86:S86" si="222">SUM(O80:O85)</f>
+        <f t="shared" ref="O86:S86" si="224">SUM(O80:O85)</f>
         <v>-2446</v>
       </c>
       <c r="P86" s="5">
-        <f t="shared" si="222"/>
+        <f t="shared" si="224"/>
         <v>-3762</v>
       </c>
       <c r="Q86" s="5">
-        <f t="shared" si="222"/>
+        <f t="shared" si="224"/>
         <v>-3753</v>
       </c>
       <c r="R86" s="5">
-        <f t="shared" si="222"/>
+        <f t="shared" si="224"/>
         <v>-1656</v>
       </c>
       <c r="S86" s="5">
-        <f t="shared" si="222"/>
+        <f t="shared" si="224"/>
         <v>-380</v>
       </c>
       <c r="T86" s="5">
-        <f t="shared" ref="T86:Z86" si="223">SUM(T80:T85)</f>
+        <f t="shared" ref="T86:AA86" si="225">SUM(T80:T85)</f>
         <v>-5099</v>
       </c>
       <c r="U86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-4524</v>
       </c>
       <c r="V86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-3629</v>
       </c>
       <c r="W86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-9345</v>
       </c>
       <c r="X86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-10320</v>
       </c>
       <c r="Y86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-12745</v>
       </c>
       <c r="Z86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-9948</v>
+      </c>
+      <c r="AA86" s="5">
+        <f t="shared" si="225"/>
+        <v>-15553</v>
       </c>
       <c r="AF86" s="5"/>
       <c r="AG86" s="5"/>
@@ -12565,31 +12778,31 @@
       <c r="AT86" s="5"/>
       <c r="AU86" s="5"/>
       <c r="BA86" s="2">
-        <f t="shared" ref="BA86:BG86" si="224">SUM(BA80:BA85)</f>
+        <f t="shared" ref="BA86:BG86" si="226">SUM(BA80:BA85)</f>
         <v>-2866</v>
       </c>
       <c r="BB86" s="2">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>-792</v>
       </c>
       <c r="BC86" s="2">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>3804</v>
       </c>
       <c r="BD86" s="2">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>1865</v>
       </c>
       <c r="BE86" s="2">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>-11617</v>
       </c>
       <c r="BF86" s="2">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>-13632</v>
       </c>
       <c r="BG86" s="2">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>-42358</v>
       </c>
     </row>
@@ -12599,84 +12812,88 @@
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5">
-        <f t="shared" ref="G87:N87" si="225">G86+G78+G73</f>
+        <f t="shared" ref="G87:N87" si="227">G86+G78+G73</f>
         <v>4598</v>
       </c>
       <c r="H87" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-12220</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-1023</v>
       </c>
       <c r="J87" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-1404</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>131</v>
       </c>
       <c r="L87" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>4650</v>
       </c>
       <c r="M87" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-4340</v>
       </c>
       <c r="N87" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>702</v>
       </c>
       <c r="O87" s="5">
-        <f t="shared" ref="O87:R87" si="226">O86+O78+O73</f>
+        <f t="shared" ref="O87:R87" si="228">O86+O78+O73</f>
         <v>1897</v>
       </c>
       <c r="P87" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>-874</v>
       </c>
       <c r="Q87" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>-213</v>
       </c>
       <c r="R87" s="5">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>589</v>
       </c>
       <c r="S87" s="5">
-        <f t="shared" ref="S87:Z87" si="227">S86+S78+S73</f>
+        <f t="shared" ref="S87:AA87" si="229">S86+S78+S73</f>
         <v>1690</v>
       </c>
       <c r="T87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>803</v>
       </c>
       <c r="U87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>-362</v>
       </c>
       <c r="V87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>1761</v>
       </c>
       <c r="W87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>307</v>
       </c>
       <c r="X87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>984</v>
       </c>
       <c r="Y87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>536</v>
       </c>
       <c r="Z87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>-518</v>
+      </c>
+      <c r="AA87" s="5">
+        <f t="shared" si="229"/>
+        <v>6645</v>
       </c>
       <c r="AF87" s="5"/>
       <c r="AG87" s="5"/>
@@ -12696,19 +12913,19 @@
       <c r="AU87" s="5"/>
       <c r="BA87" s="5"/>
       <c r="BB87" s="5">
-        <f t="shared" ref="BB87:BE87" si="228">BB86+BB78+BB73</f>
+        <f t="shared" ref="BB87:BE87" si="230">BB86+BB78+BB73</f>
         <v>10114</v>
       </c>
       <c r="BC87" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>-10049</v>
       </c>
       <c r="BD87" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>1143</v>
       </c>
       <c r="BE87" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>1399</v>
       </c>
       <c r="BF87" s="5">
@@ -12726,84 +12943,88 @@
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5">
-        <f t="shared" ref="G89:N89" si="229">(G46/G24)*90</f>
+        <f t="shared" ref="G89:N89" si="231">(G46/G24)*90</f>
         <v>55.72402597402597</v>
       </c>
       <c r="H89" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>48.51526125193999</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>48.484976724502751</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>43.695782530481715</v>
       </c>
       <c r="K89" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>48.076311605723369</v>
       </c>
       <c r="L89" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>49.598893499308438</v>
       </c>
       <c r="M89" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>50.099957764324934</v>
       </c>
       <c r="N89" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>54.755985869423007</v>
       </c>
       <c r="O89" s="5">
-        <f t="shared" ref="O89:Z89" si="230">(O46/O24)*90</f>
+        <f t="shared" ref="O89:AA89" si="232">(O46/O24)*90</f>
         <v>59.051640926640928</v>
       </c>
       <c r="P89" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>71.379773269689736</v>
       </c>
       <c r="Q89" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>74.476479514415786</v>
       </c>
       <c r="R89" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>56.921170054536439</v>
       </c>
       <c r="S89" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>51.056729699666299</v>
       </c>
       <c r="T89" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>47.082253646257499</v>
       </c>
       <c r="U89" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>41.269867549668874</v>
       </c>
       <c r="V89" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>40.714382662986928</v>
       </c>
       <c r="W89" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>42.729611426816156</v>
       </c>
       <c r="X89" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>42.339547270306255</v>
       </c>
       <c r="Y89" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>45.389943560800411</v>
       </c>
       <c r="Z89" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>52.778978413973704</v>
+      </c>
+      <c r="AA89" s="5">
+        <f t="shared" si="232"/>
+        <v>44.944388122684813</v>
       </c>
       <c r="AF89" s="5"/>
       <c r="AG89" s="5"/>
@@ -13109,7 +13330,7 @@
       <c r="AU97" s="5"/>
       <c r="AV97" s="5"/>
       <c r="BG97" s="2">
-        <f t="shared" ref="BG97:BG115" si="231">SUM(W97:Z97)</f>
+        <f t="shared" ref="BG97:BG115" si="233">SUM(W97:Z97)</f>
         <v>100</v>
       </c>
     </row>
@@ -13178,7 +13399,7 @@
       <c r="AU98" s="5"/>
       <c r="AV98" s="5"/>
       <c r="BG98" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>200</v>
       </c>
     </row>
@@ -13247,7 +13468,7 @@
       <c r="AU99" s="5"/>
       <c r="AV99" s="5"/>
       <c r="BG99" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>200</v>
       </c>
     </row>
@@ -13316,7 +13537,7 @@
       <c r="AU100" s="5"/>
       <c r="AV100" s="5"/>
       <c r="BG100" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>100</v>
       </c>
     </row>
@@ -13385,7 +13606,7 @@
       <c r="AU101" s="5"/>
       <c r="AV101" s="5"/>
       <c r="BG101" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>400</v>
       </c>
     </row>
@@ -13454,7 +13675,7 @@
       <c r="AU102" s="5"/>
       <c r="AV102" s="5"/>
       <c r="BG102" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>0</v>
       </c>
     </row>
@@ -13523,7 +13744,7 @@
       <c r="AU103" s="5"/>
       <c r="AV103" s="5"/>
       <c r="BG103" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>400</v>
       </c>
     </row>
@@ -13592,7 +13813,7 @@
       <c r="AU104" s="5"/>
       <c r="AV104" s="5"/>
       <c r="BG104" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>100</v>
       </c>
     </row>
@@ -13661,7 +13882,7 @@
       <c r="AU105" s="5"/>
       <c r="AV105" s="5"/>
       <c r="BG105" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>100</v>
       </c>
     </row>
@@ -13730,7 +13951,7 @@
       <c r="AU106" s="5"/>
       <c r="AV106" s="5"/>
       <c r="BG106" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>210</v>
       </c>
     </row>
@@ -13799,7 +14020,7 @@
       <c r="AU107" s="5"/>
       <c r="AV107" s="5"/>
       <c r="BG107" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>90</v>
       </c>
     </row>
@@ -13868,7 +14089,7 @@
       <c r="AU108" s="5"/>
       <c r="AV108" s="5"/>
       <c r="BG108" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>0</v>
       </c>
     </row>
@@ -13937,7 +14158,7 @@
       <c r="AU109" s="5"/>
       <c r="AV109" s="5"/>
       <c r="BG109" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>95</v>
       </c>
     </row>
@@ -14006,7 +14227,7 @@
       <c r="AU110" s="5"/>
       <c r="AV110" s="5"/>
       <c r="BG110" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>85</v>
       </c>
     </row>
@@ -14075,7 +14296,7 @@
       <c r="AU111" s="5"/>
       <c r="AV111" s="5"/>
       <c r="BG111" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>0</v>
       </c>
     </row>
@@ -14144,7 +14365,7 @@
       <c r="AU112" s="5"/>
       <c r="AV112" s="5"/>
       <c r="BG112" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>190</v>
       </c>
     </row>
@@ -14213,7 +14434,7 @@
       <c r="AU113" s="5"/>
       <c r="AV113" s="5"/>
       <c r="BG113" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>160</v>
       </c>
     </row>
@@ -14282,7 +14503,7 @@
       <c r="AU114" s="5"/>
       <c r="AV114" s="5"/>
       <c r="BG114" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>35</v>
       </c>
     </row>
@@ -14351,7 +14572,7 @@
       <c r="AU115" s="5"/>
       <c r="AV115" s="5"/>
       <c r="BG115" s="2">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>35</v>
       </c>
     </row>
@@ -14385,23 +14606,23 @@
         <v>360</v>
       </c>
       <c r="V116" s="9">
-        <f t="shared" ref="V116:Z116" si="232">SUM(V96:V115)</f>
+        <f t="shared" ref="V116:Z116" si="234">SUM(V96:V115)</f>
         <v>460</v>
       </c>
       <c r="W116" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>570</v>
       </c>
       <c r="X116" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>690</v>
       </c>
       <c r="Y116" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>735</v>
       </c>
       <c r="Z116" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>735</v>
       </c>
       <c r="AA116" s="9"/>
@@ -14668,27 +14889,27 @@
         <v>1</v>
       </c>
       <c r="S123" s="2">
-        <f t="shared" ref="S123:X123" si="233">S24</f>
+        <f t="shared" ref="S123:X123" si="235">S24</f>
         <v>7192</v>
       </c>
       <c r="T123" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>13507</v>
       </c>
       <c r="U123" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>18120</v>
       </c>
       <c r="V123" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>22103</v>
       </c>
       <c r="W123" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>26044</v>
       </c>
       <c r="X123" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="235"/>
         <v>30040</v>
       </c>
       <c r="Y123" s="2">
@@ -14725,31 +14946,31 @@
         <v>4284</v>
       </c>
       <c r="T124" s="5">
-        <f t="shared" ref="T124:Z124" si="234">T22</f>
+        <f t="shared" ref="T124:Z124" si="236">T22</f>
         <v>10323</v>
       </c>
       <c r="U124" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="236"/>
         <v>14514</v>
       </c>
       <c r="V124" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="236"/>
         <v>18404</v>
       </c>
       <c r="W124" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="236"/>
         <v>22563</v>
       </c>
       <c r="X124" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="236"/>
         <v>26272</v>
       </c>
       <c r="Y124" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="236"/>
         <v>30771</v>
       </c>
       <c r="Z124" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="236"/>
         <v>35580</v>
       </c>
       <c r="AA124" s="5">
@@ -14794,47 +15015,47 @@
         <v>36225.571428571428</v>
       </c>
       <c r="T125" s="8">
-        <f t="shared" ref="T125:AD125" si="235">SUM(T126:T134)</f>
+        <f t="shared" ref="T125:AD125" si="237">SUM(T126:T134)</f>
         <v>39615.238095238092</v>
       </c>
       <c r="U125" s="8">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>41142.238095238092</v>
       </c>
       <c r="V125" s="8">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>46004.238095238092</v>
       </c>
       <c r="W125" s="8">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>50584.571428571428</v>
       </c>
       <c r="X125" s="8">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>62022.571428571428</v>
       </c>
       <c r="Y125" s="8">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>68837</v>
       </c>
       <c r="Z125" s="8">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>82314</v>
       </c>
       <c r="AA125" s="8">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>88637.54</v>
       </c>
       <c r="AB125" s="8">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>93883.200000000012</v>
       </c>
       <c r="AC125" s="8">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>99360.950000000012</v>
       </c>
       <c r="AD125" s="8">
-        <f t="shared" si="235"/>
+        <f t="shared" si="237"/>
         <v>119629.14000000001</v>
       </c>
     </row>
@@ -15270,35 +15491,35 @@
         <v>0.11825900409734245</v>
       </c>
       <c r="T136" s="7">
-        <f t="shared" ref="T136:AA136" si="236">+T124/T125</f>
+        <f t="shared" ref="T136:AA136" si="238">+T124/T125</f>
         <v>0.26058154630252911</v>
       </c>
       <c r="U136" s="7">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>0.35277614130768176</v>
       </c>
       <c r="V136" s="7">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>0.40005009890393123</v>
       </c>
       <c r="W136" s="7">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>0.44604509562486588</v>
       </c>
       <c r="X136" s="7">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>0.42358772612735457</v>
       </c>
       <c r="Y136" s="7">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>0.44701250780830076</v>
       </c>
       <c r="Z136" s="7">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>0.43224724834171585</v>
       </c>
       <c r="AA136" s="7">
-        <f t="shared" si="236"/>
+        <f t="shared" si="238"/>
         <v>0.45</v>
       </c>
     </row>
@@ -15311,35 +15532,35 @@
         <v>0.19853379025865708</v>
       </c>
       <c r="T137" s="7">
-        <f t="shared" ref="T137:AA137" si="237">+T123/T125</f>
+        <f t="shared" ref="T137:AA137" si="239">+T123/T125</f>
         <v>0.34095465910183675</v>
       </c>
       <c r="U137" s="7">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>0.44042329340603509</v>
       </c>
       <c r="V137" s="7">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>0.48045573440956274</v>
       </c>
       <c r="W137" s="7">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>0.51486054471719211</v>
       </c>
       <c r="X137" s="7">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>0.48433980256035825</v>
       </c>
       <c r="Y137" s="7">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>0.50963871173932629</v>
       </c>
       <c r="Z137" s="7">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>0.47781665330320477</v>
       </c>
       <c r="AA137" s="7">
-        <f t="shared" si="237"/>
+        <f t="shared" si="239"/>
         <v>0.5</v>
       </c>
     </row>
@@ -15446,15 +15667,15 @@
         <v>4349</v>
       </c>
       <c r="BE140" s="2">
-        <f t="shared" ref="BE140:BE144" si="238">SUM(O140:R140)</f>
+        <f t="shared" ref="BE140:BE144" si="240">SUM(O140:R140)</f>
         <v>8292</v>
       </c>
       <c r="BF140" s="2">
-        <f t="shared" ref="BF140:BF144" si="239">SUM(S140:V140)</f>
+        <f t="shared" ref="BF140:BF144" si="241">SUM(S140:V140)</f>
         <v>26966</v>
       </c>
       <c r="BG140" s="2">
-        <f t="shared" ref="BG140:BG144" si="240">SUM(W140:Z140)</f>
+        <f t="shared" ref="BG140:BG144" si="242">SUM(W140:Z140)</f>
         <v>61257</v>
       </c>
     </row>
@@ -15558,15 +15779,15 @@
         <v>8544</v>
       </c>
       <c r="BE141" s="2">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>6986</v>
       </c>
       <c r="BF141" s="2">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>13405</v>
       </c>
       <c r="BG141" s="2">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>20573</v>
       </c>
     </row>
@@ -15620,11 +15841,11 @@
         <v>9017</v>
       </c>
       <c r="BF142" s="2">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>6831</v>
       </c>
       <c r="BG142" s="2">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>23684</v>
       </c>
     </row>
@@ -15728,15 +15949,15 @@
         <v>7111</v>
       </c>
       <c r="BE143" s="2">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>5785</v>
       </c>
       <c r="BF143" s="2">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>10306</v>
       </c>
       <c r="BG143" s="2">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>17108</v>
       </c>
     </row>
@@ -15850,15 +16071,15 @@
         <v>6910</v>
       </c>
       <c r="BE144" s="2">
-        <f t="shared" si="238"/>
+        <f t="shared" si="240"/>
         <v>5911</v>
       </c>
       <c r="BF144" s="2">
-        <f t="shared" si="239"/>
+        <f t="shared" si="241"/>
         <v>3414</v>
       </c>
       <c r="BG144" s="2">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>7875</v>
       </c>
     </row>
